--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17385" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>物品引索</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>钻石</t>
+  </si>
+  <si>
+    <t>item_server/temp1</t>
   </si>
   <si>
     <t>充值积分</t>
@@ -1333,11 +1336,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{769D7DF7-F42E-46CE-86E4-88E6E470D476}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0448C24A-B13A-4129-9AEB-FBD2A96118DF}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EEA91555-1A14-4961-9DEC-8B402653722C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{061C949C-3881-44EF-9250-72990DAF2B1A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -1647,11 +1650,11 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1877,7 +1880,9 @@
       <c r="M3" s="14">
         <v>0</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -1902,10 +1907,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -1933,7 +1938,9 @@
       <c r="M4" s="10">
         <v>0</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -1958,10 +1965,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="14">
         <v>1</v>
@@ -1983,7 +1990,7 @@
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="14">
         <v>1</v>
@@ -1991,7 +1998,9 @@
       <c r="M5" s="14">
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -2016,10 +2025,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -2047,7 +2056,9 @@
       <c r="M6" s="10">
         <v>0</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -2071,10 +2082,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="14">
         <v>1</v>
@@ -2102,7 +2113,9 @@
       <c r="M7" s="14">
         <v>0</v>
       </c>
-      <c r="N7" s="22"/>
+      <c r="N7" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -2126,10 +2139,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -2157,7 +2170,9 @@
       <c r="M8" s="10">
         <v>0</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -2181,10 +2196,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -2212,7 +2227,9 @@
       <c r="M9" s="14">
         <v>0</v>
       </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -2236,10 +2253,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2267,7 +2284,9 @@
       <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -2291,10 +2310,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
@@ -2322,7 +2341,9 @@
       <c r="M11" s="14">
         <v>0</v>
       </c>
-      <c r="N11" s="22"/>
+      <c r="N11" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -2346,10 +2367,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -2377,7 +2398,9 @@
       <c r="M12" s="10">
         <v>0</v>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -2401,10 +2424,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
@@ -2432,7 +2455,9 @@
       <c r="M13" s="18">
         <v>0</v>
       </c>
-      <c r="N13" s="24"/>
+      <c r="N13" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>物品引索</t>
   </si>
@@ -147,16 +147,28 @@
     <t>充值积分</t>
   </si>
   <si>
+    <t>item_server/temp2</t>
+  </si>
+  <si>
     <t>礼包A</t>
   </si>
   <si>
     <t>1_1000,2_100</t>
   </si>
   <si>
+    <t>item_server/temp3</t>
+  </si>
+  <si>
     <t>特权A</t>
   </si>
   <si>
+    <t>item_server/temp4</t>
+  </si>
+  <si>
     <t>抽奖券</t>
+  </si>
+  <si>
+    <t>item_server/temp5</t>
   </si>
   <si>
     <t>材料1</t>
@@ -1336,11 +1348,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0448C24A-B13A-4129-9AEB-FBD2A96118DF}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7EFC8CFB-8EBC-4202-BB79-FC13C72A7D50}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{061C949C-3881-44EF-9250-72990DAF2B1A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0754C2B1-2F20-4233-A31F-3543AA27AA07}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -1650,11 +1662,11 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1915,8 +1927,8 @@
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
-        <v>1</v>
+      <c r="E4" s="14">
+        <v>2</v>
       </c>
       <c r="F4" s="16">
         <v>1</v>
@@ -1939,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -1965,16 +1977,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="14">
         <v>1</v>
       </c>
       <c r="E5" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="15">
         <v>2</v>
@@ -1990,7 +2002,7 @@
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="14">
         <v>1</v>
@@ -1999,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2025,16 +2037,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="10">
-        <v>1</v>
+      <c r="E6" s="14">
+        <v>4</v>
       </c>
       <c r="F6" s="16">
         <v>2</v>
@@ -2057,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -2082,16 +2094,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" s="14">
         <v>1</v>
       </c>
       <c r="E7" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="15">
         <v>2</v>
@@ -2114,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -2139,16 +2151,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E8" s="10">
-        <v>1</v>
+      <c r="E8" s="14">
+        <v>6</v>
       </c>
       <c r="F8" s="16">
         <v>2</v>
@@ -2196,16 +2208,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
       </c>
       <c r="E9" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" s="15">
         <v>2</v>
@@ -2228,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -2253,10 +2265,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2285,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -2310,16 +2322,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
       </c>
       <c r="E11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="15">
         <v>2</v>
@@ -2342,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -2367,16 +2379,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
       </c>
       <c r="E12" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="16">
         <v>2</v>
@@ -2399,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
@@ -2424,16 +2436,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
       </c>
       <c r="E13" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" s="19">
         <v>2</v>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="179">
   <si>
     <t>物品引索</t>
   </si>
@@ -52,11 +52,6 @@
 2 物品类型</t>
   </si>
   <si>
-    <t>例如钻石的类型唯一id为 {1-1}
-1 货币类型 1钻石 2充值积分
-2 物品类型 1礼包 2特权 3抽奖券 4材料</t>
-  </si>
-  <si>
     <t>0可合并,1不可合并</t>
   </si>
   <si>
@@ -102,9 +97,6 @@
     <t>affiliation_class</t>
   </si>
   <si>
-    <t>affiliation_class_type</t>
-  </si>
-  <si>
     <t>merge</t>
   </si>
   <si>
@@ -187,6 +179,396 @@
   </si>
   <si>
     <t>材料6</t>
+  </si>
+  <si>
+    <t>炼狱熊怪</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>炼狱羚羊</t>
+  </si>
+  <si>
+    <t>疾行火熊</t>
+  </si>
+  <si>
+    <t>炼狱亡魂</t>
+  </si>
+  <si>
+    <t>炼狱狼</t>
+  </si>
+  <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>炼狱小双头犬</t>
+  </si>
+  <si>
+    <t>炽甲虫战士</t>
+  </si>
+  <si>
+    <t>炽甲虫战车</t>
+  </si>
+  <si>
+    <t>远古炼狱巨人</t>
+  </si>
+  <si>
+    <t>骷髅勇士</t>
+  </si>
+  <si>
+    <t>炼狱火</t>
+  </si>
+  <si>
+    <t>炼狱石甲虫</t>
+  </si>
+  <si>
+    <t>炼狱战熊</t>
+  </si>
+  <si>
+    <t>炼狱界弓</t>
+  </si>
+  <si>
+    <t>烈焰战龟</t>
+  </si>
+  <si>
+    <t>炼狱蜘蛛</t>
+  </si>
+  <si>
+    <t>炼狱猎蜥</t>
+  </si>
+  <si>
+    <t>炼狱火精灵</t>
+  </si>
+  <si>
+    <t>炼狱领主</t>
+  </si>
+  <si>
+    <t>熔岩飞翼兽</t>
+  </si>
+  <si>
+    <t>冥火剑圣</t>
+  </si>
+  <si>
+    <t>双斧狂战</t>
+  </si>
+  <si>
+    <t>熔岩卫兵</t>
+  </si>
+  <si>
+    <t>远古炼狱火</t>
+  </si>
+  <si>
+    <t>熔岩巨人</t>
+  </si>
+  <si>
+    <t>烈焰神狐</t>
+  </si>
+  <si>
+    <t>炼狱双头犬</t>
+  </si>
+  <si>
+    <t>烈焰战神</t>
+  </si>
+  <si>
+    <t>炼狱之王</t>
+  </si>
+  <si>
+    <t>小狗头人</t>
+  </si>
+  <si>
+    <t>雷电之魂</t>
+  </si>
+  <si>
+    <t>萨特窃神者</t>
+  </si>
+  <si>
+    <t>远古岚肤兽</t>
+  </si>
+  <si>
+    <t>雷树精兽</t>
+  </si>
+  <si>
+    <t>雷角兽</t>
+  </si>
+  <si>
+    <t>雷须兽</t>
+  </si>
+  <si>
+    <t>霹雳怪手</t>
+  </si>
+  <si>
+    <t>雷霆晶龟</t>
+  </si>
+  <si>
+    <t>幼年青眼雷龙</t>
+  </si>
+  <si>
+    <t>雷羽鹫</t>
+  </si>
+  <si>
+    <t>雷山鹫</t>
+  </si>
+  <si>
+    <t>雷翼鹫</t>
+  </si>
+  <si>
+    <t>霹雳怪虫</t>
+  </si>
+  <si>
+    <t>独角雷兽</t>
+  </si>
+  <si>
+    <t>雷电见习者</t>
+  </si>
+  <si>
+    <t>雷霆拍熊</t>
+  </si>
+  <si>
+    <t>雷翼飞狐</t>
+  </si>
+  <si>
+    <t>远古黑龙</t>
+  </si>
+  <si>
+    <t>雷霆领主</t>
+  </si>
+  <si>
+    <t>青眼雷龙</t>
+  </si>
+  <si>
+    <t>霹雳怪泥</t>
+  </si>
+  <si>
+    <t>雷霆战蜥</t>
+  </si>
+  <si>
+    <t>霹雳女妖</t>
+  </si>
+  <si>
+    <t>雷压巨兽</t>
+  </si>
+  <si>
+    <t>雷压射手</t>
+  </si>
+  <si>
+    <t>雷霆梦魇</t>
+  </si>
+  <si>
+    <t>雷压飞翼兽</t>
+  </si>
+  <si>
+    <t>雷电掌控者</t>
+  </si>
+  <si>
+    <t>雷神鸟</t>
+  </si>
+  <si>
+    <t>闪电制造者</t>
+  </si>
+  <si>
+    <t>雷神</t>
+  </si>
+  <si>
+    <t>冰川鬼魂</t>
+  </si>
+  <si>
+    <t>极寒精灵</t>
+  </si>
+  <si>
+    <t>极寒冰狐</t>
+  </si>
+  <si>
+    <t>极地少女</t>
+  </si>
+  <si>
+    <t>冰川幼龟</t>
+  </si>
+  <si>
+    <t>冰原行者</t>
+  </si>
+  <si>
+    <t>近代冰魂（远程）</t>
+  </si>
+  <si>
+    <t>极地虎</t>
+  </si>
+  <si>
+    <t>极地小冰龙</t>
+  </si>
+  <si>
+    <t>极地小飞龙（远程）</t>
+  </si>
+  <si>
+    <t>冰晶石甲虫</t>
+  </si>
+  <si>
+    <t>冰晶小海马</t>
+  </si>
+  <si>
+    <t>冰原狐</t>
+  </si>
+  <si>
+    <t>冰原犬</t>
+  </si>
+  <si>
+    <t>冰宫守卫</t>
+  </si>
+  <si>
+    <t>冰宫奴仆（远程）</t>
+  </si>
+  <si>
+    <t>冰甲战熊</t>
+  </si>
+  <si>
+    <t>寒霜战士</t>
+  </si>
+  <si>
+    <t>寒霜萨满（远程）</t>
+  </si>
+  <si>
+    <t>极地熊战士</t>
+  </si>
+  <si>
+    <t>冰原猩猩兽</t>
+  </si>
+  <si>
+    <t>极地巨人</t>
+  </si>
+  <si>
+    <t>极地四脚兽</t>
+  </si>
+  <si>
+    <t>冰原巨兽(远程）</t>
+  </si>
+  <si>
+    <t>极冰守卫</t>
+  </si>
+  <si>
+    <t>冰原守卫</t>
+  </si>
+  <si>
+    <t>极寒领主</t>
+  </si>
+  <si>
+    <t>极寒蛛美丽</t>
+  </si>
+  <si>
+    <t>冰原领主</t>
+  </si>
+  <si>
+    <t>冰宫女王</t>
+  </si>
+  <si>
+    <t>绿洲鬼魂</t>
+  </si>
+  <si>
+    <t>绿洲丧尸</t>
+  </si>
+  <si>
+    <t>幼年沙龙</t>
+  </si>
+  <si>
+    <t>绿洲精灵幼龙</t>
+  </si>
+  <si>
+    <t>绿洲跳跳蛙</t>
+  </si>
+  <si>
+    <t>绿洲剧毒蛇</t>
+  </si>
+  <si>
+    <t>绿洲剧毒飞蛇（远程）</t>
+  </si>
+  <si>
+    <t>狂沙怪手</t>
+  </si>
+  <si>
+    <t>绿洲精灵马</t>
+  </si>
+  <si>
+    <t>绿洲魔法飞马（远程）</t>
+  </si>
+  <si>
+    <t>绿洲怪手</t>
+  </si>
+  <si>
+    <t>毒风鹫</t>
+  </si>
+  <si>
+    <t>绿洲小精灵</t>
+  </si>
+  <si>
+    <t>沙漠金龟</t>
+  </si>
+  <si>
+    <t>天辉高级战士</t>
+  </si>
+  <si>
+    <t>天辉高级术士（远程）</t>
+  </si>
+  <si>
+    <t>独角沙兽</t>
+  </si>
+  <si>
+    <t>高级精灵战士</t>
+  </si>
+  <si>
+    <t>高级精灵战车（远程）</t>
+  </si>
+  <si>
+    <t>风沙狼</t>
+  </si>
+  <si>
+    <t>风沙狮</t>
+  </si>
+  <si>
+    <t>风沙战熊</t>
+  </si>
+  <si>
+    <t>绿洲守卫</t>
+  </si>
+  <si>
+    <t>风沙刺鼬</t>
+  </si>
+  <si>
+    <t>绿洲女巫(远程）</t>
+  </si>
+  <si>
+    <t>砂砾小巨人</t>
+  </si>
+  <si>
+    <t>狂沙熊战士</t>
+  </si>
+  <si>
+    <t>黄沙护卫</t>
+  </si>
+  <si>
+    <t>绿洲之主</t>
+  </si>
+  <si>
+    <t>黄沙之主</t>
+  </si>
+  <si>
+    <t>风神</t>
+  </si>
+  <si>
+    <t>祈风使</t>
+  </si>
+  <si>
+    <t>寒冰使</t>
+  </si>
+  <si>
+    <t>霹雳使</t>
+  </si>
+  <si>
+    <t>烈火使</t>
+  </si>
+  <si>
+    <t>元素之主</t>
   </si>
 </sst>
 </file>
@@ -201,7 +583,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +611,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -243,12 +625,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
@@ -611,7 +987,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -728,6 +1104,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="0"/>
       </left>
@@ -789,6 +1195,21 @@
       </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,138 +1331,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,9 +1499,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1102,6 +1520,12 @@
     <xf numFmtId="177" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,46 +1541,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1348,11 +1775,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7EFC8CFB-8EBC-4202-BB79-FC13C72A7D50}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CFE777D4-7587-44DA-BB18-3AC8B481B165}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0754C2B1-2F20-4233-A31F-3543AA27AA07}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AC026AC7-032D-420E-8B82-20C87C0CB900}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -1659,14 +2086,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H125" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="M146" sqref="M146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1676,31 +2103,31 @@
     <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.675" customWidth="1"/>
     <col min="5" max="5" width="10.5083333333333" customWidth="1"/>
-    <col min="6" max="7" width="50.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.0083333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.675" customWidth="1"/>
-    <col min="11" max="11" width="15.675" customWidth="1"/>
-    <col min="12" max="12" width="12.3416666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.175" customWidth="1"/>
-    <col min="14" max="14" width="36.8416666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.625" customWidth="1"/>
-    <col min="16" max="16" width="27.175" customWidth="1"/>
-    <col min="17" max="18" width="29.675" customWidth="1"/>
-    <col min="19" max="19" width="26.675" customWidth="1"/>
-    <col min="20" max="20" width="24.3416666666667" customWidth="1"/>
-    <col min="21" max="21" width="16.3416666666667" customWidth="1"/>
-    <col min="22" max="22" width="21.625" customWidth="1"/>
-    <col min="23" max="23" width="3.625" customWidth="1"/>
-    <col min="24" max="24" width="21.625" customWidth="1"/>
-    <col min="25" max="25" width="27.175" customWidth="1"/>
-    <col min="26" max="26" width="32.175" customWidth="1"/>
-    <col min="27" max="28" width="6.24166666666667" customWidth="1"/>
-    <col min="29" max="29" width="8.34166666666667" customWidth="1"/>
-    <col min="30" max="30" width="20.675" customWidth="1"/>
+    <col min="6" max="6" width="50.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.0083333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.675" customWidth="1"/>
+    <col min="10" max="10" width="15.675" customWidth="1"/>
+    <col min="11" max="11" width="12.3416666666667" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.175" customWidth="1"/>
+    <col min="13" max="13" width="36.8416666666667" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="27.175" customWidth="1"/>
+    <col min="16" max="17" width="29.675" customWidth="1"/>
+    <col min="18" max="18" width="26.675" customWidth="1"/>
+    <col min="19" max="19" width="24.3416666666667" customWidth="1"/>
+    <col min="20" max="20" width="16.3416666666667" customWidth="1"/>
+    <col min="21" max="21" width="21.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="21.625" customWidth="1"/>
+    <col min="24" max="24" width="27.175" customWidth="1"/>
+    <col min="25" max="25" width="32.175" customWidth="1"/>
+    <col min="26" max="27" width="6.24166666666667" customWidth="1"/>
+    <col min="28" max="28" width="8.34166666666667" customWidth="1"/>
+    <col min="29" max="29" width="20.675" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="105" customHeight="1" spans="1:30">
+    <row r="1" ht="105" customHeight="1" spans="1:29">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +2158,7 @@
       <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -1743,532 +2170,505 @@
       <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="U1" s="26"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="25" t="s">
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:29">
+      <c r="A2" s="8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:30">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="9">
+        <v>1</v>
+      </c>
+      <c r="P2" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>3</v>
+      </c>
+      <c r="R2" s="10">
+        <v>4</v>
+      </c>
+      <c r="S2" s="10">
+        <v>5</v>
+      </c>
+      <c r="T2" s="10">
+        <v>6</v>
+      </c>
+      <c r="U2" s="28">
+        <v>7</v>
+      </c>
+      <c r="V2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="W2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9">
+      <c r="X2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="9">
         <v>2</v>
       </c>
-      <c r="R2" s="9">
+      <c r="Z2" s="9">
         <v>3</v>
       </c>
-      <c r="S2" s="10">
+      <c r="AA2" s="9">
         <v>4</v>
       </c>
-      <c r="T2" s="10">
-        <v>5</v>
-      </c>
-      <c r="U2" s="10">
-        <v>6</v>
-      </c>
-      <c r="V2" s="27">
-        <v>7</v>
-      </c>
-      <c r="W2" s="28" t="s">
+      <c r="AB2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="8" t="s">
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:29">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD2" s="27" t="s">
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:30">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="12"/>
       <c r="X3" s="13"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:30">
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:29">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16">
-        <v>2</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
       <c r="L4" s="10">
         <v>0</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="M4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="8"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:30">
-      <c r="A5" s="13">
+      <c r="AC4" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:29">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>3</v>
-      </c>
-      <c r="F5" s="15">
-        <v>2</v>
-      </c>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="14">
-        <v>1</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="30"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="12"/>
       <c r="X5" s="13"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:30">
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:29">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="33"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:29">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>4</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5</v>
+      </c>
+      <c r="F7" s="14">
         <v>2</v>
       </c>
-      <c r="G6" s="16">
-        <v>2</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14" t="s">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="32"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:30">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>5</v>
-      </c>
-      <c r="F7" s="15">
-        <v>2</v>
-      </c>
-      <c r="G7" s="15">
-        <v>3</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="34"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:30">
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="35"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:29">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>6</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>2</v>
       </c>
-      <c r="G8" s="16">
-        <v>4</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
       <c r="L8" s="10">
         <v>0</v>
       </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14" t="s">
+      <c r="M8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="33"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:29">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>7</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="32"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:30">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>7</v>
-      </c>
-      <c r="F9" s="15">
-        <v>2</v>
-      </c>
-      <c r="G9" s="15">
-        <v>4</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="34"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:30">
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="35"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:29">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2276,113 +2676,107 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
-        <v>4</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
       <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14" t="s">
+      <c r="M10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="33"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:29">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="32"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:30">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15">
-        <v>2</v>
-      </c>
-      <c r="G11" s="15">
-        <v>4</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="34"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:30">
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="35"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:29">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -2390,105 +2784,5299 @@
       <c r="E12" s="10">
         <v>3</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="33"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:29">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
         <v>4</v>
       </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="32"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="17.25" spans="1:30">
-      <c r="A13" s="17">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="37"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:29">
+      <c r="A14" s="19">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>23</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:29">
+      <c r="A15" s="19">
+        <v>1002</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="17">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:29">
+      <c r="A16" s="19">
+        <v>1003</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20">
+        <v>3</v>
+      </c>
+      <c r="F16" s="18">
+        <v>23</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="17">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:29">
+      <c r="A17" s="19">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>23</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:29">
+      <c r="A18" s="19">
+        <v>1005</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18">
+        <v>23</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:29">
+      <c r="A19" s="19">
+        <v>1006</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18">
+        <v>23</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:29">
+      <c r="A20" s="19">
+        <v>1007</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20">
         <v>4</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F20" s="18">
+        <v>23</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18" spans="1:29">
+      <c r="A21" s="19">
+        <v>1008</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20">
         <v>2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="F21" s="18">
+        <v>23</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="17">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC21" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="1:29">
+      <c r="A22" s="19">
+        <v>1009</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18">
+        <v>23</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="1:29">
+      <c r="A23" s="19">
+        <v>1010</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18">
+        <v>23</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC23" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="18" spans="1:29">
+      <c r="A24" s="19">
+        <v>1011</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20">
+        <v>2</v>
+      </c>
+      <c r="F24" s="18">
+        <v>23</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="18" spans="1:29">
+      <c r="A25" s="19">
+        <v>1012</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20">
+        <v>3</v>
+      </c>
+      <c r="F25" s="18">
+        <v>23</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC25" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="1:29">
+      <c r="A26" s="19">
+        <v>1013</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20">
         <v>4</v>
       </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
-      <c r="I13" s="19">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="18">
-        <v>0</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="36"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25"/>
+      <c r="F26" s="18">
+        <v>23</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC26" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="1:29">
+      <c r="A27" s="19">
+        <v>1014</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20">
+        <v>3</v>
+      </c>
+      <c r="F27" s="18">
+        <v>23</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="17">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC27" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="18" spans="1:29">
+      <c r="A28" s="19">
+        <v>1015</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20">
+        <v>3</v>
+      </c>
+      <c r="F28" s="18">
+        <v>23</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="18" spans="1:29">
+      <c r="A29" s="19">
+        <v>1016</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="20">
+        <v>3</v>
+      </c>
+      <c r="F29" s="18">
+        <v>23</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC29" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="18" spans="1:29">
+      <c r="A30" s="19">
+        <v>1017</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20">
+        <v>3</v>
+      </c>
+      <c r="F30" s="18">
+        <v>23</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="17">
+        <v>0</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC30" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="18" spans="1:29">
+      <c r="A31" s="19">
+        <v>1018</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="20">
+        <v>2</v>
+      </c>
+      <c r="F31" s="18">
+        <v>23</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="17">
+        <v>0</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC31" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="18" spans="1:29">
+      <c r="A32" s="19">
+        <v>1019</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20">
+        <v>4</v>
+      </c>
+      <c r="F32" s="18">
+        <v>23</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="17">
+        <v>0</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC32" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="18" spans="1:29">
+      <c r="A33" s="19">
+        <v>1020</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="20">
+        <v>3</v>
+      </c>
+      <c r="F33" s="18">
+        <v>23</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="17">
+        <v>0</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC33" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="18" spans="1:29">
+      <c r="A34" s="19">
+        <v>1021</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="20">
+        <v>2</v>
+      </c>
+      <c r="F34" s="18">
+        <v>23</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="17">
+        <v>0</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC34" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="18" spans="1:29">
+      <c r="A35" s="19">
+        <v>1022</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20">
+        <v>4</v>
+      </c>
+      <c r="F35" s="18">
+        <v>23</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="17">
+        <v>0</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC35" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="18" spans="1:29">
+      <c r="A36" s="19">
+        <v>1023</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="20">
+        <v>2</v>
+      </c>
+      <c r="F36" s="18">
+        <v>23</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="17">
+        <v>0</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC36" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="18" spans="1:29">
+      <c r="A37" s="19">
+        <v>1024</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1</v>
+      </c>
+      <c r="E37" s="20">
+        <v>3</v>
+      </c>
+      <c r="F37" s="18">
+        <v>23</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="17">
+        <v>0</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC37" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="18" spans="1:29">
+      <c r="A38" s="19">
+        <v>1025</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="17">
+        <v>1</v>
+      </c>
+      <c r="E38" s="20">
+        <v>2</v>
+      </c>
+      <c r="F38" s="18">
+        <v>23</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC38" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="1:29">
+      <c r="A39" s="19">
+        <v>1026</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="20">
+        <v>3</v>
+      </c>
+      <c r="F39" s="18">
+        <v>23</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="17">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC39" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="18" spans="1:29">
+      <c r="A40" s="19">
+        <v>1027</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="20">
+        <v>2</v>
+      </c>
+      <c r="F40" s="18">
+        <v>23</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="17">
+        <v>0</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC40" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="18" spans="1:29">
+      <c r="A41" s="19">
+        <v>1028</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" s="20">
+        <v>3</v>
+      </c>
+      <c r="F41" s="18">
+        <v>23</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="17">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC41" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="18" spans="1:29">
+      <c r="A42" s="19">
+        <v>1029</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="20">
+        <v>3</v>
+      </c>
+      <c r="F42" s="18">
+        <v>23</v>
+      </c>
+      <c r="G42" s="18">
+        <v>0</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="17">
+        <v>0</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC42" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="18" spans="1:29">
+      <c r="A43" s="19">
+        <v>1030</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="20">
+        <v>4</v>
+      </c>
+      <c r="F43" s="18">
+        <v>23</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="17">
+        <v>0</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC43" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="18" spans="1:29">
+      <c r="A44" s="19">
+        <v>1031</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="17">
+        <v>1</v>
+      </c>
+      <c r="E44" s="20">
+        <v>3</v>
+      </c>
+      <c r="F44" s="18">
+        <v>23</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="17">
+        <v>0</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC44" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="18" spans="1:29">
+      <c r="A45" s="19">
+        <v>1032</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="17">
+        <v>1</v>
+      </c>
+      <c r="E45" s="20">
+        <v>4</v>
+      </c>
+      <c r="F45" s="18">
+        <v>23</v>
+      </c>
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
+        <v>0</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="17">
+        <v>0</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC45" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="18" spans="1:29">
+      <c r="A46" s="19">
+        <v>1033</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="17">
+        <v>1</v>
+      </c>
+      <c r="E46" s="20">
+        <v>3</v>
+      </c>
+      <c r="F46" s="18">
+        <v>23</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18">
+        <v>0</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="17">
+        <v>0</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC46" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="18" spans="1:29">
+      <c r="A47" s="19">
+        <v>1034</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="17">
+        <v>1</v>
+      </c>
+      <c r="E47" s="20">
+        <v>4</v>
+      </c>
+      <c r="F47" s="18">
+        <v>23</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18">
+        <v>0</v>
+      </c>
+      <c r="I47" s="17"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="17">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC47" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="18" spans="1:29">
+      <c r="A48" s="19">
+        <v>1035</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="E48" s="20">
+        <v>2</v>
+      </c>
+      <c r="F48" s="18">
+        <v>23</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18">
+        <v>0</v>
+      </c>
+      <c r="I48" s="17"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="17">
+        <v>0</v>
+      </c>
+      <c r="L48" s="17">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC48" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="18" spans="1:29">
+      <c r="A49" s="19">
+        <v>1036</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="17">
+        <v>1</v>
+      </c>
+      <c r="E49" s="20">
+        <v>4</v>
+      </c>
+      <c r="F49" s="18">
+        <v>23</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0</v>
+      </c>
+      <c r="H49" s="18">
+        <v>0</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="17">
+        <v>0</v>
+      </c>
+      <c r="L49" s="17">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC49" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="18" spans="1:29">
+      <c r="A50" s="19">
+        <v>1037</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" s="20">
+        <v>5</v>
+      </c>
+      <c r="F50" s="18">
+        <v>23</v>
+      </c>
+      <c r="G50" s="18">
+        <v>0</v>
+      </c>
+      <c r="H50" s="18">
+        <v>0</v>
+      </c>
+      <c r="I50" s="17"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="17">
+        <v>0</v>
+      </c>
+      <c r="L50" s="17">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC50" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="18" spans="1:29">
+      <c r="A51" s="19">
+        <v>1038</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="17">
+        <v>1</v>
+      </c>
+      <c r="E51" s="20">
+        <v>4</v>
+      </c>
+      <c r="F51" s="18">
+        <v>23</v>
+      </c>
+      <c r="G51" s="18">
+        <v>0</v>
+      </c>
+      <c r="H51" s="18">
+        <v>0</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="17">
+        <v>0</v>
+      </c>
+      <c r="L51" s="17">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC51" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="18" spans="1:29">
+      <c r="A52" s="19">
+        <v>1039</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="17">
+        <v>1</v>
+      </c>
+      <c r="E52" s="20">
+        <v>4</v>
+      </c>
+      <c r="F52" s="18">
+        <v>23</v>
+      </c>
+      <c r="G52" s="18">
+        <v>0</v>
+      </c>
+      <c r="H52" s="18">
+        <v>0</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="17">
+        <v>0</v>
+      </c>
+      <c r="L52" s="17">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC52" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="18" spans="1:29">
+      <c r="A53" s="19">
+        <v>1040</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="17">
+        <v>1</v>
+      </c>
+      <c r="E53" s="20">
+        <v>2</v>
+      </c>
+      <c r="F53" s="18">
+        <v>23</v>
+      </c>
+      <c r="G53" s="18">
+        <v>0</v>
+      </c>
+      <c r="H53" s="18">
+        <v>0</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="17">
+        <v>0</v>
+      </c>
+      <c r="L53" s="17">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC53" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="18" spans="1:29">
+      <c r="A54" s="19">
+        <v>1041</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="17">
+        <v>1</v>
+      </c>
+      <c r="E54" s="20">
+        <v>3</v>
+      </c>
+      <c r="F54" s="18">
+        <v>23</v>
+      </c>
+      <c r="G54" s="18">
+        <v>0</v>
+      </c>
+      <c r="H54" s="18">
+        <v>0</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="17">
+        <v>0</v>
+      </c>
+      <c r="L54" s="17">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC54" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="18" spans="1:29">
+      <c r="A55" s="19">
+        <v>1042</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="17">
+        <v>1</v>
+      </c>
+      <c r="E55" s="20">
+        <v>2</v>
+      </c>
+      <c r="F55" s="18">
+        <v>23</v>
+      </c>
+      <c r="G55" s="18">
+        <v>0</v>
+      </c>
+      <c r="H55" s="18">
+        <v>0</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="17">
+        <v>0</v>
+      </c>
+      <c r="L55" s="17">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC55" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="18" spans="1:29">
+      <c r="A56" s="19">
+        <v>1043</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="17">
+        <v>1</v>
+      </c>
+      <c r="E56" s="20">
+        <v>3</v>
+      </c>
+      <c r="F56" s="18">
+        <v>23</v>
+      </c>
+      <c r="G56" s="18">
+        <v>0</v>
+      </c>
+      <c r="H56" s="18">
+        <v>0</v>
+      </c>
+      <c r="I56" s="17"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="17">
+        <v>0</v>
+      </c>
+      <c r="L56" s="17">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC56" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="18" spans="1:29">
+      <c r="A57" s="19">
+        <v>1044</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="17">
+        <v>1</v>
+      </c>
+      <c r="E57" s="20">
+        <v>3</v>
+      </c>
+      <c r="F57" s="18">
+        <v>23</v>
+      </c>
+      <c r="G57" s="18">
+        <v>0</v>
+      </c>
+      <c r="H57" s="18">
+        <v>0</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="17">
+        <v>0</v>
+      </c>
+      <c r="L57" s="17">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC57" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="18" spans="1:29">
+      <c r="A58" s="19">
+        <v>1045</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="17">
+        <v>1</v>
+      </c>
+      <c r="E58" s="20">
+        <v>4</v>
+      </c>
+      <c r="F58" s="18">
+        <v>23</v>
+      </c>
+      <c r="G58" s="18">
+        <v>0</v>
+      </c>
+      <c r="H58" s="18">
+        <v>0</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="17">
+        <v>0</v>
+      </c>
+      <c r="L58" s="17">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC58" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="18" spans="1:29">
+      <c r="A59" s="19">
+        <v>1046</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="17">
+        <v>1</v>
+      </c>
+      <c r="E59" s="20">
+        <v>2</v>
+      </c>
+      <c r="F59" s="18">
+        <v>23</v>
+      </c>
+      <c r="G59" s="18">
+        <v>0</v>
+      </c>
+      <c r="H59" s="18">
+        <v>0</v>
+      </c>
+      <c r="I59" s="17"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="17">
+        <v>0</v>
+      </c>
+      <c r="L59" s="17">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC59" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="18" spans="1:29">
+      <c r="A60" s="19">
+        <v>1047</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="17">
+        <v>1</v>
+      </c>
+      <c r="E60" s="20">
+        <v>2</v>
+      </c>
+      <c r="F60" s="18">
+        <v>23</v>
+      </c>
+      <c r="G60" s="18">
+        <v>0</v>
+      </c>
+      <c r="H60" s="18">
+        <v>0</v>
+      </c>
+      <c r="I60" s="17"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="17">
+        <v>0</v>
+      </c>
+      <c r="L60" s="17">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC60" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="18" spans="1:29">
+      <c r="A61" s="19">
+        <v>1048</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="17">
+        <v>1</v>
+      </c>
+      <c r="E61" s="20">
+        <v>2</v>
+      </c>
+      <c r="F61" s="18">
+        <v>23</v>
+      </c>
+      <c r="G61" s="18">
+        <v>0</v>
+      </c>
+      <c r="H61" s="18">
+        <v>0</v>
+      </c>
+      <c r="I61" s="17"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="17">
+        <v>0</v>
+      </c>
+      <c r="L61" s="17">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC61" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="18" spans="1:29">
+      <c r="A62" s="19">
+        <v>1049</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="17">
+        <v>1</v>
+      </c>
+      <c r="E62" s="20">
+        <v>4</v>
+      </c>
+      <c r="F62" s="18">
+        <v>23</v>
+      </c>
+      <c r="G62" s="18">
+        <v>0</v>
+      </c>
+      <c r="H62" s="18">
+        <v>0</v>
+      </c>
+      <c r="I62" s="17"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="17">
+        <v>0</v>
+      </c>
+      <c r="L62" s="17">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC62" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="18" spans="1:29">
+      <c r="A63" s="19">
+        <v>1050</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="17">
+        <v>1</v>
+      </c>
+      <c r="E63" s="20">
+        <v>3</v>
+      </c>
+      <c r="F63" s="18">
+        <v>23</v>
+      </c>
+      <c r="G63" s="18">
+        <v>0</v>
+      </c>
+      <c r="H63" s="18">
+        <v>0</v>
+      </c>
+      <c r="I63" s="17"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="17">
+        <v>0</v>
+      </c>
+      <c r="L63" s="17">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC63" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="18" spans="1:29">
+      <c r="A64" s="19">
+        <v>1051</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="17">
+        <v>1</v>
+      </c>
+      <c r="E64" s="20">
+        <v>3</v>
+      </c>
+      <c r="F64" s="18">
+        <v>23</v>
+      </c>
+      <c r="G64" s="18">
+        <v>0</v>
+      </c>
+      <c r="H64" s="18">
+        <v>0</v>
+      </c>
+      <c r="I64" s="17"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="17">
+        <v>0</v>
+      </c>
+      <c r="L64" s="17">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC64" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="18" spans="1:29">
+      <c r="A65" s="19">
+        <v>1052</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="17">
+        <v>1</v>
+      </c>
+      <c r="E65" s="20">
+        <v>3</v>
+      </c>
+      <c r="F65" s="18">
+        <v>23</v>
+      </c>
+      <c r="G65" s="18">
+        <v>0</v>
+      </c>
+      <c r="H65" s="18">
+        <v>0</v>
+      </c>
+      <c r="I65" s="17"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="17">
+        <v>0</v>
+      </c>
+      <c r="L65" s="17">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC65" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="18" spans="1:29">
+      <c r="A66" s="19">
+        <v>1053</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="17">
+        <v>1</v>
+      </c>
+      <c r="E66" s="20">
+        <v>3</v>
+      </c>
+      <c r="F66" s="18">
+        <v>23</v>
+      </c>
+      <c r="G66" s="18">
+        <v>0</v>
+      </c>
+      <c r="H66" s="18">
+        <v>0</v>
+      </c>
+      <c r="I66" s="17"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="17">
+        <v>0</v>
+      </c>
+      <c r="L66" s="17">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC66" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="18" spans="1:29">
+      <c r="A67" s="19">
+        <v>1054</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="17">
+        <v>1</v>
+      </c>
+      <c r="E67" s="20">
+        <v>4</v>
+      </c>
+      <c r="F67" s="18">
+        <v>23</v>
+      </c>
+      <c r="G67" s="18">
+        <v>0</v>
+      </c>
+      <c r="H67" s="18">
+        <v>0</v>
+      </c>
+      <c r="I67" s="17"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="17">
+        <v>0</v>
+      </c>
+      <c r="L67" s="17">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC67" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="18" spans="1:29">
+      <c r="A68" s="19">
+        <v>1055</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="17">
+        <v>1</v>
+      </c>
+      <c r="E68" s="20">
+        <v>3</v>
+      </c>
+      <c r="F68" s="18">
+        <v>23</v>
+      </c>
+      <c r="G68" s="18">
+        <v>0</v>
+      </c>
+      <c r="H68" s="18">
+        <v>0</v>
+      </c>
+      <c r="I68" s="17"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="17">
+        <v>0</v>
+      </c>
+      <c r="L68" s="17">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC68" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" ht="18" spans="1:29">
+      <c r="A69" s="19">
+        <v>1056</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="17">
+        <v>1</v>
+      </c>
+      <c r="E69" s="20">
+        <v>2</v>
+      </c>
+      <c r="F69" s="18">
+        <v>23</v>
+      </c>
+      <c r="G69" s="18">
+        <v>0</v>
+      </c>
+      <c r="H69" s="18">
+        <v>0</v>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="17">
+        <v>0</v>
+      </c>
+      <c r="L69" s="17">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC69" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="18" spans="1:29">
+      <c r="A70" s="19">
+        <v>1057</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="17">
+        <v>1</v>
+      </c>
+      <c r="E70" s="20">
+        <v>2</v>
+      </c>
+      <c r="F70" s="18">
+        <v>23</v>
+      </c>
+      <c r="G70" s="18">
+        <v>0</v>
+      </c>
+      <c r="H70" s="18">
+        <v>0</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="17">
+        <v>0</v>
+      </c>
+      <c r="L70" s="17">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC70" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="18" spans="1:29">
+      <c r="A71" s="19">
+        <v>1058</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="17">
+        <v>1</v>
+      </c>
+      <c r="E71" s="20">
+        <v>3</v>
+      </c>
+      <c r="F71" s="18">
+        <v>23</v>
+      </c>
+      <c r="G71" s="18">
+        <v>0</v>
+      </c>
+      <c r="H71" s="18">
+        <v>0</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="17">
+        <v>0</v>
+      </c>
+      <c r="L71" s="17">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC71" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="18" spans="1:29">
+      <c r="A72" s="19">
+        <v>1059</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="17">
+        <v>1</v>
+      </c>
+      <c r="E72" s="20">
+        <v>3</v>
+      </c>
+      <c r="F72" s="18">
+        <v>23</v>
+      </c>
+      <c r="G72" s="18">
+        <v>0</v>
+      </c>
+      <c r="H72" s="18">
+        <v>0</v>
+      </c>
+      <c r="I72" s="17"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="17">
+        <v>0</v>
+      </c>
+      <c r="L72" s="17">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC72" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="18" spans="1:29">
+      <c r="A73" s="19">
+        <v>1060</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="17">
+        <v>1</v>
+      </c>
+      <c r="E73" s="20">
+        <v>2</v>
+      </c>
+      <c r="F73" s="18">
+        <v>23</v>
+      </c>
+      <c r="G73" s="18">
+        <v>0</v>
+      </c>
+      <c r="H73" s="18">
+        <v>0</v>
+      </c>
+      <c r="I73" s="17"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="17">
+        <v>0</v>
+      </c>
+      <c r="L73" s="17">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC73" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" ht="18" spans="1:29">
+      <c r="A74" s="19">
+        <v>1061</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="17">
+        <v>1</v>
+      </c>
+      <c r="E74" s="20">
+        <v>4</v>
+      </c>
+      <c r="F74" s="18">
+        <v>23</v>
+      </c>
+      <c r="G74" s="18">
+        <v>0</v>
+      </c>
+      <c r="H74" s="18">
+        <v>0</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="17">
+        <v>0</v>
+      </c>
+      <c r="L74" s="17">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC74" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="18" spans="1:29">
+      <c r="A75" s="19">
+        <v>1062</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="17">
+        <v>1</v>
+      </c>
+      <c r="E75" s="20">
+        <v>4</v>
+      </c>
+      <c r="F75" s="18">
+        <v>23</v>
+      </c>
+      <c r="G75" s="18">
+        <v>0</v>
+      </c>
+      <c r="H75" s="18">
+        <v>0</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="17">
+        <v>0</v>
+      </c>
+      <c r="L75" s="17">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC75" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="18" spans="1:29">
+      <c r="A76" s="19">
+        <v>1063</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="17">
+        <v>1</v>
+      </c>
+      <c r="E76" s="20">
+        <v>4</v>
+      </c>
+      <c r="F76" s="18">
+        <v>23</v>
+      </c>
+      <c r="G76" s="18">
+        <v>0</v>
+      </c>
+      <c r="H76" s="18">
+        <v>0</v>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="17">
+        <v>0</v>
+      </c>
+      <c r="L76" s="17">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC76" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" ht="18" spans="1:29">
+      <c r="A77" s="19">
+        <v>1064</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="17">
+        <v>1</v>
+      </c>
+      <c r="E77" s="20">
+        <v>2</v>
+      </c>
+      <c r="F77" s="18">
+        <v>23</v>
+      </c>
+      <c r="G77" s="18">
+        <v>0</v>
+      </c>
+      <c r="H77" s="18">
+        <v>0</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="17">
+        <v>0</v>
+      </c>
+      <c r="L77" s="17">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC77" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" ht="18" spans="1:29">
+      <c r="A78" s="19">
+        <v>1065</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" s="17">
+        <v>1</v>
+      </c>
+      <c r="E78" s="20">
+        <v>3</v>
+      </c>
+      <c r="F78" s="18">
+        <v>23</v>
+      </c>
+      <c r="G78" s="18">
+        <v>0</v>
+      </c>
+      <c r="H78" s="18">
+        <v>0</v>
+      </c>
+      <c r="I78" s="17"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="17">
+        <v>0</v>
+      </c>
+      <c r="L78" s="17">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC78" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" ht="18" spans="1:29">
+      <c r="A79" s="19">
+        <v>1066</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="17">
+        <v>1</v>
+      </c>
+      <c r="E79" s="20">
+        <v>2</v>
+      </c>
+      <c r="F79" s="18">
+        <v>23</v>
+      </c>
+      <c r="G79" s="18">
+        <v>0</v>
+      </c>
+      <c r="H79" s="18">
+        <v>0</v>
+      </c>
+      <c r="I79" s="17"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="17">
+        <v>0</v>
+      </c>
+      <c r="L79" s="17">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC79" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" ht="18" spans="1:29">
+      <c r="A80" s="19">
+        <v>1067</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="17">
+        <v>1</v>
+      </c>
+      <c r="E80" s="20">
+        <v>2</v>
+      </c>
+      <c r="F80" s="18">
+        <v>23</v>
+      </c>
+      <c r="G80" s="18">
+        <v>0</v>
+      </c>
+      <c r="H80" s="18">
+        <v>0</v>
+      </c>
+      <c r="I80" s="17"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="17">
+        <v>0</v>
+      </c>
+      <c r="L80" s="17">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC80" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" ht="18" spans="1:29">
+      <c r="A81" s="19">
+        <v>1068</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="17">
+        <v>1</v>
+      </c>
+      <c r="E81" s="20">
+        <v>3</v>
+      </c>
+      <c r="F81" s="18">
+        <v>23</v>
+      </c>
+      <c r="G81" s="18">
+        <v>0</v>
+      </c>
+      <c r="H81" s="18">
+        <v>0</v>
+      </c>
+      <c r="I81" s="17"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="17">
+        <v>0</v>
+      </c>
+      <c r="L81" s="17">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC81" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="18" spans="1:29">
+      <c r="A82" s="19">
+        <v>1069</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="17">
+        <v>1</v>
+      </c>
+      <c r="E82" s="20">
+        <v>3</v>
+      </c>
+      <c r="F82" s="18">
+        <v>23</v>
+      </c>
+      <c r="G82" s="18">
+        <v>0</v>
+      </c>
+      <c r="H82" s="18">
+        <v>0</v>
+      </c>
+      <c r="I82" s="17"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="17">
+        <v>0</v>
+      </c>
+      <c r="L82" s="17">
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC82" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" ht="18" spans="1:29">
+      <c r="A83" s="19">
+        <v>1070</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="17">
+        <v>1</v>
+      </c>
+      <c r="E83" s="20">
+        <v>4</v>
+      </c>
+      <c r="F83" s="18">
+        <v>23</v>
+      </c>
+      <c r="G83" s="18">
+        <v>0</v>
+      </c>
+      <c r="H83" s="18">
+        <v>0</v>
+      </c>
+      <c r="I83" s="17"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="17">
+        <v>0</v>
+      </c>
+      <c r="L83" s="17">
+        <v>0</v>
+      </c>
+      <c r="M83" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC83" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="18" spans="1:29">
+      <c r="A84" s="19">
+        <v>1071</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="17">
+        <v>1</v>
+      </c>
+      <c r="E84" s="20">
+        <v>4</v>
+      </c>
+      <c r="F84" s="18">
+        <v>23</v>
+      </c>
+      <c r="G84" s="18">
+        <v>0</v>
+      </c>
+      <c r="H84" s="18">
+        <v>0</v>
+      </c>
+      <c r="I84" s="17"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="17">
+        <v>0</v>
+      </c>
+      <c r="L84" s="17">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC84" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="18" spans="1:29">
+      <c r="A85" s="19">
+        <v>1072</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" s="17">
+        <v>1</v>
+      </c>
+      <c r="E85" s="20">
+        <v>2</v>
+      </c>
+      <c r="F85" s="18">
+        <v>23</v>
+      </c>
+      <c r="G85" s="18">
+        <v>0</v>
+      </c>
+      <c r="H85" s="18">
+        <v>0</v>
+      </c>
+      <c r="I85" s="17"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="17">
+        <v>0</v>
+      </c>
+      <c r="L85" s="17">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC85" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="18" spans="1:29">
+      <c r="A86" s="19">
+        <v>1073</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="17">
+        <v>1</v>
+      </c>
+      <c r="E86" s="20">
+        <v>2</v>
+      </c>
+      <c r="F86" s="18">
+        <v>23</v>
+      </c>
+      <c r="G86" s="18">
+        <v>0</v>
+      </c>
+      <c r="H86" s="18">
+        <v>0</v>
+      </c>
+      <c r="I86" s="17"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="17">
+        <v>0</v>
+      </c>
+      <c r="L86" s="17">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC86" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="18" spans="1:29">
+      <c r="A87" s="19">
+        <v>1074</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="17">
+        <v>1</v>
+      </c>
+      <c r="E87" s="20">
+        <v>3</v>
+      </c>
+      <c r="F87" s="18">
+        <v>23</v>
+      </c>
+      <c r="G87" s="18">
+        <v>0</v>
+      </c>
+      <c r="H87" s="18">
+        <v>0</v>
+      </c>
+      <c r="I87" s="17"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="17">
+        <v>0</v>
+      </c>
+      <c r="L87" s="17">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC87" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" ht="18" spans="1:29">
+      <c r="A88" s="19">
+        <v>1075</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="17">
+        <v>1</v>
+      </c>
+      <c r="E88" s="20">
+        <v>3</v>
+      </c>
+      <c r="F88" s="18">
+        <v>23</v>
+      </c>
+      <c r="G88" s="18">
+        <v>0</v>
+      </c>
+      <c r="H88" s="18">
+        <v>0</v>
+      </c>
+      <c r="I88" s="17"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="17">
+        <v>0</v>
+      </c>
+      <c r="L88" s="17">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC88" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" ht="18" spans="1:29">
+      <c r="A89" s="19">
+        <v>1076</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="17">
+        <v>1</v>
+      </c>
+      <c r="E89" s="20">
+        <v>3</v>
+      </c>
+      <c r="F89" s="18">
+        <v>23</v>
+      </c>
+      <c r="G89" s="18">
+        <v>0</v>
+      </c>
+      <c r="H89" s="18">
+        <v>0</v>
+      </c>
+      <c r="I89" s="17"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="17">
+        <v>0</v>
+      </c>
+      <c r="L89" s="17">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC89" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="18" spans="1:29">
+      <c r="A90" s="19">
+        <v>1077</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90" s="17">
+        <v>1</v>
+      </c>
+      <c r="E90" s="20">
+        <v>4</v>
+      </c>
+      <c r="F90" s="18">
+        <v>23</v>
+      </c>
+      <c r="G90" s="18">
+        <v>0</v>
+      </c>
+      <c r="H90" s="18">
+        <v>0</v>
+      </c>
+      <c r="I90" s="17"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="17">
+        <v>0</v>
+      </c>
+      <c r="L90" s="17">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC90" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" ht="18" spans="1:29">
+      <c r="A91" s="19">
+        <v>1078</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="17">
+        <v>1</v>
+      </c>
+      <c r="E91" s="20">
+        <v>4</v>
+      </c>
+      <c r="F91" s="18">
+        <v>23</v>
+      </c>
+      <c r="G91" s="18">
+        <v>0</v>
+      </c>
+      <c r="H91" s="18">
+        <v>0</v>
+      </c>
+      <c r="I91" s="17"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="17">
+        <v>0</v>
+      </c>
+      <c r="L91" s="17">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC91" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" ht="18" spans="1:29">
+      <c r="A92" s="19">
+        <v>1079</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="17">
+        <v>1</v>
+      </c>
+      <c r="E92" s="20">
+        <v>3</v>
+      </c>
+      <c r="F92" s="18">
+        <v>23</v>
+      </c>
+      <c r="G92" s="18">
+        <v>0</v>
+      </c>
+      <c r="H92" s="18">
+        <v>0</v>
+      </c>
+      <c r="I92" s="17"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="17">
+        <v>0</v>
+      </c>
+      <c r="L92" s="17">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC92" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" ht="18" spans="1:29">
+      <c r="A93" s="19">
+        <v>1080</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" s="17">
+        <v>1</v>
+      </c>
+      <c r="E93" s="20">
+        <v>3</v>
+      </c>
+      <c r="F93" s="18">
+        <v>23</v>
+      </c>
+      <c r="G93" s="18">
+        <v>0</v>
+      </c>
+      <c r="H93" s="18">
+        <v>0</v>
+      </c>
+      <c r="I93" s="17"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="17">
+        <v>0</v>
+      </c>
+      <c r="L93" s="17">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC93" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" ht="18" spans="1:29">
+      <c r="A94" s="19">
+        <v>1081</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" s="17">
+        <v>1</v>
+      </c>
+      <c r="E94" s="20">
+        <v>3</v>
+      </c>
+      <c r="F94" s="18">
+        <v>23</v>
+      </c>
+      <c r="G94" s="18">
+        <v>0</v>
+      </c>
+      <c r="H94" s="18">
+        <v>0</v>
+      </c>
+      <c r="I94" s="17"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="17">
+        <v>0</v>
+      </c>
+      <c r="L94" s="17">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC94" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" ht="18" spans="1:29">
+      <c r="A95" s="19">
+        <v>1082</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="17">
+        <v>1</v>
+      </c>
+      <c r="E95" s="20">
+        <v>4</v>
+      </c>
+      <c r="F95" s="18">
+        <v>23</v>
+      </c>
+      <c r="G95" s="18">
+        <v>0</v>
+      </c>
+      <c r="H95" s="18">
+        <v>0</v>
+      </c>
+      <c r="I95" s="17"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="17">
+        <v>0</v>
+      </c>
+      <c r="L95" s="17">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC95" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" ht="18" spans="1:29">
+      <c r="A96" s="19">
+        <v>1083</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="17">
+        <v>1</v>
+      </c>
+      <c r="E96" s="20">
+        <v>4</v>
+      </c>
+      <c r="F96" s="18">
+        <v>23</v>
+      </c>
+      <c r="G96" s="18">
+        <v>0</v>
+      </c>
+      <c r="H96" s="18">
+        <v>0</v>
+      </c>
+      <c r="I96" s="17"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="17">
+        <v>0</v>
+      </c>
+      <c r="L96" s="17">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC96" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" ht="18" spans="1:29">
+      <c r="A97" s="19">
+        <v>1084</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="17">
+        <v>1</v>
+      </c>
+      <c r="E97" s="20">
+        <v>6</v>
+      </c>
+      <c r="F97" s="18">
+        <v>23</v>
+      </c>
+      <c r="G97" s="18">
+        <v>0</v>
+      </c>
+      <c r="H97" s="18">
+        <v>0</v>
+      </c>
+      <c r="I97" s="17"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="17">
+        <v>0</v>
+      </c>
+      <c r="L97" s="17">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC97" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" ht="18" spans="1:29">
+      <c r="A98" s="19">
+        <v>1085</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="17">
+        <v>1</v>
+      </c>
+      <c r="E98" s="20">
+        <v>5</v>
+      </c>
+      <c r="F98" s="18">
+        <v>23</v>
+      </c>
+      <c r="G98" s="18">
+        <v>0</v>
+      </c>
+      <c r="H98" s="18">
+        <v>0</v>
+      </c>
+      <c r="I98" s="17"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="17">
+        <v>0</v>
+      </c>
+      <c r="L98" s="17">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC98" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" ht="18" spans="1:29">
+      <c r="A99" s="19">
+        <v>1086</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="17">
+        <v>1</v>
+      </c>
+      <c r="E99" s="20">
+        <v>4</v>
+      </c>
+      <c r="F99" s="18">
+        <v>23</v>
+      </c>
+      <c r="G99" s="18">
+        <v>0</v>
+      </c>
+      <c r="H99" s="18">
+        <v>0</v>
+      </c>
+      <c r="I99" s="17"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="17">
+        <v>0</v>
+      </c>
+      <c r="L99" s="17">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC99" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" ht="18" spans="1:29">
+      <c r="A100" s="19">
+        <v>1087</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="17">
+        <v>1</v>
+      </c>
+      <c r="E100" s="20">
+        <v>5</v>
+      </c>
+      <c r="F100" s="18">
+        <v>23</v>
+      </c>
+      <c r="G100" s="18">
+        <v>0</v>
+      </c>
+      <c r="H100" s="18">
+        <v>0</v>
+      </c>
+      <c r="I100" s="17"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="17">
+        <v>0</v>
+      </c>
+      <c r="L100" s="17">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC100" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" ht="18" spans="1:29">
+      <c r="A101" s="19">
+        <v>1088</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" s="17">
+        <v>1</v>
+      </c>
+      <c r="E101" s="20">
+        <v>4</v>
+      </c>
+      <c r="F101" s="18">
+        <v>23</v>
+      </c>
+      <c r="G101" s="18">
+        <v>0</v>
+      </c>
+      <c r="H101" s="18">
+        <v>0</v>
+      </c>
+      <c r="I101" s="17"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="17">
+        <v>0</v>
+      </c>
+      <c r="L101" s="17">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC101" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" ht="18" spans="1:29">
+      <c r="A102" s="19">
+        <v>1089</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" s="17">
+        <v>1</v>
+      </c>
+      <c r="E102" s="20">
+        <v>3</v>
+      </c>
+      <c r="F102" s="18">
+        <v>23</v>
+      </c>
+      <c r="G102" s="18">
+        <v>0</v>
+      </c>
+      <c r="H102" s="18">
+        <v>0</v>
+      </c>
+      <c r="I102" s="17"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="17">
+        <v>0</v>
+      </c>
+      <c r="L102" s="17">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC102" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" ht="18" spans="1:29">
+      <c r="A103" s="19">
+        <v>1090</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="17">
+        <v>1</v>
+      </c>
+      <c r="E103" s="20">
+        <v>3</v>
+      </c>
+      <c r="F103" s="18">
+        <v>23</v>
+      </c>
+      <c r="G103" s="18">
+        <v>0</v>
+      </c>
+      <c r="H103" s="18">
+        <v>0</v>
+      </c>
+      <c r="I103" s="17"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="17">
+        <v>0</v>
+      </c>
+      <c r="L103" s="17">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC103" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" ht="18" spans="1:29">
+      <c r="A104" s="19">
+        <v>1091</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="17">
+        <v>1</v>
+      </c>
+      <c r="E104" s="20">
+        <v>3</v>
+      </c>
+      <c r="F104" s="18">
+        <v>23</v>
+      </c>
+      <c r="G104" s="18">
+        <v>0</v>
+      </c>
+      <c r="H104" s="18">
+        <v>0</v>
+      </c>
+      <c r="I104" s="17"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="17">
+        <v>0</v>
+      </c>
+      <c r="L104" s="17">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC104" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" ht="18" spans="1:29">
+      <c r="A105" s="19">
+        <v>1092</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="17">
+        <v>1</v>
+      </c>
+      <c r="E105" s="20">
+        <v>3</v>
+      </c>
+      <c r="F105" s="18">
+        <v>23</v>
+      </c>
+      <c r="G105" s="18">
+        <v>0</v>
+      </c>
+      <c r="H105" s="18">
+        <v>0</v>
+      </c>
+      <c r="I105" s="17"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="17">
+        <v>0</v>
+      </c>
+      <c r="L105" s="17">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC105" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" ht="18" spans="1:29">
+      <c r="A106" s="19">
+        <v>1093</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="17">
+        <v>1</v>
+      </c>
+      <c r="E106" s="20">
+        <v>3</v>
+      </c>
+      <c r="F106" s="18">
+        <v>23</v>
+      </c>
+      <c r="G106" s="18">
+        <v>0</v>
+      </c>
+      <c r="H106" s="18">
+        <v>0</v>
+      </c>
+      <c r="I106" s="17"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="17">
+        <v>0</v>
+      </c>
+      <c r="L106" s="17">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC106" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" ht="18" spans="1:29">
+      <c r="A107" s="19">
+        <v>1094</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" s="17">
+        <v>1</v>
+      </c>
+      <c r="E107" s="20">
+        <v>3</v>
+      </c>
+      <c r="F107" s="18">
+        <v>23</v>
+      </c>
+      <c r="G107" s="18">
+        <v>0</v>
+      </c>
+      <c r="H107" s="18">
+        <v>0</v>
+      </c>
+      <c r="I107" s="17"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="17">
+        <v>0</v>
+      </c>
+      <c r="L107" s="17">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC107" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" ht="18" spans="1:29">
+      <c r="A108" s="19">
+        <v>1095</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="17">
+        <v>1</v>
+      </c>
+      <c r="E108" s="20">
+        <v>3</v>
+      </c>
+      <c r="F108" s="18">
+        <v>23</v>
+      </c>
+      <c r="G108" s="18">
+        <v>0</v>
+      </c>
+      <c r="H108" s="18">
+        <v>0</v>
+      </c>
+      <c r="I108" s="17"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="17">
+        <v>0</v>
+      </c>
+      <c r="L108" s="17">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC108" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" ht="18" spans="1:29">
+      <c r="A109" s="19">
+        <v>1096</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" s="17">
+        <v>1</v>
+      </c>
+      <c r="E109" s="20">
+        <v>3</v>
+      </c>
+      <c r="F109" s="18">
+        <v>23</v>
+      </c>
+      <c r="G109" s="18">
+        <v>0</v>
+      </c>
+      <c r="H109" s="18">
+        <v>0</v>
+      </c>
+      <c r="I109" s="17"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="17">
+        <v>0</v>
+      </c>
+      <c r="L109" s="17">
+        <v>0</v>
+      </c>
+      <c r="M109" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC109" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" ht="18" spans="1:29">
+      <c r="A110" s="19">
+        <v>1097</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="17">
+        <v>1</v>
+      </c>
+      <c r="E110" s="20">
+        <v>3</v>
+      </c>
+      <c r="F110" s="18">
+        <v>23</v>
+      </c>
+      <c r="G110" s="18">
+        <v>0</v>
+      </c>
+      <c r="H110" s="18">
+        <v>0</v>
+      </c>
+      <c r="I110" s="17"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="17">
+        <v>0</v>
+      </c>
+      <c r="L110" s="17">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC110" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" ht="18" spans="1:29">
+      <c r="A111" s="19">
+        <v>1098</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D111" s="17">
+        <v>1</v>
+      </c>
+      <c r="E111" s="20">
+        <v>3</v>
+      </c>
+      <c r="F111" s="18">
+        <v>23</v>
+      </c>
+      <c r="G111" s="18">
+        <v>0</v>
+      </c>
+      <c r="H111" s="18">
+        <v>0</v>
+      </c>
+      <c r="I111" s="17"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="17">
+        <v>0</v>
+      </c>
+      <c r="L111" s="17">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC111" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" ht="18" spans="1:29">
+      <c r="A112" s="19">
+        <v>1099</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D112" s="17">
+        <v>1</v>
+      </c>
+      <c r="E112" s="20">
+        <v>3</v>
+      </c>
+      <c r="F112" s="18">
+        <v>23</v>
+      </c>
+      <c r="G112" s="18">
+        <v>0</v>
+      </c>
+      <c r="H112" s="18">
+        <v>0</v>
+      </c>
+      <c r="I112" s="17"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="17">
+        <v>0</v>
+      </c>
+      <c r="L112" s="17">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC112" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" ht="18" spans="1:29">
+      <c r="A113" s="19">
+        <v>1100</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" s="17">
+        <v>1</v>
+      </c>
+      <c r="E113" s="20">
+        <v>3</v>
+      </c>
+      <c r="F113" s="18">
+        <v>23</v>
+      </c>
+      <c r="G113" s="18">
+        <v>0</v>
+      </c>
+      <c r="H113" s="18">
+        <v>0</v>
+      </c>
+      <c r="I113" s="17"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="17">
+        <v>0</v>
+      </c>
+      <c r="L113" s="17">
+        <v>0</v>
+      </c>
+      <c r="M113" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC113" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" ht="18" spans="1:29">
+      <c r="A114" s="19">
+        <v>1101</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" s="17">
+        <v>1</v>
+      </c>
+      <c r="E114" s="20">
+        <v>3</v>
+      </c>
+      <c r="F114" s="18">
+        <v>23</v>
+      </c>
+      <c r="G114" s="18">
+        <v>0</v>
+      </c>
+      <c r="H114" s="18">
+        <v>0</v>
+      </c>
+      <c r="I114" s="17"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="17">
+        <v>0</v>
+      </c>
+      <c r="L114" s="17">
+        <v>0</v>
+      </c>
+      <c r="M114" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC114" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" ht="18" spans="1:29">
+      <c r="A115" s="19">
+        <v>1102</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="17">
+        <v>1</v>
+      </c>
+      <c r="E115" s="20">
+        <v>3</v>
+      </c>
+      <c r="F115" s="18">
+        <v>23</v>
+      </c>
+      <c r="G115" s="18">
+        <v>0</v>
+      </c>
+      <c r="H115" s="18">
+        <v>0</v>
+      </c>
+      <c r="I115" s="17"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="17">
+        <v>0</v>
+      </c>
+      <c r="L115" s="17">
+        <v>0</v>
+      </c>
+      <c r="M115" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC115" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" ht="18" spans="1:29">
+      <c r="A116" s="19">
+        <v>1103</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="17">
+        <v>1</v>
+      </c>
+      <c r="E116" s="20">
+        <v>3</v>
+      </c>
+      <c r="F116" s="18">
+        <v>23</v>
+      </c>
+      <c r="G116" s="18">
+        <v>0</v>
+      </c>
+      <c r="H116" s="18">
+        <v>0</v>
+      </c>
+      <c r="I116" s="17"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="17">
+        <v>0</v>
+      </c>
+      <c r="L116" s="17">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC116" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" ht="18" spans="1:29">
+      <c r="A117" s="19">
+        <v>1104</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D117" s="17">
+        <v>1</v>
+      </c>
+      <c r="E117" s="20">
+        <v>3</v>
+      </c>
+      <c r="F117" s="18">
+        <v>23</v>
+      </c>
+      <c r="G117" s="18">
+        <v>0</v>
+      </c>
+      <c r="H117" s="18">
+        <v>0</v>
+      </c>
+      <c r="I117" s="17"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="17">
+        <v>0</v>
+      </c>
+      <c r="L117" s="17">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC117" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" ht="18" spans="1:29">
+      <c r="A118" s="19">
+        <v>1105</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D118" s="17">
+        <v>1</v>
+      </c>
+      <c r="E118" s="20">
+        <v>3</v>
+      </c>
+      <c r="F118" s="18">
+        <v>23</v>
+      </c>
+      <c r="G118" s="18">
+        <v>0</v>
+      </c>
+      <c r="H118" s="18">
+        <v>0</v>
+      </c>
+      <c r="I118" s="17"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="17">
+        <v>0</v>
+      </c>
+      <c r="L118" s="17">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC118" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" ht="18" spans="1:29">
+      <c r="A119" s="19">
+        <v>1106</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="17">
+        <v>1</v>
+      </c>
+      <c r="E119" s="20">
+        <v>3</v>
+      </c>
+      <c r="F119" s="18">
+        <v>23</v>
+      </c>
+      <c r="G119" s="18">
+        <v>0</v>
+      </c>
+      <c r="H119" s="18">
+        <v>0</v>
+      </c>
+      <c r="I119" s="17"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="17">
+        <v>0</v>
+      </c>
+      <c r="L119" s="17">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC119" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" ht="18" spans="1:29">
+      <c r="A120" s="19">
+        <v>1107</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D120" s="17">
+        <v>1</v>
+      </c>
+      <c r="E120" s="20">
+        <v>3</v>
+      </c>
+      <c r="F120" s="18">
+        <v>23</v>
+      </c>
+      <c r="G120" s="18">
+        <v>0</v>
+      </c>
+      <c r="H120" s="18">
+        <v>0</v>
+      </c>
+      <c r="I120" s="17"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="17">
+        <v>0</v>
+      </c>
+      <c r="L120" s="17">
+        <v>0</v>
+      </c>
+      <c r="M120" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC120" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" ht="18" spans="1:29">
+      <c r="A121" s="19">
+        <v>1108</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121" s="17">
+        <v>1</v>
+      </c>
+      <c r="E121" s="20">
+        <v>3</v>
+      </c>
+      <c r="F121" s="18">
+        <v>23</v>
+      </c>
+      <c r="G121" s="18">
+        <v>0</v>
+      </c>
+      <c r="H121" s="18">
+        <v>0</v>
+      </c>
+      <c r="I121" s="17"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="17">
+        <v>0</v>
+      </c>
+      <c r="L121" s="17">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC121" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" ht="18" spans="1:29">
+      <c r="A122" s="19">
+        <v>1109</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" s="17">
+        <v>1</v>
+      </c>
+      <c r="E122" s="20">
+        <v>3</v>
+      </c>
+      <c r="F122" s="18">
+        <v>23</v>
+      </c>
+      <c r="G122" s="18">
+        <v>0</v>
+      </c>
+      <c r="H122" s="18">
+        <v>0</v>
+      </c>
+      <c r="I122" s="17"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="17">
+        <v>0</v>
+      </c>
+      <c r="L122" s="17">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC122" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" ht="18" spans="1:29">
+      <c r="A123" s="19">
+        <v>1110</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D123" s="17">
+        <v>1</v>
+      </c>
+      <c r="E123" s="20">
+        <v>3</v>
+      </c>
+      <c r="F123" s="18">
+        <v>23</v>
+      </c>
+      <c r="G123" s="18">
+        <v>0</v>
+      </c>
+      <c r="H123" s="18">
+        <v>0</v>
+      </c>
+      <c r="I123" s="17"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="17">
+        <v>0</v>
+      </c>
+      <c r="L123" s="17">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC123" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" ht="18" spans="1:29">
+      <c r="A124" s="19">
+        <v>1111</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="17">
+        <v>1</v>
+      </c>
+      <c r="E124" s="20">
+        <v>3</v>
+      </c>
+      <c r="F124" s="18">
+        <v>23</v>
+      </c>
+      <c r="G124" s="18">
+        <v>0</v>
+      </c>
+      <c r="H124" s="18">
+        <v>0</v>
+      </c>
+      <c r="I124" s="17"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="17">
+        <v>0</v>
+      </c>
+      <c r="L124" s="17">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC124" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" ht="18" spans="1:29">
+      <c r="A125" s="19">
+        <v>1112</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="17">
+        <v>1</v>
+      </c>
+      <c r="E125" s="20">
+        <v>3</v>
+      </c>
+      <c r="F125" s="18">
+        <v>23</v>
+      </c>
+      <c r="G125" s="18">
+        <v>0</v>
+      </c>
+      <c r="H125" s="18">
+        <v>0</v>
+      </c>
+      <c r="I125" s="17"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="17">
+        <v>0</v>
+      </c>
+      <c r="L125" s="17">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC125" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" ht="18" spans="1:29">
+      <c r="A126" s="19">
+        <v>1113</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="17">
+        <v>1</v>
+      </c>
+      <c r="E126" s="20">
+        <v>3</v>
+      </c>
+      <c r="F126" s="18">
+        <v>23</v>
+      </c>
+      <c r="G126" s="18">
+        <v>0</v>
+      </c>
+      <c r="H126" s="18">
+        <v>0</v>
+      </c>
+      <c r="I126" s="17"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="17">
+        <v>0</v>
+      </c>
+      <c r="L126" s="17">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC126" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" ht="18" spans="1:29">
+      <c r="A127" s="19">
+        <v>1114</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="17">
+        <v>1</v>
+      </c>
+      <c r="E127" s="20">
+        <v>3</v>
+      </c>
+      <c r="F127" s="18">
+        <v>23</v>
+      </c>
+      <c r="G127" s="18">
+        <v>0</v>
+      </c>
+      <c r="H127" s="18">
+        <v>0</v>
+      </c>
+      <c r="I127" s="17"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="17">
+        <v>0</v>
+      </c>
+      <c r="L127" s="17">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC127" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" ht="18" spans="1:29">
+      <c r="A128" s="19">
+        <v>1115</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" s="17">
+        <v>1</v>
+      </c>
+      <c r="E128" s="20">
+        <v>3</v>
+      </c>
+      <c r="F128" s="18">
+        <v>23</v>
+      </c>
+      <c r="G128" s="18">
+        <v>0</v>
+      </c>
+      <c r="H128" s="18">
+        <v>0</v>
+      </c>
+      <c r="I128" s="17"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="17">
+        <v>0</v>
+      </c>
+      <c r="L128" s="17">
+        <v>0</v>
+      </c>
+      <c r="M128" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC128" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" ht="18" spans="1:29">
+      <c r="A129" s="19">
+        <v>1116</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" s="17">
+        <v>1</v>
+      </c>
+      <c r="E129" s="20">
+        <v>3</v>
+      </c>
+      <c r="F129" s="18">
+        <v>23</v>
+      </c>
+      <c r="G129" s="18">
+        <v>0</v>
+      </c>
+      <c r="H129" s="18">
+        <v>0</v>
+      </c>
+      <c r="I129" s="17"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="17">
+        <v>0</v>
+      </c>
+      <c r="L129" s="17">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC129" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" ht="18" spans="1:29">
+      <c r="A130" s="19">
+        <v>1117</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="17">
+        <v>1</v>
+      </c>
+      <c r="E130" s="20">
+        <v>3</v>
+      </c>
+      <c r="F130" s="18">
+        <v>23</v>
+      </c>
+      <c r="G130" s="18">
+        <v>0</v>
+      </c>
+      <c r="H130" s="18">
+        <v>0</v>
+      </c>
+      <c r="I130" s="17"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="17">
+        <v>0</v>
+      </c>
+      <c r="L130" s="17">
+        <v>0</v>
+      </c>
+      <c r="M130" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC130" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" ht="18" spans="1:29">
+      <c r="A131" s="19">
+        <v>1118</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" s="17">
+        <v>1</v>
+      </c>
+      <c r="E131" s="20">
+        <v>3</v>
+      </c>
+      <c r="F131" s="18">
+        <v>23</v>
+      </c>
+      <c r="G131" s="18">
+        <v>0</v>
+      </c>
+      <c r="H131" s="18">
+        <v>0</v>
+      </c>
+      <c r="I131" s="17"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="17">
+        <v>0</v>
+      </c>
+      <c r="L131" s="17">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC131" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" ht="18" spans="1:29">
+      <c r="A132" s="19">
+        <v>1119</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D132" s="17">
+        <v>1</v>
+      </c>
+      <c r="E132" s="20">
+        <v>3</v>
+      </c>
+      <c r="F132" s="18">
+        <v>23</v>
+      </c>
+      <c r="G132" s="18">
+        <v>0</v>
+      </c>
+      <c r="H132" s="18">
+        <v>0</v>
+      </c>
+      <c r="I132" s="17"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="17">
+        <v>0</v>
+      </c>
+      <c r="L132" s="17">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC132" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" ht="18" spans="1:29">
+      <c r="A133" s="19">
+        <v>1120</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" s="17">
+        <v>1</v>
+      </c>
+      <c r="E133" s="20">
+        <v>3</v>
+      </c>
+      <c r="F133" s="18">
+        <v>23</v>
+      </c>
+      <c r="G133" s="18">
+        <v>0</v>
+      </c>
+      <c r="H133" s="18">
+        <v>0</v>
+      </c>
+      <c r="I133" s="17"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="17">
+        <v>0</v>
+      </c>
+      <c r="L133" s="17">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC133" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" ht="18" spans="1:29">
+      <c r="A134" s="19">
+        <v>1121</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" s="17">
+        <v>1</v>
+      </c>
+      <c r="E134" s="20">
+        <v>3</v>
+      </c>
+      <c r="F134" s="18">
+        <v>23</v>
+      </c>
+      <c r="G134" s="18">
+        <v>0</v>
+      </c>
+      <c r="H134" s="18">
+        <v>0</v>
+      </c>
+      <c r="I134" s="17"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="17">
+        <v>0</v>
+      </c>
+      <c r="L134" s="17">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC134" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" ht="18" spans="1:29">
+      <c r="A135" s="19">
+        <v>1122</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D135" s="17">
+        <v>1</v>
+      </c>
+      <c r="E135" s="20">
+        <v>3</v>
+      </c>
+      <c r="F135" s="18">
+        <v>23</v>
+      </c>
+      <c r="G135" s="18">
+        <v>0</v>
+      </c>
+      <c r="H135" s="18">
+        <v>0</v>
+      </c>
+      <c r="I135" s="17"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="17">
+        <v>0</v>
+      </c>
+      <c r="L135" s="17">
+        <v>0</v>
+      </c>
+      <c r="M135" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC135" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" ht="18" spans="1:29">
+      <c r="A136" s="19">
+        <v>1123</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D136" s="17">
+        <v>1</v>
+      </c>
+      <c r="E136" s="20">
+        <v>3</v>
+      </c>
+      <c r="F136" s="18">
+        <v>23</v>
+      </c>
+      <c r="G136" s="18">
+        <v>0</v>
+      </c>
+      <c r="H136" s="18">
+        <v>0</v>
+      </c>
+      <c r="I136" s="17"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="17">
+        <v>0</v>
+      </c>
+      <c r="L136" s="17">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC136" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" ht="18" spans="1:29">
+      <c r="A137" s="19">
+        <v>1124</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D137" s="17">
+        <v>1</v>
+      </c>
+      <c r="E137" s="20">
+        <v>3</v>
+      </c>
+      <c r="F137" s="18">
+        <v>23</v>
+      </c>
+      <c r="G137" s="18">
+        <v>0</v>
+      </c>
+      <c r="H137" s="18">
+        <v>0</v>
+      </c>
+      <c r="I137" s="17"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="17">
+        <v>0</v>
+      </c>
+      <c r="L137" s="17">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC137" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" ht="18" spans="1:29">
+      <c r="A138" s="19">
+        <v>1125</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D138" s="17">
+        <v>1</v>
+      </c>
+      <c r="E138" s="20">
+        <v>3</v>
+      </c>
+      <c r="F138" s="18">
+        <v>23</v>
+      </c>
+      <c r="G138" s="18">
+        <v>0</v>
+      </c>
+      <c r="H138" s="18">
+        <v>0</v>
+      </c>
+      <c r="I138" s="17"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="17">
+        <v>0</v>
+      </c>
+      <c r="L138" s="17">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC138" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" ht="18" spans="1:29">
+      <c r="A139" s="19">
+        <v>1126</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D139" s="17">
+        <v>1</v>
+      </c>
+      <c r="E139" s="20">
+        <v>3</v>
+      </c>
+      <c r="F139" s="18">
+        <v>23</v>
+      </c>
+      <c r="G139" s="18">
+        <v>0</v>
+      </c>
+      <c r="H139" s="18">
+        <v>0</v>
+      </c>
+      <c r="I139" s="17"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="17">
+        <v>0</v>
+      </c>
+      <c r="L139" s="17">
+        <v>0</v>
+      </c>
+      <c r="M139" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC139" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" ht="18" spans="1:29">
+      <c r="A140" s="19">
+        <v>1127</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D140" s="17">
+        <v>1</v>
+      </c>
+      <c r="E140" s="20">
+        <v>3</v>
+      </c>
+      <c r="F140" s="18">
+        <v>23</v>
+      </c>
+      <c r="G140" s="18">
+        <v>0</v>
+      </c>
+      <c r="H140" s="18">
+        <v>0</v>
+      </c>
+      <c r="I140" s="17"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="17">
+        <v>0</v>
+      </c>
+      <c r="L140" s="17">
+        <v>0</v>
+      </c>
+      <c r="M140" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC140" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" ht="18" spans="1:29">
+      <c r="A141" s="19">
+        <v>1128</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141" s="17">
+        <v>1</v>
+      </c>
+      <c r="E141" s="20">
+        <v>3</v>
+      </c>
+      <c r="F141" s="18">
+        <v>23</v>
+      </c>
+      <c r="G141" s="18">
+        <v>0</v>
+      </c>
+      <c r="H141" s="18">
+        <v>0</v>
+      </c>
+      <c r="I141" s="17"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="17">
+        <v>0</v>
+      </c>
+      <c r="L141" s="17">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC141" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" ht="18" spans="1:29">
+      <c r="A142" s="19">
+        <v>1129</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D142" s="17">
+        <v>1</v>
+      </c>
+      <c r="E142" s="20">
+        <v>3</v>
+      </c>
+      <c r="F142" s="18">
+        <v>23</v>
+      </c>
+      <c r="G142" s="18">
+        <v>0</v>
+      </c>
+      <c r="H142" s="18">
+        <v>0</v>
+      </c>
+      <c r="I142" s="17"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="17">
+        <v>0</v>
+      </c>
+      <c r="L142" s="17">
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC142" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" ht="18" spans="1:29">
+      <c r="A143" s="40">
+        <v>1130</v>
+      </c>
+      <c r="B143" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C143" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D143" s="17">
+        <v>1</v>
+      </c>
+      <c r="E143" s="20">
+        <v>3</v>
+      </c>
+      <c r="F143" s="18">
+        <v>23</v>
+      </c>
+      <c r="G143" s="18">
+        <v>0</v>
+      </c>
+      <c r="H143" s="18">
+        <v>0</v>
+      </c>
+      <c r="I143" s="17"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="17">
+        <v>0</v>
+      </c>
+      <c r="L143" s="17">
+        <v>0</v>
+      </c>
+      <c r="M143" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC143" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="E10">
     <cfRule type="colorScale" priority="8">
@@ -2574,19 +8162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G$1:G$1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E2 E14:E1048576 F3:G13">
+  <conditionalFormatting sqref="E1:E2 E14:E1048576 F3:F143">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="180">
   <si>
     <t>物品引索</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>#Loccustom_serveritem_{}</t>
   </si>
   <si>
     <t>lv</t>
@@ -1775,11 +1778,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CFE777D4-7587-44DA-BB18-3AC8B481B165}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{85CBC897-58F5-4FD2-97FF-DC771963E9EF}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AC026AC7-032D-420E-8B82-20C87C0CB900}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D321D6C6-CFD7-4649-B4AB-F4FA792FAE2C}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2089,17 +2092,17 @@
   <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M146" sqref="M146"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="18.3416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.675" customWidth="1"/>
     <col min="5" max="5" width="10.5083333333333" customWidth="1"/>
@@ -2192,44 +2195,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:29">
+    <row r="2" ht="31" customHeight="1" spans="1:29">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="9">
         <v>1</v>
@@ -2253,10 +2258,10 @@
         <v>7</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" s="9">
         <v>1</v>
@@ -2271,10 +2276,10 @@
         <v>4</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:29">
@@ -2282,10 +2287,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="13">
         <v>1</v>
@@ -2311,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -2337,10 +2342,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -2366,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -2392,10 +2397,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -2414,7 +2419,7 @@
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="13">
         <v>1</v>
@@ -2423,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -2449,10 +2454,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -2478,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -2503,10 +2508,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="13">
         <v>1</v>
@@ -2532,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
@@ -2557,10 +2562,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -2586,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
@@ -2611,10 +2616,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -2640,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
@@ -2665,10 +2670,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2694,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -2719,10 +2724,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -2748,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
@@ -2773,10 +2778,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -2802,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
@@ -2827,10 +2832,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -2856,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -2881,10 +2886,10 @@
         <v>1001</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
@@ -2910,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC14" s="39">
         <v>0</v>
@@ -2921,10 +2926,10 @@
         <v>1002</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
@@ -2950,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC15" s="39">
         <v>0</v>
@@ -2961,10 +2966,10 @@
         <v>1003</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
@@ -2990,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC16" s="39">
         <v>0</v>
@@ -3001,10 +3006,10 @@
         <v>1004</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
@@ -3030,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC17" s="39">
         <v>0</v>
@@ -3041,10 +3046,10 @@
         <v>1005</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
@@ -3070,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC18" s="39">
         <v>0</v>
@@ -3081,10 +3086,10 @@
         <v>1006</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
@@ -3110,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC19" s="39">
         <v>0</v>
@@ -3121,10 +3126,10 @@
         <v>1007</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -3150,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC20" s="39">
         <v>0</v>
@@ -3161,10 +3166,10 @@
         <v>1008</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
@@ -3190,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC21" s="39">
         <v>0</v>
@@ -3201,10 +3206,10 @@
         <v>1009</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
@@ -3230,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC22" s="39">
         <v>0</v>
@@ -3241,10 +3246,10 @@
         <v>1010</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
@@ -3270,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC23" s="39">
         <v>0</v>
@@ -3281,10 +3286,10 @@
         <v>1011</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
@@ -3310,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC24" s="39">
         <v>0</v>
@@ -3321,10 +3326,10 @@
         <v>1012</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
@@ -3350,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC25" s="39">
         <v>0</v>
@@ -3361,10 +3366,10 @@
         <v>1013</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="17">
         <v>1</v>
@@ -3390,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC26" s="39">
         <v>0</v>
@@ -3401,10 +3406,10 @@
         <v>1014</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
@@ -3430,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC27" s="39">
         <v>0</v>
@@ -3441,10 +3446,10 @@
         <v>1015</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
@@ -3470,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC28" s="39">
         <v>0</v>
@@ -3481,10 +3486,10 @@
         <v>1016</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
@@ -3510,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC29" s="39">
         <v>0</v>
@@ -3521,10 +3526,10 @@
         <v>1017</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
@@ -3550,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC30" s="39">
         <v>0</v>
@@ -3561,10 +3566,10 @@
         <v>1018</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
@@ -3590,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC31" s="39">
         <v>0</v>
@@ -3601,10 +3606,10 @@
         <v>1019</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D32" s="17">
         <v>1</v>
@@ -3630,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC32" s="39">
         <v>0</v>
@@ -3641,10 +3646,10 @@
         <v>1020</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
@@ -3670,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC33" s="39">
         <v>0</v>
@@ -3681,10 +3686,10 @@
         <v>1021</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
@@ -3710,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC34" s="39">
         <v>0</v>
@@ -3721,10 +3726,10 @@
         <v>1022</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
@@ -3750,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC35" s="39">
         <v>0</v>
@@ -3761,10 +3766,10 @@
         <v>1023</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="17">
         <v>1</v>
@@ -3790,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC36" s="39">
         <v>0</v>
@@ -3801,10 +3806,10 @@
         <v>1024</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="17">
         <v>1</v>
@@ -3830,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC37" s="39">
         <v>0</v>
@@ -3841,10 +3846,10 @@
         <v>1025</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="17">
         <v>1</v>
@@ -3870,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC38" s="39">
         <v>0</v>
@@ -3881,10 +3886,10 @@
         <v>1026</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D39" s="17">
         <v>1</v>
@@ -3910,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC39" s="39">
         <v>0</v>
@@ -3921,10 +3926,10 @@
         <v>1027</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="17">
         <v>1</v>
@@ -3950,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC40" s="39">
         <v>0</v>
@@ -3961,10 +3966,10 @@
         <v>1028</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" s="17">
         <v>1</v>
@@ -3990,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC41" s="39">
         <v>0</v>
@@ -4001,10 +4006,10 @@
         <v>1029</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D42" s="17">
         <v>1</v>
@@ -4030,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC42" s="39">
         <v>0</v>
@@ -4041,10 +4046,10 @@
         <v>1030</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D43" s="17">
         <v>1</v>
@@ -4070,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC43" s="39">
         <v>0</v>
@@ -4081,10 +4086,10 @@
         <v>1031</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D44" s="17">
         <v>1</v>
@@ -4110,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC44" s="39">
         <v>0</v>
@@ -4121,10 +4126,10 @@
         <v>1032</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D45" s="17">
         <v>1</v>
@@ -4150,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC45" s="39">
         <v>0</v>
@@ -4161,10 +4166,10 @@
         <v>1033</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D46" s="17">
         <v>1</v>
@@ -4190,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC46" s="39">
         <v>0</v>
@@ -4201,10 +4206,10 @@
         <v>1034</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D47" s="17">
         <v>1</v>
@@ -4230,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC47" s="39">
         <v>0</v>
@@ -4241,10 +4246,10 @@
         <v>1035</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D48" s="17">
         <v>1</v>
@@ -4270,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC48" s="39">
         <v>0</v>
@@ -4281,10 +4286,10 @@
         <v>1036</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D49" s="17">
         <v>1</v>
@@ -4310,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC49" s="39">
         <v>0</v>
@@ -4321,10 +4326,10 @@
         <v>1037</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D50" s="17">
         <v>1</v>
@@ -4350,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC50" s="39">
         <v>0</v>
@@ -4361,10 +4366,10 @@
         <v>1038</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" s="17">
         <v>1</v>
@@ -4390,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC51" s="39">
         <v>0</v>
@@ -4401,10 +4406,10 @@
         <v>1039</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D52" s="17">
         <v>1</v>
@@ -4430,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC52" s="39">
         <v>0</v>
@@ -4441,10 +4446,10 @@
         <v>1040</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D53" s="17">
         <v>1</v>
@@ -4470,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC53" s="39">
         <v>0</v>
@@ -4481,10 +4486,10 @@
         <v>1041</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D54" s="17">
         <v>1</v>
@@ -4510,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC54" s="39">
         <v>0</v>
@@ -4521,10 +4526,10 @@
         <v>1042</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D55" s="17">
         <v>1</v>
@@ -4550,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC55" s="39">
         <v>0</v>
@@ -4561,10 +4566,10 @@
         <v>1043</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D56" s="17">
         <v>1</v>
@@ -4590,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC56" s="39">
         <v>0</v>
@@ -4601,10 +4606,10 @@
         <v>1044</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D57" s="17">
         <v>1</v>
@@ -4630,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC57" s="39">
         <v>0</v>
@@ -4641,10 +4646,10 @@
         <v>1045</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D58" s="17">
         <v>1</v>
@@ -4670,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC58" s="39">
         <v>0</v>
@@ -4681,10 +4686,10 @@
         <v>1046</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D59" s="17">
         <v>1</v>
@@ -4710,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC59" s="39">
         <v>0</v>
@@ -4721,10 +4726,10 @@
         <v>1047</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D60" s="17">
         <v>1</v>
@@ -4750,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC60" s="39">
         <v>0</v>
@@ -4761,10 +4766,10 @@
         <v>1048</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D61" s="17">
         <v>1</v>
@@ -4790,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC61" s="39">
         <v>0</v>
@@ -4801,10 +4806,10 @@
         <v>1049</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D62" s="17">
         <v>1</v>
@@ -4830,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC62" s="39">
         <v>0</v>
@@ -4841,10 +4846,10 @@
         <v>1050</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D63" s="17">
         <v>1</v>
@@ -4870,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC63" s="39">
         <v>0</v>
@@ -4881,10 +4886,10 @@
         <v>1051</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D64" s="17">
         <v>1</v>
@@ -4910,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC64" s="39">
         <v>0</v>
@@ -4921,10 +4926,10 @@
         <v>1052</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D65" s="17">
         <v>1</v>
@@ -4950,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC65" s="39">
         <v>0</v>
@@ -4961,10 +4966,10 @@
         <v>1053</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D66" s="17">
         <v>1</v>
@@ -4990,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC66" s="39">
         <v>0</v>
@@ -5001,10 +5006,10 @@
         <v>1054</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D67" s="17">
         <v>1</v>
@@ -5030,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC67" s="39">
         <v>0</v>
@@ -5041,10 +5046,10 @@
         <v>1055</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D68" s="17">
         <v>1</v>
@@ -5070,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC68" s="39">
         <v>0</v>
@@ -5081,10 +5086,10 @@
         <v>1056</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D69" s="17">
         <v>1</v>
@@ -5110,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC69" s="39">
         <v>0</v>
@@ -5121,10 +5126,10 @@
         <v>1057</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D70" s="17">
         <v>1</v>
@@ -5150,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC70" s="39">
         <v>0</v>
@@ -5161,10 +5166,10 @@
         <v>1058</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D71" s="17">
         <v>1</v>
@@ -5190,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC71" s="39">
         <v>0</v>
@@ -5201,10 +5206,10 @@
         <v>1059</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D72" s="17">
         <v>1</v>
@@ -5230,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC72" s="39">
         <v>0</v>
@@ -5241,10 +5246,10 @@
         <v>1060</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D73" s="17">
         <v>1</v>
@@ -5270,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC73" s="39">
         <v>0</v>
@@ -5281,10 +5286,10 @@
         <v>1061</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D74" s="17">
         <v>1</v>
@@ -5310,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC74" s="39">
         <v>0</v>
@@ -5321,10 +5326,10 @@
         <v>1062</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D75" s="17">
         <v>1</v>
@@ -5350,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC75" s="39">
         <v>0</v>
@@ -5361,10 +5366,10 @@
         <v>1063</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D76" s="17">
         <v>1</v>
@@ -5390,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC76" s="39">
         <v>0</v>
@@ -5401,10 +5406,10 @@
         <v>1064</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D77" s="17">
         <v>1</v>
@@ -5430,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC77" s="39">
         <v>0</v>
@@ -5441,10 +5446,10 @@
         <v>1065</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D78" s="17">
         <v>1</v>
@@ -5470,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC78" s="39">
         <v>0</v>
@@ -5481,10 +5486,10 @@
         <v>1066</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D79" s="17">
         <v>1</v>
@@ -5510,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC79" s="39">
         <v>0</v>
@@ -5521,10 +5526,10 @@
         <v>1067</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D80" s="17">
         <v>1</v>
@@ -5550,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC80" s="39">
         <v>0</v>
@@ -5561,10 +5566,10 @@
         <v>1068</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D81" s="17">
         <v>1</v>
@@ -5590,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC81" s="39">
         <v>0</v>
@@ -5601,10 +5606,10 @@
         <v>1069</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D82" s="17">
         <v>1</v>
@@ -5630,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC82" s="39">
         <v>0</v>
@@ -5641,10 +5646,10 @@
         <v>1070</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D83" s="17">
         <v>1</v>
@@ -5670,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC83" s="39">
         <v>0</v>
@@ -5681,10 +5686,10 @@
         <v>1071</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D84" s="17">
         <v>1</v>
@@ -5710,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC84" s="39">
         <v>0</v>
@@ -5721,10 +5726,10 @@
         <v>1072</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D85" s="17">
         <v>1</v>
@@ -5750,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC85" s="39">
         <v>0</v>
@@ -5761,10 +5766,10 @@
         <v>1073</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D86" s="17">
         <v>1</v>
@@ -5790,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC86" s="39">
         <v>0</v>
@@ -5801,10 +5806,10 @@
         <v>1074</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D87" s="17">
         <v>1</v>
@@ -5830,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC87" s="39">
         <v>0</v>
@@ -5841,10 +5846,10 @@
         <v>1075</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D88" s="17">
         <v>1</v>
@@ -5870,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC88" s="39">
         <v>0</v>
@@ -5881,10 +5886,10 @@
         <v>1076</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D89" s="17">
         <v>1</v>
@@ -5910,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC89" s="39">
         <v>0</v>
@@ -5921,10 +5926,10 @@
         <v>1077</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D90" s="17">
         <v>1</v>
@@ -5950,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC90" s="39">
         <v>0</v>
@@ -5961,10 +5966,10 @@
         <v>1078</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D91" s="17">
         <v>1</v>
@@ -5990,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC91" s="39">
         <v>0</v>
@@ -6001,10 +6006,10 @@
         <v>1079</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D92" s="17">
         <v>1</v>
@@ -6030,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC92" s="39">
         <v>0</v>
@@ -6041,10 +6046,10 @@
         <v>1080</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D93" s="17">
         <v>1</v>
@@ -6070,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC93" s="39">
         <v>0</v>
@@ -6081,10 +6086,10 @@
         <v>1081</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D94" s="17">
         <v>1</v>
@@ -6110,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="M94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC94" s="39">
         <v>0</v>
@@ -6121,10 +6126,10 @@
         <v>1082</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D95" s="17">
         <v>1</v>
@@ -6150,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC95" s="39">
         <v>0</v>
@@ -6161,10 +6166,10 @@
         <v>1083</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D96" s="17">
         <v>1</v>
@@ -6190,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC96" s="39">
         <v>0</v>
@@ -6201,10 +6206,10 @@
         <v>1084</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D97" s="17">
         <v>1</v>
@@ -6230,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC97" s="39">
         <v>0</v>
@@ -6241,10 +6246,10 @@
         <v>1085</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D98" s="17">
         <v>1</v>
@@ -6270,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC98" s="39">
         <v>0</v>
@@ -6281,10 +6286,10 @@
         <v>1086</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D99" s="17">
         <v>1</v>
@@ -6310,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC99" s="39">
         <v>0</v>
@@ -6321,10 +6326,10 @@
         <v>1087</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D100" s="17">
         <v>1</v>
@@ -6350,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC100" s="39">
         <v>0</v>
@@ -6361,10 +6366,10 @@
         <v>1088</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D101" s="17">
         <v>1</v>
@@ -6390,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC101" s="39">
         <v>0</v>
@@ -6401,10 +6406,10 @@
         <v>1089</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D102" s="17">
         <v>1</v>
@@ -6430,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC102" s="39">
         <v>0</v>
@@ -6441,10 +6446,10 @@
         <v>1090</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D103" s="17">
         <v>1</v>
@@ -6470,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC103" s="39">
         <v>0</v>
@@ -6481,10 +6486,10 @@
         <v>1091</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D104" s="17">
         <v>1</v>
@@ -6510,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC104" s="39">
         <v>0</v>
@@ -6521,10 +6526,10 @@
         <v>1092</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D105" s="17">
         <v>1</v>
@@ -6550,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC105" s="39">
         <v>0</v>
@@ -6561,10 +6566,10 @@
         <v>1093</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D106" s="17">
         <v>1</v>
@@ -6590,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC106" s="39">
         <v>0</v>
@@ -6601,10 +6606,10 @@
         <v>1094</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D107" s="17">
         <v>1</v>
@@ -6630,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC107" s="39">
         <v>0</v>
@@ -6641,10 +6646,10 @@
         <v>1095</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D108" s="17">
         <v>1</v>
@@ -6670,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC108" s="39">
         <v>0</v>
@@ -6681,10 +6686,10 @@
         <v>1096</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D109" s="17">
         <v>1</v>
@@ -6710,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC109" s="39">
         <v>0</v>
@@ -6721,10 +6726,10 @@
         <v>1097</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D110" s="17">
         <v>1</v>
@@ -6750,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC110" s="39">
         <v>0</v>
@@ -6761,10 +6766,10 @@
         <v>1098</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D111" s="17">
         <v>1</v>
@@ -6790,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC111" s="39">
         <v>0</v>
@@ -6801,10 +6806,10 @@
         <v>1099</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D112" s="17">
         <v>1</v>
@@ -6830,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC112" s="39">
         <v>0</v>
@@ -6841,10 +6846,10 @@
         <v>1100</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D113" s="17">
         <v>1</v>
@@ -6870,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC113" s="39">
         <v>0</v>
@@ -6881,10 +6886,10 @@
         <v>1101</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D114" s="17">
         <v>1</v>
@@ -6910,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC114" s="39">
         <v>0</v>
@@ -6921,10 +6926,10 @@
         <v>1102</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D115" s="17">
         <v>1</v>
@@ -6950,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC115" s="39">
         <v>0</v>
@@ -6961,10 +6966,10 @@
         <v>1103</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D116" s="17">
         <v>1</v>
@@ -6990,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC116" s="39">
         <v>0</v>
@@ -7001,10 +7006,10 @@
         <v>1104</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D117" s="17">
         <v>1</v>
@@ -7030,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC117" s="39">
         <v>0</v>
@@ -7041,10 +7046,10 @@
         <v>1105</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D118" s="17">
         <v>1</v>
@@ -7070,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC118" s="39">
         <v>0</v>
@@ -7081,10 +7086,10 @@
         <v>1106</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D119" s="17">
         <v>1</v>
@@ -7110,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC119" s="39">
         <v>0</v>
@@ -7121,10 +7126,10 @@
         <v>1107</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D120" s="17">
         <v>1</v>
@@ -7150,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC120" s="39">
         <v>0</v>
@@ -7161,10 +7166,10 @@
         <v>1108</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D121" s="17">
         <v>1</v>
@@ -7190,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC121" s="39">
         <v>0</v>
@@ -7201,10 +7206,10 @@
         <v>1109</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D122" s="17">
         <v>1</v>
@@ -7230,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC122" s="39">
         <v>0</v>
@@ -7241,10 +7246,10 @@
         <v>1110</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D123" s="17">
         <v>1</v>
@@ -7270,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC123" s="39">
         <v>0</v>
@@ -7281,10 +7286,10 @@
         <v>1111</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D124" s="17">
         <v>1</v>
@@ -7310,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC124" s="39">
         <v>0</v>
@@ -7321,10 +7326,10 @@
         <v>1112</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D125" s="17">
         <v>1</v>
@@ -7350,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC125" s="39">
         <v>0</v>
@@ -7361,10 +7366,10 @@
         <v>1113</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D126" s="17">
         <v>1</v>
@@ -7390,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC126" s="39">
         <v>0</v>
@@ -7401,10 +7406,10 @@
         <v>1114</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D127" s="17">
         <v>1</v>
@@ -7430,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC127" s="39">
         <v>0</v>
@@ -7441,10 +7446,10 @@
         <v>1115</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D128" s="17">
         <v>1</v>
@@ -7470,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC128" s="39">
         <v>0</v>
@@ -7481,10 +7486,10 @@
         <v>1116</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D129" s="17">
         <v>1</v>
@@ -7510,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC129" s="39">
         <v>0</v>
@@ -7521,10 +7526,10 @@
         <v>1117</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D130" s="17">
         <v>1</v>
@@ -7550,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC130" s="39">
         <v>0</v>
@@ -7561,10 +7566,10 @@
         <v>1118</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D131" s="17">
         <v>1</v>
@@ -7590,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC131" s="39">
         <v>0</v>
@@ -7601,10 +7606,10 @@
         <v>1119</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D132" s="17">
         <v>1</v>
@@ -7630,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC132" s="39">
         <v>0</v>
@@ -7641,10 +7646,10 @@
         <v>1120</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D133" s="17">
         <v>1</v>
@@ -7670,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC133" s="39">
         <v>0</v>
@@ -7681,10 +7686,10 @@
         <v>1121</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D134" s="17">
         <v>1</v>
@@ -7710,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="M134" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC134" s="39">
         <v>0</v>
@@ -7721,10 +7726,10 @@
         <v>1122</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D135" s="17">
         <v>1</v>
@@ -7750,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC135" s="39">
         <v>0</v>
@@ -7761,10 +7766,10 @@
         <v>1123</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D136" s="17">
         <v>1</v>
@@ -7790,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC136" s="39">
         <v>0</v>
@@ -7801,10 +7806,10 @@
         <v>1124</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D137" s="17">
         <v>1</v>
@@ -7830,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="M137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC137" s="39">
         <v>0</v>
@@ -7841,10 +7846,10 @@
         <v>1125</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D138" s="17">
         <v>1</v>
@@ -7870,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC138" s="39">
         <v>0</v>
@@ -7881,10 +7886,10 @@
         <v>1126</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D139" s="17">
         <v>1</v>
@@ -7910,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC139" s="39">
         <v>0</v>
@@ -7921,10 +7926,10 @@
         <v>1127</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D140" s="17">
         <v>1</v>
@@ -7950,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC140" s="39">
         <v>0</v>
@@ -7961,10 +7966,10 @@
         <v>1128</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D141" s="17">
         <v>1</v>
@@ -7990,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC141" s="39">
         <v>0</v>
@@ -8001,10 +8006,10 @@
         <v>1129</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D142" s="17">
         <v>1</v>
@@ -8030,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC142" s="39">
         <v>0</v>
@@ -8041,10 +8046,10 @@
         <v>1130</v>
       </c>
       <c r="B143" s="40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C143" s="40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D143" s="17">
         <v>1</v>
@@ -8070,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC143" s="39">
         <v>0</v>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="375">
   <si>
     <t>物品引索</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>#Loccustom_serveritem_{}</t>
+  </si>
+  <si>
+    <t>#Loccustom_serveritem_{}_desc</t>
   </si>
   <si>
     <t>lv</t>
@@ -2426,11 +2429,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{990950BD-CE1C-42E3-B6DD-E2DF59C923C6}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9AC3D219-49E5-4C22-92DE-0DA460B18F18}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F2D9A9AA-4F44-4791-94B2-B78B6642BDFF}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6AB1AA9B-0653-49EE-9B2D-E0CAE1A98412}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2740,11 +2743,11 @@
   <dimension ref="A1:AC291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H253" sqref="H253"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2850,39 +2853,41 @@
       <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="9">
         <v>1</v>
@@ -2906,10 +2911,10 @@
         <v>7</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" s="9">
         <v>1</v>
@@ -2924,10 +2929,10 @@
         <v>4</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:29">
@@ -2935,10 +2940,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="13">
         <v>1</v>
@@ -2964,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -2990,10 +2995,10 @@
         <v>1002</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -3019,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -3045,10 +3050,10 @@
         <v>1003</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -3067,7 +3072,7 @@
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="13">
         <v>1</v>
@@ -3076,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -3102,10 +3107,10 @@
         <v>1004</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -3131,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -3156,7 +3161,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
@@ -3183,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
@@ -3208,7 +3213,7 @@
         <v>1006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="10">
@@ -3235,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
@@ -3260,7 +3265,7 @@
         <v>1007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13">
@@ -3287,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
@@ -3312,10 +3317,10 @@
         <v>1008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -3341,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -3366,10 +3371,10 @@
         <v>1201</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -3395,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
@@ -3420,10 +3425,10 @@
         <v>1202</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -3449,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
@@ -3474,10 +3479,10 @@
         <v>1203</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -3503,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -3528,10 +3533,10 @@
         <v>1204</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="14">
         <v>1</v>
@@ -3557,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC14" s="40">
         <v>0</v>
@@ -3568,7 +3573,7 @@
         <v>1205</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="14">
@@ -3595,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC15" s="40">
         <v>0</v>
@@ -3606,7 +3611,7 @@
         <v>1206</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="14">
@@ -3633,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC16" s="40">
         <v>0</v>
@@ -3644,10 +3649,10 @@
         <v>1279</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
@@ -3673,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC17" s="40">
         <v>0</v>
@@ -3684,10 +3689,10 @@
         <v>1280</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
@@ -3713,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC18" s="40">
         <v>0</v>
@@ -3724,10 +3729,10 @@
         <v>1281</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
@@ -3753,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC19" s="40">
         <v>0</v>
@@ -3764,10 +3769,10 @@
         <v>1282</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
@@ -3793,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC20" s="40">
         <v>0</v>
@@ -3804,10 +3809,10 @@
         <v>1283</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="14">
         <v>1</v>
@@ -3833,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC21" s="40">
         <v>0</v>
@@ -3844,10 +3849,10 @@
         <v>1284</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="D22" s="14">
         <v>1</v>
@@ -3873,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC22" s="40">
         <v>0</v>
@@ -3884,10 +3889,10 @@
         <v>1285</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
@@ -3913,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC23" s="40">
         <v>0</v>
@@ -3924,10 +3929,10 @@
         <v>1286</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="14">
         <v>1</v>
@@ -3953,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC24" s="40">
         <v>0</v>
@@ -3964,7 +3969,7 @@
         <v>1287</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="14">
@@ -3991,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC25" s="40">
         <v>0</v>
@@ -4002,7 +4007,7 @@
         <v>1288</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="14">
@@ -4029,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC26" s="40">
         <v>0</v>
@@ -4040,7 +4045,7 @@
         <v>1289</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="14">
@@ -4067,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC27" s="40">
         <v>0</v>
@@ -4078,7 +4083,7 @@
         <v>1290</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="14">
@@ -4105,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC28" s="40">
         <v>0</v>
@@ -4116,10 +4121,10 @@
         <v>1291</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -4145,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC29" s="40">
         <v>0</v>
@@ -4156,10 +4161,10 @@
         <v>1292</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="14">
         <v>1</v>
@@ -4185,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC30" s="40">
         <v>0</v>
@@ -4196,10 +4201,10 @@
         <v>1293</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
@@ -4225,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC31" s="40">
         <v>0</v>
@@ -4236,10 +4241,10 @@
         <v>1294</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="14">
         <v>1</v>
@@ -4265,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC32" s="40">
         <v>0</v>
@@ -4276,7 +4281,7 @@
         <v>2001</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="14">
@@ -4303,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC33" s="40">
         <v>0</v>
@@ -4314,7 +4319,7 @@
         <v>2002</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="14">
@@ -4341,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC34" s="40">
         <v>0</v>
@@ -4352,7 +4357,7 @@
         <v>2003</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="14">
@@ -4379,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC35" s="40">
         <v>0</v>
@@ -4390,7 +4395,7 @@
         <v>2004</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="14">
@@ -4417,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC36" s="40">
         <v>0</v>
@@ -4428,7 +4433,7 @@
         <v>2005</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="14">
@@ -4455,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC37" s="40">
         <v>0</v>
@@ -4466,7 +4471,7 @@
         <v>2006</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="14">
@@ -4493,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC38" s="40">
         <v>0</v>
@@ -4504,7 +4509,7 @@
         <v>2007</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="14">
@@ -4531,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC39" s="40">
         <v>0</v>
@@ -4542,7 +4547,7 @@
         <v>2008</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="14">
@@ -4569,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC40" s="40">
         <v>0</v>
@@ -4580,7 +4585,7 @@
         <v>2009</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="14">
@@ -4607,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC41" s="40">
         <v>0</v>
@@ -4618,7 +4623,7 @@
         <v>2010</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="14">
@@ -4645,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC42" s="40">
         <v>0</v>
@@ -4656,7 +4661,7 @@
         <v>2011</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="14">
@@ -4683,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC43" s="40">
         <v>0</v>
@@ -4694,7 +4699,7 @@
         <v>2012</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="14">
@@ -4721,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC44" s="40">
         <v>0</v>
@@ -4732,7 +4737,7 @@
         <v>2013</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="14">
@@ -4759,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC45" s="40">
         <v>0</v>
@@ -4770,7 +4775,7 @@
         <v>2014</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="14">
@@ -4797,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC46" s="40">
         <v>0</v>
@@ -4808,7 +4813,7 @@
         <v>2015</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="14">
@@ -4835,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC47" s="40">
         <v>0</v>
@@ -4846,7 +4851,7 @@
         <v>2016</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="14">
@@ -4873,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC48" s="40">
         <v>0</v>
@@ -4884,7 +4889,7 @@
         <v>2017</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="14">
@@ -4911,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC49" s="40">
         <v>0</v>
@@ -4922,7 +4927,7 @@
         <v>2019</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="14">
@@ -4949,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC50" s="40">
         <v>0</v>
@@ -4960,7 +4965,7 @@
         <v>2020</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="14">
@@ -4987,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC51" s="40">
         <v>0</v>
@@ -4998,7 +5003,7 @@
         <v>2021</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="14">
@@ -5025,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC52" s="40">
         <v>0</v>
@@ -5036,7 +5041,7 @@
         <v>2022</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="14">
@@ -5063,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC53" s="40">
         <v>0</v>
@@ -5074,7 +5079,7 @@
         <v>2023</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="14">
@@ -5101,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC54" s="40">
         <v>0</v>
@@ -5112,7 +5117,7 @@
         <v>2024</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="14">
@@ -5139,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC55" s="40">
         <v>0</v>
@@ -5150,7 +5155,7 @@
         <v>2025</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="14">
@@ -5177,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC56" s="40">
         <v>0</v>
@@ -5188,7 +5193,7 @@
         <v>2026</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="14">
@@ -5215,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC57" s="40">
         <v>0</v>
@@ -5226,7 +5231,7 @@
         <v>2027</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="14">
@@ -5253,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC58" s="40">
         <v>0</v>
@@ -5264,7 +5269,7 @@
         <v>2028</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="14">
@@ -5291,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC59" s="40">
         <v>0</v>
@@ -5302,7 +5307,7 @@
         <v>2029</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="14">
@@ -5329,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC60" s="40">
         <v>0</v>
@@ -5340,7 +5345,7 @@
         <v>2030</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="14">
@@ -5367,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC61" s="40">
         <v>0</v>
@@ -5378,7 +5383,7 @@
         <v>2031</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="14">
@@ -5405,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC62" s="40">
         <v>0</v>
@@ -5416,7 +5421,7 @@
         <v>2032</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="14">
@@ -5443,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC63" s="40">
         <v>0</v>
@@ -5454,7 +5459,7 @@
         <v>2033</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="14">
@@ -5481,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC64" s="40">
         <v>0</v>
@@ -5492,7 +5497,7 @@
         <v>2034</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="14">
@@ -5519,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC65" s="40">
         <v>0</v>
@@ -5530,7 +5535,7 @@
         <v>2035</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="14">
@@ -5557,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC66" s="40">
         <v>0</v>
@@ -5568,7 +5573,7 @@
         <v>2036</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="14">
@@ -5595,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC67" s="40">
         <v>0</v>
@@ -5606,7 +5611,7 @@
         <v>2037</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="14">
@@ -5633,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC68" s="40">
         <v>0</v>
@@ -5644,7 +5649,7 @@
         <v>2038</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="14">
@@ -5671,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC69" s="40">
         <v>0</v>
@@ -5682,7 +5687,7 @@
         <v>2039</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="14">
@@ -5709,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC70" s="40">
         <v>0</v>
@@ -5720,7 +5725,7 @@
         <v>2040</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="14">
@@ -5747,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC71" s="40">
         <v>0</v>
@@ -5758,7 +5763,7 @@
         <v>2041</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="14">
@@ -5785,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC72" s="40">
         <v>0</v>
@@ -5796,7 +5801,7 @@
         <v>2042</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="14">
@@ -5823,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC73" s="40">
         <v>0</v>
@@ -5834,7 +5839,7 @@
         <v>2043</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="14">
@@ -5861,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC74" s="40">
         <v>0</v>
@@ -5872,7 +5877,7 @@
         <v>2044</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="14">
@@ -5899,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC75" s="40">
         <v>0</v>
@@ -5910,7 +5915,7 @@
         <v>2045</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="14">
@@ -5937,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC76" s="40">
         <v>0</v>
@@ -5948,7 +5953,7 @@
         <v>2501</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="14">
@@ -5975,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC77" s="40">
         <v>0</v>
@@ -5986,7 +5991,7 @@
         <v>2502</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="14">
@@ -6013,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC78" s="40">
         <v>0</v>
@@ -6024,7 +6029,7 @@
         <v>2503</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="14">
@@ -6051,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC79" s="40">
         <v>0</v>
@@ -6062,7 +6067,7 @@
         <v>2504</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="14">
@@ -6089,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC80" s="40">
         <v>0</v>
@@ -6100,7 +6105,7 @@
         <v>2505</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="14">
@@ -6127,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC81" s="40">
         <v>0</v>
@@ -6138,7 +6143,7 @@
         <v>2506</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="14">
@@ -6165,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC82" s="40">
         <v>0</v>
@@ -6176,7 +6181,7 @@
         <v>2507</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="14">
@@ -6203,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC83" s="40">
         <v>0</v>
@@ -6214,7 +6219,7 @@
         <v>2508</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="14">
@@ -6241,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC84" s="40">
         <v>0</v>
@@ -6252,7 +6257,7 @@
         <v>2509</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="14">
@@ -6279,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC85" s="40">
         <v>0</v>
@@ -6290,7 +6295,7 @@
         <v>2510</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="14">
@@ -6317,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC86" s="40">
         <v>0</v>
@@ -6328,7 +6333,7 @@
         <v>2511</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="14">
@@ -6355,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC87" s="40">
         <v>0</v>
@@ -6366,7 +6371,7 @@
         <v>2512</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="14">
@@ -6393,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC88" s="40">
         <v>0</v>
@@ -6404,7 +6409,7 @@
         <v>2513</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="14">
@@ -6431,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC89" s="40">
         <v>0</v>
@@ -6442,7 +6447,7 @@
         <v>2514</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="14">
@@ -6469,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC90" s="40">
         <v>0</v>
@@ -6480,7 +6485,7 @@
         <v>2516</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="14">
@@ -6507,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC91" s="40">
         <v>0</v>
@@ -6518,7 +6523,7 @@
         <v>2517</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="14">
@@ -6545,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC92" s="40">
         <v>0</v>
@@ -6556,7 +6561,7 @@
         <v>2518</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="14">
@@ -6583,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC93" s="40">
         <v>0</v>
@@ -6594,7 +6599,7 @@
         <v>2519</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="14">
@@ -6621,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="M94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC94" s="40">
         <v>0</v>
@@ -6632,7 +6637,7 @@
         <v>2520</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="14">
@@ -6659,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC95" s="40">
         <v>0</v>
@@ -6670,7 +6675,7 @@
         <v>2521</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="14">
@@ -6697,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC96" s="40">
         <v>0</v>
@@ -6708,7 +6713,7 @@
         <v>2522</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="14">
@@ -6735,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC97" s="40">
         <v>0</v>
@@ -6746,7 +6751,7 @@
         <v>2523</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="14">
@@ -6773,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC98" s="40">
         <v>0</v>
@@ -6784,7 +6789,7 @@
         <v>2524</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="14">
@@ -6811,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC99" s="40">
         <v>0</v>
@@ -6822,7 +6827,7 @@
         <v>2525</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="14">
@@ -6849,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC100" s="40">
         <v>0</v>
@@ -6860,7 +6865,7 @@
         <v>2526</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="14">
@@ -6887,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC101" s="40">
         <v>0</v>
@@ -6898,7 +6903,7 @@
         <v>2527</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="14">
@@ -6925,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC102" s="40">
         <v>0</v>
@@ -6936,7 +6941,7 @@
         <v>2528</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="14">
@@ -6963,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC103" s="40">
         <v>0</v>
@@ -6974,7 +6979,7 @@
         <v>2529</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="14">
@@ -7001,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC104" s="40">
         <v>0</v>
@@ -7012,7 +7017,7 @@
         <v>2530</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="14">
@@ -7039,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC105" s="40">
         <v>0</v>
@@ -7050,7 +7055,7 @@
         <v>2531</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="14">
@@ -7077,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC106" s="40">
         <v>0</v>
@@ -7088,7 +7093,7 @@
         <v>2532</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="14">
@@ -7115,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC107" s="40">
         <v>0</v>
@@ -7126,7 +7131,7 @@
         <v>2533</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="14">
@@ -7153,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC108" s="40">
         <v>0</v>
@@ -7164,7 +7169,7 @@
         <v>2534</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="14">
@@ -7191,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC109" s="40">
         <v>0</v>
@@ -7202,7 +7207,7 @@
         <v>2535</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="14">
@@ -7229,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC110" s="40">
         <v>0</v>
@@ -7240,7 +7245,7 @@
         <v>2536</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="14">
@@ -7267,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC111" s="40">
         <v>0</v>
@@ -7278,7 +7283,7 @@
         <v>2537</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="14">
@@ -7305,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC112" s="40">
         <v>0</v>
@@ -7316,7 +7321,7 @@
         <v>2538</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="14">
@@ -7343,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC113" s="40">
         <v>0</v>
@@ -7354,7 +7359,7 @@
         <v>2539</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="14">
@@ -7381,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC114" s="40">
         <v>0</v>
@@ -7392,7 +7397,7 @@
         <v>2540</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="14">
@@ -7419,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC115" s="40">
         <v>0</v>
@@ -7430,7 +7435,7 @@
         <v>2541</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="14">
@@ -7457,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC116" s="40">
         <v>0</v>
@@ -7468,7 +7473,7 @@
         <v>2542</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="14">
@@ -7495,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC117" s="40">
         <v>0</v>
@@ -7506,7 +7511,7 @@
         <v>2543</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="14">
@@ -7533,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC118" s="40">
         <v>0</v>
@@ -7544,7 +7549,7 @@
         <v>2544</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C119" s="12"/>
       <c r="D119" s="14">
@@ -7571,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC119" s="40">
         <v>0</v>
@@ -7582,7 +7587,7 @@
         <v>2545</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C120" s="12"/>
       <c r="D120" s="14">
@@ -7609,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC120" s="40">
         <v>0</v>
@@ -7620,7 +7625,7 @@
         <v>2546</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="14">
@@ -7647,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC121" s="40">
         <v>0</v>
@@ -7658,7 +7663,7 @@
         <v>2547</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="14">
@@ -7685,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC122" s="40">
         <v>0</v>
@@ -7696,7 +7701,7 @@
         <v>2548</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="14">
@@ -7723,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC123" s="40">
         <v>0</v>
@@ -7734,7 +7739,7 @@
         <v>2549</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="14">
@@ -7761,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC124" s="40">
         <v>0</v>
@@ -7772,7 +7777,7 @@
         <v>2550</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C125" s="12"/>
       <c r="D125" s="14">
@@ -7799,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC125" s="40">
         <v>0</v>
@@ -7810,7 +7815,7 @@
         <v>2551</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="14">
@@ -7837,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC126" s="40">
         <v>0</v>
@@ -7848,7 +7853,7 @@
         <v>2552</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C127" s="12"/>
       <c r="D127" s="14">
@@ -7875,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC127" s="40">
         <v>0</v>
@@ -7886,7 +7891,7 @@
         <v>2553</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="14">
@@ -7913,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC128" s="40">
         <v>0</v>
@@ -7924,7 +7929,7 @@
         <v>2554</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="14">
@@ -7951,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC129" s="40">
         <v>0</v>
@@ -7962,7 +7967,7 @@
         <v>2555</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C130" s="12"/>
       <c r="D130" s="14">
@@ -7989,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC130" s="40">
         <v>0</v>
@@ -8000,7 +8005,7 @@
         <v>2556</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="14">
@@ -8027,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC131" s="40">
         <v>0</v>
@@ -8038,7 +8043,7 @@
         <v>2557</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C132" s="12"/>
       <c r="D132" s="14">
@@ -8065,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC132" s="40">
         <v>0</v>
@@ -8076,7 +8081,7 @@
         <v>2558</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C133" s="12"/>
       <c r="D133" s="14">
@@ -8103,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC133" s="40">
         <v>0</v>
@@ -8114,7 +8119,7 @@
         <v>2559</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C134" s="12"/>
       <c r="D134" s="14">
@@ -8141,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="M134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC134" s="40">
         <v>0</v>
@@ -8152,7 +8157,7 @@
         <v>2560</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="14">
@@ -8179,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC135" s="40">
         <v>0</v>
@@ -8190,7 +8195,7 @@
         <v>2901</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="14">
@@ -8217,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC136" s="40">
         <v>0</v>
@@ -8228,7 +8233,7 @@
         <v>2902</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C137" s="12"/>
       <c r="D137" s="14">
@@ -8255,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="M137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC137" s="40">
         <v>0</v>
@@ -8266,7 +8271,7 @@
         <v>2903</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="14">
@@ -8293,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC138" s="40">
         <v>0</v>
@@ -8304,7 +8309,7 @@
         <v>2904</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="14">
@@ -8331,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC139" s="40">
         <v>0</v>
@@ -8342,7 +8347,7 @@
         <v>2905</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="14">
@@ -8369,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC140" s="40">
         <v>0</v>
@@ -8380,7 +8385,7 @@
         <v>2906</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="14">
@@ -8407,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC141" s="40">
         <v>0</v>
@@ -8418,7 +8423,7 @@
         <v>2907</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="14">
@@ -8445,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC142" s="40">
         <v>0</v>
@@ -8456,7 +8461,7 @@
         <v>2908</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="14">
@@ -8483,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC143" s="40">
         <v>0</v>
@@ -8494,7 +8499,7 @@
         <v>2909</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C144" s="12"/>
       <c r="E144" s="20">
@@ -8515,7 +8520,7 @@
         <v>2910</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C145" s="12"/>
       <c r="E145" s="20">
@@ -8536,7 +8541,7 @@
         <v>2911</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C146" s="12"/>
       <c r="E146" s="20">
@@ -8557,7 +8562,7 @@
         <v>2912</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C147" s="12"/>
       <c r="E147" s="20">
@@ -8578,7 +8583,7 @@
         <v>2913</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C148" s="12"/>
       <c r="E148" s="20">
@@ -8599,7 +8604,7 @@
         <v>2914</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C149" s="12"/>
       <c r="E149" s="20">
@@ -8620,7 +8625,7 @@
         <v>2915</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C150" s="12"/>
       <c r="E150" s="20">
@@ -8641,7 +8646,7 @@
         <v>2916</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C151" s="12"/>
       <c r="E151" s="20">
@@ -8662,7 +8667,7 @@
         <v>2917</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C152" s="12"/>
       <c r="E152" s="20">
@@ -8683,7 +8688,7 @@
         <v>2918</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C153" s="12"/>
       <c r="E153" s="20">
@@ -8704,7 +8709,7 @@
         <v>2919</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C154" s="12"/>
       <c r="E154" s="20">
@@ -8725,7 +8730,7 @@
         <v>2920</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C155" s="12"/>
       <c r="E155" s="20">
@@ -8746,7 +8751,7 @@
         <v>2921</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C156" s="12"/>
       <c r="E156" s="20">
@@ -8767,7 +8772,7 @@
         <v>2922</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C157" s="12"/>
       <c r="E157" s="20">
@@ -8788,7 +8793,7 @@
         <v>3201</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C158" s="12"/>
       <c r="E158" s="20">
@@ -8809,7 +8814,7 @@
         <v>3202</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C159" s="12"/>
       <c r="E159" s="20">
@@ -8830,7 +8835,7 @@
         <v>3203</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C160" s="12"/>
       <c r="E160" s="20">
@@ -8851,7 +8856,7 @@
         <v>3204</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C161" s="12"/>
       <c r="E161" s="20">
@@ -8872,7 +8877,7 @@
         <v>3205</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C162" s="12"/>
       <c r="E162" s="20">
@@ -8893,10 +8898,10 @@
         <v>3501</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E163" s="12">
         <v>2</v>
@@ -8916,10 +8921,10 @@
         <v>3502</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E164" s="12">
         <v>3</v>
@@ -8939,10 +8944,10 @@
         <v>3503</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E165" s="12">
         <v>4</v>
@@ -8962,10 +8967,10 @@
         <v>3504</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E166" s="12">
         <v>3</v>
@@ -8985,10 +8990,10 @@
         <v>3505</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E167" s="12">
         <v>3</v>
@@ -9008,10 +9013,10 @@
         <v>3506</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E168" s="12">
         <v>3</v>
@@ -9031,10 +9036,10 @@
         <v>3507</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E169" s="12">
         <v>3</v>
@@ -9054,10 +9059,10 @@
         <v>3508</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E170" s="12">
         <v>3</v>
@@ -9077,10 +9082,10 @@
         <v>3509</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E171" s="12">
         <v>3</v>
@@ -9100,10 +9105,10 @@
         <v>3510</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E172" s="12">
         <v>3</v>
@@ -9123,10 +9128,10 @@
         <v>3511</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E173" s="12">
         <v>3</v>
@@ -9146,10 +9151,10 @@
         <v>3512</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E174" s="12">
         <v>3</v>
@@ -9169,10 +9174,10 @@
         <v>3513</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E175" s="12">
         <v>4</v>
@@ -9192,10 +9197,10 @@
         <v>3514</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E176" s="12">
         <v>4</v>
@@ -9215,10 +9220,10 @@
         <v>3515</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E177" s="12">
         <v>4</v>
@@ -9238,10 +9243,10 @@
         <v>3516</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E178" s="12">
         <v>4</v>
@@ -9261,10 +9266,10 @@
         <v>3517</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E179" s="12">
         <v>3</v>
@@ -9284,10 +9289,10 @@
         <v>3518</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E180" s="12">
         <v>4</v>
@@ -9307,10 +9312,10 @@
         <v>3519</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E181" s="12">
         <v>5</v>
@@ -9330,10 +9335,10 @@
         <v>3520</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E182" s="12">
         <v>5</v>
@@ -9353,10 +9358,10 @@
         <v>3521</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E183" s="12">
         <v>5</v>
@@ -9376,10 +9381,10 @@
         <v>3522</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E184" s="12">
         <v>5</v>
@@ -9399,10 +9404,10 @@
         <v>3523</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E185" s="12">
         <v>5</v>
@@ -9422,10 +9427,10 @@
         <v>3524</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E186" s="12">
         <v>5</v>
@@ -9445,10 +9450,10 @@
         <v>3525</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E187" s="12">
         <v>5</v>
@@ -9468,10 +9473,10 @@
         <v>10000</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E188" s="12">
         <v>1</v>
@@ -9491,10 +9496,10 @@
         <v>10001</v>
       </c>
       <c r="B189" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="E189" s="12">
         <v>1</v>
@@ -9514,10 +9519,10 @@
         <v>10002</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E190" s="12">
         <v>1</v>
@@ -9537,10 +9542,10 @@
         <v>10003</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E191" s="12">
         <v>1</v>
@@ -9560,10 +9565,10 @@
         <v>10004</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E192" s="12">
         <v>1</v>
@@ -9583,10 +9588,10 @@
         <v>10005</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E193" s="12">
         <v>1</v>
@@ -9606,10 +9611,10 @@
         <v>10006</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E194" s="12">
         <v>1</v>
@@ -9629,10 +9634,10 @@
         <v>10007</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E195" s="12">
         <v>1</v>
@@ -9652,10 +9657,10 @@
         <v>10008</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E196" s="12">
         <v>1</v>
@@ -9675,10 +9680,10 @@
         <v>10009</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E197" s="12">
         <v>1</v>
@@ -9698,10 +9703,10 @@
         <v>10010</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E198" s="12">
         <v>1</v>
@@ -9721,10 +9726,10 @@
         <v>10011</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E199" s="12">
         <v>1</v>
@@ -9744,10 +9749,10 @@
         <v>10012</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E200" s="12">
         <v>1</v>
@@ -9767,10 +9772,10 @@
         <v>10013</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E201" s="12">
         <v>1</v>
@@ -9790,10 +9795,10 @@
         <v>10014</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E202" s="12">
         <v>1</v>
@@ -9813,10 +9818,10 @@
         <v>10015</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E203" s="12">
         <v>1</v>
@@ -9836,10 +9841,10 @@
         <v>10016</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E204" s="12">
         <v>1</v>
@@ -9859,10 +9864,10 @@
         <v>10017</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E205" s="12">
         <v>1</v>
@@ -9882,10 +9887,10 @@
         <v>10101</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E206" s="12">
         <v>2</v>
@@ -9905,10 +9910,10 @@
         <v>10102</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E207" s="12">
         <v>2</v>
@@ -9928,10 +9933,10 @@
         <v>10103</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E208" s="12">
         <v>2</v>
@@ -9951,10 +9956,10 @@
         <v>10104</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E209" s="12">
         <v>2</v>
@@ -9974,10 +9979,10 @@
         <v>10105</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E210" s="12">
         <v>2</v>
@@ -9997,10 +10002,10 @@
         <v>10106</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E211" s="12">
         <v>2</v>
@@ -10020,10 +10025,10 @@
         <v>10107</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E212" s="12">
         <v>2</v>
@@ -10043,10 +10048,10 @@
         <v>10108</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E213" s="12">
         <v>2</v>
@@ -10066,10 +10071,10 @@
         <v>10109</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E214" s="12">
         <v>2</v>
@@ -10089,10 +10094,10 @@
         <v>10110</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E215" s="12">
         <v>2</v>
@@ -10112,10 +10117,10 @@
         <v>10111</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E216" s="12">
         <v>2</v>
@@ -10135,10 +10140,10 @@
         <v>10112</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E217" s="12">
         <v>2</v>
@@ -10158,10 +10163,10 @@
         <v>10113</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E218" s="12">
         <v>2</v>
@@ -10181,10 +10186,10 @@
         <v>10114</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E219" s="12">
         <v>2</v>
@@ -10204,10 +10209,10 @@
         <v>10115</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E220" s="12">
         <v>2</v>
@@ -10227,10 +10232,10 @@
         <v>10116</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E221" s="12">
         <v>2</v>
@@ -10250,10 +10255,10 @@
         <v>10117</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E222" s="12">
         <v>2</v>
@@ -10273,10 +10278,10 @@
         <v>10118</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E223" s="12">
         <v>2</v>
@@ -10296,10 +10301,10 @@
         <v>10201</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E224" s="12">
         <v>3</v>
@@ -10319,10 +10324,10 @@
         <v>10202</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E225" s="12">
         <v>3</v>
@@ -10342,10 +10347,10 @@
         <v>10203</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E226" s="12">
         <v>3</v>
@@ -10365,10 +10370,10 @@
         <v>10204</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E227" s="12">
         <v>3</v>
@@ -10388,10 +10393,10 @@
         <v>10205</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E228" s="12">
         <v>3</v>
@@ -10411,10 +10416,10 @@
         <v>10206</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E229" s="12">
         <v>3</v>
@@ -10434,10 +10439,10 @@
         <v>10207</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E230" s="12">
         <v>3</v>
@@ -10457,10 +10462,10 @@
         <v>10208</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E231" s="12">
         <v>3</v>
@@ -10480,10 +10485,10 @@
         <v>10209</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E232" s="12">
         <v>3</v>
@@ -10503,10 +10508,10 @@
         <v>10210</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E233" s="12">
         <v>3</v>
@@ -10526,10 +10531,10 @@
         <v>10211</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E234" s="12">
         <v>3</v>
@@ -10549,10 +10554,10 @@
         <v>10212</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E235" s="12">
         <v>3</v>
@@ -10572,10 +10577,10 @@
         <v>10213</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E236" s="12">
         <v>3</v>
@@ -10595,10 +10600,10 @@
         <v>10214</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E237" s="12">
         <v>3</v>
@@ -10618,10 +10623,10 @@
         <v>10215</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E238" s="12">
         <v>3</v>
@@ -10641,10 +10646,10 @@
         <v>10216</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E239" s="12">
         <v>3</v>
@@ -10664,10 +10669,10 @@
         <v>10217</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E240" s="12">
         <v>3</v>
@@ -10687,10 +10692,10 @@
         <v>10218</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E241" s="12">
         <v>3</v>
@@ -10710,10 +10715,10 @@
         <v>10301</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E242" s="12">
         <v>4</v>
@@ -10733,10 +10738,10 @@
         <v>10302</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E243" s="12">
         <v>4</v>
@@ -10756,10 +10761,10 @@
         <v>10303</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E244" s="12">
         <v>4</v>
@@ -10779,10 +10784,10 @@
         <v>10304</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E245" s="12">
         <v>4</v>
@@ -10802,10 +10807,10 @@
         <v>10305</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E246" s="12">
         <v>4</v>
@@ -10825,10 +10830,10 @@
         <v>10306</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E247" s="12">
         <v>4</v>
@@ -10848,10 +10853,10 @@
         <v>10307</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E248" s="12">
         <v>4</v>
@@ -10871,10 +10876,10 @@
         <v>10308</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E249" s="12">
         <v>4</v>
@@ -10894,10 +10899,10 @@
         <v>10309</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E250" s="12">
         <v>4</v>
@@ -10917,10 +10922,10 @@
         <v>10310</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E251" s="12">
         <v>4</v>
@@ -10940,10 +10945,10 @@
         <v>10311</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E252" s="12">
         <v>4</v>
@@ -10963,10 +10968,10 @@
         <v>10312</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E253" s="12">
         <v>4</v>
@@ -10986,10 +10991,10 @@
         <v>10313</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E254" s="12">
         <v>4</v>
@@ -11009,10 +11014,10 @@
         <v>10314</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E255" s="12">
         <v>4</v>
@@ -11032,10 +11037,10 @@
         <v>10315</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E256" s="12">
         <v>4</v>
@@ -11055,10 +11060,10 @@
         <v>10316</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E257" s="12">
         <v>4</v>
@@ -11078,10 +11083,10 @@
         <v>10317</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E258" s="12">
         <v>4</v>
@@ -11101,10 +11106,10 @@
         <v>10318</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E259" s="12">
         <v>4</v>
@@ -11124,7 +11129,7 @@
         <v>20000</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C260" s="12"/>
       <c r="E260" s="12">
@@ -11145,10 +11150,10 @@
         <v>20001</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E261" s="12">
         <v>1</v>
@@ -11168,10 +11173,10 @@
         <v>20002</v>
       </c>
       <c r="B262" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C262" s="12" t="s">
         <v>340</v>
-      </c>
-      <c r="C262" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="E262" s="12">
         <v>1</v>
@@ -11191,10 +11196,10 @@
         <v>20003</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E263" s="12">
         <v>1</v>
@@ -11214,10 +11219,10 @@
         <v>20004</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E264" s="12">
         <v>1</v>
@@ -11237,10 +11242,10 @@
         <v>20005</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E265" s="12">
         <v>1</v>
@@ -11260,10 +11265,10 @@
         <v>20006</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E266" s="12">
         <v>1</v>
@@ -11283,10 +11288,10 @@
         <v>20007</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E267" s="12">
         <v>1</v>
@@ -11306,10 +11311,10 @@
         <v>20008</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E268" s="12">
         <v>1</v>
@@ -11329,10 +11334,10 @@
         <v>20009</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E269" s="12">
         <v>1</v>
@@ -11352,10 +11357,10 @@
         <v>20010</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E270" s="12">
         <v>1</v>
@@ -11375,10 +11380,10 @@
         <v>20101</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E271" s="12">
         <v>1</v>
@@ -11398,10 +11403,10 @@
         <v>20102</v>
       </c>
       <c r="B272" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C272" s="12" t="s">
         <v>351</v>
-      </c>
-      <c r="C272" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="E272" s="12">
         <v>1</v>
@@ -11421,10 +11426,10 @@
         <v>20103</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E273" s="12">
         <v>1</v>
@@ -11444,10 +11449,10 @@
         <v>20104</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E274" s="12">
         <v>1</v>
@@ -11467,10 +11472,10 @@
         <v>20105</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E275" s="12">
         <v>1</v>
@@ -11490,10 +11495,10 @@
         <v>20106</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E276" s="12">
         <v>1</v>
@@ -11513,10 +11518,10 @@
         <v>20107</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E277" s="12">
         <v>1</v>
@@ -11536,10 +11541,10 @@
         <v>20108</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E278" s="12">
         <v>1</v>
@@ -11559,10 +11564,10 @@
         <v>20109</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E279" s="12">
         <v>1</v>
@@ -11582,10 +11587,10 @@
         <v>20110</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E280" s="12">
         <v>1</v>
@@ -11605,10 +11610,10 @@
         <v>20111</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E281" s="12">
         <v>1</v>
@@ -11628,10 +11633,10 @@
         <v>20201</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E282" s="12">
         <v>1</v>
@@ -11651,10 +11656,10 @@
         <v>20202</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E283" s="12">
         <v>1</v>
@@ -11674,10 +11679,10 @@
         <v>20203</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E284" s="12">
         <v>1</v>
@@ -11697,10 +11702,10 @@
         <v>20204</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C285" s="41" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E285" s="12">
         <v>1</v>
@@ -11720,10 +11725,10 @@
         <v>20205</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E286" s="12">
         <v>1</v>
@@ -11743,10 +11748,10 @@
         <v>20206</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C287" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E287" s="12">
         <v>1</v>
@@ -11766,10 +11771,10 @@
         <v>20207</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E288" s="12">
         <v>1</v>
@@ -11789,10 +11794,10 @@
         <v>20208</v>
       </c>
       <c r="B289" s="42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C289" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E289" s="12">
         <v>1</v>
@@ -11812,10 +11817,10 @@
         <v>20209</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E290" s="12">
         <v>1</v>
@@ -11835,10 +11840,10 @@
         <v>20210</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C291" s="42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E291" s="12">
         <v>1</v>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>lv</t>
   </si>
   <si>
-    <t>rarity</t>
+    <t>quality</t>
   </si>
   <si>
     <t>affiliation_class</t>
@@ -2429,11 +2429,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9AC3D219-49E5-4C22-92DE-0DA460B18F18}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{40786282-F608-4A44-AF25-7CDC9B5BCA1E}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6AB1AA9B-0653-49EE-9B2D-E0CAE1A98412}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2A7DC598-ADC7-49CB-AB5B-F4C46AAA8A20}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2747,7 +2747,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="377">
   <si>
     <t>物品引索</t>
   </si>
@@ -1157,6 +1157,12 @@
   </si>
   <si>
     <t>狂风沙漠成长礼的首通点</t>
+  </si>
+  <si>
+    <t>怪物图鉴卡</t>
+  </si>
+  <si>
+    <t>击杀怪物有概率获得该怪物的图鉴卡</t>
   </si>
 </sst>
 </file>
@@ -2429,11 +2435,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{40786282-F608-4A44-AF25-7CDC9B5BCA1E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{FD9077E1-EBD7-41CD-B377-1ABA49D2A991}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2A7DC598-ADC7-49CB-AB5B-F4C46AAA8A20}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{31886902-2744-4CF0-808C-445924D526A3}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2740,14 +2746,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC291"/>
+  <dimension ref="A1:AC292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3059,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="12">
         <v>3</v>
@@ -3326,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" s="12">
         <v>21</v>
@@ -11133,7 +11139,7 @@
       </c>
       <c r="C260" s="12"/>
       <c r="E260" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F260" s="12">
         <v>42</v>
@@ -11156,7 +11162,7 @@
         <v>340</v>
       </c>
       <c r="E261" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F261" s="12">
         <v>42</v>
@@ -11179,7 +11185,7 @@
         <v>340</v>
       </c>
       <c r="E262" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F262" s="12">
         <v>33</v>
@@ -11202,7 +11208,7 @@
         <v>340</v>
       </c>
       <c r="E263" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F263" s="12">
         <v>33</v>
@@ -11225,7 +11231,7 @@
         <v>340</v>
       </c>
       <c r="E264" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F264" s="12">
         <v>33</v>
@@ -11248,7 +11254,7 @@
         <v>340</v>
       </c>
       <c r="E265" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F265" s="12">
         <v>33</v>
@@ -11271,7 +11277,7 @@
         <v>340</v>
       </c>
       <c r="E266" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F266" s="12">
         <v>33</v>
@@ -11294,7 +11300,7 @@
         <v>340</v>
       </c>
       <c r="E267" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F267" s="12">
         <v>33</v>
@@ -11317,7 +11323,7 @@
         <v>340</v>
       </c>
       <c r="E268" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F268" s="12">
         <v>33</v>
@@ -11340,7 +11346,7 @@
         <v>340</v>
       </c>
       <c r="E269" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F269" s="12">
         <v>33</v>
@@ -11363,7 +11369,7 @@
         <v>340</v>
       </c>
       <c r="E270" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F270" s="12">
         <v>33</v>
@@ -11386,7 +11392,7 @@
         <v>351</v>
       </c>
       <c r="E271" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F271" s="12">
         <v>31</v>
@@ -11409,7 +11415,7 @@
         <v>351</v>
       </c>
       <c r="E272" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F272" s="12">
         <v>31</v>
@@ -11432,7 +11438,7 @@
         <v>351</v>
       </c>
       <c r="E273" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F273" s="12">
         <v>31</v>
@@ -11455,7 +11461,7 @@
         <v>351</v>
       </c>
       <c r="E274" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F274" s="12">
         <v>31</v>
@@ -11478,7 +11484,7 @@
         <v>351</v>
       </c>
       <c r="E275" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F275" s="12">
         <v>31</v>
@@ -11501,7 +11507,7 @@
         <v>351</v>
       </c>
       <c r="E276" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F276" s="12">
         <v>31</v>
@@ -11524,7 +11530,7 @@
         <v>351</v>
       </c>
       <c r="E277" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F277" s="12">
         <v>31</v>
@@ -11547,7 +11553,7 @@
         <v>351</v>
       </c>
       <c r="E278" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F278" s="12">
         <v>31</v>
@@ -11570,7 +11576,7 @@
         <v>351</v>
       </c>
       <c r="E279" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F279" s="12">
         <v>31</v>
@@ -11593,7 +11599,7 @@
         <v>351</v>
       </c>
       <c r="E280" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F280" s="12">
         <v>31</v>
@@ -11616,7 +11622,7 @@
         <v>351</v>
       </c>
       <c r="E281" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F281" s="12">
         <v>31</v>
@@ -11639,7 +11645,7 @@
         <v>360</v>
       </c>
       <c r="E282" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F282" s="12">
         <v>41</v>
@@ -11662,7 +11668,7 @@
         <v>362</v>
       </c>
       <c r="E283" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F283" s="12">
         <v>43</v>
@@ -11685,7 +11691,7 @@
         <v>360</v>
       </c>
       <c r="E284" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F284" s="12">
         <v>41</v>
@@ -11708,7 +11714,7 @@
         <v>365</v>
       </c>
       <c r="E285" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F285" s="12">
         <v>43</v>
@@ -11731,7 +11737,7 @@
         <v>360</v>
       </c>
       <c r="E286" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F286" s="12">
         <v>41</v>
@@ -11754,7 +11760,7 @@
         <v>368</v>
       </c>
       <c r="E287" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F287" s="12">
         <v>43</v>
@@ -11777,7 +11783,7 @@
         <v>360</v>
       </c>
       <c r="E288" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F288" s="12">
         <v>41</v>
@@ -11800,7 +11806,7 @@
         <v>371</v>
       </c>
       <c r="E289" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F289" s="12">
         <v>43</v>
@@ -11823,7 +11829,7 @@
         <v>360</v>
       </c>
       <c r="E290" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F290" s="12">
         <v>41</v>
@@ -11846,7 +11852,7 @@
         <v>374</v>
       </c>
       <c r="E291" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F291" s="12">
         <v>43</v>
@@ -11858,8 +11864,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="292" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A292" s="12">
+        <v>100001</v>
+      </c>
+      <c r="B292" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="C292" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="E292" s="12">
+        <v>6</v>
+      </c>
+      <c r="F292" s="12">
+        <v>100</v>
+      </c>
+      <c r="G292" s="41">
+        <v>0</v>
+      </c>
+      <c r="H292" s="41">
+        <v>0</v>
+      </c>
+      <c r="K292" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E5">
+  <conditionalFormatting sqref="F292">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11871,8 +11901,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F$1:F$1048576">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="E3:E5">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11883,8 +11913,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E2 E292:E1048576 F3:F143">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="E1:E2 E293:E1048576 F3:F143">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11894,7 +11924,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11905,8 +11935,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E2 E292:E1048576">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E1:E2 E293:E1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F291 F293:F1048576">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -2753,7 +2753,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -2435,11 +2435,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{FD9077E1-EBD7-41CD-B377-1ABA49D2A991}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BF0B6A0C-390D-4D69-831C-DC59D1D17364}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{31886902-2744-4CF0-808C-445924D526A3}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{42C90A52-C130-4001-B5B6-5F6A8FFFEC60}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2749,11 +2749,11 @@
   <dimension ref="A1:AC292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3567,7 +3567,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC14" s="40">
@@ -3605,7 +3605,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC15" s="40">
@@ -3643,7 +3643,7 @@
       <c r="L16" s="14">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC16" s="40">
@@ -3683,7 +3683,7 @@
       <c r="L17" s="14">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC17" s="40">
@@ -3723,7 +3723,7 @@
       <c r="L18" s="14">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC18" s="40">
@@ -3763,7 +3763,7 @@
       <c r="L19" s="14">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC19" s="40">
@@ -3803,7 +3803,7 @@
       <c r="L20" s="14">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC20" s="40">
@@ -3843,7 +3843,7 @@
       <c r="L21" s="14">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC21" s="40">
@@ -3883,7 +3883,7 @@
       <c r="L22" s="14">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC22" s="40">
@@ -3923,7 +3923,7 @@
       <c r="L23" s="14">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC23" s="40">
@@ -3963,7 +3963,7 @@
       <c r="L24" s="14">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC24" s="40">
@@ -4001,7 +4001,7 @@
       <c r="L25" s="14">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC25" s="40">
@@ -4039,7 +4039,7 @@
       <c r="L26" s="14">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC26" s="40">
@@ -4077,7 +4077,7 @@
       <c r="L27" s="14">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC27" s="40">
@@ -4115,7 +4115,7 @@
       <c r="L28" s="14">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC28" s="40">
@@ -4155,7 +4155,7 @@
       <c r="L29" s="14">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AC29" s="40">
@@ -4195,8 +4195,8 @@
       <c r="L30" s="14">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>59</v>
+      <c r="M30" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC30" s="40">
         <v>0</v>
@@ -4235,8 +4235,8 @@
       <c r="L31" s="14">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>59</v>
+      <c r="M31" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC31" s="40">
         <v>0</v>
@@ -4275,8 +4275,8 @@
       <c r="L32" s="14">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>59</v>
+      <c r="M32" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC32" s="40">
         <v>0</v>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -2435,11 +2435,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BF0B6A0C-390D-4D69-831C-DC59D1D17364}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A299FA1E-469B-4414-833B-7C78899F878D}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{42C90A52-C130-4001-B5B6-5F6A8FFFEC60}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{61D06C78-F534-44EA-8A7A-99C49A689A66}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2749,11 +2749,11 @@
   <dimension ref="A1:AC292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="376">
   <si>
     <t>物品引索</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>转移强化等级的卷轴</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>吸附石(吸附前)</t>
@@ -2435,11 +2432,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A299FA1E-469B-4414-833B-7C78899F878D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{722019E4-E15D-440C-8F07-17514BED0116}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{61D06C78-F534-44EA-8A7A-99C49A689A66}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{36206E14-B75F-4F56-AA26-71C488ABA9F7}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2749,11 +2746,11 @@
   <dimension ref="A1:AC292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I275" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="N292" sqref="N292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3568,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC14" s="40">
         <v>0</v>
@@ -3579,7 +3576,7 @@
         <v>1205</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="14">
@@ -3606,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC15" s="40">
         <v>0</v>
@@ -3617,7 +3614,7 @@
         <v>1206</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="14">
@@ -3644,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC16" s="40">
         <v>0</v>
@@ -3655,10 +3652,10 @@
         <v>1279</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
@@ -3684,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC17" s="40">
         <v>0</v>
@@ -3695,10 +3692,10 @@
         <v>1280</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
@@ -3724,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC18" s="40">
         <v>0</v>
@@ -3735,10 +3732,10 @@
         <v>1281</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
@@ -3764,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC19" s="40">
         <v>0</v>
@@ -3775,10 +3772,10 @@
         <v>1282</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
@@ -3804,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC20" s="40">
         <v>0</v>
@@ -3815,10 +3812,10 @@
         <v>1283</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="D21" s="14">
         <v>1</v>
@@ -3844,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC21" s="40">
         <v>0</v>
@@ -3855,10 +3852,10 @@
         <v>1284</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="14">
         <v>1</v>
@@ -3884,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC22" s="40">
         <v>0</v>
@@ -3895,10 +3892,10 @@
         <v>1285</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
@@ -3924,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC23" s="40">
         <v>0</v>
@@ -3935,10 +3932,10 @@
         <v>1286</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="D24" s="14">
         <v>1</v>
@@ -3964,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC24" s="40">
         <v>0</v>
@@ -3975,7 +3972,7 @@
         <v>1287</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="14">
@@ -4002,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC25" s="40">
         <v>0</v>
@@ -4013,7 +4010,7 @@
         <v>1288</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="14">
@@ -4040,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC26" s="40">
         <v>0</v>
@@ -4051,7 +4048,7 @@
         <v>1289</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="14">
@@ -4078,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC27" s="40">
         <v>0</v>
@@ -4089,7 +4086,7 @@
         <v>1290</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="14">
@@ -4116,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC28" s="40">
         <v>0</v>
@@ -4127,10 +4124,10 @@
         <v>1291</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -4156,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AC29" s="40">
         <v>0</v>
@@ -4167,10 +4164,10 @@
         <v>1292</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="D30" s="14">
         <v>1</v>
@@ -4207,10 +4204,10 @@
         <v>1293</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
@@ -4247,10 +4244,10 @@
         <v>1294</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="D32" s="14">
         <v>1</v>
@@ -4287,7 +4284,7 @@
         <v>2001</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="14">
@@ -4313,8 +4310,8 @@
       <c r="L33" s="14">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>59</v>
+      <c r="M33" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC33" s="40">
         <v>0</v>
@@ -4325,7 +4322,7 @@
         <v>2002</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="14">
@@ -4351,8 +4348,8 @@
       <c r="L34" s="14">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>59</v>
+      <c r="M34" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC34" s="40">
         <v>0</v>
@@ -4363,7 +4360,7 @@
         <v>2003</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="14">
@@ -4389,8 +4386,8 @@
       <c r="L35" s="14">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>59</v>
+      <c r="M35" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC35" s="40">
         <v>0</v>
@@ -4401,7 +4398,7 @@
         <v>2004</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="14">
@@ -4427,8 +4424,8 @@
       <c r="L36" s="14">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>59</v>
+      <c r="M36" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC36" s="40">
         <v>0</v>
@@ -4439,7 +4436,7 @@
         <v>2005</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="14">
@@ -4465,8 +4462,8 @@
       <c r="L37" s="14">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>59</v>
+      <c r="M37" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC37" s="40">
         <v>0</v>
@@ -4477,7 +4474,7 @@
         <v>2006</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="14">
@@ -4503,8 +4500,8 @@
       <c r="L38" s="14">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>59</v>
+      <c r="M38" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC38" s="40">
         <v>0</v>
@@ -4515,7 +4512,7 @@
         <v>2007</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="14">
@@ -4541,8 +4538,8 @@
       <c r="L39" s="14">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>59</v>
+      <c r="M39" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC39" s="40">
         <v>0</v>
@@ -4553,7 +4550,7 @@
         <v>2008</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="14">
@@ -4579,8 +4576,8 @@
       <c r="L40" s="14">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>59</v>
+      <c r="M40" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC40" s="40">
         <v>0</v>
@@ -4591,7 +4588,7 @@
         <v>2009</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="14">
@@ -4617,8 +4614,8 @@
       <c r="L41" s="14">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>59</v>
+      <c r="M41" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC41" s="40">
         <v>0</v>
@@ -4629,7 +4626,7 @@
         <v>2010</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="14">
@@ -4655,8 +4652,8 @@
       <c r="L42" s="14">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>59</v>
+      <c r="M42" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC42" s="40">
         <v>0</v>
@@ -4667,7 +4664,7 @@
         <v>2011</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="14">
@@ -4693,8 +4690,8 @@
       <c r="L43" s="14">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>59</v>
+      <c r="M43" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC43" s="40">
         <v>0</v>
@@ -4705,7 +4702,7 @@
         <v>2012</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="14">
@@ -4731,8 +4728,8 @@
       <c r="L44" s="14">
         <v>0</v>
       </c>
-      <c r="M44" t="s">
-        <v>59</v>
+      <c r="M44" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC44" s="40">
         <v>0</v>
@@ -4743,7 +4740,7 @@
         <v>2013</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="14">
@@ -4769,8 +4766,8 @@
       <c r="L45" s="14">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>59</v>
+      <c r="M45" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC45" s="40">
         <v>0</v>
@@ -4781,7 +4778,7 @@
         <v>2014</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="14">
@@ -4807,8 +4804,8 @@
       <c r="L46" s="14">
         <v>0</v>
       </c>
-      <c r="M46" t="s">
-        <v>59</v>
+      <c r="M46" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC46" s="40">
         <v>0</v>
@@ -4819,7 +4816,7 @@
         <v>2015</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="14">
@@ -4845,8 +4842,8 @@
       <c r="L47" s="14">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>59</v>
+      <c r="M47" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC47" s="40">
         <v>0</v>
@@ -4857,7 +4854,7 @@
         <v>2016</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="14">
@@ -4883,8 +4880,8 @@
       <c r="L48" s="14">
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>59</v>
+      <c r="M48" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC48" s="40">
         <v>0</v>
@@ -4895,7 +4892,7 @@
         <v>2017</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="14">
@@ -4921,8 +4918,8 @@
       <c r="L49" s="14">
         <v>0</v>
       </c>
-      <c r="M49" t="s">
-        <v>59</v>
+      <c r="M49" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC49" s="40">
         <v>0</v>
@@ -4933,7 +4930,7 @@
         <v>2019</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="14">
@@ -4959,8 +4956,8 @@
       <c r="L50" s="14">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>59</v>
+      <c r="M50" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC50" s="40">
         <v>0</v>
@@ -4971,7 +4968,7 @@
         <v>2020</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="14">
@@ -4997,8 +4994,8 @@
       <c r="L51" s="14">
         <v>0</v>
       </c>
-      <c r="M51" t="s">
-        <v>59</v>
+      <c r="M51" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC51" s="40">
         <v>0</v>
@@ -5009,7 +5006,7 @@
         <v>2021</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="14">
@@ -5035,8 +5032,8 @@
       <c r="L52" s="14">
         <v>0</v>
       </c>
-      <c r="M52" t="s">
-        <v>59</v>
+      <c r="M52" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC52" s="40">
         <v>0</v>
@@ -5047,7 +5044,7 @@
         <v>2022</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="14">
@@ -5073,8 +5070,8 @@
       <c r="L53" s="14">
         <v>0</v>
       </c>
-      <c r="M53" t="s">
-        <v>59</v>
+      <c r="M53" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC53" s="40">
         <v>0</v>
@@ -5085,7 +5082,7 @@
         <v>2023</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="14">
@@ -5111,8 +5108,8 @@
       <c r="L54" s="14">
         <v>0</v>
       </c>
-      <c r="M54" t="s">
-        <v>59</v>
+      <c r="M54" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC54" s="40">
         <v>0</v>
@@ -5123,7 +5120,7 @@
         <v>2024</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="14">
@@ -5149,8 +5146,8 @@
       <c r="L55" s="14">
         <v>0</v>
       </c>
-      <c r="M55" t="s">
-        <v>59</v>
+      <c r="M55" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC55" s="40">
         <v>0</v>
@@ -5161,7 +5158,7 @@
         <v>2025</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="14">
@@ -5187,8 +5184,8 @@
       <c r="L56" s="14">
         <v>0</v>
       </c>
-      <c r="M56" t="s">
-        <v>59</v>
+      <c r="M56" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC56" s="40">
         <v>0</v>
@@ -5199,7 +5196,7 @@
         <v>2026</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="14">
@@ -5225,8 +5222,8 @@
       <c r="L57" s="14">
         <v>0</v>
       </c>
-      <c r="M57" t="s">
-        <v>59</v>
+      <c r="M57" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC57" s="40">
         <v>0</v>
@@ -5237,7 +5234,7 @@
         <v>2027</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="14">
@@ -5263,8 +5260,8 @@
       <c r="L58" s="14">
         <v>0</v>
       </c>
-      <c r="M58" t="s">
-        <v>59</v>
+      <c r="M58" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC58" s="40">
         <v>0</v>
@@ -5275,7 +5272,7 @@
         <v>2028</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="14">
@@ -5301,8 +5298,8 @@
       <c r="L59" s="14">
         <v>0</v>
       </c>
-      <c r="M59" t="s">
-        <v>59</v>
+      <c r="M59" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC59" s="40">
         <v>0</v>
@@ -5313,7 +5310,7 @@
         <v>2029</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="14">
@@ -5339,8 +5336,8 @@
       <c r="L60" s="14">
         <v>0</v>
       </c>
-      <c r="M60" t="s">
-        <v>59</v>
+      <c r="M60" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC60" s="40">
         <v>0</v>
@@ -5351,7 +5348,7 @@
         <v>2030</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="14">
@@ -5377,8 +5374,8 @@
       <c r="L61" s="14">
         <v>0</v>
       </c>
-      <c r="M61" t="s">
-        <v>59</v>
+      <c r="M61" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC61" s="40">
         <v>0</v>
@@ -5389,7 +5386,7 @@
         <v>2031</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="14">
@@ -5415,8 +5412,8 @@
       <c r="L62" s="14">
         <v>0</v>
       </c>
-      <c r="M62" t="s">
-        <v>59</v>
+      <c r="M62" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC62" s="40">
         <v>0</v>
@@ -5427,7 +5424,7 @@
         <v>2032</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="14">
@@ -5453,8 +5450,8 @@
       <c r="L63" s="14">
         <v>0</v>
       </c>
-      <c r="M63" t="s">
-        <v>59</v>
+      <c r="M63" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC63" s="40">
         <v>0</v>
@@ -5465,7 +5462,7 @@
         <v>2033</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="14">
@@ -5491,8 +5488,8 @@
       <c r="L64" s="14">
         <v>0</v>
       </c>
-      <c r="M64" t="s">
-        <v>59</v>
+      <c r="M64" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC64" s="40">
         <v>0</v>
@@ -5503,7 +5500,7 @@
         <v>2034</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="14">
@@ -5529,8 +5526,8 @@
       <c r="L65" s="14">
         <v>0</v>
       </c>
-      <c r="M65" t="s">
-        <v>59</v>
+      <c r="M65" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC65" s="40">
         <v>0</v>
@@ -5541,7 +5538,7 @@
         <v>2035</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="14">
@@ -5567,8 +5564,8 @@
       <c r="L66" s="14">
         <v>0</v>
       </c>
-      <c r="M66" t="s">
-        <v>59</v>
+      <c r="M66" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC66" s="40">
         <v>0</v>
@@ -5579,7 +5576,7 @@
         <v>2036</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="14">
@@ -5605,8 +5602,8 @@
       <c r="L67" s="14">
         <v>0</v>
       </c>
-      <c r="M67" t="s">
-        <v>59</v>
+      <c r="M67" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC67" s="40">
         <v>0</v>
@@ -5617,7 +5614,7 @@
         <v>2037</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="14">
@@ -5643,8 +5640,8 @@
       <c r="L68" s="14">
         <v>0</v>
       </c>
-      <c r="M68" t="s">
-        <v>59</v>
+      <c r="M68" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC68" s="40">
         <v>0</v>
@@ -5655,7 +5652,7 @@
         <v>2038</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="14">
@@ -5681,8 +5678,8 @@
       <c r="L69" s="14">
         <v>0</v>
       </c>
-      <c r="M69" t="s">
-        <v>59</v>
+      <c r="M69" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC69" s="40">
         <v>0</v>
@@ -5693,7 +5690,7 @@
         <v>2039</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="14">
@@ -5719,8 +5716,8 @@
       <c r="L70" s="14">
         <v>0</v>
       </c>
-      <c r="M70" t="s">
-        <v>59</v>
+      <c r="M70" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC70" s="40">
         <v>0</v>
@@ -5731,7 +5728,7 @@
         <v>2040</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="14">
@@ -5757,8 +5754,8 @@
       <c r="L71" s="14">
         <v>0</v>
       </c>
-      <c r="M71" t="s">
-        <v>59</v>
+      <c r="M71" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC71" s="40">
         <v>0</v>
@@ -5769,7 +5766,7 @@
         <v>2041</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="14">
@@ -5795,8 +5792,8 @@
       <c r="L72" s="14">
         <v>0</v>
       </c>
-      <c r="M72" t="s">
-        <v>59</v>
+      <c r="M72" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC72" s="40">
         <v>0</v>
@@ -5807,7 +5804,7 @@
         <v>2042</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="14">
@@ -5833,8 +5830,8 @@
       <c r="L73" s="14">
         <v>0</v>
       </c>
-      <c r="M73" t="s">
-        <v>59</v>
+      <c r="M73" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC73" s="40">
         <v>0</v>
@@ -5845,7 +5842,7 @@
         <v>2043</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="14">
@@ -5871,8 +5868,8 @@
       <c r="L74" s="14">
         <v>0</v>
       </c>
-      <c r="M74" t="s">
-        <v>59</v>
+      <c r="M74" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC74" s="40">
         <v>0</v>
@@ -5883,7 +5880,7 @@
         <v>2044</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="14">
@@ -5909,8 +5906,8 @@
       <c r="L75" s="14">
         <v>0</v>
       </c>
-      <c r="M75" t="s">
-        <v>59</v>
+      <c r="M75" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC75" s="40">
         <v>0</v>
@@ -5921,7 +5918,7 @@
         <v>2045</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="14">
@@ -5947,8 +5944,8 @@
       <c r="L76" s="14">
         <v>0</v>
       </c>
-      <c r="M76" t="s">
-        <v>59</v>
+      <c r="M76" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC76" s="40">
         <v>0</v>
@@ -5959,7 +5956,7 @@
         <v>2501</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="14">
@@ -5985,8 +5982,8 @@
       <c r="L77" s="14">
         <v>0</v>
       </c>
-      <c r="M77" t="s">
-        <v>59</v>
+      <c r="M77" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC77" s="40">
         <v>0</v>
@@ -5997,7 +5994,7 @@
         <v>2502</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="14">
@@ -6023,8 +6020,8 @@
       <c r="L78" s="14">
         <v>0</v>
       </c>
-      <c r="M78" t="s">
-        <v>59</v>
+      <c r="M78" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC78" s="40">
         <v>0</v>
@@ -6035,7 +6032,7 @@
         <v>2503</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="14">
@@ -6061,8 +6058,8 @@
       <c r="L79" s="14">
         <v>0</v>
       </c>
-      <c r="M79" t="s">
-        <v>59</v>
+      <c r="M79" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC79" s="40">
         <v>0</v>
@@ -6073,7 +6070,7 @@
         <v>2504</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="14">
@@ -6099,8 +6096,8 @@
       <c r="L80" s="14">
         <v>0</v>
       </c>
-      <c r="M80" t="s">
-        <v>59</v>
+      <c r="M80" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC80" s="40">
         <v>0</v>
@@ -6111,7 +6108,7 @@
         <v>2505</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="14">
@@ -6137,8 +6134,8 @@
       <c r="L81" s="14">
         <v>0</v>
       </c>
-      <c r="M81" t="s">
-        <v>59</v>
+      <c r="M81" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC81" s="40">
         <v>0</v>
@@ -6149,7 +6146,7 @@
         <v>2506</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="14">
@@ -6175,8 +6172,8 @@
       <c r="L82" s="14">
         <v>0</v>
       </c>
-      <c r="M82" t="s">
-        <v>59</v>
+      <c r="M82" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC82" s="40">
         <v>0</v>
@@ -6187,7 +6184,7 @@
         <v>2507</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="14">
@@ -6213,8 +6210,8 @@
       <c r="L83" s="14">
         <v>0</v>
       </c>
-      <c r="M83" t="s">
-        <v>59</v>
+      <c r="M83" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC83" s="40">
         <v>0</v>
@@ -6225,7 +6222,7 @@
         <v>2508</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="14">
@@ -6251,8 +6248,8 @@
       <c r="L84" s="14">
         <v>0</v>
       </c>
-      <c r="M84" t="s">
-        <v>59</v>
+      <c r="M84" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC84" s="40">
         <v>0</v>
@@ -6263,7 +6260,7 @@
         <v>2509</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="14">
@@ -6289,8 +6286,8 @@
       <c r="L85" s="14">
         <v>0</v>
       </c>
-      <c r="M85" t="s">
-        <v>59</v>
+      <c r="M85" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC85" s="40">
         <v>0</v>
@@ -6301,7 +6298,7 @@
         <v>2510</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="14">
@@ -6327,8 +6324,8 @@
       <c r="L86" s="14">
         <v>0</v>
       </c>
-      <c r="M86" t="s">
-        <v>59</v>
+      <c r="M86" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC86" s="40">
         <v>0</v>
@@ -6339,7 +6336,7 @@
         <v>2511</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="14">
@@ -6365,8 +6362,8 @@
       <c r="L87" s="14">
         <v>0</v>
       </c>
-      <c r="M87" t="s">
-        <v>59</v>
+      <c r="M87" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC87" s="40">
         <v>0</v>
@@ -6377,7 +6374,7 @@
         <v>2512</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="14">
@@ -6403,8 +6400,8 @@
       <c r="L88" s="14">
         <v>0</v>
       </c>
-      <c r="M88" t="s">
-        <v>59</v>
+      <c r="M88" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC88" s="40">
         <v>0</v>
@@ -6415,7 +6412,7 @@
         <v>2513</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="14">
@@ -6441,8 +6438,8 @@
       <c r="L89" s="14">
         <v>0</v>
       </c>
-      <c r="M89" t="s">
-        <v>59</v>
+      <c r="M89" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC89" s="40">
         <v>0</v>
@@ -6453,7 +6450,7 @@
         <v>2514</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="14">
@@ -6479,8 +6476,8 @@
       <c r="L90" s="14">
         <v>0</v>
       </c>
-      <c r="M90" t="s">
-        <v>59</v>
+      <c r="M90" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC90" s="40">
         <v>0</v>
@@ -6491,7 +6488,7 @@
         <v>2516</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="14">
@@ -6517,8 +6514,8 @@
       <c r="L91" s="14">
         <v>0</v>
       </c>
-      <c r="M91" t="s">
-        <v>59</v>
+      <c r="M91" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC91" s="40">
         <v>0</v>
@@ -6529,7 +6526,7 @@
         <v>2517</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="14">
@@ -6555,8 +6552,8 @@
       <c r="L92" s="14">
         <v>0</v>
       </c>
-      <c r="M92" t="s">
-        <v>59</v>
+      <c r="M92" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC92" s="40">
         <v>0</v>
@@ -6567,7 +6564,7 @@
         <v>2518</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="14">
@@ -6593,8 +6590,8 @@
       <c r="L93" s="14">
         <v>0</v>
       </c>
-      <c r="M93" t="s">
-        <v>59</v>
+      <c r="M93" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC93" s="40">
         <v>0</v>
@@ -6605,7 +6602,7 @@
         <v>2519</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="14">
@@ -6631,8 +6628,8 @@
       <c r="L94" s="14">
         <v>0</v>
       </c>
-      <c r="M94" t="s">
-        <v>59</v>
+      <c r="M94" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC94" s="40">
         <v>0</v>
@@ -6643,7 +6640,7 @@
         <v>2520</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="14">
@@ -6669,8 +6666,8 @@
       <c r="L95" s="14">
         <v>0</v>
       </c>
-      <c r="M95" t="s">
-        <v>59</v>
+      <c r="M95" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC95" s="40">
         <v>0</v>
@@ -6681,7 +6678,7 @@
         <v>2521</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="14">
@@ -6707,8 +6704,8 @@
       <c r="L96" s="14">
         <v>0</v>
       </c>
-      <c r="M96" t="s">
-        <v>59</v>
+      <c r="M96" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC96" s="40">
         <v>0</v>
@@ -6719,7 +6716,7 @@
         <v>2522</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="14">
@@ -6745,8 +6742,8 @@
       <c r="L97" s="14">
         <v>0</v>
       </c>
-      <c r="M97" t="s">
-        <v>59</v>
+      <c r="M97" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC97" s="40">
         <v>0</v>
@@ -6757,7 +6754,7 @@
         <v>2523</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="14">
@@ -6783,8 +6780,8 @@
       <c r="L98" s="14">
         <v>0</v>
       </c>
-      <c r="M98" t="s">
-        <v>59</v>
+      <c r="M98" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC98" s="40">
         <v>0</v>
@@ -6795,7 +6792,7 @@
         <v>2524</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="14">
@@ -6821,8 +6818,8 @@
       <c r="L99" s="14">
         <v>0</v>
       </c>
-      <c r="M99" t="s">
-        <v>59</v>
+      <c r="M99" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC99" s="40">
         <v>0</v>
@@ -6833,7 +6830,7 @@
         <v>2525</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="14">
@@ -6859,8 +6856,8 @@
       <c r="L100" s="14">
         <v>0</v>
       </c>
-      <c r="M100" t="s">
-        <v>59</v>
+      <c r="M100" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC100" s="40">
         <v>0</v>
@@ -6871,7 +6868,7 @@
         <v>2526</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="14">
@@ -6897,8 +6894,8 @@
       <c r="L101" s="14">
         <v>0</v>
       </c>
-      <c r="M101" t="s">
-        <v>59</v>
+      <c r="M101" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC101" s="40">
         <v>0</v>
@@ -6909,7 +6906,7 @@
         <v>2527</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="14">
@@ -6935,8 +6932,8 @@
       <c r="L102" s="14">
         <v>0</v>
       </c>
-      <c r="M102" t="s">
-        <v>59</v>
+      <c r="M102" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC102" s="40">
         <v>0</v>
@@ -6947,7 +6944,7 @@
         <v>2528</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="14">
@@ -6973,8 +6970,8 @@
       <c r="L103" s="14">
         <v>0</v>
       </c>
-      <c r="M103" t="s">
-        <v>59</v>
+      <c r="M103" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC103" s="40">
         <v>0</v>
@@ -6985,7 +6982,7 @@
         <v>2529</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="14">
@@ -7011,8 +7008,8 @@
       <c r="L104" s="14">
         <v>0</v>
       </c>
-      <c r="M104" t="s">
-        <v>59</v>
+      <c r="M104" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC104" s="40">
         <v>0</v>
@@ -7023,7 +7020,7 @@
         <v>2530</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="14">
@@ -7049,8 +7046,8 @@
       <c r="L105" s="14">
         <v>0</v>
       </c>
-      <c r="M105" t="s">
-        <v>59</v>
+      <c r="M105" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC105" s="40">
         <v>0</v>
@@ -7061,7 +7058,7 @@
         <v>2531</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="14">
@@ -7087,8 +7084,8 @@
       <c r="L106" s="14">
         <v>0</v>
       </c>
-      <c r="M106" t="s">
-        <v>59</v>
+      <c r="M106" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC106" s="40">
         <v>0</v>
@@ -7099,7 +7096,7 @@
         <v>2532</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="14">
@@ -7125,8 +7122,8 @@
       <c r="L107" s="14">
         <v>0</v>
       </c>
-      <c r="M107" t="s">
-        <v>59</v>
+      <c r="M107" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC107" s="40">
         <v>0</v>
@@ -7137,7 +7134,7 @@
         <v>2533</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="14">
@@ -7163,8 +7160,8 @@
       <c r="L108" s="14">
         <v>0</v>
       </c>
-      <c r="M108" t="s">
-        <v>59</v>
+      <c r="M108" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC108" s="40">
         <v>0</v>
@@ -7175,7 +7172,7 @@
         <v>2534</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="14">
@@ -7201,8 +7198,8 @@
       <c r="L109" s="14">
         <v>0</v>
       </c>
-      <c r="M109" t="s">
-        <v>59</v>
+      <c r="M109" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC109" s="40">
         <v>0</v>
@@ -7213,7 +7210,7 @@
         <v>2535</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="14">
@@ -7239,8 +7236,8 @@
       <c r="L110" s="14">
         <v>0</v>
       </c>
-      <c r="M110" t="s">
-        <v>59</v>
+      <c r="M110" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC110" s="40">
         <v>0</v>
@@ -7251,7 +7248,7 @@
         <v>2536</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="14">
@@ -7277,8 +7274,8 @@
       <c r="L111" s="14">
         <v>0</v>
       </c>
-      <c r="M111" t="s">
-        <v>59</v>
+      <c r="M111" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC111" s="40">
         <v>0</v>
@@ -7289,7 +7286,7 @@
         <v>2537</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="14">
@@ -7315,8 +7312,8 @@
       <c r="L112" s="14">
         <v>0</v>
       </c>
-      <c r="M112" t="s">
-        <v>59</v>
+      <c r="M112" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC112" s="40">
         <v>0</v>
@@ -7327,7 +7324,7 @@
         <v>2538</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="14">
@@ -7353,8 +7350,8 @@
       <c r="L113" s="14">
         <v>0</v>
       </c>
-      <c r="M113" t="s">
-        <v>59</v>
+      <c r="M113" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC113" s="40">
         <v>0</v>
@@ -7365,7 +7362,7 @@
         <v>2539</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="14">
@@ -7391,8 +7388,8 @@
       <c r="L114" s="14">
         <v>0</v>
       </c>
-      <c r="M114" t="s">
-        <v>59</v>
+      <c r="M114" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC114" s="40">
         <v>0</v>
@@ -7403,7 +7400,7 @@
         <v>2540</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="14">
@@ -7429,8 +7426,8 @@
       <c r="L115" s="14">
         <v>0</v>
       </c>
-      <c r="M115" t="s">
-        <v>59</v>
+      <c r="M115" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC115" s="40">
         <v>0</v>
@@ -7441,7 +7438,7 @@
         <v>2541</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="14">
@@ -7467,8 +7464,8 @@
       <c r="L116" s="14">
         <v>0</v>
       </c>
-      <c r="M116" t="s">
-        <v>59</v>
+      <c r="M116" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC116" s="40">
         <v>0</v>
@@ -7479,7 +7476,7 @@
         <v>2542</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="14">
@@ -7505,8 +7502,8 @@
       <c r="L117" s="14">
         <v>0</v>
       </c>
-      <c r="M117" t="s">
-        <v>59</v>
+      <c r="M117" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC117" s="40">
         <v>0</v>
@@ -7517,7 +7514,7 @@
         <v>2543</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="14">
@@ -7543,8 +7540,8 @@
       <c r="L118" s="14">
         <v>0</v>
       </c>
-      <c r="M118" t="s">
-        <v>59</v>
+      <c r="M118" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC118" s="40">
         <v>0</v>
@@ -7555,7 +7552,7 @@
         <v>2544</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C119" s="12"/>
       <c r="D119" s="14">
@@ -7581,8 +7578,8 @@
       <c r="L119" s="14">
         <v>0</v>
       </c>
-      <c r="M119" t="s">
-        <v>59</v>
+      <c r="M119" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC119" s="40">
         <v>0</v>
@@ -7593,7 +7590,7 @@
         <v>2545</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C120" s="12"/>
       <c r="D120" s="14">
@@ -7619,8 +7616,8 @@
       <c r="L120" s="14">
         <v>0</v>
       </c>
-      <c r="M120" t="s">
-        <v>59</v>
+      <c r="M120" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC120" s="40">
         <v>0</v>
@@ -7631,7 +7628,7 @@
         <v>2546</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="14">
@@ -7657,8 +7654,8 @@
       <c r="L121" s="14">
         <v>0</v>
       </c>
-      <c r="M121" t="s">
-        <v>59</v>
+      <c r="M121" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC121" s="40">
         <v>0</v>
@@ -7669,7 +7666,7 @@
         <v>2547</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="14">
@@ -7695,8 +7692,8 @@
       <c r="L122" s="14">
         <v>0</v>
       </c>
-      <c r="M122" t="s">
-        <v>59</v>
+      <c r="M122" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC122" s="40">
         <v>0</v>
@@ -7707,7 +7704,7 @@
         <v>2548</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="14">
@@ -7733,8 +7730,8 @@
       <c r="L123" s="14">
         <v>0</v>
       </c>
-      <c r="M123" t="s">
-        <v>59</v>
+      <c r="M123" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC123" s="40">
         <v>0</v>
@@ -7745,7 +7742,7 @@
         <v>2549</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="14">
@@ -7771,8 +7768,8 @@
       <c r="L124" s="14">
         <v>0</v>
       </c>
-      <c r="M124" t="s">
-        <v>59</v>
+      <c r="M124" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC124" s="40">
         <v>0</v>
@@ -7783,7 +7780,7 @@
         <v>2550</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C125" s="12"/>
       <c r="D125" s="14">
@@ -7809,8 +7806,8 @@
       <c r="L125" s="14">
         <v>0</v>
       </c>
-      <c r="M125" t="s">
-        <v>59</v>
+      <c r="M125" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC125" s="40">
         <v>0</v>
@@ -7821,7 +7818,7 @@
         <v>2551</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="14">
@@ -7847,8 +7844,8 @@
       <c r="L126" s="14">
         <v>0</v>
       </c>
-      <c r="M126" t="s">
-        <v>59</v>
+      <c r="M126" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC126" s="40">
         <v>0</v>
@@ -7859,7 +7856,7 @@
         <v>2552</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C127" s="12"/>
       <c r="D127" s="14">
@@ -7885,8 +7882,8 @@
       <c r="L127" s="14">
         <v>0</v>
       </c>
-      <c r="M127" t="s">
-        <v>59</v>
+      <c r="M127" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC127" s="40">
         <v>0</v>
@@ -7897,7 +7894,7 @@
         <v>2553</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="14">
@@ -7923,8 +7920,8 @@
       <c r="L128" s="14">
         <v>0</v>
       </c>
-      <c r="M128" t="s">
-        <v>59</v>
+      <c r="M128" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC128" s="40">
         <v>0</v>
@@ -7935,7 +7932,7 @@
         <v>2554</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="14">
@@ -7961,8 +7958,8 @@
       <c r="L129" s="14">
         <v>0</v>
       </c>
-      <c r="M129" t="s">
-        <v>59</v>
+      <c r="M129" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC129" s="40">
         <v>0</v>
@@ -7973,7 +7970,7 @@
         <v>2555</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C130" s="12"/>
       <c r="D130" s="14">
@@ -7999,8 +7996,8 @@
       <c r="L130" s="14">
         <v>0</v>
       </c>
-      <c r="M130" t="s">
-        <v>59</v>
+      <c r="M130" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC130" s="40">
         <v>0</v>
@@ -8011,7 +8008,7 @@
         <v>2556</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="14">
@@ -8037,8 +8034,8 @@
       <c r="L131" s="14">
         <v>0</v>
       </c>
-      <c r="M131" t="s">
-        <v>59</v>
+      <c r="M131" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC131" s="40">
         <v>0</v>
@@ -8049,7 +8046,7 @@
         <v>2557</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C132" s="12"/>
       <c r="D132" s="14">
@@ -8075,8 +8072,8 @@
       <c r="L132" s="14">
         <v>0</v>
       </c>
-      <c r="M132" t="s">
-        <v>59</v>
+      <c r="M132" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC132" s="40">
         <v>0</v>
@@ -8087,7 +8084,7 @@
         <v>2558</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C133" s="12"/>
       <c r="D133" s="14">
@@ -8113,8 +8110,8 @@
       <c r="L133" s="14">
         <v>0</v>
       </c>
-      <c r="M133" t="s">
-        <v>59</v>
+      <c r="M133" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC133" s="40">
         <v>0</v>
@@ -8125,7 +8122,7 @@
         <v>2559</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C134" s="12"/>
       <c r="D134" s="14">
@@ -8151,8 +8148,8 @@
       <c r="L134" s="14">
         <v>0</v>
       </c>
-      <c r="M134" t="s">
-        <v>59</v>
+      <c r="M134" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC134" s="40">
         <v>0</v>
@@ -8163,7 +8160,7 @@
         <v>2560</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="14">
@@ -8189,8 +8186,8 @@
       <c r="L135" s="14">
         <v>0</v>
       </c>
-      <c r="M135" t="s">
-        <v>59</v>
+      <c r="M135" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC135" s="40">
         <v>0</v>
@@ -8201,7 +8198,7 @@
         <v>2901</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="14">
@@ -8227,8 +8224,8 @@
       <c r="L136" s="14">
         <v>0</v>
       </c>
-      <c r="M136" t="s">
-        <v>59</v>
+      <c r="M136" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC136" s="40">
         <v>0</v>
@@ -8239,7 +8236,7 @@
         <v>2902</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C137" s="12"/>
       <c r="D137" s="14">
@@ -8265,8 +8262,8 @@
       <c r="L137" s="14">
         <v>0</v>
       </c>
-      <c r="M137" t="s">
-        <v>59</v>
+      <c r="M137" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC137" s="40">
         <v>0</v>
@@ -8277,7 +8274,7 @@
         <v>2903</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="14">
@@ -8303,8 +8300,8 @@
       <c r="L138" s="14">
         <v>0</v>
       </c>
-      <c r="M138" t="s">
-        <v>59</v>
+      <c r="M138" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC138" s="40">
         <v>0</v>
@@ -8315,7 +8312,7 @@
         <v>2904</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="14">
@@ -8341,8 +8338,8 @@
       <c r="L139" s="14">
         <v>0</v>
       </c>
-      <c r="M139" t="s">
-        <v>59</v>
+      <c r="M139" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC139" s="40">
         <v>0</v>
@@ -8353,7 +8350,7 @@
         <v>2905</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="14">
@@ -8379,8 +8376,8 @@
       <c r="L140" s="14">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
-        <v>59</v>
+      <c r="M140" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC140" s="40">
         <v>0</v>
@@ -8391,7 +8388,7 @@
         <v>2906</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="14">
@@ -8417,8 +8414,8 @@
       <c r="L141" s="14">
         <v>0</v>
       </c>
-      <c r="M141" t="s">
-        <v>59</v>
+      <c r="M141" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC141" s="40">
         <v>0</v>
@@ -8429,7 +8426,7 @@
         <v>2907</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="14">
@@ -8455,8 +8452,8 @@
       <c r="L142" s="14">
         <v>0</v>
       </c>
-      <c r="M142" t="s">
-        <v>59</v>
+      <c r="M142" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC142" s="40">
         <v>0</v>
@@ -8467,7 +8464,7 @@
         <v>2908</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="14">
@@ -8493,19 +8490,19 @@
       <c r="L143" s="14">
         <v>0</v>
       </c>
-      <c r="M143" t="s">
-        <v>59</v>
+      <c r="M143" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AC143" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="144" ht="17.25" spans="1:8">
+    <row r="144" ht="17.25" spans="1:13">
       <c r="A144" s="19">
         <v>2909</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C144" s="12"/>
       <c r="E144" s="20">
@@ -8520,13 +8517,16 @@
       <c r="H144" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" ht="16.5" spans="1:8">
+      <c r="M144" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" ht="16.5" spans="1:13">
       <c r="A145" s="19">
         <v>2910</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C145" s="12"/>
       <c r="E145" s="20">
@@ -8541,13 +8541,16 @@
       <c r="H145" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" ht="16.5" spans="1:8">
+      <c r="M145" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" ht="16.5" spans="1:13">
       <c r="A146" s="19">
         <v>2911</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C146" s="12"/>
       <c r="E146" s="20">
@@ -8562,13 +8565,16 @@
       <c r="H146" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" ht="16.5" spans="1:8">
+      <c r="M146" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" ht="16.5" spans="1:13">
       <c r="A147" s="19">
         <v>2912</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C147" s="12"/>
       <c r="E147" s="20">
@@ -8583,13 +8589,16 @@
       <c r="H147" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" ht="16.5" spans="1:8">
+      <c r="M147" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" ht="16.5" spans="1:13">
       <c r="A148" s="19">
         <v>2913</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C148" s="12"/>
       <c r="E148" s="20">
@@ -8604,13 +8613,16 @@
       <c r="H148" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" ht="16.5" spans="1:8">
+      <c r="M148" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" ht="16.5" spans="1:13">
       <c r="A149" s="19">
         <v>2914</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C149" s="12"/>
       <c r="E149" s="20">
@@ -8625,13 +8637,16 @@
       <c r="H149" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" ht="16.5" spans="1:8">
+      <c r="M149" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" ht="16.5" spans="1:13">
       <c r="A150" s="19">
         <v>2915</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C150" s="12"/>
       <c r="E150" s="20">
@@ -8646,13 +8661,16 @@
       <c r="H150" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" ht="16.5" spans="1:8">
+      <c r="M150" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" ht="16.5" spans="1:13">
       <c r="A151" s="19">
         <v>2916</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C151" s="12"/>
       <c r="E151" s="20">
@@ -8667,13 +8685,16 @@
       <c r="H151" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" ht="16.5" spans="1:8">
+      <c r="M151" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" ht="16.5" spans="1:13">
       <c r="A152" s="19">
         <v>2917</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C152" s="12"/>
       <c r="E152" s="20">
@@ -8688,13 +8709,16 @@
       <c r="H152" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" ht="16.5" spans="1:8">
+      <c r="M152" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" ht="16.5" spans="1:13">
       <c r="A153" s="19">
         <v>2918</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C153" s="12"/>
       <c r="E153" s="20">
@@ -8709,13 +8733,16 @@
       <c r="H153" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" ht="16.5" spans="1:8">
+      <c r="M153" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" ht="16.5" spans="1:13">
       <c r="A154" s="19">
         <v>2919</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C154" s="12"/>
       <c r="E154" s="20">
@@ -8730,13 +8757,16 @@
       <c r="H154" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" ht="16.5" spans="1:8">
+      <c r="M154" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" ht="16.5" spans="1:13">
       <c r="A155" s="19">
         <v>2920</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C155" s="12"/>
       <c r="E155" s="20">
@@ -8751,13 +8781,16 @@
       <c r="H155" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" ht="16.5" spans="1:8">
+      <c r="M155" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" ht="16.5" spans="1:13">
       <c r="A156" s="19">
         <v>2921</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C156" s="12"/>
       <c r="E156" s="20">
@@ -8772,13 +8805,16 @@
       <c r="H156" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" ht="16.5" spans="1:8">
+      <c r="M156" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" ht="16.5" spans="1:13">
       <c r="A157" s="19">
         <v>2922</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C157" s="12"/>
       <c r="E157" s="20">
@@ -8793,13 +8829,16 @@
       <c r="H157" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" ht="16.5" spans="1:8">
+      <c r="M157" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158" ht="16.5" spans="1:13">
       <c r="A158" s="19">
         <v>3201</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C158" s="12"/>
       <c r="E158" s="20">
@@ -8814,13 +8853,16 @@
       <c r="H158" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" ht="16.5" spans="1:8">
+      <c r="M158" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" ht="16.5" spans="1:13">
       <c r="A159" s="19">
         <v>3202</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C159" s="12"/>
       <c r="E159" s="20">
@@ -8835,13 +8877,16 @@
       <c r="H159" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" ht="16.5" spans="1:8">
+      <c r="M159" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" ht="16.5" spans="1:13">
       <c r="A160" s="19">
         <v>3203</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C160" s="12"/>
       <c r="E160" s="20">
@@ -8856,13 +8901,16 @@
       <c r="H160" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" ht="16.5" spans="1:8">
+      <c r="M160" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" ht="16.5" spans="1:13">
       <c r="A161" s="19">
         <v>3204</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C161" s="12"/>
       <c r="E161" s="20">
@@ -8877,13 +8925,16 @@
       <c r="H161" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" ht="16.5" spans="1:8">
+      <c r="M161" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" ht="16.5" spans="1:13">
       <c r="A162" s="19">
         <v>3205</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C162" s="12"/>
       <c r="E162" s="20">
@@ -8898,16 +8949,19 @@
       <c r="H162" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" ht="16.5" spans="1:8">
+      <c r="M162" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" ht="16.5" spans="1:13">
       <c r="A163" s="12">
         <v>3501</v>
       </c>
       <c r="B163" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C163" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="E163" s="12">
         <v>2</v>
@@ -8921,16 +8975,19 @@
       <c r="H163" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" ht="16.5" spans="1:8">
+      <c r="M163" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" ht="16.5" spans="1:13">
       <c r="A164" s="12">
         <v>3502</v>
       </c>
       <c r="B164" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="E164" s="12">
         <v>3</v>
@@ -8944,16 +9001,19 @@
       <c r="H164" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" ht="16.5" spans="1:8">
+      <c r="M164" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" ht="16.5" spans="1:13">
       <c r="A165" s="12">
         <v>3503</v>
       </c>
       <c r="B165" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="E165" s="12">
         <v>4</v>
@@ -8967,16 +9027,19 @@
       <c r="H165" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" ht="16.5" spans="1:8">
+      <c r="M165" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" ht="16.5" spans="1:13">
       <c r="A166" s="12">
         <v>3504</v>
       </c>
       <c r="B166" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C166" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="E166" s="12">
         <v>3</v>
@@ -8990,16 +9053,19 @@
       <c r="H166" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" ht="16.5" spans="1:8">
+      <c r="M166" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" ht="16.5" spans="1:13">
       <c r="A167" s="12">
         <v>3505</v>
       </c>
       <c r="B167" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C167" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="E167" s="12">
         <v>3</v>
@@ -9013,16 +9079,19 @@
       <c r="H167" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" ht="16.5" spans="1:8">
+      <c r="M167" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" ht="16.5" spans="1:13">
       <c r="A168" s="12">
         <v>3506</v>
       </c>
       <c r="B168" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C168" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="E168" s="12">
         <v>3</v>
@@ -9036,16 +9105,19 @@
       <c r="H168" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" ht="16.5" spans="1:8">
+      <c r="M168" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" ht="16.5" spans="1:13">
       <c r="A169" s="12">
         <v>3507</v>
       </c>
       <c r="B169" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C169" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="E169" s="12">
         <v>3</v>
@@ -9059,16 +9131,19 @@
       <c r="H169" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" ht="16.5" spans="1:8">
+      <c r="M169" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" ht="16.5" spans="1:13">
       <c r="A170" s="12">
         <v>3508</v>
       </c>
       <c r="B170" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C170" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="E170" s="12">
         <v>3</v>
@@ -9082,16 +9157,19 @@
       <c r="H170" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" ht="16.5" spans="1:8">
+      <c r="M170" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" ht="16.5" spans="1:13">
       <c r="A171" s="12">
         <v>3509</v>
       </c>
       <c r="B171" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C171" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>232</v>
       </c>
       <c r="E171" s="12">
         <v>3</v>
@@ -9105,16 +9183,19 @@
       <c r="H171" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" ht="16.5" spans="1:8">
+      <c r="M171" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" ht="16.5" spans="1:13">
       <c r="A172" s="12">
         <v>3510</v>
       </c>
       <c r="B172" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C172" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="E172" s="12">
         <v>3</v>
@@ -9128,16 +9209,19 @@
       <c r="H172" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" ht="16.5" spans="1:8">
+      <c r="M172" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" ht="16.5" spans="1:13">
       <c r="A173" s="12">
         <v>3511</v>
       </c>
       <c r="B173" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C173" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="E173" s="12">
         <v>3</v>
@@ -9151,16 +9235,19 @@
       <c r="H173" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" ht="16.5" spans="1:8">
+      <c r="M173" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" ht="16.5" spans="1:13">
       <c r="A174" s="12">
         <v>3512</v>
       </c>
       <c r="B174" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C174" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="E174" s="12">
         <v>3</v>
@@ -9174,16 +9261,19 @@
       <c r="H174" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" ht="16.5" spans="1:8">
+      <c r="M174" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" ht="16.5" spans="1:13">
       <c r="A175" s="12">
         <v>3513</v>
       </c>
       <c r="B175" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C175" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>240</v>
       </c>
       <c r="E175" s="12">
         <v>4</v>
@@ -9197,16 +9287,19 @@
       <c r="H175" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" ht="16.5" spans="1:8">
+      <c r="M175" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" ht="16.5" spans="1:13">
       <c r="A176" s="12">
         <v>3514</v>
       </c>
       <c r="B176" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C176" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="E176" s="12">
         <v>4</v>
@@ -9220,16 +9313,19 @@
       <c r="H176" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" ht="16.5" spans="1:8">
+      <c r="M176" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" ht="16.5" spans="1:13">
       <c r="A177" s="12">
         <v>3515</v>
       </c>
       <c r="B177" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C177" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="E177" s="12">
         <v>4</v>
@@ -9243,16 +9339,19 @@
       <c r="H177" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" ht="16.5" spans="1:8">
+      <c r="M177" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" ht="16.5" spans="1:13">
       <c r="A178" s="12">
         <v>3516</v>
       </c>
       <c r="B178" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C178" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="E178" s="12">
         <v>4</v>
@@ -9266,16 +9365,19 @@
       <c r="H178" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" ht="16.5" spans="1:8">
+      <c r="M178" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" ht="16.5" spans="1:13">
       <c r="A179" s="12">
         <v>3517</v>
       </c>
       <c r="B179" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C179" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="E179" s="12">
         <v>3</v>
@@ -9289,16 +9391,19 @@
       <c r="H179" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" ht="16.5" spans="1:8">
+      <c r="M179" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" ht="16.5" spans="1:13">
       <c r="A180" s="12">
         <v>3518</v>
       </c>
       <c r="B180" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C180" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="E180" s="12">
         <v>4</v>
@@ -9312,16 +9417,19 @@
       <c r="H180" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" ht="16.5" spans="1:8">
+      <c r="M180" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" ht="16.5" spans="1:13">
       <c r="A181" s="12">
         <v>3519</v>
       </c>
       <c r="B181" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C181" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="E181" s="12">
         <v>5</v>
@@ -9335,16 +9443,19 @@
       <c r="H181" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" ht="16.5" spans="1:8">
+      <c r="M181" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" ht="16.5" spans="1:13">
       <c r="A182" s="12">
         <v>3520</v>
       </c>
       <c r="B182" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C182" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="E182" s="12">
         <v>5</v>
@@ -9358,16 +9469,19 @@
       <c r="H182" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" ht="16.5" spans="1:8">
+      <c r="M182" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" ht="16.5" spans="1:13">
       <c r="A183" s="12">
         <v>3521</v>
       </c>
       <c r="B183" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C183" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="E183" s="12">
         <v>5</v>
@@ -9381,16 +9495,19 @@
       <c r="H183" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" ht="16.5" spans="1:8">
+      <c r="M183" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" ht="16.5" spans="1:13">
       <c r="A184" s="12">
         <v>3522</v>
       </c>
       <c r="B184" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C184" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="E184" s="12">
         <v>5</v>
@@ -9404,16 +9521,19 @@
       <c r="H184" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" ht="16.5" spans="1:8">
+      <c r="M184" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" ht="16.5" spans="1:13">
       <c r="A185" s="12">
         <v>3523</v>
       </c>
       <c r="B185" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C185" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="E185" s="12">
         <v>5</v>
@@ -9427,16 +9547,19 @@
       <c r="H185" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" ht="16.5" spans="1:8">
+      <c r="M185" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" ht="16.5" spans="1:13">
       <c r="A186" s="12">
         <v>3524</v>
       </c>
       <c r="B186" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C186" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="E186" s="12">
         <v>5</v>
@@ -9450,16 +9573,19 @@
       <c r="H186" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" ht="16.5" spans="1:8">
+      <c r="M186" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" ht="16.5" spans="1:13">
       <c r="A187" s="12">
         <v>3525</v>
       </c>
       <c r="B187" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C187" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="E187" s="12">
         <v>5</v>
@@ -9473,16 +9599,19 @@
       <c r="H187" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" ht="16.5" spans="1:8">
+      <c r="M187" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" ht="16.5" spans="1:13">
       <c r="A188" s="12">
         <v>10000</v>
       </c>
       <c r="B188" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C188" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="E188" s="12">
         <v>1</v>
@@ -9496,16 +9625,19 @@
       <c r="H188" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" ht="16.5" spans="1:8">
+      <c r="M188" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" ht="16.5" spans="1:13">
       <c r="A189" s="12">
         <v>10001</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E189" s="12">
         <v>1</v>
@@ -9519,16 +9651,19 @@
       <c r="H189" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" ht="16.5" spans="1:8">
+      <c r="M189" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190" ht="16.5" spans="1:13">
       <c r="A190" s="12">
         <v>10002</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E190" s="12">
         <v>1</v>
@@ -9542,16 +9677,19 @@
       <c r="H190" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" ht="16.5" spans="1:8">
+      <c r="M190" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" ht="16.5" spans="1:13">
       <c r="A191" s="12">
         <v>10003</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E191" s="12">
         <v>1</v>
@@ -9565,16 +9703,19 @@
       <c r="H191" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" ht="16.5" spans="1:8">
+      <c r="M191" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" ht="16.5" spans="1:13">
       <c r="A192" s="12">
         <v>10004</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E192" s="12">
         <v>1</v>
@@ -9588,16 +9729,19 @@
       <c r="H192" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" ht="16.5" spans="1:8">
+      <c r="M192" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" ht="16.5" spans="1:13">
       <c r="A193" s="12">
         <v>10005</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E193" s="12">
         <v>1</v>
@@ -9611,16 +9755,19 @@
       <c r="H193" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" ht="16.5" spans="1:8">
+      <c r="M193" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="194" ht="16.5" spans="1:13">
       <c r="A194" s="12">
         <v>10006</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E194" s="12">
         <v>1</v>
@@ -9634,16 +9781,19 @@
       <c r="H194" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" ht="16.5" spans="1:8">
+      <c r="M194" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" ht="16.5" spans="1:13">
       <c r="A195" s="12">
         <v>10007</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E195" s="12">
         <v>1</v>
@@ -9657,16 +9807,19 @@
       <c r="H195" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" ht="16.5" spans="1:8">
+      <c r="M195" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="196" ht="16.5" spans="1:13">
       <c r="A196" s="12">
         <v>10008</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E196" s="12">
         <v>1</v>
@@ -9680,16 +9833,19 @@
       <c r="H196" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" ht="16.5" spans="1:8">
+      <c r="M196" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197" ht="16.5" spans="1:13">
       <c r="A197" s="12">
         <v>10009</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E197" s="12">
         <v>1</v>
@@ -9703,16 +9859,19 @@
       <c r="H197" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" ht="16.5" spans="1:8">
+      <c r="M197" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198" ht="16.5" spans="1:13">
       <c r="A198" s="12">
         <v>10010</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E198" s="12">
         <v>1</v>
@@ -9726,16 +9885,19 @@
       <c r="H198" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" ht="16.5" spans="1:8">
+      <c r="M198" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" ht="16.5" spans="1:13">
       <c r="A199" s="12">
         <v>10011</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E199" s="12">
         <v>1</v>
@@ -9749,16 +9911,19 @@
       <c r="H199" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" ht="16.5" spans="1:8">
+      <c r="M199" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" ht="16.5" spans="1:13">
       <c r="A200" s="12">
         <v>10012</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E200" s="12">
         <v>1</v>
@@ -9772,16 +9937,19 @@
       <c r="H200" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" ht="16.5" spans="1:8">
+      <c r="M200" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" ht="16.5" spans="1:13">
       <c r="A201" s="12">
         <v>10013</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E201" s="12">
         <v>1</v>
@@ -9795,16 +9963,19 @@
       <c r="H201" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" ht="16.5" spans="1:8">
+      <c r="M201" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" ht="16.5" spans="1:13">
       <c r="A202" s="12">
         <v>10014</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E202" s="12">
         <v>1</v>
@@ -9818,16 +9989,19 @@
       <c r="H202" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" ht="16.5" spans="1:8">
+      <c r="M202" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" ht="16.5" spans="1:13">
       <c r="A203" s="12">
         <v>10015</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E203" s="12">
         <v>1</v>
@@ -9841,16 +10015,19 @@
       <c r="H203" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" ht="16.5" spans="1:8">
+      <c r="M203" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="204" ht="16.5" spans="1:13">
       <c r="A204" s="12">
         <v>10016</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E204" s="12">
         <v>1</v>
@@ -9864,16 +10041,19 @@
       <c r="H204" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" ht="16.5" spans="1:8">
+      <c r="M204" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="205" ht="16.5" spans="1:13">
       <c r="A205" s="12">
         <v>10017</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E205" s="12">
         <v>1</v>
@@ -9887,16 +10067,19 @@
       <c r="H205" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" ht="16.5" spans="1:8">
+      <c r="M205" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" ht="16.5" spans="1:13">
       <c r="A206" s="12">
         <v>10101</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E206" s="12">
         <v>2</v>
@@ -9910,16 +10093,19 @@
       <c r="H206" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" ht="16.5" spans="1:8">
+      <c r="M206" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" ht="16.5" spans="1:13">
       <c r="A207" s="12">
         <v>10102</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E207" s="12">
         <v>2</v>
@@ -9933,16 +10119,19 @@
       <c r="H207" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" ht="16.5" spans="1:8">
+      <c r="M207" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" ht="16.5" spans="1:13">
       <c r="A208" s="12">
         <v>10103</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E208" s="12">
         <v>2</v>
@@ -9956,16 +10145,19 @@
       <c r="H208" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" ht="16.5" spans="1:8">
+      <c r="M208" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209" ht="16.5" spans="1:13">
       <c r="A209" s="12">
         <v>10104</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E209" s="12">
         <v>2</v>
@@ -9979,16 +10171,19 @@
       <c r="H209" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" ht="16.5" spans="1:8">
+      <c r="M209" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" ht="16.5" spans="1:13">
       <c r="A210" s="12">
         <v>10105</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E210" s="12">
         <v>2</v>
@@ -10002,16 +10197,19 @@
       <c r="H210" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" ht="16.5" spans="1:8">
+      <c r="M210" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" ht="16.5" spans="1:13">
       <c r="A211" s="12">
         <v>10106</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E211" s="12">
         <v>2</v>
@@ -10025,16 +10223,19 @@
       <c r="H211" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" ht="16.5" spans="1:8">
+      <c r="M211" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" ht="16.5" spans="1:13">
       <c r="A212" s="12">
         <v>10107</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E212" s="12">
         <v>2</v>
@@ -10048,16 +10249,19 @@
       <c r="H212" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" ht="16.5" spans="1:8">
+      <c r="M212" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="213" ht="16.5" spans="1:13">
       <c r="A213" s="12">
         <v>10108</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E213" s="12">
         <v>2</v>
@@ -10071,16 +10275,19 @@
       <c r="H213" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" ht="16.5" spans="1:8">
+      <c r="M213" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="214" ht="16.5" spans="1:13">
       <c r="A214" s="12">
         <v>10109</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E214" s="12">
         <v>2</v>
@@ -10094,16 +10301,19 @@
       <c r="H214" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" ht="16.5" spans="1:8">
+      <c r="M214" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="215" ht="16.5" spans="1:13">
       <c r="A215" s="12">
         <v>10110</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E215" s="12">
         <v>2</v>
@@ -10117,16 +10327,19 @@
       <c r="H215" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" ht="16.5" spans="1:8">
+      <c r="M215" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="216" ht="16.5" spans="1:13">
       <c r="A216" s="12">
         <v>10111</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E216" s="12">
         <v>2</v>
@@ -10140,16 +10353,19 @@
       <c r="H216" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" ht="16.5" spans="1:8">
+      <c r="M216" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217" ht="16.5" spans="1:13">
       <c r="A217" s="12">
         <v>10112</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E217" s="12">
         <v>2</v>
@@ -10163,16 +10379,19 @@
       <c r="H217" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" ht="16.5" spans="1:8">
+      <c r="M217" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218" ht="16.5" spans="1:13">
       <c r="A218" s="12">
         <v>10113</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E218" s="12">
         <v>2</v>
@@ -10186,16 +10405,19 @@
       <c r="H218" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" ht="16.5" spans="1:8">
+      <c r="M218" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219" ht="16.5" spans="1:13">
       <c r="A219" s="12">
         <v>10114</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E219" s="12">
         <v>2</v>
@@ -10209,16 +10431,19 @@
       <c r="H219" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" ht="16.5" spans="1:8">
+      <c r="M219" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" ht="16.5" spans="1:13">
       <c r="A220" s="12">
         <v>10115</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E220" s="12">
         <v>2</v>
@@ -10232,16 +10457,19 @@
       <c r="H220" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" ht="16.5" spans="1:8">
+      <c r="M220" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" ht="16.5" spans="1:13">
       <c r="A221" s="12">
         <v>10116</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E221" s="12">
         <v>2</v>
@@ -10255,16 +10483,19 @@
       <c r="H221" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" ht="16.5" spans="1:8">
+      <c r="M221" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222" ht="16.5" spans="1:13">
       <c r="A222" s="12">
         <v>10117</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E222" s="12">
         <v>2</v>
@@ -10278,16 +10509,19 @@
       <c r="H222" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" ht="16.5" spans="1:8">
+      <c r="M222" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223" ht="16.5" spans="1:13">
       <c r="A223" s="12">
         <v>10118</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E223" s="12">
         <v>2</v>
@@ -10301,16 +10535,19 @@
       <c r="H223" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" ht="16.5" spans="1:8">
+      <c r="M223" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224" ht="16.5" spans="1:13">
       <c r="A224" s="12">
         <v>10201</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E224" s="12">
         <v>3</v>
@@ -10324,16 +10561,19 @@
       <c r="H224" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" ht="16.5" spans="1:8">
+      <c r="M224" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" ht="16.5" spans="1:13">
       <c r="A225" s="12">
         <v>10202</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E225" s="12">
         <v>3</v>
@@ -10347,16 +10587,19 @@
       <c r="H225" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" ht="16.5" spans="1:8">
+      <c r="M225" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="226" ht="16.5" spans="1:13">
       <c r="A226" s="12">
         <v>10203</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E226" s="12">
         <v>3</v>
@@ -10370,16 +10613,19 @@
       <c r="H226" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" ht="16.5" spans="1:8">
+      <c r="M226" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="227" ht="16.5" spans="1:13">
       <c r="A227" s="12">
         <v>10204</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E227" s="12">
         <v>3</v>
@@ -10393,16 +10639,19 @@
       <c r="H227" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" ht="16.5" spans="1:8">
+      <c r="M227" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="228" ht="16.5" spans="1:13">
       <c r="A228" s="12">
         <v>10205</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E228" s="12">
         <v>3</v>
@@ -10416,16 +10665,19 @@
       <c r="H228" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" ht="16.5" spans="1:8">
+      <c r="M228" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" ht="16.5" spans="1:13">
       <c r="A229" s="12">
         <v>10206</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E229" s="12">
         <v>3</v>
@@ -10439,16 +10691,19 @@
       <c r="H229" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" ht="16.5" spans="1:8">
+      <c r="M229" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="230" ht="16.5" spans="1:13">
       <c r="A230" s="12">
         <v>10207</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E230" s="12">
         <v>3</v>
@@ -10462,16 +10717,19 @@
       <c r="H230" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" ht="16.5" spans="1:8">
+      <c r="M230" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231" ht="16.5" spans="1:13">
       <c r="A231" s="12">
         <v>10208</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E231" s="12">
         <v>3</v>
@@ -10485,16 +10743,19 @@
       <c r="H231" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" ht="16.5" spans="1:8">
+      <c r="M231" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232" ht="16.5" spans="1:13">
       <c r="A232" s="12">
         <v>10209</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E232" s="12">
         <v>3</v>
@@ -10508,16 +10769,19 @@
       <c r="H232" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" ht="16.5" spans="1:8">
+      <c r="M232" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="233" ht="16.5" spans="1:13">
       <c r="A233" s="12">
         <v>10210</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E233" s="12">
         <v>3</v>
@@ -10531,16 +10795,19 @@
       <c r="H233" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" ht="16.5" spans="1:8">
+      <c r="M233" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" ht="16.5" spans="1:13">
       <c r="A234" s="12">
         <v>10211</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E234" s="12">
         <v>3</v>
@@ -10554,16 +10821,19 @@
       <c r="H234" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" ht="16.5" spans="1:8">
+      <c r="M234" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" ht="16.5" spans="1:13">
       <c r="A235" s="12">
         <v>10212</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E235" s="12">
         <v>3</v>
@@ -10577,16 +10847,19 @@
       <c r="H235" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" ht="16.5" spans="1:8">
+      <c r="M235" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236" ht="16.5" spans="1:13">
       <c r="A236" s="12">
         <v>10213</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E236" s="12">
         <v>3</v>
@@ -10600,16 +10873,19 @@
       <c r="H236" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" ht="16.5" spans="1:8">
+      <c r="M236" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" ht="16.5" spans="1:13">
       <c r="A237" s="12">
         <v>10214</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E237" s="12">
         <v>3</v>
@@ -10623,16 +10899,19 @@
       <c r="H237" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" ht="16.5" spans="1:8">
+      <c r="M237" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="238" ht="16.5" spans="1:13">
       <c r="A238" s="12">
         <v>10215</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E238" s="12">
         <v>3</v>
@@ -10646,16 +10925,19 @@
       <c r="H238" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" ht="16.5" spans="1:8">
+      <c r="M238" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="239" ht="16.5" spans="1:13">
       <c r="A239" s="12">
         <v>10216</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E239" s="12">
         <v>3</v>
@@ -10669,16 +10951,19 @@
       <c r="H239" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" ht="16.5" spans="1:8">
+      <c r="M239" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" ht="16.5" spans="1:13">
       <c r="A240" s="12">
         <v>10217</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E240" s="12">
         <v>3</v>
@@ -10692,16 +10977,19 @@
       <c r="H240" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" ht="16.5" spans="1:8">
+      <c r="M240" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="241" ht="16.5" spans="1:13">
       <c r="A241" s="12">
         <v>10218</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E241" s="12">
         <v>3</v>
@@ -10715,16 +11003,19 @@
       <c r="H241" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" ht="16.5" spans="1:8">
+      <c r="M241" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="242" ht="16.5" spans="1:13">
       <c r="A242" s="12">
         <v>10301</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E242" s="12">
         <v>4</v>
@@ -10738,16 +11029,19 @@
       <c r="H242" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" ht="16.5" spans="1:8">
+      <c r="M242" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" ht="16.5" spans="1:13">
       <c r="A243" s="12">
         <v>10302</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E243" s="12">
         <v>4</v>
@@ -10761,16 +11055,19 @@
       <c r="H243" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" ht="16.5" spans="1:8">
+      <c r="M243" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="244" ht="16.5" spans="1:13">
       <c r="A244" s="12">
         <v>10303</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E244" s="12">
         <v>4</v>
@@ -10784,16 +11081,19 @@
       <c r="H244" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" ht="16.5" spans="1:8">
+      <c r="M244" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="245" ht="16.5" spans="1:13">
       <c r="A245" s="12">
         <v>10304</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E245" s="12">
         <v>4</v>
@@ -10807,16 +11107,19 @@
       <c r="H245" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" ht="16.5" spans="1:8">
+      <c r="M245" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="246" ht="16.5" spans="1:13">
       <c r="A246" s="12">
         <v>10305</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E246" s="12">
         <v>4</v>
@@ -10830,16 +11133,19 @@
       <c r="H246" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" ht="16.5" spans="1:8">
+      <c r="M246" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="247" ht="16.5" spans="1:13">
       <c r="A247" s="12">
         <v>10306</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E247" s="12">
         <v>4</v>
@@ -10853,16 +11159,19 @@
       <c r="H247" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" ht="16.5" spans="1:8">
+      <c r="M247" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="248" ht="16.5" spans="1:13">
       <c r="A248" s="12">
         <v>10307</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E248" s="12">
         <v>4</v>
@@ -10876,16 +11185,19 @@
       <c r="H248" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" ht="16.5" spans="1:8">
+      <c r="M248" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" ht="16.5" spans="1:13">
       <c r="A249" s="12">
         <v>10308</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E249" s="12">
         <v>4</v>
@@ -10899,16 +11211,19 @@
       <c r="H249" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" ht="16.5" spans="1:8">
+      <c r="M249" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250" ht="16.5" spans="1:13">
       <c r="A250" s="12">
         <v>10309</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E250" s="12">
         <v>4</v>
@@ -10922,16 +11237,19 @@
       <c r="H250" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" ht="16.5" spans="1:8">
+      <c r="M250" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251" ht="16.5" spans="1:13">
       <c r="A251" s="12">
         <v>10310</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E251" s="12">
         <v>4</v>
@@ -10945,16 +11263,19 @@
       <c r="H251" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" ht="16.5" spans="1:8">
+      <c r="M251" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" ht="16.5" spans="1:13">
       <c r="A252" s="12">
         <v>10311</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E252" s="12">
         <v>4</v>
@@ -10968,16 +11289,19 @@
       <c r="H252" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" ht="16.5" spans="1:8">
+      <c r="M252" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253" ht="16.5" spans="1:13">
       <c r="A253" s="12">
         <v>10312</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E253" s="12">
         <v>4</v>
@@ -10991,16 +11315,19 @@
       <c r="H253" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" ht="16.5" spans="1:8">
+      <c r="M253" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" ht="16.5" spans="1:13">
       <c r="A254" s="12">
         <v>10313</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E254" s="12">
         <v>4</v>
@@ -11014,16 +11341,19 @@
       <c r="H254" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" ht="16.5" spans="1:8">
+      <c r="M254" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="255" ht="16.5" spans="1:13">
       <c r="A255" s="12">
         <v>10314</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E255" s="12">
         <v>4</v>
@@ -11037,16 +11367,19 @@
       <c r="H255" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" ht="16.5" spans="1:8">
+      <c r="M255" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="256" ht="16.5" spans="1:13">
       <c r="A256" s="12">
         <v>10315</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E256" s="12">
         <v>4</v>
@@ -11060,16 +11393,19 @@
       <c r="H256" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" ht="16.5" spans="1:8">
+      <c r="M256" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="257" ht="16.5" spans="1:13">
       <c r="A257" s="12">
         <v>10316</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E257" s="12">
         <v>4</v>
@@ -11083,16 +11419,19 @@
       <c r="H257" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" ht="16.5" spans="1:8">
+      <c r="M257" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258" ht="16.5" spans="1:13">
       <c r="A258" s="12">
         <v>10317</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E258" s="12">
         <v>4</v>
@@ -11106,16 +11445,19 @@
       <c r="H258" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" ht="16.5" spans="1:8">
+      <c r="M258" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="259" ht="16.5" spans="1:13">
       <c r="A259" s="12">
         <v>10318</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E259" s="12">
         <v>4</v>
@@ -11129,13 +11471,16 @@
       <c r="H259" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" ht="16.5" spans="1:8">
+      <c r="M259" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="260" ht="16.5" spans="1:13">
       <c r="A260" s="12">
         <v>20000</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C260" s="12"/>
       <c r="E260" s="12">
@@ -11150,16 +11495,19 @@
       <c r="H260" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" ht="16.5" spans="1:8">
+      <c r="M260" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="261" ht="16.5" spans="1:13">
       <c r="A261" s="12">
         <v>20001</v>
       </c>
       <c r="B261" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C261" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="C261" s="12" t="s">
-        <v>340</v>
       </c>
       <c r="E261" s="12">
         <v>6</v>
@@ -11173,16 +11521,19 @@
       <c r="H261" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" ht="16.5" spans="1:8">
+      <c r="M261" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="262" ht="16.5" spans="1:13">
       <c r="A262" s="12">
         <v>20002</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E262" s="12">
         <v>6</v>
@@ -11196,16 +11547,19 @@
       <c r="H262" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" ht="16.5" spans="1:8">
+      <c r="M262" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="263" ht="16.5" spans="1:13">
       <c r="A263" s="12">
         <v>20003</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E263" s="12">
         <v>6</v>
@@ -11219,16 +11573,19 @@
       <c r="H263" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" ht="16.5" spans="1:8">
+      <c r="M263" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="264" ht="16.5" spans="1:13">
       <c r="A264" s="12">
         <v>20004</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E264" s="12">
         <v>6</v>
@@ -11242,16 +11599,19 @@
       <c r="H264" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" ht="16.5" spans="1:8">
+      <c r="M264" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="265" ht="16.5" spans="1:13">
       <c r="A265" s="12">
         <v>20005</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E265" s="12">
         <v>6</v>
@@ -11265,16 +11625,19 @@
       <c r="H265" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" ht="16.5" spans="1:8">
+      <c r="M265" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="266" ht="16.5" spans="1:13">
       <c r="A266" s="12">
         <v>20006</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E266" s="12">
         <v>6</v>
@@ -11288,16 +11651,19 @@
       <c r="H266" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" ht="16.5" spans="1:8">
+      <c r="M266" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="267" ht="16.5" spans="1:13">
       <c r="A267" s="12">
         <v>20007</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E267" s="12">
         <v>6</v>
@@ -11311,16 +11677,19 @@
       <c r="H267" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" ht="16.5" spans="1:8">
+      <c r="M267" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="268" ht="16.5" spans="1:13">
       <c r="A268" s="12">
         <v>20008</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E268" s="12">
         <v>6</v>
@@ -11334,16 +11703,19 @@
       <c r="H268" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" ht="16.5" spans="1:8">
+      <c r="M268" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269" ht="16.5" spans="1:13">
       <c r="A269" s="12">
         <v>20009</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E269" s="12">
         <v>6</v>
@@ -11357,16 +11729,19 @@
       <c r="H269" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" ht="16.5" spans="1:8">
+      <c r="M269" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="270" ht="16.5" spans="1:13">
       <c r="A270" s="12">
         <v>20010</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E270" s="12">
         <v>6</v>
@@ -11380,16 +11755,19 @@
       <c r="H270" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" ht="16.5" spans="1:8">
+      <c r="M270" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="271" ht="16.5" spans="1:13">
       <c r="A271" s="12">
         <v>20101</v>
       </c>
       <c r="B271" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C271" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="C271" s="12" t="s">
-        <v>351</v>
       </c>
       <c r="E271" s="12">
         <v>6</v>
@@ -11403,16 +11781,19 @@
       <c r="H271" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" ht="16.5" spans="1:8">
+      <c r="M271" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" ht="16.5" spans="1:13">
       <c r="A272" s="12">
         <v>20102</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E272" s="12">
         <v>6</v>
@@ -11426,16 +11807,19 @@
       <c r="H272" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" ht="16.5" spans="1:8">
+      <c r="M272" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="273" ht="16.5" spans="1:13">
       <c r="A273" s="12">
         <v>20103</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E273" s="12">
         <v>6</v>
@@ -11449,16 +11833,19 @@
       <c r="H273" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" ht="16.5" spans="1:8">
+      <c r="M273" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="274" ht="16.5" spans="1:13">
       <c r="A274" s="12">
         <v>20104</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E274" s="12">
         <v>6</v>
@@ -11472,16 +11859,19 @@
       <c r="H274" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" ht="16.5" spans="1:8">
+      <c r="M274" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="275" ht="16.5" spans="1:13">
       <c r="A275" s="12">
         <v>20105</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E275" s="12">
         <v>6</v>
@@ -11495,16 +11885,19 @@
       <c r="H275" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" ht="16.5" spans="1:8">
+      <c r="M275" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="276" ht="16.5" spans="1:13">
       <c r="A276" s="12">
         <v>20106</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E276" s="12">
         <v>6</v>
@@ -11518,16 +11911,19 @@
       <c r="H276" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" ht="16.5" spans="1:8">
+      <c r="M276" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="277" ht="16.5" spans="1:13">
       <c r="A277" s="12">
         <v>20107</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E277" s="12">
         <v>6</v>
@@ -11541,16 +11937,19 @@
       <c r="H277" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" ht="16.5" spans="1:8">
+      <c r="M277" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="278" ht="16.5" spans="1:13">
       <c r="A278" s="12">
         <v>20108</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E278" s="12">
         <v>6</v>
@@ -11564,16 +11963,19 @@
       <c r="H278" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" ht="16.5" spans="1:8">
+      <c r="M278" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="279" ht="16.5" spans="1:13">
       <c r="A279" s="12">
         <v>20109</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E279" s="12">
         <v>6</v>
@@ -11587,16 +11989,19 @@
       <c r="H279" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" ht="16.5" spans="1:8">
+      <c r="M279" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="280" ht="16.5" spans="1:13">
       <c r="A280" s="12">
         <v>20110</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E280" s="12">
         <v>6</v>
@@ -11610,16 +12015,19 @@
       <c r="H280" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" ht="16.5" spans="1:8">
+      <c r="M280" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="281" ht="16.5" spans="1:13">
       <c r="A281" s="12">
         <v>20111</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E281" s="12">
         <v>6</v>
@@ -11633,16 +12041,19 @@
       <c r="H281" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" ht="16.5" spans="1:8">
+      <c r="M281" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="282" ht="16.5" spans="1:13">
       <c r="A282" s="12">
         <v>20201</v>
       </c>
       <c r="B282" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C282" s="12" t="s">
         <v>359</v>
-      </c>
-      <c r="C282" s="12" t="s">
-        <v>360</v>
       </c>
       <c r="E282" s="12">
         <v>6</v>
@@ -11656,16 +12067,19 @@
       <c r="H282" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" ht="16.5" spans="1:8">
+      <c r="M282" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="283" ht="16.5" spans="1:13">
       <c r="A283" s="12">
         <v>20202</v>
       </c>
       <c r="B283" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C283" s="12" t="s">
         <v>361</v>
-      </c>
-      <c r="C283" s="12" t="s">
-        <v>362</v>
       </c>
       <c r="E283" s="12">
         <v>6</v>
@@ -11679,16 +12093,19 @@
       <c r="H283" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" ht="16.5" spans="1:8">
+      <c r="M283" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="284" ht="16.5" spans="1:13">
       <c r="A284" s="12">
         <v>20203</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E284" s="12">
         <v>6</v>
@@ -11702,16 +12119,19 @@
       <c r="H284" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" ht="16.5" spans="1:8">
+      <c r="M284" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="285" ht="16.5" spans="1:13">
       <c r="A285" s="12">
         <v>20204</v>
       </c>
       <c r="B285" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C285" s="41" t="s">
         <v>364</v>
-      </c>
-      <c r="C285" s="41" t="s">
-        <v>365</v>
       </c>
       <c r="E285" s="12">
         <v>6</v>
@@ -11725,16 +12145,19 @@
       <c r="H285" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" ht="16.5" spans="1:8">
+      <c r="M285" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="286" ht="16.5" spans="1:13">
       <c r="A286" s="12">
         <v>20205</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E286" s="12">
         <v>6</v>
@@ -11748,16 +12171,19 @@
       <c r="H286" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" ht="16.5" spans="1:8">
+      <c r="M286" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="287" ht="16.5" spans="1:13">
       <c r="A287" s="12">
         <v>20206</v>
       </c>
       <c r="B287" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C287" s="42" t="s">
         <v>367</v>
-      </c>
-      <c r="C287" s="42" t="s">
-        <v>368</v>
       </c>
       <c r="E287" s="12">
         <v>6</v>
@@ -11771,16 +12197,19 @@
       <c r="H287" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" ht="16.5" spans="1:8">
+      <c r="M287" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="288" ht="16.5" spans="1:13">
       <c r="A288" s="12">
         <v>20207</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E288" s="12">
         <v>6</v>
@@ -11794,16 +12223,19 @@
       <c r="H288" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" ht="16.5" spans="1:8">
+      <c r="M288" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="289" ht="16.5" spans="1:13">
       <c r="A289" s="12">
         <v>20208</v>
       </c>
       <c r="B289" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="C289" s="42" t="s">
         <v>370</v>
-      </c>
-      <c r="C289" s="42" t="s">
-        <v>371</v>
       </c>
       <c r="E289" s="12">
         <v>6</v>
@@ -11817,16 +12249,19 @@
       <c r="H289" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" ht="16.5" spans="1:8">
+      <c r="M289" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="290" ht="16.5" spans="1:13">
       <c r="A290" s="12">
         <v>20209</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E290" s="12">
         <v>6</v>
@@ -11840,16 +12275,19 @@
       <c r="H290" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" ht="16.5" spans="1:8">
+      <c r="M290" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="291" ht="16.5" spans="1:13">
       <c r="A291" s="12">
         <v>20210</v>
       </c>
       <c r="B291" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="C291" s="42" t="s">
         <v>373</v>
-      </c>
-      <c r="C291" s="42" t="s">
-        <v>374</v>
       </c>
       <c r="E291" s="12">
         <v>6</v>
@@ -11863,16 +12301,19 @@
       <c r="H291" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" customFormat="1" ht="16.5" spans="1:11">
+      <c r="M291" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="292" customFormat="1" ht="16.5" spans="1:13">
       <c r="A292" s="12">
         <v>100001</v>
       </c>
       <c r="B292" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="C292" s="42" t="s">
         <v>375</v>
-      </c>
-      <c r="C292" s="42" t="s">
-        <v>376</v>
       </c>
       <c r="E292" s="12">
         <v>6</v>
@@ -11887,6 +12328,9 @@
         <v>0</v>
       </c>
       <c r="K292" s="3"/>
+      <c r="M292" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F292">

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="402">
   <si>
     <t>物品引索</t>
   </si>
@@ -196,6 +196,9 @@
     <t>用于强化装备的石头</t>
   </si>
   <si>
+    <t>item_server/强化石</t>
+  </si>
+  <si>
     <t>强化保护卷</t>
   </si>
   <si>
@@ -223,33 +226,57 @@
     <t>降低魂石等级的卷轴</t>
   </si>
   <si>
+    <t>item_server/1级魂石降级卷</t>
+  </si>
+  <si>
     <t>2级魂石降级卷</t>
   </si>
   <si>
+    <t>item_server/2级魂石降级卷</t>
+  </si>
+  <si>
     <t>3级魂石降级卷</t>
   </si>
   <si>
+    <t>item_server/3级魂石降级卷</t>
+  </si>
+  <si>
     <t>4级魂石降级卷</t>
   </si>
   <si>
+    <t>item_server/4级魂石降级卷</t>
+  </si>
+  <si>
     <t>低级魂石升级保护卷</t>
   </si>
   <si>
     <t>提高魂石升级概率的卷轴</t>
   </si>
   <si>
+    <t>item_server/低级魂石升级保护卷</t>
+  </si>
+  <si>
     <t>中级魂石升级保护卷</t>
   </si>
   <si>
+    <t>item_server/强化保护卷</t>
+  </si>
+  <si>
     <t>高级魂石升级保护卷</t>
   </si>
   <si>
+    <t>item_server/高级强化保护卷</t>
+  </si>
+  <si>
     <t>魂石转移卷</t>
   </si>
   <si>
     <t>转移魂石等级的卷轴</t>
   </si>
   <si>
+    <t>item_server/魂石转移卷</t>
+  </si>
+  <si>
     <t>1级魂石自选箱</t>
   </si>
   <si>
@@ -832,55 +859,106 @@
     <t>魂石</t>
   </si>
   <si>
+    <t>item_server/1级魂石·攻击力</t>
+  </si>
+  <si>
     <t>1级魂石·固定伤害</t>
   </si>
   <si>
+    <t>item_server/1级魂石·固定伤害</t>
+  </si>
+  <si>
     <t>1级魂石·全元素伤害</t>
   </si>
   <si>
+    <t>item_server/1级魂石·全元素伤害</t>
+  </si>
+  <si>
     <t>1级魂石·暴击概率</t>
   </si>
   <si>
+    <t>item_server/1级魂石·暴击概率</t>
+  </si>
+  <si>
     <t>1级魂石·暴击伤害</t>
   </si>
   <si>
+    <t>item_server/1级魂石·暴击伤害</t>
+  </si>
+  <si>
     <t>1级魂石·元素穿透</t>
   </si>
   <si>
+    <t>item_server/1级魂石·元素穿透</t>
+  </si>
+  <si>
     <t>1级魂石·生命值</t>
   </si>
   <si>
+    <t>item_server/1级魂石·生命值</t>
+  </si>
+  <si>
     <t>1级魂石·攻击速度</t>
   </si>
   <si>
+    <t>item_server/攻击速度</t>
+  </si>
+  <si>
     <t>1级魂石·防御</t>
   </si>
   <si>
+    <t>item_server/防御</t>
+  </si>
+  <si>
     <t>1级魂石·元素抗性</t>
   </si>
   <si>
+    <t>item_server/全元素抗性</t>
+  </si>
+  <si>
     <t>1级魂石·暴击抵抗</t>
   </si>
   <si>
+    <t>item_server/暴击抵抗</t>
+  </si>
+  <si>
     <t>1级魂石·爆伤抵抗</t>
   </si>
   <si>
+    <t>item_server/爆伤抵抗</t>
+  </si>
+  <si>
     <t>1级魂石·生命回复</t>
   </si>
   <si>
+    <t>item_server/生命恢复</t>
+  </si>
+  <si>
     <t>1级魂石·固定伤害减免</t>
   </si>
   <si>
+    <t>item_server/固定伤害减免</t>
+  </si>
+  <si>
     <t>1级魂石·技能急速</t>
   </si>
   <si>
+    <t>item_server/技能急速</t>
+  </si>
+  <si>
     <t>1级魂石·全元素抗性</t>
   </si>
   <si>
     <t>1级魂石·移动速度</t>
   </si>
   <si>
+    <t>item_server/移动速度</t>
+  </si>
+  <si>
     <t>1级魂石·闪避率</t>
+  </si>
+  <si>
+    <t>item_server/闪避率</t>
   </si>
   <si>
     <t>2级魂石·攻击力</t>
@@ -2432,11 +2510,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{722019E4-E15D-440C-8F07-17514BED0116}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{11C81C83-D1D0-4C9E-84A9-0EF5A1BDE754}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{36206E14-B75F-4F56-AA26-71C488ABA9F7}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EBC2544C-A5C8-4B1B-B549-7A3970F8F68C}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2746,11 +2824,11 @@
   <dimension ref="A1:AC292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I275" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N292" sqref="N292"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3403,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
@@ -3428,10 +3506,10 @@
         <v>1202</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -3482,10 +3560,10 @@
         <v>1203</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -3536,10 +3614,10 @@
         <v>1204</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="14">
         <v>1</v>
@@ -3576,7 +3654,7 @@
         <v>1205</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="14">
@@ -3614,7 +3692,7 @@
         <v>1206</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="14">
@@ -3652,10 +3730,10 @@
         <v>1279</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
@@ -3681,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="AC17" s="40">
         <v>0</v>
@@ -3692,10 +3770,10 @@
         <v>1280</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
@@ -3721,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="AC18" s="40">
         <v>0</v>
@@ -3732,10 +3810,10 @@
         <v>1281</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
@@ -3761,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="AC19" s="40">
         <v>0</v>
@@ -3772,10 +3850,10 @@
         <v>1282</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
@@ -3801,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC20" s="40">
         <v>0</v>
@@ -3812,10 +3890,10 @@
         <v>1283</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D21" s="14">
         <v>1</v>
@@ -3841,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="AC21" s="40">
         <v>0</v>
@@ -3852,10 +3930,10 @@
         <v>1284</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D22" s="14">
         <v>1</v>
@@ -3881,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AC22" s="40">
         <v>0</v>
@@ -3892,10 +3970,10 @@
         <v>1285</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
@@ -3921,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AC23" s="40">
         <v>0</v>
@@ -3932,10 +4010,10 @@
         <v>1286</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D24" s="14">
         <v>1</v>
@@ -3961,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AC24" s="40">
         <v>0</v>
@@ -3972,7 +4050,7 @@
         <v>1287</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="14">
@@ -4010,7 +4088,7 @@
         <v>1288</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="14">
@@ -4048,7 +4126,7 @@
         <v>1289</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="14">
@@ -4086,7 +4164,7 @@
         <v>1290</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="14">
@@ -4124,10 +4202,10 @@
         <v>1291</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -4164,10 +4242,10 @@
         <v>1292</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D30" s="14">
         <v>1</v>
@@ -4204,10 +4282,10 @@
         <v>1293</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
@@ -4244,10 +4322,10 @@
         <v>1294</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D32" s="14">
         <v>1</v>
@@ -4284,7 +4362,7 @@
         <v>2001</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="14">
@@ -4322,7 +4400,7 @@
         <v>2002</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="14">
@@ -4360,7 +4438,7 @@
         <v>2003</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="14">
@@ -4398,7 +4476,7 @@
         <v>2004</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="14">
@@ -4436,7 +4514,7 @@
         <v>2005</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="14">
@@ -4474,7 +4552,7 @@
         <v>2006</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="14">
@@ -4512,7 +4590,7 @@
         <v>2007</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="14">
@@ -4550,7 +4628,7 @@
         <v>2008</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="14">
@@ -4588,7 +4666,7 @@
         <v>2009</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="14">
@@ -4626,7 +4704,7 @@
         <v>2010</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="14">
@@ -4664,7 +4742,7 @@
         <v>2011</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="14">
@@ -4702,7 +4780,7 @@
         <v>2012</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="14">
@@ -4740,7 +4818,7 @@
         <v>2013</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="14">
@@ -4778,7 +4856,7 @@
         <v>2014</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="14">
@@ -4816,7 +4894,7 @@
         <v>2015</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="14">
@@ -4854,7 +4932,7 @@
         <v>2016</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="14">
@@ -4892,7 +4970,7 @@
         <v>2017</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="14">
@@ -4930,7 +5008,7 @@
         <v>2019</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="14">
@@ -4968,7 +5046,7 @@
         <v>2020</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="14">
@@ -5006,7 +5084,7 @@
         <v>2021</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="14">
@@ -5044,7 +5122,7 @@
         <v>2022</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="14">
@@ -5082,7 +5160,7 @@
         <v>2023</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="14">
@@ -5120,7 +5198,7 @@
         <v>2024</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="14">
@@ -5158,7 +5236,7 @@
         <v>2025</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="14">
@@ -5196,7 +5274,7 @@
         <v>2026</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="14">
@@ -5234,7 +5312,7 @@
         <v>2027</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="14">
@@ -5272,7 +5350,7 @@
         <v>2028</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="14">
@@ -5310,7 +5388,7 @@
         <v>2029</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="14">
@@ -5348,7 +5426,7 @@
         <v>2030</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="14">
@@ -5386,7 +5464,7 @@
         <v>2031</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="14">
@@ -5424,7 +5502,7 @@
         <v>2032</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="14">
@@ -5462,7 +5540,7 @@
         <v>2033</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="14">
@@ -5500,7 +5578,7 @@
         <v>2034</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="14">
@@ -5538,7 +5616,7 @@
         <v>2035</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="14">
@@ -5576,7 +5654,7 @@
         <v>2036</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="14">
@@ -5614,7 +5692,7 @@
         <v>2037</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="14">
@@ -5652,7 +5730,7 @@
         <v>2038</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="14">
@@ -5690,7 +5768,7 @@
         <v>2039</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="14">
@@ -5728,7 +5806,7 @@
         <v>2040</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="14">
@@ -5766,7 +5844,7 @@
         <v>2041</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="14">
@@ -5804,7 +5882,7 @@
         <v>2042</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="14">
@@ -5842,7 +5920,7 @@
         <v>2043</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="14">
@@ -5880,7 +5958,7 @@
         <v>2044</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="14">
@@ -5918,7 +5996,7 @@
         <v>2045</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="14">
@@ -5956,7 +6034,7 @@
         <v>2501</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="14">
@@ -5994,7 +6072,7 @@
         <v>2502</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="14">
@@ -6032,7 +6110,7 @@
         <v>2503</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="14">
@@ -6070,7 +6148,7 @@
         <v>2504</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="14">
@@ -6108,7 +6186,7 @@
         <v>2505</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="14">
@@ -6146,7 +6224,7 @@
         <v>2506</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="14">
@@ -6184,7 +6262,7 @@
         <v>2507</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="14">
@@ -6222,7 +6300,7 @@
         <v>2508</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="14">
@@ -6260,7 +6338,7 @@
         <v>2509</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="14">
@@ -6298,7 +6376,7 @@
         <v>2510</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="14">
@@ -6336,7 +6414,7 @@
         <v>2511</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="14">
@@ -6374,7 +6452,7 @@
         <v>2512</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="14">
@@ -6412,7 +6490,7 @@
         <v>2513</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="14">
@@ -6450,7 +6528,7 @@
         <v>2514</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="14">
@@ -6488,7 +6566,7 @@
         <v>2516</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="14">
@@ -6526,7 +6604,7 @@
         <v>2517</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="14">
@@ -6564,7 +6642,7 @@
         <v>2518</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="14">
@@ -6602,7 +6680,7 @@
         <v>2519</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="14">
@@ -6640,7 +6718,7 @@
         <v>2520</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="14">
@@ -6678,7 +6756,7 @@
         <v>2521</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="14">
@@ -6716,7 +6794,7 @@
         <v>2522</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="14">
@@ -6754,7 +6832,7 @@
         <v>2523</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="14">
@@ -6792,7 +6870,7 @@
         <v>2524</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="14">
@@ -6830,7 +6908,7 @@
         <v>2525</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="14">
@@ -6868,7 +6946,7 @@
         <v>2526</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="14">
@@ -6906,7 +6984,7 @@
         <v>2527</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="14">
@@ -6944,7 +7022,7 @@
         <v>2528</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="14">
@@ -6982,7 +7060,7 @@
         <v>2529</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="14">
@@ -7020,7 +7098,7 @@
         <v>2530</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="14">
@@ -7058,7 +7136,7 @@
         <v>2531</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="14">
@@ -7096,7 +7174,7 @@
         <v>2532</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="14">
@@ -7134,7 +7212,7 @@
         <v>2533</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="14">
@@ -7172,7 +7250,7 @@
         <v>2534</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="14">
@@ -7210,7 +7288,7 @@
         <v>2535</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="14">
@@ -7248,7 +7326,7 @@
         <v>2536</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="14">
@@ -7286,7 +7364,7 @@
         <v>2537</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="14">
@@ -7324,7 +7402,7 @@
         <v>2538</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="14">
@@ -7362,7 +7440,7 @@
         <v>2539</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="14">
@@ -7400,7 +7478,7 @@
         <v>2540</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="14">
@@ -7438,7 +7516,7 @@
         <v>2541</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="14">
@@ -7476,7 +7554,7 @@
         <v>2542</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="14">
@@ -7514,7 +7592,7 @@
         <v>2543</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="14">
@@ -7552,7 +7630,7 @@
         <v>2544</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C119" s="12"/>
       <c r="D119" s="14">
@@ -7590,7 +7668,7 @@
         <v>2545</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C120" s="12"/>
       <c r="D120" s="14">
@@ -7628,7 +7706,7 @@
         <v>2546</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="14">
@@ -7666,7 +7744,7 @@
         <v>2547</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="14">
@@ -7704,7 +7782,7 @@
         <v>2548</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="14">
@@ -7742,7 +7820,7 @@
         <v>2549</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="14">
@@ -7780,7 +7858,7 @@
         <v>2550</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C125" s="12"/>
       <c r="D125" s="14">
@@ -7818,7 +7896,7 @@
         <v>2551</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="14">
@@ -7856,7 +7934,7 @@
         <v>2552</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C127" s="12"/>
       <c r="D127" s="14">
@@ -7894,7 +7972,7 @@
         <v>2553</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="14">
@@ -7932,7 +8010,7 @@
         <v>2554</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="14">
@@ -7970,7 +8048,7 @@
         <v>2555</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C130" s="12"/>
       <c r="D130" s="14">
@@ -8008,7 +8086,7 @@
         <v>2556</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="14">
@@ -8046,7 +8124,7 @@
         <v>2557</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C132" s="12"/>
       <c r="D132" s="14">
@@ -8084,7 +8162,7 @@
         <v>2558</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C133" s="12"/>
       <c r="D133" s="14">
@@ -8122,7 +8200,7 @@
         <v>2559</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C134" s="12"/>
       <c r="D134" s="14">
@@ -8160,7 +8238,7 @@
         <v>2560</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="14">
@@ -8198,7 +8276,7 @@
         <v>2901</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="14">
@@ -8236,7 +8314,7 @@
         <v>2902</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C137" s="12"/>
       <c r="D137" s="14">
@@ -8274,7 +8352,7 @@
         <v>2903</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="14">
@@ -8312,7 +8390,7 @@
         <v>2904</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="14">
@@ -8350,7 +8428,7 @@
         <v>2905</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="14">
@@ -8388,7 +8466,7 @@
         <v>2906</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="14">
@@ -8426,7 +8504,7 @@
         <v>2907</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="14">
@@ -8464,7 +8542,7 @@
         <v>2908</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="14">
@@ -8502,7 +8580,7 @@
         <v>2909</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C144" s="12"/>
       <c r="E144" s="20">
@@ -8526,7 +8604,7 @@
         <v>2910</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C145" s="12"/>
       <c r="E145" s="20">
@@ -8550,7 +8628,7 @@
         <v>2911</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C146" s="12"/>
       <c r="E146" s="20">
@@ -8574,7 +8652,7 @@
         <v>2912</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C147" s="12"/>
       <c r="E147" s="20">
@@ -8598,7 +8676,7 @@
         <v>2913</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C148" s="12"/>
       <c r="E148" s="20">
@@ -8622,7 +8700,7 @@
         <v>2914</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C149" s="12"/>
       <c r="E149" s="20">
@@ -8646,7 +8724,7 @@
         <v>2915</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C150" s="12"/>
       <c r="E150" s="20">
@@ -8670,7 +8748,7 @@
         <v>2916</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C151" s="12"/>
       <c r="E151" s="20">
@@ -8694,7 +8772,7 @@
         <v>2917</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C152" s="12"/>
       <c r="E152" s="20">
@@ -8718,7 +8796,7 @@
         <v>2918</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C153" s="12"/>
       <c r="E153" s="20">
@@ -8742,7 +8820,7 @@
         <v>2919</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C154" s="12"/>
       <c r="E154" s="20">
@@ -8766,7 +8844,7 @@
         <v>2920</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C155" s="12"/>
       <c r="E155" s="20">
@@ -8790,7 +8868,7 @@
         <v>2921</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C156" s="12"/>
       <c r="E156" s="20">
@@ -8814,7 +8892,7 @@
         <v>2922</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C157" s="12"/>
       <c r="E157" s="20">
@@ -8838,7 +8916,7 @@
         <v>3201</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C158" s="12"/>
       <c r="E158" s="20">
@@ -8862,7 +8940,7 @@
         <v>3202</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C159" s="12"/>
       <c r="E159" s="20">
@@ -8886,7 +8964,7 @@
         <v>3203</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C160" s="12"/>
       <c r="E160" s="20">
@@ -8910,7 +8988,7 @@
         <v>3204</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C161" s="12"/>
       <c r="E161" s="20">
@@ -8934,7 +9012,7 @@
         <v>3205</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C162" s="12"/>
       <c r="E162" s="20">
@@ -8958,10 +9036,10 @@
         <v>3501</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E163" s="12">
         <v>2</v>
@@ -8984,10 +9062,10 @@
         <v>3502</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E164" s="12">
         <v>3</v>
@@ -9010,10 +9088,10 @@
         <v>3503</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E165" s="12">
         <v>4</v>
@@ -9036,10 +9114,10 @@
         <v>3504</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E166" s="12">
         <v>3</v>
@@ -9062,10 +9140,10 @@
         <v>3505</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E167" s="12">
         <v>3</v>
@@ -9088,10 +9166,10 @@
         <v>3506</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E168" s="12">
         <v>3</v>
@@ -9114,10 +9192,10 @@
         <v>3507</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E169" s="12">
         <v>3</v>
@@ -9140,10 +9218,10 @@
         <v>3508</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E170" s="12">
         <v>3</v>
@@ -9166,10 +9244,10 @@
         <v>3509</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E171" s="12">
         <v>3</v>
@@ -9192,10 +9270,10 @@
         <v>3510</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E172" s="12">
         <v>3</v>
@@ -9218,10 +9296,10 @@
         <v>3511</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E173" s="12">
         <v>3</v>
@@ -9244,10 +9322,10 @@
         <v>3512</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E174" s="12">
         <v>3</v>
@@ -9270,10 +9348,10 @@
         <v>3513</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E175" s="12">
         <v>4</v>
@@ -9296,10 +9374,10 @@
         <v>3514</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E176" s="12">
         <v>4</v>
@@ -9322,10 +9400,10 @@
         <v>3515</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E177" s="12">
         <v>4</v>
@@ -9348,10 +9426,10 @@
         <v>3516</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E178" s="12">
         <v>4</v>
@@ -9374,10 +9452,10 @@
         <v>3517</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E179" s="12">
         <v>3</v>
@@ -9400,10 +9478,10 @@
         <v>3518</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E180" s="12">
         <v>4</v>
@@ -9426,10 +9504,10 @@
         <v>3519</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E181" s="12">
         <v>5</v>
@@ -9452,10 +9530,10 @@
         <v>3520</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E182" s="12">
         <v>5</v>
@@ -9478,10 +9556,10 @@
         <v>3521</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E183" s="12">
         <v>5</v>
@@ -9504,10 +9582,10 @@
         <v>3522</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E184" s="12">
         <v>5</v>
@@ -9530,10 +9608,10 @@
         <v>3523</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E185" s="12">
         <v>5</v>
@@ -9556,10 +9634,10 @@
         <v>3524</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E186" s="12">
         <v>5</v>
@@ -9582,10 +9660,10 @@
         <v>3525</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E187" s="12">
         <v>5</v>
@@ -9608,10 +9686,10 @@
         <v>10000</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E188" s="12">
         <v>1</v>
@@ -9626,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="M188" s="13" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
     </row>
     <row r="189" ht="16.5" spans="1:13">
@@ -9634,10 +9712,10 @@
         <v>10001</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E189" s="12">
         <v>1</v>
@@ -9652,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="M189" s="13" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" ht="16.5" spans="1:13">
@@ -9660,10 +9738,10 @@
         <v>10002</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E190" s="12">
         <v>1</v>
@@ -9678,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="M190" s="13" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" ht="16.5" spans="1:13">
@@ -9686,10 +9764,10 @@
         <v>10003</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E191" s="12">
         <v>1</v>
@@ -9704,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="M191" s="13" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" ht="16.5" spans="1:13">
@@ -9712,10 +9790,10 @@
         <v>10004</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E192" s="12">
         <v>1</v>
@@ -9730,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="M192" s="13" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
     </row>
     <row r="193" ht="16.5" spans="1:13">
@@ -9738,10 +9816,10 @@
         <v>10005</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E193" s="12">
         <v>1</v>
@@ -9756,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="M193" s="13" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
     </row>
     <row r="194" ht="16.5" spans="1:13">
@@ -9764,10 +9842,10 @@
         <v>10006</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E194" s="12">
         <v>1</v>
@@ -9782,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="M194" s="13" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
     </row>
     <row r="195" ht="16.5" spans="1:13">
@@ -9790,10 +9868,10 @@
         <v>10007</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E195" s="12">
         <v>1</v>
@@ -9808,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="M195" s="13" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
     </row>
     <row r="196" ht="16.5" spans="1:13">
@@ -9816,10 +9894,10 @@
         <v>10008</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E196" s="12">
         <v>1</v>
@@ -9834,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="M196" s="13" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197" ht="16.5" spans="1:13">
@@ -9842,10 +9920,10 @@
         <v>10009</v>
       </c>
       <c r="B197" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C197" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="E197" s="12">
         <v>1</v>
@@ -9860,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="M197" s="13" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="198" ht="16.5" spans="1:13">
@@ -9868,10 +9946,10 @@
         <v>10010</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E198" s="12">
         <v>1</v>
@@ -9886,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="M198" s="13" t="s">
-        <v>36</v>
+        <v>295</v>
       </c>
     </row>
     <row r="199" ht="16.5" spans="1:13">
@@ -9894,10 +9972,10 @@
         <v>10011</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E199" s="12">
         <v>1</v>
@@ -9912,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="M199" s="13" t="s">
-        <v>36</v>
+        <v>297</v>
       </c>
     </row>
     <row r="200" ht="16.5" spans="1:13">
@@ -9920,10 +9998,10 @@
         <v>10012</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E200" s="12">
         <v>1</v>
@@ -9938,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="M200" s="13" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" ht="16.5" spans="1:13">
@@ -9946,10 +10024,10 @@
         <v>10013</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E201" s="12">
         <v>1</v>
@@ -9964,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="M201" s="13" t="s">
-        <v>36</v>
+        <v>301</v>
       </c>
     </row>
     <row r="202" ht="16.5" spans="1:13">
@@ -9972,10 +10050,10 @@
         <v>10014</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E202" s="12">
         <v>1</v>
@@ -9990,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="M202" s="13" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
     </row>
     <row r="203" ht="16.5" spans="1:13">
@@ -9998,10 +10076,10 @@
         <v>10015</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E203" s="12">
         <v>1</v>
@@ -10016,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="M203" s="13" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" ht="16.5" spans="1:13">
@@ -10024,10 +10102,10 @@
         <v>10016</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E204" s="12">
         <v>1</v>
@@ -10042,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M204" s="13" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
     </row>
     <row r="205" ht="16.5" spans="1:13">
@@ -10050,10 +10128,10 @@
         <v>10017</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E205" s="12">
         <v>1</v>
@@ -10068,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="M205" s="13" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206" ht="16.5" spans="1:13">
@@ -10076,10 +10154,10 @@
         <v>10101</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E206" s="12">
         <v>2</v>
@@ -10094,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="M206" s="13" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
     </row>
     <row r="207" ht="16.5" spans="1:13">
@@ -10102,10 +10180,10 @@
         <v>10102</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E207" s="12">
         <v>2</v>
@@ -10120,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="M207" s="13" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" ht="16.5" spans="1:13">
@@ -10128,10 +10206,10 @@
         <v>10103</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E208" s="12">
         <v>2</v>
@@ -10146,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="M208" s="13" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
     </row>
     <row r="209" ht="16.5" spans="1:13">
@@ -10154,10 +10232,10 @@
         <v>10104</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E209" s="12">
         <v>2</v>
@@ -10172,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="M209" s="13" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
     </row>
     <row r="210" ht="16.5" spans="1:13">
@@ -10180,10 +10258,10 @@
         <v>10105</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E210" s="12">
         <v>2</v>
@@ -10198,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="M210" s="13" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
     </row>
     <row r="211" ht="16.5" spans="1:13">
@@ -10206,10 +10284,10 @@
         <v>10106</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E211" s="12">
         <v>2</v>
@@ -10224,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="M211" s="13" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
     </row>
     <row r="212" ht="16.5" spans="1:13">
@@ -10232,10 +10310,10 @@
         <v>10107</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E212" s="12">
         <v>2</v>
@@ -10250,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="M212" s="13" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
     </row>
     <row r="213" ht="16.5" spans="1:13">
@@ -10258,10 +10336,10 @@
         <v>10108</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E213" s="12">
         <v>2</v>
@@ -10276,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="M213" s="13" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
     </row>
     <row r="214" ht="16.5" spans="1:13">
@@ -10284,10 +10362,10 @@
         <v>10109</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E214" s="12">
         <v>2</v>
@@ -10302,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="M214" s="13" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
     </row>
     <row r="215" ht="16.5" spans="1:13">
@@ -10310,10 +10388,10 @@
         <v>10110</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E215" s="12">
         <v>2</v>
@@ -10328,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="M215" s="13" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="216" ht="16.5" spans="1:13">
@@ -10336,10 +10414,10 @@
         <v>10111</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E216" s="12">
         <v>2</v>
@@ -10354,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="M216" s="13" t="s">
-        <v>36</v>
+        <v>295</v>
       </c>
     </row>
     <row r="217" ht="16.5" spans="1:13">
@@ -10362,10 +10440,10 @@
         <v>10112</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E217" s="12">
         <v>2</v>
@@ -10380,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="M217" s="13" t="s">
-        <v>36</v>
+        <v>297</v>
       </c>
     </row>
     <row r="218" ht="16.5" spans="1:13">
@@ -10388,10 +10466,10 @@
         <v>10113</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E218" s="12">
         <v>2</v>
@@ -10406,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="M218" s="13" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
     </row>
     <row r="219" ht="16.5" spans="1:13">
@@ -10414,10 +10492,10 @@
         <v>10114</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E219" s="12">
         <v>2</v>
@@ -10432,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="M219" s="13" t="s">
-        <v>36</v>
+        <v>301</v>
       </c>
     </row>
     <row r="220" ht="16.5" spans="1:13">
@@ -10440,10 +10518,10 @@
         <v>10115</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E220" s="12">
         <v>2</v>
@@ -10458,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="M220" s="13" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
     </row>
     <row r="221" ht="16.5" spans="1:13">
@@ -10466,10 +10544,10 @@
         <v>10116</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E221" s="12">
         <v>2</v>
@@ -10484,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="M221" s="13" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="222" ht="16.5" spans="1:13">
@@ -10492,10 +10570,10 @@
         <v>10117</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E222" s="12">
         <v>2</v>
@@ -10510,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="M222" s="13" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
     </row>
     <row r="223" ht="16.5" spans="1:13">
@@ -10518,10 +10596,10 @@
         <v>10118</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E223" s="12">
         <v>2</v>
@@ -10536,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="M223" s="13" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
     </row>
     <row r="224" ht="16.5" spans="1:13">
@@ -10544,10 +10622,10 @@
         <v>10201</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E224" s="12">
         <v>3</v>
@@ -10562,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="M224" s="13" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" ht="16.5" spans="1:13">
@@ -10570,10 +10648,10 @@
         <v>10202</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E225" s="12">
         <v>3</v>
@@ -10588,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="M225" s="13" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" ht="16.5" spans="1:13">
@@ -10596,10 +10674,10 @@
         <v>10203</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E226" s="12">
         <v>3</v>
@@ -10614,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="M226" s="13" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
     </row>
     <row r="227" ht="16.5" spans="1:13">
@@ -10622,10 +10700,10 @@
         <v>10204</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E227" s="12">
         <v>3</v>
@@ -10640,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="M227" s="13" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
     </row>
     <row r="228" ht="16.5" spans="1:13">
@@ -10648,10 +10726,10 @@
         <v>10205</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E228" s="12">
         <v>3</v>
@@ -10666,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="M228" s="13" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
     </row>
     <row r="229" ht="16.5" spans="1:13">
@@ -10674,10 +10752,10 @@
         <v>10206</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E229" s="12">
         <v>3</v>
@@ -10692,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="M229" s="13" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" ht="16.5" spans="1:13">
@@ -10700,10 +10778,10 @@
         <v>10207</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E230" s="12">
         <v>3</v>
@@ -10718,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="M230" s="13" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
     </row>
     <row r="231" ht="16.5" spans="1:13">
@@ -10726,10 +10804,10 @@
         <v>10208</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E231" s="12">
         <v>3</v>
@@ -10744,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="M231" s="13" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
     </row>
     <row r="232" ht="16.5" spans="1:13">
@@ -10752,10 +10830,10 @@
         <v>10209</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E232" s="12">
         <v>3</v>
@@ -10770,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="M232" s="13" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
     </row>
     <row r="233" ht="16.5" spans="1:13">
@@ -10778,10 +10856,10 @@
         <v>10210</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E233" s="12">
         <v>3</v>
@@ -10796,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="M233" s="13" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="234" ht="16.5" spans="1:13">
@@ -10804,10 +10882,10 @@
         <v>10211</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E234" s="12">
         <v>3</v>
@@ -10822,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="M234" s="13" t="s">
-        <v>36</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" ht="16.5" spans="1:13">
@@ -10830,10 +10908,10 @@
         <v>10212</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E235" s="12">
         <v>3</v>
@@ -10848,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="M235" s="13" t="s">
-        <v>36</v>
+        <v>297</v>
       </c>
     </row>
     <row r="236" ht="16.5" spans="1:13">
@@ -10856,10 +10934,10 @@
         <v>10213</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E236" s="12">
         <v>3</v>
@@ -10874,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="M236" s="13" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
     </row>
     <row r="237" ht="16.5" spans="1:13">
@@ -10882,10 +10960,10 @@
         <v>10214</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E237" s="12">
         <v>3</v>
@@ -10900,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="M237" s="13" t="s">
-        <v>36</v>
+        <v>301</v>
       </c>
     </row>
     <row r="238" ht="16.5" spans="1:13">
@@ -10908,10 +10986,10 @@
         <v>10215</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E238" s="12">
         <v>3</v>
@@ -10926,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="M238" s="13" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
     </row>
     <row r="239" ht="16.5" spans="1:13">
@@ -10934,10 +11012,10 @@
         <v>10216</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E239" s="12">
         <v>3</v>
@@ -10952,7 +11030,7 @@
         <v>0</v>
       </c>
       <c r="M239" s="13" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="240" ht="16.5" spans="1:13">
@@ -10960,10 +11038,10 @@
         <v>10217</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E240" s="12">
         <v>3</v>
@@ -10978,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="M240" s="13" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
     </row>
     <row r="241" ht="16.5" spans="1:13">
@@ -10986,10 +11064,10 @@
         <v>10218</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E241" s="12">
         <v>3</v>
@@ -11004,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="M241" s="13" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
     </row>
     <row r="242" ht="16.5" spans="1:13">
@@ -11012,10 +11090,10 @@
         <v>10301</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E242" s="12">
         <v>4</v>
@@ -11030,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="M242" s="13" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
     </row>
     <row r="243" ht="16.5" spans="1:13">
@@ -11038,10 +11116,10 @@
         <v>10302</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E243" s="12">
         <v>4</v>
@@ -11056,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="M243" s="13" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
     </row>
     <row r="244" ht="16.5" spans="1:13">
@@ -11064,10 +11142,10 @@
         <v>10303</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E244" s="12">
         <v>4</v>
@@ -11082,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="M244" s="13" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
     </row>
     <row r="245" ht="16.5" spans="1:13">
@@ -11090,10 +11168,10 @@
         <v>10304</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E245" s="12">
         <v>4</v>
@@ -11108,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="M245" s="13" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
     </row>
     <row r="246" ht="16.5" spans="1:13">
@@ -11116,10 +11194,10 @@
         <v>10305</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E246" s="12">
         <v>4</v>
@@ -11134,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="M246" s="13" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
     </row>
     <row r="247" ht="16.5" spans="1:13">
@@ -11142,10 +11220,10 @@
         <v>10306</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E247" s="12">
         <v>4</v>
@@ -11160,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="M247" s="13" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
     </row>
     <row r="248" ht="16.5" spans="1:13">
@@ -11168,10 +11246,10 @@
         <v>10307</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E248" s="12">
         <v>4</v>
@@ -11186,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="M248" s="13" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
     </row>
     <row r="249" ht="16.5" spans="1:13">
@@ -11194,10 +11272,10 @@
         <v>10308</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E249" s="12">
         <v>4</v>
@@ -11212,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="M249" s="13" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
     </row>
     <row r="250" ht="16.5" spans="1:13">
@@ -11220,10 +11298,10 @@
         <v>10309</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E250" s="12">
         <v>4</v>
@@ -11238,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="M250" s="13" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
     </row>
     <row r="251" ht="16.5" spans="1:13">
@@ -11246,10 +11324,10 @@
         <v>10310</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E251" s="12">
         <v>4</v>
@@ -11264,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="M251" s="13" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="252" ht="16.5" spans="1:13">
@@ -11272,10 +11350,10 @@
         <v>10311</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E252" s="12">
         <v>4</v>
@@ -11290,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="M252" s="13" t="s">
-        <v>36</v>
+        <v>295</v>
       </c>
     </row>
     <row r="253" ht="16.5" spans="1:13">
@@ -11298,10 +11376,10 @@
         <v>10312</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E253" s="12">
         <v>4</v>
@@ -11316,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="M253" s="13" t="s">
-        <v>36</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" ht="16.5" spans="1:13">
@@ -11324,10 +11402,10 @@
         <v>10313</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E254" s="12">
         <v>4</v>
@@ -11342,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="M254" s="13" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
     </row>
     <row r="255" ht="16.5" spans="1:13">
@@ -11350,10 +11428,10 @@
         <v>10314</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E255" s="12">
         <v>4</v>
@@ -11368,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="M255" s="13" t="s">
-        <v>36</v>
+        <v>301</v>
       </c>
     </row>
     <row r="256" ht="16.5" spans="1:13">
@@ -11376,10 +11454,10 @@
         <v>10315</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E256" s="12">
         <v>4</v>
@@ -11394,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="M256" s="13" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
     </row>
     <row r="257" ht="16.5" spans="1:13">
@@ -11402,10 +11480,10 @@
         <v>10316</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E257" s="12">
         <v>4</v>
@@ -11420,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="M257" s="13" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="258" ht="16.5" spans="1:13">
@@ -11428,10 +11506,10 @@
         <v>10317</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E258" s="12">
         <v>4</v>
@@ -11446,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="M258" s="13" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
     </row>
     <row r="259" ht="16.5" spans="1:13">
@@ -11454,10 +11532,10 @@
         <v>10318</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E259" s="12">
         <v>4</v>
@@ -11472,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="M259" s="13" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
     </row>
     <row r="260" ht="16.5" spans="1:13">
@@ -11480,7 +11558,7 @@
         <v>20000</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C260" s="12"/>
       <c r="E260" s="12">
@@ -11504,10 +11582,10 @@
         <v>20001</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E261" s="12">
         <v>6</v>
@@ -11530,10 +11608,10 @@
         <v>20002</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E262" s="12">
         <v>6</v>
@@ -11556,10 +11634,10 @@
         <v>20003</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E263" s="12">
         <v>6</v>
@@ -11582,10 +11660,10 @@
         <v>20004</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E264" s="12">
         <v>6</v>
@@ -11608,10 +11686,10 @@
         <v>20005</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E265" s="12">
         <v>6</v>
@@ -11634,10 +11712,10 @@
         <v>20006</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E266" s="12">
         <v>6</v>
@@ -11660,10 +11738,10 @@
         <v>20007</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E267" s="12">
         <v>6</v>
@@ -11686,10 +11764,10 @@
         <v>20008</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E268" s="12">
         <v>6</v>
@@ -11712,10 +11790,10 @@
         <v>20009</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E269" s="12">
         <v>6</v>
@@ -11738,10 +11816,10 @@
         <v>20010</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E270" s="12">
         <v>6</v>
@@ -11764,10 +11842,10 @@
         <v>20101</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E271" s="12">
         <v>6</v>
@@ -11790,10 +11868,10 @@
         <v>20102</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E272" s="12">
         <v>6</v>
@@ -11816,10 +11894,10 @@
         <v>20103</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E273" s="12">
         <v>6</v>
@@ -11842,10 +11920,10 @@
         <v>20104</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E274" s="12">
         <v>6</v>
@@ -11868,10 +11946,10 @@
         <v>20105</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E275" s="12">
         <v>6</v>
@@ -11894,10 +11972,10 @@
         <v>20106</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E276" s="12">
         <v>6</v>
@@ -11920,10 +11998,10 @@
         <v>20107</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E277" s="12">
         <v>6</v>
@@ -11946,10 +12024,10 @@
         <v>20108</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E278" s="12">
         <v>6</v>
@@ -11972,10 +12050,10 @@
         <v>20109</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E279" s="12">
         <v>6</v>
@@ -11998,10 +12076,10 @@
         <v>20110</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E280" s="12">
         <v>6</v>
@@ -12024,10 +12102,10 @@
         <v>20111</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E281" s="12">
         <v>6</v>
@@ -12050,10 +12128,10 @@
         <v>20201</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="E282" s="12">
         <v>6</v>
@@ -12076,10 +12154,10 @@
         <v>20202</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="E283" s="12">
         <v>6</v>
@@ -12102,10 +12180,10 @@
         <v>20203</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="E284" s="12">
         <v>6</v>
@@ -12128,10 +12206,10 @@
         <v>20204</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="C285" s="41" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="E285" s="12">
         <v>6</v>
@@ -12154,10 +12232,10 @@
         <v>20205</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="E286" s="12">
         <v>6</v>
@@ -12180,10 +12258,10 @@
         <v>20206</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="C287" s="42" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="E287" s="12">
         <v>6</v>
@@ -12206,10 +12284,10 @@
         <v>20207</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="E288" s="12">
         <v>6</v>
@@ -12232,10 +12310,10 @@
         <v>20208</v>
       </c>
       <c r="B289" s="42" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="C289" s="42" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="E289" s="12">
         <v>6</v>
@@ -12258,10 +12336,10 @@
         <v>20209</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="E290" s="12">
         <v>6</v>
@@ -12284,10 +12362,10 @@
         <v>20210</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="C291" s="42" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="E291" s="12">
         <v>6</v>
@@ -12310,10 +12388,10 @@
         <v>100001</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="C292" s="42" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="E292" s="12">
         <v>6</v>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -2927,16 +2927,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{EBCC71E1-63D4-4730-8C9F-2AD6A51F7B8E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{70EAB47F-A2E3-4E0C-A4EE-5D2F6D9D8AE0}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{CC3A65CF-778E-4955-B504-5D582FC8C199}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{265C9F81-01CF-4A8D-91EF-1B285C65833B}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F5693213-0D3A-486D-B730-202012B03EC9}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{5798743F-AB16-4759-9157-C08E863B28CF}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2948,7 +2948,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{CBF34C28-0029-4AB6-80E6-770C3D9638E1}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{E9B7761B-ACF1-43C7-86BF-DAB043FE650A}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3266,7 +3266,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" s="15">
         <v>0</v>
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="13">
         <v>0</v>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="500">
   <si>
     <t>物品引索</t>
   </si>
@@ -137,72 +137,81 @@
     <t>is_use</t>
   </si>
   <si>
-    <t>黄金</t>
+    <t>铂金币</t>
   </si>
   <si>
     <t>充值货币</t>
   </si>
   <si>
+    <t>item_server/铂金币</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>item_server/temp2</t>
+  </si>
+  <si>
+    <t>白银币</t>
+  </si>
+  <si>
+    <t>存档货币</t>
+  </si>
+  <si>
+    <t>1_1000,2_100</t>
+  </si>
+  <si>
+    <t>item_server/白银币</t>
+  </si>
+  <si>
+    <t>地图经验</t>
+  </si>
+  <si>
+    <t>item_server/temp4</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>充值赠送</t>
+  </si>
+  <si>
+    <t>item_server/钻石币</t>
+  </si>
+  <si>
+    <t>货币B</t>
+  </si>
+  <si>
     <t>item_server/temp1</t>
   </si>
   <si>
-    <t>积分</t>
-  </si>
-  <si>
-    <t>item_server/temp2</t>
-  </si>
-  <si>
-    <t>银币</t>
-  </si>
-  <si>
-    <t>存档货币</t>
-  </si>
-  <si>
-    <t>1_1000,2_100</t>
+    <t>货币C</t>
+  </si>
+  <si>
+    <t>货币D</t>
   </si>
   <si>
     <t>item_server/temp3</t>
   </si>
   <si>
-    <t>地图经验</t>
-  </si>
-  <si>
-    <t>item_server/temp4</t>
-  </si>
-  <si>
-    <t>钻石</t>
-  </si>
-  <si>
-    <t>充值赠送</t>
+    <t>强化石</t>
+  </si>
+  <si>
+    <t>用于强化装备的石头</t>
+  </si>
+  <si>
+    <t>item_server/强化石</t>
+  </si>
+  <si>
+    <t>强化保护卷</t>
+  </si>
+  <si>
+    <t>提高强化概率的卷轴</t>
   </si>
   <si>
     <t>item_server/temp5</t>
   </si>
   <si>
-    <t>货币B</t>
-  </si>
-  <si>
-    <t>货币C</t>
-  </si>
-  <si>
-    <t>货币D</t>
-  </si>
-  <si>
-    <t>强化石</t>
-  </si>
-  <si>
-    <t>用于强化装备的石头</t>
-  </si>
-  <si>
-    <t>item_server/强化石</t>
-  </si>
-  <si>
-    <t>强化保护卷</t>
-  </si>
-  <si>
-    <t>提高强化概率的卷轴</t>
-  </si>
-  <si>
     <t>高级强化保护卷</t>
   </si>
   <si>
@@ -758,54 +767,81 @@
     <t>可以开出一张随机精良级（C级）卡片</t>
   </si>
   <si>
+    <t>item_server/精良图鉴箱</t>
+  </si>
+  <si>
     <t>史诗图鉴箱</t>
   </si>
   <si>
     <t>可以开出一张随机史诗级（B级）卡片</t>
   </si>
   <si>
+    <t>item_server/史诗图鉴箱</t>
+  </si>
+  <si>
     <t>传说图鉴箱</t>
   </si>
   <si>
     <t>可以开出一张随机传说级（A级）卡片</t>
   </si>
   <si>
+    <t>item_server/传说图鉴箱</t>
+  </si>
+  <si>
     <t>元素大陆的图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·元素大陆出现的所有怪物的卡片</t>
   </si>
   <si>
+    <t>item_server/元素大陆图鉴箱</t>
+  </si>
+  <si>
     <t>熔火炼狱的图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·熔火炼狱出现的所有怪物的卡片</t>
   </si>
   <si>
+    <t>item_server/熔火炼狱的图鉴箱</t>
+  </si>
+  <si>
     <t>极北之地的图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·极北之地出现的所有怪物的卡片</t>
   </si>
   <si>
+    <t>item_server/极北之地图鉴箱</t>
+  </si>
+  <si>
     <t>狂风沙漠的图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·狂风沙漠出现的所有怪物的卡片</t>
   </si>
   <si>
+    <t>item_server/狂风沙漠的图鉴箱</t>
+  </si>
+  <si>
     <t>雷霆之地的图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·雷霆之地出现的所有怪物的卡片</t>
   </si>
   <si>
+    <t>item_server/雷霆之地的图鉴箱</t>
+  </si>
+  <si>
     <t>熔火炼狱的史诗图鉴图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·熔火炼狱出现的史诗级（B级）卡片</t>
   </si>
   <si>
+    <t>item_server/熔火炼狱的史诗图鉴箱</t>
+  </si>
+  <si>
     <t>极北之地的史诗图鉴图鉴箱</t>
   </si>
   <si>
@@ -854,24 +890,36 @@
     <t>可以自选获得一张精良级（C级）卡片</t>
   </si>
   <si>
+    <t>item_server/精良图鉴箱-2</t>
+  </si>
+  <si>
     <t>史诗图鉴箱（自选）</t>
   </si>
   <si>
     <t>可以自选获得一张史诗级（B级）卡片</t>
   </si>
   <si>
+    <t>item_server/史诗图鉴箱(自选)</t>
+  </si>
+  <si>
     <t>传说图鉴箱（自选）</t>
   </si>
   <si>
     <t>可以自选获得一张传说级（A级）卡片</t>
   </si>
   <si>
+    <t>item_server/传说图鉴箱(自选)</t>
+  </si>
+  <si>
     <t>不朽图鉴箱（自选）</t>
   </si>
   <si>
     <t>可以自选获得一张不朽级（S级）卡片</t>
   </si>
   <si>
+    <t>item_server/不朽图鉴箱(自选)1</t>
+  </si>
+  <si>
     <t>熔火炼狱的图鉴箱（自选）</t>
   </si>
   <si>
@@ -908,91 +956,91 @@
     <t>魂石</t>
   </si>
   <si>
-    <t>item_server/1级魂石·攻击力</t>
+    <t>item_server/hunshi/1级魂石·攻击力</t>
   </si>
   <si>
     <t>1级魂石·固定伤害</t>
   </si>
   <si>
-    <t>item_server/1级魂石·固定伤害</t>
+    <t>item_server/hunshi/1级魂石·固定伤害</t>
   </si>
   <si>
     <t>1级魂石·全元素伤害</t>
   </si>
   <si>
-    <t>item_server/1级魂石·全元素伤害</t>
+    <t>item_server/hunshi/1级魂石·全元素伤害</t>
   </si>
   <si>
     <t>1级魂石·暴击概率</t>
   </si>
   <si>
-    <t>item_server/1级魂石·暴击概率</t>
+    <t>item_server/hunshi/1级魂石·暴击概率</t>
   </si>
   <si>
     <t>1级魂石·暴击伤害</t>
   </si>
   <si>
-    <t>item_server/1级魂石·暴击伤害</t>
+    <t>item_server/hunshi/1级魂石·暴击伤害</t>
   </si>
   <si>
     <t>1级魂石·元素穿透</t>
   </si>
   <si>
-    <t>item_server/1级魂石·元素穿透</t>
+    <t>item_server/hunshi/1级魂石·元素穿透</t>
   </si>
   <si>
     <t>1级魂石·生命值</t>
   </si>
   <si>
-    <t>item_server/1级魂石·生命值</t>
+    <t>item_server/hunshi/1级魂石·生命值</t>
   </si>
   <si>
     <t>1级魂石·攻击速度</t>
   </si>
   <si>
-    <t>item_server/攻击速度</t>
+    <t>item_server/hunshi/攻击速度</t>
   </si>
   <si>
     <t>1级魂石·防御</t>
   </si>
   <si>
-    <t>item_server/防御</t>
+    <t>item_server/hunshi/防御</t>
   </si>
   <si>
     <t>1级魂石·元素抗性</t>
   </si>
   <si>
-    <t>item_server/全元素抗性</t>
+    <t>item_server/hunshi/全元素抗性</t>
   </si>
   <si>
     <t>1级魂石·暴击抵抗</t>
   </si>
   <si>
-    <t>item_server/暴击抵抗</t>
+    <t>item_server/hunshi/暴击抵抗</t>
   </si>
   <si>
     <t>1级魂石·爆伤抵抗</t>
   </si>
   <si>
-    <t>item_server/爆伤抵抗</t>
+    <t>item_server/hunshi/爆伤抵抗</t>
   </si>
   <si>
     <t>1级魂石·生命回复</t>
   </si>
   <si>
-    <t>item_server/生命恢复</t>
+    <t>item_server/hunshi/生命恢复</t>
   </si>
   <si>
     <t>1级魂石·固定伤害减免</t>
   </si>
   <si>
-    <t>item_server/固定伤害减免</t>
+    <t>item_server/hunshi/固定伤害减免</t>
   </si>
   <si>
     <t>1级魂石·技能急速</t>
   </si>
   <si>
-    <t>item_server/技能急速</t>
+    <t>item_server/hunshi/技能急速</t>
   </si>
   <si>
     <t>1级魂石·全元素抗性</t>
@@ -1001,13 +1049,13 @@
     <t>1级魂石·移动速度</t>
   </si>
   <si>
-    <t>item_server/移动速度</t>
+    <t>item_server/hunshi/移动速度</t>
   </si>
   <si>
     <t>1级魂石·闪避率</t>
   </si>
   <si>
-    <t>item_server/闪避率</t>
+    <t>item_server/hunshi/闪避率</t>
   </si>
   <si>
     <t>2级魂石·攻击力</t>
@@ -1193,33 +1241,57 @@
     <t>夜魇信物</t>
   </si>
   <si>
+    <t>item_server/夜魔信物</t>
+  </si>
+  <si>
     <t>灵魂战刃</t>
   </si>
   <si>
+    <t>item_server/灵魂战刃</t>
+  </si>
+  <si>
     <t>老者的指引</t>
   </si>
   <si>
     <t>图鉴大师</t>
   </si>
   <si>
+    <t>item_server/图鉴大师</t>
+  </si>
+  <si>
     <t>不留遗憾之矢</t>
   </si>
   <si>
     <t>命运的骰子</t>
   </si>
   <si>
+    <t>item_server/命运的骰子</t>
+  </si>
+  <si>
     <t>元素之地的救赎</t>
   </si>
   <si>
+    <t>item_server/元素之地的救赎</t>
+  </si>
+  <si>
     <t>老者的指引·上</t>
   </si>
   <si>
+    <t>item_server/老者的指引·上</t>
+  </si>
+  <si>
     <t>老者的指引·中</t>
   </si>
   <si>
+    <t>item_server/老者的指引·中</t>
+  </si>
+  <si>
     <t>老者的指引·下</t>
   </si>
   <si>
+    <t>item_server/老者的指引·下</t>
+  </si>
+  <si>
     <t>图鉴大师·上</t>
   </si>
   <si>
@@ -1232,37 +1304,73 @@
     <t>不留遗憾之矢·上</t>
   </si>
   <si>
+    <t>item_server/不留遗憾之矢·上</t>
+  </si>
+  <si>
     <t>不留遗憾之矢·中</t>
   </si>
   <si>
+    <t>item_server/不留遗憾之矢·下</t>
+  </si>
+  <si>
     <t>不留遗憾之矢·下</t>
   </si>
   <si>
+    <t>item_server/不留遗憾之矢·中</t>
+  </si>
+  <si>
     <t>超越极限·上</t>
   </si>
   <si>
+    <t>item_server/超越极限_上</t>
+  </si>
+  <si>
     <t>超越极限·中</t>
   </si>
   <si>
+    <t>item_server/超越极限_中</t>
+  </si>
+  <si>
     <t>超越极限·下</t>
   </si>
   <si>
+    <t>item_server/超越极限_下</t>
+  </si>
+  <si>
     <t>消费大师·上</t>
   </si>
   <si>
+    <t>item_server/消费大师·上</t>
+  </si>
+  <si>
     <t>消费大师·中</t>
   </si>
   <si>
+    <t>item_server/消费大师·中</t>
+  </si>
+  <si>
     <t>消费大师·下</t>
   </si>
   <si>
+    <t>item_server/消费大师·下</t>
+  </si>
+  <si>
     <t>符文大师·上</t>
   </si>
   <si>
+    <t>item_server/符文大师·上</t>
+  </si>
+  <si>
     <t>符文大师·中</t>
   </si>
   <si>
+    <t>item_server/符文大师·中</t>
+  </si>
+  <si>
     <t>符文大师·下</t>
+  </si>
+  <si>
+    <t>item_server/符文大师·下</t>
   </si>
   <si>
     <t>符文全知</t>
@@ -2927,16 +3035,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{70EAB47F-A2E3-4E0C-A4EE-5D2F6D9D8AE0}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{57BBBA16-472B-4D9F-A2F2-570738772A9E}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{265C9F81-01CF-4A8D-91EF-1B285C65833B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8729D698-4525-448E-B8B2-3F8B42AAA443}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{5798743F-AB16-4759-9157-C08E863B28CF}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{6AC0976B-1662-430E-A8C7-5F878EC65542}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2948,7 +3056,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{E9B7761B-ACF1-43C7-86BF-DAB043FE650A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{70515AD8-EDA1-4EEF-A499-335E76B5B847}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3261,12 +3369,12 @@
   <sheetPr/>
   <dimension ref="A1:AC341"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K251" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="M251" sqref="M251:M268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3761,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="22"/>
@@ -3786,7 +3894,7 @@
         <v>1007</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15">
@@ -3838,7 +3946,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13">
@@ -3865,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="22"/>
@@ -3890,10 +3998,10 @@
         <v>1201</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -3919,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="23"/>
@@ -3944,10 +4052,10 @@
         <v>1202</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -3973,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="22"/>
@@ -3998,10 +4106,10 @@
         <v>1203</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
@@ -4027,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="23"/>
@@ -4052,10 +4160,10 @@
         <v>1204</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -4081,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="22"/>
@@ -4106,7 +4214,7 @@
         <v>1205</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
@@ -4133,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="23"/>
@@ -4158,7 +4266,7 @@
         <v>1206</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13">
@@ -4185,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="22"/>
@@ -4210,10 +4318,10 @@
         <v>1207</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
@@ -4239,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="23"/>
@@ -4264,10 +4372,10 @@
         <v>1279</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -4293,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="22"/>
@@ -4318,10 +4426,10 @@
         <v>1280</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -4347,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="23"/>
@@ -4372,10 +4480,10 @@
         <v>1281</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -4401,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="22"/>
@@ -4426,10 +4534,10 @@
         <v>1282</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -4455,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="23"/>
@@ -4480,10 +4588,10 @@
         <v>1283</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -4509,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="22"/>
@@ -4534,10 +4642,10 @@
         <v>1284</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D23" s="15">
         <v>1</v>
@@ -4563,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="23"/>
@@ -4588,10 +4696,10 @@
         <v>1285</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -4617,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="22"/>
@@ -4642,10 +4750,10 @@
         <v>1286</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
@@ -4671,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="23"/>
@@ -4696,7 +4804,7 @@
         <v>1287</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13">
@@ -4723,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N26" s="13"/>
       <c r="O26" s="22"/>
@@ -4748,7 +4856,7 @@
         <v>1288</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15">
@@ -4775,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="23"/>
@@ -4800,7 +4908,7 @@
         <v>1289</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13">
@@ -4827,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="22"/>
@@ -4852,7 +4960,7 @@
         <v>1290</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
@@ -4879,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N29" s="15"/>
       <c r="O29" s="23"/>
@@ -4904,10 +5012,10 @@
         <v>1291</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -4933,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="22"/>
@@ -4958,10 +5066,10 @@
         <v>1292</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
@@ -4987,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N31" s="15"/>
       <c r="O31" s="23"/>
@@ -5012,10 +5120,10 @@
         <v>1293</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5041,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="22"/>
@@ -5066,10 +5174,10 @@
         <v>1294</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
@@ -5095,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N33" s="15"/>
       <c r="O33" s="23"/>
@@ -5120,10 +5228,10 @@
         <v>1295</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -5144,7 +5252,9 @@
       <c r="J34" s="19"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="M34" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N34" s="13"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
@@ -5168,10 +5278,10 @@
         <v>1296</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
@@ -5192,7 +5302,9 @@
       <c r="J35" s="19"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="M35" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N35" s="13"/>
       <c r="O35" s="23"/>
       <c r="P35" s="23"/>
@@ -5216,10 +5328,10 @@
         <v>1297</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -5240,7 +5352,9 @@
       <c r="J36" s="19"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="M36" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N36" s="13"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
@@ -5264,10 +5378,10 @@
         <v>1298</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -5288,7 +5402,9 @@
       <c r="J37" s="19"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="M37" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N37" s="13"/>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
@@ -5312,10 +5428,10 @@
         <v>1299</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
@@ -5333,12 +5449,14 @@
         <v>1</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J38" s="19"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="M38" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N38" s="13"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
@@ -5362,10 +5480,10 @@
         <v>1300</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -5386,7 +5504,9 @@
       <c r="J39" s="19"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
+      <c r="M39" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N39" s="13"/>
       <c r="O39" s="23"/>
       <c r="P39" s="23"/>
@@ -5410,10 +5530,10 @@
         <v>1301</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -5431,12 +5551,14 @@
         <v>1</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
+      <c r="M40" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N40" s="13"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
@@ -5460,10 +5582,10 @@
         <v>1302</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -5484,7 +5606,9 @@
       <c r="J41" s="19"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
+      <c r="M41" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N41" s="13"/>
       <c r="O41" s="23"/>
       <c r="P41" s="23"/>
@@ -5508,7 +5632,7 @@
         <v>2001</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13">
@@ -5534,8 +5658,9 @@
       <c r="L42" s="13">
         <v>0</v>
       </c>
-      <c r="M42" s="13" t="s">
-        <v>36</v>
+      <c r="M42" s="13" t="str">
+        <f>"item_server/card/"&amp;B42</f>
+        <v>item_server/card/炼狱熊怪</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="22"/>
@@ -5560,7 +5685,7 @@
         <v>2002</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -5586,8 +5711,9 @@
       <c r="L43" s="15">
         <v>0</v>
       </c>
-      <c r="M43" s="15" t="s">
-        <v>36</v>
+      <c r="M43" s="13" t="str">
+        <f t="shared" ref="M43:M74" si="0">"item_server/card/"&amp;B43</f>
+        <v>item_server/card/炼狱羚羊</v>
       </c>
       <c r="N43" s="15"/>
       <c r="O43" s="23"/>
@@ -5612,7 +5738,7 @@
         <v>2003</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13">
@@ -5638,8 +5764,9 @@
       <c r="L44" s="13">
         <v>0</v>
       </c>
-      <c r="M44" s="13" t="s">
-        <v>36</v>
+      <c r="M44" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/疾行火熊</v>
       </c>
       <c r="N44" s="13"/>
       <c r="O44" s="22"/>
@@ -5664,7 +5791,7 @@
         <v>2004</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -5690,8 +5817,9 @@
       <c r="L45" s="15">
         <v>0</v>
       </c>
-      <c r="M45" s="15" t="s">
-        <v>36</v>
+      <c r="M45" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/炼狱亡魂</v>
       </c>
       <c r="N45" s="15"/>
       <c r="O45" s="23"/>
@@ -5716,7 +5844,7 @@
         <v>2005</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13">
@@ -5742,8 +5870,9 @@
       <c r="L46" s="13">
         <v>0</v>
       </c>
-      <c r="M46" s="13" t="s">
-        <v>36</v>
+      <c r="M46" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/夜魇近战兵</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="22"/>
@@ -5768,7 +5897,7 @@
         <v>2006</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -5794,8 +5923,9 @@
       <c r="L47" s="15">
         <v>0</v>
       </c>
-      <c r="M47" s="15" t="s">
-        <v>36</v>
+      <c r="M47" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/炽甲虫战士</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="23"/>
@@ -5820,7 +5950,7 @@
         <v>2007</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13">
@@ -5846,8 +5976,9 @@
       <c r="L48" s="13">
         <v>0</v>
       </c>
-      <c r="M48" s="13" t="s">
-        <v>36</v>
+      <c r="M48" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/远古炼狱巨人</v>
       </c>
       <c r="N48" s="13"/>
       <c r="O48" s="22"/>
@@ -5872,7 +6003,7 @@
         <v>2008</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -5898,8 +6029,9 @@
       <c r="L49" s="15">
         <v>0</v>
       </c>
-      <c r="M49" s="15" t="s">
-        <v>36</v>
+      <c r="M49" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/骷髅勇士</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="23"/>
@@ -5924,7 +6056,7 @@
         <v>2009</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13">
@@ -5950,8 +6082,9 @@
       <c r="L50" s="13">
         <v>0</v>
       </c>
-      <c r="M50" s="13" t="s">
-        <v>36</v>
+      <c r="M50" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/炼狱火</v>
       </c>
       <c r="N50" s="13"/>
       <c r="O50" s="22"/>
@@ -5976,7 +6109,7 @@
         <v>2010</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -6002,8 +6135,9 @@
       <c r="L51" s="15">
         <v>0</v>
       </c>
-      <c r="M51" s="15" t="s">
-        <v>36</v>
+      <c r="M51" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/冥火剑圣</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="23"/>
@@ -6028,7 +6162,7 @@
         <v>2011</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13">
@@ -6054,8 +6188,9 @@
       <c r="L52" s="13">
         <v>0</v>
       </c>
-      <c r="M52" s="13" t="s">
-        <v>36</v>
+      <c r="M52" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/小狗头人</v>
       </c>
       <c r="N52" s="13"/>
       <c r="O52" s="22"/>
@@ -6080,7 +6215,7 @@
         <v>2012</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -6106,8 +6241,9 @@
       <c r="L53" s="15">
         <v>0</v>
       </c>
-      <c r="M53" s="15" t="s">
-        <v>36</v>
+      <c r="M53" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/雷电之魂</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="23"/>
@@ -6132,7 +6268,7 @@
         <v>2013</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
@@ -6158,8 +6294,9 @@
       <c r="L54" s="13">
         <v>0</v>
       </c>
-      <c r="M54" s="13" t="s">
-        <v>36</v>
+      <c r="M54" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/萨特窃神者</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="22"/>
@@ -6184,7 +6321,7 @@
         <v>2014</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -6210,8 +6347,9 @@
       <c r="L55" s="15">
         <v>0</v>
       </c>
-      <c r="M55" s="15" t="s">
-        <v>36</v>
+      <c r="M55" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/远古岚肤兽</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="23"/>
@@ -6236,7 +6374,7 @@
         <v>2015</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13">
@@ -6262,8 +6400,9 @@
       <c r="L56" s="13">
         <v>0</v>
       </c>
-      <c r="M56" s="13" t="s">
-        <v>36</v>
+      <c r="M56" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/雷树精兽</v>
       </c>
       <c r="N56" s="13"/>
       <c r="O56" s="22"/>
@@ -6288,7 +6427,7 @@
         <v>2016</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15">
@@ -6314,8 +6453,9 @@
       <c r="L57" s="15">
         <v>0</v>
       </c>
-      <c r="M57" s="15" t="s">
-        <v>36</v>
+      <c r="M57" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/雷角兽</v>
       </c>
       <c r="N57" s="15"/>
       <c r="O57" s="23"/>
@@ -6340,7 +6480,7 @@
         <v>2017</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13">
@@ -6366,8 +6506,9 @@
       <c r="L58" s="13">
         <v>0</v>
       </c>
-      <c r="M58" s="13" t="s">
-        <v>36</v>
+      <c r="M58" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/霹雳怪手</v>
       </c>
       <c r="N58" s="13"/>
       <c r="O58" s="22"/>
@@ -6392,7 +6533,7 @@
         <v>2019</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15">
@@ -6418,8 +6559,9 @@
       <c r="L59" s="15">
         <v>0</v>
       </c>
-      <c r="M59" s="15" t="s">
-        <v>36</v>
+      <c r="M59" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/雷羽鹫</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="23"/>
@@ -6444,7 +6586,7 @@
         <v>2020</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13">
@@ -6470,8 +6612,9 @@
       <c r="L60" s="13">
         <v>0</v>
       </c>
-      <c r="M60" s="13" t="s">
-        <v>36</v>
+      <c r="M60" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/雷山鹫</v>
       </c>
       <c r="N60" s="13"/>
       <c r="O60" s="22"/>
@@ -6496,7 +6639,7 @@
         <v>2021</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15">
@@ -6522,8 +6665,9 @@
       <c r="L61" s="15">
         <v>0</v>
       </c>
-      <c r="M61" s="15" t="s">
-        <v>36</v>
+      <c r="M61" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/雷翼鹫</v>
       </c>
       <c r="N61" s="15"/>
       <c r="O61" s="23"/>
@@ -6548,7 +6692,7 @@
         <v>2022</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13">
@@ -6574,8 +6718,9 @@
       <c r="L62" s="13">
         <v>0</v>
       </c>
-      <c r="M62" s="13" t="s">
-        <v>36</v>
+      <c r="M62" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/冰川鬼魂</v>
       </c>
       <c r="N62" s="13"/>
       <c r="O62" s="22"/>
@@ -6600,7 +6745,7 @@
         <v>2023</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15">
@@ -6626,8 +6771,9 @@
       <c r="L63" s="15">
         <v>0</v>
       </c>
-      <c r="M63" s="15" t="s">
-        <v>36</v>
+      <c r="M63" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/极寒精灵</v>
       </c>
       <c r="N63" s="15"/>
       <c r="O63" s="23"/>
@@ -6652,7 +6798,7 @@
         <v>2024</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13">
@@ -6678,8 +6824,9 @@
       <c r="L64" s="13">
         <v>0</v>
       </c>
-      <c r="M64" s="13" t="s">
-        <v>36</v>
+      <c r="M64" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/极寒冰狐</v>
       </c>
       <c r="N64" s="13"/>
       <c r="O64" s="22"/>
@@ -6704,7 +6851,7 @@
         <v>2025</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15">
@@ -6730,8 +6877,9 @@
       <c r="L65" s="15">
         <v>0</v>
       </c>
-      <c r="M65" s="15" t="s">
-        <v>36</v>
+      <c r="M65" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/极地少女</v>
       </c>
       <c r="N65" s="15"/>
       <c r="O65" s="23"/>
@@ -6756,7 +6904,7 @@
         <v>2026</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13">
@@ -6782,8 +6930,9 @@
       <c r="L66" s="13">
         <v>0</v>
       </c>
-      <c r="M66" s="13" t="s">
-        <v>36</v>
+      <c r="M66" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/冰原行者</v>
       </c>
       <c r="N66" s="13"/>
       <c r="O66" s="22"/>
@@ -6808,7 +6957,7 @@
         <v>2027</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15">
@@ -6834,8 +6983,9 @@
       <c r="L67" s="15">
         <v>0</v>
       </c>
-      <c r="M67" s="15" t="s">
-        <v>36</v>
+      <c r="M67" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/极地虎</v>
       </c>
       <c r="N67" s="15"/>
       <c r="O67" s="23"/>
@@ -6860,7 +7010,7 @@
         <v>2028</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13">
@@ -6886,8 +7036,9 @@
       <c r="L68" s="13">
         <v>0</v>
       </c>
-      <c r="M68" s="13" t="s">
-        <v>36</v>
+      <c r="M68" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/极地小冰龙</v>
       </c>
       <c r="N68" s="13"/>
       <c r="O68" s="22"/>
@@ -6912,7 +7063,7 @@
         <v>2029</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15">
@@ -6938,8 +7089,9 @@
       <c r="L69" s="15">
         <v>0</v>
       </c>
-      <c r="M69" s="15" t="s">
-        <v>36</v>
+      <c r="M69" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/极地小飞龙</v>
       </c>
       <c r="N69" s="15"/>
       <c r="O69" s="23"/>
@@ -6964,7 +7116,7 @@
         <v>2030</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13">
@@ -6990,8 +7142,9 @@
       <c r="L70" s="13">
         <v>0</v>
       </c>
-      <c r="M70" s="13" t="s">
-        <v>36</v>
+      <c r="M70" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/冰晶小海马</v>
       </c>
       <c r="N70" s="13"/>
       <c r="O70" s="22"/>
@@ -7016,7 +7169,7 @@
         <v>2031</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15">
@@ -7042,8 +7195,9 @@
       <c r="L71" s="15">
         <v>0</v>
       </c>
-      <c r="M71" s="15" t="s">
-        <v>36</v>
+      <c r="M71" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/冰原狐</v>
       </c>
       <c r="N71" s="15"/>
       <c r="O71" s="23"/>
@@ -7068,7 +7222,7 @@
         <v>2032</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13">
@@ -7094,8 +7248,9 @@
       <c r="L72" s="13">
         <v>0</v>
       </c>
-      <c r="M72" s="13" t="s">
-        <v>36</v>
+      <c r="M72" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/冰宫守卫</v>
       </c>
       <c r="N72" s="13"/>
       <c r="O72" s="22"/>
@@ -7120,7 +7275,7 @@
         <v>2033</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15">
@@ -7146,8 +7301,9 @@
       <c r="L73" s="15">
         <v>0</v>
       </c>
-      <c r="M73" s="15" t="s">
-        <v>36</v>
+      <c r="M73" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/冰宫奴仆</v>
       </c>
       <c r="N73" s="15"/>
       <c r="O73" s="23"/>
@@ -7172,7 +7328,7 @@
         <v>2034</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13">
@@ -7198,8 +7354,9 @@
       <c r="L74" s="13">
         <v>0</v>
       </c>
-      <c r="M74" s="13" t="s">
-        <v>36</v>
+      <c r="M74" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>item_server/card/绿洲鬼魂</v>
       </c>
       <c r="N74" s="13"/>
       <c r="O74" s="22"/>
@@ -7224,7 +7381,7 @@
         <v>2035</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15">
@@ -7250,8 +7407,9 @@
       <c r="L75" s="15">
         <v>0</v>
       </c>
-      <c r="M75" s="15" t="s">
-        <v>36</v>
+      <c r="M75" s="13" t="str">
+        <f t="shared" ref="M75:M106" si="1">"item_server/card/"&amp;B75</f>
+        <v>item_server/card/绿洲丧尸</v>
       </c>
       <c r="N75" s="15"/>
       <c r="O75" s="23"/>
@@ -7276,7 +7434,7 @@
         <v>2036</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13">
@@ -7302,8 +7460,9 @@
       <c r="L76" s="13">
         <v>0</v>
       </c>
-      <c r="M76" s="13" t="s">
-        <v>36</v>
+      <c r="M76" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/幼年沙龙</v>
       </c>
       <c r="N76" s="13"/>
       <c r="O76" s="22"/>
@@ -7328,7 +7487,7 @@
         <v>2037</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15">
@@ -7354,8 +7513,9 @@
       <c r="L77" s="15">
         <v>0</v>
       </c>
-      <c r="M77" s="15" t="s">
-        <v>36</v>
+      <c r="M77" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/绿洲精灵幼龙</v>
       </c>
       <c r="N77" s="15"/>
       <c r="O77" s="23"/>
@@ -7380,7 +7540,7 @@
         <v>2038</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13">
@@ -7406,8 +7566,9 @@
       <c r="L78" s="13">
         <v>0</v>
       </c>
-      <c r="M78" s="13" t="s">
-        <v>36</v>
+      <c r="M78" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/绿洲跳跳蛙</v>
       </c>
       <c r="N78" s="13"/>
       <c r="O78" s="22"/>
@@ -7432,7 +7593,7 @@
         <v>2039</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15">
@@ -7458,8 +7619,9 @@
       <c r="L79" s="15">
         <v>0</v>
       </c>
-      <c r="M79" s="15" t="s">
-        <v>36</v>
+      <c r="M79" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/绿洲剧毒蛇</v>
       </c>
       <c r="N79" s="15"/>
       <c r="O79" s="23"/>
@@ -7484,7 +7646,7 @@
         <v>2040</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13">
@@ -7510,8 +7672,9 @@
       <c r="L80" s="13">
         <v>0</v>
       </c>
-      <c r="M80" s="13" t="s">
-        <v>36</v>
+      <c r="M80" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/狂沙怪手</v>
       </c>
       <c r="N80" s="13"/>
       <c r="O80" s="22"/>
@@ -7536,7 +7699,7 @@
         <v>2041</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15">
@@ -7562,8 +7725,9 @@
       <c r="L81" s="15">
         <v>0</v>
       </c>
-      <c r="M81" s="15" t="s">
-        <v>36</v>
+      <c r="M81" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/绿洲精灵马</v>
       </c>
       <c r="N81" s="15"/>
       <c r="O81" s="23"/>
@@ -7588,7 +7752,7 @@
         <v>2042</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13">
@@ -7614,8 +7778,9 @@
       <c r="L82" s="13">
         <v>0</v>
       </c>
-      <c r="M82" s="13" t="s">
-        <v>36</v>
+      <c r="M82" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/绿洲小精灵</v>
       </c>
       <c r="N82" s="13"/>
       <c r="O82" s="22"/>
@@ -7640,7 +7805,7 @@
         <v>2043</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15">
@@ -7666,8 +7831,9 @@
       <c r="L83" s="15">
         <v>0</v>
       </c>
-      <c r="M83" s="15" t="s">
-        <v>36</v>
+      <c r="M83" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/沙漠金龟</v>
       </c>
       <c r="N83" s="15"/>
       <c r="O83" s="23"/>
@@ -7692,7 +7858,7 @@
         <v>2044</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13">
@@ -7718,8 +7884,9 @@
       <c r="L84" s="13">
         <v>0</v>
       </c>
-      <c r="M84" s="13" t="s">
-        <v>36</v>
+      <c r="M84" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/天辉高级战士</v>
       </c>
       <c r="N84" s="13"/>
       <c r="O84" s="22"/>
@@ -7744,7 +7911,7 @@
         <v>2045</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15">
@@ -7770,8 +7937,9 @@
       <c r="L85" s="15">
         <v>0</v>
       </c>
-      <c r="M85" s="15" t="s">
-        <v>36</v>
+      <c r="M85" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/高级精灵战士</v>
       </c>
       <c r="N85" s="15"/>
       <c r="O85" s="23"/>
@@ -7796,7 +7964,7 @@
         <v>2501</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13">
@@ -7822,8 +7990,9 @@
       <c r="L86" s="13">
         <v>0</v>
       </c>
-      <c r="M86" s="13" t="s">
-        <v>36</v>
+      <c r="M86" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/炼狱狼</v>
       </c>
       <c r="N86" s="13"/>
       <c r="O86" s="22"/>
@@ -7848,7 +8017,7 @@
         <v>2502</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15">
@@ -7874,8 +8043,9 @@
       <c r="L87" s="15">
         <v>0</v>
       </c>
-      <c r="M87" s="15" t="s">
-        <v>36</v>
+      <c r="M87" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/夜魇远程兵</v>
       </c>
       <c r="N87" s="15"/>
       <c r="O87" s="23"/>
@@ -7900,7 +8070,7 @@
         <v>2503</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
@@ -7926,8 +8096,9 @@
       <c r="L88" s="13">
         <v>0</v>
       </c>
-      <c r="M88" s="13" t="s">
-        <v>36</v>
+      <c r="M88" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/炼狱小双头犬</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="22"/>
@@ -7952,7 +8123,7 @@
         <v>2504</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15">
@@ -7978,8 +8149,9 @@
       <c r="L89" s="15">
         <v>0</v>
       </c>
-      <c r="M89" s="15" t="s">
-        <v>36</v>
+      <c r="M89" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/炽甲虫战车</v>
       </c>
       <c r="N89" s="15"/>
       <c r="O89" s="23"/>
@@ -8004,7 +8176,7 @@
         <v>2505</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
@@ -8030,8 +8202,9 @@
       <c r="L90" s="13">
         <v>0</v>
       </c>
-      <c r="M90" s="13" t="s">
-        <v>36</v>
+      <c r="M90" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/炼狱石甲虫</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="22"/>
@@ -8056,7 +8229,7 @@
         <v>2506</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15">
@@ -8082,8 +8255,9 @@
       <c r="L91" s="15">
         <v>0</v>
       </c>
-      <c r="M91" s="15" t="s">
-        <v>36</v>
+      <c r="M91" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/炼狱战熊</v>
       </c>
       <c r="N91" s="15"/>
       <c r="O91" s="23"/>
@@ -8108,7 +8282,7 @@
         <v>2507</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13">
@@ -8134,8 +8308,9 @@
       <c r="L92" s="13">
         <v>0</v>
       </c>
-      <c r="M92" s="13" t="s">
-        <v>36</v>
+      <c r="M92" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/炼狱界弓</v>
       </c>
       <c r="N92" s="13"/>
       <c r="O92" s="22"/>
@@ -8160,7 +8335,7 @@
         <v>2508</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15">
@@ -8186,8 +8361,9 @@
       <c r="L93" s="15">
         <v>0</v>
       </c>
-      <c r="M93" s="15" t="s">
-        <v>36</v>
+      <c r="M93" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/烈焰战龟</v>
       </c>
       <c r="N93" s="15"/>
       <c r="O93" s="23"/>
@@ -8212,7 +8388,7 @@
         <v>2509</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13">
@@ -8238,8 +8414,9 @@
       <c r="L94" s="13">
         <v>0</v>
       </c>
-      <c r="M94" s="13" t="s">
-        <v>36</v>
+      <c r="M94" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/炼狱蜘蛛</v>
       </c>
       <c r="N94" s="13"/>
       <c r="O94" s="22"/>
@@ -8264,7 +8441,7 @@
         <v>2510</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15">
@@ -8290,8 +8467,9 @@
       <c r="L95" s="15">
         <v>0</v>
       </c>
-      <c r="M95" s="15" t="s">
-        <v>36</v>
+      <c r="M95" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/炼狱猎蜥</v>
       </c>
       <c r="N95" s="15"/>
       <c r="O95" s="23"/>
@@ -8316,7 +8494,7 @@
         <v>2511</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13">
@@ -8342,8 +8520,9 @@
       <c r="L96" s="13">
         <v>0</v>
       </c>
-      <c r="M96" s="13" t="s">
-        <v>36</v>
+      <c r="M96" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/炼狱火精灵</v>
       </c>
       <c r="N96" s="13"/>
       <c r="O96" s="22"/>
@@ -8368,7 +8547,7 @@
         <v>2512</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15">
@@ -8394,8 +8573,9 @@
       <c r="L97" s="15">
         <v>0</v>
       </c>
-      <c r="M97" s="15" t="s">
-        <v>36</v>
+      <c r="M97" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/熔岩飞翼兽</v>
       </c>
       <c r="N97" s="15"/>
       <c r="O97" s="23"/>
@@ -8420,7 +8600,7 @@
         <v>2513</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13">
@@ -8446,8 +8626,9 @@
       <c r="L98" s="13">
         <v>0</v>
       </c>
-      <c r="M98" s="13" t="s">
-        <v>36</v>
+      <c r="M98" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/双斧狂战</v>
       </c>
       <c r="N98" s="13"/>
       <c r="O98" s="22"/>
@@ -8472,7 +8653,7 @@
         <v>2514</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15">
@@ -8498,8 +8679,9 @@
       <c r="L99" s="15">
         <v>0</v>
       </c>
-      <c r="M99" s="15" t="s">
-        <v>36</v>
+      <c r="M99" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/熔岩卫兵</v>
       </c>
       <c r="N99" s="15"/>
       <c r="O99" s="23"/>
@@ -8524,7 +8706,7 @@
         <v>2516</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13">
@@ -8550,8 +8732,9 @@
       <c r="L100" s="13">
         <v>0</v>
       </c>
-      <c r="M100" s="13" t="s">
-        <v>36</v>
+      <c r="M100" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/雷须兽</v>
       </c>
       <c r="N100" s="13"/>
       <c r="O100" s="22"/>
@@ -8576,7 +8759,7 @@
         <v>2517</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15">
@@ -8602,8 +8785,9 @@
       <c r="L101" s="15">
         <v>0</v>
       </c>
-      <c r="M101" s="15" t="s">
-        <v>36</v>
+      <c r="M101" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/雷霆晶龟</v>
       </c>
       <c r="N101" s="15"/>
       <c r="O101" s="23"/>
@@ -8628,7 +8812,7 @@
         <v>2518</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="13">
@@ -8654,8 +8838,9 @@
       <c r="L102" s="13">
         <v>0</v>
       </c>
-      <c r="M102" s="13" t="s">
-        <v>36</v>
+      <c r="M102" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/霹雳怪虫</v>
       </c>
       <c r="N102" s="13"/>
       <c r="O102" s="22"/>
@@ -8680,7 +8865,7 @@
         <v>2519</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15">
@@ -8706,8 +8891,9 @@
       <c r="L103" s="15">
         <v>0</v>
       </c>
-      <c r="M103" s="15" t="s">
-        <v>36</v>
+      <c r="M103" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/独角雷兽</v>
       </c>
       <c r="N103" s="15"/>
       <c r="O103" s="23"/>
@@ -8732,7 +8918,7 @@
         <v>2520</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13">
@@ -8758,8 +8944,9 @@
       <c r="L104" s="13">
         <v>0</v>
       </c>
-      <c r="M104" s="13" t="s">
-        <v>36</v>
+      <c r="M104" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/雷电见习者</v>
       </c>
       <c r="N104" s="13"/>
       <c r="O104" s="22"/>
@@ -8784,7 +8971,7 @@
         <v>2521</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15">
@@ -8810,8 +8997,9 @@
       <c r="L105" s="15">
         <v>0</v>
       </c>
-      <c r="M105" s="15" t="s">
-        <v>36</v>
+      <c r="M105" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/雷霆拍熊</v>
       </c>
       <c r="N105" s="15"/>
       <c r="O105" s="23"/>
@@ -8836,7 +9024,7 @@
         <v>2522</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13">
@@ -8862,8 +9050,9 @@
       <c r="L106" s="13">
         <v>0</v>
       </c>
-      <c r="M106" s="13" t="s">
-        <v>36</v>
+      <c r="M106" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>item_server/card/雷翼飞狐</v>
       </c>
       <c r="N106" s="13"/>
       <c r="O106" s="22"/>
@@ -8888,7 +9077,7 @@
         <v>2523</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15">
@@ -8914,8 +9103,9 @@
       <c r="L107" s="15">
         <v>0</v>
       </c>
-      <c r="M107" s="15" t="s">
-        <v>36</v>
+      <c r="M107" s="13" t="str">
+        <f t="shared" ref="M107:M138" si="2">"item_server/card/"&amp;B107</f>
+        <v>item_server/card/远古黑龙</v>
       </c>
       <c r="N107" s="15"/>
       <c r="O107" s="23"/>
@@ -8940,7 +9130,7 @@
         <v>2524</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13">
@@ -8966,8 +9156,9 @@
       <c r="L108" s="13">
         <v>0</v>
       </c>
-      <c r="M108" s="13" t="s">
-        <v>36</v>
+      <c r="M108" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/雷霆领主</v>
       </c>
       <c r="N108" s="13"/>
       <c r="O108" s="22"/>
@@ -8992,7 +9183,7 @@
         <v>2525</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15">
@@ -9018,8 +9209,9 @@
       <c r="L109" s="15">
         <v>0</v>
       </c>
-      <c r="M109" s="15" t="s">
-        <v>36</v>
+      <c r="M109" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/霹雳怪泥</v>
       </c>
       <c r="N109" s="15"/>
       <c r="O109" s="23"/>
@@ -9044,7 +9236,7 @@
         <v>2526</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="13">
@@ -9070,8 +9262,9 @@
       <c r="L110" s="13">
         <v>0</v>
       </c>
-      <c r="M110" s="13" t="s">
-        <v>36</v>
+      <c r="M110" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/雷霆战蜥</v>
       </c>
       <c r="N110" s="13"/>
       <c r="O110" s="22"/>
@@ -9096,7 +9289,7 @@
         <v>2527</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15">
@@ -9122,8 +9315,9 @@
       <c r="L111" s="15">
         <v>0</v>
       </c>
-      <c r="M111" s="15" t="s">
-        <v>36</v>
+      <c r="M111" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/霹雳女妖</v>
       </c>
       <c r="N111" s="15"/>
       <c r="O111" s="23"/>
@@ -9148,7 +9342,7 @@
         <v>2528</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="13">
@@ -9174,8 +9368,9 @@
       <c r="L112" s="13">
         <v>0</v>
       </c>
-      <c r="M112" s="13" t="s">
-        <v>36</v>
+      <c r="M112" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/雷压巨兽</v>
       </c>
       <c r="N112" s="13"/>
       <c r="O112" s="22"/>
@@ -9200,7 +9395,7 @@
         <v>2529</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15">
@@ -9226,8 +9421,9 @@
       <c r="L113" s="15">
         <v>0</v>
       </c>
-      <c r="M113" s="15" t="s">
-        <v>36</v>
+      <c r="M113" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/雷压射手</v>
       </c>
       <c r="N113" s="15"/>
       <c r="O113" s="23"/>
@@ -9252,7 +9448,7 @@
         <v>2530</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13">
@@ -9278,8 +9474,9 @@
       <c r="L114" s="13">
         <v>0</v>
       </c>
-      <c r="M114" s="13" t="s">
-        <v>36</v>
+      <c r="M114" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/雷霆梦魇</v>
       </c>
       <c r="N114" s="13"/>
       <c r="O114" s="22"/>
@@ -9304,7 +9501,7 @@
         <v>2531</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15">
@@ -9330,8 +9527,9 @@
       <c r="L115" s="15">
         <v>0</v>
       </c>
-      <c r="M115" s="15" t="s">
-        <v>36</v>
+      <c r="M115" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/冰川幼龟</v>
       </c>
       <c r="N115" s="15"/>
       <c r="O115" s="23"/>
@@ -9356,7 +9554,7 @@
         <v>2532</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13">
@@ -9382,8 +9580,9 @@
       <c r="L116" s="13">
         <v>0</v>
       </c>
-      <c r="M116" s="13" t="s">
-        <v>36</v>
+      <c r="M116" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/近代冰魂</v>
       </c>
       <c r="N116" s="13"/>
       <c r="O116" s="22"/>
@@ -9408,7 +9607,7 @@
         <v>2533</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15">
@@ -9434,8 +9633,9 @@
       <c r="L117" s="15">
         <v>0</v>
       </c>
-      <c r="M117" s="15" t="s">
-        <v>36</v>
+      <c r="M117" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/冰晶石甲虫</v>
       </c>
       <c r="N117" s="15"/>
       <c r="O117" s="23"/>
@@ -9460,7 +9660,7 @@
         <v>2534</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="13">
@@ -9486,8 +9686,9 @@
       <c r="L118" s="13">
         <v>0</v>
       </c>
-      <c r="M118" s="13" t="s">
-        <v>36</v>
+      <c r="M118" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/冰原犬</v>
       </c>
       <c r="N118" s="13"/>
       <c r="O118" s="22"/>
@@ -9512,7 +9713,7 @@
         <v>2535</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15">
@@ -9538,8 +9739,9 @@
       <c r="L119" s="15">
         <v>0</v>
       </c>
-      <c r="M119" s="15" t="s">
-        <v>36</v>
+      <c r="M119" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/冰甲战熊</v>
       </c>
       <c r="N119" s="15"/>
       <c r="O119" s="23"/>
@@ -9564,7 +9766,7 @@
         <v>2536</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="13">
@@ -9590,8 +9792,9 @@
       <c r="L120" s="13">
         <v>0</v>
       </c>
-      <c r="M120" s="13" t="s">
-        <v>36</v>
+      <c r="M120" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/寒霜战士</v>
       </c>
       <c r="N120" s="13"/>
       <c r="O120" s="22"/>
@@ -9616,7 +9819,7 @@
         <v>2537</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15">
@@ -9642,8 +9845,9 @@
       <c r="L121" s="15">
         <v>0</v>
       </c>
-      <c r="M121" s="15" t="s">
-        <v>36</v>
+      <c r="M121" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/寒霜萨满</v>
       </c>
       <c r="N121" s="15"/>
       <c r="O121" s="23"/>
@@ -9668,7 +9872,7 @@
         <v>2538</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="13">
@@ -9694,8 +9898,9 @@
       <c r="L122" s="13">
         <v>0</v>
       </c>
-      <c r="M122" s="13" t="s">
-        <v>36</v>
+      <c r="M122" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/冰原巨兽</v>
       </c>
       <c r="N122" s="13"/>
       <c r="O122" s="22"/>
@@ -9720,7 +9925,7 @@
         <v>2539</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="15">
@@ -9746,8 +9951,9 @@
       <c r="L123" s="15">
         <v>0</v>
       </c>
-      <c r="M123" s="15" t="s">
-        <v>36</v>
+      <c r="M123" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/极地熊战士</v>
       </c>
       <c r="N123" s="15"/>
       <c r="O123" s="23"/>
@@ -9772,7 +9978,7 @@
         <v>2540</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
@@ -9798,8 +10004,9 @@
       <c r="L124" s="13">
         <v>0</v>
       </c>
-      <c r="M124" s="13" t="s">
-        <v>36</v>
+      <c r="M124" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/冰原猩猩兽</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="22"/>
@@ -9824,7 +10031,7 @@
         <v>2541</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C125" s="15"/>
       <c r="D125" s="15">
@@ -9850,8 +10057,9 @@
       <c r="L125" s="15">
         <v>0</v>
       </c>
-      <c r="M125" s="15" t="s">
-        <v>36</v>
+      <c r="M125" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/极地巨人</v>
       </c>
       <c r="N125" s="15"/>
       <c r="O125" s="23"/>
@@ -9876,7 +10084,7 @@
         <v>2542</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13">
@@ -9902,8 +10110,9 @@
       <c r="L126" s="13">
         <v>0</v>
       </c>
-      <c r="M126" s="13" t="s">
-        <v>36</v>
+      <c r="M126" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/极地四脚兽</v>
       </c>
       <c r="N126" s="13"/>
       <c r="O126" s="22"/>
@@ -9928,7 +10137,7 @@
         <v>2543</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15">
@@ -9954,8 +10163,9 @@
       <c r="L127" s="15">
         <v>0</v>
       </c>
-      <c r="M127" s="15" t="s">
-        <v>36</v>
+      <c r="M127" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/极地飞翼兽</v>
       </c>
       <c r="N127" s="15"/>
       <c r="O127" s="23"/>
@@ -9980,7 +10190,7 @@
         <v>2544</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13">
@@ -10006,8 +10216,9 @@
       <c r="L128" s="13">
         <v>0</v>
       </c>
-      <c r="M128" s="13" t="s">
-        <v>36</v>
+      <c r="M128" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/极冰守卫</v>
       </c>
       <c r="N128" s="13"/>
       <c r="O128" s="22"/>
@@ -10032,7 +10243,7 @@
         <v>2545</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15">
@@ -10058,8 +10269,9 @@
       <c r="L129" s="15">
         <v>0</v>
       </c>
-      <c r="M129" s="15" t="s">
-        <v>36</v>
+      <c r="M129" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/冰原守卫</v>
       </c>
       <c r="N129" s="15"/>
       <c r="O129" s="23"/>
@@ -10084,7 +10296,7 @@
         <v>2546</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13">
@@ -10110,8 +10322,9 @@
       <c r="L130" s="13">
         <v>0</v>
       </c>
-      <c r="M130" s="13" t="s">
-        <v>36</v>
+      <c r="M130" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/绿洲剧毒飞蛇</v>
       </c>
       <c r="N130" s="13"/>
       <c r="O130" s="22"/>
@@ -10136,7 +10349,7 @@
         <v>2547</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15">
@@ -10162,8 +10375,9 @@
       <c r="L131" s="15">
         <v>0</v>
       </c>
-      <c r="M131" s="15" t="s">
-        <v>36</v>
+      <c r="M131" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/绿洲魔法飞马</v>
       </c>
       <c r="N131" s="15"/>
       <c r="O131" s="23"/>
@@ -10188,7 +10402,7 @@
         <v>2548</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="13">
@@ -10214,8 +10428,9 @@
       <c r="L132" s="13">
         <v>0</v>
       </c>
-      <c r="M132" s="13" t="s">
-        <v>36</v>
+      <c r="M132" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/绿洲怪手</v>
       </c>
       <c r="N132" s="13"/>
       <c r="O132" s="22"/>
@@ -10240,7 +10455,7 @@
         <v>2549</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15">
@@ -10266,8 +10481,9 @@
       <c r="L133" s="15">
         <v>0</v>
       </c>
-      <c r="M133" s="15" t="s">
-        <v>36</v>
+      <c r="M133" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/毒风鹫</v>
       </c>
       <c r="N133" s="15"/>
       <c r="O133" s="23"/>
@@ -10292,7 +10508,7 @@
         <v>2550</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13">
@@ -10318,8 +10534,9 @@
       <c r="L134" s="13">
         <v>0</v>
       </c>
-      <c r="M134" s="13" t="s">
-        <v>36</v>
+      <c r="M134" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/天辉高级术士</v>
       </c>
       <c r="N134" s="13"/>
       <c r="O134" s="22"/>
@@ -10344,7 +10561,7 @@
         <v>2551</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15">
@@ -10370,8 +10587,9 @@
       <c r="L135" s="15">
         <v>0</v>
       </c>
-      <c r="M135" s="15" t="s">
-        <v>36</v>
+      <c r="M135" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/独角沙兽</v>
       </c>
       <c r="N135" s="15"/>
       <c r="O135" s="23"/>
@@ -10396,7 +10614,7 @@
         <v>2552</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13">
@@ -10422,8 +10640,9 @@
       <c r="L136" s="13">
         <v>0</v>
       </c>
-      <c r="M136" s="13" t="s">
-        <v>36</v>
+      <c r="M136" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/高级精灵战车</v>
       </c>
       <c r="N136" s="13"/>
       <c r="O136" s="22"/>
@@ -10448,7 +10667,7 @@
         <v>2553</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C137" s="15"/>
       <c r="D137" s="15">
@@ -10474,8 +10693,9 @@
       <c r="L137" s="15">
         <v>0</v>
       </c>
-      <c r="M137" s="15" t="s">
-        <v>36</v>
+      <c r="M137" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/风沙狼</v>
       </c>
       <c r="N137" s="15"/>
       <c r="O137" s="23"/>
@@ -10500,7 +10720,7 @@
         <v>2554</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
@@ -10526,8 +10746,9 @@
       <c r="L138" s="13">
         <v>0</v>
       </c>
-      <c r="M138" s="13" t="s">
-        <v>36</v>
+      <c r="M138" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>item_server/card/风沙狮</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="22"/>
@@ -10552,7 +10773,7 @@
         <v>2555</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15">
@@ -10578,8 +10799,9 @@
       <c r="L139" s="15">
         <v>0</v>
       </c>
-      <c r="M139" s="15" t="s">
-        <v>36</v>
+      <c r="M139" s="13" t="str">
+        <f t="shared" ref="M139:M171" si="3">"item_server/card/"&amp;B139</f>
+        <v>item_server/card/风沙战熊</v>
       </c>
       <c r="N139" s="15"/>
       <c r="O139" s="23"/>
@@ -10604,7 +10826,7 @@
         <v>2556</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="13">
@@ -10630,8 +10852,9 @@
       <c r="L140" s="13">
         <v>0</v>
       </c>
-      <c r="M140" s="13" t="s">
-        <v>36</v>
+      <c r="M140" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/绿洲守卫</v>
       </c>
       <c r="N140" s="13"/>
       <c r="O140" s="22"/>
@@ -10656,7 +10879,7 @@
         <v>2557</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="15">
@@ -10682,8 +10905,9 @@
       <c r="L141" s="15">
         <v>0</v>
       </c>
-      <c r="M141" s="15" t="s">
-        <v>36</v>
+      <c r="M141" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/风沙刺鼬</v>
       </c>
       <c r="N141" s="15"/>
       <c r="O141" s="23"/>
@@ -10708,7 +10932,7 @@
         <v>2558</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13">
@@ -10734,8 +10958,9 @@
       <c r="L142" s="13">
         <v>0</v>
       </c>
-      <c r="M142" s="13" t="s">
-        <v>36</v>
+      <c r="M142" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/绿洲女巫</v>
       </c>
       <c r="N142" s="13"/>
       <c r="O142" s="22"/>
@@ -10760,7 +10985,7 @@
         <v>2559</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="15">
@@ -10786,8 +11011,9 @@
       <c r="L143" s="15">
         <v>0</v>
       </c>
-      <c r="M143" s="15" t="s">
-        <v>36</v>
+      <c r="M143" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/砂砾小巨人</v>
       </c>
       <c r="N143" s="15"/>
       <c r="O143" s="23"/>
@@ -10812,7 +11038,7 @@
         <v>2560</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="13">
@@ -10838,8 +11064,9 @@
       <c r="L144" s="13">
         <v>0</v>
       </c>
-      <c r="M144" s="13" t="s">
-        <v>36</v>
+      <c r="M144" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/幼年青眼雷龙</v>
       </c>
       <c r="N144" s="13"/>
       <c r="O144" s="22"/>
@@ -10864,7 +11091,7 @@
         <v>2901</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C145" s="15"/>
       <c r="D145" s="15">
@@ -10890,8 +11117,9 @@
       <c r="L145" s="15">
         <v>0</v>
       </c>
-      <c r="M145" s="15" t="s">
-        <v>36</v>
+      <c r="M145" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/炼狱领主</v>
       </c>
       <c r="N145" s="15"/>
       <c r="O145" s="23"/>
@@ -10916,7 +11144,7 @@
         <v>2902</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="13">
@@ -10942,8 +11170,9 @@
       <c r="L146" s="13">
         <v>0</v>
       </c>
-      <c r="M146" s="13" t="s">
-        <v>36</v>
+      <c r="M146" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/熔岩巨人</v>
       </c>
       <c r="N146" s="13"/>
       <c r="O146" s="22"/>
@@ -10968,7 +11197,7 @@
         <v>2903</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="15">
@@ -10994,8 +11223,9 @@
       <c r="L147" s="15">
         <v>0</v>
       </c>
-      <c r="M147" s="15" t="s">
-        <v>36</v>
+      <c r="M147" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/烈焰神狐</v>
       </c>
       <c r="N147" s="15"/>
       <c r="O147" s="23"/>
@@ -11020,7 +11250,7 @@
         <v>2904</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="13">
@@ -11046,8 +11276,9 @@
       <c r="L148" s="13">
         <v>0</v>
       </c>
-      <c r="M148" s="13" t="s">
-        <v>36</v>
+      <c r="M148" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/炼狱双头犬</v>
       </c>
       <c r="N148" s="13"/>
       <c r="O148" s="22"/>
@@ -11072,7 +11303,7 @@
         <v>2905</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15">
@@ -11098,8 +11329,9 @@
       <c r="L149" s="15">
         <v>0</v>
       </c>
-      <c r="M149" s="15" t="s">
-        <v>36</v>
+      <c r="M149" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/烈焰战神</v>
       </c>
       <c r="N149" s="15"/>
       <c r="O149" s="23"/>
@@ -11124,7 +11356,7 @@
         <v>2906</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="13">
@@ -11150,8 +11382,9 @@
       <c r="L150" s="13">
         <v>0</v>
       </c>
-      <c r="M150" s="13" t="s">
-        <v>36</v>
+      <c r="M150" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/青眼雷龙</v>
       </c>
       <c r="N150" s="13"/>
       <c r="O150" s="22"/>
@@ -11176,7 +11409,7 @@
         <v>2907</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="15">
@@ -11202,8 +11435,9 @@
       <c r="L151" s="15">
         <v>0</v>
       </c>
-      <c r="M151" s="15" t="s">
-        <v>36</v>
+      <c r="M151" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/雷压飞翼兽</v>
       </c>
       <c r="N151" s="15"/>
       <c r="O151" s="23"/>
@@ -11228,7 +11462,7 @@
         <v>2908</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="13">
@@ -11254,8 +11488,9 @@
       <c r="L152" s="13">
         <v>0</v>
       </c>
-      <c r="M152" s="13" t="s">
-        <v>36</v>
+      <c r="M152" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/雷电掌控者</v>
       </c>
       <c r="N152" s="13"/>
       <c r="O152" s="22"/>
@@ -11280,7 +11515,7 @@
         <v>2909</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C153" s="15"/>
       <c r="D153" s="15">
@@ -11302,8 +11537,9 @@
       <c r="J153" s="15"/>
       <c r="K153" s="15"/>
       <c r="L153" s="15"/>
-      <c r="M153" s="15" t="s">
-        <v>36</v>
+      <c r="M153" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/雷神鸟</v>
       </c>
       <c r="N153" s="15"/>
       <c r="O153" s="23"/>
@@ -11328,7 +11564,7 @@
         <v>2910</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C154" s="13"/>
       <c r="D154" s="13">
@@ -11350,8 +11586,9 @@
       <c r="J154" s="13"/>
       <c r="K154" s="13"/>
       <c r="L154" s="13"/>
-      <c r="M154" s="13" t="s">
-        <v>36</v>
+      <c r="M154" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/闪电制造者</v>
       </c>
       <c r="N154" s="13"/>
       <c r="O154" s="22"/>
@@ -11376,7 +11613,7 @@
         <v>2911</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C155" s="15"/>
       <c r="D155" s="15">
@@ -11398,8 +11635,9 @@
       <c r="J155" s="15"/>
       <c r="K155" s="15"/>
       <c r="L155" s="15"/>
-      <c r="M155" s="15" t="s">
-        <v>36</v>
+      <c r="M155" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/极寒领主</v>
       </c>
       <c r="N155" s="15"/>
       <c r="O155" s="23"/>
@@ -11424,7 +11662,7 @@
         <v>2912</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="13">
@@ -11446,8 +11684,9 @@
       <c r="J156" s="13"/>
       <c r="K156" s="13"/>
       <c r="L156" s="13"/>
-      <c r="M156" s="13" t="s">
-        <v>36</v>
+      <c r="M156" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/极寒蛛美丽</v>
       </c>
       <c r="N156" s="13"/>
       <c r="O156" s="22"/>
@@ -11472,7 +11711,7 @@
         <v>2913</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C157" s="15"/>
       <c r="D157" s="15">
@@ -11494,8 +11733,9 @@
       <c r="J157" s="15"/>
       <c r="K157" s="15"/>
       <c r="L157" s="15"/>
-      <c r="M157" s="15" t="s">
-        <v>36</v>
+      <c r="M157" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/冰原领主</v>
       </c>
       <c r="N157" s="15"/>
       <c r="O157" s="23"/>
@@ -11520,7 +11760,7 @@
         <v>2914</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="13">
@@ -11542,8 +11782,9 @@
       <c r="J158" s="13"/>
       <c r="K158" s="13"/>
       <c r="L158" s="13"/>
-      <c r="M158" s="13" t="s">
-        <v>36</v>
+      <c r="M158" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/狂沙熊战士</v>
       </c>
       <c r="N158" s="13"/>
       <c r="O158" s="22"/>
@@ -11568,7 +11809,7 @@
         <v>2915</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C159" s="15"/>
       <c r="D159" s="15">
@@ -11590,8 +11831,9 @@
       <c r="J159" s="15"/>
       <c r="K159" s="15"/>
       <c r="L159" s="15"/>
-      <c r="M159" s="15" t="s">
-        <v>36</v>
+      <c r="M159" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/黄沙护卫</v>
       </c>
       <c r="N159" s="15"/>
       <c r="O159" s="23"/>
@@ -11616,7 +11858,7 @@
         <v>2916</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="13">
@@ -11638,8 +11880,9 @@
       <c r="J160" s="13"/>
       <c r="K160" s="13"/>
       <c r="L160" s="13"/>
-      <c r="M160" s="13" t="s">
-        <v>36</v>
+      <c r="M160" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/绿洲之主</v>
       </c>
       <c r="N160" s="13"/>
       <c r="O160" s="22"/>
@@ -11664,7 +11907,7 @@
         <v>2917</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C161" s="15"/>
       <c r="D161" s="15">
@@ -11686,8 +11929,9 @@
       <c r="J161" s="15"/>
       <c r="K161" s="15"/>
       <c r="L161" s="15"/>
-      <c r="M161" s="15" t="s">
-        <v>36</v>
+      <c r="M161" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/黄沙之主</v>
       </c>
       <c r="N161" s="15"/>
       <c r="O161" s="23"/>
@@ -11712,7 +11956,7 @@
         <v>2918</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="13">
@@ -11734,8 +11978,9 @@
       <c r="J162" s="13"/>
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
-      <c r="M162" s="13" t="s">
-        <v>36</v>
+      <c r="M162" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/祈风使</v>
       </c>
       <c r="N162" s="13"/>
       <c r="O162" s="22"/>
@@ -11760,7 +12005,7 @@
         <v>2919</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C163" s="15"/>
       <c r="D163" s="15">
@@ -11782,8 +12027,9 @@
       <c r="J163" s="15"/>
       <c r="K163" s="15"/>
       <c r="L163" s="15"/>
-      <c r="M163" s="15" t="s">
-        <v>36</v>
+      <c r="M163" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/寒冰使</v>
       </c>
       <c r="N163" s="15"/>
       <c r="O163" s="23"/>
@@ -11808,7 +12054,7 @@
         <v>2920</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="13">
@@ -11830,8 +12076,9 @@
       <c r="J164" s="13"/>
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
-      <c r="M164" s="13" t="s">
-        <v>36</v>
+      <c r="M164" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/霹雳使</v>
       </c>
       <c r="N164" s="13"/>
       <c r="O164" s="22"/>
@@ -11856,7 +12103,7 @@
         <v>2921</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C165" s="15"/>
       <c r="D165" s="15">
@@ -11878,8 +12125,9 @@
       <c r="J165" s="15"/>
       <c r="K165" s="15"/>
       <c r="L165" s="15"/>
-      <c r="M165" s="15" t="s">
-        <v>36</v>
+      <c r="M165" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/烈火使</v>
       </c>
       <c r="N165" s="15"/>
       <c r="O165" s="23"/>
@@ -11904,7 +12152,7 @@
         <v>2922</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="13">
@@ -11926,8 +12174,9 @@
       <c r="J166" s="13"/>
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
-      <c r="M166" s="13" t="s">
-        <v>36</v>
+      <c r="M166" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/远古炼狱火</v>
       </c>
       <c r="N166" s="13"/>
       <c r="O166" s="22"/>
@@ -11952,7 +12201,7 @@
         <v>3201</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15">
@@ -11974,8 +12223,9 @@
       <c r="J167" s="15"/>
       <c r="K167" s="15"/>
       <c r="L167" s="15"/>
-      <c r="M167" s="15" t="s">
-        <v>36</v>
+      <c r="M167" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/炼狱之王</v>
       </c>
       <c r="N167" s="15"/>
       <c r="O167" s="23"/>
@@ -12000,7 +12250,7 @@
         <v>3202</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="13">
@@ -12022,8 +12272,9 @@
       <c r="J168" s="13"/>
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
-      <c r="M168" s="13" t="s">
-        <v>36</v>
+      <c r="M168" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/雷神</v>
       </c>
       <c r="N168" s="13"/>
       <c r="O168" s="22"/>
@@ -12048,7 +12299,7 @@
         <v>3203</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C169" s="15"/>
       <c r="D169" s="15">
@@ -12070,8 +12321,9 @@
       <c r="J169" s="15"/>
       <c r="K169" s="15"/>
       <c r="L169" s="15"/>
-      <c r="M169" s="15" t="s">
-        <v>36</v>
+      <c r="M169" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/冰宫女王</v>
       </c>
       <c r="N169" s="15"/>
       <c r="O169" s="23"/>
@@ -12096,7 +12348,7 @@
         <v>3204</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="13">
@@ -12118,8 +12370,9 @@
       <c r="J170" s="13"/>
       <c r="K170" s="13"/>
       <c r="L170" s="13"/>
-      <c r="M170" s="13" t="s">
-        <v>36</v>
+      <c r="M170" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/风神</v>
       </c>
       <c r="N170" s="13"/>
       <c r="O170" s="22"/>
@@ -12144,7 +12397,7 @@
         <v>3205</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C171" s="15"/>
       <c r="D171" s="15">
@@ -12166,8 +12419,9 @@
       <c r="J171" s="15"/>
       <c r="K171" s="15"/>
       <c r="L171" s="15"/>
-      <c r="M171" s="15" t="s">
-        <v>36</v>
+      <c r="M171" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>item_server/card/元素之主</v>
       </c>
       <c r="N171" s="15"/>
       <c r="O171" s="23"/>
@@ -12192,10 +12446,10 @@
         <v>3501</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D172" s="13">
         <v>1</v>
@@ -12217,7 +12471,7 @@
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="N172" s="13"/>
       <c r="O172" s="22"/>
@@ -12242,10 +12496,10 @@
         <v>3502</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D173" s="15">
         <v>1</v>
@@ -12267,7 +12521,7 @@
       <c r="K173" s="15"/>
       <c r="L173" s="15"/>
       <c r="M173" s="15" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="N173" s="15"/>
       <c r="O173" s="23"/>
@@ -12292,10 +12546,10 @@
         <v>3503</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D174" s="13">
         <v>1</v>
@@ -12317,7 +12571,7 @@
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
       <c r="M174" s="13" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="N174" s="13"/>
       <c r="O174" s="22"/>
@@ -12342,10 +12596,10 @@
         <v>3504</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D175" s="15">
         <v>1</v>
@@ -12367,7 +12621,7 @@
       <c r="K175" s="15"/>
       <c r="L175" s="15"/>
       <c r="M175" s="15" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="N175" s="15"/>
       <c r="O175" s="23"/>
@@ -12392,10 +12646,10 @@
         <v>3505</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D176" s="13">
         <v>1</v>
@@ -12417,7 +12671,7 @@
       <c r="K176" s="13"/>
       <c r="L176" s="13"/>
       <c r="M176" s="13" t="s">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="N176" s="13"/>
       <c r="O176" s="22"/>
@@ -12442,10 +12696,10 @@
         <v>3506</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D177" s="15">
         <v>1</v>
@@ -12467,7 +12721,7 @@
       <c r="K177" s="15"/>
       <c r="L177" s="15"/>
       <c r="M177" s="15" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="N177" s="15"/>
       <c r="O177" s="23"/>
@@ -12492,10 +12746,10 @@
         <v>3507</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D178" s="13">
         <v>1</v>
@@ -12517,7 +12771,7 @@
       <c r="K178" s="13"/>
       <c r="L178" s="13"/>
       <c r="M178" s="13" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="N178" s="13"/>
       <c r="O178" s="22"/>
@@ -12542,10 +12796,10 @@
         <v>3508</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D179" s="15">
         <v>1</v>
@@ -12567,7 +12821,7 @@
       <c r="K179" s="15"/>
       <c r="L179" s="15"/>
       <c r="M179" s="15" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="N179" s="15"/>
       <c r="O179" s="23"/>
@@ -12592,10 +12846,10 @@
         <v>3509</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D180" s="13">
         <v>1</v>
@@ -12617,7 +12871,7 @@
       <c r="K180" s="13"/>
       <c r="L180" s="13"/>
       <c r="M180" s="13" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="N180" s="13"/>
       <c r="O180" s="22"/>
@@ -12642,10 +12896,10 @@
         <v>3510</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D181" s="15">
         <v>1</v>
@@ -12667,7 +12921,7 @@
       <c r="K181" s="15"/>
       <c r="L181" s="15"/>
       <c r="M181" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N181" s="15"/>
       <c r="O181" s="23"/>
@@ -12692,10 +12946,10 @@
         <v>3511</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D182" s="13">
         <v>1</v>
@@ -12717,7 +12971,7 @@
       <c r="K182" s="13"/>
       <c r="L182" s="13"/>
       <c r="M182" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N182" s="13"/>
       <c r="O182" s="22"/>
@@ -12742,10 +12996,10 @@
         <v>3512</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D183" s="15">
         <v>1</v>
@@ -12767,7 +13021,7 @@
       <c r="K183" s="15"/>
       <c r="L183" s="15"/>
       <c r="M183" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N183" s="15"/>
       <c r="O183" s="23"/>
@@ -12792,10 +13046,10 @@
         <v>3513</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D184" s="13">
         <v>1</v>
@@ -12817,7 +13071,7 @@
       <c r="K184" s="13"/>
       <c r="L184" s="13"/>
       <c r="M184" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N184" s="13"/>
       <c r="O184" s="22"/>
@@ -12842,10 +13096,10 @@
         <v>3514</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -12867,7 +13121,7 @@
       <c r="K185" s="15"/>
       <c r="L185" s="15"/>
       <c r="M185" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N185" s="15"/>
       <c r="O185" s="23"/>
@@ -12892,10 +13146,10 @@
         <v>3515</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D186" s="13">
         <v>1</v>
@@ -12917,7 +13171,7 @@
       <c r="K186" s="13"/>
       <c r="L186" s="13"/>
       <c r="M186" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N186" s="13"/>
       <c r="O186" s="22"/>
@@ -12942,10 +13196,10 @@
         <v>3516</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -12967,7 +13221,7 @@
       <c r="K187" s="15"/>
       <c r="L187" s="15"/>
       <c r="M187" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N187" s="15"/>
       <c r="O187" s="23"/>
@@ -12992,10 +13246,10 @@
         <v>3517</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D188" s="13">
         <v>1</v>
@@ -13017,7 +13271,7 @@
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
       <c r="M188" s="13" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="N188" s="13"/>
       <c r="O188" s="22"/>
@@ -13042,10 +13296,10 @@
         <v>3518</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -13067,7 +13321,7 @@
       <c r="K189" s="15"/>
       <c r="L189" s="15"/>
       <c r="M189" s="15" t="s">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="N189" s="15"/>
       <c r="O189" s="23"/>
@@ -13092,10 +13346,10 @@
         <v>3519</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D190" s="13">
         <v>1</v>
@@ -13117,7 +13371,7 @@
       <c r="K190" s="13"/>
       <c r="L190" s="13"/>
       <c r="M190" s="13" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="N190" s="13"/>
       <c r="O190" s="22"/>
@@ -13142,10 +13396,10 @@
         <v>3520</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -13167,7 +13421,7 @@
       <c r="K191" s="15"/>
       <c r="L191" s="15"/>
       <c r="M191" s="15" t="s">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="N191" s="15"/>
       <c r="O191" s="23"/>
@@ -13192,10 +13446,10 @@
         <v>3521</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="D192" s="13">
         <v>1</v>
@@ -13217,7 +13471,7 @@
       <c r="K192" s="13"/>
       <c r="L192" s="13"/>
       <c r="M192" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N192" s="13"/>
       <c r="O192" s="22"/>
@@ -13242,10 +13496,10 @@
         <v>3522</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -13267,7 +13521,7 @@
       <c r="K193" s="15"/>
       <c r="L193" s="15"/>
       <c r="M193" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N193" s="15"/>
       <c r="O193" s="23"/>
@@ -13292,10 +13546,10 @@
         <v>3523</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="D194" s="13">
         <v>1</v>
@@ -13317,7 +13571,7 @@
       <c r="K194" s="13"/>
       <c r="L194" s="13"/>
       <c r="M194" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N194" s="13"/>
       <c r="O194" s="22"/>
@@ -13342,10 +13596,10 @@
         <v>3524</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -13367,7 +13621,7 @@
       <c r="K195" s="15"/>
       <c r="L195" s="15"/>
       <c r="M195" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N195" s="15"/>
       <c r="O195" s="23"/>
@@ -13392,10 +13646,10 @@
         <v>3525</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D196" s="13">
         <v>1</v>
@@ -13417,7 +13671,7 @@
       <c r="K196" s="13"/>
       <c r="L196" s="13"/>
       <c r="M196" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N196" s="13"/>
       <c r="O196" s="22"/>
@@ -13442,10 +13696,10 @@
         <v>10001</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -13467,7 +13721,7 @@
       <c r="K197" s="15"/>
       <c r="L197" s="15"/>
       <c r="M197" s="15" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N197" s="15"/>
       <c r="O197" s="23"/>
@@ -13492,10 +13746,10 @@
         <v>10002</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D198" s="13">
         <v>1</v>
@@ -13517,7 +13771,7 @@
       <c r="K198" s="13"/>
       <c r="L198" s="13"/>
       <c r="M198" s="13" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="N198" s="13"/>
       <c r="O198" s="22"/>
@@ -13542,10 +13796,10 @@
         <v>10003</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -13567,7 +13821,7 @@
       <c r="K199" s="15"/>
       <c r="L199" s="15"/>
       <c r="M199" s="15" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="N199" s="15"/>
       <c r="O199" s="23"/>
@@ -13592,10 +13846,10 @@
         <v>10004</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D200" s="13">
         <v>1</v>
@@ -13617,7 +13871,7 @@
       <c r="K200" s="13"/>
       <c r="L200" s="13"/>
       <c r="M200" s="13" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="N200" s="13"/>
       <c r="O200" s="22"/>
@@ -13642,10 +13896,10 @@
         <v>10005</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D201" s="15">
         <v>1</v>
@@ -13667,7 +13921,7 @@
       <c r="K201" s="15"/>
       <c r="L201" s="15"/>
       <c r="M201" s="15" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="N201" s="15"/>
       <c r="O201" s="23"/>
@@ -13692,10 +13946,10 @@
         <v>10006</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D202" s="13">
         <v>1</v>
@@ -13717,7 +13971,7 @@
       <c r="K202" s="13"/>
       <c r="L202" s="13"/>
       <c r="M202" s="13" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="N202" s="13"/>
       <c r="O202" s="22"/>
@@ -13742,10 +13996,10 @@
         <v>10007</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -13767,7 +14021,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="15"/>
       <c r="M203" s="15" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="N203" s="15"/>
       <c r="O203" s="23"/>
@@ -13792,10 +14046,10 @@
         <v>10008</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D204" s="13">
         <v>1</v>
@@ -13817,7 +14071,7 @@
       <c r="K204" s="13"/>
       <c r="L204" s="13"/>
       <c r="M204" s="13" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="N204" s="13"/>
       <c r="O204" s="22"/>
@@ -13842,10 +14096,10 @@
         <v>10009</v>
       </c>
       <c r="B205" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -13867,7 +14121,7 @@
       <c r="K205" s="15"/>
       <c r="L205" s="15"/>
       <c r="M205" s="15" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="N205" s="15"/>
       <c r="O205" s="23"/>
@@ -13892,10 +14146,10 @@
         <v>10010</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D206" s="13">
         <v>1</v>
@@ -13917,7 +14171,7 @@
       <c r="K206" s="13"/>
       <c r="L206" s="13"/>
       <c r="M206" s="13" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N206" s="13"/>
       <c r="O206" s="22"/>
@@ -13942,10 +14196,10 @@
         <v>10011</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D207" s="15">
         <v>1</v>
@@ -13967,7 +14221,7 @@
       <c r="K207" s="15"/>
       <c r="L207" s="15"/>
       <c r="M207" s="15" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N207" s="15"/>
       <c r="O207" s="23"/>
@@ -13992,10 +14246,10 @@
         <v>10012</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D208" s="13">
         <v>1</v>
@@ -14017,7 +14271,7 @@
       <c r="K208" s="13"/>
       <c r="L208" s="13"/>
       <c r="M208" s="13" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="N208" s="13"/>
       <c r="O208" s="22"/>
@@ -14042,10 +14296,10 @@
         <v>10013</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D209" s="15">
         <v>1</v>
@@ -14067,7 +14321,7 @@
       <c r="K209" s="15"/>
       <c r="L209" s="15"/>
       <c r="M209" s="15" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="N209" s="15"/>
       <c r="O209" s="23"/>
@@ -14092,10 +14346,10 @@
         <v>10014</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D210" s="13">
         <v>1</v>
@@ -14117,7 +14371,7 @@
       <c r="K210" s="13"/>
       <c r="L210" s="13"/>
       <c r="M210" s="13" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="N210" s="13"/>
       <c r="O210" s="22"/>
@@ -14142,10 +14396,10 @@
         <v>10015</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D211" s="15">
         <v>1</v>
@@ -14167,7 +14421,7 @@
       <c r="K211" s="15"/>
       <c r="L211" s="15"/>
       <c r="M211" s="15" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="N211" s="15"/>
       <c r="O211" s="23"/>
@@ -14192,10 +14446,10 @@
         <v>10016</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D212" s="13">
         <v>1</v>
@@ -14217,7 +14471,7 @@
       <c r="K212" s="13"/>
       <c r="L212" s="13"/>
       <c r="M212" s="13" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N212" s="13"/>
       <c r="O212" s="22"/>
@@ -14242,10 +14496,10 @@
         <v>10017</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D213" s="15">
         <v>1</v>
@@ -14267,7 +14521,7 @@
       <c r="K213" s="15"/>
       <c r="L213" s="15"/>
       <c r="M213" s="15" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="N213" s="15"/>
       <c r="O213" s="23"/>
@@ -14292,10 +14546,10 @@
         <v>10018</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D214" s="13">
         <v>1</v>
@@ -14317,7 +14571,7 @@
       <c r="K214" s="13"/>
       <c r="L214" s="13"/>
       <c r="M214" s="13" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="N214" s="13"/>
       <c r="O214" s="22"/>
@@ -14342,10 +14596,10 @@
         <v>10101</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D215" s="15">
         <v>1</v>
@@ -14367,7 +14621,7 @@
       <c r="K215" s="15"/>
       <c r="L215" s="15"/>
       <c r="M215" s="15" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N215" s="15"/>
       <c r="O215" s="23"/>
@@ -14392,10 +14646,10 @@
         <v>10102</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D216" s="13">
         <v>1</v>
@@ -14417,7 +14671,7 @@
       <c r="K216" s="13"/>
       <c r="L216" s="13"/>
       <c r="M216" s="13" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="N216" s="13"/>
       <c r="O216" s="22"/>
@@ -14442,10 +14696,10 @@
         <v>10103</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D217" s="15">
         <v>1</v>
@@ -14467,7 +14721,7 @@
       <c r="K217" s="15"/>
       <c r="L217" s="15"/>
       <c r="M217" s="15" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="N217" s="15"/>
       <c r="O217" s="23"/>
@@ -14492,10 +14746,10 @@
         <v>10104</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D218" s="13">
         <v>1</v>
@@ -14517,7 +14771,7 @@
       <c r="K218" s="13"/>
       <c r="L218" s="13"/>
       <c r="M218" s="13" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="N218" s="13"/>
       <c r="O218" s="22"/>
@@ -14542,10 +14796,10 @@
         <v>10105</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D219" s="15">
         <v>1</v>
@@ -14567,7 +14821,7 @@
       <c r="K219" s="15"/>
       <c r="L219" s="15"/>
       <c r="M219" s="15" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="N219" s="15"/>
       <c r="O219" s="23"/>
@@ -14592,10 +14846,10 @@
         <v>10106</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D220" s="13">
         <v>1</v>
@@ -14617,7 +14871,7 @@
       <c r="K220" s="13"/>
       <c r="L220" s="13"/>
       <c r="M220" s="13" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="N220" s="13"/>
       <c r="O220" s="22"/>
@@ -14642,10 +14896,10 @@
         <v>10107</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D221" s="15">
         <v>1</v>
@@ -14667,7 +14921,7 @@
       <c r="K221" s="15"/>
       <c r="L221" s="15"/>
       <c r="M221" s="15" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="N221" s="15"/>
       <c r="O221" s="23"/>
@@ -14692,10 +14946,10 @@
         <v>10108</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D222" s="13">
         <v>1</v>
@@ -14717,7 +14971,7 @@
       <c r="K222" s="13"/>
       <c r="L222" s="13"/>
       <c r="M222" s="13" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="N222" s="13"/>
       <c r="O222" s="22"/>
@@ -14742,10 +14996,10 @@
         <v>10109</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D223" s="15">
         <v>1</v>
@@ -14767,7 +15021,7 @@
       <c r="K223" s="15"/>
       <c r="L223" s="15"/>
       <c r="M223" s="15" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="N223" s="15"/>
       <c r="O223" s="23"/>
@@ -14792,10 +15046,10 @@
         <v>10110</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D224" s="13">
         <v>1</v>
@@ -14817,7 +15071,7 @@
       <c r="K224" s="13"/>
       <c r="L224" s="13"/>
       <c r="M224" s="13" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N224" s="13"/>
       <c r="O224" s="22"/>
@@ -14842,10 +15096,10 @@
         <v>10111</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D225" s="15">
         <v>1</v>
@@ -14867,7 +15121,7 @@
       <c r="K225" s="15"/>
       <c r="L225" s="15"/>
       <c r="M225" s="15" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N225" s="15"/>
       <c r="O225" s="23"/>
@@ -14892,10 +15146,10 @@
         <v>10112</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D226" s="13">
         <v>1</v>
@@ -14917,7 +15171,7 @@
       <c r="K226" s="13"/>
       <c r="L226" s="13"/>
       <c r="M226" s="13" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="N226" s="13"/>
       <c r="O226" s="22"/>
@@ -14942,10 +15196,10 @@
         <v>10113</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -14967,7 +15221,7 @@
       <c r="K227" s="15"/>
       <c r="L227" s="15"/>
       <c r="M227" s="15" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="N227" s="15"/>
       <c r="O227" s="23"/>
@@ -14992,10 +15246,10 @@
         <v>10114</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D228" s="13">
         <v>1</v>
@@ -15017,7 +15271,7 @@
       <c r="K228" s="13"/>
       <c r="L228" s="13"/>
       <c r="M228" s="13" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="N228" s="13"/>
       <c r="O228" s="22"/>
@@ -15042,10 +15296,10 @@
         <v>10115</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -15067,7 +15321,7 @@
       <c r="K229" s="15"/>
       <c r="L229" s="15"/>
       <c r="M229" s="15" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="N229" s="15"/>
       <c r="O229" s="23"/>
@@ -15092,10 +15346,10 @@
         <v>10116</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D230" s="13">
         <v>1</v>
@@ -15117,7 +15371,7 @@
       <c r="K230" s="13"/>
       <c r="L230" s="13"/>
       <c r="M230" s="13" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N230" s="13"/>
       <c r="O230" s="22"/>
@@ -15142,10 +15396,10 @@
         <v>10117</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D231" s="15">
         <v>1</v>
@@ -15167,7 +15421,7 @@
       <c r="K231" s="15"/>
       <c r="L231" s="15"/>
       <c r="M231" s="15" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="N231" s="15"/>
       <c r="O231" s="23"/>
@@ -15192,10 +15446,10 @@
         <v>10118</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D232" s="13">
         <v>1</v>
@@ -15217,7 +15471,7 @@
       <c r="K232" s="13"/>
       <c r="L232" s="13"/>
       <c r="M232" s="13" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="N232" s="13"/>
       <c r="O232" s="22"/>
@@ -15242,10 +15496,10 @@
         <v>10201</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D233" s="15">
         <v>1</v>
@@ -15267,7 +15521,7 @@
       <c r="K233" s="15"/>
       <c r="L233" s="15"/>
       <c r="M233" s="15" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N233" s="15"/>
       <c r="O233" s="23"/>
@@ -15292,10 +15546,10 @@
         <v>10202</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D234" s="13">
         <v>1</v>
@@ -15317,7 +15571,7 @@
       <c r="K234" s="13"/>
       <c r="L234" s="13"/>
       <c r="M234" s="13" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="N234" s="13"/>
       <c r="O234" s="22"/>
@@ -15342,10 +15596,10 @@
         <v>10203</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D235" s="15">
         <v>1</v>
@@ -15367,7 +15621,7 @@
       <c r="K235" s="15"/>
       <c r="L235" s="15"/>
       <c r="M235" s="15" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="N235" s="15"/>
       <c r="O235" s="23"/>
@@ -15392,10 +15646,10 @@
         <v>10204</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D236" s="13">
         <v>1</v>
@@ -15417,7 +15671,7 @@
       <c r="K236" s="13"/>
       <c r="L236" s="13"/>
       <c r="M236" s="13" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="N236" s="13"/>
       <c r="O236" s="22"/>
@@ -15442,10 +15696,10 @@
         <v>10205</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D237" s="15">
         <v>1</v>
@@ -15467,7 +15721,7 @@
       <c r="K237" s="15"/>
       <c r="L237" s="15"/>
       <c r="M237" s="15" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="N237" s="15"/>
       <c r="O237" s="23"/>
@@ -15492,10 +15746,10 @@
         <v>10206</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D238" s="13">
         <v>1</v>
@@ -15517,7 +15771,7 @@
       <c r="K238" s="13"/>
       <c r="L238" s="13"/>
       <c r="M238" s="13" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="N238" s="13"/>
       <c r="O238" s="22"/>
@@ -15542,10 +15796,10 @@
         <v>10207</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -15567,7 +15821,7 @@
       <c r="K239" s="15"/>
       <c r="L239" s="15"/>
       <c r="M239" s="15" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="N239" s="15"/>
       <c r="O239" s="23"/>
@@ -15592,10 +15846,10 @@
         <v>10208</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D240" s="13">
         <v>1</v>
@@ -15617,7 +15871,7 @@
       <c r="K240" s="13"/>
       <c r="L240" s="13"/>
       <c r="M240" s="13" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="N240" s="13"/>
       <c r="O240" s="22"/>
@@ -15642,10 +15896,10 @@
         <v>10209</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D241" s="15">
         <v>1</v>
@@ -15667,7 +15921,7 @@
       <c r="K241" s="15"/>
       <c r="L241" s="15"/>
       <c r="M241" s="15" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="N241" s="15"/>
       <c r="O241" s="23"/>
@@ -15692,10 +15946,10 @@
         <v>10210</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D242" s="13">
         <v>1</v>
@@ -15717,7 +15971,7 @@
       <c r="K242" s="13"/>
       <c r="L242" s="13"/>
       <c r="M242" s="13" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N242" s="13"/>
       <c r="O242" s="22"/>
@@ -15742,10 +15996,10 @@
         <v>10211</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D243" s="15">
         <v>1</v>
@@ -15767,7 +16021,7 @@
       <c r="K243" s="15"/>
       <c r="L243" s="15"/>
       <c r="M243" s="15" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N243" s="15"/>
       <c r="O243" s="23"/>
@@ -15792,10 +16046,10 @@
         <v>10212</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D244" s="13">
         <v>1</v>
@@ -15817,7 +16071,7 @@
       <c r="K244" s="13"/>
       <c r="L244" s="13"/>
       <c r="M244" s="13" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="N244" s="13"/>
       <c r="O244" s="22"/>
@@ -15842,10 +16096,10 @@
         <v>10213</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D245" s="15">
         <v>1</v>
@@ -15867,7 +16121,7 @@
       <c r="K245" s="15"/>
       <c r="L245" s="15"/>
       <c r="M245" s="15" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="N245" s="15"/>
       <c r="O245" s="23"/>
@@ -15892,10 +16146,10 @@
         <v>10214</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D246" s="13">
         <v>1</v>
@@ -15917,7 +16171,7 @@
       <c r="K246" s="13"/>
       <c r="L246" s="13"/>
       <c r="M246" s="13" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="N246" s="13"/>
       <c r="O246" s="22"/>
@@ -15942,10 +16196,10 @@
         <v>10215</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D247" s="15">
         <v>1</v>
@@ -15967,7 +16221,7 @@
       <c r="K247" s="15"/>
       <c r="L247" s="15"/>
       <c r="M247" s="15" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="N247" s="15"/>
       <c r="O247" s="23"/>
@@ -15992,10 +16246,10 @@
         <v>10216</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D248" s="13">
         <v>1</v>
@@ -16017,7 +16271,7 @@
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N248" s="13"/>
       <c r="O248" s="22"/>
@@ -16042,10 +16296,10 @@
         <v>10217</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D249" s="15">
         <v>1</v>
@@ -16067,7 +16321,7 @@
       <c r="K249" s="15"/>
       <c r="L249" s="15"/>
       <c r="M249" s="15" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="N249" s="15"/>
       <c r="O249" s="23"/>
@@ -16092,10 +16346,10 @@
         <v>10218</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D250" s="13">
         <v>1</v>
@@ -16117,7 +16371,7 @@
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="N250" s="13"/>
       <c r="O250" s="22"/>
@@ -16142,10 +16396,10 @@
         <v>10301</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D251" s="15">
         <v>1</v>
@@ -16167,7 +16421,7 @@
       <c r="K251" s="15"/>
       <c r="L251" s="15"/>
       <c r="M251" s="15" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N251" s="15"/>
       <c r="O251" s="23"/>
@@ -16192,10 +16446,10 @@
         <v>10302</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D252" s="13">
         <v>1</v>
@@ -16217,7 +16471,7 @@
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="N252" s="13"/>
       <c r="O252" s="22"/>
@@ -16242,10 +16496,10 @@
         <v>10303</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D253" s="15">
         <v>1</v>
@@ -16267,7 +16521,7 @@
       <c r="K253" s="15"/>
       <c r="L253" s="15"/>
       <c r="M253" s="15" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="N253" s="15"/>
       <c r="O253" s="23"/>
@@ -16292,10 +16546,10 @@
         <v>10304</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D254" s="13">
         <v>1</v>
@@ -16317,7 +16571,7 @@
       <c r="K254" s="13"/>
       <c r="L254" s="13"/>
       <c r="M254" s="13" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="N254" s="13"/>
       <c r="O254" s="22"/>
@@ -16342,10 +16596,10 @@
         <v>10305</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D255" s="15">
         <v>1</v>
@@ -16367,7 +16621,7 @@
       <c r="K255" s="15"/>
       <c r="L255" s="15"/>
       <c r="M255" s="15" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="N255" s="15"/>
       <c r="O255" s="23"/>
@@ -16392,10 +16646,10 @@
         <v>10306</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D256" s="13">
         <v>1</v>
@@ -16417,7 +16671,7 @@
       <c r="K256" s="13"/>
       <c r="L256" s="13"/>
       <c r="M256" s="13" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="N256" s="13"/>
       <c r="O256" s="22"/>
@@ -16442,10 +16696,10 @@
         <v>10307</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -16467,7 +16721,7 @@
       <c r="K257" s="15"/>
       <c r="L257" s="15"/>
       <c r="M257" s="15" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="N257" s="15"/>
       <c r="O257" s="23"/>
@@ -16492,10 +16746,10 @@
         <v>10308</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D258" s="13">
         <v>1</v>
@@ -16517,7 +16771,7 @@
       <c r="K258" s="13"/>
       <c r="L258" s="13"/>
       <c r="M258" s="13" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="N258" s="13"/>
       <c r="O258" s="22"/>
@@ -16542,10 +16796,10 @@
         <v>10309</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -16567,7 +16821,7 @@
       <c r="K259" s="15"/>
       <c r="L259" s="15"/>
       <c r="M259" s="15" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="N259" s="15"/>
       <c r="O259" s="23"/>
@@ -16592,10 +16846,10 @@
         <v>10310</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D260" s="13">
         <v>1</v>
@@ -16617,7 +16871,7 @@
       <c r="K260" s="13"/>
       <c r="L260" s="13"/>
       <c r="M260" s="13" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N260" s="13"/>
       <c r="O260" s="22"/>
@@ -16642,10 +16896,10 @@
         <v>10311</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -16667,7 +16921,7 @@
       <c r="K261" s="15"/>
       <c r="L261" s="15"/>
       <c r="M261" s="15" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N261" s="15"/>
       <c r="O261" s="23"/>
@@ -16692,10 +16946,10 @@
         <v>10312</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D262" s="13">
         <v>1</v>
@@ -16717,7 +16971,7 @@
       <c r="K262" s="13"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="N262" s="13"/>
       <c r="O262" s="22"/>
@@ -16742,10 +16996,10 @@
         <v>10313</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -16767,7 +17021,7 @@
       <c r="K263" s="15"/>
       <c r="L263" s="15"/>
       <c r="M263" s="15" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="N263" s="15"/>
       <c r="O263" s="23"/>
@@ -16792,10 +17046,10 @@
         <v>10314</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D264" s="13">
         <v>1</v>
@@ -16817,7 +17071,7 @@
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="N264" s="13"/>
       <c r="O264" s="22"/>
@@ -16842,10 +17096,10 @@
         <v>10315</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -16867,7 +17121,7 @@
       <c r="K265" s="15"/>
       <c r="L265" s="15"/>
       <c r="M265" s="15" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="N265" s="15"/>
       <c r="O265" s="23"/>
@@ -16892,10 +17146,10 @@
         <v>10316</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D266" s="13">
         <v>1</v>
@@ -16917,7 +17171,7 @@
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="N266" s="13"/>
       <c r="O266" s="22"/>
@@ -16942,10 +17196,10 @@
         <v>10317</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D267" s="15">
         <v>1</v>
@@ -16967,7 +17221,7 @@
       <c r="K267" s="15"/>
       <c r="L267" s="15"/>
       <c r="M267" s="15" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="N267" s="15"/>
       <c r="O267" s="23"/>
@@ -16992,10 +17246,10 @@
         <v>10318</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D268" s="13">
         <v>1</v>
@@ -17017,7 +17271,7 @@
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="N268" s="13"/>
       <c r="O268" s="22"/>
@@ -17042,7 +17296,7 @@
         <v>20000</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C269" s="15"/>
       <c r="D269" s="15">
@@ -17065,7 +17319,7 @@
       <c r="K269" s="15"/>
       <c r="L269" s="15"/>
       <c r="M269" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N269" s="15"/>
       <c r="O269" s="23"/>
@@ -17090,10 +17344,10 @@
         <v>20001</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D270" s="13">
         <v>1</v>
@@ -17115,7 +17369,7 @@
       <c r="K270" s="13"/>
       <c r="L270" s="13"/>
       <c r="M270" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N270" s="13"/>
       <c r="O270" s="22"/>
@@ -17140,10 +17394,10 @@
         <v>20002</v>
       </c>
       <c r="B271" s="28" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D271" s="28">
         <v>1</v>
@@ -17161,13 +17415,13 @@
         <v>1</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J271" s="28"/>
       <c r="K271" s="28"/>
       <c r="L271" s="28"/>
       <c r="M271" s="28" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N271" s="28"/>
       <c r="O271" s="23"/>
@@ -17192,10 +17446,10 @@
         <v>20003</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D272" s="13">
         <v>1</v>
@@ -17213,13 +17467,13 @@
         <v>1</v>
       </c>
       <c r="I272" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J272" s="13"/>
       <c r="K272" s="13"/>
       <c r="L272" s="13"/>
       <c r="M272" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N272" s="13"/>
       <c r="O272" s="22"/>
@@ -17244,10 +17498,10 @@
         <v>20004</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -17265,13 +17519,13 @@
         <v>1</v>
       </c>
       <c r="I273" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J273" s="15"/>
       <c r="K273" s="15"/>
       <c r="L273" s="15"/>
       <c r="M273" s="15" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="N273" s="15"/>
       <c r="O273" s="23"/>
@@ -17296,10 +17550,10 @@
         <v>20005</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D274" s="13">
         <v>1</v>
@@ -17317,13 +17571,13 @@
         <v>1</v>
       </c>
       <c r="I274" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J274" s="13"/>
       <c r="K274" s="13"/>
       <c r="L274" s="13"/>
       <c r="M274" s="13" t="s">
-        <v>36</v>
+        <v>404</v>
       </c>
       <c r="N274" s="13"/>
       <c r="O274" s="22"/>
@@ -17348,10 +17602,10 @@
         <v>20006</v>
       </c>
       <c r="B275" s="30" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="C275" s="30" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D275" s="30">
         <v>1</v>
@@ -17369,13 +17623,13 @@
         <v>1</v>
       </c>
       <c r="I275" s="30" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J275" s="30"/>
       <c r="K275" s="30"/>
       <c r="L275" s="30"/>
       <c r="M275" s="30" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N275" s="30"/>
       <c r="O275" s="23"/>
@@ -17400,10 +17654,10 @@
         <v>20007</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D276" s="13">
         <v>1</v>
@@ -17421,13 +17675,13 @@
         <v>1</v>
       </c>
       <c r="I276" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J276" s="13"/>
       <c r="K276" s="13"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="N276" s="13"/>
       <c r="O276" s="22"/>
@@ -17452,10 +17706,10 @@
         <v>20008</v>
       </c>
       <c r="B277" s="30" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="C277" s="30" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D277" s="30">
         <v>1</v>
@@ -17473,13 +17727,13 @@
         <v>1</v>
       </c>
       <c r="I277" s="30" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J277" s="30"/>
       <c r="K277" s="30"/>
       <c r="L277" s="30"/>
       <c r="M277" s="30" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N277" s="30"/>
       <c r="O277" s="23"/>
@@ -17504,10 +17758,10 @@
         <v>20009</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D278" s="13">
         <v>1</v>
@@ -17525,13 +17779,13 @@
         <v>1</v>
       </c>
       <c r="I278" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J278" s="13"/>
       <c r="K278" s="13"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13" t="s">
-        <v>36</v>
+        <v>410</v>
       </c>
       <c r="N278" s="13"/>
       <c r="O278" s="22"/>
@@ -17556,10 +17810,10 @@
         <v>20010</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -17577,13 +17831,13 @@
         <v>1</v>
       </c>
       <c r="I279" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J279" s="15"/>
       <c r="K279" s="15"/>
       <c r="L279" s="15"/>
       <c r="M279" s="15" t="s">
-        <v>36</v>
+        <v>412</v>
       </c>
       <c r="N279" s="15"/>
       <c r="O279" s="23"/>
@@ -17608,10 +17862,10 @@
         <v>20011</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D280" s="15">
         <v>1</v>
@@ -17629,12 +17883,14 @@
         <v>1</v>
       </c>
       <c r="I280" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J280" s="13"/>
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
-      <c r="M280" s="13"/>
+      <c r="M280" s="15" t="s">
+        <v>414</v>
+      </c>
       <c r="N280" s="13"/>
       <c r="O280" s="22"/>
       <c r="P280" s="22"/>
@@ -17658,10 +17914,10 @@
         <v>20012</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D281" s="13">
         <v>1</v>
@@ -17679,12 +17935,14 @@
         <v>1</v>
       </c>
       <c r="I281" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J281" s="13"/>
       <c r="K281" s="13"/>
       <c r="L281" s="13"/>
-      <c r="M281" s="13"/>
+      <c r="M281" s="15" t="s">
+        <v>416</v>
+      </c>
       <c r="N281" s="13"/>
       <c r="O281" s="23"/>
       <c r="P281" s="23"/>
@@ -17708,10 +17966,10 @@
         <v>20013</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D282" s="15">
         <v>1</v>
@@ -17729,12 +17987,14 @@
         <v>1</v>
       </c>
       <c r="I282" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J282" s="13"/>
       <c r="K282" s="13"/>
       <c r="L282" s="13"/>
-      <c r="M282" s="13"/>
+      <c r="M282" s="15" t="s">
+        <v>418</v>
+      </c>
       <c r="N282" s="13"/>
       <c r="O282" s="22"/>
       <c r="P282" s="22"/>
@@ -17758,10 +18018,10 @@
         <v>20014</v>
       </c>
       <c r="B283" s="32" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C283" s="30" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D283" s="30">
         <v>1</v>
@@ -17779,12 +18039,14 @@
         <v>1</v>
       </c>
       <c r="I283" s="30" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J283" s="32"/>
       <c r="K283" s="32"/>
       <c r="L283" s="32"/>
-      <c r="M283" s="32"/>
+      <c r="M283" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N283" s="32"/>
       <c r="O283" s="23"/>
       <c r="P283" s="23"/>
@@ -17808,10 +18070,10 @@
         <v>20015</v>
       </c>
       <c r="B284" s="32" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D284" s="32">
         <v>1</v>
@@ -17829,12 +18091,14 @@
         <v>1</v>
       </c>
       <c r="I284" s="30" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J284" s="32"/>
       <c r="K284" s="32"/>
       <c r="L284" s="32"/>
-      <c r="M284" s="32"/>
+      <c r="M284" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N284" s="32"/>
       <c r="O284" s="22"/>
       <c r="P284" s="22"/>
@@ -17858,10 +18122,10 @@
         <v>20016</v>
       </c>
       <c r="B285" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C285" s="30" t="s">
         <v>397</v>
-      </c>
-      <c r="C285" s="30" t="s">
-        <v>381</v>
       </c>
       <c r="D285" s="30">
         <v>1</v>
@@ -17879,12 +18143,14 @@
         <v>1</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J285" s="32"/>
       <c r="K285" s="32"/>
       <c r="L285" s="32"/>
-      <c r="M285" s="32"/>
+      <c r="M285" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N285" s="32"/>
       <c r="O285" s="23"/>
       <c r="P285" s="23"/>
@@ -17908,10 +18174,10 @@
         <v>20017</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D286" s="15">
         <v>1</v>
@@ -17929,12 +18195,14 @@
         <v>1</v>
       </c>
       <c r="I286" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J286" s="13"/>
       <c r="K286" s="13"/>
       <c r="L286" s="13"/>
-      <c r="M286" s="13"/>
+      <c r="M286" s="15" t="s">
+        <v>423</v>
+      </c>
       <c r="N286" s="13"/>
       <c r="O286" s="22"/>
       <c r="P286" s="22"/>
@@ -17958,10 +18226,10 @@
         <v>20018</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D287" s="13">
         <v>1</v>
@@ -17979,12 +18247,14 @@
         <v>1</v>
       </c>
       <c r="I287" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J287" s="13"/>
       <c r="K287" s="13"/>
       <c r="L287" s="13"/>
-      <c r="M287" s="13"/>
+      <c r="M287" s="15" t="s">
+        <v>425</v>
+      </c>
       <c r="N287" s="13"/>
       <c r="O287" s="23"/>
       <c r="P287" s="23"/>
@@ -18008,10 +18278,10 @@
         <v>20019</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D288" s="15">
         <v>1</v>
@@ -18029,12 +18299,14 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J288" s="13"/>
       <c r="K288" s="13"/>
       <c r="L288" s="13"/>
-      <c r="M288" s="13"/>
+      <c r="M288" s="15" t="s">
+        <v>427</v>
+      </c>
       <c r="N288" s="13"/>
       <c r="O288" s="22"/>
       <c r="P288" s="22"/>
@@ -18058,10 +18330,10 @@
         <v>20020</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C289" s="35" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D289" s="13">
         <v>1</v>
@@ -18079,12 +18351,14 @@
         <v>1</v>
       </c>
       <c r="I289" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J289" s="13"/>
       <c r="K289" s="13"/>
       <c r="L289" s="13"/>
-      <c r="M289" s="13"/>
+      <c r="M289" s="15" t="s">
+        <v>429</v>
+      </c>
       <c r="N289" s="13"/>
       <c r="O289" s="23"/>
       <c r="P289" s="23"/>
@@ -18108,10 +18382,10 @@
         <v>20021</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="C290" s="35" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D290" s="15">
         <v>1</v>
@@ -18129,12 +18403,14 @@
         <v>1</v>
       </c>
       <c r="I290" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J290" s="13"/>
       <c r="K290" s="13"/>
       <c r="L290" s="13"/>
-      <c r="M290" s="13"/>
+      <c r="M290" s="15" t="s">
+        <v>431</v>
+      </c>
       <c r="N290" s="13"/>
       <c r="O290" s="22"/>
       <c r="P290" s="22"/>
@@ -18158,10 +18434,10 @@
         <v>20022</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C291" s="35" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D291" s="15">
         <v>1</v>
@@ -18179,12 +18455,14 @@
         <v>1</v>
       </c>
       <c r="I291" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J291" s="13"/>
       <c r="K291" s="13"/>
       <c r="L291" s="13"/>
-      <c r="M291" s="13"/>
+      <c r="M291" s="15" t="s">
+        <v>433</v>
+      </c>
       <c r="N291" s="13"/>
       <c r="O291" s="23"/>
       <c r="P291" s="23"/>
@@ -18208,10 +18486,10 @@
         <v>20023</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="C292" s="35" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D292" s="13">
         <v>1</v>
@@ -18229,12 +18507,14 @@
         <v>1</v>
       </c>
       <c r="I292" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J292" s="13"/>
       <c r="K292" s="13"/>
       <c r="L292" s="13"/>
-      <c r="M292" s="13"/>
+      <c r="M292" s="15" t="s">
+        <v>435</v>
+      </c>
       <c r="N292" s="13"/>
       <c r="O292" s="22"/>
       <c r="P292" s="22"/>
@@ -18253,15 +18533,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" ht="17.25" customHeight="1" spans="1:14">
+    <row r="293" ht="17.25" customHeight="1" spans="1:29">
       <c r="A293" s="15">
         <v>20024</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="C293" s="35" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D293" s="15">
         <v>1</v>
@@ -18279,23 +18559,28 @@
         <v>1</v>
       </c>
       <c r="I293" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J293" s="13"/>
       <c r="K293" s="13"/>
       <c r="L293" s="13"/>
-      <c r="M293" s="13"/>
+      <c r="M293" s="15" t="s">
+        <v>437</v>
+      </c>
       <c r="N293" s="13"/>
-    </row>
-    <row r="294" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC293" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" ht="17.25" customHeight="1" spans="1:29">
       <c r="A294" s="15">
         <v>20025</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="C294" s="35" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D294" s="15">
         <v>1</v>
@@ -18313,23 +18598,28 @@
         <v>1</v>
       </c>
       <c r="I294" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J294" s="13"/>
       <c r="K294" s="13"/>
       <c r="L294" s="13"/>
-      <c r="M294" s="13"/>
+      <c r="M294" s="15" t="s">
+        <v>439</v>
+      </c>
       <c r="N294" s="13"/>
-    </row>
-    <row r="295" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC294" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" ht="17.25" customHeight="1" spans="1:29">
       <c r="A295" s="15">
         <v>20026</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="C295" s="35" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D295" s="13">
         <v>1</v>
@@ -18347,23 +18637,28 @@
         <v>1</v>
       </c>
       <c r="I295" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J295" s="13"/>
       <c r="K295" s="13"/>
       <c r="L295" s="13"/>
-      <c r="M295" s="13"/>
+      <c r="M295" s="15" t="s">
+        <v>441</v>
+      </c>
       <c r="N295" s="13"/>
-    </row>
-    <row r="296" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC295" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" ht="17.25" customHeight="1" spans="1:29">
       <c r="A296" s="15">
         <v>20027</v>
       </c>
       <c r="B296" s="34" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="C296" s="35" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D296" s="15">
         <v>1</v>
@@ -18381,23 +18676,28 @@
         <v>1</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J296" s="13"/>
       <c r="K296" s="13"/>
       <c r="L296" s="13"/>
-      <c r="M296" s="13"/>
+      <c r="M296" s="15" t="s">
+        <v>443</v>
+      </c>
       <c r="N296" s="13"/>
-    </row>
-    <row r="297" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC296" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" ht="17.25" customHeight="1" spans="1:29">
       <c r="A297" s="15">
         <v>20028</v>
       </c>
       <c r="B297" s="34" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="C297" s="35" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D297" s="15">
         <v>1</v>
@@ -18415,23 +18715,28 @@
         <v>1</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J297" s="13"/>
       <c r="K297" s="13"/>
       <c r="L297" s="13"/>
-      <c r="M297" s="13"/>
+      <c r="M297" s="15" t="s">
+        <v>445</v>
+      </c>
       <c r="N297" s="13"/>
-    </row>
-    <row r="298" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC297" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" ht="17.25" customHeight="1" spans="1:29">
       <c r="A298" s="13">
         <v>20029</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D298" s="15">
         <v>1</v>
@@ -18449,23 +18754,28 @@
         <v>1</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J298" s="13"/>
       <c r="K298" s="13"/>
       <c r="L298" s="13"/>
-      <c r="M298" s="13"/>
+      <c r="M298" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="N298" s="13"/>
-    </row>
-    <row r="299" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC298" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" ht="17.25" customHeight="1" spans="1:29">
       <c r="A299" s="13">
         <v>20101</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D299" s="13">
         <v>1</v>
@@ -18483,25 +18793,28 @@
         <v>1</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J299" s="13"/>
       <c r="K299" s="13"/>
       <c r="L299" s="13"/>
       <c r="M299" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N299" s="13"/>
-    </row>
-    <row r="300" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC299" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" ht="17.25" customHeight="1" spans="1:29">
       <c r="A300" s="15">
         <v>20102</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D300" s="15">
         <v>1</v>
@@ -18519,25 +18832,28 @@
         <v>1</v>
       </c>
       <c r="I300" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J300" s="15"/>
       <c r="K300" s="15"/>
       <c r="L300" s="15"/>
       <c r="M300" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N300" s="15"/>
-    </row>
-    <row r="301" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC300" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" ht="17.25" customHeight="1" spans="1:29">
       <c r="A301" s="13">
         <v>20103</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D301" s="13">
         <v>1</v>
@@ -18555,25 +18871,28 @@
         <v>1</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J301" s="13"/>
       <c r="K301" s="13"/>
       <c r="L301" s="13"/>
       <c r="M301" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N301" s="13"/>
-    </row>
-    <row r="302" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC301" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" ht="17.25" customHeight="1" spans="1:29">
       <c r="A302" s="15">
         <v>20104</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D302" s="15">
         <v>1</v>
@@ -18591,25 +18910,28 @@
         <v>1</v>
       </c>
       <c r="I302" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J302" s="15"/>
       <c r="K302" s="15"/>
       <c r="L302" s="15"/>
       <c r="M302" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N302" s="15"/>
-    </row>
-    <row r="303" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC302" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" ht="17.25" customHeight="1" spans="1:29">
       <c r="A303" s="13">
         <v>20105</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D303" s="13">
         <v>1</v>
@@ -18627,25 +18949,28 @@
         <v>1</v>
       </c>
       <c r="I303" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J303" s="13"/>
       <c r="K303" s="13"/>
       <c r="L303" s="13"/>
       <c r="M303" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N303" s="13"/>
-    </row>
-    <row r="304" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC303" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" ht="17.25" customHeight="1" spans="1:29">
       <c r="A304" s="15">
         <v>20106</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="C304" s="15" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D304" s="15">
         <v>1</v>
@@ -18663,25 +18988,28 @@
         <v>1</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
       <c r="L304" s="15"/>
       <c r="M304" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N304" s="15"/>
-    </row>
-    <row r="305" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC304" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" ht="17.25" customHeight="1" spans="1:29">
       <c r="A305" s="13">
         <v>20107</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D305" s="13">
         <v>1</v>
@@ -18699,25 +19027,28 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J305" s="13"/>
       <c r="K305" s="13"/>
       <c r="L305" s="13"/>
       <c r="M305" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N305" s="13"/>
-    </row>
-    <row r="306" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC305" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" ht="17.25" customHeight="1" spans="1:29">
       <c r="A306" s="15">
         <v>20108</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C306" s="15" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D306" s="15">
         <v>1</v>
@@ -18735,25 +19066,28 @@
         <v>1</v>
       </c>
       <c r="I306" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
       <c r="L306" s="15"/>
       <c r="M306" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N306" s="15"/>
-    </row>
-    <row r="307" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC306" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" ht="17.25" customHeight="1" spans="1:29">
       <c r="A307" s="13">
         <v>20109</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D307" s="13">
         <v>1</v>
@@ -18771,25 +19105,28 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J307" s="13"/>
       <c r="K307" s="13"/>
       <c r="L307" s="13"/>
       <c r="M307" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N307" s="13"/>
-    </row>
-    <row r="308" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC307" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" ht="17.25" customHeight="1" spans="1:29">
       <c r="A308" s="15">
         <v>20110</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D308" s="15">
         <v>1</v>
@@ -18807,25 +19144,28 @@
         <v>1</v>
       </c>
       <c r="I308" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J308" s="15"/>
       <c r="K308" s="15"/>
       <c r="L308" s="15"/>
       <c r="M308" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N308" s="15"/>
-    </row>
-    <row r="309" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC308" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" ht="17.25" customHeight="1" spans="1:29">
       <c r="A309" s="13">
         <v>20111</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D309" s="13">
         <v>1</v>
@@ -18843,25 +19183,28 @@
         <v>1</v>
       </c>
       <c r="I309" s="15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J309" s="13"/>
       <c r="K309" s="13"/>
       <c r="L309" s="13"/>
       <c r="M309" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N309" s="13"/>
-    </row>
-    <row r="310" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC309" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" ht="17.25" customHeight="1" spans="1:29">
       <c r="A310" s="15">
         <v>20201</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="D310" s="15">
         <v>1</v>
@@ -18883,19 +19226,22 @@
       <c r="K310" s="15"/>
       <c r="L310" s="15"/>
       <c r="M310" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N310" s="15"/>
-    </row>
-    <row r="311" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC310" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" ht="17.25" customHeight="1" spans="1:29">
       <c r="A311" s="13">
         <v>20202</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="D311" s="13">
         <v>1</v>
@@ -18917,19 +19263,22 @@
       <c r="K311" s="13"/>
       <c r="L311" s="13"/>
       <c r="M311" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N311" s="13"/>
-    </row>
-    <row r="312" ht="17.25" customHeight="1" spans="1:14">
+      <c r="AC311" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" ht="17.25" customHeight="1" spans="1:29">
       <c r="A312" s="15">
         <v>20203</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="D312" s="15">
         <v>1</v>
@@ -18951,19 +19300,22 @@
       <c r="K312" s="15"/>
       <c r="L312" s="15"/>
       <c r="M312" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N312" s="15"/>
-    </row>
-    <row r="313" ht="17.25" spans="1:14">
+      <c r="AC312" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" ht="17.25" spans="1:29">
       <c r="A313" s="13">
         <v>20204</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="D313" s="13">
         <v>1</v>
@@ -18985,19 +19337,22 @@
       <c r="K313" s="13"/>
       <c r="L313" s="13"/>
       <c r="M313" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N313" s="13"/>
-    </row>
-    <row r="314" ht="17.25" spans="1:14">
+      <c r="AC313" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" ht="17.25" spans="1:29">
       <c r="A314" s="15">
         <v>20205</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="D314" s="15">
         <v>1</v>
@@ -19019,19 +19374,22 @@
       <c r="K314" s="15"/>
       <c r="L314" s="15"/>
       <c r="M314" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N314" s="15"/>
-    </row>
-    <row r="315" ht="17.25" spans="1:14">
+      <c r="AC314" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" ht="17.25" spans="1:29">
       <c r="A315" s="13">
         <v>20206</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="D315" s="13">
         <v>1</v>
@@ -19053,19 +19411,22 @@
       <c r="K315" s="13"/>
       <c r="L315" s="13"/>
       <c r="M315" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N315" s="13"/>
-    </row>
-    <row r="316" ht="17.25" spans="1:14">
+      <c r="AC315" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" ht="17.25" spans="1:29">
       <c r="A316" s="15">
         <v>20207</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="D316" s="15">
         <v>1</v>
@@ -19087,19 +19448,22 @@
       <c r="K316" s="15"/>
       <c r="L316" s="15"/>
       <c r="M316" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N316" s="15"/>
-    </row>
-    <row r="317" ht="17.25" spans="1:14">
+      <c r="AC316" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" ht="17.25" spans="1:29">
       <c r="A317" s="13">
         <v>20208</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="D317" s="13">
         <v>1</v>
@@ -19121,19 +19485,22 @@
       <c r="K317" s="13"/>
       <c r="L317" s="13"/>
       <c r="M317" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N317" s="13"/>
-    </row>
-    <row r="318" ht="17.25" spans="1:14">
+      <c r="AC317" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" ht="17.25" spans="1:29">
       <c r="A318" s="15">
         <v>20209</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="D318" s="15">
         <v>1</v>
@@ -19155,19 +19522,22 @@
       <c r="K318" s="15"/>
       <c r="L318" s="15"/>
       <c r="M318" s="15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N318" s="15"/>
-    </row>
-    <row r="319" ht="17.25" spans="1:14">
+      <c r="AC318" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" ht="17.25" spans="1:29">
       <c r="A319" s="13">
         <v>20210</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="D319" s="13">
         <v>1</v>
@@ -19189,19 +19559,22 @@
       <c r="K319" s="13"/>
       <c r="L319" s="13"/>
       <c r="M319" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N319" s="13"/>
-    </row>
-    <row r="320" ht="17.25" spans="1:14">
+      <c r="AC319" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" ht="17.25" spans="1:29">
       <c r="A320" s="15">
         <v>21001</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D320" s="15">
         <v>1</v>
@@ -19219,23 +19592,28 @@
         <v>1</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
       <c r="L320" s="15"/>
-      <c r="M320" s="15"/>
+      <c r="M320" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N320" s="15"/>
-    </row>
-    <row r="321" ht="17.25" spans="1:14">
+      <c r="AC320" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" ht="17.25" spans="1:29">
       <c r="A321" s="13">
         <v>21002</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D321" s="13">
         <v>1</v>
@@ -19253,23 +19631,28 @@
         <v>1</v>
       </c>
       <c r="I321" s="13" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="J321" s="13"/>
       <c r="K321" s="13"/>
       <c r="L321" s="13"/>
-      <c r="M321" s="13"/>
+      <c r="M321" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N321" s="13"/>
-    </row>
-    <row r="322" ht="17.25" spans="1:14">
+      <c r="AC321" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" ht="17.25" spans="1:29">
       <c r="A322" s="15">
         <v>21003</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D322" s="15">
         <v>1</v>
@@ -19287,23 +19670,28 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
       <c r="L322" s="15"/>
-      <c r="M322" s="15"/>
+      <c r="M322" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N322" s="15"/>
-    </row>
-    <row r="323" ht="17.25" spans="1:14">
+      <c r="AC322" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" ht="17.25" spans="1:29">
       <c r="A323" s="13">
         <v>21004</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D323" s="13">
         <v>1</v>
@@ -19321,23 +19709,28 @@
         <v>1</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="J323" s="13"/>
       <c r="K323" s="13"/>
       <c r="L323" s="13"/>
-      <c r="M323" s="13"/>
+      <c r="M323" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N323" s="13"/>
-    </row>
-    <row r="324" ht="17.25" spans="1:14">
+      <c r="AC323" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" ht="17.25" spans="1:29">
       <c r="A324" s="15">
         <v>21005</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D324" s="15">
         <v>1</v>
@@ -19355,23 +19748,28 @@
         <v>1</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="J324" s="15"/>
       <c r="K324" s="15"/>
       <c r="L324" s="15"/>
-      <c r="M324" s="15"/>
+      <c r="M324" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N324" s="15"/>
-    </row>
-    <row r="325" ht="17.25" spans="1:14">
+      <c r="AC324" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" ht="17.25" spans="1:29">
       <c r="A325" s="13">
         <v>21006</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D325" s="13">
         <v>1</v>
@@ -19389,23 +19787,28 @@
         <v>1</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="J325" s="13"/>
       <c r="K325" s="13"/>
       <c r="L325" s="13"/>
-      <c r="M325" s="13"/>
+      <c r="M325" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N325" s="13"/>
-    </row>
-    <row r="326" ht="17.25" spans="1:14">
+      <c r="AC325" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" ht="17.25" spans="1:29">
       <c r="A326" s="15">
         <v>21007</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="C326" s="15" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D326" s="15">
         <v>1</v>
@@ -19423,23 +19826,28 @@
         <v>1</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="J326" s="15"/>
       <c r="K326" s="15"/>
       <c r="L326" s="15"/>
-      <c r="M326" s="15"/>
+      <c r="M326" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N326" s="15"/>
-    </row>
-    <row r="327" ht="17.25" spans="1:14">
+      <c r="AC326" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" ht="17.25" spans="1:29">
       <c r="A327" s="13">
         <v>21101</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D327" s="13">
         <v>1</v>
@@ -19457,23 +19865,28 @@
         <v>1</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J327" s="13"/>
       <c r="K327" s="13"/>
       <c r="L327" s="13"/>
-      <c r="M327" s="13"/>
+      <c r="M327" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N327" s="13"/>
-    </row>
-    <row r="328" ht="17.25" spans="1:14">
+      <c r="AC327" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" ht="17.25" spans="1:29">
       <c r="A328" s="13">
         <v>21102</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="C328" s="15" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D328" s="15">
         <v>1</v>
@@ -19491,23 +19904,28 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
       <c r="L328" s="15"/>
-      <c r="M328" s="15"/>
+      <c r="M328" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N328" s="15"/>
-    </row>
-    <row r="329" ht="17.25" spans="1:14">
+      <c r="AC328" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" ht="17.25" spans="1:29">
       <c r="A329" s="13">
         <v>21103</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D329" s="13">
         <v>1</v>
@@ -19525,23 +19943,28 @@
         <v>1</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J329" s="13"/>
       <c r="K329" s="13"/>
       <c r="L329" s="13"/>
-      <c r="M329" s="13"/>
+      <c r="M329" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N329" s="13"/>
-    </row>
-    <row r="330" ht="17.25" spans="1:14">
+      <c r="AC329" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" ht="17.25" spans="1:29">
       <c r="A330" s="13">
         <v>21104</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="C330" s="15" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D330" s="15">
         <v>1</v>
@@ -19559,23 +19982,28 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
       <c r="L330" s="15"/>
-      <c r="M330" s="15"/>
+      <c r="M330" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N330" s="15"/>
-    </row>
-    <row r="331" ht="17.25" spans="1:14">
+      <c r="AC330" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" ht="17.25" spans="1:29">
       <c r="A331" s="13">
         <v>21105</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D331" s="13">
         <v>1</v>
@@ -19593,23 +20021,28 @@
         <v>1</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J331" s="13"/>
       <c r="K331" s="13"/>
       <c r="L331" s="13"/>
-      <c r="M331" s="13"/>
+      <c r="M331" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N331" s="13"/>
-    </row>
-    <row r="332" ht="17.25" spans="1:14">
+      <c r="AC331" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" ht="17.25" spans="1:29">
       <c r="A332" s="13">
         <v>21106</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D332" s="15">
         <v>1</v>
@@ -19627,23 +20060,28 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
       <c r="L332" s="15"/>
-      <c r="M332" s="15"/>
+      <c r="M332" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N332" s="15"/>
-    </row>
-    <row r="333" ht="17.25" spans="1:14">
+      <c r="AC332" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" ht="17.25" spans="1:29">
       <c r="A333" s="13">
         <v>21107</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D333" s="13">
         <v>1</v>
@@ -19661,23 +20099,28 @@
         <v>1</v>
       </c>
       <c r="I333" s="13" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J333" s="13"/>
       <c r="K333" s="13"/>
       <c r="L333" s="13"/>
-      <c r="M333" s="13"/>
+      <c r="M333" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N333" s="13"/>
-    </row>
-    <row r="334" ht="17.25" spans="1:14">
+      <c r="AC333" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" ht="17.25" spans="1:29">
       <c r="A334" s="13">
         <v>21108</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D334" s="15">
         <v>1</v>
@@ -19695,23 +20138,28 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
       <c r="L334" s="15"/>
-      <c r="M334" s="15"/>
+      <c r="M334" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N334" s="15"/>
-    </row>
-    <row r="335" ht="17.25" spans="1:14">
+      <c r="AC334" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" ht="17.25" spans="1:29">
       <c r="A335" s="13">
         <v>21109</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D335" s="13">
         <v>1</v>
@@ -19729,23 +20177,28 @@
         <v>1</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J335" s="13"/>
       <c r="K335" s="13"/>
       <c r="L335" s="13"/>
-      <c r="M335" s="13"/>
+      <c r="M335" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N335" s="13"/>
-    </row>
-    <row r="336" ht="17.25" spans="1:14">
+      <c r="AC335" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" ht="17.25" spans="1:29">
       <c r="A336" s="13">
         <v>21110</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="C336" s="15" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D336" s="15">
         <v>1</v>
@@ -19763,23 +20216,28 @@
         <v>1</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J336" s="15"/>
       <c r="K336" s="15"/>
       <c r="L336" s="15"/>
-      <c r="M336" s="15"/>
+      <c r="M336" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N336" s="15"/>
-    </row>
-    <row r="337" ht="17.25" spans="1:14">
+      <c r="AC336" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" ht="17.25" spans="1:29">
       <c r="A337" s="13">
         <v>21111</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D337" s="13">
         <v>1</v>
@@ -19797,23 +20255,28 @@
         <v>1</v>
       </c>
       <c r="I337" s="13" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J337" s="13"/>
       <c r="K337" s="13"/>
       <c r="L337" s="13"/>
-      <c r="M337" s="13"/>
+      <c r="M337" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N337" s="13"/>
-    </row>
-    <row r="338" ht="17.25" spans="1:14">
+      <c r="AC337" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" ht="17.25" spans="1:29">
       <c r="A338" s="13">
         <v>21112</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="C338" s="15" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D338" s="15">
         <v>1</v>
@@ -19831,23 +20294,28 @@
         <v>1</v>
       </c>
       <c r="I338" s="15" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
       <c r="L338" s="15"/>
-      <c r="M338" s="15"/>
+      <c r="M338" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="N338" s="15"/>
-    </row>
-    <row r="339" ht="17.25" spans="1:14">
+      <c r="AC338" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" ht="17.25" spans="1:29">
       <c r="A339" s="13">
         <v>100001</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="D339" s="13">
         <v>1</v>
@@ -19869,16 +20337,19 @@
       <c r="K339" s="13"/>
       <c r="L339" s="13"/>
       <c r="M339" s="13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N339" s="13"/>
-    </row>
-    <row r="340" ht="14.25" spans="1:14">
+      <c r="AC339" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" ht="17.25" spans="1:29">
       <c r="A340" s="36">
         <v>100002</v>
       </c>
       <c r="B340" s="36" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="C340" s="36"/>
       <c r="D340" s="36">
@@ -19897,20 +20368,23 @@
         <v>1</v>
       </c>
       <c r="I340" s="36" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="J340" s="36"/>
       <c r="K340" s="36"/>
       <c r="L340" s="36"/>
       <c r="M340" s="36"/>
       <c r="N340" s="36"/>
-    </row>
-    <row r="341" ht="14.25" spans="1:14">
+      <c r="AC340" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" ht="17.25" spans="1:29">
       <c r="A341" s="36">
         <v>100003</v>
       </c>
       <c r="B341" s="36" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="C341" s="36"/>
       <c r="D341" s="36">
@@ -19929,13 +20403,16 @@
         <v>1</v>
       </c>
       <c r="I341" s="36" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="J341" s="36"/>
       <c r="K341" s="36"/>
       <c r="L341" s="36"/>
       <c r="M341" s="36"/>
       <c r="N341" s="36"/>
+      <c r="AC341" s="20">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="501">
   <si>
     <t>物品引索</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>炼狱熊怪</t>
+  </si>
+  <si>
+    <t>item_custom/card/炼狱熊怪</t>
   </si>
   <si>
     <t>炼狱羚羊</t>
@@ -3035,16 +3038,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{57BBBA16-472B-4D9F-A2F2-570738772A9E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{681D32B4-91EA-4FBC-9672-1A7FB8FD683F}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8729D698-4525-448E-B8B2-3F8B42AAA443}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D57B3414-59AE-4595-9E86-BA7BC607F55C}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{6AC0976B-1662-430E-A8C7-5F878EC65542}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9B6425E6-B94A-4BEA-8E81-8D01FCD56CEB}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3056,7 +3059,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{70515AD8-EDA1-4EEF-A499-335E76B5B847}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{7924002C-AC30-456B-AE11-5C52A08338F9}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3370,11 +3373,11 @@
   <dimension ref="A1:AC341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M251" sqref="M251:M268"/>
+      <selection pane="bottomRight" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5658,9 +5661,8 @@
       <c r="L42" s="13">
         <v>0</v>
       </c>
-      <c r="M42" s="13" t="str">
-        <f>"item_server/card/"&amp;B42</f>
-        <v>item_server/card/炼狱熊怪</v>
+      <c r="M42" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="22"/>
@@ -5685,7 +5687,7 @@
         <v>2002</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -5738,7 +5740,7 @@
         <v>2003</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13">
@@ -5791,7 +5793,7 @@
         <v>2004</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -5844,7 +5846,7 @@
         <v>2005</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13">
@@ -5897,7 +5899,7 @@
         <v>2006</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -5950,7 +5952,7 @@
         <v>2007</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13">
@@ -6003,7 +6005,7 @@
         <v>2008</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -6056,7 +6058,7 @@
         <v>2009</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13">
@@ -6109,7 +6111,7 @@
         <v>2010</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -6162,7 +6164,7 @@
         <v>2011</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13">
@@ -6215,7 +6217,7 @@
         <v>2012</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -6268,7 +6270,7 @@
         <v>2013</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
@@ -6321,7 +6323,7 @@
         <v>2014</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -6374,7 +6376,7 @@
         <v>2015</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13">
@@ -6427,7 +6429,7 @@
         <v>2016</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15">
@@ -6480,7 +6482,7 @@
         <v>2017</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13">
@@ -6533,7 +6535,7 @@
         <v>2019</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15">
@@ -6586,7 +6588,7 @@
         <v>2020</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13">
@@ -6639,7 +6641,7 @@
         <v>2021</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15">
@@ -6692,7 +6694,7 @@
         <v>2022</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13">
@@ -6745,7 +6747,7 @@
         <v>2023</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15">
@@ -6798,7 +6800,7 @@
         <v>2024</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13">
@@ -6851,7 +6853,7 @@
         <v>2025</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15">
@@ -6904,7 +6906,7 @@
         <v>2026</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13">
@@ -6957,7 +6959,7 @@
         <v>2027</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15">
@@ -7010,7 +7012,7 @@
         <v>2028</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13">
@@ -7063,7 +7065,7 @@
         <v>2029</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15">
@@ -7116,7 +7118,7 @@
         <v>2030</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13">
@@ -7169,7 +7171,7 @@
         <v>2031</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15">
@@ -7222,7 +7224,7 @@
         <v>2032</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13">
@@ -7275,7 +7277,7 @@
         <v>2033</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15">
@@ -7328,7 +7330,7 @@
         <v>2034</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13">
@@ -7381,7 +7383,7 @@
         <v>2035</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15">
@@ -7434,7 +7436,7 @@
         <v>2036</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13">
@@ -7487,7 +7489,7 @@
         <v>2037</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15">
@@ -7540,7 +7542,7 @@
         <v>2038</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13">
@@ -7593,7 +7595,7 @@
         <v>2039</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15">
@@ -7646,7 +7648,7 @@
         <v>2040</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13">
@@ -7699,7 +7701,7 @@
         <v>2041</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15">
@@ -7752,7 +7754,7 @@
         <v>2042</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13">
@@ -7805,7 +7807,7 @@
         <v>2043</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15">
@@ -7858,7 +7860,7 @@
         <v>2044</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13">
@@ -7911,7 +7913,7 @@
         <v>2045</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15">
@@ -7964,7 +7966,7 @@
         <v>2501</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13">
@@ -8017,7 +8019,7 @@
         <v>2502</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15">
@@ -8070,7 +8072,7 @@
         <v>2503</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
@@ -8123,7 +8125,7 @@
         <v>2504</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15">
@@ -8176,7 +8178,7 @@
         <v>2505</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
@@ -8229,7 +8231,7 @@
         <v>2506</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15">
@@ -8282,7 +8284,7 @@
         <v>2507</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13">
@@ -8335,7 +8337,7 @@
         <v>2508</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15">
@@ -8388,7 +8390,7 @@
         <v>2509</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13">
@@ -8441,7 +8443,7 @@
         <v>2510</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15">
@@ -8494,7 +8496,7 @@
         <v>2511</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13">
@@ -8547,7 +8549,7 @@
         <v>2512</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15">
@@ -8600,7 +8602,7 @@
         <v>2513</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13">
@@ -8653,7 +8655,7 @@
         <v>2514</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15">
@@ -8706,7 +8708,7 @@
         <v>2516</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13">
@@ -8759,7 +8761,7 @@
         <v>2517</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15">
@@ -8812,7 +8814,7 @@
         <v>2518</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="13">
@@ -8865,7 +8867,7 @@
         <v>2519</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15">
@@ -8918,7 +8920,7 @@
         <v>2520</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13">
@@ -8971,7 +8973,7 @@
         <v>2521</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15">
@@ -9024,7 +9026,7 @@
         <v>2522</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13">
@@ -9077,7 +9079,7 @@
         <v>2523</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15">
@@ -9130,7 +9132,7 @@
         <v>2524</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13">
@@ -9183,7 +9185,7 @@
         <v>2525</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15">
@@ -9236,7 +9238,7 @@
         <v>2526</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="13">
@@ -9289,7 +9291,7 @@
         <v>2527</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15">
@@ -9342,7 +9344,7 @@
         <v>2528</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="13">
@@ -9395,7 +9397,7 @@
         <v>2529</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15">
@@ -9448,7 +9450,7 @@
         <v>2530</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13">
@@ -9501,7 +9503,7 @@
         <v>2531</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15">
@@ -9554,7 +9556,7 @@
         <v>2532</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13">
@@ -9607,7 +9609,7 @@
         <v>2533</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15">
@@ -9660,7 +9662,7 @@
         <v>2534</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="13">
@@ -9713,7 +9715,7 @@
         <v>2535</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15">
@@ -9766,7 +9768,7 @@
         <v>2536</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="13">
@@ -9819,7 +9821,7 @@
         <v>2537</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15">
@@ -9872,7 +9874,7 @@
         <v>2538</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="13">
@@ -9925,7 +9927,7 @@
         <v>2539</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="15">
@@ -9978,7 +9980,7 @@
         <v>2540</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
@@ -10031,7 +10033,7 @@
         <v>2541</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C125" s="15"/>
       <c r="D125" s="15">
@@ -10084,7 +10086,7 @@
         <v>2542</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13">
@@ -10137,7 +10139,7 @@
         <v>2543</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15">
@@ -10190,7 +10192,7 @@
         <v>2544</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13">
@@ -10243,7 +10245,7 @@
         <v>2545</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15">
@@ -10296,7 +10298,7 @@
         <v>2546</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13">
@@ -10349,7 +10351,7 @@
         <v>2547</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15">
@@ -10402,7 +10404,7 @@
         <v>2548</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="13">
@@ -10455,7 +10457,7 @@
         <v>2549</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15">
@@ -10508,7 +10510,7 @@
         <v>2550</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13">
@@ -10561,7 +10563,7 @@
         <v>2551</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15">
@@ -10614,7 +10616,7 @@
         <v>2552</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13">
@@ -10667,7 +10669,7 @@
         <v>2553</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C137" s="15"/>
       <c r="D137" s="15">
@@ -10720,7 +10722,7 @@
         <v>2554</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
@@ -10773,7 +10775,7 @@
         <v>2555</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15">
@@ -10826,7 +10828,7 @@
         <v>2556</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="13">
@@ -10879,7 +10881,7 @@
         <v>2557</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="15">
@@ -10932,7 +10934,7 @@
         <v>2558</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13">
@@ -10985,7 +10987,7 @@
         <v>2559</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="15">
@@ -11038,7 +11040,7 @@
         <v>2560</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="13">
@@ -11091,7 +11093,7 @@
         <v>2901</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C145" s="15"/>
       <c r="D145" s="15">
@@ -11144,7 +11146,7 @@
         <v>2902</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="13">
@@ -11197,7 +11199,7 @@
         <v>2903</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="15">
@@ -11250,7 +11252,7 @@
         <v>2904</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="13">
@@ -11303,7 +11305,7 @@
         <v>2905</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15">
@@ -11356,7 +11358,7 @@
         <v>2906</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="13">
@@ -11409,7 +11411,7 @@
         <v>2907</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="15">
@@ -11462,7 +11464,7 @@
         <v>2908</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="13">
@@ -11515,7 +11517,7 @@
         <v>2909</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C153" s="15"/>
       <c r="D153" s="15">
@@ -11564,7 +11566,7 @@
         <v>2910</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C154" s="13"/>
       <c r="D154" s="13">
@@ -11613,7 +11615,7 @@
         <v>2911</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C155" s="15"/>
       <c r="D155" s="15">
@@ -11662,7 +11664,7 @@
         <v>2912</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="13">
@@ -11711,7 +11713,7 @@
         <v>2913</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C157" s="15"/>
       <c r="D157" s="15">
@@ -11760,7 +11762,7 @@
         <v>2914</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="13">
@@ -11809,7 +11811,7 @@
         <v>2915</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C159" s="15"/>
       <c r="D159" s="15">
@@ -11858,7 +11860,7 @@
         <v>2916</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="13">
@@ -11907,7 +11909,7 @@
         <v>2917</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C161" s="15"/>
       <c r="D161" s="15">
@@ -11956,7 +11958,7 @@
         <v>2918</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="13">
@@ -12005,7 +12007,7 @@
         <v>2919</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C163" s="15"/>
       <c r="D163" s="15">
@@ -12054,7 +12056,7 @@
         <v>2920</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="13">
@@ -12103,7 +12105,7 @@
         <v>2921</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C165" s="15"/>
       <c r="D165" s="15">
@@ -12152,7 +12154,7 @@
         <v>2922</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="13">
@@ -12201,7 +12203,7 @@
         <v>3201</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15">
@@ -12250,7 +12252,7 @@
         <v>3202</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="13">
@@ -12299,7 +12301,7 @@
         <v>3203</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C169" s="15"/>
       <c r="D169" s="15">
@@ -12348,7 +12350,7 @@
         <v>3204</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="13">
@@ -12397,7 +12399,7 @@
         <v>3205</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C171" s="15"/>
       <c r="D171" s="15">
@@ -12446,10 +12448,10 @@
         <v>3501</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D172" s="13">
         <v>1</v>
@@ -12471,7 +12473,7 @@
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N172" s="13"/>
       <c r="O172" s="22"/>
@@ -12496,10 +12498,10 @@
         <v>3502</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D173" s="15">
         <v>1</v>
@@ -12521,7 +12523,7 @@
       <c r="K173" s="15"/>
       <c r="L173" s="15"/>
       <c r="M173" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N173" s="15"/>
       <c r="O173" s="23"/>
@@ -12546,10 +12548,10 @@
         <v>3503</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D174" s="13">
         <v>1</v>
@@ -12571,7 +12573,7 @@
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
       <c r="M174" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N174" s="13"/>
       <c r="O174" s="22"/>
@@ -12596,10 +12598,10 @@
         <v>3504</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D175" s="15">
         <v>1</v>
@@ -12621,7 +12623,7 @@
       <c r="K175" s="15"/>
       <c r="L175" s="15"/>
       <c r="M175" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N175" s="15"/>
       <c r="O175" s="23"/>
@@ -12646,10 +12648,10 @@
         <v>3505</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D176" s="13">
         <v>1</v>
@@ -12671,7 +12673,7 @@
       <c r="K176" s="13"/>
       <c r="L176" s="13"/>
       <c r="M176" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N176" s="13"/>
       <c r="O176" s="22"/>
@@ -12696,10 +12698,10 @@
         <v>3506</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D177" s="15">
         <v>1</v>
@@ -12721,7 +12723,7 @@
       <c r="K177" s="15"/>
       <c r="L177" s="15"/>
       <c r="M177" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N177" s="15"/>
       <c r="O177" s="23"/>
@@ -12746,10 +12748,10 @@
         <v>3507</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D178" s="13">
         <v>1</v>
@@ -12771,7 +12773,7 @@
       <c r="K178" s="13"/>
       <c r="L178" s="13"/>
       <c r="M178" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N178" s="13"/>
       <c r="O178" s="22"/>
@@ -12796,10 +12798,10 @@
         <v>3508</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D179" s="15">
         <v>1</v>
@@ -12821,7 +12823,7 @@
       <c r="K179" s="15"/>
       <c r="L179" s="15"/>
       <c r="M179" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N179" s="15"/>
       <c r="O179" s="23"/>
@@ -12846,10 +12848,10 @@
         <v>3509</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D180" s="13">
         <v>1</v>
@@ -12871,7 +12873,7 @@
       <c r="K180" s="13"/>
       <c r="L180" s="13"/>
       <c r="M180" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N180" s="13"/>
       <c r="O180" s="22"/>
@@ -12896,10 +12898,10 @@
         <v>3510</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D181" s="15">
         <v>1</v>
@@ -12946,10 +12948,10 @@
         <v>3511</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D182" s="13">
         <v>1</v>
@@ -12996,10 +12998,10 @@
         <v>3512</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D183" s="15">
         <v>1</v>
@@ -13046,10 +13048,10 @@
         <v>3513</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D184" s="13">
         <v>1</v>
@@ -13096,10 +13098,10 @@
         <v>3514</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -13146,10 +13148,10 @@
         <v>3515</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D186" s="13">
         <v>1</v>
@@ -13196,10 +13198,10 @@
         <v>3516</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -13246,10 +13248,10 @@
         <v>3517</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D188" s="13">
         <v>1</v>
@@ -13271,7 +13273,7 @@
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
       <c r="M188" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N188" s="13"/>
       <c r="O188" s="22"/>
@@ -13296,10 +13298,10 @@
         <v>3518</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -13321,7 +13323,7 @@
       <c r="K189" s="15"/>
       <c r="L189" s="15"/>
       <c r="M189" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N189" s="15"/>
       <c r="O189" s="23"/>
@@ -13346,10 +13348,10 @@
         <v>3519</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D190" s="13">
         <v>1</v>
@@ -13371,7 +13373,7 @@
       <c r="K190" s="13"/>
       <c r="L190" s="13"/>
       <c r="M190" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N190" s="13"/>
       <c r="O190" s="22"/>
@@ -13396,10 +13398,10 @@
         <v>3520</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -13421,7 +13423,7 @@
       <c r="K191" s="15"/>
       <c r="L191" s="15"/>
       <c r="M191" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N191" s="15"/>
       <c r="O191" s="23"/>
@@ -13446,10 +13448,10 @@
         <v>3521</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D192" s="13">
         <v>1</v>
@@ -13496,10 +13498,10 @@
         <v>3522</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -13546,10 +13548,10 @@
         <v>3523</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D194" s="13">
         <v>1</v>
@@ -13596,10 +13598,10 @@
         <v>3524</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -13646,10 +13648,10 @@
         <v>3525</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D196" s="13">
         <v>1</v>
@@ -13696,10 +13698,10 @@
         <v>10001</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -13721,7 +13723,7 @@
       <c r="K197" s="15"/>
       <c r="L197" s="15"/>
       <c r="M197" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N197" s="15"/>
       <c r="O197" s="23"/>
@@ -13746,10 +13748,10 @@
         <v>10002</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D198" s="13">
         <v>1</v>
@@ -13771,7 +13773,7 @@
       <c r="K198" s="13"/>
       <c r="L198" s="13"/>
       <c r="M198" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N198" s="13"/>
       <c r="O198" s="22"/>
@@ -13796,10 +13798,10 @@
         <v>10003</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -13821,7 +13823,7 @@
       <c r="K199" s="15"/>
       <c r="L199" s="15"/>
       <c r="M199" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N199" s="15"/>
       <c r="O199" s="23"/>
@@ -13846,10 +13848,10 @@
         <v>10004</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D200" s="13">
         <v>1</v>
@@ -13871,7 +13873,7 @@
       <c r="K200" s="13"/>
       <c r="L200" s="13"/>
       <c r="M200" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N200" s="13"/>
       <c r="O200" s="22"/>
@@ -13896,10 +13898,10 @@
         <v>10005</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D201" s="15">
         <v>1</v>
@@ -13921,7 +13923,7 @@
       <c r="K201" s="15"/>
       <c r="L201" s="15"/>
       <c r="M201" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N201" s="15"/>
       <c r="O201" s="23"/>
@@ -13946,10 +13948,10 @@
         <v>10006</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D202" s="13">
         <v>1</v>
@@ -13971,7 +13973,7 @@
       <c r="K202" s="13"/>
       <c r="L202" s="13"/>
       <c r="M202" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N202" s="13"/>
       <c r="O202" s="22"/>
@@ -13996,10 +13998,10 @@
         <v>10007</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -14021,7 +14023,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="15"/>
       <c r="M203" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N203" s="15"/>
       <c r="O203" s="23"/>
@@ -14046,10 +14048,10 @@
         <v>10008</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D204" s="13">
         <v>1</v>
@@ -14071,7 +14073,7 @@
       <c r="K204" s="13"/>
       <c r="L204" s="13"/>
       <c r="M204" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N204" s="13"/>
       <c r="O204" s="22"/>
@@ -14096,10 +14098,10 @@
         <v>10009</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -14121,7 +14123,7 @@
       <c r="K205" s="15"/>
       <c r="L205" s="15"/>
       <c r="M205" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N205" s="15"/>
       <c r="O205" s="23"/>
@@ -14146,10 +14148,10 @@
         <v>10010</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D206" s="13">
         <v>1</v>
@@ -14171,7 +14173,7 @@
       <c r="K206" s="13"/>
       <c r="L206" s="13"/>
       <c r="M206" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N206" s="13"/>
       <c r="O206" s="22"/>
@@ -14196,10 +14198,10 @@
         <v>10011</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D207" s="15">
         <v>1</v>
@@ -14221,7 +14223,7 @@
       <c r="K207" s="15"/>
       <c r="L207" s="15"/>
       <c r="M207" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N207" s="15"/>
       <c r="O207" s="23"/>
@@ -14246,10 +14248,10 @@
         <v>10012</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D208" s="13">
         <v>1</v>
@@ -14271,7 +14273,7 @@
       <c r="K208" s="13"/>
       <c r="L208" s="13"/>
       <c r="M208" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N208" s="13"/>
       <c r="O208" s="22"/>
@@ -14296,10 +14298,10 @@
         <v>10013</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D209" s="15">
         <v>1</v>
@@ -14321,7 +14323,7 @@
       <c r="K209" s="15"/>
       <c r="L209" s="15"/>
       <c r="M209" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N209" s="15"/>
       <c r="O209" s="23"/>
@@ -14346,10 +14348,10 @@
         <v>10014</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D210" s="13">
         <v>1</v>
@@ -14371,7 +14373,7 @@
       <c r="K210" s="13"/>
       <c r="L210" s="13"/>
       <c r="M210" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N210" s="13"/>
       <c r="O210" s="22"/>
@@ -14396,10 +14398,10 @@
         <v>10015</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D211" s="15">
         <v>1</v>
@@ -14421,7 +14423,7 @@
       <c r="K211" s="15"/>
       <c r="L211" s="15"/>
       <c r="M211" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N211" s="15"/>
       <c r="O211" s="23"/>
@@ -14446,10 +14448,10 @@
         <v>10016</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D212" s="13">
         <v>1</v>
@@ -14471,7 +14473,7 @@
       <c r="K212" s="13"/>
       <c r="L212" s="13"/>
       <c r="M212" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N212" s="13"/>
       <c r="O212" s="22"/>
@@ -14496,10 +14498,10 @@
         <v>10017</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D213" s="15">
         <v>1</v>
@@ -14521,7 +14523,7 @@
       <c r="K213" s="15"/>
       <c r="L213" s="15"/>
       <c r="M213" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N213" s="15"/>
       <c r="O213" s="23"/>
@@ -14546,10 +14548,10 @@
         <v>10018</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D214" s="13">
         <v>1</v>
@@ -14571,7 +14573,7 @@
       <c r="K214" s="13"/>
       <c r="L214" s="13"/>
       <c r="M214" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N214" s="13"/>
       <c r="O214" s="22"/>
@@ -14596,10 +14598,10 @@
         <v>10101</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D215" s="15">
         <v>1</v>
@@ -14621,7 +14623,7 @@
       <c r="K215" s="15"/>
       <c r="L215" s="15"/>
       <c r="M215" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N215" s="15"/>
       <c r="O215" s="23"/>
@@ -14646,10 +14648,10 @@
         <v>10102</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D216" s="13">
         <v>1</v>
@@ -14671,7 +14673,7 @@
       <c r="K216" s="13"/>
       <c r="L216" s="13"/>
       <c r="M216" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N216" s="13"/>
       <c r="O216" s="22"/>
@@ -14696,10 +14698,10 @@
         <v>10103</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D217" s="15">
         <v>1</v>
@@ -14721,7 +14723,7 @@
       <c r="K217" s="15"/>
       <c r="L217" s="15"/>
       <c r="M217" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N217" s="15"/>
       <c r="O217" s="23"/>
@@ -14746,10 +14748,10 @@
         <v>10104</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D218" s="13">
         <v>1</v>
@@ -14771,7 +14773,7 @@
       <c r="K218" s="13"/>
       <c r="L218" s="13"/>
       <c r="M218" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N218" s="13"/>
       <c r="O218" s="22"/>
@@ -14796,10 +14798,10 @@
         <v>10105</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D219" s="15">
         <v>1</v>
@@ -14821,7 +14823,7 @@
       <c r="K219" s="15"/>
       <c r="L219" s="15"/>
       <c r="M219" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N219" s="15"/>
       <c r="O219" s="23"/>
@@ -14846,10 +14848,10 @@
         <v>10106</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D220" s="13">
         <v>1</v>
@@ -14871,7 +14873,7 @@
       <c r="K220" s="13"/>
       <c r="L220" s="13"/>
       <c r="M220" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N220" s="13"/>
       <c r="O220" s="22"/>
@@ -14896,10 +14898,10 @@
         <v>10107</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D221" s="15">
         <v>1</v>
@@ -14921,7 +14923,7 @@
       <c r="K221" s="15"/>
       <c r="L221" s="15"/>
       <c r="M221" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N221" s="15"/>
       <c r="O221" s="23"/>
@@ -14946,10 +14948,10 @@
         <v>10108</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D222" s="13">
         <v>1</v>
@@ -14971,7 +14973,7 @@
       <c r="K222" s="13"/>
       <c r="L222" s="13"/>
       <c r="M222" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N222" s="13"/>
       <c r="O222" s="22"/>
@@ -14996,10 +14998,10 @@
         <v>10109</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D223" s="15">
         <v>1</v>
@@ -15021,7 +15023,7 @@
       <c r="K223" s="15"/>
       <c r="L223" s="15"/>
       <c r="M223" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N223" s="15"/>
       <c r="O223" s="23"/>
@@ -15046,10 +15048,10 @@
         <v>10110</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D224" s="13">
         <v>1</v>
@@ -15071,7 +15073,7 @@
       <c r="K224" s="13"/>
       <c r="L224" s="13"/>
       <c r="M224" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N224" s="13"/>
       <c r="O224" s="22"/>
@@ -15096,10 +15098,10 @@
         <v>10111</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D225" s="15">
         <v>1</v>
@@ -15121,7 +15123,7 @@
       <c r="K225" s="15"/>
       <c r="L225" s="15"/>
       <c r="M225" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N225" s="15"/>
       <c r="O225" s="23"/>
@@ -15146,10 +15148,10 @@
         <v>10112</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D226" s="13">
         <v>1</v>
@@ -15171,7 +15173,7 @@
       <c r="K226" s="13"/>
       <c r="L226" s="13"/>
       <c r="M226" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N226" s="13"/>
       <c r="O226" s="22"/>
@@ -15196,10 +15198,10 @@
         <v>10113</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -15221,7 +15223,7 @@
       <c r="K227" s="15"/>
       <c r="L227" s="15"/>
       <c r="M227" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N227" s="15"/>
       <c r="O227" s="23"/>
@@ -15246,10 +15248,10 @@
         <v>10114</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D228" s="13">
         <v>1</v>
@@ -15271,7 +15273,7 @@
       <c r="K228" s="13"/>
       <c r="L228" s="13"/>
       <c r="M228" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N228" s="13"/>
       <c r="O228" s="22"/>
@@ -15296,10 +15298,10 @@
         <v>10115</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -15321,7 +15323,7 @@
       <c r="K229" s="15"/>
       <c r="L229" s="15"/>
       <c r="M229" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N229" s="15"/>
       <c r="O229" s="23"/>
@@ -15346,10 +15348,10 @@
         <v>10116</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D230" s="13">
         <v>1</v>
@@ -15371,7 +15373,7 @@
       <c r="K230" s="13"/>
       <c r="L230" s="13"/>
       <c r="M230" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N230" s="13"/>
       <c r="O230" s="22"/>
@@ -15396,10 +15398,10 @@
         <v>10117</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D231" s="15">
         <v>1</v>
@@ -15421,7 +15423,7 @@
       <c r="K231" s="15"/>
       <c r="L231" s="15"/>
       <c r="M231" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N231" s="15"/>
       <c r="O231" s="23"/>
@@ -15446,10 +15448,10 @@
         <v>10118</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D232" s="13">
         <v>1</v>
@@ -15471,7 +15473,7 @@
       <c r="K232" s="13"/>
       <c r="L232" s="13"/>
       <c r="M232" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N232" s="13"/>
       <c r="O232" s="22"/>
@@ -15496,10 +15498,10 @@
         <v>10201</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D233" s="15">
         <v>1</v>
@@ -15521,7 +15523,7 @@
       <c r="K233" s="15"/>
       <c r="L233" s="15"/>
       <c r="M233" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N233" s="15"/>
       <c r="O233" s="23"/>
@@ -15546,10 +15548,10 @@
         <v>10202</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D234" s="13">
         <v>1</v>
@@ -15571,7 +15573,7 @@
       <c r="K234" s="13"/>
       <c r="L234" s="13"/>
       <c r="M234" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N234" s="13"/>
       <c r="O234" s="22"/>
@@ -15596,10 +15598,10 @@
         <v>10203</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D235" s="15">
         <v>1</v>
@@ -15621,7 +15623,7 @@
       <c r="K235" s="15"/>
       <c r="L235" s="15"/>
       <c r="M235" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N235" s="15"/>
       <c r="O235" s="23"/>
@@ -15646,10 +15648,10 @@
         <v>10204</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D236" s="13">
         <v>1</v>
@@ -15671,7 +15673,7 @@
       <c r="K236" s="13"/>
       <c r="L236" s="13"/>
       <c r="M236" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N236" s="13"/>
       <c r="O236" s="22"/>
@@ -15696,10 +15698,10 @@
         <v>10205</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D237" s="15">
         <v>1</v>
@@ -15721,7 +15723,7 @@
       <c r="K237" s="15"/>
       <c r="L237" s="15"/>
       <c r="M237" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N237" s="15"/>
       <c r="O237" s="23"/>
@@ -15746,10 +15748,10 @@
         <v>10206</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D238" s="13">
         <v>1</v>
@@ -15771,7 +15773,7 @@
       <c r="K238" s="13"/>
       <c r="L238" s="13"/>
       <c r="M238" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N238" s="13"/>
       <c r="O238" s="22"/>
@@ -15796,10 +15798,10 @@
         <v>10207</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -15821,7 +15823,7 @@
       <c r="K239" s="15"/>
       <c r="L239" s="15"/>
       <c r="M239" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N239" s="15"/>
       <c r="O239" s="23"/>
@@ -15846,10 +15848,10 @@
         <v>10208</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D240" s="13">
         <v>1</v>
@@ -15871,7 +15873,7 @@
       <c r="K240" s="13"/>
       <c r="L240" s="13"/>
       <c r="M240" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N240" s="13"/>
       <c r="O240" s="22"/>
@@ -15896,10 +15898,10 @@
         <v>10209</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D241" s="15">
         <v>1</v>
@@ -15921,7 +15923,7 @@
       <c r="K241" s="15"/>
       <c r="L241" s="15"/>
       <c r="M241" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N241" s="15"/>
       <c r="O241" s="23"/>
@@ -15946,10 +15948,10 @@
         <v>10210</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D242" s="13">
         <v>1</v>
@@ -15971,7 +15973,7 @@
       <c r="K242" s="13"/>
       <c r="L242" s="13"/>
       <c r="M242" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N242" s="13"/>
       <c r="O242" s="22"/>
@@ -15996,10 +15998,10 @@
         <v>10211</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D243" s="15">
         <v>1</v>
@@ -16021,7 +16023,7 @@
       <c r="K243" s="15"/>
       <c r="L243" s="15"/>
       <c r="M243" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N243" s="15"/>
       <c r="O243" s="23"/>
@@ -16046,10 +16048,10 @@
         <v>10212</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D244" s="13">
         <v>1</v>
@@ -16071,7 +16073,7 @@
       <c r="K244" s="13"/>
       <c r="L244" s="13"/>
       <c r="M244" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N244" s="13"/>
       <c r="O244" s="22"/>
@@ -16096,10 +16098,10 @@
         <v>10213</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D245" s="15">
         <v>1</v>
@@ -16121,7 +16123,7 @@
       <c r="K245" s="15"/>
       <c r="L245" s="15"/>
       <c r="M245" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N245" s="15"/>
       <c r="O245" s="23"/>
@@ -16146,10 +16148,10 @@
         <v>10214</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D246" s="13">
         <v>1</v>
@@ -16171,7 +16173,7 @@
       <c r="K246" s="13"/>
       <c r="L246" s="13"/>
       <c r="M246" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N246" s="13"/>
       <c r="O246" s="22"/>
@@ -16196,10 +16198,10 @@
         <v>10215</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D247" s="15">
         <v>1</v>
@@ -16221,7 +16223,7 @@
       <c r="K247" s="15"/>
       <c r="L247" s="15"/>
       <c r="M247" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N247" s="15"/>
       <c r="O247" s="23"/>
@@ -16246,10 +16248,10 @@
         <v>10216</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D248" s="13">
         <v>1</v>
@@ -16271,7 +16273,7 @@
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N248" s="13"/>
       <c r="O248" s="22"/>
@@ -16296,10 +16298,10 @@
         <v>10217</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D249" s="15">
         <v>1</v>
@@ -16321,7 +16323,7 @@
       <c r="K249" s="15"/>
       <c r="L249" s="15"/>
       <c r="M249" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N249" s="15"/>
       <c r="O249" s="23"/>
@@ -16346,10 +16348,10 @@
         <v>10218</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D250" s="13">
         <v>1</v>
@@ -16371,7 +16373,7 @@
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N250" s="13"/>
       <c r="O250" s="22"/>
@@ -16396,10 +16398,10 @@
         <v>10301</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D251" s="15">
         <v>1</v>
@@ -16421,7 +16423,7 @@
       <c r="K251" s="15"/>
       <c r="L251" s="15"/>
       <c r="M251" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N251" s="15"/>
       <c r="O251" s="23"/>
@@ -16446,10 +16448,10 @@
         <v>10302</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D252" s="13">
         <v>1</v>
@@ -16471,7 +16473,7 @@
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N252" s="13"/>
       <c r="O252" s="22"/>
@@ -16496,10 +16498,10 @@
         <v>10303</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D253" s="15">
         <v>1</v>
@@ -16521,7 +16523,7 @@
       <c r="K253" s="15"/>
       <c r="L253" s="15"/>
       <c r="M253" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N253" s="15"/>
       <c r="O253" s="23"/>
@@ -16546,10 +16548,10 @@
         <v>10304</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D254" s="13">
         <v>1</v>
@@ -16571,7 +16573,7 @@
       <c r="K254" s="13"/>
       <c r="L254" s="13"/>
       <c r="M254" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N254" s="13"/>
       <c r="O254" s="22"/>
@@ -16596,10 +16598,10 @@
         <v>10305</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D255" s="15">
         <v>1</v>
@@ -16621,7 +16623,7 @@
       <c r="K255" s="15"/>
       <c r="L255" s="15"/>
       <c r="M255" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N255" s="15"/>
       <c r="O255" s="23"/>
@@ -16646,10 +16648,10 @@
         <v>10306</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D256" s="13">
         <v>1</v>
@@ -16671,7 +16673,7 @@
       <c r="K256" s="13"/>
       <c r="L256" s="13"/>
       <c r="M256" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N256" s="13"/>
       <c r="O256" s="22"/>
@@ -16696,10 +16698,10 @@
         <v>10307</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -16721,7 +16723,7 @@
       <c r="K257" s="15"/>
       <c r="L257" s="15"/>
       <c r="M257" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N257" s="15"/>
       <c r="O257" s="23"/>
@@ -16746,10 +16748,10 @@
         <v>10308</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D258" s="13">
         <v>1</v>
@@ -16771,7 +16773,7 @@
       <c r="K258" s="13"/>
       <c r="L258" s="13"/>
       <c r="M258" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N258" s="13"/>
       <c r="O258" s="22"/>
@@ -16796,10 +16798,10 @@
         <v>10309</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -16821,7 +16823,7 @@
       <c r="K259" s="15"/>
       <c r="L259" s="15"/>
       <c r="M259" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N259" s="15"/>
       <c r="O259" s="23"/>
@@ -16846,10 +16848,10 @@
         <v>10310</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D260" s="13">
         <v>1</v>
@@ -16871,7 +16873,7 @@
       <c r="K260" s="13"/>
       <c r="L260" s="13"/>
       <c r="M260" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N260" s="13"/>
       <c r="O260" s="22"/>
@@ -16896,10 +16898,10 @@
         <v>10311</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -16921,7 +16923,7 @@
       <c r="K261" s="15"/>
       <c r="L261" s="15"/>
       <c r="M261" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N261" s="15"/>
       <c r="O261" s="23"/>
@@ -16946,10 +16948,10 @@
         <v>10312</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D262" s="13">
         <v>1</v>
@@ -16971,7 +16973,7 @@
       <c r="K262" s="13"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N262" s="13"/>
       <c r="O262" s="22"/>
@@ -16996,10 +16998,10 @@
         <v>10313</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -17021,7 +17023,7 @@
       <c r="K263" s="15"/>
       <c r="L263" s="15"/>
       <c r="M263" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N263" s="15"/>
       <c r="O263" s="23"/>
@@ -17046,10 +17048,10 @@
         <v>10314</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D264" s="13">
         <v>1</v>
@@ -17071,7 +17073,7 @@
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N264" s="13"/>
       <c r="O264" s="22"/>
@@ -17096,10 +17098,10 @@
         <v>10315</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -17121,7 +17123,7 @@
       <c r="K265" s="15"/>
       <c r="L265" s="15"/>
       <c r="M265" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N265" s="15"/>
       <c r="O265" s="23"/>
@@ -17146,10 +17148,10 @@
         <v>10316</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D266" s="13">
         <v>1</v>
@@ -17171,7 +17173,7 @@
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N266" s="13"/>
       <c r="O266" s="22"/>
@@ -17196,10 +17198,10 @@
         <v>10317</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D267" s="15">
         <v>1</v>
@@ -17221,7 +17223,7 @@
       <c r="K267" s="15"/>
       <c r="L267" s="15"/>
       <c r="M267" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N267" s="15"/>
       <c r="O267" s="23"/>
@@ -17246,10 +17248,10 @@
         <v>10318</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D268" s="13">
         <v>1</v>
@@ -17271,7 +17273,7 @@
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N268" s="13"/>
       <c r="O268" s="22"/>
@@ -17296,7 +17298,7 @@
         <v>20000</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C269" s="15"/>
       <c r="D269" s="15">
@@ -17344,10 +17346,10 @@
         <v>20001</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D270" s="13">
         <v>1</v>
@@ -17394,10 +17396,10 @@
         <v>20002</v>
       </c>
       <c r="B271" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="C271" s="28" t="s">
         <v>398</v>
-      </c>
-      <c r="C271" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="D271" s="28">
         <v>1</v>
@@ -17415,7 +17417,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J271" s="28"/>
       <c r="K271" s="28"/>
@@ -17446,10 +17448,10 @@
         <v>20003</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D272" s="13">
         <v>1</v>
@@ -17467,7 +17469,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J272" s="13"/>
       <c r="K272" s="13"/>
@@ -17498,10 +17500,10 @@
         <v>20004</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -17519,13 +17521,13 @@
         <v>1</v>
       </c>
       <c r="I273" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J273" s="15"/>
       <c r="K273" s="15"/>
       <c r="L273" s="15"/>
       <c r="M273" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N273" s="15"/>
       <c r="O273" s="23"/>
@@ -17550,10 +17552,10 @@
         <v>20005</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D274" s="13">
         <v>1</v>
@@ -17571,13 +17573,13 @@
         <v>1</v>
       </c>
       <c r="I274" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J274" s="13"/>
       <c r="K274" s="13"/>
       <c r="L274" s="13"/>
       <c r="M274" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N274" s="13"/>
       <c r="O274" s="22"/>
@@ -17602,10 +17604,10 @@
         <v>20006</v>
       </c>
       <c r="B275" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C275" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D275" s="30">
         <v>1</v>
@@ -17623,7 +17625,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J275" s="30"/>
       <c r="K275" s="30"/>
@@ -17654,10 +17656,10 @@
         <v>20007</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D276" s="13">
         <v>1</v>
@@ -17675,13 +17677,13 @@
         <v>1</v>
       </c>
       <c r="I276" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J276" s="13"/>
       <c r="K276" s="13"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N276" s="13"/>
       <c r="O276" s="22"/>
@@ -17706,10 +17708,10 @@
         <v>20008</v>
       </c>
       <c r="B277" s="30" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C277" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D277" s="30">
         <v>1</v>
@@ -17727,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="I277" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J277" s="30"/>
       <c r="K277" s="30"/>
@@ -17758,10 +17760,10 @@
         <v>20009</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D278" s="13">
         <v>1</v>
@@ -17779,13 +17781,13 @@
         <v>1</v>
       </c>
       <c r="I278" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J278" s="13"/>
       <c r="K278" s="13"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N278" s="13"/>
       <c r="O278" s="22"/>
@@ -17810,10 +17812,10 @@
         <v>20010</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -17831,13 +17833,13 @@
         <v>1</v>
       </c>
       <c r="I279" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J279" s="15"/>
       <c r="K279" s="15"/>
       <c r="L279" s="15"/>
       <c r="M279" s="15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N279" s="15"/>
       <c r="O279" s="23"/>
@@ -17862,10 +17864,10 @@
         <v>20011</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D280" s="15">
         <v>1</v>
@@ -17883,13 +17885,13 @@
         <v>1</v>
       </c>
       <c r="I280" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J280" s="13"/>
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
       <c r="M280" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N280" s="13"/>
       <c r="O280" s="22"/>
@@ -17914,10 +17916,10 @@
         <v>20012</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D281" s="13">
         <v>1</v>
@@ -17935,13 +17937,13 @@
         <v>1</v>
       </c>
       <c r="I281" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J281" s="13"/>
       <c r="K281" s="13"/>
       <c r="L281" s="13"/>
       <c r="M281" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N281" s="13"/>
       <c r="O281" s="23"/>
@@ -17966,10 +17968,10 @@
         <v>20013</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D282" s="15">
         <v>1</v>
@@ -17987,13 +17989,13 @@
         <v>1</v>
       </c>
       <c r="I282" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J282" s="13"/>
       <c r="K282" s="13"/>
       <c r="L282" s="13"/>
       <c r="M282" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N282" s="13"/>
       <c r="O282" s="22"/>
@@ -18018,10 +18020,10 @@
         <v>20014</v>
       </c>
       <c r="B283" s="32" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C283" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D283" s="30">
         <v>1</v>
@@ -18039,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J283" s="32"/>
       <c r="K283" s="32"/>
@@ -18070,10 +18072,10 @@
         <v>20015</v>
       </c>
       <c r="B284" s="32" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D284" s="32">
         <v>1</v>
@@ -18091,7 +18093,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J284" s="32"/>
       <c r="K284" s="32"/>
@@ -18122,10 +18124,10 @@
         <v>20016</v>
       </c>
       <c r="B285" s="32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D285" s="30">
         <v>1</v>
@@ -18143,7 +18145,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J285" s="32"/>
       <c r="K285" s="32"/>
@@ -18174,10 +18176,10 @@
         <v>20017</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D286" s="15">
         <v>1</v>
@@ -18195,13 +18197,13 @@
         <v>1</v>
       </c>
       <c r="I286" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J286" s="13"/>
       <c r="K286" s="13"/>
       <c r="L286" s="13"/>
       <c r="M286" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N286" s="13"/>
       <c r="O286" s="22"/>
@@ -18226,10 +18228,10 @@
         <v>20018</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D287" s="13">
         <v>1</v>
@@ -18247,13 +18249,13 @@
         <v>1</v>
       </c>
       <c r="I287" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J287" s="13"/>
       <c r="K287" s="13"/>
       <c r="L287" s="13"/>
       <c r="M287" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N287" s="13"/>
       <c r="O287" s="23"/>
@@ -18278,10 +18280,10 @@
         <v>20019</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D288" s="15">
         <v>1</v>
@@ -18299,13 +18301,13 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J288" s="13"/>
       <c r="K288" s="13"/>
       <c r="L288" s="13"/>
       <c r="M288" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N288" s="13"/>
       <c r="O288" s="22"/>
@@ -18330,10 +18332,10 @@
         <v>20020</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C289" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D289" s="13">
         <v>1</v>
@@ -18351,13 +18353,13 @@
         <v>1</v>
       </c>
       <c r="I289" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J289" s="13"/>
       <c r="K289" s="13"/>
       <c r="L289" s="13"/>
       <c r="M289" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N289" s="13"/>
       <c r="O289" s="23"/>
@@ -18382,10 +18384,10 @@
         <v>20021</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C290" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D290" s="15">
         <v>1</v>
@@ -18403,13 +18405,13 @@
         <v>1</v>
       </c>
       <c r="I290" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J290" s="13"/>
       <c r="K290" s="13"/>
       <c r="L290" s="13"/>
       <c r="M290" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N290" s="13"/>
       <c r="O290" s="22"/>
@@ -18434,10 +18436,10 @@
         <v>20022</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C291" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D291" s="15">
         <v>1</v>
@@ -18455,13 +18457,13 @@
         <v>1</v>
       </c>
       <c r="I291" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J291" s="13"/>
       <c r="K291" s="13"/>
       <c r="L291" s="13"/>
       <c r="M291" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N291" s="13"/>
       <c r="O291" s="23"/>
@@ -18486,10 +18488,10 @@
         <v>20023</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C292" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D292" s="13">
         <v>1</v>
@@ -18507,13 +18509,13 @@
         <v>1</v>
       </c>
       <c r="I292" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J292" s="13"/>
       <c r="K292" s="13"/>
       <c r="L292" s="13"/>
       <c r="M292" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N292" s="13"/>
       <c r="O292" s="22"/>
@@ -18538,10 +18540,10 @@
         <v>20024</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C293" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D293" s="15">
         <v>1</v>
@@ -18559,13 +18561,13 @@
         <v>1</v>
       </c>
       <c r="I293" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J293" s="13"/>
       <c r="K293" s="13"/>
       <c r="L293" s="13"/>
       <c r="M293" s="15" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N293" s="13"/>
       <c r="AC293" s="20">
@@ -18577,10 +18579,10 @@
         <v>20025</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C294" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D294" s="15">
         <v>1</v>
@@ -18598,13 +18600,13 @@
         <v>1</v>
       </c>
       <c r="I294" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J294" s="13"/>
       <c r="K294" s="13"/>
       <c r="L294" s="13"/>
       <c r="M294" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N294" s="13"/>
       <c r="AC294" s="20">
@@ -18616,10 +18618,10 @@
         <v>20026</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C295" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D295" s="13">
         <v>1</v>
@@ -18637,13 +18639,13 @@
         <v>1</v>
       </c>
       <c r="I295" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J295" s="13"/>
       <c r="K295" s="13"/>
       <c r="L295" s="13"/>
       <c r="M295" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N295" s="13"/>
       <c r="AC295" s="20">
@@ -18655,10 +18657,10 @@
         <v>20027</v>
       </c>
       <c r="B296" s="34" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C296" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D296" s="15">
         <v>1</v>
@@ -18676,13 +18678,13 @@
         <v>1</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J296" s="13"/>
       <c r="K296" s="13"/>
       <c r="L296" s="13"/>
       <c r="M296" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N296" s="13"/>
       <c r="AC296" s="20">
@@ -18694,10 +18696,10 @@
         <v>20028</v>
       </c>
       <c r="B297" s="34" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C297" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D297" s="15">
         <v>1</v>
@@ -18715,13 +18717,13 @@
         <v>1</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J297" s="13"/>
       <c r="K297" s="13"/>
       <c r="L297" s="13"/>
       <c r="M297" s="15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N297" s="13"/>
       <c r="AC297" s="20">
@@ -18733,10 +18735,10 @@
         <v>20029</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D298" s="15">
         <v>1</v>
@@ -18754,7 +18756,7 @@
         <v>1</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J298" s="13"/>
       <c r="K298" s="13"/>
@@ -18772,10 +18774,10 @@
         <v>20101</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D299" s="13">
         <v>1</v>
@@ -18793,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J299" s="13"/>
       <c r="K299" s="13"/>
@@ -18811,10 +18813,10 @@
         <v>20102</v>
       </c>
       <c r="B300" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C300" s="15" t="s">
         <v>449</v>
-      </c>
-      <c r="C300" s="15" t="s">
-        <v>448</v>
       </c>
       <c r="D300" s="15">
         <v>1</v>
@@ -18832,7 +18834,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J300" s="15"/>
       <c r="K300" s="15"/>
@@ -18850,10 +18852,10 @@
         <v>20103</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D301" s="13">
         <v>1</v>
@@ -18871,7 +18873,7 @@
         <v>1</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J301" s="13"/>
       <c r="K301" s="13"/>
@@ -18889,10 +18891,10 @@
         <v>20104</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D302" s="15">
         <v>1</v>
@@ -18910,7 +18912,7 @@
         <v>1</v>
       </c>
       <c r="I302" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J302" s="15"/>
       <c r="K302" s="15"/>
@@ -18928,10 +18930,10 @@
         <v>20105</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D303" s="13">
         <v>1</v>
@@ -18949,7 +18951,7 @@
         <v>1</v>
       </c>
       <c r="I303" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J303" s="13"/>
       <c r="K303" s="13"/>
@@ -18967,10 +18969,10 @@
         <v>20106</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C304" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D304" s="15">
         <v>1</v>
@@ -18988,7 +18990,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
@@ -19006,10 +19008,10 @@
         <v>20107</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D305" s="13">
         <v>1</v>
@@ -19027,7 +19029,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J305" s="13"/>
       <c r="K305" s="13"/>
@@ -19045,10 +19047,10 @@
         <v>20108</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C306" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D306" s="15">
         <v>1</v>
@@ -19066,7 +19068,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
@@ -19084,10 +19086,10 @@
         <v>20109</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D307" s="13">
         <v>1</v>
@@ -19105,7 +19107,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J307" s="13"/>
       <c r="K307" s="13"/>
@@ -19123,10 +19125,10 @@
         <v>20110</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D308" s="15">
         <v>1</v>
@@ -19144,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J308" s="15"/>
       <c r="K308" s="15"/>
@@ -19162,10 +19164,10 @@
         <v>20111</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D309" s="13">
         <v>1</v>
@@ -19183,7 +19185,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J309" s="13"/>
       <c r="K309" s="13"/>
@@ -19201,10 +19203,10 @@
         <v>20201</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D310" s="15">
         <v>1</v>
@@ -19238,10 +19240,10 @@
         <v>20202</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D311" s="13">
         <v>1</v>
@@ -19275,10 +19277,10 @@
         <v>20203</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D312" s="15">
         <v>1</v>
@@ -19312,10 +19314,10 @@
         <v>20204</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D313" s="13">
         <v>1</v>
@@ -19349,10 +19351,10 @@
         <v>20205</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D314" s="15">
         <v>1</v>
@@ -19386,10 +19388,10 @@
         <v>20206</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D315" s="13">
         <v>1</v>
@@ -19423,10 +19425,10 @@
         <v>20207</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D316" s="15">
         <v>1</v>
@@ -19460,10 +19462,10 @@
         <v>20208</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D317" s="13">
         <v>1</v>
@@ -19497,10 +19499,10 @@
         <v>20209</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D318" s="15">
         <v>1</v>
@@ -19534,10 +19536,10 @@
         <v>20210</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D319" s="13">
         <v>1</v>
@@ -19571,10 +19573,10 @@
         <v>21001</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D320" s="15">
         <v>1</v>
@@ -19592,7 +19594,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
@@ -19610,10 +19612,10 @@
         <v>21002</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D321" s="13">
         <v>1</v>
@@ -19631,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J321" s="13"/>
       <c r="K321" s="13"/>
@@ -19649,10 +19651,10 @@
         <v>21003</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D322" s="15">
         <v>1</v>
@@ -19670,7 +19672,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
@@ -19688,10 +19690,10 @@
         <v>21004</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D323" s="13">
         <v>1</v>
@@ -19709,7 +19711,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J323" s="13"/>
       <c r="K323" s="13"/>
@@ -19727,10 +19729,10 @@
         <v>21005</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D324" s="15">
         <v>1</v>
@@ -19748,7 +19750,7 @@
         <v>1</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J324" s="15"/>
       <c r="K324" s="15"/>
@@ -19766,10 +19768,10 @@
         <v>21006</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D325" s="13">
         <v>1</v>
@@ -19787,7 +19789,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J325" s="13"/>
       <c r="K325" s="13"/>
@@ -19805,10 +19807,10 @@
         <v>21007</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C326" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D326" s="15">
         <v>1</v>
@@ -19826,7 +19828,7 @@
         <v>1</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J326" s="15"/>
       <c r="K326" s="15"/>
@@ -19844,10 +19846,10 @@
         <v>21101</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D327" s="13">
         <v>1</v>
@@ -19865,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J327" s="13"/>
       <c r="K327" s="13"/>
@@ -19883,10 +19885,10 @@
         <v>21102</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C328" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D328" s="15">
         <v>1</v>
@@ -19904,7 +19906,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
@@ -19922,10 +19924,10 @@
         <v>21103</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D329" s="13">
         <v>1</v>
@@ -19943,7 +19945,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J329" s="13"/>
       <c r="K329" s="13"/>
@@ -19961,10 +19963,10 @@
         <v>21104</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C330" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D330" s="15">
         <v>1</v>
@@ -19982,7 +19984,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
@@ -20000,10 +20002,10 @@
         <v>21105</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D331" s="13">
         <v>1</v>
@@ -20021,7 +20023,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J331" s="13"/>
       <c r="K331" s="13"/>
@@ -20039,10 +20041,10 @@
         <v>21106</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D332" s="15">
         <v>1</v>
@@ -20060,7 +20062,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
@@ -20078,10 +20080,10 @@
         <v>21107</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D333" s="13">
         <v>1</v>
@@ -20099,7 +20101,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J333" s="13"/>
       <c r="K333" s="13"/>
@@ -20117,10 +20119,10 @@
         <v>21108</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D334" s="15">
         <v>1</v>
@@ -20138,7 +20140,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
@@ -20156,10 +20158,10 @@
         <v>21109</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D335" s="13">
         <v>1</v>
@@ -20177,7 +20179,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J335" s="13"/>
       <c r="K335" s="13"/>
@@ -20195,10 +20197,10 @@
         <v>21110</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C336" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D336" s="15">
         <v>1</v>
@@ -20216,7 +20218,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J336" s="15"/>
       <c r="K336" s="15"/>
@@ -20234,10 +20236,10 @@
         <v>21111</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D337" s="13">
         <v>1</v>
@@ -20255,7 +20257,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J337" s="13"/>
       <c r="K337" s="13"/>
@@ -20273,10 +20275,10 @@
         <v>21112</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C338" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D338" s="15">
         <v>1</v>
@@ -20294,7 +20296,7 @@
         <v>1</v>
       </c>
       <c r="I338" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
@@ -20312,10 +20314,10 @@
         <v>100001</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D339" s="13">
         <v>1</v>
@@ -20349,7 +20351,7 @@
         <v>100002</v>
       </c>
       <c r="B340" s="36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C340" s="36"/>
       <c r="D340" s="36">
@@ -20368,7 +20370,7 @@
         <v>1</v>
       </c>
       <c r="I340" s="36" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J340" s="36"/>
       <c r="K340" s="36"/>
@@ -20384,7 +20386,7 @@
         <v>100003</v>
       </c>
       <c r="B341" s="36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C341" s="36"/>
       <c r="D341" s="36">
@@ -20403,7 +20405,7 @@
         <v>1</v>
       </c>
       <c r="I341" s="36" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J341" s="36"/>
       <c r="K341" s="36"/>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="503">
   <si>
     <t>物品引索</t>
   </si>
@@ -1226,10 +1226,16 @@
     <t>月卡</t>
   </si>
   <si>
+    <t>item_server/月卡</t>
+  </si>
+  <si>
     <t>终身特权</t>
   </si>
   <si>
     <t>特权</t>
+  </si>
+  <si>
+    <t>item_server/终身卡</t>
   </si>
   <si>
     <t>元素祈福</t>
@@ -3038,16 +3044,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{681D32B4-91EA-4FBC-9672-1A7FB8FD683F}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9A2B6080-6A48-4C9A-9D39-4C4DC74B9FEA}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D57B3414-59AE-4595-9E86-BA7BC607F55C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B638E8E1-3D6D-467D-B48E-B1FD788610F5}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9B6425E6-B94A-4BEA-8E81-8D01FCD56CEB}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{11BF04A2-C657-4F5D-8E8E-94D432BABEDD}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3059,7 +3065,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{7924002C-AC30-456B-AE11-5C52A08338F9}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{9C87053C-D4EC-4E8B-80C4-AE739BB73A23}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3373,11 +3379,11 @@
   <dimension ref="A1:AC341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I269" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M42" sqref="M42"/>
+      <selection pane="bottomRight" activeCell="M274" sqref="M274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17321,7 +17327,7 @@
       <c r="K269" s="15"/>
       <c r="L269" s="15"/>
       <c r="M269" s="15" t="s">
-        <v>49</v>
+        <v>397</v>
       </c>
       <c r="N269" s="15"/>
       <c r="O269" s="23"/>
@@ -17346,10 +17352,10 @@
         <v>20001</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D270" s="13">
         <v>1</v>
@@ -17371,7 +17377,7 @@
       <c r="K270" s="13"/>
       <c r="L270" s="13"/>
       <c r="M270" s="13" t="s">
-        <v>49</v>
+        <v>400</v>
       </c>
       <c r="N270" s="13"/>
       <c r="O270" s="22"/>
@@ -17396,10 +17402,10 @@
         <v>20002</v>
       </c>
       <c r="B271" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="C271" s="28" t="s">
         <v>399</v>
-      </c>
-      <c r="C271" s="28" t="s">
-        <v>398</v>
       </c>
       <c r="D271" s="28">
         <v>1</v>
@@ -17417,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J271" s="28"/>
       <c r="K271" s="28"/>
@@ -17448,10 +17454,10 @@
         <v>20003</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D272" s="13">
         <v>1</v>
@@ -17469,7 +17475,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J272" s="13"/>
       <c r="K272" s="13"/>
@@ -17500,10 +17506,10 @@
         <v>20004</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -17521,13 +17527,13 @@
         <v>1</v>
       </c>
       <c r="I273" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J273" s="15"/>
       <c r="K273" s="15"/>
       <c r="L273" s="15"/>
       <c r="M273" s="15" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N273" s="15"/>
       <c r="O273" s="23"/>
@@ -17552,10 +17558,10 @@
         <v>20005</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D274" s="13">
         <v>1</v>
@@ -17573,13 +17579,13 @@
         <v>1</v>
       </c>
       <c r="I274" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J274" s="13"/>
       <c r="K274" s="13"/>
       <c r="L274" s="13"/>
       <c r="M274" s="13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N274" s="13"/>
       <c r="O274" s="22"/>
@@ -17604,10 +17610,10 @@
         <v>20006</v>
       </c>
       <c r="B275" s="30" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C275" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D275" s="30">
         <v>1</v>
@@ -17625,7 +17631,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="30" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J275" s="30"/>
       <c r="K275" s="30"/>
@@ -17656,10 +17662,10 @@
         <v>20007</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D276" s="13">
         <v>1</v>
@@ -17677,13 +17683,13 @@
         <v>1</v>
       </c>
       <c r="I276" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J276" s="13"/>
       <c r="K276" s="13"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N276" s="13"/>
       <c r="O276" s="22"/>
@@ -17708,10 +17714,10 @@
         <v>20008</v>
       </c>
       <c r="B277" s="30" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C277" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D277" s="30">
         <v>1</v>
@@ -17729,7 +17735,7 @@
         <v>1</v>
       </c>
       <c r="I277" s="30" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J277" s="30"/>
       <c r="K277" s="30"/>
@@ -17760,10 +17766,10 @@
         <v>20009</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D278" s="13">
         <v>1</v>
@@ -17781,13 +17787,13 @@
         <v>1</v>
       </c>
       <c r="I278" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J278" s="13"/>
       <c r="K278" s="13"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N278" s="13"/>
       <c r="O278" s="22"/>
@@ -17812,10 +17818,10 @@
         <v>20010</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -17833,13 +17839,13 @@
         <v>1</v>
       </c>
       <c r="I279" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J279" s="15"/>
       <c r="K279" s="15"/>
       <c r="L279" s="15"/>
       <c r="M279" s="15" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N279" s="15"/>
       <c r="O279" s="23"/>
@@ -17864,10 +17870,10 @@
         <v>20011</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D280" s="15">
         <v>1</v>
@@ -17885,13 +17891,13 @@
         <v>1</v>
       </c>
       <c r="I280" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J280" s="13"/>
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
       <c r="M280" s="15" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N280" s="13"/>
       <c r="O280" s="22"/>
@@ -17916,10 +17922,10 @@
         <v>20012</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D281" s="13">
         <v>1</v>
@@ -17937,13 +17943,13 @@
         <v>1</v>
       </c>
       <c r="I281" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J281" s="13"/>
       <c r="K281" s="13"/>
       <c r="L281" s="13"/>
       <c r="M281" s="15" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N281" s="13"/>
       <c r="O281" s="23"/>
@@ -17968,10 +17974,10 @@
         <v>20013</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D282" s="15">
         <v>1</v>
@@ -17989,13 +17995,13 @@
         <v>1</v>
       </c>
       <c r="I282" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J282" s="13"/>
       <c r="K282" s="13"/>
       <c r="L282" s="13"/>
       <c r="M282" s="15" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N282" s="13"/>
       <c r="O282" s="22"/>
@@ -18020,10 +18026,10 @@
         <v>20014</v>
       </c>
       <c r="B283" s="32" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C283" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D283" s="30">
         <v>1</v>
@@ -18041,7 +18047,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="30" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J283" s="32"/>
       <c r="K283" s="32"/>
@@ -18072,10 +18078,10 @@
         <v>20015</v>
       </c>
       <c r="B284" s="32" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D284" s="32">
         <v>1</v>
@@ -18093,7 +18099,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="30" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J284" s="32"/>
       <c r="K284" s="32"/>
@@ -18124,10 +18130,10 @@
         <v>20016</v>
       </c>
       <c r="B285" s="32" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D285" s="30">
         <v>1</v>
@@ -18145,7 +18151,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J285" s="32"/>
       <c r="K285" s="32"/>
@@ -18176,10 +18182,10 @@
         <v>20017</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D286" s="15">
         <v>1</v>
@@ -18197,13 +18203,13 @@
         <v>1</v>
       </c>
       <c r="I286" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J286" s="13"/>
       <c r="K286" s="13"/>
       <c r="L286" s="13"/>
       <c r="M286" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="N286" s="13"/>
       <c r="O286" s="22"/>
@@ -18228,10 +18234,10 @@
         <v>20018</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D287" s="13">
         <v>1</v>
@@ -18249,13 +18255,13 @@
         <v>1</v>
       </c>
       <c r="I287" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J287" s="13"/>
       <c r="K287" s="13"/>
       <c r="L287" s="13"/>
       <c r="M287" s="15" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N287" s="13"/>
       <c r="O287" s="23"/>
@@ -18280,10 +18286,10 @@
         <v>20019</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D288" s="15">
         <v>1</v>
@@ -18301,13 +18307,13 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J288" s="13"/>
       <c r="K288" s="13"/>
       <c r="L288" s="13"/>
       <c r="M288" s="15" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="N288" s="13"/>
       <c r="O288" s="22"/>
@@ -18332,10 +18338,10 @@
         <v>20020</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C289" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D289" s="13">
         <v>1</v>
@@ -18353,13 +18359,13 @@
         <v>1</v>
       </c>
       <c r="I289" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J289" s="13"/>
       <c r="K289" s="13"/>
       <c r="L289" s="13"/>
       <c r="M289" s="15" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N289" s="13"/>
       <c r="O289" s="23"/>
@@ -18384,10 +18390,10 @@
         <v>20021</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C290" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D290" s="15">
         <v>1</v>
@@ -18405,13 +18411,13 @@
         <v>1</v>
       </c>
       <c r="I290" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J290" s="13"/>
       <c r="K290" s="13"/>
       <c r="L290" s="13"/>
       <c r="M290" s="15" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N290" s="13"/>
       <c r="O290" s="22"/>
@@ -18436,10 +18442,10 @@
         <v>20022</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C291" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D291" s="15">
         <v>1</v>
@@ -18457,13 +18463,13 @@
         <v>1</v>
       </c>
       <c r="I291" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J291" s="13"/>
       <c r="K291" s="13"/>
       <c r="L291" s="13"/>
       <c r="M291" s="15" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N291" s="13"/>
       <c r="O291" s="23"/>
@@ -18488,10 +18494,10 @@
         <v>20023</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C292" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D292" s="13">
         <v>1</v>
@@ -18509,13 +18515,13 @@
         <v>1</v>
       </c>
       <c r="I292" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J292" s="13"/>
       <c r="K292" s="13"/>
       <c r="L292" s="13"/>
       <c r="M292" s="15" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="N292" s="13"/>
       <c r="O292" s="22"/>
@@ -18540,10 +18546,10 @@
         <v>20024</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C293" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D293" s="15">
         <v>1</v>
@@ -18561,13 +18567,13 @@
         <v>1</v>
       </c>
       <c r="I293" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J293" s="13"/>
       <c r="K293" s="13"/>
       <c r="L293" s="13"/>
       <c r="M293" s="15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N293" s="13"/>
       <c r="AC293" s="20">
@@ -18579,10 +18585,10 @@
         <v>20025</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C294" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D294" s="15">
         <v>1</v>
@@ -18600,13 +18606,13 @@
         <v>1</v>
       </c>
       <c r="I294" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J294" s="13"/>
       <c r="K294" s="13"/>
       <c r="L294" s="13"/>
       <c r="M294" s="15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N294" s="13"/>
       <c r="AC294" s="20">
@@ -18618,10 +18624,10 @@
         <v>20026</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C295" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D295" s="13">
         <v>1</v>
@@ -18639,13 +18645,13 @@
         <v>1</v>
       </c>
       <c r="I295" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J295" s="13"/>
       <c r="K295" s="13"/>
       <c r="L295" s="13"/>
       <c r="M295" s="15" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N295" s="13"/>
       <c r="AC295" s="20">
@@ -18657,10 +18663,10 @@
         <v>20027</v>
       </c>
       <c r="B296" s="34" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C296" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D296" s="15">
         <v>1</v>
@@ -18678,13 +18684,13 @@
         <v>1</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J296" s="13"/>
       <c r="K296" s="13"/>
       <c r="L296" s="13"/>
       <c r="M296" s="15" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N296" s="13"/>
       <c r="AC296" s="20">
@@ -18696,10 +18702,10 @@
         <v>20028</v>
       </c>
       <c r="B297" s="34" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C297" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D297" s="15">
         <v>1</v>
@@ -18717,13 +18723,13 @@
         <v>1</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J297" s="13"/>
       <c r="K297" s="13"/>
       <c r="L297" s="13"/>
       <c r="M297" s="15" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N297" s="13"/>
       <c r="AC297" s="20">
@@ -18735,10 +18741,10 @@
         <v>20029</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D298" s="15">
         <v>1</v>
@@ -18756,7 +18762,7 @@
         <v>1</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J298" s="13"/>
       <c r="K298" s="13"/>
@@ -18774,10 +18780,10 @@
         <v>20101</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D299" s="13">
         <v>1</v>
@@ -18795,7 +18801,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J299" s="13"/>
       <c r="K299" s="13"/>
@@ -18813,10 +18819,10 @@
         <v>20102</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D300" s="15">
         <v>1</v>
@@ -18834,7 +18840,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J300" s="15"/>
       <c r="K300" s="15"/>
@@ -18852,10 +18858,10 @@
         <v>20103</v>
       </c>
       <c r="B301" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C301" s="13" t="s">
         <v>451</v>
-      </c>
-      <c r="C301" s="13" t="s">
-        <v>449</v>
       </c>
       <c r="D301" s="13">
         <v>1</v>
@@ -18873,7 +18879,7 @@
         <v>1</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J301" s="13"/>
       <c r="K301" s="13"/>
@@ -18891,10 +18897,10 @@
         <v>20104</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D302" s="15">
         <v>1</v>
@@ -18912,7 +18918,7 @@
         <v>1</v>
       </c>
       <c r="I302" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J302" s="15"/>
       <c r="K302" s="15"/>
@@ -18930,10 +18936,10 @@
         <v>20105</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D303" s="13">
         <v>1</v>
@@ -18951,7 +18957,7 @@
         <v>1</v>
       </c>
       <c r="I303" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J303" s="13"/>
       <c r="K303" s="13"/>
@@ -18969,10 +18975,10 @@
         <v>20106</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C304" s="15" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D304" s="15">
         <v>1</v>
@@ -18990,7 +18996,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
@@ -19008,10 +19014,10 @@
         <v>20107</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D305" s="13">
         <v>1</v>
@@ -19029,7 +19035,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J305" s="13"/>
       <c r="K305" s="13"/>
@@ -19050,7 +19056,7 @@
         <v>241</v>
       </c>
       <c r="C306" s="15" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D306" s="15">
         <v>1</v>
@@ -19068,7 +19074,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
@@ -19089,7 +19095,7 @@
         <v>238</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D307" s="13">
         <v>1</v>
@@ -19107,7 +19113,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J307" s="13"/>
       <c r="K307" s="13"/>
@@ -19125,10 +19131,10 @@
         <v>20110</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D308" s="15">
         <v>1</v>
@@ -19146,7 +19152,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J308" s="15"/>
       <c r="K308" s="15"/>
@@ -19167,7 +19173,7 @@
         <v>239</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D309" s="13">
         <v>1</v>
@@ -19185,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J309" s="13"/>
       <c r="K309" s="13"/>
@@ -19203,10 +19209,10 @@
         <v>20201</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D310" s="15">
         <v>1</v>
@@ -19240,10 +19246,10 @@
         <v>20202</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D311" s="13">
         <v>1</v>
@@ -19277,10 +19283,10 @@
         <v>20203</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D312" s="15">
         <v>1</v>
@@ -19314,10 +19320,10 @@
         <v>20204</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D313" s="13">
         <v>1</v>
@@ -19351,10 +19357,10 @@
         <v>20205</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D314" s="15">
         <v>1</v>
@@ -19388,10 +19394,10 @@
         <v>20206</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D315" s="13">
         <v>1</v>
@@ -19425,10 +19431,10 @@
         <v>20207</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D316" s="15">
         <v>1</v>
@@ -19462,10 +19468,10 @@
         <v>20208</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D317" s="13">
         <v>1</v>
@@ -19499,10 +19505,10 @@
         <v>20209</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D318" s="15">
         <v>1</v>
@@ -19536,10 +19542,10 @@
         <v>20210</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D319" s="13">
         <v>1</v>
@@ -19573,10 +19579,10 @@
         <v>21001</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D320" s="15">
         <v>1</v>
@@ -19594,7 +19600,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
@@ -19612,10 +19618,10 @@
         <v>21002</v>
       </c>
       <c r="B321" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="C321" s="13" t="s">
         <v>476</v>
-      </c>
-      <c r="C321" s="13" t="s">
-        <v>474</v>
       </c>
       <c r="D321" s="13">
         <v>1</v>
@@ -19633,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J321" s="13"/>
       <c r="K321" s="13"/>
@@ -19651,10 +19657,10 @@
         <v>21003</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D322" s="15">
         <v>1</v>
@@ -19672,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
@@ -19690,10 +19696,10 @@
         <v>21004</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D323" s="13">
         <v>1</v>
@@ -19711,7 +19717,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J323" s="13"/>
       <c r="K323" s="13"/>
@@ -19729,10 +19735,10 @@
         <v>21005</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D324" s="15">
         <v>1</v>
@@ -19750,7 +19756,7 @@
         <v>1</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J324" s="15"/>
       <c r="K324" s="15"/>
@@ -19768,10 +19774,10 @@
         <v>21006</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D325" s="13">
         <v>1</v>
@@ -19789,7 +19795,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J325" s="13"/>
       <c r="K325" s="13"/>
@@ -19807,10 +19813,10 @@
         <v>21007</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C326" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D326" s="15">
         <v>1</v>
@@ -19828,7 +19834,7 @@
         <v>1</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J326" s="15"/>
       <c r="K326" s="15"/>
@@ -19846,10 +19852,10 @@
         <v>21101</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D327" s="13">
         <v>1</v>
@@ -19867,7 +19873,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J327" s="13"/>
       <c r="K327" s="13"/>
@@ -19885,10 +19891,10 @@
         <v>21102</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C328" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D328" s="15">
         <v>1</v>
@@ -19906,7 +19912,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
@@ -19924,10 +19930,10 @@
         <v>21103</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D329" s="13">
         <v>1</v>
@@ -19945,7 +19951,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J329" s="13"/>
       <c r="K329" s="13"/>
@@ -19963,10 +19969,10 @@
         <v>21104</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C330" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D330" s="15">
         <v>1</v>
@@ -19984,7 +19990,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
@@ -20002,10 +20008,10 @@
         <v>21105</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D331" s="13">
         <v>1</v>
@@ -20023,7 +20029,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J331" s="13"/>
       <c r="K331" s="13"/>
@@ -20041,10 +20047,10 @@
         <v>21106</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D332" s="15">
         <v>1</v>
@@ -20062,7 +20068,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
@@ -20080,10 +20086,10 @@
         <v>21107</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D333" s="13">
         <v>1</v>
@@ -20101,7 +20107,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J333" s="13"/>
       <c r="K333" s="13"/>
@@ -20119,10 +20125,10 @@
         <v>21108</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D334" s="15">
         <v>1</v>
@@ -20140,7 +20146,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
@@ -20158,10 +20164,10 @@
         <v>21109</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D335" s="13">
         <v>1</v>
@@ -20179,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J335" s="13"/>
       <c r="K335" s="13"/>
@@ -20197,10 +20203,10 @@
         <v>21110</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C336" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D336" s="15">
         <v>1</v>
@@ -20218,7 +20224,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J336" s="15"/>
       <c r="K336" s="15"/>
@@ -20236,10 +20242,10 @@
         <v>21111</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D337" s="13">
         <v>1</v>
@@ -20257,7 +20263,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J337" s="13"/>
       <c r="K337" s="13"/>
@@ -20275,10 +20281,10 @@
         <v>21112</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C338" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D338" s="15">
         <v>1</v>
@@ -20296,7 +20302,7 @@
         <v>1</v>
       </c>
       <c r="I338" s="15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
@@ -20314,10 +20320,10 @@
         <v>100001</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D339" s="13">
         <v>1</v>
@@ -20351,7 +20357,7 @@
         <v>100002</v>
       </c>
       <c r="B340" s="36" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C340" s="36"/>
       <c r="D340" s="36">
@@ -20370,7 +20376,7 @@
         <v>1</v>
       </c>
       <c r="I340" s="36" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J340" s="36"/>
       <c r="K340" s="36"/>
@@ -20386,7 +20392,7 @@
         <v>100003</v>
       </c>
       <c r="B341" s="36" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C341" s="36"/>
       <c r="D341" s="36">
@@ -20405,7 +20411,7 @@
         <v>1</v>
       </c>
       <c r="I341" s="36" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J341" s="36"/>
       <c r="K341" s="36"/>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="561">
   <si>
     <t>物品引索</t>
   </si>
@@ -137,7 +137,7 @@
     <t>is_use</t>
   </si>
   <si>
-    <t>铂金币</t>
+    <t>铂金</t>
   </si>
   <si>
     <t>充值货币</t>
@@ -152,10 +152,10 @@
     <t>item_server/temp2</t>
   </si>
   <si>
-    <t>白银币</t>
-  </si>
-  <si>
-    <t>存档货币</t>
+    <t>白银</t>
+  </si>
+  <si>
+    <t>存档货币，作用于魂石升级和图鉴合成消耗，很贵重的啦！</t>
   </si>
   <si>
     <t>1_1000,2_100</t>
@@ -173,7 +173,7 @@
     <t>钻石</t>
   </si>
   <si>
-    <t>充值赠送</t>
+    <t>货真价实的钻石！存档货币的一种，可以购买好多好东西哦！</t>
   </si>
   <si>
     <t>item_server/钻石币</t>
@@ -230,13 +230,13 @@
     <t>祈福卷轴</t>
   </si>
   <si>
-    <t>抽奖道具</t>
+    <t>元素祈福的卷轴，是最重要的材料之一！</t>
   </si>
   <si>
     <t>1级魂石降级卷</t>
   </si>
   <si>
-    <t>降低魂石等级的卷轴</t>
+    <t>用于降低1级魂石等级的卷轴</t>
   </si>
   <si>
     <t>item_server/1级魂石降级卷</t>
@@ -245,25 +245,34 @@
     <t>2级魂石降级卷</t>
   </si>
   <si>
+    <t>用于降低2级魂石等级的卷轴</t>
+  </si>
+  <si>
     <t>item_server/2级魂石降级卷</t>
   </si>
   <si>
     <t>3级魂石降级卷</t>
   </si>
   <si>
+    <t>用于降低3级魂石等级的卷轴</t>
+  </si>
+  <si>
     <t>item_server/3级魂石降级卷</t>
   </si>
   <si>
     <t>4级魂石降级卷</t>
   </si>
   <si>
+    <t>用于降低4级魂石等级的卷轴</t>
+  </si>
+  <si>
     <t>item_server/4级魂石降级卷</t>
   </si>
   <si>
     <t>低级魂石升级保护卷</t>
   </si>
   <si>
-    <t>提高魂石升级概率的卷轴</t>
+    <t>在升级魂石时添加使用，可以增加魂石升级5%的概率</t>
   </si>
   <si>
     <t>item_server/低级魂石升级保护卷</t>
@@ -272,12 +281,18 @@
     <t>中级魂石升级保护卷</t>
   </si>
   <si>
+    <t>在升级魂石时添加使用，可以增加魂石升级10%的概率</t>
+  </si>
+  <si>
     <t>item_server/强化保护卷</t>
   </si>
   <si>
     <t>高级魂石升级保护卷</t>
   </si>
   <si>
+    <t>在升级魂石时添加使用，可以增加魂石升级15%的概率</t>
+  </si>
+  <si>
     <t>item_server/高级强化保护卷</t>
   </si>
   <si>
@@ -290,16 +305,28 @@
     <t>item_server/魂石转移卷</t>
   </si>
   <si>
-    <t>1级魂石自选箱</t>
-  </si>
-  <si>
-    <t>2级魂石自选箱</t>
-  </si>
-  <si>
-    <t>3级魂石自选箱</t>
-  </si>
-  <si>
-    <t>4级魂石自选箱</t>
+    <t>1级魂石兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【魂石兑换】里面兑换任意的1级魂石</t>
+  </si>
+  <si>
+    <t>2级魂石兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【魂石兑换】里面兑换任意的2级魂石</t>
+  </si>
+  <si>
+    <t>3级魂石兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【魂石兑换】里面兑换任意的3级魂石</t>
+  </si>
+  <si>
+    <t>4级魂石兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【魂石兑换】里面兑换任意的4级魂石</t>
   </si>
   <si>
     <t>天赋点</t>
@@ -323,13 +350,13 @@
     <t>万能精通经验</t>
   </si>
   <si>
-    <t>使用后获得 技能精通经验</t>
+    <t>对某一个技能类型精通进行经验灌注，可以直接提高对应技能精通的经验值，万能的哦！</t>
   </si>
   <si>
     <t>1级魂石挑战券</t>
   </si>
   <si>
-    <t>通关后使用挑战魂石boss获得魂石奖励</t>
+    <t>通关后使用，开启魂石挑战，挑战魂石boss获得魂石奖励</t>
   </si>
   <si>
     <t>2级魂石挑战券</t>
@@ -374,6 +401,9 @@
     <t>炼狱熊怪</t>
   </si>
   <si>
+    <t>一张看起来就很牛ber的怪物卡片</t>
+  </si>
+  <si>
     <t>item_custom/card/炼狱熊怪</t>
   </si>
   <si>
@@ -752,6 +782,9 @@
     <t>炼狱之王</t>
   </si>
   <si>
+    <t>一张确实确实很牛ber的怪物卡片</t>
+  </si>
+  <si>
     <t>雷神</t>
   </si>
   <si>
@@ -887,76 +920,76 @@
     <t>可以随机开出一张地图·雷霆之地出现的传说级（A级）卡片</t>
   </si>
   <si>
-    <t>精良图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张精良级（C级）卡片</t>
+    <t>精良图鉴兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【图鉴兑换】里面去兑换任意一张精良图鉴</t>
   </si>
   <si>
     <t>item_server/精良图鉴箱-2</t>
   </si>
   <si>
-    <t>史诗图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张史诗级（B级）卡片</t>
+    <t>史诗图鉴兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【图鉴兑换】里面去兑换任意一张史诗图鉴</t>
   </si>
   <si>
     <t>item_server/史诗图鉴箱(自选)</t>
   </si>
   <si>
-    <t>传说图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张传说级（A级）卡片</t>
+    <t>传说图鉴兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【图鉴兑换】里面去兑换任意一张传说图鉴</t>
   </si>
   <si>
     <t>item_server/传说图鉴箱(自选)</t>
   </si>
   <si>
-    <t>不朽图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张不朽级（S级）卡片</t>
+    <t>不朽图鉴兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【图鉴兑换】里面去兑换任意一张不朽图鉴</t>
   </si>
   <si>
     <t>item_server/不朽图鉴箱(自选)1</t>
   </si>
   <si>
-    <t>熔火炼狱的图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张地图·元素大陆出现的所有怪物的卡片</t>
-  </si>
-  <si>
-    <t>极北之地的图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张地图·熔火炼狱出现的所有怪物的卡片</t>
-  </si>
-  <si>
-    <t>狂风沙漠的图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张地图·极北之地出现的所有怪物的卡片</t>
-  </si>
-  <si>
-    <t>雷霆之地的图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张地图·狂风沙漠出现的所有怪物的卡片</t>
-  </si>
-  <si>
-    <t>元素大陆图的鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张地图·雷霆之地出现的所有怪物的卡片</t>
+    <t>熔火炼狱的图鉴兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【图鉴兑换】里面去兑换任意一张熔火炼狱的图鉴</t>
+  </si>
+  <si>
+    <t>极北之地的图鉴兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【图鉴兑换】里面去兑换任意一张极北之地的图鉴</t>
+  </si>
+  <si>
+    <t>狂风沙漠的图鉴兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【图鉴兑换】里面去兑换任意一张狂风沙漠的图鉴</t>
+  </si>
+  <si>
+    <t>雷霆之地的图鉴兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【图鉴兑换】里面去兑换任意一张雷霆之地的图鉴</t>
+  </si>
+  <si>
+    <t>元素大陆图的鉴兑换券</t>
+  </si>
+  <si>
+    <t>可以去商城【图鉴兑换】里面去兑换任意一张元素大陆的图鉴</t>
   </si>
   <si>
     <t>1级魂石·攻击力</t>
   </si>
   <si>
-    <t>魂石</t>
+    <t>可以在魂石界面进行镶嵌</t>
   </si>
   <si>
     <t>item_server/hunshi/1级魂石·攻击力</t>
@@ -1226,36 +1259,70 @@
     <t>月卡</t>
   </si>
   <si>
+    <t>购买直接获得3000铂金，之后每天登录获得20000钻石，
+获得30天效果：
+通关奖励中，技能精通经验获取率+10%，地图经验获取率+10%，通关银币获取率+20%(和终身叠加)</t>
+  </si>
+  <si>
     <t>item_server/月卡</t>
   </si>
   <si>
     <t>终身特权</t>
   </si>
   <si>
+    <t>效果：每天登录获得30000钻石，1张【祈福卷轴】，通关奖励中：技能精通经验获取率+20%，地图经验获取率+20%，通关银币获取率+30%(和月卡叠加)
+额外效果：魂石升级概率+10%，图鉴合成银币消耗-20%</t>
+  </si>
+  <si>
+    <t>item_server/终身卡</t>
+  </si>
+  <si>
+    <t>元素祈福</t>
+  </si>
+  <si>
     <t>特权</t>
   </si>
   <si>
-    <t>item_server/终身卡</t>
-  </si>
-  <si>
-    <t>元素祈福</t>
-  </si>
-  <si>
     <t>1005_100000</t>
   </si>
   <si>
     <t>天辉信物</t>
   </si>
   <si>
+    <t>攻击力+10
+生命值+200
+最大蓝量+100
+蓝量回复+2/S
+生命恢复+5/S
+技能急速+20
+*天辉任务奖励+30%</t>
+  </si>
+  <si>
     <t>夜魇信物</t>
   </si>
   <si>
+    <t>暴击概率+15%
+暴击伤害+30%
+防御力+10
+技能伤害+20%
+移动速度+10%
+*夜魇任务奖励+30%</t>
+  </si>
+  <si>
     <t>item_server/夜魔信物</t>
   </si>
   <si>
     <t>灵魂战刃</t>
   </si>
   <si>
+    <t>攻击力+20
+攻击速度+50
+暴击伤害+20%
+移动速度+10%
+技能急速+10
+*局内金币获取率+30%</t>
+  </si>
+  <si>
     <t>item_server/灵魂战刃</t>
   </si>
   <si>
@@ -1265,6 +1332,12 @@
     <t>图鉴大师</t>
   </si>
   <si>
+    <t>*图鉴合成高级卡的概率+12.5%
+*图鉴合成金币消耗-30%
+*图鉴上阵最大星级数+3
+*图鉴上阵属性效果+20%</t>
+  </si>
+  <si>
     <t>item_server/图鉴大师</t>
   </si>
   <si>
@@ -1274,18 +1347,43 @@
     <t>命运的骰子</t>
   </si>
   <si>
+    <t>*升级技能时，有33%概率不消耗技能点
+*购买局内金币商店道具时，有33%概率不消耗局内金币
+*结算时，有33%概率使本局获得的技能精通经验翻倍
+*赞助本游戏时，有33%概率会获得额外10%的琥珀</t>
+  </si>
+  <si>
     <t>item_server/命运的骰子</t>
   </si>
   <si>
     <t>元素之地的救赎</t>
   </si>
   <si>
+    <t>全元素伤害+50%
+*各个元素技能基础效果更变为：
+火元素：火元素技能附带5秒灼烧效果，灼烧每秒造成攻击力50%火元素伤害
+雷元素：雷元素技能附带1秒麻痹效果，相同单位5秒内最多生效1次，被麻痹的单位雷元素抗性降低15%
+冰元素：冰元素技能附带5秒减速30%效果，对减速的单位15%概率冰冻2秒
+风元素：风元素技能附带击退50码效果，相同单位5秒内最多生效1次</t>
+  </si>
+  <si>
     <t>item_server/元素之地的救赎</t>
   </si>
   <si>
     <t>老者的指引·上</t>
   </si>
   <si>
+    <t>暴击概率+5%
+伤害加成+10%
+伤害减免+5%
+攻击力+5%
+固定伤害+50
+固定伤害减免+50
+集齐【老者的指引·上、中、下】获得效果：
+老人言：
+个人经验获取率+30%</t>
+  </si>
+  <si>
     <t>item_server/老者的指引·上</t>
   </si>
   <si>
@@ -1313,42 +1411,111 @@
     <t>不留遗憾之矢·上</t>
   </si>
   <si>
+    <t>杀敌恢复生命值2
+杀敌回复蓝量1
+移动速度+5%
+技能急速+10
+最终伤害+10%
+暴击伤害+15%
+集齐【不留遗憾之矢·上、中、下】获得效果：
+不留遗憾：不会随着阵亡次数增加复活时间</t>
+  </si>
+  <si>
     <t>item_server/不留遗憾之矢·上</t>
   </si>
   <si>
     <t>不留遗憾之矢·中</t>
   </si>
   <si>
+    <t>杀敌恢复生命值5
+杀敌回复蓝量2
+移动速度+5%
+技能急速+10
+最终伤害+10%
+暴击伤害+25%
+集齐【不留遗憾之矢·上、中、下】获得效果：
+不留遗憾：不会随着阵亡次数增加复活时间</t>
+  </si>
+  <si>
     <t>item_server/不留遗憾之矢·下</t>
   </si>
   <si>
     <t>不留遗憾之矢·下</t>
   </si>
   <si>
+    <t>杀敌恢复生命值5
+杀敌回复蓝量2
+移动速度+5%
+技能急速+10
+最终伤害+10%
+暴击伤害+35%
+集齐【不留遗憾之矢·上、中、下】获得效果：
+不留遗憾：不会随着阵亡次数增加复活时间</t>
+  </si>
+  <si>
     <t>item_server/不留遗憾之矢·中</t>
   </si>
   <si>
     <t>超越极限·上</t>
   </si>
   <si>
+    <t>局内金币商店刷新消耗-10%
+局内金币商店刷新次数+1
+局内金币获取率+10%
+伤害加成+10%
+暴击概率+5%
+集齐【超越极限·上、中、下】获得效果：
+超越极限：额外获得一个极限道具槽位</t>
+  </si>
+  <si>
     <t>item_server/超越极限_上</t>
   </si>
   <si>
     <t>超越极限·中</t>
   </si>
   <si>
+    <t>特权局内金币商店刷新消耗-20%
+局内金币商店刷新次数+2
+局内金币获取率+20%
+伤害加成+10%
+暴击概率+5%
+集齐【超越极限·上、中、下】获得效果：
+超越极限：额外获得一个极限道具槽位</t>
+  </si>
+  <si>
     <t>item_server/超越极限_中</t>
   </si>
   <si>
     <t>超越极限·下</t>
   </si>
   <si>
+    <t>局内金币商店刷新消耗-20%
+局内金币商店刷新次数+2
+局内金币获取率+20%
+伤害加成+10%
+暴击概率+10%
+集齐【超越极限·上、中、下】获得效果：
+超越极限：额外获得一个极限道具槽位</t>
+  </si>
+  <si>
     <t>item_server/超越极限_下</t>
   </si>
   <si>
     <t>消费大师·上</t>
   </si>
   <si>
+    <t>投资等级+1
+局内金币商店折扣+5%
+攻击力+5%
+技能极速+5
+伤害减免+5%
+集齐【消费大师·上、中、下】
+获得效果：
+局内金币商店老板：
+局内金币商店常驻折扣25%
+局内金币商店提高稀有度物品出现概率</t>
+  </si>
+  <si>
     <t>item_server/消费大师·上</t>
   </si>
   <si>
@@ -1367,6 +1534,16 @@
     <t>符文大师·上</t>
   </si>
   <si>
+    <t>开局符文刷新次数+1
+团队经验获取率+10%
+伤害加成+5%
+技能急速+5
+集齐【符文大师·上、中、下】
+获得效果：
+符文强者：
+每击败1个boss，获得2次符文刷新次数（仅局内生效）</t>
+  </si>
+  <si>
     <t>item_server/符文大师·上</t>
   </si>
   <si>
@@ -1379,39 +1556,90 @@
     <t>符文大师·下</t>
   </si>
   <si>
+    <t>特权开局符文刷新次数+1
+团队经验获取率+10%
+伤害加成+5%
+技能急速+5
+集齐【符文大师·上、中、下】
+获得效果：
+符文强者：
+每击败1个boss，获得2次符文刷新次数（仅局内生效）</t>
+  </si>
+  <si>
     <t>item_server/符文大师·下</t>
   </si>
   <si>
     <t>符文全知</t>
   </si>
   <si>
+    <t>攻击力+5
+攻击速度+10
+移动速度+3%
+生命恢复+3/s
+*开局拥有5次刷新符文的机会，且每次刷新符文从2选1变为3选1</t>
+  </si>
+  <si>
     <t>终结者</t>
   </si>
   <si>
-    <t>称号</t>
+    <t>称号收集效果：最终伤害+15%</t>
   </si>
   <si>
     <t>领袖</t>
   </si>
   <si>
+    <t>称号收集效果：团队经验获取率+15%</t>
+  </si>
+  <si>
     <t>圣坛使者</t>
   </si>
   <si>
+    <t>称号收集效果：圣坛持续时间+25%</t>
+  </si>
+  <si>
     <t>元素大陆征服者</t>
   </si>
   <si>
+    <t>称号收集效果：全元素伤害+50%</t>
+  </si>
+  <si>
     <t>图鉴领悟者</t>
   </si>
   <si>
+    <t>称号收集效果：图鉴上阵属性效果+10%
+图鉴上阵最大星级数+2</t>
+  </si>
+  <si>
     <t>忠实粉丝</t>
   </si>
   <si>
+    <t>称号收集效果：攻击力+6
+移动速度+6%
+技能急速+6
+全元素伤害+6%</t>
+  </si>
+  <si>
     <t>魂石掌控者</t>
   </si>
   <si>
+    <t>称号收集效果：魂石升级成功率+5%</t>
+  </si>
+  <si>
+    <t>称号收集效果：风元素伤害+50%，风元素穿透+25%</t>
+  </si>
+  <si>
+    <t>称号收集效果：火元素伤害+50%，火元素穿透+25%</t>
+  </si>
+  <si>
     <t>冰宫之主</t>
   </si>
   <si>
+    <t>称号收集效果：冰元素伤害+50%，冰元素穿透+25%</t>
+  </si>
+  <si>
+    <t>称号收集效果：雷元素伤害+50%，雷元素穿透+25%</t>
+  </si>
+  <si>
     <t>元素大陆征服者（成长礼）</t>
   </si>
   <si>
@@ -1463,7 +1691,7 @@
     <t>急速元素</t>
   </si>
   <si>
-    <t>元素供养属性道具</t>
+    <t>元素供养属性道具，每一个+1技能急速，每10个提高1%技能冷却上限</t>
   </si>
   <si>
     <t>1005_50000</t>
@@ -1472,58 +1700,112 @@
     <t>攻击元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1攻击力，每10个提高1%攻击力</t>
+  </si>
+  <si>
     <t>火元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1%火元素伤害，每10个提高1%火元素穿透</t>
+  </si>
+  <si>
     <t>冰元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1%冰元素伤害，每10个提高1%冰元素穿透</t>
+  </si>
+  <si>
     <t>雷元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1%雷元素伤害，每10个提高1%雷元素穿透</t>
+  </si>
+  <si>
     <t>风元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1%风元素伤害，每10个提高1%风元素穿透</t>
+  </si>
+  <si>
     <t>攻速元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1攻击速度，每10个降低0.01攻击间隔</t>
+  </si>
+  <si>
     <t>暴击元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+0.25%暴击概率</t>
+  </si>
+  <si>
     <t>1005_20000</t>
   </si>
   <si>
     <t>爆伤元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1%暴击伤害</t>
+  </si>
+  <si>
     <t>生命元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+5最大生命值</t>
+  </si>
+  <si>
     <t>蓝量元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1最大蓝量</t>
+  </si>
+  <si>
     <t>移速元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1移动速度</t>
+  </si>
+  <si>
     <t>伤害元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1%伤害加成</t>
+  </si>
+  <si>
     <t>固伤元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+5固定伤害</t>
+  </si>
+  <si>
     <t>固免元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+5固定伤害减免</t>
+  </si>
+  <si>
     <t>暴击抵抗元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+0.25%暴击抵抗</t>
+  </si>
+  <si>
     <t>爆伤抵抗元素</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1%暴击伤害抵抗</t>
+  </si>
+  <si>
     <t>元素抗性</t>
   </si>
   <si>
+    <t>元素供养属性道具，每一个+1%全元素抗性</t>
+  </si>
+  <si>
     <t>护甲元素</t>
+  </si>
+  <si>
+    <t>元素供养属性道具，每一个+1护甲</t>
   </si>
   <si>
     <t>怪物图鉴卡</t>
@@ -2406,7 +2688,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3044,16 +3326,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9A2B6080-6A48-4C9A-9D39-4C4DC74B9FEA}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C561E831-1684-419A-96B0-6A5174BA6488}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B638E8E1-3D6D-467D-B48E-B1FD788610F5}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AAD7641B-ABA0-4610-B273-C0C3DB420CF6}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{11BF04A2-C657-4F5D-8E8E-94D432BABEDD}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{ACB00CD2-FAE9-4F7E-A476-AEED6CEBAC68}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3065,7 +3347,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{9C87053C-D4EC-4E8B-80C4-AE739BB73A23}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{F811B351-B0EC-45A0-A94E-C6A9EE7ABA0A}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3379,11 +3661,11 @@
   <dimension ref="A1:AC341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M274" sqref="M274"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4437,8 +4719,8 @@
       <c r="B19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>67</v>
+      <c r="C19" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -4464,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="23"/>
@@ -4489,10 +4771,10 @@
         <v>1281</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -4518,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="22"/>
@@ -4543,10 +4825,10 @@
         <v>1282</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -4572,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="23"/>
@@ -4597,10 +4879,10 @@
         <v>1283</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -4626,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="22"/>
@@ -4651,10 +4933,10 @@
         <v>1284</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="D23" s="15">
         <v>1</v>
@@ -4680,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="23"/>
@@ -4705,10 +4987,10 @@
         <v>1285</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -4734,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="22"/>
@@ -4759,10 +5041,10 @@
         <v>1286</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
@@ -4788,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="23"/>
@@ -4813,9 +5095,11 @@
         <v>1287</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="D26" s="13">
         <v>1</v>
       </c>
@@ -4865,9 +5149,11 @@
         <v>1288</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="D27" s="15">
         <v>1</v>
       </c>
@@ -4917,9 +5203,11 @@
         <v>1289</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="D28" s="13">
         <v>1</v>
       </c>
@@ -4969,9 +5257,11 @@
         <v>1290</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="D29" s="15">
         <v>1</v>
       </c>
@@ -5021,10 +5311,10 @@
         <v>1291</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5075,10 +5365,10 @@
         <v>1292</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
@@ -5129,10 +5419,10 @@
         <v>1293</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5178,15 +5468,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="17.25" customHeight="1" spans="1:29">
+    <row r="33" ht="33.75" spans="1:29">
       <c r="A33" s="15">
         <v>1294</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
@@ -5237,10 +5527,10 @@
         <v>1295</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -5287,10 +5577,10 @@
         <v>1296</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
@@ -5337,10 +5627,10 @@
         <v>1297</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -5387,10 +5677,10 @@
         <v>1298</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -5437,10 +5727,10 @@
         <v>1299</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
@@ -5458,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J38" s="19"/>
       <c r="K38" s="13"/>
@@ -5489,10 +5779,10 @@
         <v>1300</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -5539,10 +5829,10 @@
         <v>1301</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -5560,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="13"/>
@@ -5591,10 +5881,10 @@
         <v>1302</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -5641,9 +5931,11 @@
         <v>2001</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="13"/>
+        <v>121</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D42" s="13">
         <v>1</v>
       </c>
@@ -5668,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="22"/>
@@ -5693,9 +5985,11 @@
         <v>2002</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="15"/>
+        <v>124</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D43" s="15">
         <v>1</v>
       </c>
@@ -5746,9 +6040,11 @@
         <v>2003</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D44" s="13">
         <v>1</v>
       </c>
@@ -5799,9 +6095,11 @@
         <v>2004</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="15"/>
+        <v>126</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D45" s="15">
         <v>1</v>
       </c>
@@ -5852,9 +6150,11 @@
         <v>2005</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="13"/>
+        <v>127</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D46" s="13">
         <v>1</v>
       </c>
@@ -5905,9 +6205,11 @@
         <v>2006</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="15"/>
+        <v>128</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D47" s="15">
         <v>1</v>
       </c>
@@ -5958,9 +6260,11 @@
         <v>2007</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D48" s="13">
         <v>1</v>
       </c>
@@ -6011,9 +6315,11 @@
         <v>2008</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="15"/>
+        <v>130</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D49" s="15">
         <v>1</v>
       </c>
@@ -6064,9 +6370,11 @@
         <v>2009</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="13"/>
+        <v>131</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D50" s="13">
         <v>1</v>
       </c>
@@ -6117,9 +6425,11 @@
         <v>2010</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="15"/>
       <c r="D51" s="15">
         <v>1</v>
       </c>
@@ -6170,9 +6480,11 @@
         <v>2011</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D52" s="13">
         <v>1</v>
       </c>
@@ -6223,9 +6535,11 @@
         <v>2012</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D53" s="15">
         <v>1</v>
       </c>
@@ -6276,9 +6590,11 @@
         <v>2013</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D54" s="13">
         <v>1</v>
       </c>
@@ -6329,9 +6645,11 @@
         <v>2014</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D55" s="15">
         <v>1</v>
       </c>
@@ -6382,9 +6700,11 @@
         <v>2015</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D56" s="13">
         <v>1</v>
       </c>
@@ -6435,9 +6755,11 @@
         <v>2016</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="15"/>
+        <v>138</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D57" s="15">
         <v>1</v>
       </c>
@@ -6488,9 +6810,11 @@
         <v>2017</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="13"/>
+        <v>139</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D58" s="13">
         <v>1</v>
       </c>
@@ -6541,9 +6865,11 @@
         <v>2019</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D59" s="15">
         <v>1</v>
       </c>
@@ -6594,9 +6920,11 @@
         <v>2020</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="13"/>
+        <v>141</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D60" s="13">
         <v>1</v>
       </c>
@@ -6647,9 +6975,11 @@
         <v>2021</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="15"/>
+        <v>142</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D61" s="15">
         <v>1</v>
       </c>
@@ -6700,9 +7030,11 @@
         <v>2022</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="13"/>
+        <v>143</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D62" s="13">
         <v>1</v>
       </c>
@@ -6753,9 +7085,11 @@
         <v>2023</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="15"/>
+        <v>144</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D63" s="15">
         <v>1</v>
       </c>
@@ -6806,9 +7140,11 @@
         <v>2024</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="13"/>
+        <v>145</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D64" s="13">
         <v>1</v>
       </c>
@@ -6859,9 +7195,11 @@
         <v>2025</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="15"/>
+        <v>146</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D65" s="15">
         <v>1</v>
       </c>
@@ -6912,9 +7250,11 @@
         <v>2026</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="13"/>
+        <v>147</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D66" s="13">
         <v>1</v>
       </c>
@@ -6965,9 +7305,11 @@
         <v>2027</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="15"/>
+        <v>148</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D67" s="15">
         <v>1</v>
       </c>
@@ -7018,9 +7360,11 @@
         <v>2028</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="13"/>
+        <v>149</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D68" s="13">
         <v>1</v>
       </c>
@@ -7071,9 +7415,11 @@
         <v>2029</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="15"/>
+        <v>150</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D69" s="15">
         <v>1</v>
       </c>
@@ -7124,9 +7470,11 @@
         <v>2030</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D70" s="13">
         <v>1</v>
       </c>
@@ -7177,9 +7525,11 @@
         <v>2031</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="15"/>
+        <v>152</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D71" s="15">
         <v>1</v>
       </c>
@@ -7230,9 +7580,11 @@
         <v>2032</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="13"/>
+        <v>153</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D72" s="13">
         <v>1</v>
       </c>
@@ -7283,9 +7635,11 @@
         <v>2033</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D73" s="15">
         <v>1</v>
       </c>
@@ -7336,9 +7690,11 @@
         <v>2034</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D74" s="13">
         <v>1</v>
       </c>
@@ -7389,9 +7745,11 @@
         <v>2035</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="15"/>
+        <v>156</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D75" s="15">
         <v>1</v>
       </c>
@@ -7442,9 +7800,11 @@
         <v>2036</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C76" s="13"/>
+        <v>157</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D76" s="13">
         <v>1</v>
       </c>
@@ -7495,9 +7855,11 @@
         <v>2037</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" s="15"/>
+        <v>158</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D77" s="15">
         <v>1</v>
       </c>
@@ -7548,9 +7910,11 @@
         <v>2038</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="13"/>
+        <v>159</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D78" s="13">
         <v>1</v>
       </c>
@@ -7601,9 +7965,11 @@
         <v>2039</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="15"/>
+        <v>160</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D79" s="15">
         <v>1</v>
       </c>
@@ -7654,9 +8020,11 @@
         <v>2040</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="13"/>
+        <v>161</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D80" s="13">
         <v>1</v>
       </c>
@@ -7707,9 +8075,11 @@
         <v>2041</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="15"/>
+        <v>162</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D81" s="15">
         <v>1</v>
       </c>
@@ -7760,9 +8130,11 @@
         <v>2042</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="13"/>
+        <v>163</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D82" s="13">
         <v>1</v>
       </c>
@@ -7813,9 +8185,11 @@
         <v>2043</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="15"/>
+        <v>164</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D83" s="15">
         <v>1</v>
       </c>
@@ -7866,9 +8240,11 @@
         <v>2044</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C84" s="13"/>
+        <v>165</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D84" s="13">
         <v>1</v>
       </c>
@@ -7919,9 +8295,11 @@
         <v>2045</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="15"/>
+        <v>166</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D85" s="15">
         <v>1</v>
       </c>
@@ -7972,9 +8350,11 @@
         <v>2501</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="13"/>
+        <v>167</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D86" s="13">
         <v>1</v>
       </c>
@@ -8025,9 +8405,11 @@
         <v>2502</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C87" s="15"/>
+        <v>168</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D87" s="15">
         <v>1</v>
       </c>
@@ -8078,9 +8460,11 @@
         <v>2503</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88" s="13"/>
+        <v>169</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D88" s="13">
         <v>1</v>
       </c>
@@ -8131,9 +8515,11 @@
         <v>2504</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="15"/>
+        <v>170</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D89" s="15">
         <v>1</v>
       </c>
@@ -8184,9 +8570,11 @@
         <v>2505</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C90" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D90" s="13">
         <v>1</v>
       </c>
@@ -8237,9 +8625,11 @@
         <v>2506</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C91" s="15"/>
+        <v>172</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D91" s="15">
         <v>1</v>
       </c>
@@ -8290,9 +8680,11 @@
         <v>2507</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C92" s="13"/>
+        <v>173</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D92" s="13">
         <v>1</v>
       </c>
@@ -8343,9 +8735,11 @@
         <v>2508</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C93" s="15"/>
+        <v>174</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D93" s="15">
         <v>1</v>
       </c>
@@ -8396,9 +8790,11 @@
         <v>2509</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" s="13"/>
+        <v>175</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D94" s="13">
         <v>1</v>
       </c>
@@ -8449,9 +8845,11 @@
         <v>2510</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" s="15"/>
+        <v>176</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D95" s="15">
         <v>1</v>
       </c>
@@ -8502,9 +8900,11 @@
         <v>2511</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C96" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D96" s="13">
         <v>1</v>
       </c>
@@ -8555,9 +8955,11 @@
         <v>2512</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" s="15"/>
+        <v>178</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D97" s="15">
         <v>1</v>
       </c>
@@ -8608,9 +9010,11 @@
         <v>2513</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" s="13"/>
+        <v>179</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D98" s="13">
         <v>1</v>
       </c>
@@ -8661,9 +9065,11 @@
         <v>2514</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C99" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D99" s="15">
         <v>1</v>
       </c>
@@ -8714,9 +9120,11 @@
         <v>2516</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C100" s="13"/>
+        <v>181</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D100" s="13">
         <v>1</v>
       </c>
@@ -8767,9 +9175,11 @@
         <v>2517</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" s="15"/>
+        <v>182</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D101" s="15">
         <v>1</v>
       </c>
@@ -8820,9 +9230,11 @@
         <v>2518</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C102" s="13"/>
+        <v>183</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D102" s="13">
         <v>1</v>
       </c>
@@ -8873,9 +9285,11 @@
         <v>2519</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C103" s="15"/>
+        <v>184</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D103" s="15">
         <v>1</v>
       </c>
@@ -8926,9 +9340,11 @@
         <v>2520</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C104" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D104" s="13">
         <v>1</v>
       </c>
@@ -8979,9 +9395,11 @@
         <v>2521</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C105" s="15"/>
+        <v>186</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D105" s="15">
         <v>1</v>
       </c>
@@ -9032,9 +9450,11 @@
         <v>2522</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C106" s="13"/>
+        <v>187</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D106" s="13">
         <v>1</v>
       </c>
@@ -9085,9 +9505,11 @@
         <v>2523</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C107" s="15"/>
+        <v>188</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D107" s="15">
         <v>1</v>
       </c>
@@ -9138,9 +9560,11 @@
         <v>2524</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C108" s="13"/>
+        <v>189</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D108" s="13">
         <v>1</v>
       </c>
@@ -9191,9 +9615,11 @@
         <v>2525</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" s="15"/>
+        <v>190</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D109" s="15">
         <v>1</v>
       </c>
@@ -9244,9 +9670,11 @@
         <v>2526</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C110" s="13"/>
+        <v>191</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D110" s="13">
         <v>1</v>
       </c>
@@ -9297,9 +9725,11 @@
         <v>2527</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111" s="15"/>
+        <v>192</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D111" s="15">
         <v>1</v>
       </c>
@@ -9350,9 +9780,11 @@
         <v>2528</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" s="13"/>
+        <v>193</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D112" s="13">
         <v>1</v>
       </c>
@@ -9403,9 +9835,11 @@
         <v>2529</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C113" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D113" s="15">
         <v>1</v>
       </c>
@@ -9456,9 +9890,11 @@
         <v>2530</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C114" s="13"/>
+        <v>195</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D114" s="13">
         <v>1</v>
       </c>
@@ -9509,9 +9945,11 @@
         <v>2531</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="15"/>
+        <v>196</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D115" s="15">
         <v>1</v>
       </c>
@@ -9562,9 +10000,11 @@
         <v>2532</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C116" s="13"/>
+        <v>197</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D116" s="13">
         <v>1</v>
       </c>
@@ -9615,9 +10055,11 @@
         <v>2533</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C117" s="15"/>
+        <v>198</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D117" s="15">
         <v>1</v>
       </c>
@@ -9668,9 +10110,11 @@
         <v>2534</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C118" s="13"/>
+        <v>199</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D118" s="13">
         <v>1</v>
       </c>
@@ -9721,9 +10165,11 @@
         <v>2535</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C119" s="15"/>
+        <v>200</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D119" s="15">
         <v>1</v>
       </c>
@@ -9774,9 +10220,11 @@
         <v>2536</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C120" s="13"/>
+        <v>201</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D120" s="13">
         <v>1</v>
       </c>
@@ -9827,9 +10275,11 @@
         <v>2537</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C121" s="15"/>
+        <v>202</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D121" s="15">
         <v>1</v>
       </c>
@@ -9880,9 +10330,11 @@
         <v>2538</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C122" s="13"/>
+        <v>203</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D122" s="13">
         <v>1</v>
       </c>
@@ -9933,9 +10385,11 @@
         <v>2539</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C123" s="15"/>
+        <v>204</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D123" s="15">
         <v>1</v>
       </c>
@@ -9986,9 +10440,11 @@
         <v>2540</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C124" s="13"/>
+        <v>205</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D124" s="13">
         <v>1</v>
       </c>
@@ -10039,9 +10495,11 @@
         <v>2541</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C125" s="15"/>
+        <v>206</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D125" s="15">
         <v>1</v>
       </c>
@@ -10092,9 +10550,11 @@
         <v>2542</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C126" s="13"/>
+        <v>207</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D126" s="13">
         <v>1</v>
       </c>
@@ -10145,9 +10605,11 @@
         <v>2543</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C127" s="15"/>
+        <v>208</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D127" s="15">
         <v>1</v>
       </c>
@@ -10198,9 +10660,11 @@
         <v>2544</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C128" s="13"/>
+        <v>209</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D128" s="13">
         <v>1</v>
       </c>
@@ -10251,9 +10715,11 @@
         <v>2545</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C129" s="15"/>
+        <v>210</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D129" s="15">
         <v>1</v>
       </c>
@@ -10304,9 +10770,11 @@
         <v>2546</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C130" s="13"/>
+        <v>211</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D130" s="13">
         <v>1</v>
       </c>
@@ -10357,9 +10825,11 @@
         <v>2547</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C131" s="15"/>
+        <v>212</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D131" s="15">
         <v>1</v>
       </c>
@@ -10410,9 +10880,11 @@
         <v>2548</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C132" s="13"/>
+        <v>213</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D132" s="13">
         <v>1</v>
       </c>
@@ -10463,9 +10935,11 @@
         <v>2549</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C133" s="15"/>
+        <v>214</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D133" s="15">
         <v>1</v>
       </c>
@@ -10516,9 +10990,11 @@
         <v>2550</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C134" s="13"/>
+        <v>215</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D134" s="13">
         <v>1</v>
       </c>
@@ -10569,9 +11045,11 @@
         <v>2551</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C135" s="15"/>
+        <v>216</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D135" s="15">
         <v>1</v>
       </c>
@@ -10622,9 +11100,11 @@
         <v>2552</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C136" s="13"/>
+        <v>217</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D136" s="13">
         <v>1</v>
       </c>
@@ -10675,9 +11155,11 @@
         <v>2553</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C137" s="15"/>
+        <v>218</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D137" s="15">
         <v>1</v>
       </c>
@@ -10728,9 +11210,11 @@
         <v>2554</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C138" s="13"/>
+        <v>219</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D138" s="13">
         <v>1</v>
       </c>
@@ -10781,9 +11265,11 @@
         <v>2555</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C139" s="15"/>
+        <v>220</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D139" s="15">
         <v>1</v>
       </c>
@@ -10834,9 +11320,11 @@
         <v>2556</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C140" s="13"/>
+        <v>221</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D140" s="13">
         <v>1</v>
       </c>
@@ -10887,9 +11375,11 @@
         <v>2557</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C141" s="15"/>
+        <v>222</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D141" s="15">
         <v>1</v>
       </c>
@@ -10940,9 +11430,11 @@
         <v>2558</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C142" s="13"/>
+        <v>223</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D142" s="13">
         <v>1</v>
       </c>
@@ -10993,9 +11485,11 @@
         <v>2559</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C143" s="15"/>
+        <v>224</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D143" s="15">
         <v>1</v>
       </c>
@@ -11046,9 +11540,11 @@
         <v>2560</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C144" s="13"/>
+        <v>225</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D144" s="13">
         <v>1</v>
       </c>
@@ -11099,9 +11595,11 @@
         <v>2901</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C145" s="15"/>
+        <v>226</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D145" s="15">
         <v>1</v>
       </c>
@@ -11152,9 +11650,11 @@
         <v>2902</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C146" s="13"/>
+        <v>227</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D146" s="13">
         <v>1</v>
       </c>
@@ -11205,9 +11705,11 @@
         <v>2903</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C147" s="15"/>
+        <v>228</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D147" s="15">
         <v>1</v>
       </c>
@@ -11258,9 +11760,11 @@
         <v>2904</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C148" s="13"/>
+        <v>229</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D148" s="13">
         <v>1</v>
       </c>
@@ -11311,9 +11815,11 @@
         <v>2905</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C149" s="15"/>
+        <v>230</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D149" s="15">
         <v>1</v>
       </c>
@@ -11364,9 +11870,11 @@
         <v>2906</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C150" s="13"/>
+        <v>231</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D150" s="13">
         <v>1</v>
       </c>
@@ -11417,9 +11925,11 @@
         <v>2907</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C151" s="15"/>
+        <v>232</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D151" s="15">
         <v>1</v>
       </c>
@@ -11470,9 +11980,11 @@
         <v>2908</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C152" s="13"/>
+        <v>233</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D152" s="13">
         <v>1</v>
       </c>
@@ -11523,9 +12035,11 @@
         <v>2909</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C153" s="15"/>
+        <v>234</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D153" s="15">
         <v>1</v>
       </c>
@@ -11572,9 +12086,11 @@
         <v>2910</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C154" s="13"/>
+        <v>235</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D154" s="13">
         <v>1</v>
       </c>
@@ -11621,9 +12137,11 @@
         <v>2911</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C155" s="15"/>
+        <v>236</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D155" s="15">
         <v>1</v>
       </c>
@@ -11670,9 +12188,11 @@
         <v>2912</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C156" s="13"/>
+        <v>237</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D156" s="13">
         <v>1</v>
       </c>
@@ -11719,9 +12239,11 @@
         <v>2913</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C157" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D157" s="15">
         <v>1</v>
       </c>
@@ -11768,9 +12290,11 @@
         <v>2914</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C158" s="13"/>
+        <v>239</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D158" s="13">
         <v>1</v>
       </c>
@@ -11817,9 +12341,11 @@
         <v>2915</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C159" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D159" s="15">
         <v>1</v>
       </c>
@@ -11866,9 +12392,11 @@
         <v>2916</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C160" s="13"/>
+        <v>241</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D160" s="13">
         <v>1</v>
       </c>
@@ -11915,9 +12443,11 @@
         <v>2917</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C161" s="15"/>
+        <v>242</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D161" s="15">
         <v>1</v>
       </c>
@@ -11964,9 +12494,11 @@
         <v>2918</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C162" s="13"/>
+        <v>243</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D162" s="13">
         <v>1</v>
       </c>
@@ -12013,9 +12545,11 @@
         <v>2919</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C163" s="15"/>
+        <v>244</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D163" s="15">
         <v>1</v>
       </c>
@@ -12062,9 +12596,11 @@
         <v>2920</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C164" s="13"/>
+        <v>245</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D164" s="13">
         <v>1</v>
       </c>
@@ -12111,9 +12647,11 @@
         <v>2921</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C165" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D165" s="15">
         <v>1</v>
       </c>
@@ -12160,9 +12698,11 @@
         <v>2922</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C166" s="13"/>
+        <v>247</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D166" s="13">
         <v>1</v>
       </c>
@@ -12209,9 +12749,11 @@
         <v>3201</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C167" s="15"/>
+        <v>248</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="D167" s="15">
         <v>1</v>
       </c>
@@ -12258,9 +12800,11 @@
         <v>3202</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C168" s="13"/>
+        <v>250</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="D168" s="13">
         <v>1</v>
       </c>
@@ -12307,9 +12851,11 @@
         <v>3203</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C169" s="15"/>
+        <v>251</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="D169" s="15">
         <v>1</v>
       </c>
@@ -12356,9 +12902,11 @@
         <v>3204</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C170" s="13"/>
+        <v>252</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="D170" s="13">
         <v>1</v>
       </c>
@@ -12405,9 +12953,11 @@
         <v>3205</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C171" s="15"/>
+        <v>253</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="D171" s="15">
         <v>1</v>
       </c>
@@ -12454,10 +13004,10 @@
         <v>3501</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D172" s="13">
         <v>1</v>
@@ -12479,7 +13029,7 @@
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="N172" s="13"/>
       <c r="O172" s="22"/>
@@ -12504,10 +13054,10 @@
         <v>3502</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D173" s="15">
         <v>1</v>
@@ -12529,7 +13079,7 @@
       <c r="K173" s="15"/>
       <c r="L173" s="15"/>
       <c r="M173" s="15" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="N173" s="15"/>
       <c r="O173" s="23"/>
@@ -12554,10 +13104,10 @@
         <v>3503</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D174" s="13">
         <v>1</v>
@@ -12579,7 +13129,7 @@
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
       <c r="M174" s="13" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="N174" s="13"/>
       <c r="O174" s="22"/>
@@ -12604,10 +13154,10 @@
         <v>3504</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D175" s="15">
         <v>1</v>
@@ -12629,7 +13179,7 @@
       <c r="K175" s="15"/>
       <c r="L175" s="15"/>
       <c r="M175" s="15" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="N175" s="15"/>
       <c r="O175" s="23"/>
@@ -12654,10 +13204,10 @@
         <v>3505</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D176" s="13">
         <v>1</v>
@@ -12679,7 +13229,7 @@
       <c r="K176" s="13"/>
       <c r="L176" s="13"/>
       <c r="M176" s="13" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="N176" s="13"/>
       <c r="O176" s="22"/>
@@ -12704,10 +13254,10 @@
         <v>3506</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D177" s="15">
         <v>1</v>
@@ -12729,7 +13279,7 @@
       <c r="K177" s="15"/>
       <c r="L177" s="15"/>
       <c r="M177" s="15" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="N177" s="15"/>
       <c r="O177" s="23"/>
@@ -12754,10 +13304,10 @@
         <v>3507</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D178" s="13">
         <v>1</v>
@@ -12779,7 +13329,7 @@
       <c r="K178" s="13"/>
       <c r="L178" s="13"/>
       <c r="M178" s="13" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="N178" s="13"/>
       <c r="O178" s="22"/>
@@ -12804,10 +13354,10 @@
         <v>3508</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D179" s="15">
         <v>1</v>
@@ -12829,7 +13379,7 @@
       <c r="K179" s="15"/>
       <c r="L179" s="15"/>
       <c r="M179" s="15" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="N179" s="15"/>
       <c r="O179" s="23"/>
@@ -12854,10 +13404,10 @@
         <v>3509</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D180" s="13">
         <v>1</v>
@@ -12879,7 +13429,7 @@
       <c r="K180" s="13"/>
       <c r="L180" s="13"/>
       <c r="M180" s="13" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="N180" s="13"/>
       <c r="O180" s="22"/>
@@ -12904,10 +13454,10 @@
         <v>3510</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D181" s="15">
         <v>1</v>
@@ -12954,10 +13504,10 @@
         <v>3511</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D182" s="13">
         <v>1</v>
@@ -13004,10 +13554,10 @@
         <v>3512</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D183" s="15">
         <v>1</v>
@@ -13054,10 +13604,10 @@
         <v>3513</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D184" s="13">
         <v>1</v>
@@ -13104,10 +13654,10 @@
         <v>3514</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -13154,10 +13704,10 @@
         <v>3515</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D186" s="13">
         <v>1</v>
@@ -13204,10 +13754,10 @@
         <v>3516</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -13254,10 +13804,10 @@
         <v>3517</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D188" s="13">
         <v>1</v>
@@ -13279,7 +13829,7 @@
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
       <c r="M188" s="13" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="N188" s="13"/>
       <c r="O188" s="22"/>
@@ -13304,10 +13854,10 @@
         <v>3518</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>288</v>
+        <v>298</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -13329,7 +13879,7 @@
       <c r="K189" s="15"/>
       <c r="L189" s="15"/>
       <c r="M189" s="15" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="N189" s="15"/>
       <c r="O189" s="23"/>
@@ -13354,10 +13904,10 @@
         <v>3519</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D190" s="13">
         <v>1</v>
@@ -13379,7 +13929,7 @@
       <c r="K190" s="13"/>
       <c r="L190" s="13"/>
       <c r="M190" s="13" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="N190" s="13"/>
       <c r="O190" s="22"/>
@@ -13404,10 +13954,10 @@
         <v>3520</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>294</v>
+        <v>304</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -13429,7 +13979,7 @@
       <c r="K191" s="15"/>
       <c r="L191" s="15"/>
       <c r="M191" s="15" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="N191" s="15"/>
       <c r="O191" s="23"/>
@@ -13454,10 +14004,10 @@
         <v>3521</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D192" s="13">
         <v>1</v>
@@ -13504,10 +14054,10 @@
         <v>3522</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>299</v>
+        <v>309</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -13554,10 +14104,10 @@
         <v>3523</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D194" s="13">
         <v>1</v>
@@ -13604,10 +14154,10 @@
         <v>3524</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>303</v>
+        <v>313</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>314</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -13654,10 +14204,10 @@
         <v>3525</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D196" s="13">
         <v>1</v>
@@ -13704,10 +14254,10 @@
         <v>10001</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -13729,7 +14279,7 @@
       <c r="K197" s="15"/>
       <c r="L197" s="15"/>
       <c r="M197" s="15" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="N197" s="15"/>
       <c r="O197" s="23"/>
@@ -13754,10 +14304,10 @@
         <v>10002</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>307</v>
+        <v>320</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D198" s="13">
         <v>1</v>
@@ -13779,7 +14329,7 @@
       <c r="K198" s="13"/>
       <c r="L198" s="13"/>
       <c r="M198" s="13" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="N198" s="13"/>
       <c r="O198" s="22"/>
@@ -13804,10 +14354,10 @@
         <v>10003</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -13829,7 +14379,7 @@
       <c r="K199" s="15"/>
       <c r="L199" s="15"/>
       <c r="M199" s="15" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N199" s="15"/>
       <c r="O199" s="23"/>
@@ -13854,10 +14404,10 @@
         <v>10004</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>307</v>
+        <v>324</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D200" s="13">
         <v>1</v>
@@ -13879,7 +14429,7 @@
       <c r="K200" s="13"/>
       <c r="L200" s="13"/>
       <c r="M200" s="13" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N200" s="13"/>
       <c r="O200" s="22"/>
@@ -13904,10 +14454,10 @@
         <v>10005</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D201" s="15">
         <v>1</v>
@@ -13929,7 +14479,7 @@
       <c r="K201" s="15"/>
       <c r="L201" s="15"/>
       <c r="M201" s="15" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="N201" s="15"/>
       <c r="O201" s="23"/>
@@ -13954,10 +14504,10 @@
         <v>10006</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>307</v>
+        <v>328</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D202" s="13">
         <v>1</v>
@@ -13979,7 +14529,7 @@
       <c r="K202" s="13"/>
       <c r="L202" s="13"/>
       <c r="M202" s="13" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="N202" s="13"/>
       <c r="O202" s="22"/>
@@ -14004,10 +14554,10 @@
         <v>10007</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -14029,7 +14579,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="15"/>
       <c r="M203" s="15" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="N203" s="15"/>
       <c r="O203" s="23"/>
@@ -14054,10 +14604,10 @@
         <v>10008</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C204" s="13" t="s">
-        <v>307</v>
+        <v>332</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D204" s="13">
         <v>1</v>
@@ -14079,7 +14629,7 @@
       <c r="K204" s="13"/>
       <c r="L204" s="13"/>
       <c r="M204" s="13" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N204" s="13"/>
       <c r="O204" s="22"/>
@@ -14104,10 +14654,10 @@
         <v>10009</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -14129,7 +14679,7 @@
       <c r="K205" s="15"/>
       <c r="L205" s="15"/>
       <c r="M205" s="15" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="N205" s="15"/>
       <c r="O205" s="23"/>
@@ -14154,10 +14704,10 @@
         <v>10010</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C206" s="13" t="s">
-        <v>307</v>
+        <v>336</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D206" s="13">
         <v>1</v>
@@ -14179,7 +14729,7 @@
       <c r="K206" s="13"/>
       <c r="L206" s="13"/>
       <c r="M206" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N206" s="13"/>
       <c r="O206" s="22"/>
@@ -14204,10 +14754,10 @@
         <v>10011</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D207" s="15">
         <v>1</v>
@@ -14229,7 +14779,7 @@
       <c r="K207" s="15"/>
       <c r="L207" s="15"/>
       <c r="M207" s="15" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="N207" s="15"/>
       <c r="O207" s="23"/>
@@ -14254,10 +14804,10 @@
         <v>10012</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="C208" s="13" t="s">
-        <v>307</v>
+        <v>340</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D208" s="13">
         <v>1</v>
@@ -14279,7 +14829,7 @@
       <c r="K208" s="13"/>
       <c r="L208" s="13"/>
       <c r="M208" s="13" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="N208" s="13"/>
       <c r="O208" s="22"/>
@@ -14304,10 +14854,10 @@
         <v>10013</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D209" s="15">
         <v>1</v>
@@ -14329,7 +14879,7 @@
       <c r="K209" s="15"/>
       <c r="L209" s="15"/>
       <c r="M209" s="15" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="N209" s="15"/>
       <c r="O209" s="23"/>
@@ -14354,10 +14904,10 @@
         <v>10014</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>307</v>
+        <v>344</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D210" s="13">
         <v>1</v>
@@ -14379,7 +14929,7 @@
       <c r="K210" s="13"/>
       <c r="L210" s="13"/>
       <c r="M210" s="13" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="N210" s="13"/>
       <c r="O210" s="22"/>
@@ -14404,10 +14954,10 @@
         <v>10015</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D211" s="15">
         <v>1</v>
@@ -14429,7 +14979,7 @@
       <c r="K211" s="15"/>
       <c r="L211" s="15"/>
       <c r="M211" s="15" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="N211" s="15"/>
       <c r="O211" s="23"/>
@@ -14454,10 +15004,10 @@
         <v>10016</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>307</v>
+        <v>348</v>
+      </c>
+      <c r="C212" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D212" s="13">
         <v>1</v>
@@ -14479,7 +15029,7 @@
       <c r="K212" s="13"/>
       <c r="L212" s="13"/>
       <c r="M212" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N212" s="13"/>
       <c r="O212" s="22"/>
@@ -14504,10 +15054,10 @@
         <v>10017</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D213" s="15">
         <v>1</v>
@@ -14529,7 +15079,7 @@
       <c r="K213" s="15"/>
       <c r="L213" s="15"/>
       <c r="M213" s="15" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N213" s="15"/>
       <c r="O213" s="23"/>
@@ -14554,10 +15104,10 @@
         <v>10018</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>307</v>
+        <v>351</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D214" s="13">
         <v>1</v>
@@ -14579,7 +15129,7 @@
       <c r="K214" s="13"/>
       <c r="L214" s="13"/>
       <c r="M214" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="N214" s="13"/>
       <c r="O214" s="22"/>
@@ -14604,10 +15154,10 @@
         <v>10101</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D215" s="15">
         <v>1</v>
@@ -14629,7 +15179,7 @@
       <c r="K215" s="15"/>
       <c r="L215" s="15"/>
       <c r="M215" s="15" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="N215" s="15"/>
       <c r="O215" s="23"/>
@@ -14654,10 +15204,10 @@
         <v>10102</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>307</v>
+        <v>354</v>
+      </c>
+      <c r="C216" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D216" s="13">
         <v>1</v>
@@ -14679,7 +15229,7 @@
       <c r="K216" s="13"/>
       <c r="L216" s="13"/>
       <c r="M216" s="13" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="N216" s="13"/>
       <c r="O216" s="22"/>
@@ -14704,10 +15254,10 @@
         <v>10103</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D217" s="15">
         <v>1</v>
@@ -14729,7 +15279,7 @@
       <c r="K217" s="15"/>
       <c r="L217" s="15"/>
       <c r="M217" s="15" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N217" s="15"/>
       <c r="O217" s="23"/>
@@ -14754,10 +15304,10 @@
         <v>10104</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>307</v>
+        <v>356</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D218" s="13">
         <v>1</v>
@@ -14779,7 +15329,7 @@
       <c r="K218" s="13"/>
       <c r="L218" s="13"/>
       <c r="M218" s="13" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N218" s="13"/>
       <c r="O218" s="22"/>
@@ -14804,10 +15354,10 @@
         <v>10105</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D219" s="15">
         <v>1</v>
@@ -14829,7 +15379,7 @@
       <c r="K219" s="15"/>
       <c r="L219" s="15"/>
       <c r="M219" s="15" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="N219" s="15"/>
       <c r="O219" s="23"/>
@@ -14854,10 +15404,10 @@
         <v>10106</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>307</v>
+        <v>358</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D220" s="13">
         <v>1</v>
@@ -14879,7 +15429,7 @@
       <c r="K220" s="13"/>
       <c r="L220" s="13"/>
       <c r="M220" s="13" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="N220" s="13"/>
       <c r="O220" s="22"/>
@@ -14904,10 +15454,10 @@
         <v>10107</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D221" s="15">
         <v>1</v>
@@ -14929,7 +15479,7 @@
       <c r="K221" s="15"/>
       <c r="L221" s="15"/>
       <c r="M221" s="15" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="N221" s="15"/>
       <c r="O221" s="23"/>
@@ -14954,10 +15504,10 @@
         <v>10108</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>307</v>
+        <v>360</v>
+      </c>
+      <c r="C222" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D222" s="13">
         <v>1</v>
@@ -14979,7 +15529,7 @@
       <c r="K222" s="13"/>
       <c r="L222" s="13"/>
       <c r="M222" s="13" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N222" s="13"/>
       <c r="O222" s="22"/>
@@ -15004,10 +15554,10 @@
         <v>10109</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D223" s="15">
         <v>1</v>
@@ -15029,7 +15579,7 @@
       <c r="K223" s="15"/>
       <c r="L223" s="15"/>
       <c r="M223" s="15" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="N223" s="15"/>
       <c r="O223" s="23"/>
@@ -15054,10 +15604,10 @@
         <v>10110</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C224" s="13" t="s">
-        <v>307</v>
+        <v>362</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D224" s="13">
         <v>1</v>
@@ -15079,7 +15629,7 @@
       <c r="K224" s="13"/>
       <c r="L224" s="13"/>
       <c r="M224" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N224" s="13"/>
       <c r="O224" s="22"/>
@@ -15104,10 +15654,10 @@
         <v>10111</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D225" s="15">
         <v>1</v>
@@ -15129,7 +15679,7 @@
       <c r="K225" s="15"/>
       <c r="L225" s="15"/>
       <c r="M225" s="15" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="N225" s="15"/>
       <c r="O225" s="23"/>
@@ -15154,10 +15704,10 @@
         <v>10112</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>307</v>
+        <v>364</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D226" s="13">
         <v>1</v>
@@ -15179,7 +15729,7 @@
       <c r="K226" s="13"/>
       <c r="L226" s="13"/>
       <c r="M226" s="13" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="N226" s="13"/>
       <c r="O226" s="22"/>
@@ -15204,10 +15754,10 @@
         <v>10113</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -15229,7 +15779,7 @@
       <c r="K227" s="15"/>
       <c r="L227" s="15"/>
       <c r="M227" s="15" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="N227" s="15"/>
       <c r="O227" s="23"/>
@@ -15254,10 +15804,10 @@
         <v>10114</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>307</v>
+        <v>366</v>
+      </c>
+      <c r="C228" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D228" s="13">
         <v>1</v>
@@ -15279,7 +15829,7 @@
       <c r="K228" s="13"/>
       <c r="L228" s="13"/>
       <c r="M228" s="13" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="N228" s="13"/>
       <c r="O228" s="22"/>
@@ -15304,10 +15854,10 @@
         <v>10115</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -15329,7 +15879,7 @@
       <c r="K229" s="15"/>
       <c r="L229" s="15"/>
       <c r="M229" s="15" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="N229" s="15"/>
       <c r="O229" s="23"/>
@@ -15354,10 +15904,10 @@
         <v>10116</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>307</v>
+        <v>368</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D230" s="13">
         <v>1</v>
@@ -15379,7 +15929,7 @@
       <c r="K230" s="13"/>
       <c r="L230" s="13"/>
       <c r="M230" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N230" s="13"/>
       <c r="O230" s="22"/>
@@ -15404,10 +15954,10 @@
         <v>10117</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D231" s="15">
         <v>1</v>
@@ -15429,7 +15979,7 @@
       <c r="K231" s="15"/>
       <c r="L231" s="15"/>
       <c r="M231" s="15" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N231" s="15"/>
       <c r="O231" s="23"/>
@@ -15454,10 +16004,10 @@
         <v>10118</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>307</v>
+        <v>370</v>
+      </c>
+      <c r="C232" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D232" s="13">
         <v>1</v>
@@ -15479,7 +16029,7 @@
       <c r="K232" s="13"/>
       <c r="L232" s="13"/>
       <c r="M232" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="N232" s="13"/>
       <c r="O232" s="22"/>
@@ -15504,10 +16054,10 @@
         <v>10201</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D233" s="15">
         <v>1</v>
@@ -15529,7 +16079,7 @@
       <c r="K233" s="15"/>
       <c r="L233" s="15"/>
       <c r="M233" s="15" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="N233" s="15"/>
       <c r="O233" s="23"/>
@@ -15554,10 +16104,10 @@
         <v>10202</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>307</v>
+        <v>372</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D234" s="13">
         <v>1</v>
@@ -15579,7 +16129,7 @@
       <c r="K234" s="13"/>
       <c r="L234" s="13"/>
       <c r="M234" s="13" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="N234" s="13"/>
       <c r="O234" s="22"/>
@@ -15604,10 +16154,10 @@
         <v>10203</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D235" s="15">
         <v>1</v>
@@ -15629,7 +16179,7 @@
       <c r="K235" s="15"/>
       <c r="L235" s="15"/>
       <c r="M235" s="15" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N235" s="15"/>
       <c r="O235" s="23"/>
@@ -15654,10 +16204,10 @@
         <v>10204</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>307</v>
+        <v>374</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D236" s="13">
         <v>1</v>
@@ -15679,7 +16229,7 @@
       <c r="K236" s="13"/>
       <c r="L236" s="13"/>
       <c r="M236" s="13" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N236" s="13"/>
       <c r="O236" s="22"/>
@@ -15704,10 +16254,10 @@
         <v>10205</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D237" s="15">
         <v>1</v>
@@ -15729,7 +16279,7 @@
       <c r="K237" s="15"/>
       <c r="L237" s="15"/>
       <c r="M237" s="15" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="N237" s="15"/>
       <c r="O237" s="23"/>
@@ -15754,10 +16304,10 @@
         <v>10206</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>307</v>
+        <v>376</v>
+      </c>
+      <c r="C238" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D238" s="13">
         <v>1</v>
@@ -15779,7 +16329,7 @@
       <c r="K238" s="13"/>
       <c r="L238" s="13"/>
       <c r="M238" s="13" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="N238" s="13"/>
       <c r="O238" s="22"/>
@@ -15804,10 +16354,10 @@
         <v>10207</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -15829,7 +16379,7 @@
       <c r="K239" s="15"/>
       <c r="L239" s="15"/>
       <c r="M239" s="15" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="N239" s="15"/>
       <c r="O239" s="23"/>
@@ -15854,10 +16404,10 @@
         <v>10208</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>307</v>
+        <v>378</v>
+      </c>
+      <c r="C240" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D240" s="13">
         <v>1</v>
@@ -15879,7 +16429,7 @@
       <c r="K240" s="13"/>
       <c r="L240" s="13"/>
       <c r="M240" s="13" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N240" s="13"/>
       <c r="O240" s="22"/>
@@ -15904,10 +16454,10 @@
         <v>10209</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D241" s="15">
         <v>1</v>
@@ -15929,7 +16479,7 @@
       <c r="K241" s="15"/>
       <c r="L241" s="15"/>
       <c r="M241" s="15" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="N241" s="15"/>
       <c r="O241" s="23"/>
@@ -15954,10 +16504,10 @@
         <v>10210</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>307</v>
+        <v>380</v>
+      </c>
+      <c r="C242" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D242" s="13">
         <v>1</v>
@@ -15979,7 +16529,7 @@
       <c r="K242" s="13"/>
       <c r="L242" s="13"/>
       <c r="M242" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N242" s="13"/>
       <c r="O242" s="22"/>
@@ -16004,10 +16554,10 @@
         <v>10211</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D243" s="15">
         <v>1</v>
@@ -16029,7 +16579,7 @@
       <c r="K243" s="15"/>
       <c r="L243" s="15"/>
       <c r="M243" s="15" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="N243" s="15"/>
       <c r="O243" s="23"/>
@@ -16054,10 +16604,10 @@
         <v>10212</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C244" s="13" t="s">
-        <v>307</v>
+        <v>382</v>
+      </c>
+      <c r="C244" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D244" s="13">
         <v>1</v>
@@ -16079,7 +16629,7 @@
       <c r="K244" s="13"/>
       <c r="L244" s="13"/>
       <c r="M244" s="13" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="N244" s="13"/>
       <c r="O244" s="22"/>
@@ -16104,10 +16654,10 @@
         <v>10213</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D245" s="15">
         <v>1</v>
@@ -16129,7 +16679,7 @@
       <c r="K245" s="15"/>
       <c r="L245" s="15"/>
       <c r="M245" s="15" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="N245" s="15"/>
       <c r="O245" s="23"/>
@@ -16154,10 +16704,10 @@
         <v>10214</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>307</v>
+        <v>384</v>
+      </c>
+      <c r="C246" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D246" s="13">
         <v>1</v>
@@ -16179,7 +16729,7 @@
       <c r="K246" s="13"/>
       <c r="L246" s="13"/>
       <c r="M246" s="13" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="N246" s="13"/>
       <c r="O246" s="22"/>
@@ -16204,10 +16754,10 @@
         <v>10215</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D247" s="15">
         <v>1</v>
@@ -16229,7 +16779,7 @@
       <c r="K247" s="15"/>
       <c r="L247" s="15"/>
       <c r="M247" s="15" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="N247" s="15"/>
       <c r="O247" s="23"/>
@@ -16254,10 +16804,10 @@
         <v>10216</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>307</v>
+        <v>386</v>
+      </c>
+      <c r="C248" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D248" s="13">
         <v>1</v>
@@ -16279,7 +16829,7 @@
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N248" s="13"/>
       <c r="O248" s="22"/>
@@ -16304,10 +16854,10 @@
         <v>10217</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D249" s="15">
         <v>1</v>
@@ -16329,7 +16879,7 @@
       <c r="K249" s="15"/>
       <c r="L249" s="15"/>
       <c r="M249" s="15" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N249" s="15"/>
       <c r="O249" s="23"/>
@@ -16354,10 +16904,10 @@
         <v>10218</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>307</v>
+        <v>388</v>
+      </c>
+      <c r="C250" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D250" s="13">
         <v>1</v>
@@ -16379,7 +16929,7 @@
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="N250" s="13"/>
       <c r="O250" s="22"/>
@@ -16404,10 +16954,10 @@
         <v>10301</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D251" s="15">
         <v>1</v>
@@ -16429,7 +16979,7 @@
       <c r="K251" s="15"/>
       <c r="L251" s="15"/>
       <c r="M251" s="15" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="N251" s="15"/>
       <c r="O251" s="23"/>
@@ -16454,10 +17004,10 @@
         <v>10302</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>307</v>
+        <v>390</v>
+      </c>
+      <c r="C252" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D252" s="13">
         <v>1</v>
@@ -16479,7 +17029,7 @@
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="N252" s="13"/>
       <c r="O252" s="22"/>
@@ -16504,10 +17054,10 @@
         <v>10303</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D253" s="15">
         <v>1</v>
@@ -16529,7 +17079,7 @@
       <c r="K253" s="15"/>
       <c r="L253" s="15"/>
       <c r="M253" s="15" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N253" s="15"/>
       <c r="O253" s="23"/>
@@ -16554,10 +17104,10 @@
         <v>10304</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C254" s="13" t="s">
-        <v>307</v>
+        <v>392</v>
+      </c>
+      <c r="C254" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D254" s="13">
         <v>1</v>
@@ -16579,7 +17129,7 @@
       <c r="K254" s="13"/>
       <c r="L254" s="13"/>
       <c r="M254" s="13" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N254" s="13"/>
       <c r="O254" s="22"/>
@@ -16604,10 +17154,10 @@
         <v>10305</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D255" s="15">
         <v>1</v>
@@ -16629,7 +17179,7 @@
       <c r="K255" s="15"/>
       <c r="L255" s="15"/>
       <c r="M255" s="15" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="N255" s="15"/>
       <c r="O255" s="23"/>
@@ -16654,10 +17204,10 @@
         <v>10306</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C256" s="13" t="s">
-        <v>307</v>
+        <v>394</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D256" s="13">
         <v>1</v>
@@ -16679,7 +17229,7 @@
       <c r="K256" s="13"/>
       <c r="L256" s="13"/>
       <c r="M256" s="13" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="N256" s="13"/>
       <c r="O256" s="22"/>
@@ -16704,10 +17254,10 @@
         <v>10307</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -16729,7 +17279,7 @@
       <c r="K257" s="15"/>
       <c r="L257" s="15"/>
       <c r="M257" s="15" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="N257" s="15"/>
       <c r="O257" s="23"/>
@@ -16754,10 +17304,10 @@
         <v>10308</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>307</v>
+        <v>396</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D258" s="13">
         <v>1</v>
@@ -16779,7 +17329,7 @@
       <c r="K258" s="13"/>
       <c r="L258" s="13"/>
       <c r="M258" s="13" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N258" s="13"/>
       <c r="O258" s="22"/>
@@ -16804,10 +17354,10 @@
         <v>10309</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -16829,7 +17379,7 @@
       <c r="K259" s="15"/>
       <c r="L259" s="15"/>
       <c r="M259" s="15" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="N259" s="15"/>
       <c r="O259" s="23"/>
@@ -16854,10 +17404,10 @@
         <v>10310</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>307</v>
+        <v>398</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D260" s="13">
         <v>1</v>
@@ -16879,7 +17429,7 @@
       <c r="K260" s="13"/>
       <c r="L260" s="13"/>
       <c r="M260" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N260" s="13"/>
       <c r="O260" s="22"/>
@@ -16904,10 +17454,10 @@
         <v>10311</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -16929,7 +17479,7 @@
       <c r="K261" s="15"/>
       <c r="L261" s="15"/>
       <c r="M261" s="15" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="N261" s="15"/>
       <c r="O261" s="23"/>
@@ -16954,10 +17504,10 @@
         <v>10312</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>307</v>
+        <v>400</v>
+      </c>
+      <c r="C262" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D262" s="13">
         <v>1</v>
@@ -16979,7 +17529,7 @@
       <c r="K262" s="13"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="N262" s="13"/>
       <c r="O262" s="22"/>
@@ -17004,10 +17554,10 @@
         <v>10313</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -17029,7 +17579,7 @@
       <c r="K263" s="15"/>
       <c r="L263" s="15"/>
       <c r="M263" s="15" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="N263" s="15"/>
       <c r="O263" s="23"/>
@@ -17054,10 +17604,10 @@
         <v>10314</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>307</v>
+        <v>402</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D264" s="13">
         <v>1</v>
@@ -17079,7 +17629,7 @@
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="N264" s="13"/>
       <c r="O264" s="22"/>
@@ -17104,10 +17654,10 @@
         <v>10315</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -17129,7 +17679,7 @@
       <c r="K265" s="15"/>
       <c r="L265" s="15"/>
       <c r="M265" s="15" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="N265" s="15"/>
       <c r="O265" s="23"/>
@@ -17154,10 +17704,10 @@
         <v>10316</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>307</v>
+        <v>404</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D266" s="13">
         <v>1</v>
@@ -17179,7 +17729,7 @@
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N266" s="13"/>
       <c r="O266" s="22"/>
@@ -17204,10 +17754,10 @@
         <v>10317</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D267" s="15">
         <v>1</v>
@@ -17229,7 +17779,7 @@
       <c r="K267" s="15"/>
       <c r="L267" s="15"/>
       <c r="M267" s="15" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N267" s="15"/>
       <c r="O267" s="23"/>
@@ -17254,10 +17804,10 @@
         <v>10318</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="C268" s="13" t="s">
-        <v>307</v>
+        <v>406</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="D268" s="13">
         <v>1</v>
@@ -17279,7 +17829,7 @@
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="N268" s="13"/>
       <c r="O268" s="22"/>
@@ -17299,14 +17849,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" ht="17.25" customHeight="1" spans="1:29">
+    <row r="269" ht="66.75" spans="1:29">
       <c r="A269" s="15">
         <v>20000</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C269" s="15"/>
+        <v>407</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>408</v>
+      </c>
       <c r="D269" s="15">
         <v>1</v>
       </c>
@@ -17327,7 +17879,7 @@
       <c r="K269" s="15"/>
       <c r="L269" s="15"/>
       <c r="M269" s="15" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="N269" s="15"/>
       <c r="O269" s="23"/>
@@ -17347,15 +17899,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" ht="17.25" customHeight="1" spans="1:29">
+    <row r="270" ht="66.75" spans="1:29">
       <c r="A270" s="13">
         <v>20001</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D270" s="13">
         <v>1</v>
@@ -17377,7 +17929,7 @@
       <c r="K270" s="13"/>
       <c r="L270" s="13"/>
       <c r="M270" s="13" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="N270" s="13"/>
       <c r="O270" s="22"/>
@@ -17402,10 +17954,10 @@
         <v>20002</v>
       </c>
       <c r="B271" s="28" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D271" s="28">
         <v>1</v>
@@ -17423,7 +17975,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J271" s="28"/>
       <c r="K271" s="28"/>
@@ -17449,15 +18001,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" ht="17.25" customHeight="1" spans="1:29">
+    <row r="272" ht="116.25" spans="1:29">
       <c r="A272" s="13">
         <v>20003</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="D272" s="13">
         <v>1</v>
@@ -17475,7 +18027,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J272" s="13"/>
       <c r="K272" s="13"/>
@@ -17501,15 +18053,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" ht="17.25" customHeight="1" spans="1:29">
+    <row r="273" ht="99.75" spans="1:29">
       <c r="A273" s="15">
         <v>20004</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -17527,13 +18079,13 @@
         <v>1</v>
       </c>
       <c r="I273" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J273" s="15"/>
       <c r="K273" s="15"/>
       <c r="L273" s="15"/>
       <c r="M273" s="15" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="N273" s="15"/>
       <c r="O273" s="23"/>
@@ -17553,15 +18105,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" ht="17.25" customHeight="1" spans="1:29">
+    <row r="274" ht="99.75" spans="1:29">
       <c r="A274" s="13">
         <v>20005</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D274" s="13">
         <v>1</v>
@@ -17579,13 +18131,13 @@
         <v>1</v>
       </c>
       <c r="I274" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J274" s="13"/>
       <c r="K274" s="13"/>
       <c r="L274" s="13"/>
       <c r="M274" s="13" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="N274" s="13"/>
       <c r="O274" s="22"/>
@@ -17610,10 +18162,10 @@
         <v>20006</v>
       </c>
       <c r="B275" s="30" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="C275" s="30" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D275" s="30">
         <v>1</v>
@@ -17631,7 +18183,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="30" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J275" s="30"/>
       <c r="K275" s="30"/>
@@ -17657,15 +18209,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" ht="17.25" spans="1:29">
+    <row r="276" ht="66.75" spans="1:29">
       <c r="A276" s="13">
         <v>20007</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="D276" s="13">
         <v>1</v>
@@ -17683,13 +18235,13 @@
         <v>1</v>
       </c>
       <c r="I276" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J276" s="13"/>
       <c r="K276" s="13"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="N276" s="13"/>
       <c r="O276" s="22"/>
@@ -17714,10 +18266,10 @@
         <v>20008</v>
       </c>
       <c r="B277" s="30" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="C277" s="30" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D277" s="30">
         <v>1</v>
@@ -17735,7 +18287,7 @@
         <v>1</v>
       </c>
       <c r="I277" s="30" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J277" s="30"/>
       <c r="K277" s="30"/>
@@ -17761,15 +18313,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" ht="17.25" customHeight="1" spans="1:29">
+    <row r="278" ht="66.75" spans="1:29">
       <c r="A278" s="13">
         <v>20009</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="D278" s="13">
         <v>1</v>
@@ -17787,13 +18339,13 @@
         <v>1</v>
       </c>
       <c r="I278" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J278" s="13"/>
       <c r="K278" s="13"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="N278" s="13"/>
       <c r="O278" s="22"/>
@@ -17813,15 +18365,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" ht="17.25" customHeight="1" spans="1:29">
+    <row r="279" ht="149.25" spans="1:29">
       <c r="A279" s="15">
         <v>20010</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -17839,13 +18391,13 @@
         <v>1</v>
       </c>
       <c r="I279" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J279" s="15"/>
       <c r="K279" s="15"/>
       <c r="L279" s="15"/>
       <c r="M279" s="15" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="N279" s="15"/>
       <c r="O279" s="23"/>
@@ -17865,15 +18417,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" ht="17.25" customHeight="1" spans="1:29">
+    <row r="280" ht="149.25" spans="1:29">
       <c r="A280" s="15">
         <v>20011</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="D280" s="15">
         <v>1</v>
@@ -17891,13 +18443,13 @@
         <v>1</v>
       </c>
       <c r="I280" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J280" s="13"/>
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
       <c r="M280" s="15" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="N280" s="13"/>
       <c r="O280" s="22"/>
@@ -17917,15 +18469,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" ht="17.25" customHeight="1" spans="1:29">
+    <row r="281" ht="149.25" spans="1:29">
       <c r="A281" s="15">
         <v>20012</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="D281" s="13">
         <v>1</v>
@@ -17943,13 +18495,13 @@
         <v>1</v>
       </c>
       <c r="I281" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J281" s="13"/>
       <c r="K281" s="13"/>
       <c r="L281" s="13"/>
       <c r="M281" s="15" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="N281" s="13"/>
       <c r="O281" s="23"/>
@@ -17969,15 +18521,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" ht="17.25" customHeight="1" spans="1:29">
+    <row r="282" ht="149.25" spans="1:29">
       <c r="A282" s="15">
         <v>20013</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="D282" s="15">
         <v>1</v>
@@ -17995,13 +18547,13 @@
         <v>1</v>
       </c>
       <c r="I282" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J282" s="13"/>
       <c r="K282" s="13"/>
       <c r="L282" s="13"/>
       <c r="M282" s="15" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="N282" s="13"/>
       <c r="O282" s="22"/>
@@ -18026,10 +18578,10 @@
         <v>20014</v>
       </c>
       <c r="B283" s="32" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="C283" s="30" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D283" s="30">
         <v>1</v>
@@ -18047,7 +18599,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="30" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J283" s="32"/>
       <c r="K283" s="32"/>
@@ -18078,10 +18630,10 @@
         <v>20015</v>
       </c>
       <c r="B284" s="32" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D284" s="32">
         <v>1</v>
@@ -18099,7 +18651,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="30" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J284" s="32"/>
       <c r="K284" s="32"/>
@@ -18130,10 +18682,10 @@
         <v>20016</v>
       </c>
       <c r="B285" s="32" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D285" s="30">
         <v>1</v>
@@ -18151,7 +18703,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J285" s="32"/>
       <c r="K285" s="32"/>
@@ -18177,15 +18729,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" ht="17.25" customHeight="1" spans="1:29">
+    <row r="286" ht="132.75" spans="1:29">
       <c r="A286" s="15">
         <v>20017</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="D286" s="15">
         <v>1</v>
@@ -18203,13 +18755,13 @@
         <v>1</v>
       </c>
       <c r="I286" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J286" s="13"/>
       <c r="K286" s="13"/>
       <c r="L286" s="13"/>
       <c r="M286" s="15" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="N286" s="13"/>
       <c r="O286" s="22"/>
@@ -18229,15 +18781,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" ht="17.25" customHeight="1" spans="1:29">
+    <row r="287" ht="132.75" spans="1:29">
       <c r="A287" s="15">
         <v>20018</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="D287" s="13">
         <v>1</v>
@@ -18255,13 +18807,13 @@
         <v>1</v>
       </c>
       <c r="I287" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J287" s="13"/>
       <c r="K287" s="13"/>
       <c r="L287" s="13"/>
       <c r="M287" s="15" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="N287" s="13"/>
       <c r="O287" s="23"/>
@@ -18281,15 +18833,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" ht="17.25" customHeight="1" spans="1:29">
+    <row r="288" ht="132.75" spans="1:29">
       <c r="A288" s="15">
         <v>20019</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="D288" s="15">
         <v>1</v>
@@ -18307,13 +18859,13 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J288" s="13"/>
       <c r="K288" s="13"/>
       <c r="L288" s="13"/>
       <c r="M288" s="15" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="N288" s="13"/>
       <c r="O288" s="22"/>
@@ -18333,15 +18885,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" ht="17.25" customHeight="1" spans="1:29">
+    <row r="289" ht="100.5" spans="1:29">
       <c r="A289" s="15">
         <v>20020</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="C289" s="35" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="D289" s="13">
         <v>1</v>
@@ -18359,13 +18911,13 @@
         <v>1</v>
       </c>
       <c r="I289" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J289" s="13"/>
       <c r="K289" s="13"/>
       <c r="L289" s="13"/>
       <c r="M289" s="15" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="N289" s="13"/>
       <c r="O289" s="23"/>
@@ -18385,15 +18937,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" ht="17.25" customHeight="1" spans="1:29">
+    <row r="290" ht="100.5" spans="1:29">
       <c r="A290" s="15">
         <v>20021</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C290" s="35" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="D290" s="15">
         <v>1</v>
@@ -18411,13 +18963,13 @@
         <v>1</v>
       </c>
       <c r="I290" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J290" s="13"/>
       <c r="K290" s="13"/>
       <c r="L290" s="13"/>
       <c r="M290" s="15" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="N290" s="13"/>
       <c r="O290" s="22"/>
@@ -18437,15 +18989,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" ht="17.25" customHeight="1" spans="1:29">
+    <row r="291" ht="100.5" spans="1:29">
       <c r="A291" s="15">
         <v>20022</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="C291" s="35" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="D291" s="15">
         <v>1</v>
@@ -18463,13 +19015,13 @@
         <v>1</v>
       </c>
       <c r="I291" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J291" s="13"/>
       <c r="K291" s="13"/>
       <c r="L291" s="13"/>
       <c r="M291" s="15" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="N291" s="13"/>
       <c r="O291" s="23"/>
@@ -18489,15 +19041,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" customFormat="1" ht="17.25" spans="1:29">
+    <row r="292" customFormat="1" ht="143.25" spans="1:29">
       <c r="A292" s="15">
         <v>20023</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="C292" s="35" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="D292" s="13">
         <v>1</v>
@@ -18515,13 +19067,13 @@
         <v>1</v>
       </c>
       <c r="I292" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J292" s="13"/>
       <c r="K292" s="13"/>
       <c r="L292" s="13"/>
       <c r="M292" s="15" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="N292" s="13"/>
       <c r="O292" s="22"/>
@@ -18541,15 +19093,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" ht="17.25" customHeight="1" spans="1:29">
+    <row r="293" ht="143.25" spans="1:29">
       <c r="A293" s="15">
         <v>20024</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="C293" s="35" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="D293" s="15">
         <v>1</v>
@@ -18567,28 +19119,28 @@
         <v>1</v>
       </c>
       <c r="I293" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J293" s="13"/>
       <c r="K293" s="13"/>
       <c r="L293" s="13"/>
       <c r="M293" s="15" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="N293" s="13"/>
       <c r="AC293" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="294" ht="17.25" customHeight="1" spans="1:29">
+    <row r="294" ht="143.25" spans="1:29">
       <c r="A294" s="15">
         <v>20025</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C294" s="35" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="D294" s="15">
         <v>1</v>
@@ -18606,28 +19158,28 @@
         <v>1</v>
       </c>
       <c r="I294" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J294" s="13"/>
       <c r="K294" s="13"/>
       <c r="L294" s="13"/>
       <c r="M294" s="15" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="N294" s="13"/>
       <c r="AC294" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="295" ht="17.25" customHeight="1" spans="1:29">
+    <row r="295" ht="114.75" spans="1:29">
       <c r="A295" s="15">
         <v>20026</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C295" s="35" t="s">
-        <v>399</v>
+        <v>471</v>
       </c>
       <c r="D295" s="13">
         <v>1</v>
@@ -18645,28 +19197,28 @@
         <v>1</v>
       </c>
       <c r="I295" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J295" s="13"/>
       <c r="K295" s="13"/>
       <c r="L295" s="13"/>
       <c r="M295" s="15" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="N295" s="13"/>
       <c r="AC295" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="296" ht="17.25" customHeight="1" spans="1:29">
+    <row r="296" ht="114.75" spans="1:29">
       <c r="A296" s="15">
         <v>20027</v>
       </c>
       <c r="B296" s="34" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C296" s="35" t="s">
-        <v>399</v>
+        <v>471</v>
       </c>
       <c r="D296" s="15">
         <v>1</v>
@@ -18684,28 +19236,28 @@
         <v>1</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J296" s="13"/>
       <c r="K296" s="13"/>
       <c r="L296" s="13"/>
       <c r="M296" s="15" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="N296" s="13"/>
       <c r="AC296" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="297" ht="17.25" customHeight="1" spans="1:29">
+    <row r="297" ht="114.75" spans="1:29">
       <c r="A297" s="15">
         <v>20028</v>
       </c>
       <c r="B297" s="34" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C297" s="35" t="s">
-        <v>399</v>
+        <v>476</v>
       </c>
       <c r="D297" s="15">
         <v>1</v>
@@ -18723,28 +19275,28 @@
         <v>1</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J297" s="13"/>
       <c r="K297" s="13"/>
       <c r="L297" s="13"/>
       <c r="M297" s="15" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="N297" s="13"/>
       <c r="AC297" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="298" ht="17.25" customHeight="1" spans="1:29">
+    <row r="298" ht="83.25" spans="1:29">
       <c r="A298" s="13">
         <v>20029</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="D298" s="15">
         <v>1</v>
@@ -18762,7 +19314,7 @@
         <v>1</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J298" s="13"/>
       <c r="K298" s="13"/>
@@ -18780,10 +19332,10 @@
         <v>20101</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="D299" s="13">
         <v>1</v>
@@ -18801,7 +19353,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J299" s="13"/>
       <c r="K299" s="13"/>
@@ -18819,10 +19371,10 @@
         <v>20102</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C300" s="15" t="s">
-        <v>451</v>
+        <v>482</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>483</v>
       </c>
       <c r="D300" s="15">
         <v>1</v>
@@ -18840,7 +19392,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J300" s="15"/>
       <c r="K300" s="15"/>
@@ -18858,10 +19410,10 @@
         <v>20103</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="D301" s="13">
         <v>1</v>
@@ -18879,7 +19431,7 @@
         <v>1</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J301" s="13"/>
       <c r="K301" s="13"/>
@@ -18892,15 +19444,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" ht="17.25" customHeight="1" spans="1:29">
+    <row r="302" ht="17.25" spans="1:29">
       <c r="A302" s="15">
         <v>20104</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="C302" s="15" t="s">
-        <v>451</v>
+        <v>486</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>487</v>
       </c>
       <c r="D302" s="15">
         <v>1</v>
@@ -18918,7 +19470,7 @@
         <v>1</v>
       </c>
       <c r="I302" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J302" s="15"/>
       <c r="K302" s="15"/>
@@ -18931,15 +19483,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" ht="17.25" customHeight="1" spans="1:29">
+    <row r="303" ht="33.75" spans="1:29">
       <c r="A303" s="13">
         <v>20105</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="D303" s="13">
         <v>1</v>
@@ -18957,7 +19509,7 @@
         <v>1</v>
       </c>
       <c r="I303" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J303" s="13"/>
       <c r="K303" s="13"/>
@@ -18970,15 +19522,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" ht="17.25" customHeight="1" spans="1:29">
+    <row r="304" ht="66.75" spans="1:29">
       <c r="A304" s="15">
         <v>20106</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C304" s="15" t="s">
-        <v>451</v>
+        <v>490</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>491</v>
       </c>
       <c r="D304" s="15">
         <v>1</v>
@@ -18996,7 +19548,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
@@ -19014,10 +19566,10 @@
         <v>20107</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="D305" s="13">
         <v>1</v>
@@ -19035,7 +19587,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J305" s="13"/>
       <c r="K305" s="13"/>
@@ -19053,10 +19605,10 @@
         <v>20108</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>451</v>
+        <v>252</v>
+      </c>
+      <c r="C306" s="13" t="s">
+        <v>494</v>
       </c>
       <c r="D306" s="15">
         <v>1</v>
@@ -19074,7 +19626,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
@@ -19092,10 +19644,10 @@
         <v>20109</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="D307" s="13">
         <v>1</v>
@@ -19113,7 +19665,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J307" s="13"/>
       <c r="K307" s="13"/>
@@ -19131,10 +19683,10 @@
         <v>20110</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="C308" s="15" t="s">
-        <v>451</v>
+        <v>496</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>497</v>
       </c>
       <c r="D308" s="15">
         <v>1</v>
@@ -19152,7 +19704,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J308" s="15"/>
       <c r="K308" s="15"/>
@@ -19170,10 +19722,10 @@
         <v>20111</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="D309" s="13">
         <v>1</v>
@@ -19191,7 +19743,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="15" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J309" s="13"/>
       <c r="K309" s="13"/>
@@ -19209,10 +19761,10 @@
         <v>20201</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="D310" s="15">
         <v>1</v>
@@ -19246,10 +19798,10 @@
         <v>20202</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="D311" s="13">
         <v>1</v>
@@ -19283,10 +19835,10 @@
         <v>20203</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="D312" s="15">
         <v>1</v>
@@ -19320,10 +19872,10 @@
         <v>20204</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="D313" s="13">
         <v>1</v>
@@ -19357,10 +19909,10 @@
         <v>20205</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="D314" s="15">
         <v>1</v>
@@ -19394,10 +19946,10 @@
         <v>20206</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="D315" s="13">
         <v>1</v>
@@ -19431,10 +19983,10 @@
         <v>20207</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="D316" s="15">
         <v>1</v>
@@ -19468,10 +20020,10 @@
         <v>20208</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="D317" s="13">
         <v>1</v>
@@ -19505,10 +20057,10 @@
         <v>20209</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="D318" s="15">
         <v>1</v>
@@ -19542,10 +20094,10 @@
         <v>20210</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="D319" s="13">
         <v>1</v>
@@ -19574,15 +20126,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" ht="17.25" spans="1:29">
+    <row r="320" ht="33.75" spans="1:29">
       <c r="A320" s="15">
         <v>21001</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="D320" s="15">
         <v>1</v>
@@ -19600,7 +20152,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
@@ -19618,10 +20170,10 @@
         <v>21002</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="D321" s="13">
         <v>1</v>
@@ -19639,7 +20191,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="13" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="J321" s="13"/>
       <c r="K321" s="13"/>
@@ -19652,15 +20204,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" ht="17.25" spans="1:29">
+    <row r="322" ht="33.75" spans="1:29">
       <c r="A322" s="15">
         <v>21003</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="D322" s="15">
         <v>1</v>
@@ -19678,7 +20230,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
@@ -19691,15 +20243,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" ht="17.25" spans="1:29">
+    <row r="323" ht="33.75" spans="1:29">
       <c r="A323" s="13">
         <v>21004</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="D323" s="13">
         <v>1</v>
@@ -19717,7 +20269,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="J323" s="13"/>
       <c r="K323" s="13"/>
@@ -19730,15 +20282,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" ht="17.25" spans="1:29">
+    <row r="324" ht="33.75" spans="1:29">
       <c r="A324" s="15">
         <v>21005</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="D324" s="15">
         <v>1</v>
@@ -19756,7 +20308,7 @@
         <v>1</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="J324" s="15"/>
       <c r="K324" s="15"/>
@@ -19769,15 +20321,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" ht="17.25" spans="1:29">
+    <row r="325" ht="33.75" spans="1:29">
       <c r="A325" s="13">
         <v>21006</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="D325" s="13">
         <v>1</v>
@@ -19795,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="J325" s="13"/>
       <c r="K325" s="13"/>
@@ -19813,10 +20365,10 @@
         <v>21007</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="C326" s="15" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="D326" s="15">
         <v>1</v>
@@ -19834,7 +20386,7 @@
         <v>1</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="J326" s="15"/>
       <c r="K326" s="15"/>
@@ -19852,10 +20404,10 @@
         <v>21101</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="D327" s="13">
         <v>1</v>
@@ -19873,7 +20425,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J327" s="13"/>
       <c r="K327" s="13"/>
@@ -19891,10 +20443,10 @@
         <v>21102</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="C328" s="15" t="s">
-        <v>476</v>
+        <v>533</v>
+      </c>
+      <c r="C328" s="13" t="s">
+        <v>534</v>
       </c>
       <c r="D328" s="15">
         <v>1</v>
@@ -19912,7 +20464,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
@@ -19930,10 +20482,10 @@
         <v>21103</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="D329" s="13">
         <v>1</v>
@@ -19951,7 +20503,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J329" s="13"/>
       <c r="K329" s="13"/>
@@ -19969,10 +20521,10 @@
         <v>21104</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="C330" s="15" t="s">
-        <v>476</v>
+        <v>537</v>
+      </c>
+      <c r="C330" s="13" t="s">
+        <v>538</v>
       </c>
       <c r="D330" s="15">
         <v>1</v>
@@ -19990,7 +20542,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
@@ -20008,10 +20560,10 @@
         <v>21105</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="D331" s="13">
         <v>1</v>
@@ -20029,7 +20581,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J331" s="13"/>
       <c r="K331" s="13"/>
@@ -20047,10 +20599,10 @@
         <v>21106</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="C332" s="15" t="s">
-        <v>476</v>
+        <v>541</v>
+      </c>
+      <c r="C332" s="13" t="s">
+        <v>542</v>
       </c>
       <c r="D332" s="15">
         <v>1</v>
@@ -20068,7 +20620,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
@@ -20086,10 +20638,10 @@
         <v>21107</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="D333" s="13">
         <v>1</v>
@@ -20107,7 +20659,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="13" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J333" s="13"/>
       <c r="K333" s="13"/>
@@ -20125,10 +20677,10 @@
         <v>21108</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="C334" s="15" t="s">
-        <v>476</v>
+        <v>545</v>
+      </c>
+      <c r="C334" s="13" t="s">
+        <v>546</v>
       </c>
       <c r="D334" s="15">
         <v>1</v>
@@ -20146,7 +20698,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
@@ -20164,10 +20716,10 @@
         <v>21109</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="D335" s="13">
         <v>1</v>
@@ -20185,7 +20737,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J335" s="13"/>
       <c r="K335" s="13"/>
@@ -20203,10 +20755,10 @@
         <v>21110</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="C336" s="15" t="s">
-        <v>476</v>
+        <v>549</v>
+      </c>
+      <c r="C336" s="13" t="s">
+        <v>550</v>
       </c>
       <c r="D336" s="15">
         <v>1</v>
@@ -20224,7 +20776,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J336" s="15"/>
       <c r="K336" s="15"/>
@@ -20242,10 +20794,10 @@
         <v>21111</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="D337" s="13">
         <v>1</v>
@@ -20263,7 +20815,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="13" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J337" s="13"/>
       <c r="K337" s="13"/>
@@ -20281,10 +20833,10 @@
         <v>21112</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="C338" s="15" t="s">
-        <v>476</v>
+        <v>553</v>
+      </c>
+      <c r="C338" s="13" t="s">
+        <v>554</v>
       </c>
       <c r="D338" s="15">
         <v>1</v>
@@ -20302,7 +20854,7 @@
         <v>1</v>
       </c>
       <c r="I338" s="15" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
@@ -20320,10 +20872,10 @@
         <v>100001</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="D339" s="13">
         <v>1</v>
@@ -20357,7 +20909,7 @@
         <v>100002</v>
       </c>
       <c r="B340" s="36" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="C340" s="36"/>
       <c r="D340" s="36">
@@ -20376,7 +20928,7 @@
         <v>1</v>
       </c>
       <c r="I340" s="36" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="J340" s="36"/>
       <c r="K340" s="36"/>
@@ -20392,7 +20944,7 @@
         <v>100003</v>
       </c>
       <c r="B341" s="36" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="C341" s="36"/>
       <c r="D341" s="36">
@@ -20411,7 +20963,7 @@
         <v>1</v>
       </c>
       <c r="I341" s="36" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="J341" s="36"/>
       <c r="K341" s="36"/>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="569">
   <si>
     <t>物品引索</t>
   </si>
@@ -143,7 +143,7 @@
     <t>充值货币</t>
   </si>
   <si>
-    <t>item_server/铂金币</t>
+    <t>item_server/1001_铂金币</t>
   </si>
   <si>
     <t>积分</t>
@@ -161,7 +161,7 @@
     <t>1_1000,2_100</t>
   </si>
   <si>
-    <t>item_server/白银币</t>
+    <t>item_server/1003_白银币</t>
   </si>
   <si>
     <t>地图经验</t>
@@ -176,7 +176,7 @@
     <t>货真价实的钻石！存档货币的一种，可以购买好多好东西哦！</t>
   </si>
   <si>
-    <t>item_server/钻石币</t>
+    <t>item_server/1005_钻石币</t>
   </si>
   <si>
     <t>货币B</t>
@@ -209,18 +209,24 @@
     <t>提高强化概率的卷轴</t>
   </si>
   <si>
-    <t>item_server/temp5</t>
+    <t>item_server/1202_强化保护卷</t>
   </si>
   <si>
     <t>高级强化保护卷</t>
   </si>
   <si>
+    <t>item_server/1203_高级强化保护卷</t>
+  </si>
+  <si>
     <t>强化转移卷</t>
   </si>
   <si>
     <t>转移强化等级的卷轴</t>
   </si>
   <si>
+    <t>item_server/1204_强化转移卷轴</t>
+  </si>
+  <si>
     <t>吸附石(吸附前)</t>
   </si>
   <si>
@@ -233,13 +239,16 @@
     <t>元素祈福的卷轴，是最重要的材料之一！</t>
   </si>
   <si>
+    <t>item_server/1207_祈福卷轴</t>
+  </si>
+  <si>
     <t>1级魂石降级卷</t>
   </si>
   <si>
     <t>用于降低1级魂石等级的卷轴</t>
   </si>
   <si>
-    <t>item_server/1级魂石降级卷</t>
+    <t>item_server/1279_1级魂石降级卷</t>
   </si>
   <si>
     <t>2级魂石降级卷</t>
@@ -248,7 +257,7 @@
     <t>用于降低2级魂石等级的卷轴</t>
   </si>
   <si>
-    <t>item_server/2级魂石降级卷</t>
+    <t>item_server/1280_2级魂石降级卷</t>
   </si>
   <si>
     <t>3级魂石降级卷</t>
@@ -257,7 +266,7 @@
     <t>用于降低3级魂石等级的卷轴</t>
   </si>
   <si>
-    <t>item_server/3级魂石降级卷</t>
+    <t>item_server/1282_3级魂石降级卷</t>
   </si>
   <si>
     <t>4级魂石降级卷</t>
@@ -266,7 +275,7 @@
     <t>用于降低4级魂石等级的卷轴</t>
   </si>
   <si>
-    <t>item_server/4级魂石降级卷</t>
+    <t>item_server/1282_4级魂石降级卷</t>
   </si>
   <si>
     <t>低级魂石升级保护卷</t>
@@ -275,7 +284,7 @@
     <t>在升级魂石时添加使用，可以增加魂石升级5%的概率</t>
   </si>
   <si>
-    <t>item_server/低级魂石升级保护卷</t>
+    <t>item_server/1283_低级魂石升级保护卷</t>
   </si>
   <si>
     <t>中级魂石升级保护卷</t>
@@ -284,25 +293,19 @@
     <t>在升级魂石时添加使用，可以增加魂石升级10%的概率</t>
   </si>
   <si>
-    <t>item_server/强化保护卷</t>
-  </si>
-  <si>
     <t>高级魂石升级保护卷</t>
   </si>
   <si>
     <t>在升级魂石时添加使用，可以增加魂石升级15%的概率</t>
   </si>
   <si>
-    <t>item_server/高级强化保护卷</t>
-  </si>
-  <si>
     <t>魂石转移卷</t>
   </si>
   <si>
     <t>转移魂石等级的卷轴</t>
   </si>
   <si>
-    <t>item_server/魂石转移卷</t>
+    <t>item_server/1286_魂石转移卷</t>
   </si>
   <si>
     <t>1级魂石兑换券</t>
@@ -803,7 +806,7 @@
     <t>可以开出一张随机精良级（C级）卡片</t>
   </si>
   <si>
-    <t>item_server/精良图鉴箱</t>
+    <t>item_server/3501_精良图鉴箱</t>
   </si>
   <si>
     <t>史诗图鉴箱</t>
@@ -812,7 +815,7 @@
     <t>可以开出一张随机史诗级（B级）卡片</t>
   </si>
   <si>
-    <t>item_server/史诗图鉴箱</t>
+    <t>item_server/3502_史诗图鉴箱</t>
   </si>
   <si>
     <t>传说图鉴箱</t>
@@ -821,7 +824,7 @@
     <t>可以开出一张随机传说级（A级）卡片</t>
   </si>
   <si>
-    <t>item_server/传说图鉴箱</t>
+    <t>item_server/3503_传说图鉴箱</t>
   </si>
   <si>
     <t>元素大陆的图鉴箱</t>
@@ -830,7 +833,7 @@
     <t>可以随机开出一张地图·元素大陆出现的所有怪物的卡片</t>
   </si>
   <si>
-    <t>item_server/元素大陆图鉴箱</t>
+    <t>item_server/3504_元素大陆图鉴箱</t>
   </si>
   <si>
     <t>熔火炼狱的图鉴箱</t>
@@ -839,7 +842,7 @@
     <t>可以随机开出一张地图·熔火炼狱出现的所有怪物的卡片</t>
   </si>
   <si>
-    <t>item_server/熔火炼狱的图鉴箱</t>
+    <t>item_server/3505_熔火炼狱的图鉴箱</t>
   </si>
   <si>
     <t>极北之地的图鉴箱</t>
@@ -848,7 +851,7 @@
     <t>可以随机开出一张地图·极北之地出现的所有怪物的卡片</t>
   </si>
   <si>
-    <t>item_server/极北之地图鉴箱</t>
+    <t>item_server/3506_极北之地图鉴箱</t>
   </si>
   <si>
     <t>狂风沙漠的图鉴箱</t>
@@ -857,7 +860,7 @@
     <t>可以随机开出一张地图·狂风沙漠出现的所有怪物的卡片</t>
   </si>
   <si>
-    <t>item_server/狂风沙漠的图鉴箱</t>
+    <t>item_server/3507_狂风沙漠的图鉴箱</t>
   </si>
   <si>
     <t>雷霆之地的图鉴箱</t>
@@ -866,7 +869,7 @@
     <t>可以随机开出一张地图·雷霆之地出现的所有怪物的卡片</t>
   </si>
   <si>
-    <t>item_server/雷霆之地的图鉴箱</t>
+    <t>item_server/3508_雷霆之地的图鉴箱</t>
   </si>
   <si>
     <t>熔火炼狱的史诗图鉴图鉴箱</t>
@@ -875,7 +878,7 @@
     <t>可以随机开出一张地图·熔火炼狱出现的史诗级（B级）卡片</t>
   </si>
   <si>
-    <t>item_server/熔火炼狱的史诗图鉴箱</t>
+    <t>item_server/3509_熔火炼狱的史诗图鉴箱</t>
   </si>
   <si>
     <t>极北之地的史诗图鉴图鉴箱</t>
@@ -926,7 +929,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张精良图鉴</t>
   </si>
   <si>
-    <t>item_server/精良图鉴箱-2</t>
+    <t>item_server/3517_精良图鉴箱</t>
   </si>
   <si>
     <t>史诗图鉴兑换券</t>
@@ -935,7 +938,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张史诗图鉴</t>
   </si>
   <si>
-    <t>item_server/史诗图鉴箱(自选)</t>
+    <t>item_server/3518_史诗图鉴箱</t>
   </si>
   <si>
     <t>传说图鉴兑换券</t>
@@ -944,7 +947,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张传说图鉴</t>
   </si>
   <si>
-    <t>item_server/传说图鉴箱(自选)</t>
+    <t>item_server/3519_传说图鉴箱</t>
   </si>
   <si>
     <t>不朽图鉴兑换券</t>
@@ -953,7 +956,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张不朽图鉴</t>
   </si>
   <si>
-    <t>item_server/不朽图鉴箱(自选)1</t>
+    <t>item_server/3520_不朽图鉴箱</t>
   </si>
   <si>
     <t>熔火炼狱的图鉴兑换券</t>
@@ -962,28 +965,43 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张熔火炼狱的图鉴</t>
   </si>
   <si>
+    <t>item_server/3521_熔火炼狱的图鉴箱</t>
+  </si>
+  <si>
     <t>极北之地的图鉴兑换券</t>
   </si>
   <si>
     <t>可以去商城【图鉴兑换】里面去兑换任意一张极北之地的图鉴</t>
   </si>
   <si>
+    <t>item_server/3522_极北之地的图鉴箱</t>
+  </si>
+  <si>
     <t>狂风沙漠的图鉴兑换券</t>
   </si>
   <si>
     <t>可以去商城【图鉴兑换】里面去兑换任意一张狂风沙漠的图鉴</t>
   </si>
   <si>
+    <t>item_server/3523_狂风沙漠的图鉴箱</t>
+  </si>
+  <si>
     <t>雷霆之地的图鉴兑换券</t>
   </si>
   <si>
     <t>可以去商城【图鉴兑换】里面去兑换任意一张雷霆之地的图鉴</t>
   </si>
   <si>
+    <t>item_server/3524_雷霆之地的图鉴箱</t>
+  </si>
+  <si>
     <t>元素大陆图的鉴兑换券</t>
   </si>
   <si>
     <t>可以去商城【图鉴兑换】里面去兑换任意一张元素大陆的图鉴</t>
+  </si>
+  <si>
+    <t>item_server/3525_元素大陆图的鉴箱</t>
   </si>
   <si>
     <t>1级魂石·攻击力</t>
@@ -1264,7 +1282,7 @@
 通关奖励中，技能精通经验获取率+10%，地图经验获取率+10%，通关银币获取率+20%(和终身叠加)</t>
   </si>
   <si>
-    <t>item_server/月卡</t>
+    <t>item_server/20000_月卡</t>
   </si>
   <si>
     <t>终身特权</t>
@@ -1274,7 +1292,7 @@
 额外效果：魂石升级概率+10%，图鉴合成银币消耗-20%</t>
   </si>
   <si>
-    <t>item_server/终身卡</t>
+    <t>item_server/20001_终身卡</t>
   </si>
   <si>
     <t>元素祈福</t>
@@ -1298,6 +1316,9 @@
 *天辉任务奖励+30%</t>
   </si>
   <si>
+    <t>item_server/20003_天辉信物</t>
+  </si>
+  <si>
     <t>夜魇信物</t>
   </si>
   <si>
@@ -1309,7 +1330,7 @@
 *夜魇任务奖励+30%</t>
   </si>
   <si>
-    <t>item_server/夜魔信物</t>
+    <t>item_server/20004_夜魔信物</t>
   </si>
   <si>
     <t>灵魂战刃</t>
@@ -1323,7 +1344,7 @@
 *局内金币获取率+30%</t>
   </si>
   <si>
-    <t>item_server/灵魂战刃</t>
+    <t>item_server/20005_灵魂战刃</t>
   </si>
   <si>
     <t>老者的指引</t>
@@ -1338,7 +1359,7 @@
 *图鉴上阵属性效果+20%</t>
   </si>
   <si>
-    <t>item_server/图鉴大师</t>
+    <t>item_server/20007_图鉴大师</t>
   </si>
   <si>
     <t>不留遗憾之矢</t>
@@ -1353,7 +1374,7 @@
 *赞助本游戏时，有33%概率会获得额外10%的琥珀</t>
   </si>
   <si>
-    <t>item_server/命运的骰子</t>
+    <t>item_server/20009_命运的骰子</t>
   </si>
   <si>
     <t>元素之地的救赎</t>
@@ -1367,7 +1388,7 @@
 风元素：风元素技能附带击退50码效果，相同单位5秒内最多生效1次</t>
   </si>
   <si>
-    <t>item_server/元素之地的救赎</t>
+    <t>item_server/20010_元素之地的救赎</t>
   </si>
   <si>
     <t>老者的指引·上</t>
@@ -1384,19 +1405,19 @@
 个人经验获取率+30%</t>
   </si>
   <si>
-    <t>item_server/老者的指引·上</t>
+    <t>item_server/20011_老者的指引·上</t>
   </si>
   <si>
     <t>老者的指引·中</t>
   </si>
   <si>
-    <t>item_server/老者的指引·中</t>
+    <t>item_server/20012_老者的指引·中</t>
   </si>
   <si>
     <t>老者的指引·下</t>
   </si>
   <si>
-    <t>item_server/老者的指引·下</t>
+    <t>item_server/20013_老者的指引·下</t>
   </si>
   <si>
     <t>图鉴大师·上</t>
@@ -1421,7 +1442,7 @@
 不留遗憾：不会随着阵亡次数增加复活时间</t>
   </si>
   <si>
-    <t>item_server/不留遗憾之矢·上</t>
+    <t>item_server/20017_不留遗憾之矢·上</t>
   </si>
   <si>
     <t>不留遗憾之矢·中</t>
@@ -1437,7 +1458,7 @@
 不留遗憾：不会随着阵亡次数增加复活时间</t>
   </si>
   <si>
-    <t>item_server/不留遗憾之矢·下</t>
+    <t>item_server/20018_不留遗憾之矢·中</t>
   </si>
   <si>
     <t>不留遗憾之矢·下</t>
@@ -1453,7 +1474,7 @@
 不留遗憾：不会随着阵亡次数增加复活时间</t>
   </si>
   <si>
-    <t>item_server/不留遗憾之矢·中</t>
+    <t>item_server/20019_不留遗憾之矢·下</t>
   </si>
   <si>
     <t>超越极限·上</t>
@@ -1468,7 +1489,7 @@
 超越极限：额外获得一个极限道具槽位</t>
   </si>
   <si>
-    <t>item_server/超越极限_上</t>
+    <t>item_server/20020_超越极限上</t>
   </si>
   <si>
     <t>超越极限·中</t>
@@ -1483,7 +1504,7 @@
 超越极限：额外获得一个极限道具槽位</t>
   </si>
   <si>
-    <t>item_server/超越极限_中</t>
+    <t>item_server/20021_超越极限中</t>
   </si>
   <si>
     <t>超越极限·下</t>
@@ -1498,7 +1519,7 @@
 超越极限：额外获得一个极限道具槽位</t>
   </si>
   <si>
-    <t>item_server/超越极限_下</t>
+    <t>item_server/20022_超越极限下</t>
   </si>
   <si>
     <t>消费大师·上</t>
@@ -1516,19 +1537,19 @@
 局内金币商店提高稀有度物品出现概率</t>
   </si>
   <si>
-    <t>item_server/消费大师·上</t>
+    <t>item_server/20023_消费大师·上</t>
   </si>
   <si>
     <t>消费大师·中</t>
   </si>
   <si>
-    <t>item_server/消费大师·中</t>
+    <t>item_server/20024_消费大师·中</t>
   </si>
   <si>
     <t>消费大师·下</t>
   </si>
   <si>
-    <t>item_server/消费大师·下</t>
+    <t>item_server/20025_消费大师·下</t>
   </si>
   <si>
     <t>符文大师·上</t>
@@ -1544,13 +1565,13 @@
 每击败1个boss，获得2次符文刷新次数（仅局内生效）</t>
   </si>
   <si>
-    <t>item_server/符文大师·上</t>
+    <t>item_server/20026_符文大师·上</t>
   </si>
   <si>
     <t>符文大师·中</t>
   </si>
   <si>
-    <t>item_server/符文大师·中</t>
+    <t>item_server/20027_符文大师·中</t>
   </si>
   <si>
     <t>符文大师·下</t>
@@ -1566,7 +1587,7 @@
 每击败1个boss，获得2次符文刷新次数（仅局内生效）</t>
   </si>
   <si>
-    <t>item_server/符文大师·下</t>
+    <t>item_server/20028_符文大师·下</t>
   </si>
   <si>
     <t>符文全知</t>
@@ -1818,6 +1839,9 @@
   </si>
   <si>
     <t>r_21101-21112_1</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>随机2级元素</t>
@@ -3326,16 +3350,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C561E831-1684-419A-96B0-6A5174BA6488}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2229B95F-5A7F-4608-911A-FE81170256DC}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AAD7641B-ABA0-4610-B273-C0C3DB420CF6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AA49B61F-18E9-4A5E-A508-CCA7937771A3}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{ACB00CD2-FAE9-4F7E-A476-AEED6CEBAC68}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3432F469-3044-442E-93E2-91712218B725}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3347,7 +3371,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{F811B351-B0EC-45A0-A94E-C6A9EE7ABA0A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0F738410-0A3A-475D-936D-12460965099D}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3661,11 +3685,11 @@
   <dimension ref="A1:AC341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4426,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="23"/>
@@ -4451,10 +4475,10 @@
         <v>1204</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -4480,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="22"/>
@@ -4505,7 +4529,7 @@
         <v>1205</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
@@ -4557,7 +4581,7 @@
         <v>1206</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13">
@@ -4609,10 +4633,10 @@
         <v>1207</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
@@ -4638,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="23"/>
@@ -4663,10 +4687,10 @@
         <v>1279</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -4692,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="22"/>
@@ -4717,10 +4741,10 @@
         <v>1280</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -4746,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="23"/>
@@ -4771,10 +4795,10 @@
         <v>1281</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -4800,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="22"/>
@@ -4825,10 +4849,10 @@
         <v>1282</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -4853,8 +4877,8 @@
       <c r="L21" s="15">
         <v>0</v>
       </c>
-      <c r="M21" s="15" t="s">
-        <v>77</v>
+      <c r="M21" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="23"/>
@@ -4879,10 +4903,10 @@
         <v>1283</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -4908,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="22"/>
@@ -4933,10 +4957,10 @@
         <v>1284</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D23" s="15">
         <v>1</v>
@@ -4961,7 +4985,7 @@
       <c r="L23" s="15">
         <v>0</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="13" t="s">
         <v>83</v>
       </c>
       <c r="N23" s="15"/>
@@ -4987,10 +5011,10 @@
         <v>1285</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -5016,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="22"/>
@@ -5041,10 +5065,10 @@
         <v>1286</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
@@ -5070,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="23"/>
@@ -5095,10 +5119,10 @@
         <v>1287</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5149,10 +5173,10 @@
         <v>1288</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
@@ -5203,10 +5227,10 @@
         <v>1289</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5257,10 +5281,10 @@
         <v>1290</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" s="15">
         <v>1</v>
@@ -5311,10 +5335,10 @@
         <v>1291</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5365,10 +5389,10 @@
         <v>1292</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
@@ -5419,10 +5443,10 @@
         <v>1293</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5473,10 +5497,10 @@
         <v>1294</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
@@ -5527,10 +5551,10 @@
         <v>1295</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -5577,10 +5601,10 @@
         <v>1296</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
@@ -5627,10 +5651,10 @@
         <v>1297</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -5677,10 +5701,10 @@
         <v>1298</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -5727,10 +5751,10 @@
         <v>1299</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
@@ -5748,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J38" s="19"/>
       <c r="K38" s="13"/>
@@ -5779,10 +5803,10 @@
         <v>1300</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -5829,10 +5853,10 @@
         <v>1301</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -5850,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="13"/>
@@ -5881,10 +5905,10 @@
         <v>1302</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -5931,10 +5955,10 @@
         <v>2001</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -5960,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="22"/>
@@ -5985,10 +6009,10 @@
         <v>2002</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
@@ -6040,10 +6064,10 @@
         <v>2003</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" s="13">
         <v>1</v>
@@ -6095,10 +6119,10 @@
         <v>2004</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D45" s="15">
         <v>1</v>
@@ -6150,10 +6174,10 @@
         <v>2005</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
@@ -6205,10 +6229,10 @@
         <v>2006</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
@@ -6260,10 +6284,10 @@
         <v>2007</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
@@ -6315,10 +6339,10 @@
         <v>2008</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
@@ -6370,10 +6394,10 @@
         <v>2009</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
@@ -6425,10 +6449,10 @@
         <v>2010</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
@@ -6480,10 +6504,10 @@
         <v>2011</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D52" s="13">
         <v>1</v>
@@ -6535,10 +6559,10 @@
         <v>2012</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
@@ -6590,10 +6614,10 @@
         <v>2013</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D54" s="13">
         <v>1</v>
@@ -6645,10 +6669,10 @@
         <v>2014</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D55" s="15">
         <v>1</v>
@@ -6700,10 +6724,10 @@
         <v>2015</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
@@ -6755,10 +6779,10 @@
         <v>2016</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D57" s="15">
         <v>1</v>
@@ -6810,10 +6834,10 @@
         <v>2017</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D58" s="13">
         <v>1</v>
@@ -6865,10 +6889,10 @@
         <v>2019</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -6920,10 +6944,10 @@
         <v>2020</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D60" s="13">
         <v>1</v>
@@ -6975,10 +6999,10 @@
         <v>2021</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D61" s="15">
         <v>1</v>
@@ -7030,10 +7054,10 @@
         <v>2022</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D62" s="13">
         <v>1</v>
@@ -7085,10 +7109,10 @@
         <v>2023</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D63" s="15">
         <v>1</v>
@@ -7140,10 +7164,10 @@
         <v>2024</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D64" s="13">
         <v>1</v>
@@ -7195,10 +7219,10 @@
         <v>2025</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D65" s="15">
         <v>1</v>
@@ -7250,10 +7274,10 @@
         <v>2026</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D66" s="13">
         <v>1</v>
@@ -7305,10 +7329,10 @@
         <v>2027</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -7360,10 +7384,10 @@
         <v>2028</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D68" s="13">
         <v>1</v>
@@ -7415,10 +7439,10 @@
         <v>2029</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D69" s="15">
         <v>1</v>
@@ -7470,10 +7494,10 @@
         <v>2030</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D70" s="13">
         <v>1</v>
@@ -7525,10 +7549,10 @@
         <v>2031</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D71" s="15">
         <v>1</v>
@@ -7580,10 +7604,10 @@
         <v>2032</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D72" s="13">
         <v>1</v>
@@ -7635,10 +7659,10 @@
         <v>2033</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D73" s="15">
         <v>1</v>
@@ -7690,10 +7714,10 @@
         <v>2034</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D74" s="13">
         <v>1</v>
@@ -7745,10 +7769,10 @@
         <v>2035</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D75" s="15">
         <v>1</v>
@@ -7800,10 +7824,10 @@
         <v>2036</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D76" s="13">
         <v>1</v>
@@ -7855,10 +7879,10 @@
         <v>2037</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D77" s="15">
         <v>1</v>
@@ -7910,10 +7934,10 @@
         <v>2038</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D78" s="13">
         <v>1</v>
@@ -7965,10 +7989,10 @@
         <v>2039</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D79" s="15">
         <v>1</v>
@@ -8020,10 +8044,10 @@
         <v>2040</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D80" s="13">
         <v>1</v>
@@ -8075,10 +8099,10 @@
         <v>2041</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D81" s="15">
         <v>1</v>
@@ -8130,10 +8154,10 @@
         <v>2042</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D82" s="13">
         <v>1</v>
@@ -8185,10 +8209,10 @@
         <v>2043</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D83" s="15">
         <v>1</v>
@@ -8240,10 +8264,10 @@
         <v>2044</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D84" s="13">
         <v>1</v>
@@ -8295,10 +8319,10 @@
         <v>2045</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D85" s="15">
         <v>1</v>
@@ -8350,10 +8374,10 @@
         <v>2501</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D86" s="13">
         <v>1</v>
@@ -8405,10 +8429,10 @@
         <v>2502</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D87" s="15">
         <v>1</v>
@@ -8460,10 +8484,10 @@
         <v>2503</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D88" s="13">
         <v>1</v>
@@ -8515,10 +8539,10 @@
         <v>2504</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D89" s="15">
         <v>1</v>
@@ -8570,10 +8594,10 @@
         <v>2505</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D90" s="13">
         <v>1</v>
@@ -8625,10 +8649,10 @@
         <v>2506</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D91" s="15">
         <v>1</v>
@@ -8680,10 +8704,10 @@
         <v>2507</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D92" s="13">
         <v>1</v>
@@ -8735,10 +8759,10 @@
         <v>2508</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D93" s="15">
         <v>1</v>
@@ -8790,10 +8814,10 @@
         <v>2509</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D94" s="13">
         <v>1</v>
@@ -8845,10 +8869,10 @@
         <v>2510</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D95" s="15">
         <v>1</v>
@@ -8900,10 +8924,10 @@
         <v>2511</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D96" s="13">
         <v>1</v>
@@ -8955,10 +8979,10 @@
         <v>2512</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D97" s="15">
         <v>1</v>
@@ -9010,10 +9034,10 @@
         <v>2513</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D98" s="13">
         <v>1</v>
@@ -9065,10 +9089,10 @@
         <v>2514</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -9120,10 +9144,10 @@
         <v>2516</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D100" s="13">
         <v>1</v>
@@ -9175,10 +9199,10 @@
         <v>2517</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D101" s="15">
         <v>1</v>
@@ -9230,10 +9254,10 @@
         <v>2518</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D102" s="13">
         <v>1</v>
@@ -9285,10 +9309,10 @@
         <v>2519</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D103" s="15">
         <v>1</v>
@@ -9340,10 +9364,10 @@
         <v>2520</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D104" s="13">
         <v>1</v>
@@ -9395,10 +9419,10 @@
         <v>2521</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D105" s="15">
         <v>1</v>
@@ -9450,10 +9474,10 @@
         <v>2522</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D106" s="13">
         <v>1</v>
@@ -9505,10 +9529,10 @@
         <v>2523</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D107" s="15">
         <v>1</v>
@@ -9560,10 +9584,10 @@
         <v>2524</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D108" s="13">
         <v>1</v>
@@ -9615,10 +9639,10 @@
         <v>2525</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D109" s="15">
         <v>1</v>
@@ -9670,10 +9694,10 @@
         <v>2526</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D110" s="13">
         <v>1</v>
@@ -9725,10 +9749,10 @@
         <v>2527</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D111" s="15">
         <v>1</v>
@@ -9780,10 +9804,10 @@
         <v>2528</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D112" s="13">
         <v>1</v>
@@ -9835,10 +9859,10 @@
         <v>2529</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D113" s="15">
         <v>1</v>
@@ -9890,10 +9914,10 @@
         <v>2530</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D114" s="13">
         <v>1</v>
@@ -9945,10 +9969,10 @@
         <v>2531</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D115" s="15">
         <v>1</v>
@@ -10000,10 +10024,10 @@
         <v>2532</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D116" s="13">
         <v>1</v>
@@ -10055,10 +10079,10 @@
         <v>2533</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D117" s="15">
         <v>1</v>
@@ -10110,10 +10134,10 @@
         <v>2534</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D118" s="13">
         <v>1</v>
@@ -10165,10 +10189,10 @@
         <v>2535</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D119" s="15">
         <v>1</v>
@@ -10220,10 +10244,10 @@
         <v>2536</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D120" s="13">
         <v>1</v>
@@ -10275,10 +10299,10 @@
         <v>2537</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D121" s="15">
         <v>1</v>
@@ -10330,10 +10354,10 @@
         <v>2538</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D122" s="13">
         <v>1</v>
@@ -10385,10 +10409,10 @@
         <v>2539</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D123" s="15">
         <v>1</v>
@@ -10440,10 +10464,10 @@
         <v>2540</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D124" s="13">
         <v>1</v>
@@ -10495,10 +10519,10 @@
         <v>2541</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D125" s="15">
         <v>1</v>
@@ -10550,10 +10574,10 @@
         <v>2542</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D126" s="13">
         <v>1</v>
@@ -10605,10 +10629,10 @@
         <v>2543</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D127" s="15">
         <v>1</v>
@@ -10660,10 +10684,10 @@
         <v>2544</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D128" s="13">
         <v>1</v>
@@ -10715,10 +10739,10 @@
         <v>2545</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="15">
         <v>1</v>
@@ -10770,10 +10794,10 @@
         <v>2546</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D130" s="13">
         <v>1</v>
@@ -10825,10 +10849,10 @@
         <v>2547</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D131" s="15">
         <v>1</v>
@@ -10880,10 +10904,10 @@
         <v>2548</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D132" s="13">
         <v>1</v>
@@ -10935,10 +10959,10 @@
         <v>2549</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D133" s="15">
         <v>1</v>
@@ -10990,10 +11014,10 @@
         <v>2550</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D134" s="13">
         <v>1</v>
@@ -11045,10 +11069,10 @@
         <v>2551</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D135" s="15">
         <v>1</v>
@@ -11100,10 +11124,10 @@
         <v>2552</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D136" s="13">
         <v>1</v>
@@ -11155,10 +11179,10 @@
         <v>2553</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D137" s="15">
         <v>1</v>
@@ -11210,10 +11234,10 @@
         <v>2554</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D138" s="13">
         <v>1</v>
@@ -11265,10 +11289,10 @@
         <v>2555</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D139" s="15">
         <v>1</v>
@@ -11320,10 +11344,10 @@
         <v>2556</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D140" s="13">
         <v>1</v>
@@ -11375,10 +11399,10 @@
         <v>2557</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D141" s="15">
         <v>1</v>
@@ -11430,10 +11454,10 @@
         <v>2558</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D142" s="13">
         <v>1</v>
@@ -11485,10 +11509,10 @@
         <v>2559</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D143" s="15">
         <v>1</v>
@@ -11540,10 +11564,10 @@
         <v>2560</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D144" s="13">
         <v>1</v>
@@ -11595,10 +11619,10 @@
         <v>2901</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D145" s="15">
         <v>1</v>
@@ -11650,10 +11674,10 @@
         <v>2902</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D146" s="13">
         <v>1</v>
@@ -11705,10 +11729,10 @@
         <v>2903</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D147" s="15">
         <v>1</v>
@@ -11760,10 +11784,10 @@
         <v>2904</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D148" s="13">
         <v>1</v>
@@ -11815,10 +11839,10 @@
         <v>2905</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D149" s="15">
         <v>1</v>
@@ -11870,10 +11894,10 @@
         <v>2906</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D150" s="13">
         <v>1</v>
@@ -11925,10 +11949,10 @@
         <v>2907</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D151" s="15">
         <v>1</v>
@@ -11980,10 +12004,10 @@
         <v>2908</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D152" s="13">
         <v>1</v>
@@ -12035,10 +12059,10 @@
         <v>2909</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D153" s="15">
         <v>1</v>
@@ -12086,10 +12110,10 @@
         <v>2910</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D154" s="13">
         <v>1</v>
@@ -12137,10 +12161,10 @@
         <v>2911</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D155" s="15">
         <v>1</v>
@@ -12188,10 +12212,10 @@
         <v>2912</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D156" s="13">
         <v>1</v>
@@ -12239,10 +12263,10 @@
         <v>2913</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D157" s="15">
         <v>1</v>
@@ -12290,10 +12314,10 @@
         <v>2914</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D158" s="13">
         <v>1</v>
@@ -12341,10 +12365,10 @@
         <v>2915</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D159" s="15">
         <v>1</v>
@@ -12392,10 +12416,10 @@
         <v>2916</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D160" s="13">
         <v>1</v>
@@ -12443,10 +12467,10 @@
         <v>2917</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D161" s="15">
         <v>1</v>
@@ -12494,10 +12518,10 @@
         <v>2918</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D162" s="13">
         <v>1</v>
@@ -12545,10 +12569,10 @@
         <v>2919</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D163" s="15">
         <v>1</v>
@@ -12596,10 +12620,10 @@
         <v>2920</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D164" s="13">
         <v>1</v>
@@ -12647,10 +12671,10 @@
         <v>2921</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D165" s="15">
         <v>1</v>
@@ -12698,10 +12722,10 @@
         <v>2922</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D166" s="13">
         <v>1</v>
@@ -12749,10 +12773,10 @@
         <v>3201</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D167" s="15">
         <v>1</v>
@@ -12800,10 +12824,10 @@
         <v>3202</v>
       </c>
       <c r="B168" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C168" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="D168" s="13">
         <v>1</v>
@@ -12851,10 +12875,10 @@
         <v>3203</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D169" s="15">
         <v>1</v>
@@ -12902,10 +12926,10 @@
         <v>3204</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D170" s="13">
         <v>1</v>
@@ -12953,10 +12977,10 @@
         <v>3205</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D171" s="15">
         <v>1</v>
@@ -13004,10 +13028,10 @@
         <v>3501</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D172" s="13">
         <v>1</v>
@@ -13029,7 +13053,7 @@
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N172" s="13"/>
       <c r="O172" s="22"/>
@@ -13054,10 +13078,10 @@
         <v>3502</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D173" s="15">
         <v>1</v>
@@ -13079,7 +13103,7 @@
       <c r="K173" s="15"/>
       <c r="L173" s="15"/>
       <c r="M173" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N173" s="15"/>
       <c r="O173" s="23"/>
@@ -13104,10 +13128,10 @@
         <v>3503</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D174" s="13">
         <v>1</v>
@@ -13129,7 +13153,7 @@
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
       <c r="M174" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N174" s="13"/>
       <c r="O174" s="22"/>
@@ -13154,10 +13178,10 @@
         <v>3504</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D175" s="15">
         <v>1</v>
@@ -13179,7 +13203,7 @@
       <c r="K175" s="15"/>
       <c r="L175" s="15"/>
       <c r="M175" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N175" s="15"/>
       <c r="O175" s="23"/>
@@ -13204,10 +13228,10 @@
         <v>3505</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D176" s="13">
         <v>1</v>
@@ -13229,7 +13253,7 @@
       <c r="K176" s="13"/>
       <c r="L176" s="13"/>
       <c r="M176" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N176" s="13"/>
       <c r="O176" s="22"/>
@@ -13254,10 +13278,10 @@
         <v>3506</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D177" s="15">
         <v>1</v>
@@ -13279,7 +13303,7 @@
       <c r="K177" s="15"/>
       <c r="L177" s="15"/>
       <c r="M177" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N177" s="15"/>
       <c r="O177" s="23"/>
@@ -13304,10 +13328,10 @@
         <v>3507</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D178" s="13">
         <v>1</v>
@@ -13329,7 +13353,7 @@
       <c r="K178" s="13"/>
       <c r="L178" s="13"/>
       <c r="M178" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N178" s="13"/>
       <c r="O178" s="22"/>
@@ -13354,10 +13378,10 @@
         <v>3508</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D179" s="15">
         <v>1</v>
@@ -13379,7 +13403,7 @@
       <c r="K179" s="15"/>
       <c r="L179" s="15"/>
       <c r="M179" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N179" s="15"/>
       <c r="O179" s="23"/>
@@ -13404,10 +13428,10 @@
         <v>3509</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D180" s="13">
         <v>1</v>
@@ -13429,7 +13453,7 @@
       <c r="K180" s="13"/>
       <c r="L180" s="13"/>
       <c r="M180" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N180" s="13"/>
       <c r="O180" s="22"/>
@@ -13454,10 +13478,10 @@
         <v>3510</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D181" s="15">
         <v>1</v>
@@ -13504,10 +13528,10 @@
         <v>3511</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D182" s="13">
         <v>1</v>
@@ -13554,10 +13578,10 @@
         <v>3512</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D183" s="15">
         <v>1</v>
@@ -13604,10 +13628,10 @@
         <v>3513</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D184" s="13">
         <v>1</v>
@@ -13654,10 +13678,10 @@
         <v>3514</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -13704,10 +13728,10 @@
         <v>3515</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D186" s="13">
         <v>1</v>
@@ -13754,10 +13778,10 @@
         <v>3516</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -13804,10 +13828,10 @@
         <v>3517</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D188" s="13">
         <v>1</v>
@@ -13829,7 +13853,7 @@
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
       <c r="M188" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N188" s="13"/>
       <c r="O188" s="22"/>
@@ -13854,10 +13878,10 @@
         <v>3518</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -13879,7 +13903,7 @@
       <c r="K189" s="15"/>
       <c r="L189" s="15"/>
       <c r="M189" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N189" s="15"/>
       <c r="O189" s="23"/>
@@ -13904,10 +13928,10 @@
         <v>3519</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D190" s="13">
         <v>1</v>
@@ -13929,7 +13953,7 @@
       <c r="K190" s="13"/>
       <c r="L190" s="13"/>
       <c r="M190" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N190" s="13"/>
       <c r="O190" s="22"/>
@@ -13954,10 +13978,10 @@
         <v>3520</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -13979,7 +14003,7 @@
       <c r="K191" s="15"/>
       <c r="L191" s="15"/>
       <c r="M191" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N191" s="15"/>
       <c r="O191" s="23"/>
@@ -14004,10 +14028,10 @@
         <v>3521</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D192" s="13">
         <v>1</v>
@@ -14029,7 +14053,7 @@
       <c r="K192" s="13"/>
       <c r="L192" s="13"/>
       <c r="M192" s="13" t="s">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="N192" s="13"/>
       <c r="O192" s="22"/>
@@ -14054,10 +14078,10 @@
         <v>3522</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -14079,7 +14103,7 @@
       <c r="K193" s="15"/>
       <c r="L193" s="15"/>
       <c r="M193" s="15" t="s">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="N193" s="15"/>
       <c r="O193" s="23"/>
@@ -14104,10 +14128,10 @@
         <v>3523</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D194" s="13">
         <v>1</v>
@@ -14129,7 +14153,7 @@
       <c r="K194" s="13"/>
       <c r="L194" s="13"/>
       <c r="M194" s="13" t="s">
-        <v>49</v>
+        <v>316</v>
       </c>
       <c r="N194" s="13"/>
       <c r="O194" s="22"/>
@@ -14154,10 +14178,10 @@
         <v>3524</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -14179,7 +14203,7 @@
       <c r="K195" s="15"/>
       <c r="L195" s="15"/>
       <c r="M195" s="15" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="N195" s="15"/>
       <c r="O195" s="23"/>
@@ -14204,10 +14228,10 @@
         <v>3525</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D196" s="13">
         <v>1</v>
@@ -14229,7 +14253,7 @@
       <c r="K196" s="13"/>
       <c r="L196" s="13"/>
       <c r="M196" s="13" t="s">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="N196" s="13"/>
       <c r="O196" s="22"/>
@@ -14254,10 +14278,10 @@
         <v>10001</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -14279,7 +14303,7 @@
       <c r="K197" s="15"/>
       <c r="L197" s="15"/>
       <c r="M197" s="15" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N197" s="15"/>
       <c r="O197" s="23"/>
@@ -14304,10 +14328,10 @@
         <v>10002</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D198" s="13">
         <v>1</v>
@@ -14329,7 +14353,7 @@
       <c r="K198" s="13"/>
       <c r="L198" s="13"/>
       <c r="M198" s="13" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N198" s="13"/>
       <c r="O198" s="22"/>
@@ -14354,10 +14378,10 @@
         <v>10003</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -14379,7 +14403,7 @@
       <c r="K199" s="15"/>
       <c r="L199" s="15"/>
       <c r="M199" s="15" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="N199" s="15"/>
       <c r="O199" s="23"/>
@@ -14404,10 +14428,10 @@
         <v>10004</v>
       </c>
       <c r="B200" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C200" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>318</v>
       </c>
       <c r="D200" s="13">
         <v>1</v>
@@ -14429,7 +14453,7 @@
       <c r="K200" s="13"/>
       <c r="L200" s="13"/>
       <c r="M200" s="13" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N200" s="13"/>
       <c r="O200" s="22"/>
@@ -14454,10 +14478,10 @@
         <v>10005</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D201" s="15">
         <v>1</v>
@@ -14479,7 +14503,7 @@
       <c r="K201" s="15"/>
       <c r="L201" s="15"/>
       <c r="M201" s="15" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N201" s="15"/>
       <c r="O201" s="23"/>
@@ -14504,10 +14528,10 @@
         <v>10006</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D202" s="13">
         <v>1</v>
@@ -14529,7 +14553,7 @@
       <c r="K202" s="13"/>
       <c r="L202" s="13"/>
       <c r="M202" s="13" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="N202" s="13"/>
       <c r="O202" s="22"/>
@@ -14554,10 +14578,10 @@
         <v>10007</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -14579,7 +14603,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="15"/>
       <c r="M203" s="15" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="N203" s="15"/>
       <c r="O203" s="23"/>
@@ -14604,10 +14628,10 @@
         <v>10008</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D204" s="13">
         <v>1</v>
@@ -14629,7 +14653,7 @@
       <c r="K204" s="13"/>
       <c r="L204" s="13"/>
       <c r="M204" s="13" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N204" s="13"/>
       <c r="O204" s="22"/>
@@ -14654,10 +14678,10 @@
         <v>10009</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -14679,7 +14703,7 @@
       <c r="K205" s="15"/>
       <c r="L205" s="15"/>
       <c r="M205" s="15" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="N205" s="15"/>
       <c r="O205" s="23"/>
@@ -14704,10 +14728,10 @@
         <v>10010</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D206" s="13">
         <v>1</v>
@@ -14729,7 +14753,7 @@
       <c r="K206" s="13"/>
       <c r="L206" s="13"/>
       <c r="M206" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N206" s="13"/>
       <c r="O206" s="22"/>
@@ -14754,10 +14778,10 @@
         <v>10011</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D207" s="15">
         <v>1</v>
@@ -14779,7 +14803,7 @@
       <c r="K207" s="15"/>
       <c r="L207" s="15"/>
       <c r="M207" s="15" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="N207" s="15"/>
       <c r="O207" s="23"/>
@@ -14804,10 +14828,10 @@
         <v>10012</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D208" s="13">
         <v>1</v>
@@ -14829,7 +14853,7 @@
       <c r="K208" s="13"/>
       <c r="L208" s="13"/>
       <c r="M208" s="13" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="N208" s="13"/>
       <c r="O208" s="22"/>
@@ -14854,10 +14878,10 @@
         <v>10013</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D209" s="15">
         <v>1</v>
@@ -14879,7 +14903,7 @@
       <c r="K209" s="15"/>
       <c r="L209" s="15"/>
       <c r="M209" s="15" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N209" s="15"/>
       <c r="O209" s="23"/>
@@ -14904,10 +14928,10 @@
         <v>10014</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D210" s="13">
         <v>1</v>
@@ -14929,7 +14953,7 @@
       <c r="K210" s="13"/>
       <c r="L210" s="13"/>
       <c r="M210" s="13" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="N210" s="13"/>
       <c r="O210" s="22"/>
@@ -14954,10 +14978,10 @@
         <v>10015</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D211" s="15">
         <v>1</v>
@@ -14979,7 +15003,7 @@
       <c r="K211" s="15"/>
       <c r="L211" s="15"/>
       <c r="M211" s="15" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N211" s="15"/>
       <c r="O211" s="23"/>
@@ -15004,10 +15028,10 @@
         <v>10016</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D212" s="13">
         <v>1</v>
@@ -15029,7 +15053,7 @@
       <c r="K212" s="13"/>
       <c r="L212" s="13"/>
       <c r="M212" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N212" s="13"/>
       <c r="O212" s="22"/>
@@ -15054,10 +15078,10 @@
         <v>10017</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D213" s="15">
         <v>1</v>
@@ -15079,7 +15103,7 @@
       <c r="K213" s="15"/>
       <c r="L213" s="15"/>
       <c r="M213" s="15" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="N213" s="15"/>
       <c r="O213" s="23"/>
@@ -15104,10 +15128,10 @@
         <v>10018</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D214" s="13">
         <v>1</v>
@@ -15129,7 +15153,7 @@
       <c r="K214" s="13"/>
       <c r="L214" s="13"/>
       <c r="M214" s="13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N214" s="13"/>
       <c r="O214" s="22"/>
@@ -15154,10 +15178,10 @@
         <v>10101</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D215" s="15">
         <v>1</v>
@@ -15179,7 +15203,7 @@
       <c r="K215" s="15"/>
       <c r="L215" s="15"/>
       <c r="M215" s="15" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N215" s="15"/>
       <c r="O215" s="23"/>
@@ -15204,10 +15228,10 @@
         <v>10102</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D216" s="13">
         <v>1</v>
@@ -15229,7 +15253,7 @@
       <c r="K216" s="13"/>
       <c r="L216" s="13"/>
       <c r="M216" s="13" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N216" s="13"/>
       <c r="O216" s="22"/>
@@ -15254,10 +15278,10 @@
         <v>10103</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D217" s="15">
         <v>1</v>
@@ -15279,7 +15303,7 @@
       <c r="K217" s="15"/>
       <c r="L217" s="15"/>
       <c r="M217" s="15" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="N217" s="15"/>
       <c r="O217" s="23"/>
@@ -15304,10 +15328,10 @@
         <v>10104</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D218" s="13">
         <v>1</v>
@@ -15329,7 +15353,7 @@
       <c r="K218" s="13"/>
       <c r="L218" s="13"/>
       <c r="M218" s="13" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N218" s="13"/>
       <c r="O218" s="22"/>
@@ -15354,10 +15378,10 @@
         <v>10105</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D219" s="15">
         <v>1</v>
@@ -15379,7 +15403,7 @@
       <c r="K219" s="15"/>
       <c r="L219" s="15"/>
       <c r="M219" s="15" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N219" s="15"/>
       <c r="O219" s="23"/>
@@ -15404,10 +15428,10 @@
         <v>10106</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D220" s="13">
         <v>1</v>
@@ -15429,7 +15453,7 @@
       <c r="K220" s="13"/>
       <c r="L220" s="13"/>
       <c r="M220" s="13" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="N220" s="13"/>
       <c r="O220" s="22"/>
@@ -15454,10 +15478,10 @@
         <v>10107</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D221" s="15">
         <v>1</v>
@@ -15479,7 +15503,7 @@
       <c r="K221" s="15"/>
       <c r="L221" s="15"/>
       <c r="M221" s="15" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="N221" s="15"/>
       <c r="O221" s="23"/>
@@ -15504,10 +15528,10 @@
         <v>10108</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D222" s="13">
         <v>1</v>
@@ -15529,7 +15553,7 @@
       <c r="K222" s="13"/>
       <c r="L222" s="13"/>
       <c r="M222" s="13" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N222" s="13"/>
       <c r="O222" s="22"/>
@@ -15554,10 +15578,10 @@
         <v>10109</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D223" s="15">
         <v>1</v>
@@ -15579,7 +15603,7 @@
       <c r="K223" s="15"/>
       <c r="L223" s="15"/>
       <c r="M223" s="15" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="N223" s="15"/>
       <c r="O223" s="23"/>
@@ -15604,10 +15628,10 @@
         <v>10110</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D224" s="13">
         <v>1</v>
@@ -15629,7 +15653,7 @@
       <c r="K224" s="13"/>
       <c r="L224" s="13"/>
       <c r="M224" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N224" s="13"/>
       <c r="O224" s="22"/>
@@ -15654,10 +15678,10 @@
         <v>10111</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D225" s="15">
         <v>1</v>
@@ -15679,7 +15703,7 @@
       <c r="K225" s="15"/>
       <c r="L225" s="15"/>
       <c r="M225" s="15" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="N225" s="15"/>
       <c r="O225" s="23"/>
@@ -15704,10 +15728,10 @@
         <v>10112</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D226" s="13">
         <v>1</v>
@@ -15729,7 +15753,7 @@
       <c r="K226" s="13"/>
       <c r="L226" s="13"/>
       <c r="M226" s="13" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="N226" s="13"/>
       <c r="O226" s="22"/>
@@ -15754,10 +15778,10 @@
         <v>10113</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -15779,7 +15803,7 @@
       <c r="K227" s="15"/>
       <c r="L227" s="15"/>
       <c r="M227" s="15" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N227" s="15"/>
       <c r="O227" s="23"/>
@@ -15804,10 +15828,10 @@
         <v>10114</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D228" s="13">
         <v>1</v>
@@ -15829,7 +15853,7 @@
       <c r="K228" s="13"/>
       <c r="L228" s="13"/>
       <c r="M228" s="13" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="N228" s="13"/>
       <c r="O228" s="22"/>
@@ -15854,10 +15878,10 @@
         <v>10115</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -15879,7 +15903,7 @@
       <c r="K229" s="15"/>
       <c r="L229" s="15"/>
       <c r="M229" s="15" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N229" s="15"/>
       <c r="O229" s="23"/>
@@ -15904,10 +15928,10 @@
         <v>10116</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D230" s="13">
         <v>1</v>
@@ -15929,7 +15953,7 @@
       <c r="K230" s="13"/>
       <c r="L230" s="13"/>
       <c r="M230" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N230" s="13"/>
       <c r="O230" s="22"/>
@@ -15954,10 +15978,10 @@
         <v>10117</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D231" s="15">
         <v>1</v>
@@ -15979,7 +16003,7 @@
       <c r="K231" s="15"/>
       <c r="L231" s="15"/>
       <c r="M231" s="15" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="N231" s="15"/>
       <c r="O231" s="23"/>
@@ -16004,10 +16028,10 @@
         <v>10118</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D232" s="13">
         <v>1</v>
@@ -16029,7 +16053,7 @@
       <c r="K232" s="13"/>
       <c r="L232" s="13"/>
       <c r="M232" s="13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N232" s="13"/>
       <c r="O232" s="22"/>
@@ -16054,10 +16078,10 @@
         <v>10201</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D233" s="15">
         <v>1</v>
@@ -16079,7 +16103,7 @@
       <c r="K233" s="15"/>
       <c r="L233" s="15"/>
       <c r="M233" s="15" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N233" s="15"/>
       <c r="O233" s="23"/>
@@ -16104,10 +16128,10 @@
         <v>10202</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D234" s="13">
         <v>1</v>
@@ -16129,7 +16153,7 @@
       <c r="K234" s="13"/>
       <c r="L234" s="13"/>
       <c r="M234" s="13" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N234" s="13"/>
       <c r="O234" s="22"/>
@@ -16154,10 +16178,10 @@
         <v>10203</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D235" s="15">
         <v>1</v>
@@ -16179,7 +16203,7 @@
       <c r="K235" s="15"/>
       <c r="L235" s="15"/>
       <c r="M235" s="15" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="N235" s="15"/>
       <c r="O235" s="23"/>
@@ -16204,10 +16228,10 @@
         <v>10204</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D236" s="13">
         <v>1</v>
@@ -16229,7 +16253,7 @@
       <c r="K236" s="13"/>
       <c r="L236" s="13"/>
       <c r="M236" s="13" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N236" s="13"/>
       <c r="O236" s="22"/>
@@ -16254,10 +16278,10 @@
         <v>10205</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D237" s="15">
         <v>1</v>
@@ -16279,7 +16303,7 @@
       <c r="K237" s="15"/>
       <c r="L237" s="15"/>
       <c r="M237" s="15" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N237" s="15"/>
       <c r="O237" s="23"/>
@@ -16304,10 +16328,10 @@
         <v>10206</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D238" s="13">
         <v>1</v>
@@ -16329,7 +16353,7 @@
       <c r="K238" s="13"/>
       <c r="L238" s="13"/>
       <c r="M238" s="13" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="N238" s="13"/>
       <c r="O238" s="22"/>
@@ -16354,10 +16378,10 @@
         <v>10207</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -16379,7 +16403,7 @@
       <c r="K239" s="15"/>
       <c r="L239" s="15"/>
       <c r="M239" s="15" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="N239" s="15"/>
       <c r="O239" s="23"/>
@@ -16404,10 +16428,10 @@
         <v>10208</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D240" s="13">
         <v>1</v>
@@ -16429,7 +16453,7 @@
       <c r="K240" s="13"/>
       <c r="L240" s="13"/>
       <c r="M240" s="13" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N240" s="13"/>
       <c r="O240" s="22"/>
@@ -16454,10 +16478,10 @@
         <v>10209</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D241" s="15">
         <v>1</v>
@@ -16479,7 +16503,7 @@
       <c r="K241" s="15"/>
       <c r="L241" s="15"/>
       <c r="M241" s="15" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="N241" s="15"/>
       <c r="O241" s="23"/>
@@ -16504,10 +16528,10 @@
         <v>10210</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D242" s="13">
         <v>1</v>
@@ -16529,7 +16553,7 @@
       <c r="K242" s="13"/>
       <c r="L242" s="13"/>
       <c r="M242" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N242" s="13"/>
       <c r="O242" s="22"/>
@@ -16554,10 +16578,10 @@
         <v>10211</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D243" s="15">
         <v>1</v>
@@ -16579,7 +16603,7 @@
       <c r="K243" s="15"/>
       <c r="L243" s="15"/>
       <c r="M243" s="15" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="N243" s="15"/>
       <c r="O243" s="23"/>
@@ -16604,10 +16628,10 @@
         <v>10212</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D244" s="13">
         <v>1</v>
@@ -16629,7 +16653,7 @@
       <c r="K244" s="13"/>
       <c r="L244" s="13"/>
       <c r="M244" s="13" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="N244" s="13"/>
       <c r="O244" s="22"/>
@@ -16654,10 +16678,10 @@
         <v>10213</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D245" s="15">
         <v>1</v>
@@ -16679,7 +16703,7 @@
       <c r="K245" s="15"/>
       <c r="L245" s="15"/>
       <c r="M245" s="15" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N245" s="15"/>
       <c r="O245" s="23"/>
@@ -16704,10 +16728,10 @@
         <v>10214</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D246" s="13">
         <v>1</v>
@@ -16729,7 +16753,7 @@
       <c r="K246" s="13"/>
       <c r="L246" s="13"/>
       <c r="M246" s="13" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="N246" s="13"/>
       <c r="O246" s="22"/>
@@ -16754,10 +16778,10 @@
         <v>10215</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D247" s="15">
         <v>1</v>
@@ -16779,7 +16803,7 @@
       <c r="K247" s="15"/>
       <c r="L247" s="15"/>
       <c r="M247" s="15" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N247" s="15"/>
       <c r="O247" s="23"/>
@@ -16804,10 +16828,10 @@
         <v>10216</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D248" s="13">
         <v>1</v>
@@ -16829,7 +16853,7 @@
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N248" s="13"/>
       <c r="O248" s="22"/>
@@ -16854,10 +16878,10 @@
         <v>10217</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D249" s="15">
         <v>1</v>
@@ -16879,7 +16903,7 @@
       <c r="K249" s="15"/>
       <c r="L249" s="15"/>
       <c r="M249" s="15" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="N249" s="15"/>
       <c r="O249" s="23"/>
@@ -16904,10 +16928,10 @@
         <v>10218</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D250" s="13">
         <v>1</v>
@@ -16929,7 +16953,7 @@
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N250" s="13"/>
       <c r="O250" s="22"/>
@@ -16954,10 +16978,10 @@
         <v>10301</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D251" s="15">
         <v>1</v>
@@ -16979,7 +17003,7 @@
       <c r="K251" s="15"/>
       <c r="L251" s="15"/>
       <c r="M251" s="15" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N251" s="15"/>
       <c r="O251" s="23"/>
@@ -17004,10 +17028,10 @@
         <v>10302</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D252" s="13">
         <v>1</v>
@@ -17029,7 +17053,7 @@
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N252" s="13"/>
       <c r="O252" s="22"/>
@@ -17054,10 +17078,10 @@
         <v>10303</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D253" s="15">
         <v>1</v>
@@ -17079,7 +17103,7 @@
       <c r="K253" s="15"/>
       <c r="L253" s="15"/>
       <c r="M253" s="15" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="N253" s="15"/>
       <c r="O253" s="23"/>
@@ -17104,10 +17128,10 @@
         <v>10304</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D254" s="13">
         <v>1</v>
@@ -17129,7 +17153,7 @@
       <c r="K254" s="13"/>
       <c r="L254" s="13"/>
       <c r="M254" s="13" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N254" s="13"/>
       <c r="O254" s="22"/>
@@ -17154,10 +17178,10 @@
         <v>10305</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D255" s="15">
         <v>1</v>
@@ -17179,7 +17203,7 @@
       <c r="K255" s="15"/>
       <c r="L255" s="15"/>
       <c r="M255" s="15" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N255" s="15"/>
       <c r="O255" s="23"/>
@@ -17204,10 +17228,10 @@
         <v>10306</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D256" s="13">
         <v>1</v>
@@ -17229,7 +17253,7 @@
       <c r="K256" s="13"/>
       <c r="L256" s="13"/>
       <c r="M256" s="13" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="N256" s="13"/>
       <c r="O256" s="22"/>
@@ -17254,10 +17278,10 @@
         <v>10307</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -17279,7 +17303,7 @@
       <c r="K257" s="15"/>
       <c r="L257" s="15"/>
       <c r="M257" s="15" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="N257" s="15"/>
       <c r="O257" s="23"/>
@@ -17304,10 +17328,10 @@
         <v>10308</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D258" s="13">
         <v>1</v>
@@ -17329,7 +17353,7 @@
       <c r="K258" s="13"/>
       <c r="L258" s="13"/>
       <c r="M258" s="13" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N258" s="13"/>
       <c r="O258" s="22"/>
@@ -17354,10 +17378,10 @@
         <v>10309</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -17379,7 +17403,7 @@
       <c r="K259" s="15"/>
       <c r="L259" s="15"/>
       <c r="M259" s="15" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="N259" s="15"/>
       <c r="O259" s="23"/>
@@ -17404,10 +17428,10 @@
         <v>10310</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D260" s="13">
         <v>1</v>
@@ -17429,7 +17453,7 @@
       <c r="K260" s="13"/>
       <c r="L260" s="13"/>
       <c r="M260" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N260" s="13"/>
       <c r="O260" s="22"/>
@@ -17454,10 +17478,10 @@
         <v>10311</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -17479,7 +17503,7 @@
       <c r="K261" s="15"/>
       <c r="L261" s="15"/>
       <c r="M261" s="15" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="N261" s="15"/>
       <c r="O261" s="23"/>
@@ -17504,10 +17528,10 @@
         <v>10312</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D262" s="13">
         <v>1</v>
@@ -17529,7 +17553,7 @@
       <c r="K262" s="13"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="N262" s="13"/>
       <c r="O262" s="22"/>
@@ -17554,10 +17578,10 @@
         <v>10313</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -17579,7 +17603,7 @@
       <c r="K263" s="15"/>
       <c r="L263" s="15"/>
       <c r="M263" s="15" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N263" s="15"/>
       <c r="O263" s="23"/>
@@ -17604,10 +17628,10 @@
         <v>10314</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D264" s="13">
         <v>1</v>
@@ -17629,7 +17653,7 @@
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="N264" s="13"/>
       <c r="O264" s="22"/>
@@ -17654,10 +17678,10 @@
         <v>10315</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -17679,7 +17703,7 @@
       <c r="K265" s="15"/>
       <c r="L265" s="15"/>
       <c r="M265" s="15" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N265" s="15"/>
       <c r="O265" s="23"/>
@@ -17704,10 +17728,10 @@
         <v>10316</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D266" s="13">
         <v>1</v>
@@ -17729,7 +17753,7 @@
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N266" s="13"/>
       <c r="O266" s="22"/>
@@ -17754,10 +17778,10 @@
         <v>10317</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D267" s="15">
         <v>1</v>
@@ -17779,7 +17803,7 @@
       <c r="K267" s="15"/>
       <c r="L267" s="15"/>
       <c r="M267" s="15" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="N267" s="15"/>
       <c r="O267" s="23"/>
@@ -17804,10 +17828,10 @@
         <v>10318</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C268" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D268" s="13">
         <v>1</v>
@@ -17829,7 +17853,7 @@
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N268" s="13"/>
       <c r="O268" s="22"/>
@@ -17854,10 +17878,10 @@
         <v>20000</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D269" s="15">
         <v>1</v>
@@ -17879,7 +17903,7 @@
       <c r="K269" s="15"/>
       <c r="L269" s="15"/>
       <c r="M269" s="15" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="N269" s="15"/>
       <c r="O269" s="23"/>
@@ -17904,10 +17928,10 @@
         <v>20001</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D270" s="13">
         <v>1</v>
@@ -17929,7 +17953,7 @@
       <c r="K270" s="13"/>
       <c r="L270" s="13"/>
       <c r="M270" s="13" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="N270" s="13"/>
       <c r="O270" s="22"/>
@@ -17954,10 +17978,10 @@
         <v>20002</v>
       </c>
       <c r="B271" s="28" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D271" s="28">
         <v>1</v>
@@ -17975,7 +17999,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J271" s="28"/>
       <c r="K271" s="28"/>
@@ -18006,10 +18030,10 @@
         <v>20003</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D272" s="13">
         <v>1</v>
@@ -18027,13 +18051,13 @@
         <v>1</v>
       </c>
       <c r="I272" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J272" s="13"/>
       <c r="K272" s="13"/>
       <c r="L272" s="13"/>
       <c r="M272" s="13" t="s">
-        <v>49</v>
+        <v>424</v>
       </c>
       <c r="N272" s="13"/>
       <c r="O272" s="22"/>
@@ -18058,10 +18082,10 @@
         <v>20004</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -18079,13 +18103,13 @@
         <v>1</v>
       </c>
       <c r="I273" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J273" s="15"/>
       <c r="K273" s="15"/>
       <c r="L273" s="15"/>
       <c r="M273" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="N273" s="15"/>
       <c r="O273" s="23"/>
@@ -18110,10 +18134,10 @@
         <v>20005</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D274" s="13">
         <v>1</v>
@@ -18131,13 +18155,13 @@
         <v>1</v>
       </c>
       <c r="I274" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J274" s="13"/>
       <c r="K274" s="13"/>
       <c r="L274" s="13"/>
       <c r="M274" s="13" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="N274" s="13"/>
       <c r="O274" s="22"/>
@@ -18162,10 +18186,10 @@
         <v>20006</v>
       </c>
       <c r="B275" s="30" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C275" s="30" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D275" s="30">
         <v>1</v>
@@ -18183,7 +18207,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="30" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J275" s="30"/>
       <c r="K275" s="30"/>
@@ -18214,10 +18238,10 @@
         <v>20007</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D276" s="13">
         <v>1</v>
@@ -18235,13 +18259,13 @@
         <v>1</v>
       </c>
       <c r="I276" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J276" s="13"/>
       <c r="K276" s="13"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="N276" s="13"/>
       <c r="O276" s="22"/>
@@ -18266,10 +18290,10 @@
         <v>20008</v>
       </c>
       <c r="B277" s="30" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C277" s="30" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D277" s="30">
         <v>1</v>
@@ -18287,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="I277" s="30" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J277" s="30"/>
       <c r="K277" s="30"/>
@@ -18318,10 +18342,10 @@
         <v>20009</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D278" s="13">
         <v>1</v>
@@ -18339,13 +18363,13 @@
         <v>1</v>
       </c>
       <c r="I278" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J278" s="13"/>
       <c r="K278" s="13"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="N278" s="13"/>
       <c r="O278" s="22"/>
@@ -18370,10 +18394,10 @@
         <v>20010</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -18391,13 +18415,13 @@
         <v>1</v>
       </c>
       <c r="I279" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J279" s="15"/>
       <c r="K279" s="15"/>
       <c r="L279" s="15"/>
       <c r="M279" s="15" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="N279" s="15"/>
       <c r="O279" s="23"/>
@@ -18422,10 +18446,10 @@
         <v>20011</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D280" s="15">
         <v>1</v>
@@ -18443,13 +18467,13 @@
         <v>1</v>
       </c>
       <c r="I280" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J280" s="13"/>
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
       <c r="M280" s="15" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="N280" s="13"/>
       <c r="O280" s="22"/>
@@ -18474,10 +18498,10 @@
         <v>20012</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D281" s="13">
         <v>1</v>
@@ -18495,13 +18519,13 @@
         <v>1</v>
       </c>
       <c r="I281" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J281" s="13"/>
       <c r="K281" s="13"/>
       <c r="L281" s="13"/>
       <c r="M281" s="15" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="N281" s="13"/>
       <c r="O281" s="23"/>
@@ -18526,10 +18550,10 @@
         <v>20013</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D282" s="15">
         <v>1</v>
@@ -18547,13 +18571,13 @@
         <v>1</v>
       </c>
       <c r="I282" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J282" s="13"/>
       <c r="K282" s="13"/>
       <c r="L282" s="13"/>
       <c r="M282" s="15" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="N282" s="13"/>
       <c r="O282" s="22"/>
@@ -18578,10 +18602,10 @@
         <v>20014</v>
       </c>
       <c r="B283" s="32" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C283" s="30" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D283" s="30">
         <v>1</v>
@@ -18599,7 +18623,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="30" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J283" s="32"/>
       <c r="K283" s="32"/>
@@ -18630,10 +18654,10 @@
         <v>20015</v>
       </c>
       <c r="B284" s="32" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D284" s="32">
         <v>1</v>
@@ -18651,7 +18675,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="30" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J284" s="32"/>
       <c r="K284" s="32"/>
@@ -18682,10 +18706,10 @@
         <v>20016</v>
       </c>
       <c r="B285" s="32" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D285" s="30">
         <v>1</v>
@@ -18703,7 +18727,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J285" s="32"/>
       <c r="K285" s="32"/>
@@ -18734,10 +18758,10 @@
         <v>20017</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D286" s="15">
         <v>1</v>
@@ -18755,13 +18779,13 @@
         <v>1</v>
       </c>
       <c r="I286" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J286" s="13"/>
       <c r="K286" s="13"/>
       <c r="L286" s="13"/>
       <c r="M286" s="15" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="N286" s="13"/>
       <c r="O286" s="22"/>
@@ -18786,10 +18810,10 @@
         <v>20018</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D287" s="13">
         <v>1</v>
@@ -18807,13 +18831,13 @@
         <v>1</v>
       </c>
       <c r="I287" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J287" s="13"/>
       <c r="K287" s="13"/>
       <c r="L287" s="13"/>
       <c r="M287" s="15" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="N287" s="13"/>
       <c r="O287" s="23"/>
@@ -18838,10 +18862,10 @@
         <v>20019</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D288" s="15">
         <v>1</v>
@@ -18859,13 +18883,13 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J288" s="13"/>
       <c r="K288" s="13"/>
       <c r="L288" s="13"/>
       <c r="M288" s="15" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N288" s="13"/>
       <c r="O288" s="22"/>
@@ -18890,10 +18914,10 @@
         <v>20020</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C289" s="35" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D289" s="13">
         <v>1</v>
@@ -18911,13 +18935,13 @@
         <v>1</v>
       </c>
       <c r="I289" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J289" s="13"/>
       <c r="K289" s="13"/>
       <c r="L289" s="13"/>
       <c r="M289" s="15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="N289" s="13"/>
       <c r="O289" s="23"/>
@@ -18942,10 +18966,10 @@
         <v>20021</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C290" s="35" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D290" s="15">
         <v>1</v>
@@ -18963,13 +18987,13 @@
         <v>1</v>
       </c>
       <c r="I290" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J290" s="13"/>
       <c r="K290" s="13"/>
       <c r="L290" s="13"/>
       <c r="M290" s="15" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="N290" s="13"/>
       <c r="O290" s="22"/>
@@ -18994,10 +19018,10 @@
         <v>20022</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C291" s="35" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D291" s="15">
         <v>1</v>
@@ -19015,13 +19039,13 @@
         <v>1</v>
       </c>
       <c r="I291" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J291" s="13"/>
       <c r="K291" s="13"/>
       <c r="L291" s="13"/>
       <c r="M291" s="15" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="N291" s="13"/>
       <c r="O291" s="23"/>
@@ -19046,10 +19070,10 @@
         <v>20023</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C292" s="35" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D292" s="13">
         <v>1</v>
@@ -19067,13 +19091,13 @@
         <v>1</v>
       </c>
       <c r="I292" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J292" s="13"/>
       <c r="K292" s="13"/>
       <c r="L292" s="13"/>
       <c r="M292" s="15" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="N292" s="13"/>
       <c r="O292" s="22"/>
@@ -19098,10 +19122,10 @@
         <v>20024</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C293" s="35" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D293" s="15">
         <v>1</v>
@@ -19119,13 +19143,13 @@
         <v>1</v>
       </c>
       <c r="I293" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J293" s="13"/>
       <c r="K293" s="13"/>
       <c r="L293" s="13"/>
       <c r="M293" s="15" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="N293" s="13"/>
       <c r="AC293" s="20">
@@ -19137,10 +19161,10 @@
         <v>20025</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C294" s="35" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D294" s="15">
         <v>1</v>
@@ -19158,13 +19182,13 @@
         <v>1</v>
       </c>
       <c r="I294" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J294" s="13"/>
       <c r="K294" s="13"/>
       <c r="L294" s="13"/>
       <c r="M294" s="15" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="N294" s="13"/>
       <c r="AC294" s="20">
@@ -19176,10 +19200,10 @@
         <v>20026</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C295" s="35" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D295" s="13">
         <v>1</v>
@@ -19197,13 +19221,13 @@
         <v>1</v>
       </c>
       <c r="I295" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J295" s="13"/>
       <c r="K295" s="13"/>
       <c r="L295" s="13"/>
       <c r="M295" s="15" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="N295" s="13"/>
       <c r="AC295" s="20">
@@ -19215,10 +19239,10 @@
         <v>20027</v>
       </c>
       <c r="B296" s="34" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C296" s="35" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D296" s="15">
         <v>1</v>
@@ -19236,13 +19260,13 @@
         <v>1</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J296" s="13"/>
       <c r="K296" s="13"/>
       <c r="L296" s="13"/>
       <c r="M296" s="15" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="N296" s="13"/>
       <c r="AC296" s="20">
@@ -19254,10 +19278,10 @@
         <v>20028</v>
       </c>
       <c r="B297" s="34" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C297" s="35" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D297" s="15">
         <v>1</v>
@@ -19275,13 +19299,13 @@
         <v>1</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J297" s="13"/>
       <c r="K297" s="13"/>
       <c r="L297" s="13"/>
       <c r="M297" s="15" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N297" s="13"/>
       <c r="AC297" s="20">
@@ -19293,10 +19317,10 @@
         <v>20029</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D298" s="15">
         <v>1</v>
@@ -19314,7 +19338,7 @@
         <v>1</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J298" s="13"/>
       <c r="K298" s="13"/>
@@ -19332,10 +19356,10 @@
         <v>20101</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D299" s="13">
         <v>1</v>
@@ -19353,7 +19377,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J299" s="13"/>
       <c r="K299" s="13"/>
@@ -19371,10 +19395,10 @@
         <v>20102</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D300" s="15">
         <v>1</v>
@@ -19392,7 +19416,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J300" s="15"/>
       <c r="K300" s="15"/>
@@ -19410,10 +19434,10 @@
         <v>20103</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D301" s="13">
         <v>1</v>
@@ -19431,7 +19455,7 @@
         <v>1</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J301" s="13"/>
       <c r="K301" s="13"/>
@@ -19449,10 +19473,10 @@
         <v>20104</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D302" s="15">
         <v>1</v>
@@ -19470,7 +19494,7 @@
         <v>1</v>
       </c>
       <c r="I302" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J302" s="15"/>
       <c r="K302" s="15"/>
@@ -19488,10 +19512,10 @@
         <v>20105</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D303" s="13">
         <v>1</v>
@@ -19509,7 +19533,7 @@
         <v>1</v>
       </c>
       <c r="I303" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J303" s="13"/>
       <c r="K303" s="13"/>
@@ -19527,10 +19551,10 @@
         <v>20106</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D304" s="15">
         <v>1</v>
@@ -19548,7 +19572,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
@@ -19566,10 +19590,10 @@
         <v>20107</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D305" s="13">
         <v>1</v>
@@ -19587,7 +19611,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J305" s="13"/>
       <c r="K305" s="13"/>
@@ -19605,10 +19629,10 @@
         <v>20108</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D306" s="15">
         <v>1</v>
@@ -19626,7 +19650,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
@@ -19644,10 +19668,10 @@
         <v>20109</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D307" s="13">
         <v>1</v>
@@ -19665,7 +19689,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J307" s="13"/>
       <c r="K307" s="13"/>
@@ -19683,10 +19707,10 @@
         <v>20110</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D308" s="15">
         <v>1</v>
@@ -19704,7 +19728,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J308" s="15"/>
       <c r="K308" s="15"/>
@@ -19722,10 +19746,10 @@
         <v>20111</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D309" s="13">
         <v>1</v>
@@ -19743,7 +19767,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J309" s="13"/>
       <c r="K309" s="13"/>
@@ -19761,10 +19785,10 @@
         <v>20201</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D310" s="15">
         <v>1</v>
@@ -19798,10 +19822,10 @@
         <v>20202</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D311" s="13">
         <v>1</v>
@@ -19835,10 +19859,10 @@
         <v>20203</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D312" s="15">
         <v>1</v>
@@ -19872,10 +19896,10 @@
         <v>20204</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="D313" s="13">
         <v>1</v>
@@ -19909,10 +19933,10 @@
         <v>20205</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D314" s="15">
         <v>1</v>
@@ -19946,10 +19970,10 @@
         <v>20206</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D315" s="13">
         <v>1</v>
@@ -19983,10 +20007,10 @@
         <v>20207</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D316" s="15">
         <v>1</v>
@@ -20020,10 +20044,10 @@
         <v>20208</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D317" s="13">
         <v>1</v>
@@ -20057,10 +20081,10 @@
         <v>20209</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D318" s="15">
         <v>1</v>
@@ -20094,10 +20118,10 @@
         <v>20210</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D319" s="13">
         <v>1</v>
@@ -20131,10 +20155,10 @@
         <v>21001</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D320" s="15">
         <v>1</v>
@@ -20152,7 +20176,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
@@ -20170,10 +20194,10 @@
         <v>21002</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D321" s="13">
         <v>1</v>
@@ -20191,7 +20215,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="13" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="J321" s="13"/>
       <c r="K321" s="13"/>
@@ -20209,10 +20233,10 @@
         <v>21003</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D322" s="15">
         <v>1</v>
@@ -20230,7 +20254,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
@@ -20248,10 +20272,10 @@
         <v>21004</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="D323" s="13">
         <v>1</v>
@@ -20269,7 +20293,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="J323" s="13"/>
       <c r="K323" s="13"/>
@@ -20287,10 +20311,10 @@
         <v>21005</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D324" s="15">
         <v>1</v>
@@ -20308,7 +20332,7 @@
         <v>1</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="J324" s="15"/>
       <c r="K324" s="15"/>
@@ -20326,10 +20350,10 @@
         <v>21006</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D325" s="13">
         <v>1</v>
@@ -20347,7 +20371,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="J325" s="13"/>
       <c r="K325" s="13"/>
@@ -20365,10 +20389,10 @@
         <v>21007</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C326" s="15" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D326" s="15">
         <v>1</v>
@@ -20386,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="J326" s="15"/>
       <c r="K326" s="15"/>
@@ -20404,10 +20428,10 @@
         <v>21101</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D327" s="13">
         <v>1</v>
@@ -20425,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J327" s="13"/>
       <c r="K327" s="13"/>
@@ -20443,10 +20467,10 @@
         <v>21102</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="D328" s="15">
         <v>1</v>
@@ -20464,7 +20488,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
@@ -20482,10 +20506,10 @@
         <v>21103</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D329" s="13">
         <v>1</v>
@@ -20503,7 +20527,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J329" s="13"/>
       <c r="K329" s="13"/>
@@ -20521,10 +20545,10 @@
         <v>21104</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D330" s="15">
         <v>1</v>
@@ -20542,7 +20566,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
@@ -20560,10 +20584,10 @@
         <v>21105</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D331" s="13">
         <v>1</v>
@@ -20581,7 +20605,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J331" s="13"/>
       <c r="K331" s="13"/>
@@ -20599,10 +20623,10 @@
         <v>21106</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="D332" s="15">
         <v>1</v>
@@ -20620,7 +20644,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
@@ -20638,10 +20662,10 @@
         <v>21107</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D333" s="13">
         <v>1</v>
@@ -20659,7 +20683,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="13" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J333" s="13"/>
       <c r="K333" s="13"/>
@@ -20677,10 +20701,10 @@
         <v>21108</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D334" s="15">
         <v>1</v>
@@ -20698,7 +20722,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
@@ -20716,10 +20740,10 @@
         <v>21109</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D335" s="13">
         <v>1</v>
@@ -20737,7 +20761,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J335" s="13"/>
       <c r="K335" s="13"/>
@@ -20755,10 +20779,10 @@
         <v>21110</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D336" s="15">
         <v>1</v>
@@ -20776,7 +20800,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J336" s="15"/>
       <c r="K336" s="15"/>
@@ -20794,10 +20818,10 @@
         <v>21111</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D337" s="13">
         <v>1</v>
@@ -20815,7 +20839,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="13" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J337" s="13"/>
       <c r="K337" s="13"/>
@@ -20833,10 +20857,10 @@
         <v>21112</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D338" s="15">
         <v>1</v>
@@ -20854,7 +20878,7 @@
         <v>1</v>
       </c>
       <c r="I338" s="15" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
@@ -20872,10 +20896,10 @@
         <v>100001</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D339" s="13">
         <v>1</v>
@@ -20909,7 +20933,7 @@
         <v>100002</v>
       </c>
       <c r="B340" s="36" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C340" s="36"/>
       <c r="D340" s="36">
@@ -20928,12 +20952,14 @@
         <v>1</v>
       </c>
       <c r="I340" s="36" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="J340" s="36"/>
       <c r="K340" s="36"/>
       <c r="L340" s="36"/>
-      <c r="M340" s="36"/>
+      <c r="M340" s="36" t="s">
+        <v>566</v>
+      </c>
       <c r="N340" s="36"/>
       <c r="AC340" s="20">
         <v>0</v>
@@ -20944,7 +20970,7 @@
         <v>100003</v>
       </c>
       <c r="B341" s="36" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C341" s="36"/>
       <c r="D341" s="36">
@@ -20963,12 +20989,14 @@
         <v>1</v>
       </c>
       <c r="I341" s="36" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="J341" s="36"/>
       <c r="K341" s="36"/>
       <c r="L341" s="36"/>
-      <c r="M341" s="36"/>
+      <c r="M341" s="36" t="s">
+        <v>566</v>
+      </c>
       <c r="N341" s="36"/>
       <c r="AC341" s="20">
         <v>0</v>

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="server_item_list" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="587">
   <si>
     <t>物品引索</t>
   </si>
@@ -311,24 +311,36 @@
     <t>可以去商城【魂石兑换】里面兑换任意的1级魂石</t>
   </si>
   <si>
+    <t>item_server/1287_1级魂石兑换卷</t>
+  </si>
+  <si>
     <t>2级魂石兑换券</t>
   </si>
   <si>
     <t>可以去商城【魂石兑换】里面兑换任意的2级魂石</t>
   </si>
   <si>
+    <t>item_server/1288_2级魂石兑换卷</t>
+  </si>
+  <si>
     <t>3级魂石兑换券</t>
   </si>
   <si>
     <t>可以去商城【魂石兑换】里面兑换任意的3级魂石</t>
   </si>
   <si>
+    <t>item_server/1289_3级魂石兑换卷</t>
+  </si>
+  <si>
     <t>4级魂石兑换券</t>
   </si>
   <si>
     <t>可以去商城【魂石兑换】里面兑换任意的4级魂石</t>
   </si>
   <si>
+    <t>item_server/1290_4级魂石兑换卷</t>
+  </si>
+  <si>
     <t>天赋点</t>
   </si>
   <si>
@@ -926,7 +938,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张精良图鉴</t>
   </si>
   <si>
-    <t>item_server/3517_精良图鉴箱</t>
+    <t>item_server/3517_精良图鉴兑换卷</t>
   </si>
   <si>
     <t>史诗图鉴兑换券</t>
@@ -935,7 +947,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张史诗图鉴</t>
   </si>
   <si>
-    <t>item_server/3518_史诗图鉴箱</t>
+    <t>item_server/3518_史诗图鉴兑换卷</t>
   </si>
   <si>
     <t>传说图鉴兑换券</t>
@@ -944,7 +956,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张传说图鉴</t>
   </si>
   <si>
-    <t>item_server/3519_传说图鉴箱</t>
+    <t>item_server/3519_传说图鉴兑换卷</t>
   </si>
   <si>
     <t>不朽图鉴兑换券</t>
@@ -953,7 +965,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张不朽图鉴</t>
   </si>
   <si>
-    <t>item_server/3520_不朽图鉴箱</t>
+    <t>item_server/3520_不朽图鉴兑换卷</t>
   </si>
   <si>
     <t>熔火炼狱的图鉴兑换券</t>
@@ -962,7 +974,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张熔火炼狱的图鉴</t>
   </si>
   <si>
-    <t>item_server/3521_熔火炼狱的图鉴箱</t>
+    <t>item_server/3521_熔火炼狱兑换卷</t>
   </si>
   <si>
     <t>极北之地的图鉴兑换券</t>
@@ -971,7 +983,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张极北之地的图鉴</t>
   </si>
   <si>
-    <t>item_server/3522_极北之地的图鉴箱</t>
+    <t>item_server/3522_极北之地兑换卷</t>
   </si>
   <si>
     <t>狂风沙漠的图鉴兑换券</t>
@@ -980,7 +992,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张狂风沙漠的图鉴</t>
   </si>
   <si>
-    <t>item_server/3523_狂风沙漠的图鉴箱</t>
+    <t>item_server/3523_狂风沙漠兑换卷</t>
   </si>
   <si>
     <t>雷霆之地的图鉴兑换券</t>
@@ -998,7 +1010,7 @@
     <t>可以去商城【图鉴兑换】里面去兑换任意一张元素大陆的图鉴</t>
   </si>
   <si>
-    <t>item_server/3525_元素大陆图的鉴箱</t>
+    <t>item_server/3525_元素大陆兑换卷</t>
   </si>
   <si>
     <t>1级魂石·攻击力</t>
@@ -1703,42 +1715,63 @@
     <t>1005_50000</t>
   </si>
   <si>
+    <t>item_server/21001_急速元素</t>
+  </si>
+  <si>
     <t>攻击元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1攻击力，每10个提高1%攻击力</t>
   </si>
   <si>
+    <t>item_server/21002_攻击元素</t>
+  </si>
+  <si>
     <t>火元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1%火元素伤害，每10个提高1%火元素穿透</t>
   </si>
   <si>
+    <t>item_server/21003_火元素</t>
+  </si>
+  <si>
     <t>冰元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1%冰元素伤害，每10个提高1%冰元素穿透</t>
   </si>
   <si>
+    <t>item_server/21004_冰元素</t>
+  </si>
+  <si>
     <t>雷元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1%雷元素伤害，每10个提高1%雷元素穿透</t>
   </si>
   <si>
+    <t>item_server/21005_雷元素</t>
+  </si>
+  <si>
     <t>风元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1%风元素伤害，每10个提高1%风元素穿透</t>
   </si>
   <si>
+    <t>item_server/21006_风元素</t>
+  </si>
+  <si>
     <t>攻速元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1攻击速度，每10个降低0.01攻击间隔</t>
   </si>
   <si>
+    <t>item_server/21007_攻速元素</t>
+  </si>
+  <si>
     <t>暴击元素</t>
   </si>
   <si>
@@ -1748,70 +1781,106 @@
     <t>1005_20000</t>
   </si>
   <si>
+    <t>item_server/21101_暴击元素</t>
+  </si>
+  <si>
     <t>爆伤元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1%暴击伤害</t>
   </si>
   <si>
+    <t>item_server/21102_暴伤元素</t>
+  </si>
+  <si>
     <t>生命元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+5最大生命值</t>
   </si>
   <si>
+    <t>item_server/21103_生命元素</t>
+  </si>
+  <si>
     <t>蓝量元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1最大蓝量</t>
   </si>
   <si>
+    <t>item_server/21104_蓝量元素</t>
+  </si>
+  <si>
     <t>移速元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1移动速度</t>
   </si>
   <si>
+    <t>item_server/21105_移动速度</t>
+  </si>
+  <si>
     <t>伤害元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1%伤害加成</t>
   </si>
   <si>
+    <t>item_server/21106_伤害元素</t>
+  </si>
+  <si>
     <t>固伤元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+5固定伤害</t>
   </si>
   <si>
+    <t>item_server/21107_固伤元素</t>
+  </si>
+  <si>
     <t>固免元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+5固定伤害减免</t>
   </si>
   <si>
+    <t>item_server/21108_固免元素</t>
+  </si>
+  <si>
     <t>暴击抵抗元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+0.25%暴击抵抗</t>
   </si>
   <si>
+    <t>item_server/21109_暴击抵抗元素</t>
+  </si>
+  <si>
     <t>爆伤抵抗元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1%暴击伤害抵抗</t>
   </si>
   <si>
+    <t>item_server/21110_爆伤抵抗元素</t>
+  </si>
+  <si>
     <t>元素抗性</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1%全元素抗性</t>
   </si>
   <si>
+    <t>item_server/21111_元素抗性</t>
+  </si>
+  <si>
     <t>护甲元素</t>
   </si>
   <si>
     <t>元素供养属性道具，每一个+1护甲</t>
+  </si>
+  <si>
+    <t>item_server/21112_护甲元素</t>
   </si>
   <si>
     <t>怪物图鉴卡</t>
@@ -3335,16 +3404,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{69952E15-E459-4809-AF8D-76806CD884FD}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{AD3FCF31-C7E5-4DBD-BCD8-303516D8A214}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{65567279-9372-4694-A9A4-CCE914ED3B59}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2334B07C-7815-40B5-96FD-A7D82CBA4AA2}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{5EA915FD-CFBB-4586-A709-F6A3A101041D}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E00B32F6-D3C8-4917-ACEA-9D9FBB2A70B0}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3356,7 +3425,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{5A278FD7-6182-4003-827D-8474517EF57C}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{7E0C7325-C0F1-4725-B562-FF46C5F35DC3}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3670,11 +3739,11 @@
   <dimension ref="A1:AC337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J157" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="M316" sqref="M316:M334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5131,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="N26" s="13"/>
       <c r="O26" s="22"/>
@@ -5156,10 +5225,10 @@
         <v>1288</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
@@ -5185,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="23"/>
@@ -5210,10 +5279,10 @@
         <v>1289</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5239,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="22"/>
@@ -5264,10 +5333,10 @@
         <v>1290</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D29" s="15">
         <v>1</v>
@@ -5293,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="N29" s="15"/>
       <c r="O29" s="23"/>
@@ -5318,10 +5387,10 @@
         <v>1291</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5372,10 +5441,10 @@
         <v>1292</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
@@ -5426,10 +5495,10 @@
         <v>1293</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5480,10 +5549,10 @@
         <v>1294</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
@@ -5534,10 +5603,10 @@
         <v>1295</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -5586,10 +5655,10 @@
         <v>1296</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
@@ -5638,10 +5707,10 @@
         <v>1297</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -5690,10 +5759,10 @@
         <v>1298</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -5742,10 +5811,10 @@
         <v>1299</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
@@ -5763,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J38" s="19"/>
       <c r="K38" s="13">
@@ -5796,10 +5865,10 @@
         <v>1300</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -5848,10 +5917,10 @@
         <v>1301</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -5869,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="13">
@@ -5902,10 +5971,10 @@
         <v>1302</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -5954,10 +6023,10 @@
         <v>2001</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -5983,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="22"/>
@@ -6008,10 +6077,10 @@
         <v>2002</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
@@ -6063,10 +6132,10 @@
         <v>2003</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D44" s="13">
         <v>1</v>
@@ -6118,10 +6187,10 @@
         <v>2004</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="D45" s="15">
         <v>1</v>
@@ -6173,10 +6242,10 @@
         <v>2005</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
@@ -6228,10 +6297,10 @@
         <v>2006</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
@@ -6283,10 +6352,10 @@
         <v>2007</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
@@ -6338,10 +6407,10 @@
         <v>2008</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
@@ -6393,10 +6462,10 @@
         <v>2009</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
@@ -6448,10 +6517,10 @@
         <v>2010</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
@@ -6503,10 +6572,10 @@
         <v>2011</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D52" s="13">
         <v>1</v>
@@ -6558,10 +6627,10 @@
         <v>2012</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
@@ -6613,10 +6682,10 @@
         <v>2013</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D54" s="13">
         <v>1</v>
@@ -6668,10 +6737,10 @@
         <v>2014</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D55" s="15">
         <v>1</v>
@@ -6723,10 +6792,10 @@
         <v>2015</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
@@ -6778,10 +6847,10 @@
         <v>2016</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D57" s="15">
         <v>1</v>
@@ -6833,10 +6902,10 @@
         <v>2017</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D58" s="13">
         <v>1</v>
@@ -6888,10 +6957,10 @@
         <v>2019</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -6943,10 +7012,10 @@
         <v>2020</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D60" s="13">
         <v>1</v>
@@ -6998,10 +7067,10 @@
         <v>2021</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D61" s="15">
         <v>1</v>
@@ -7053,10 +7122,10 @@
         <v>2022</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D62" s="13">
         <v>1</v>
@@ -7108,10 +7177,10 @@
         <v>2023</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D63" s="15">
         <v>1</v>
@@ -7163,10 +7232,10 @@
         <v>2024</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D64" s="13">
         <v>1</v>
@@ -7218,10 +7287,10 @@
         <v>2025</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D65" s="15">
         <v>1</v>
@@ -7273,10 +7342,10 @@
         <v>2026</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D66" s="13">
         <v>1</v>
@@ -7328,10 +7397,10 @@
         <v>2027</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -7383,10 +7452,10 @@
         <v>2028</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D68" s="13">
         <v>1</v>
@@ -7438,10 +7507,10 @@
         <v>2029</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D69" s="15">
         <v>1</v>
@@ -7493,10 +7562,10 @@
         <v>2030</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D70" s="13">
         <v>1</v>
@@ -7548,10 +7617,10 @@
         <v>2031</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D71" s="15">
         <v>1</v>
@@ -7603,10 +7672,10 @@
         <v>2032</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D72" s="13">
         <v>1</v>
@@ -7658,10 +7727,10 @@
         <v>2033</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D73" s="15">
         <v>1</v>
@@ -7713,10 +7782,10 @@
         <v>2034</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D74" s="13">
         <v>1</v>
@@ -7768,10 +7837,10 @@
         <v>2035</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D75" s="15">
         <v>1</v>
@@ -7823,10 +7892,10 @@
         <v>2036</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D76" s="13">
         <v>1</v>
@@ -7878,10 +7947,10 @@
         <v>2037</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D77" s="15">
         <v>1</v>
@@ -7933,10 +8002,10 @@
         <v>2038</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D78" s="13">
         <v>1</v>
@@ -7988,10 +8057,10 @@
         <v>2039</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D79" s="15">
         <v>1</v>
@@ -8043,10 +8112,10 @@
         <v>2040</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D80" s="13">
         <v>1</v>
@@ -8098,10 +8167,10 @@
         <v>2041</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D81" s="15">
         <v>1</v>
@@ -8153,10 +8222,10 @@
         <v>2042</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D82" s="13">
         <v>1</v>
@@ -8208,10 +8277,10 @@
         <v>2043</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D83" s="15">
         <v>1</v>
@@ -8263,10 +8332,10 @@
         <v>2044</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D84" s="13">
         <v>1</v>
@@ -8318,10 +8387,10 @@
         <v>2045</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D85" s="15">
         <v>1</v>
@@ -8373,10 +8442,10 @@
         <v>2501</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D86" s="13">
         <v>1</v>
@@ -8428,10 +8497,10 @@
         <v>2502</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D87" s="15">
         <v>1</v>
@@ -8483,10 +8552,10 @@
         <v>2503</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D88" s="13">
         <v>1</v>
@@ -8538,10 +8607,10 @@
         <v>2504</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D89" s="15">
         <v>1</v>
@@ -8593,10 +8662,10 @@
         <v>2505</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D90" s="13">
         <v>1</v>
@@ -8648,10 +8717,10 @@
         <v>2506</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D91" s="15">
         <v>1</v>
@@ -8703,10 +8772,10 @@
         <v>2507</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D92" s="13">
         <v>1</v>
@@ -8758,10 +8827,10 @@
         <v>2508</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D93" s="15">
         <v>1</v>
@@ -8813,10 +8882,10 @@
         <v>2509</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D94" s="13">
         <v>1</v>
@@ -8868,10 +8937,10 @@
         <v>2510</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D95" s="15">
         <v>1</v>
@@ -8923,10 +8992,10 @@
         <v>2511</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D96" s="13">
         <v>1</v>
@@ -8978,10 +9047,10 @@
         <v>2512</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D97" s="15">
         <v>1</v>
@@ -9033,10 +9102,10 @@
         <v>2513</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D98" s="13">
         <v>1</v>
@@ -9088,10 +9157,10 @@
         <v>2514</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -9143,10 +9212,10 @@
         <v>2516</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D100" s="13">
         <v>1</v>
@@ -9198,10 +9267,10 @@
         <v>2517</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D101" s="15">
         <v>1</v>
@@ -9253,10 +9322,10 @@
         <v>2518</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D102" s="13">
         <v>1</v>
@@ -9308,10 +9377,10 @@
         <v>2519</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D103" s="15">
         <v>1</v>
@@ -9363,10 +9432,10 @@
         <v>2520</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D104" s="13">
         <v>1</v>
@@ -9418,10 +9487,10 @@
         <v>2521</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D105" s="15">
         <v>1</v>
@@ -9473,10 +9542,10 @@
         <v>2522</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D106" s="13">
         <v>1</v>
@@ -9528,10 +9597,10 @@
         <v>2523</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D107" s="15">
         <v>1</v>
@@ -9583,10 +9652,10 @@
         <v>2524</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D108" s="13">
         <v>1</v>
@@ -9638,10 +9707,10 @@
         <v>2525</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D109" s="15">
         <v>1</v>
@@ -9693,10 +9762,10 @@
         <v>2526</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D110" s="13">
         <v>1</v>
@@ -9748,10 +9817,10 @@
         <v>2527</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D111" s="15">
         <v>1</v>
@@ -9803,10 +9872,10 @@
         <v>2528</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D112" s="13">
         <v>1</v>
@@ -9858,10 +9927,10 @@
         <v>2529</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D113" s="15">
         <v>1</v>
@@ -9913,10 +9982,10 @@
         <v>2530</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D114" s="13">
         <v>1</v>
@@ -9968,10 +10037,10 @@
         <v>2531</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D115" s="15">
         <v>1</v>
@@ -10023,10 +10092,10 @@
         <v>2532</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D116" s="13">
         <v>1</v>
@@ -10078,10 +10147,10 @@
         <v>2533</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D117" s="15">
         <v>1</v>
@@ -10133,10 +10202,10 @@
         <v>2534</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D118" s="13">
         <v>1</v>
@@ -10188,10 +10257,10 @@
         <v>2535</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D119" s="15">
         <v>1</v>
@@ -10243,10 +10312,10 @@
         <v>2536</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D120" s="13">
         <v>1</v>
@@ -10298,10 +10367,10 @@
         <v>2537</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D121" s="15">
         <v>1</v>
@@ -10353,10 +10422,10 @@
         <v>2538</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D122" s="13">
         <v>1</v>
@@ -10408,10 +10477,10 @@
         <v>2539</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D123" s="15">
         <v>1</v>
@@ -10463,10 +10532,10 @@
         <v>2540</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D124" s="13">
         <v>1</v>
@@ -10518,10 +10587,10 @@
         <v>2541</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D125" s="15">
         <v>1</v>
@@ -10573,10 +10642,10 @@
         <v>2542</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D126" s="13">
         <v>1</v>
@@ -10628,10 +10697,10 @@
         <v>2543</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D127" s="15">
         <v>1</v>
@@ -10683,10 +10752,10 @@
         <v>2544</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D128" s="13">
         <v>1</v>
@@ -10738,10 +10807,10 @@
         <v>2545</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D129" s="15">
         <v>1</v>
@@ -10793,10 +10862,10 @@
         <v>2546</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D130" s="13">
         <v>1</v>
@@ -10848,10 +10917,10 @@
         <v>2547</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D131" s="15">
         <v>1</v>
@@ -10903,10 +10972,10 @@
         <v>2548</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D132" s="13">
         <v>1</v>
@@ -10958,10 +11027,10 @@
         <v>2549</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D133" s="15">
         <v>1</v>
@@ -11013,10 +11082,10 @@
         <v>2550</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D134" s="13">
         <v>1</v>
@@ -11068,10 +11137,10 @@
         <v>2551</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D135" s="15">
         <v>1</v>
@@ -11123,10 +11192,10 @@
         <v>2552</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D136" s="13">
         <v>1</v>
@@ -11178,10 +11247,10 @@
         <v>2553</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D137" s="15">
         <v>1</v>
@@ -11233,10 +11302,10 @@
         <v>2554</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D138" s="13">
         <v>1</v>
@@ -11288,10 +11357,10 @@
         <v>2555</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D139" s="15">
         <v>1</v>
@@ -11343,10 +11412,10 @@
         <v>2556</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D140" s="13">
         <v>1</v>
@@ -11398,10 +11467,10 @@
         <v>2557</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D141" s="15">
         <v>1</v>
@@ -11453,10 +11522,10 @@
         <v>2558</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D142" s="13">
         <v>1</v>
@@ -11508,10 +11577,10 @@
         <v>2559</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D143" s="15">
         <v>1</v>
@@ -11563,10 +11632,10 @@
         <v>2560</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D144" s="13">
         <v>1</v>
@@ -11618,10 +11687,10 @@
         <v>2901</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D145" s="15">
         <v>1</v>
@@ -11673,10 +11742,10 @@
         <v>2902</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D146" s="13">
         <v>1</v>
@@ -11728,10 +11797,10 @@
         <v>2903</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D147" s="15">
         <v>1</v>
@@ -11783,10 +11852,10 @@
         <v>2904</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D148" s="13">
         <v>1</v>
@@ -11838,10 +11907,10 @@
         <v>2905</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D149" s="15">
         <v>1</v>
@@ -11893,10 +11962,10 @@
         <v>2906</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D150" s="13">
         <v>1</v>
@@ -11948,10 +12017,10 @@
         <v>2907</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D151" s="15">
         <v>1</v>
@@ -12003,10 +12072,10 @@
         <v>2908</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D152" s="13">
         <v>1</v>
@@ -12058,10 +12127,10 @@
         <v>2909</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D153" s="15">
         <v>1</v>
@@ -12111,10 +12180,10 @@
         <v>2910</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D154" s="13">
         <v>1</v>
@@ -12164,10 +12233,10 @@
         <v>2911</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D155" s="15">
         <v>1</v>
@@ -12217,10 +12286,10 @@
         <v>2912</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D156" s="13">
         <v>1</v>
@@ -12270,10 +12339,10 @@
         <v>2913</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D157" s="15">
         <v>1</v>
@@ -12323,10 +12392,10 @@
         <v>2914</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D158" s="13">
         <v>1</v>
@@ -12376,10 +12445,10 @@
         <v>2915</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D159" s="15">
         <v>1</v>
@@ -12429,10 +12498,10 @@
         <v>2916</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D160" s="13">
         <v>1</v>
@@ -12482,10 +12551,10 @@
         <v>2917</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D161" s="15">
         <v>1</v>
@@ -12535,10 +12604,10 @@
         <v>2918</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D162" s="13">
         <v>1</v>
@@ -12588,10 +12657,10 @@
         <v>2919</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D163" s="15">
         <v>1</v>
@@ -12641,10 +12710,10 @@
         <v>2920</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D164" s="13">
         <v>1</v>
@@ -12694,10 +12763,10 @@
         <v>2921</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D165" s="15">
         <v>1</v>
@@ -12747,10 +12816,10 @@
         <v>2922</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D166" s="13">
         <v>1</v>
@@ -12800,10 +12869,10 @@
         <v>3201</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D167" s="15">
         <v>1</v>
@@ -12853,10 +12922,10 @@
         <v>3202</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D168" s="13">
         <v>1</v>
@@ -12906,10 +12975,10 @@
         <v>3203</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D169" s="15">
         <v>1</v>
@@ -12959,10 +13028,10 @@
         <v>3204</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D170" s="13">
         <v>1</v>
@@ -13012,10 +13081,10 @@
         <v>3205</v>
       </c>
       <c r="B171" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C171" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="D171" s="15">
         <v>1</v>
@@ -13065,10 +13134,10 @@
         <v>3501</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D172" s="13">
         <v>1</v>
@@ -13092,7 +13161,7 @@
       </c>
       <c r="L172" s="13"/>
       <c r="M172" s="13" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N172" s="13"/>
       <c r="O172" s="22"/>
@@ -13117,10 +13186,10 @@
         <v>3502</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D173" s="15">
         <v>1</v>
@@ -13144,7 +13213,7 @@
       </c>
       <c r="L173" s="15"/>
       <c r="M173" s="15" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N173" s="15"/>
       <c r="O173" s="23"/>
@@ -13169,10 +13238,10 @@
         <v>3503</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D174" s="13">
         <v>1</v>
@@ -13196,7 +13265,7 @@
       </c>
       <c r="L174" s="13"/>
       <c r="M174" s="13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N174" s="13"/>
       <c r="O174" s="22"/>
@@ -13221,10 +13290,10 @@
         <v>3504</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D175" s="15">
         <v>1</v>
@@ -13248,7 +13317,7 @@
       </c>
       <c r="L175" s="15"/>
       <c r="M175" s="15" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N175" s="15"/>
       <c r="O175" s="23"/>
@@ -13273,10 +13342,10 @@
         <v>3505</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D176" s="13">
         <v>1</v>
@@ -13300,7 +13369,7 @@
       </c>
       <c r="L176" s="13"/>
       <c r="M176" s="13" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N176" s="13"/>
       <c r="O176" s="22"/>
@@ -13325,10 +13394,10 @@
         <v>3506</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D177" s="15">
         <v>1</v>
@@ -13352,7 +13421,7 @@
       </c>
       <c r="L177" s="15"/>
       <c r="M177" s="15" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N177" s="15"/>
       <c r="O177" s="23"/>
@@ -13377,10 +13446,10 @@
         <v>3507</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D178" s="13">
         <v>1</v>
@@ -13404,7 +13473,7 @@
       </c>
       <c r="L178" s="13"/>
       <c r="M178" s="13" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N178" s="13"/>
       <c r="O178" s="22"/>
@@ -13429,10 +13498,10 @@
         <v>3508</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D179" s="15">
         <v>1</v>
@@ -13456,7 +13525,7 @@
       </c>
       <c r="L179" s="15"/>
       <c r="M179" s="15" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N179" s="15"/>
       <c r="O179" s="23"/>
@@ -13481,10 +13550,10 @@
         <v>3509</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D180" s="13">
         <v>1</v>
@@ -13508,7 +13577,7 @@
       </c>
       <c r="L180" s="13"/>
       <c r="M180" s="13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N180" s="13"/>
       <c r="O180" s="22"/>
@@ -13533,10 +13602,10 @@
         <v>3510</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D181" s="15">
         <v>1</v>
@@ -13585,10 +13654,10 @@
         <v>3511</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D182" s="13">
         <v>1</v>
@@ -13637,10 +13706,10 @@
         <v>3512</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D183" s="15">
         <v>1</v>
@@ -13689,10 +13758,10 @@
         <v>3513</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D184" s="13">
         <v>1</v>
@@ -13741,10 +13810,10 @@
         <v>3514</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -13793,10 +13862,10 @@
         <v>3515</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D186" s="13">
         <v>1</v>
@@ -13845,10 +13914,10 @@
         <v>3516</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -13897,10 +13966,10 @@
         <v>3517</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D188" s="13">
         <v>1</v>
@@ -13924,7 +13993,7 @@
       </c>
       <c r="L188" s="13"/>
       <c r="M188" s="13" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="N188" s="13"/>
       <c r="O188" s="22"/>
@@ -13949,10 +14018,10 @@
         <v>3518</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -13976,7 +14045,7 @@
       </c>
       <c r="L189" s="15"/>
       <c r="M189" s="15" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N189" s="15"/>
       <c r="O189" s="23"/>
@@ -14001,10 +14070,10 @@
         <v>3519</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D190" s="13">
         <v>1</v>
@@ -14028,7 +14097,7 @@
       </c>
       <c r="L190" s="13"/>
       <c r="M190" s="13" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="N190" s="13"/>
       <c r="O190" s="22"/>
@@ -14053,10 +14122,10 @@
         <v>3520</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -14080,7 +14149,7 @@
       </c>
       <c r="L191" s="15"/>
       <c r="M191" s="15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="N191" s="15"/>
       <c r="O191" s="23"/>
@@ -14105,10 +14174,10 @@
         <v>3521</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D192" s="13">
         <v>1</v>
@@ -14132,7 +14201,7 @@
       </c>
       <c r="L192" s="13"/>
       <c r="M192" s="13" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N192" s="13"/>
       <c r="O192" s="22"/>
@@ -14157,10 +14226,10 @@
         <v>3522</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -14184,7 +14253,7 @@
       </c>
       <c r="L193" s="15"/>
       <c r="M193" s="15" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N193" s="15"/>
       <c r="O193" s="23"/>
@@ -14209,10 +14278,10 @@
         <v>3523</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D194" s="13">
         <v>1</v>
@@ -14236,7 +14305,7 @@
       </c>
       <c r="L194" s="13"/>
       <c r="M194" s="13" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N194" s="13"/>
       <c r="O194" s="22"/>
@@ -14261,10 +14330,10 @@
         <v>3524</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -14288,7 +14357,7 @@
       </c>
       <c r="L195" s="15"/>
       <c r="M195" s="15" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="N195" s="15"/>
       <c r="O195" s="23"/>
@@ -14313,10 +14382,10 @@
         <v>3525</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D196" s="13">
         <v>1</v>
@@ -14340,7 +14409,7 @@
       </c>
       <c r="L196" s="13"/>
       <c r="M196" s="13" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N196" s="13"/>
       <c r="O196" s="22"/>
@@ -14365,10 +14434,10 @@
         <v>10001</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -14392,7 +14461,7 @@
       </c>
       <c r="L197" s="15"/>
       <c r="M197" s="15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N197" s="15"/>
       <c r="O197" s="23"/>
@@ -14417,10 +14486,10 @@
         <v>10002</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D198" s="13">
         <v>1</v>
@@ -14444,7 +14513,7 @@
       </c>
       <c r="L198" s="13"/>
       <c r="M198" s="13" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N198" s="13"/>
       <c r="O198" s="22"/>
@@ -14469,10 +14538,10 @@
         <v>10003</v>
       </c>
       <c r="B199" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C199" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -14496,7 +14565,7 @@
       </c>
       <c r="L199" s="15"/>
       <c r="M199" s="15" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N199" s="15"/>
       <c r="O199" s="23"/>
@@ -14521,10 +14590,10 @@
         <v>10004</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D200" s="13">
         <v>1</v>
@@ -14548,7 +14617,7 @@
       </c>
       <c r="L200" s="13"/>
       <c r="M200" s="13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N200" s="13"/>
       <c r="O200" s="22"/>
@@ -14573,10 +14642,10 @@
         <v>10005</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D201" s="15">
         <v>1</v>
@@ -14600,7 +14669,7 @@
       </c>
       <c r="L201" s="15"/>
       <c r="M201" s="15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N201" s="15"/>
       <c r="O201" s="23"/>
@@ -14625,10 +14694,10 @@
         <v>10006</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D202" s="13">
         <v>1</v>
@@ -14652,7 +14721,7 @@
       </c>
       <c r="L202" s="13"/>
       <c r="M202" s="13" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N202" s="13"/>
       <c r="O202" s="22"/>
@@ -14677,10 +14746,10 @@
         <v>10007</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -14704,7 +14773,7 @@
       </c>
       <c r="L203" s="15"/>
       <c r="M203" s="15" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N203" s="15"/>
       <c r="O203" s="23"/>
@@ -14729,10 +14798,10 @@
         <v>10008</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D204" s="13">
         <v>1</v>
@@ -14756,7 +14825,7 @@
       </c>
       <c r="L204" s="13"/>
       <c r="M204" s="13" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N204" s="13"/>
       <c r="O204" s="22"/>
@@ -14781,10 +14850,10 @@
         <v>10009</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -14808,7 +14877,7 @@
       </c>
       <c r="L205" s="15"/>
       <c r="M205" s="15" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N205" s="15"/>
       <c r="O205" s="23"/>
@@ -14833,10 +14902,10 @@
         <v>10011</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D206" s="15">
         <v>1</v>
@@ -14860,7 +14929,7 @@
       </c>
       <c r="L206" s="15"/>
       <c r="M206" s="15" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N206" s="15"/>
       <c r="O206" s="23"/>
@@ -14885,10 +14954,10 @@
         <v>10012</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D207" s="13">
         <v>1</v>
@@ -14912,7 +14981,7 @@
       </c>
       <c r="L207" s="13"/>
       <c r="M207" s="13" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N207" s="13"/>
       <c r="O207" s="22"/>
@@ -14937,10 +15006,10 @@
         <v>10013</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D208" s="15">
         <v>1</v>
@@ -14964,7 +15033,7 @@
       </c>
       <c r="L208" s="15"/>
       <c r="M208" s="15" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N208" s="15"/>
       <c r="O208" s="23"/>
@@ -14989,10 +15058,10 @@
         <v>10014</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D209" s="13">
         <v>1</v>
@@ -15016,7 +15085,7 @@
       </c>
       <c r="L209" s="13"/>
       <c r="M209" s="13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N209" s="13"/>
       <c r="O209" s="22"/>
@@ -15041,10 +15110,10 @@
         <v>10015</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D210" s="15">
         <v>1</v>
@@ -15068,7 +15137,7 @@
       </c>
       <c r="L210" s="15"/>
       <c r="M210" s="15" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N210" s="15"/>
       <c r="O210" s="23"/>
@@ -15093,10 +15162,10 @@
         <v>10016</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D211" s="13">
         <v>1</v>
@@ -15120,7 +15189,7 @@
       </c>
       <c r="L211" s="13"/>
       <c r="M211" s="13" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N211" s="13"/>
       <c r="O211" s="22"/>
@@ -15145,10 +15214,10 @@
         <v>10017</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D212" s="15">
         <v>1</v>
@@ -15172,7 +15241,7 @@
       </c>
       <c r="L212" s="15"/>
       <c r="M212" s="15" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="N212" s="15"/>
       <c r="O212" s="23"/>
@@ -15197,10 +15266,10 @@
         <v>10018</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D213" s="13">
         <v>1</v>
@@ -15224,7 +15293,7 @@
       </c>
       <c r="L213" s="13"/>
       <c r="M213" s="13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N213" s="13"/>
       <c r="O213" s="22"/>
@@ -15249,10 +15318,10 @@
         <v>10101</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D214" s="15">
         <v>1</v>
@@ -15276,7 +15345,7 @@
       </c>
       <c r="L214" s="15"/>
       <c r="M214" s="15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N214" s="15"/>
       <c r="O214" s="23"/>
@@ -15301,10 +15370,10 @@
         <v>10102</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D215" s="13">
         <v>1</v>
@@ -15328,7 +15397,7 @@
       </c>
       <c r="L215" s="13"/>
       <c r="M215" s="13" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N215" s="13"/>
       <c r="O215" s="22"/>
@@ -15353,10 +15422,10 @@
         <v>10103</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D216" s="15">
         <v>1</v>
@@ -15380,7 +15449,7 @@
       </c>
       <c r="L216" s="15"/>
       <c r="M216" s="15" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N216" s="15"/>
       <c r="O216" s="23"/>
@@ -15405,10 +15474,10 @@
         <v>10104</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D217" s="13">
         <v>1</v>
@@ -15432,7 +15501,7 @@
       </c>
       <c r="L217" s="13"/>
       <c r="M217" s="13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N217" s="13"/>
       <c r="O217" s="22"/>
@@ -15457,10 +15526,10 @@
         <v>10105</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D218" s="15">
         <v>1</v>
@@ -15484,7 +15553,7 @@
       </c>
       <c r="L218" s="15"/>
       <c r="M218" s="15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N218" s="15"/>
       <c r="O218" s="23"/>
@@ -15509,10 +15578,10 @@
         <v>10106</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D219" s="13">
         <v>1</v>
@@ -15536,7 +15605,7 @@
       </c>
       <c r="L219" s="13"/>
       <c r="M219" s="13" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N219" s="13"/>
       <c r="O219" s="22"/>
@@ -15561,10 +15630,10 @@
         <v>10107</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D220" s="15">
         <v>1</v>
@@ -15588,7 +15657,7 @@
       </c>
       <c r="L220" s="15"/>
       <c r="M220" s="15" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N220" s="15"/>
       <c r="O220" s="23"/>
@@ -15613,10 +15682,10 @@
         <v>10108</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D221" s="13">
         <v>1</v>
@@ -15640,7 +15709,7 @@
       </c>
       <c r="L221" s="13"/>
       <c r="M221" s="13" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N221" s="13"/>
       <c r="O221" s="22"/>
@@ -15665,10 +15734,10 @@
         <v>10109</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D222" s="15">
         <v>1</v>
@@ -15692,7 +15761,7 @@
       </c>
       <c r="L222" s="15"/>
       <c r="M222" s="15" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N222" s="15"/>
       <c r="O222" s="23"/>
@@ -15717,10 +15786,10 @@
         <v>10111</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D223" s="15">
         <v>1</v>
@@ -15744,7 +15813,7 @@
       </c>
       <c r="L223" s="15"/>
       <c r="M223" s="15" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N223" s="15"/>
       <c r="O223" s="23"/>
@@ -15769,10 +15838,10 @@
         <v>10112</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D224" s="13">
         <v>1</v>
@@ -15796,7 +15865,7 @@
       </c>
       <c r="L224" s="13"/>
       <c r="M224" s="13" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N224" s="13"/>
       <c r="O224" s="22"/>
@@ -15821,10 +15890,10 @@
         <v>10113</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D225" s="15">
         <v>1</v>
@@ -15848,7 +15917,7 @@
       </c>
       <c r="L225" s="15"/>
       <c r="M225" s="15" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N225" s="15"/>
       <c r="O225" s="23"/>
@@ -15873,10 +15942,10 @@
         <v>10114</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D226" s="13">
         <v>1</v>
@@ -15900,7 +15969,7 @@
       </c>
       <c r="L226" s="13"/>
       <c r="M226" s="13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N226" s="13"/>
       <c r="O226" s="22"/>
@@ -15925,10 +15994,10 @@
         <v>10115</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -15952,7 +16021,7 @@
       </c>
       <c r="L227" s="15"/>
       <c r="M227" s="15" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N227" s="15"/>
       <c r="O227" s="23"/>
@@ -15977,10 +16046,10 @@
         <v>10116</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D228" s="13">
         <v>1</v>
@@ -16004,7 +16073,7 @@
       </c>
       <c r="L228" s="13"/>
       <c r="M228" s="13" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N228" s="13"/>
       <c r="O228" s="22"/>
@@ -16029,10 +16098,10 @@
         <v>10117</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -16056,7 +16125,7 @@
       </c>
       <c r="L229" s="15"/>
       <c r="M229" s="15" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="N229" s="15"/>
       <c r="O229" s="23"/>
@@ -16081,10 +16150,10 @@
         <v>10118</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D230" s="13">
         <v>1</v>
@@ -16108,7 +16177,7 @@
       </c>
       <c r="L230" s="13"/>
       <c r="M230" s="13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N230" s="13"/>
       <c r="O230" s="22"/>
@@ -16133,10 +16202,10 @@
         <v>10201</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D231" s="15">
         <v>1</v>
@@ -16160,7 +16229,7 @@
       </c>
       <c r="L231" s="15"/>
       <c r="M231" s="15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N231" s="15"/>
       <c r="O231" s="23"/>
@@ -16185,10 +16254,10 @@
         <v>10202</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D232" s="13">
         <v>1</v>
@@ -16212,7 +16281,7 @@
       </c>
       <c r="L232" s="13"/>
       <c r="M232" s="13" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N232" s="13"/>
       <c r="O232" s="22"/>
@@ -16237,10 +16306,10 @@
         <v>10203</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D233" s="15">
         <v>1</v>
@@ -16264,7 +16333,7 @@
       </c>
       <c r="L233" s="15"/>
       <c r="M233" s="15" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N233" s="15"/>
       <c r="O233" s="23"/>
@@ -16289,10 +16358,10 @@
         <v>10204</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D234" s="13">
         <v>1</v>
@@ -16316,7 +16385,7 @@
       </c>
       <c r="L234" s="13"/>
       <c r="M234" s="13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N234" s="13"/>
       <c r="O234" s="22"/>
@@ -16341,10 +16410,10 @@
         <v>10205</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D235" s="15">
         <v>1</v>
@@ -16368,7 +16437,7 @@
       </c>
       <c r="L235" s="15"/>
       <c r="M235" s="15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N235" s="15"/>
       <c r="O235" s="23"/>
@@ -16393,10 +16462,10 @@
         <v>10206</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D236" s="13">
         <v>1</v>
@@ -16420,7 +16489,7 @@
       </c>
       <c r="L236" s="13"/>
       <c r="M236" s="13" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N236" s="13"/>
       <c r="O236" s="22"/>
@@ -16445,10 +16514,10 @@
         <v>10207</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D237" s="15">
         <v>1</v>
@@ -16472,7 +16541,7 @@
       </c>
       <c r="L237" s="15"/>
       <c r="M237" s="15" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N237" s="15"/>
       <c r="O237" s="23"/>
@@ -16497,10 +16566,10 @@
         <v>10208</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D238" s="13">
         <v>1</v>
@@ -16524,7 +16593,7 @@
       </c>
       <c r="L238" s="13"/>
       <c r="M238" s="13" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N238" s="13"/>
       <c r="O238" s="22"/>
@@ -16549,10 +16618,10 @@
         <v>10209</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -16576,7 +16645,7 @@
       </c>
       <c r="L239" s="15"/>
       <c r="M239" s="15" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N239" s="15"/>
       <c r="O239" s="23"/>
@@ -16601,10 +16670,10 @@
         <v>10211</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D240" s="15">
         <v>1</v>
@@ -16628,7 +16697,7 @@
       </c>
       <c r="L240" s="15"/>
       <c r="M240" s="15" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N240" s="15"/>
       <c r="O240" s="23"/>
@@ -16653,10 +16722,10 @@
         <v>10212</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D241" s="13">
         <v>1</v>
@@ -16680,7 +16749,7 @@
       </c>
       <c r="L241" s="13"/>
       <c r="M241" s="13" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N241" s="13"/>
       <c r="O241" s="22"/>
@@ -16705,10 +16774,10 @@
         <v>10213</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D242" s="15">
         <v>1</v>
@@ -16732,7 +16801,7 @@
       </c>
       <c r="L242" s="15"/>
       <c r="M242" s="15" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N242" s="15"/>
       <c r="O242" s="23"/>
@@ -16757,10 +16826,10 @@
         <v>10214</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D243" s="13">
         <v>1</v>
@@ -16784,7 +16853,7 @@
       </c>
       <c r="L243" s="13"/>
       <c r="M243" s="13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N243" s="13"/>
       <c r="O243" s="22"/>
@@ -16809,10 +16878,10 @@
         <v>10215</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D244" s="15">
         <v>1</v>
@@ -16836,7 +16905,7 @@
       </c>
       <c r="L244" s="15"/>
       <c r="M244" s="15" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N244" s="15"/>
       <c r="O244" s="23"/>
@@ -16861,10 +16930,10 @@
         <v>10216</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D245" s="13">
         <v>1</v>
@@ -16888,7 +16957,7 @@
       </c>
       <c r="L245" s="13"/>
       <c r="M245" s="13" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N245" s="13"/>
       <c r="O245" s="22"/>
@@ -16913,10 +16982,10 @@
         <v>10217</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D246" s="15">
         <v>1</v>
@@ -16940,7 +17009,7 @@
       </c>
       <c r="L246" s="15"/>
       <c r="M246" s="15" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="N246" s="15"/>
       <c r="O246" s="23"/>
@@ -16965,10 +17034,10 @@
         <v>10218</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D247" s="13">
         <v>1</v>
@@ -16992,7 +17061,7 @@
       </c>
       <c r="L247" s="13"/>
       <c r="M247" s="13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N247" s="13"/>
       <c r="O247" s="22"/>
@@ -17017,10 +17086,10 @@
         <v>10301</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D248" s="15">
         <v>1</v>
@@ -17044,7 +17113,7 @@
       </c>
       <c r="L248" s="15"/>
       <c r="M248" s="15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N248" s="15"/>
       <c r="O248" s="23"/>
@@ -17069,10 +17138,10 @@
         <v>10302</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D249" s="13">
         <v>1</v>
@@ -17096,7 +17165,7 @@
       </c>
       <c r="L249" s="13"/>
       <c r="M249" s="13" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N249" s="13"/>
       <c r="O249" s="22"/>
@@ -17121,10 +17190,10 @@
         <v>10303</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D250" s="15">
         <v>1</v>
@@ -17148,7 +17217,7 @@
       </c>
       <c r="L250" s="15"/>
       <c r="M250" s="15" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N250" s="15"/>
       <c r="O250" s="23"/>
@@ -17173,10 +17242,10 @@
         <v>10304</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D251" s="13">
         <v>1</v>
@@ -17200,7 +17269,7 @@
       </c>
       <c r="L251" s="13"/>
       <c r="M251" s="13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N251" s="13"/>
       <c r="O251" s="22"/>
@@ -17225,10 +17294,10 @@
         <v>10305</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D252" s="15">
         <v>1</v>
@@ -17252,7 +17321,7 @@
       </c>
       <c r="L252" s="15"/>
       <c r="M252" s="15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N252" s="15"/>
       <c r="O252" s="23"/>
@@ -17277,10 +17346,10 @@
         <v>10306</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D253" s="13">
         <v>1</v>
@@ -17304,7 +17373,7 @@
       </c>
       <c r="L253" s="13"/>
       <c r="M253" s="13" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N253" s="13"/>
       <c r="O253" s="22"/>
@@ -17329,10 +17398,10 @@
         <v>10307</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D254" s="15">
         <v>1</v>
@@ -17356,7 +17425,7 @@
       </c>
       <c r="L254" s="15"/>
       <c r="M254" s="15" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N254" s="15"/>
       <c r="O254" s="23"/>
@@ -17381,10 +17450,10 @@
         <v>10308</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D255" s="13">
         <v>1</v>
@@ -17408,7 +17477,7 @@
       </c>
       <c r="L255" s="13"/>
       <c r="M255" s="13" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N255" s="13"/>
       <c r="O255" s="22"/>
@@ -17433,10 +17502,10 @@
         <v>10309</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D256" s="15">
         <v>1</v>
@@ -17460,7 +17529,7 @@
       </c>
       <c r="L256" s="15"/>
       <c r="M256" s="15" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N256" s="15"/>
       <c r="O256" s="23"/>
@@ -17485,10 +17554,10 @@
         <v>10311</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -17512,7 +17581,7 @@
       </c>
       <c r="L257" s="15"/>
       <c r="M257" s="15" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N257" s="15"/>
       <c r="O257" s="23"/>
@@ -17537,10 +17606,10 @@
         <v>10312</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D258" s="13">
         <v>1</v>
@@ -17564,7 +17633,7 @@
       </c>
       <c r="L258" s="13"/>
       <c r="M258" s="13" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N258" s="13"/>
       <c r="O258" s="22"/>
@@ -17589,10 +17658,10 @@
         <v>10313</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -17616,7 +17685,7 @@
       </c>
       <c r="L259" s="15"/>
       <c r="M259" s="15" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N259" s="15"/>
       <c r="O259" s="23"/>
@@ -17641,10 +17710,10 @@
         <v>10314</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D260" s="13">
         <v>1</v>
@@ -17668,7 +17737,7 @@
       </c>
       <c r="L260" s="13"/>
       <c r="M260" s="13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N260" s="13"/>
       <c r="O260" s="22"/>
@@ -17693,10 +17762,10 @@
         <v>10315</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -17720,7 +17789,7 @@
       </c>
       <c r="L261" s="15"/>
       <c r="M261" s="15" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N261" s="15"/>
       <c r="O261" s="23"/>
@@ -17745,10 +17814,10 @@
         <v>10316</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D262" s="13">
         <v>1</v>
@@ -17772,7 +17841,7 @@
       </c>
       <c r="L262" s="13"/>
       <c r="M262" s="13" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N262" s="13"/>
       <c r="O262" s="22"/>
@@ -17797,10 +17866,10 @@
         <v>10317</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -17824,7 +17893,7 @@
       </c>
       <c r="L263" s="15"/>
       <c r="M263" s="15" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="N263" s="15"/>
       <c r="O263" s="23"/>
@@ -17849,10 +17918,10 @@
         <v>10318</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D264" s="13">
         <v>1</v>
@@ -17876,7 +17945,7 @@
       </c>
       <c r="L264" s="13"/>
       <c r="M264" s="13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N264" s="13"/>
       <c r="O264" s="22"/>
@@ -17901,10 +17970,10 @@
         <v>20000</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -17928,7 +17997,7 @@
       </c>
       <c r="L265" s="15"/>
       <c r="M265" s="15" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N265" s="15"/>
       <c r="O265" s="23"/>
@@ -17953,10 +18022,10 @@
         <v>20001</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D266" s="13">
         <v>1</v>
@@ -17980,7 +18049,7 @@
       </c>
       <c r="L266" s="13"/>
       <c r="M266" s="13" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="N266" s="13"/>
       <c r="O266" s="22"/>
@@ -18005,10 +18074,10 @@
         <v>20002</v>
       </c>
       <c r="B267" s="28" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D267" s="28">
         <v>1</v>
@@ -18026,7 +18095,7 @@
         <v>1</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J267" s="28"/>
       <c r="K267" s="13">
@@ -18059,10 +18128,10 @@
         <v>20003</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D268" s="13">
         <v>1</v>
@@ -18080,7 +18149,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J268" s="13"/>
       <c r="K268" s="13">
@@ -18088,7 +18157,7 @@
       </c>
       <c r="L268" s="13"/>
       <c r="M268" s="13" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N268" s="13"/>
       <c r="O268" s="22"/>
@@ -18113,10 +18182,10 @@
         <v>20004</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D269" s="15">
         <v>1</v>
@@ -18134,7 +18203,7 @@
         <v>1</v>
       </c>
       <c r="I269" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J269" s="15"/>
       <c r="K269" s="13">
@@ -18142,7 +18211,7 @@
       </c>
       <c r="L269" s="15"/>
       <c r="M269" s="15" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N269" s="15"/>
       <c r="O269" s="23"/>
@@ -18167,10 +18236,10 @@
         <v>20005</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D270" s="13">
         <v>1</v>
@@ -18188,7 +18257,7 @@
         <v>1</v>
       </c>
       <c r="I270" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J270" s="13"/>
       <c r="K270" s="13">
@@ -18196,7 +18265,7 @@
       </c>
       <c r="L270" s="13"/>
       <c r="M270" s="13" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="N270" s="13"/>
       <c r="O270" s="22"/>
@@ -18221,10 +18290,10 @@
         <v>20006</v>
       </c>
       <c r="B271" s="30" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C271" s="30" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D271" s="30">
         <v>1</v>
@@ -18242,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="30" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J271" s="30"/>
       <c r="K271" s="13">
@@ -18275,10 +18344,10 @@
         <v>20007</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D272" s="13">
         <v>1</v>
@@ -18296,7 +18365,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J272" s="13"/>
       <c r="K272" s="13">
@@ -18304,7 +18373,7 @@
       </c>
       <c r="L272" s="13"/>
       <c r="M272" s="13" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="N272" s="13"/>
       <c r="O272" s="22"/>
@@ -18329,10 +18398,10 @@
         <v>20008</v>
       </c>
       <c r="B273" s="30" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C273" s="30" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D273" s="30">
         <v>1</v>
@@ -18350,7 +18419,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="30" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J273" s="30"/>
       <c r="K273" s="13">
@@ -18383,10 +18452,10 @@
         <v>20009</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D274" s="13">
         <v>1</v>
@@ -18404,7 +18473,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J274" s="13"/>
       <c r="K274" s="13">
@@ -18412,7 +18481,7 @@
       </c>
       <c r="L274" s="13"/>
       <c r="M274" s="13" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N274" s="13"/>
       <c r="O274" s="22"/>
@@ -18437,10 +18506,10 @@
         <v>20010</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D275" s="15">
         <v>1</v>
@@ -18458,7 +18527,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J275" s="15"/>
       <c r="K275" s="13">
@@ -18466,7 +18535,7 @@
       </c>
       <c r="L275" s="15"/>
       <c r="M275" s="15" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="N275" s="15"/>
       <c r="O275" s="23"/>
@@ -18491,10 +18560,10 @@
         <v>20011</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D276" s="15">
         <v>1</v>
@@ -18512,7 +18581,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J276" s="13"/>
       <c r="K276" s="13">
@@ -18520,7 +18589,7 @@
       </c>
       <c r="L276" s="13"/>
       <c r="M276" s="15" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="N276" s="13"/>
       <c r="O276" s="22"/>
@@ -18545,10 +18614,10 @@
         <v>20012</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D277" s="13">
         <v>1</v>
@@ -18566,7 +18635,7 @@
         <v>1</v>
       </c>
       <c r="I277" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J277" s="13"/>
       <c r="K277" s="13">
@@ -18574,7 +18643,7 @@
       </c>
       <c r="L277" s="13"/>
       <c r="M277" s="15" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="N277" s="13"/>
       <c r="O277" s="23"/>
@@ -18599,10 +18668,10 @@
         <v>20013</v>
       </c>
       <c r="B278" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C278" s="15" t="s">
         <v>442</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>438</v>
       </c>
       <c r="D278" s="15">
         <v>1</v>
@@ -18620,7 +18689,7 @@
         <v>1</v>
       </c>
       <c r="I278" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J278" s="13"/>
       <c r="K278" s="13">
@@ -18628,7 +18697,7 @@
       </c>
       <c r="L278" s="13"/>
       <c r="M278" s="15" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="N278" s="13"/>
       <c r="O278" s="22"/>
@@ -18653,10 +18722,10 @@
         <v>20014</v>
       </c>
       <c r="B279" s="32" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C279" s="30" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D279" s="30">
         <v>1</v>
@@ -18674,7 +18743,7 @@
         <v>1</v>
       </c>
       <c r="I279" s="30" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J279" s="32"/>
       <c r="K279" s="13">
@@ -18707,10 +18776,10 @@
         <v>20015</v>
       </c>
       <c r="B280" s="32" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D280" s="32">
         <v>1</v>
@@ -18728,7 +18797,7 @@
         <v>1</v>
       </c>
       <c r="I280" s="30" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J280" s="32"/>
       <c r="K280" s="13">
@@ -18761,10 +18830,10 @@
         <v>20016</v>
       </c>
       <c r="B281" s="32" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C281" s="30" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D281" s="30">
         <v>1</v>
@@ -18782,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="30" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J281" s="32"/>
       <c r="K281" s="13">
@@ -18815,10 +18884,10 @@
         <v>20017</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D282" s="15">
         <v>1</v>
@@ -18836,7 +18905,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J282" s="13"/>
       <c r="K282" s="13">
@@ -18844,7 +18913,7 @@
       </c>
       <c r="L282" s="13"/>
       <c r="M282" s="15" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N282" s="13"/>
       <c r="O282" s="22"/>
@@ -18869,10 +18938,10 @@
         <v>20018</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D283" s="13">
         <v>1</v>
@@ -18890,7 +18959,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J283" s="13"/>
       <c r="K283" s="13">
@@ -18898,7 +18967,7 @@
       </c>
       <c r="L283" s="13"/>
       <c r="M283" s="15" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="N283" s="13"/>
       <c r="O283" s="23"/>
@@ -18923,10 +18992,10 @@
         <v>20019</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D284" s="15">
         <v>1</v>
@@ -18944,7 +19013,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J284" s="13"/>
       <c r="K284" s="13">
@@ -18952,7 +19021,7 @@
       </c>
       <c r="L284" s="13"/>
       <c r="M284" s="15" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N284" s="13"/>
       <c r="O284" s="22"/>
@@ -18977,10 +19046,10 @@
         <v>20020</v>
       </c>
       <c r="B285" s="34" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C285" s="35" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D285" s="13">
         <v>1</v>
@@ -18998,7 +19067,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J285" s="13"/>
       <c r="K285" s="13">
@@ -19006,7 +19075,7 @@
       </c>
       <c r="L285" s="13"/>
       <c r="M285" s="15" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="N285" s="13"/>
       <c r="O285" s="23"/>
@@ -19031,10 +19100,10 @@
         <v>20021</v>
       </c>
       <c r="B286" s="34" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C286" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D286" s="15">
         <v>1</v>
@@ -19052,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J286" s="13"/>
       <c r="K286" s="13">
@@ -19060,7 +19129,7 @@
       </c>
       <c r="L286" s="13"/>
       <c r="M286" s="15" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N286" s="13"/>
       <c r="O286" s="22"/>
@@ -19085,10 +19154,10 @@
         <v>20022</v>
       </c>
       <c r="B287" s="34" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C287" s="35" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D287" s="15">
         <v>1</v>
@@ -19106,7 +19175,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J287" s="13"/>
       <c r="K287" s="13">
@@ -19114,7 +19183,7 @@
       </c>
       <c r="L287" s="13"/>
       <c r="M287" s="15" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N287" s="13"/>
       <c r="O287" s="23"/>
@@ -19139,10 +19208,10 @@
         <v>20023</v>
       </c>
       <c r="B288" s="34" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C288" s="35" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D288" s="13">
         <v>1</v>
@@ -19160,7 +19229,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J288" s="13"/>
       <c r="K288" s="13">
@@ -19168,7 +19237,7 @@
       </c>
       <c r="L288" s="13"/>
       <c r="M288" s="15" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="N288" s="13"/>
       <c r="O288" s="22"/>
@@ -19193,10 +19262,10 @@
         <v>20024</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C289" s="35" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D289" s="15">
         <v>1</v>
@@ -19214,7 +19283,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J289" s="13"/>
       <c r="K289" s="13">
@@ -19222,7 +19291,7 @@
       </c>
       <c r="L289" s="13"/>
       <c r="M289" s="15" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="N289" s="13"/>
       <c r="AC289" s="20">
@@ -19234,10 +19303,10 @@
         <v>20025</v>
       </c>
       <c r="B290" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C290" s="35" t="s">
         <v>470</v>
-      </c>
-      <c r="C290" s="35" t="s">
-        <v>466</v>
       </c>
       <c r="D290" s="15">
         <v>1</v>
@@ -19255,7 +19324,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J290" s="13"/>
       <c r="K290" s="13">
@@ -19263,7 +19332,7 @@
       </c>
       <c r="L290" s="13"/>
       <c r="M290" s="15" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N290" s="13"/>
       <c r="AC290" s="20">
@@ -19275,10 +19344,10 @@
         <v>20026</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C291" s="35" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D291" s="13">
         <v>1</v>
@@ -19296,7 +19365,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J291" s="13"/>
       <c r="K291" s="13">
@@ -19304,7 +19373,7 @@
       </c>
       <c r="L291" s="13"/>
       <c r="M291" s="15" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="N291" s="13"/>
       <c r="AC291" s="20">
@@ -19316,10 +19385,10 @@
         <v>20027</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C292" s="35" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D292" s="15">
         <v>1</v>
@@ -19337,7 +19406,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J292" s="13"/>
       <c r="K292" s="13">
@@ -19345,7 +19414,7 @@
       </c>
       <c r="L292" s="13"/>
       <c r="M292" s="15" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="N292" s="13"/>
       <c r="AC292" s="20">
@@ -19357,10 +19426,10 @@
         <v>20028</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C293" s="35" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D293" s="15">
         <v>1</v>
@@ -19378,7 +19447,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J293" s="13"/>
       <c r="K293" s="13">
@@ -19386,7 +19455,7 @@
       </c>
       <c r="L293" s="13"/>
       <c r="M293" s="15" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="N293" s="13"/>
       <c r="AC293" s="20">
@@ -19398,10 +19467,10 @@
         <v>20029</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C294" s="13" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D294" s="15">
         <v>1</v>
@@ -19419,7 +19488,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J294" s="13"/>
       <c r="K294" s="13">
@@ -19439,10 +19508,10 @@
         <v>20101</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C295" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D295" s="13">
         <v>1</v>
@@ -19460,7 +19529,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J295" s="13"/>
       <c r="K295" s="13">
@@ -19480,10 +19549,10 @@
         <v>20102</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D296" s="15">
         <v>1</v>
@@ -19501,7 +19570,7 @@
         <v>1</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J296" s="15"/>
       <c r="K296" s="13">
@@ -19521,10 +19590,10 @@
         <v>20103</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D297" s="13">
         <v>1</v>
@@ -19542,7 +19611,7 @@
         <v>1</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J297" s="13"/>
       <c r="K297" s="13">
@@ -19562,10 +19631,10 @@
         <v>20104</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D298" s="15">
         <v>1</v>
@@ -19583,7 +19652,7 @@
         <v>1</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J298" s="15"/>
       <c r="K298" s="13">
@@ -19603,10 +19672,10 @@
         <v>20105</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D299" s="13">
         <v>1</v>
@@ -19624,7 +19693,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J299" s="13"/>
       <c r="K299" s="13">
@@ -19644,10 +19713,10 @@
         <v>20106</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D300" s="15">
         <v>1</v>
@@ -19665,7 +19734,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J300" s="15"/>
       <c r="K300" s="13">
@@ -19685,10 +19754,10 @@
         <v>20107</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D301" s="13">
         <v>1</v>
@@ -19706,7 +19775,7 @@
         <v>1</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J301" s="13"/>
       <c r="K301" s="13">
@@ -19726,10 +19795,10 @@
         <v>20108</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D302" s="15">
         <v>1</v>
@@ -19747,7 +19816,7 @@
         <v>1</v>
       </c>
       <c r="I302" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J302" s="15"/>
       <c r="K302" s="13">
@@ -19767,10 +19836,10 @@
         <v>20109</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D303" s="13">
         <v>1</v>
@@ -19788,7 +19857,7 @@
         <v>1</v>
       </c>
       <c r="I303" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J303" s="13"/>
       <c r="K303" s="13">
@@ -19808,10 +19877,10 @@
         <v>20110</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D304" s="15">
         <v>1</v>
@@ -19829,7 +19898,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J304" s="15"/>
       <c r="K304" s="13">
@@ -19849,10 +19918,10 @@
         <v>20111</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D305" s="13">
         <v>1</v>
@@ -19870,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J305" s="13"/>
       <c r="K305" s="13">
@@ -19890,10 +19959,10 @@
         <v>20201</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C306" s="15" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D306" s="15">
         <v>1</v>
@@ -19929,10 +19998,10 @@
         <v>20202</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D307" s="13">
         <v>1</v>
@@ -19968,10 +20037,10 @@
         <v>20203</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D308" s="15">
         <v>1</v>
@@ -20007,10 +20076,10 @@
         <v>20204</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D309" s="13">
         <v>1</v>
@@ -20046,10 +20115,10 @@
         <v>20205</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D310" s="15">
         <v>1</v>
@@ -20085,10 +20154,10 @@
         <v>20206</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D311" s="13">
         <v>1</v>
@@ -20124,10 +20193,10 @@
         <v>20207</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D312" s="15">
         <v>1</v>
@@ -20163,10 +20232,10 @@
         <v>20208</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D313" s="13">
         <v>1</v>
@@ -20202,10 +20271,10 @@
         <v>20209</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D314" s="15">
         <v>1</v>
@@ -20241,10 +20310,10 @@
         <v>20210</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D315" s="13">
         <v>1</v>
@@ -20280,10 +20349,10 @@
         <v>21001</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D316" s="15">
         <v>1</v>
@@ -20301,7 +20370,7 @@
         <v>1</v>
       </c>
       <c r="I316" s="15" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J316" s="15"/>
       <c r="K316" s="13">
@@ -20309,7 +20378,7 @@
       </c>
       <c r="L316" s="15"/>
       <c r="M316" s="13" t="s">
-        <v>48</v>
+        <v>524</v>
       </c>
       <c r="N316" s="15"/>
       <c r="AC316" s="20">
@@ -20321,10 +20390,10 @@
         <v>21002</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D317" s="13">
         <v>1</v>
@@ -20342,7 +20411,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="13" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J317" s="13"/>
       <c r="K317" s="13">
@@ -20350,7 +20419,7 @@
       </c>
       <c r="L317" s="13"/>
       <c r="M317" s="13" t="s">
-        <v>48</v>
+        <v>527</v>
       </c>
       <c r="N317" s="13"/>
       <c r="AC317" s="20">
@@ -20362,10 +20431,10 @@
         <v>21003</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D318" s="15">
         <v>1</v>
@@ -20383,7 +20452,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J318" s="15"/>
       <c r="K318" s="13">
@@ -20391,7 +20460,7 @@
       </c>
       <c r="L318" s="15"/>
       <c r="M318" s="13" t="s">
-        <v>48</v>
+        <v>530</v>
       </c>
       <c r="N318" s="15"/>
       <c r="AC318" s="20">
@@ -20403,10 +20472,10 @@
         <v>21004</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D319" s="13">
         <v>1</v>
@@ -20424,7 +20493,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="13" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J319" s="13"/>
       <c r="K319" s="13">
@@ -20432,7 +20501,7 @@
       </c>
       <c r="L319" s="13"/>
       <c r="M319" s="13" t="s">
-        <v>48</v>
+        <v>533</v>
       </c>
       <c r="N319" s="13"/>
       <c r="AC319" s="20">
@@ -20444,10 +20513,10 @@
         <v>21005</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D320" s="15">
         <v>1</v>
@@ -20465,7 +20534,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J320" s="15"/>
       <c r="K320" s="13">
@@ -20473,7 +20542,7 @@
       </c>
       <c r="L320" s="15"/>
       <c r="M320" s="13" t="s">
-        <v>48</v>
+        <v>536</v>
       </c>
       <c r="N320" s="15"/>
       <c r="AC320" s="20">
@@ -20485,10 +20554,10 @@
         <v>21006</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D321" s="13">
         <v>1</v>
@@ -20506,7 +20575,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="13" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J321" s="13"/>
       <c r="K321" s="13">
@@ -20514,7 +20583,7 @@
       </c>
       <c r="L321" s="13"/>
       <c r="M321" s="13" t="s">
-        <v>48</v>
+        <v>539</v>
       </c>
       <c r="N321" s="13"/>
       <c r="AC321" s="20">
@@ -20526,10 +20595,10 @@
         <v>21007</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D322" s="15">
         <v>1</v>
@@ -20547,7 +20616,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J322" s="15"/>
       <c r="K322" s="13">
@@ -20555,7 +20624,7 @@
       </c>
       <c r="L322" s="15"/>
       <c r="M322" s="13" t="s">
-        <v>48</v>
+        <v>542</v>
       </c>
       <c r="N322" s="15"/>
       <c r="AC322" s="20">
@@ -20567,10 +20636,10 @@
         <v>21101</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="D323" s="13">
         <v>1</v>
@@ -20588,7 +20657,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J323" s="13"/>
       <c r="K323" s="13">
@@ -20596,7 +20665,7 @@
       </c>
       <c r="L323" s="13"/>
       <c r="M323" s="13" t="s">
-        <v>48</v>
+        <v>546</v>
       </c>
       <c r="N323" s="13"/>
       <c r="AC323" s="20">
@@ -20608,10 +20677,10 @@
         <v>21102</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="D324" s="15">
         <v>1</v>
@@ -20629,7 +20698,7 @@
         <v>1</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J324" s="15"/>
       <c r="K324" s="13">
@@ -20637,7 +20706,7 @@
       </c>
       <c r="L324" s="15"/>
       <c r="M324" s="13" t="s">
-        <v>48</v>
+        <v>549</v>
       </c>
       <c r="N324" s="15"/>
       <c r="AC324" s="20">
@@ -20649,10 +20718,10 @@
         <v>21103</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="D325" s="13">
         <v>1</v>
@@ -20670,7 +20739,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J325" s="13"/>
       <c r="K325" s="13">
@@ -20678,7 +20747,7 @@
       </c>
       <c r="L325" s="13"/>
       <c r="M325" s="13" t="s">
-        <v>48</v>
+        <v>552</v>
       </c>
       <c r="N325" s="13"/>
       <c r="AC325" s="20">
@@ -20690,10 +20759,10 @@
         <v>21104</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="D326" s="15">
         <v>1</v>
@@ -20711,7 +20780,7 @@
         <v>1</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J326" s="15"/>
       <c r="K326" s="13">
@@ -20719,7 +20788,7 @@
       </c>
       <c r="L326" s="15"/>
       <c r="M326" s="13" t="s">
-        <v>48</v>
+        <v>555</v>
       </c>
       <c r="N326" s="15"/>
       <c r="AC326" s="20">
@@ -20731,10 +20800,10 @@
         <v>21105</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="D327" s="13">
         <v>1</v>
@@ -20752,7 +20821,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J327" s="13"/>
       <c r="K327" s="13">
@@ -20760,7 +20829,7 @@
       </c>
       <c r="L327" s="13"/>
       <c r="M327" s="13" t="s">
-        <v>48</v>
+        <v>558</v>
       </c>
       <c r="N327" s="13"/>
       <c r="AC327" s="20">
@@ -20772,10 +20841,10 @@
         <v>21106</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="D328" s="15">
         <v>1</v>
@@ -20793,7 +20862,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J328" s="15"/>
       <c r="K328" s="13">
@@ -20801,7 +20870,7 @@
       </c>
       <c r="L328" s="15"/>
       <c r="M328" s="13" t="s">
-        <v>48</v>
+        <v>561</v>
       </c>
       <c r="N328" s="15"/>
       <c r="AC328" s="20">
@@ -20813,10 +20882,10 @@
         <v>21107</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="D329" s="13">
         <v>1</v>
@@ -20834,7 +20903,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J329" s="13"/>
       <c r="K329" s="13">
@@ -20842,7 +20911,7 @@
       </c>
       <c r="L329" s="13"/>
       <c r="M329" s="13" t="s">
-        <v>48</v>
+        <v>564</v>
       </c>
       <c r="N329" s="13"/>
       <c r="AC329" s="20">
@@ -20854,10 +20923,10 @@
         <v>21108</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="D330" s="15">
         <v>1</v>
@@ -20875,7 +20944,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J330" s="15"/>
       <c r="K330" s="13">
@@ -20883,7 +20952,7 @@
       </c>
       <c r="L330" s="15"/>
       <c r="M330" s="13" t="s">
-        <v>48</v>
+        <v>567</v>
       </c>
       <c r="N330" s="15"/>
       <c r="AC330" s="20">
@@ -20895,10 +20964,10 @@
         <v>21109</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="D331" s="13">
         <v>1</v>
@@ -20916,7 +20985,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J331" s="13"/>
       <c r="K331" s="13">
@@ -20924,7 +20993,7 @@
       </c>
       <c r="L331" s="13"/>
       <c r="M331" s="13" t="s">
-        <v>48</v>
+        <v>570</v>
       </c>
       <c r="N331" s="13"/>
       <c r="AC331" s="20">
@@ -20936,10 +21005,10 @@
         <v>21110</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="D332" s="15">
         <v>1</v>
@@ -20957,7 +21026,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J332" s="15"/>
       <c r="K332" s="13">
@@ -20965,7 +21034,7 @@
       </c>
       <c r="L332" s="15"/>
       <c r="M332" s="13" t="s">
-        <v>48</v>
+        <v>573</v>
       </c>
       <c r="N332" s="15"/>
       <c r="AC332" s="20">
@@ -20977,10 +21046,10 @@
         <v>21111</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="D333" s="13">
         <v>1</v>
@@ -20998,7 +21067,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J333" s="13"/>
       <c r="K333" s="13">
@@ -21006,7 +21075,7 @@
       </c>
       <c r="L333" s="13"/>
       <c r="M333" s="13" t="s">
-        <v>48</v>
+        <v>576</v>
       </c>
       <c r="N333" s="13"/>
       <c r="AC333" s="20">
@@ -21018,10 +21087,10 @@
         <v>21112</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="D334" s="15">
         <v>1</v>
@@ -21039,7 +21108,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="J334" s="15"/>
       <c r="K334" s="13">
@@ -21047,7 +21116,7 @@
       </c>
       <c r="L334" s="15"/>
       <c r="M334" s="13" t="s">
-        <v>48</v>
+        <v>579</v>
       </c>
       <c r="N334" s="15"/>
       <c r="AC334" s="20">
@@ -21059,10 +21128,10 @@
         <v>100001</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="D335" s="13">
         <v>1</v>
@@ -21098,7 +21167,7 @@
         <v>100002</v>
       </c>
       <c r="B336" s="36" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="C336" s="36"/>
       <c r="D336" s="36">
@@ -21117,7 +21186,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="36" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="J336" s="36"/>
       <c r="K336" s="13">
@@ -21125,7 +21194,7 @@
       </c>
       <c r="L336" s="36"/>
       <c r="M336" s="36" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="N336" s="36"/>
       <c r="AC336" s="20">
@@ -21137,7 +21206,7 @@
         <v>100003</v>
       </c>
       <c r="B337" s="36" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="C337" s="36"/>
       <c r="D337" s="36">
@@ -21156,7 +21225,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="36" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="J337" s="36"/>
       <c r="K337" s="13">
@@ -21164,7 +21233,7 @@
       </c>
       <c r="L337" s="36"/>
       <c r="M337" s="36" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="N337" s="36"/>
       <c r="AC337" s="20">

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="599">
   <si>
     <t>物品引索</t>
   </si>
@@ -896,40 +896,61 @@
     <t>可以随机开出一张地图·极北之地出现的史诗级（B级）卡片</t>
   </si>
   <si>
+    <t>item_server/3510_极北之地的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
     <t>狂风沙漠的史诗图鉴图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·狂风沙漠出现的史诗级（B级）卡片</t>
   </si>
   <si>
+    <t>item_server/3511_狂风沙漠的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
     <t>雷霆之地的史诗图鉴图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·雷霆之地出现的史诗级（B级）卡片</t>
   </si>
   <si>
+    <t>item_server/3512_雷霆之地的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
     <t>熔火炼狱的传说图鉴图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·熔火炼狱出现的传说级（A级）卡片</t>
   </si>
   <si>
+    <t>item_server/3513_熔火炼狱的传说图鉴图鉴箱</t>
+  </si>
+  <si>
     <t>极北之地的传说图鉴图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·极北之地出现的传说级（A级）卡片</t>
   </si>
   <si>
+    <t>item_server/3514_极北之地的传说图鉴图鉴箱</t>
+  </si>
+  <si>
     <t>狂风沙漠的传说图鉴图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·狂风沙漠出现的传说级（A级）卡片</t>
   </si>
   <si>
+    <t>item_server/3515_狂风沙漠的传说图鉴图鉴箱</t>
+  </si>
+  <si>
     <t>雷霆之地的传说图鉴图鉴箱</t>
   </si>
   <si>
     <t>可以随机开出一张地图·雷霆之地出现的传说级（A级）卡片</t>
+  </si>
+  <si>
+    <t>item_server/3516_雷霆之地的传说图鉴图鉴箱</t>
   </si>
   <si>
     <t>精良图鉴兑换券</t>
@@ -1670,6 +1691,9 @@
     <t>元素大陆成长礼的首通点</t>
   </si>
   <si>
+    <t>item_server/20202_元素大陆首通点</t>
+  </si>
+  <si>
     <t>熔火炼狱征服者（成长礼）</t>
   </si>
   <si>
@@ -1679,6 +1703,9 @@
     <t>熔火炼狱成长礼的首通点</t>
   </si>
   <si>
+    <t>item_server/20204_熔火炼狱首通点</t>
+  </si>
+  <si>
     <t>极北之地征服者（成长礼）</t>
   </si>
   <si>
@@ -1688,6 +1715,9 @@
     <t>极北之地成长礼的首通点</t>
   </si>
   <si>
+    <t>item_server/20206_极北之地首通点</t>
+  </si>
+  <si>
     <t>雷霆之地征服者（成长礼）</t>
   </si>
   <si>
@@ -1697,6 +1727,9 @@
     <t>雷霆之地成长礼的首通点</t>
   </si>
   <si>
+    <t>item_server/20208_雷霆之地首通点</t>
+  </si>
+  <si>
     <t>狂风沙漠征服者（成长礼）</t>
   </si>
   <si>
@@ -1704,6 +1737,9 @@
   </si>
   <si>
     <t>狂风沙漠成长礼的首通点</t>
+  </si>
+  <si>
+    <t>item_server/20210_狂风沙漠首通点</t>
   </si>
   <si>
     <t>急速元素</t>
@@ -3404,16 +3440,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{AD3FCF31-C7E5-4DBD-BCD8-303516D8A214}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{85FDCF39-992C-4DB0-9F3F-45BCFBD8CD3A}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2334B07C-7815-40B5-96FD-A7D82CBA4AA2}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BACD279C-3E8C-4F41-98A5-9E213BD4450A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E00B32F6-D3C8-4917-ACEA-9D9FBB2A70B0}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{245E4C5C-438A-4BE4-9FBD-A6405F201F25}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3425,7 +3461,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{7E0C7325-C0F1-4725-B562-FF46C5F35DC3}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{47A086B2-B584-4061-8F25-FC103BC6180E}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3739,11 +3775,11 @@
   <dimension ref="A1:AC337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M316" sqref="M316:M334"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3945,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="12">
         <v>1</v>
@@ -4164,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="16">
         <v>5</v>
@@ -4694,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" s="16">
         <v>21</v>
@@ -5180,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="14">
         <v>21</v>
@@ -5234,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="16">
         <v>21</v>
@@ -5288,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="14">
         <v>21</v>
@@ -5342,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="16">
         <v>21</v>
@@ -5396,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="14">
         <v>23</v>
@@ -5450,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="16">
         <v>22</v>
@@ -5504,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="14">
         <v>22</v>
@@ -5558,10 +5594,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33" s="15">
         <v>0</v>
@@ -5612,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="14">
         <v>22</v>
@@ -5664,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="14">
         <v>22</v>
@@ -5716,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="14">
         <v>22</v>
@@ -5768,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37" s="14">
         <v>22</v>
@@ -13629,7 +13665,7 @@
       </c>
       <c r="L181" s="15"/>
       <c r="M181" s="15" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="N181" s="15"/>
       <c r="O181" s="23"/>
@@ -13654,10 +13690,10 @@
         <v>3511</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D182" s="13">
         <v>1</v>
@@ -13681,7 +13717,7 @@
       </c>
       <c r="L182" s="13"/>
       <c r="M182" s="13" t="s">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="N182" s="13"/>
       <c r="O182" s="22"/>
@@ -13706,10 +13742,10 @@
         <v>3512</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D183" s="15">
         <v>1</v>
@@ -13733,7 +13769,7 @@
       </c>
       <c r="L183" s="15"/>
       <c r="M183" s="15" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="N183" s="15"/>
       <c r="O183" s="23"/>
@@ -13758,10 +13794,10 @@
         <v>3513</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D184" s="13">
         <v>1</v>
@@ -13785,7 +13821,7 @@
       </c>
       <c r="L184" s="13"/>
       <c r="M184" s="13" t="s">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="N184" s="13"/>
       <c r="O184" s="22"/>
@@ -13810,10 +13846,10 @@
         <v>3514</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -13837,7 +13873,7 @@
       </c>
       <c r="L185" s="15"/>
       <c r="M185" s="15" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="N185" s="15"/>
       <c r="O185" s="23"/>
@@ -13862,10 +13898,10 @@
         <v>3515</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D186" s="13">
         <v>1</v>
@@ -13889,7 +13925,7 @@
       </c>
       <c r="L186" s="13"/>
       <c r="M186" s="13" t="s">
-        <v>48</v>
+        <v>302</v>
       </c>
       <c r="N186" s="13"/>
       <c r="O186" s="22"/>
@@ -13914,10 +13950,10 @@
         <v>3516</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -13941,7 +13977,7 @@
       </c>
       <c r="L187" s="15"/>
       <c r="M187" s="15" t="s">
-        <v>48</v>
+        <v>305</v>
       </c>
       <c r="N187" s="15"/>
       <c r="O187" s="23"/>
@@ -13966,10 +14002,10 @@
         <v>3517</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D188" s="13">
         <v>1</v>
@@ -13993,7 +14029,7 @@
       </c>
       <c r="L188" s="13"/>
       <c r="M188" s="13" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="N188" s="13"/>
       <c r="O188" s="22"/>
@@ -14018,10 +14054,10 @@
         <v>3518</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -14045,7 +14081,7 @@
       </c>
       <c r="L189" s="15"/>
       <c r="M189" s="15" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="N189" s="15"/>
       <c r="O189" s="23"/>
@@ -14070,10 +14106,10 @@
         <v>3519</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D190" s="13">
         <v>1</v>
@@ -14097,7 +14133,7 @@
       </c>
       <c r="L190" s="13"/>
       <c r="M190" s="13" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="N190" s="13"/>
       <c r="O190" s="22"/>
@@ -14122,10 +14158,10 @@
         <v>3520</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -14149,7 +14185,7 @@
       </c>
       <c r="L191" s="15"/>
       <c r="M191" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="N191" s="15"/>
       <c r="O191" s="23"/>
@@ -14174,10 +14210,10 @@
         <v>3521</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D192" s="13">
         <v>1</v>
@@ -14201,7 +14237,7 @@
       </c>
       <c r="L192" s="13"/>
       <c r="M192" s="13" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="N192" s="13"/>
       <c r="O192" s="22"/>
@@ -14226,10 +14262,10 @@
         <v>3522</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -14253,7 +14289,7 @@
       </c>
       <c r="L193" s="15"/>
       <c r="M193" s="15" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="N193" s="15"/>
       <c r="O193" s="23"/>
@@ -14278,10 +14314,10 @@
         <v>3523</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D194" s="13">
         <v>1</v>
@@ -14305,7 +14341,7 @@
       </c>
       <c r="L194" s="13"/>
       <c r="M194" s="13" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="N194" s="13"/>
       <c r="O194" s="22"/>
@@ -14330,10 +14366,10 @@
         <v>3524</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -14357,7 +14393,7 @@
       </c>
       <c r="L195" s="15"/>
       <c r="M195" s="15" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N195" s="15"/>
       <c r="O195" s="23"/>
@@ -14382,10 +14418,10 @@
         <v>3525</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D196" s="13">
         <v>1</v>
@@ -14409,7 +14445,7 @@
       </c>
       <c r="L196" s="13"/>
       <c r="M196" s="13" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N196" s="13"/>
       <c r="O196" s="22"/>
@@ -14434,10 +14470,10 @@
         <v>10001</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -14461,7 +14497,7 @@
       </c>
       <c r="L197" s="15"/>
       <c r="M197" s="15" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="N197" s="15"/>
       <c r="O197" s="23"/>
@@ -14486,10 +14522,10 @@
         <v>10002</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D198" s="13">
         <v>1</v>
@@ -14513,7 +14549,7 @@
       </c>
       <c r="L198" s="13"/>
       <c r="M198" s="13" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N198" s="13"/>
       <c r="O198" s="22"/>
@@ -14538,10 +14574,10 @@
         <v>10003</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -14565,7 +14601,7 @@
       </c>
       <c r="L199" s="15"/>
       <c r="M199" s="15" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="N199" s="15"/>
       <c r="O199" s="23"/>
@@ -14590,10 +14626,10 @@
         <v>10004</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D200" s="13">
         <v>1</v>
@@ -14617,7 +14653,7 @@
       </c>
       <c r="L200" s="13"/>
       <c r="M200" s="13" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="N200" s="13"/>
       <c r="O200" s="22"/>
@@ -14642,10 +14678,10 @@
         <v>10005</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D201" s="15">
         <v>1</v>
@@ -14669,7 +14705,7 @@
       </c>
       <c r="L201" s="15"/>
       <c r="M201" s="15" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="N201" s="15"/>
       <c r="O201" s="23"/>
@@ -14694,10 +14730,10 @@
         <v>10006</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D202" s="13">
         <v>1</v>
@@ -14721,7 +14757,7 @@
       </c>
       <c r="L202" s="13"/>
       <c r="M202" s="13" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N202" s="13"/>
       <c r="O202" s="22"/>
@@ -14746,10 +14782,10 @@
         <v>10007</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -14773,7 +14809,7 @@
       </c>
       <c r="L203" s="15"/>
       <c r="M203" s="15" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N203" s="15"/>
       <c r="O203" s="23"/>
@@ -14798,10 +14834,10 @@
         <v>10008</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D204" s="13">
         <v>1</v>
@@ -14825,7 +14861,7 @@
       </c>
       <c r="L204" s="13"/>
       <c r="M204" s="13" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N204" s="13"/>
       <c r="O204" s="22"/>
@@ -14850,10 +14886,10 @@
         <v>10009</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -14877,7 +14913,7 @@
       </c>
       <c r="L205" s="15"/>
       <c r="M205" s="15" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N205" s="15"/>
       <c r="O205" s="23"/>
@@ -14902,10 +14938,10 @@
         <v>10011</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D206" s="15">
         <v>1</v>
@@ -14929,7 +14965,7 @@
       </c>
       <c r="L206" s="15"/>
       <c r="M206" s="15" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N206" s="15"/>
       <c r="O206" s="23"/>
@@ -14954,10 +14990,10 @@
         <v>10012</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D207" s="13">
         <v>1</v>
@@ -14981,7 +15017,7 @@
       </c>
       <c r="L207" s="13"/>
       <c r="M207" s="13" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N207" s="13"/>
       <c r="O207" s="22"/>
@@ -15006,10 +15042,10 @@
         <v>10013</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D208" s="15">
         <v>1</v>
@@ -15033,7 +15069,7 @@
       </c>
       <c r="L208" s="15"/>
       <c r="M208" s="15" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N208" s="15"/>
       <c r="O208" s="23"/>
@@ -15058,10 +15094,10 @@
         <v>10014</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D209" s="13">
         <v>1</v>
@@ -15085,7 +15121,7 @@
       </c>
       <c r="L209" s="13"/>
       <c r="M209" s="13" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="N209" s="13"/>
       <c r="O209" s="22"/>
@@ -15110,10 +15146,10 @@
         <v>10015</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D210" s="15">
         <v>1</v>
@@ -15137,7 +15173,7 @@
       </c>
       <c r="L210" s="15"/>
       <c r="M210" s="15" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N210" s="15"/>
       <c r="O210" s="23"/>
@@ -15162,10 +15198,10 @@
         <v>10016</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D211" s="13">
         <v>1</v>
@@ -15189,7 +15225,7 @@
       </c>
       <c r="L211" s="13"/>
       <c r="M211" s="13" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N211" s="13"/>
       <c r="O211" s="22"/>
@@ -15214,10 +15250,10 @@
         <v>10017</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D212" s="15">
         <v>1</v>
@@ -15241,7 +15277,7 @@
       </c>
       <c r="L212" s="15"/>
       <c r="M212" s="15" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="N212" s="15"/>
       <c r="O212" s="23"/>
@@ -15266,10 +15302,10 @@
         <v>10018</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D213" s="13">
         <v>1</v>
@@ -15293,7 +15329,7 @@
       </c>
       <c r="L213" s="13"/>
       <c r="M213" s="13" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N213" s="13"/>
       <c r="O213" s="22"/>
@@ -15318,10 +15354,10 @@
         <v>10101</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D214" s="15">
         <v>1</v>
@@ -15345,7 +15381,7 @@
       </c>
       <c r="L214" s="15"/>
       <c r="M214" s="15" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="N214" s="15"/>
       <c r="O214" s="23"/>
@@ -15370,10 +15406,10 @@
         <v>10102</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D215" s="13">
         <v>1</v>
@@ -15397,7 +15433,7 @@
       </c>
       <c r="L215" s="13"/>
       <c r="M215" s="13" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N215" s="13"/>
       <c r="O215" s="22"/>
@@ -15422,10 +15458,10 @@
         <v>10103</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D216" s="15">
         <v>1</v>
@@ -15449,7 +15485,7 @@
       </c>
       <c r="L216" s="15"/>
       <c r="M216" s="15" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="N216" s="15"/>
       <c r="O216" s="23"/>
@@ -15474,10 +15510,10 @@
         <v>10104</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D217" s="13">
         <v>1</v>
@@ -15501,7 +15537,7 @@
       </c>
       <c r="L217" s="13"/>
       <c r="M217" s="13" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="N217" s="13"/>
       <c r="O217" s="22"/>
@@ -15526,10 +15562,10 @@
         <v>10105</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D218" s="15">
         <v>1</v>
@@ -15553,7 +15589,7 @@
       </c>
       <c r="L218" s="15"/>
       <c r="M218" s="15" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="N218" s="15"/>
       <c r="O218" s="23"/>
@@ -15578,10 +15614,10 @@
         <v>10106</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D219" s="13">
         <v>1</v>
@@ -15605,7 +15641,7 @@
       </c>
       <c r="L219" s="13"/>
       <c r="M219" s="13" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N219" s="13"/>
       <c r="O219" s="22"/>
@@ -15630,10 +15666,10 @@
         <v>10107</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D220" s="15">
         <v>1</v>
@@ -15657,7 +15693,7 @@
       </c>
       <c r="L220" s="15"/>
       <c r="M220" s="15" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N220" s="15"/>
       <c r="O220" s="23"/>
@@ -15682,10 +15718,10 @@
         <v>10108</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D221" s="13">
         <v>1</v>
@@ -15709,7 +15745,7 @@
       </c>
       <c r="L221" s="13"/>
       <c r="M221" s="13" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N221" s="13"/>
       <c r="O221" s="22"/>
@@ -15734,10 +15770,10 @@
         <v>10109</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D222" s="15">
         <v>1</v>
@@ -15761,7 +15797,7 @@
       </c>
       <c r="L222" s="15"/>
       <c r="M222" s="15" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N222" s="15"/>
       <c r="O222" s="23"/>
@@ -15786,10 +15822,10 @@
         <v>10111</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D223" s="15">
         <v>1</v>
@@ -15813,7 +15849,7 @@
       </c>
       <c r="L223" s="15"/>
       <c r="M223" s="15" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N223" s="15"/>
       <c r="O223" s="23"/>
@@ -15838,10 +15874,10 @@
         <v>10112</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D224" s="13">
         <v>1</v>
@@ -15865,7 +15901,7 @@
       </c>
       <c r="L224" s="13"/>
       <c r="M224" s="13" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N224" s="13"/>
       <c r="O224" s="22"/>
@@ -15890,10 +15926,10 @@
         <v>10113</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D225" s="15">
         <v>1</v>
@@ -15917,7 +15953,7 @@
       </c>
       <c r="L225" s="15"/>
       <c r="M225" s="15" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N225" s="15"/>
       <c r="O225" s="23"/>
@@ -15942,10 +15978,10 @@
         <v>10114</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D226" s="13">
         <v>1</v>
@@ -15969,7 +16005,7 @@
       </c>
       <c r="L226" s="13"/>
       <c r="M226" s="13" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="N226" s="13"/>
       <c r="O226" s="22"/>
@@ -15994,10 +16030,10 @@
         <v>10115</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -16021,7 +16057,7 @@
       </c>
       <c r="L227" s="15"/>
       <c r="M227" s="15" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N227" s="15"/>
       <c r="O227" s="23"/>
@@ -16046,10 +16082,10 @@
         <v>10116</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D228" s="13">
         <v>1</v>
@@ -16073,7 +16109,7 @@
       </c>
       <c r="L228" s="13"/>
       <c r="M228" s="13" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N228" s="13"/>
       <c r="O228" s="22"/>
@@ -16098,10 +16134,10 @@
         <v>10117</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -16125,7 +16161,7 @@
       </c>
       <c r="L229" s="15"/>
       <c r="M229" s="15" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="N229" s="15"/>
       <c r="O229" s="23"/>
@@ -16150,10 +16186,10 @@
         <v>10118</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D230" s="13">
         <v>1</v>
@@ -16177,7 +16213,7 @@
       </c>
       <c r="L230" s="13"/>
       <c r="M230" s="13" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N230" s="13"/>
       <c r="O230" s="22"/>
@@ -16202,10 +16238,10 @@
         <v>10201</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D231" s="15">
         <v>1</v>
@@ -16229,7 +16265,7 @@
       </c>
       <c r="L231" s="15"/>
       <c r="M231" s="15" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="N231" s="15"/>
       <c r="O231" s="23"/>
@@ -16254,10 +16290,10 @@
         <v>10202</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D232" s="13">
         <v>1</v>
@@ -16281,7 +16317,7 @@
       </c>
       <c r="L232" s="13"/>
       <c r="M232" s="13" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N232" s="13"/>
       <c r="O232" s="22"/>
@@ -16306,10 +16342,10 @@
         <v>10203</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D233" s="15">
         <v>1</v>
@@ -16333,7 +16369,7 @@
       </c>
       <c r="L233" s="15"/>
       <c r="M233" s="15" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="N233" s="15"/>
       <c r="O233" s="23"/>
@@ -16358,10 +16394,10 @@
         <v>10204</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D234" s="13">
         <v>1</v>
@@ -16385,7 +16421,7 @@
       </c>
       <c r="L234" s="13"/>
       <c r="M234" s="13" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="N234" s="13"/>
       <c r="O234" s="22"/>
@@ -16410,10 +16446,10 @@
         <v>10205</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D235" s="15">
         <v>1</v>
@@ -16437,7 +16473,7 @@
       </c>
       <c r="L235" s="15"/>
       <c r="M235" s="15" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="N235" s="15"/>
       <c r="O235" s="23"/>
@@ -16462,10 +16498,10 @@
         <v>10206</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D236" s="13">
         <v>1</v>
@@ -16489,7 +16525,7 @@
       </c>
       <c r="L236" s="13"/>
       <c r="M236" s="13" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N236" s="13"/>
       <c r="O236" s="22"/>
@@ -16514,10 +16550,10 @@
         <v>10207</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D237" s="15">
         <v>1</v>
@@ -16541,7 +16577,7 @@
       </c>
       <c r="L237" s="15"/>
       <c r="M237" s="15" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N237" s="15"/>
       <c r="O237" s="23"/>
@@ -16566,10 +16602,10 @@
         <v>10208</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D238" s="13">
         <v>1</v>
@@ -16593,7 +16629,7 @@
       </c>
       <c r="L238" s="13"/>
       <c r="M238" s="13" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N238" s="13"/>
       <c r="O238" s="22"/>
@@ -16618,10 +16654,10 @@
         <v>10209</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -16645,7 +16681,7 @@
       </c>
       <c r="L239" s="15"/>
       <c r="M239" s="15" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N239" s="15"/>
       <c r="O239" s="23"/>
@@ -16670,10 +16706,10 @@
         <v>10211</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D240" s="15">
         <v>1</v>
@@ -16697,7 +16733,7 @@
       </c>
       <c r="L240" s="15"/>
       <c r="M240" s="15" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N240" s="15"/>
       <c r="O240" s="23"/>
@@ -16722,10 +16758,10 @@
         <v>10212</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D241" s="13">
         <v>1</v>
@@ -16749,7 +16785,7 @@
       </c>
       <c r="L241" s="13"/>
       <c r="M241" s="13" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N241" s="13"/>
       <c r="O241" s="22"/>
@@ -16774,10 +16810,10 @@
         <v>10213</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D242" s="15">
         <v>1</v>
@@ -16801,7 +16837,7 @@
       </c>
       <c r="L242" s="15"/>
       <c r="M242" s="15" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N242" s="15"/>
       <c r="O242" s="23"/>
@@ -16826,10 +16862,10 @@
         <v>10214</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D243" s="13">
         <v>1</v>
@@ -16853,7 +16889,7 @@
       </c>
       <c r="L243" s="13"/>
       <c r="M243" s="13" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="N243" s="13"/>
       <c r="O243" s="22"/>
@@ -16878,10 +16914,10 @@
         <v>10215</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D244" s="15">
         <v>1</v>
@@ -16905,7 +16941,7 @@
       </c>
       <c r="L244" s="15"/>
       <c r="M244" s="15" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N244" s="15"/>
       <c r="O244" s="23"/>
@@ -16930,10 +16966,10 @@
         <v>10216</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D245" s="13">
         <v>1</v>
@@ -16957,7 +16993,7 @@
       </c>
       <c r="L245" s="13"/>
       <c r="M245" s="13" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N245" s="13"/>
       <c r="O245" s="22"/>
@@ -16982,10 +17018,10 @@
         <v>10217</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D246" s="15">
         <v>1</v>
@@ -17009,7 +17045,7 @@
       </c>
       <c r="L246" s="15"/>
       <c r="M246" s="15" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="N246" s="15"/>
       <c r="O246" s="23"/>
@@ -17034,10 +17070,10 @@
         <v>10218</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D247" s="13">
         <v>1</v>
@@ -17061,7 +17097,7 @@
       </c>
       <c r="L247" s="13"/>
       <c r="M247" s="13" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N247" s="13"/>
       <c r="O247" s="22"/>
@@ -17086,10 +17122,10 @@
         <v>10301</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D248" s="15">
         <v>1</v>
@@ -17113,7 +17149,7 @@
       </c>
       <c r="L248" s="15"/>
       <c r="M248" s="15" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="N248" s="15"/>
       <c r="O248" s="23"/>
@@ -17138,10 +17174,10 @@
         <v>10302</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D249" s="13">
         <v>1</v>
@@ -17165,7 +17201,7 @@
       </c>
       <c r="L249" s="13"/>
       <c r="M249" s="13" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N249" s="13"/>
       <c r="O249" s="22"/>
@@ -17190,10 +17226,10 @@
         <v>10303</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D250" s="15">
         <v>1</v>
@@ -17217,7 +17253,7 @@
       </c>
       <c r="L250" s="15"/>
       <c r="M250" s="15" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="N250" s="15"/>
       <c r="O250" s="23"/>
@@ -17242,10 +17278,10 @@
         <v>10304</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D251" s="13">
         <v>1</v>
@@ -17269,7 +17305,7 @@
       </c>
       <c r="L251" s="13"/>
       <c r="M251" s="13" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="N251" s="13"/>
       <c r="O251" s="22"/>
@@ -17294,10 +17330,10 @@
         <v>10305</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D252" s="15">
         <v>1</v>
@@ -17321,7 +17357,7 @@
       </c>
       <c r="L252" s="15"/>
       <c r="M252" s="15" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="N252" s="15"/>
       <c r="O252" s="23"/>
@@ -17346,10 +17382,10 @@
         <v>10306</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D253" s="13">
         <v>1</v>
@@ -17373,7 +17409,7 @@
       </c>
       <c r="L253" s="13"/>
       <c r="M253" s="13" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N253" s="13"/>
       <c r="O253" s="22"/>
@@ -17398,10 +17434,10 @@
         <v>10307</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D254" s="15">
         <v>1</v>
@@ -17425,7 +17461,7 @@
       </c>
       <c r="L254" s="15"/>
       <c r="M254" s="15" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N254" s="15"/>
       <c r="O254" s="23"/>
@@ -17450,10 +17486,10 @@
         <v>10308</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D255" s="13">
         <v>1</v>
@@ -17477,7 +17513,7 @@
       </c>
       <c r="L255" s="13"/>
       <c r="M255" s="13" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N255" s="13"/>
       <c r="O255" s="22"/>
@@ -17502,10 +17538,10 @@
         <v>10309</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D256" s="15">
         <v>1</v>
@@ -17529,7 +17565,7 @@
       </c>
       <c r="L256" s="15"/>
       <c r="M256" s="15" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N256" s="15"/>
       <c r="O256" s="23"/>
@@ -17554,10 +17590,10 @@
         <v>10311</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -17581,7 +17617,7 @@
       </c>
       <c r="L257" s="15"/>
       <c r="M257" s="15" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N257" s="15"/>
       <c r="O257" s="23"/>
@@ -17606,10 +17642,10 @@
         <v>10312</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D258" s="13">
         <v>1</v>
@@ -17633,7 +17669,7 @@
       </c>
       <c r="L258" s="13"/>
       <c r="M258" s="13" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N258" s="13"/>
       <c r="O258" s="22"/>
@@ -17658,10 +17694,10 @@
         <v>10313</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -17685,7 +17721,7 @@
       </c>
       <c r="L259" s="15"/>
       <c r="M259" s="15" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N259" s="15"/>
       <c r="O259" s="23"/>
@@ -17710,10 +17746,10 @@
         <v>10314</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D260" s="13">
         <v>1</v>
@@ -17737,7 +17773,7 @@
       </c>
       <c r="L260" s="13"/>
       <c r="M260" s="13" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="N260" s="13"/>
       <c r="O260" s="22"/>
@@ -17762,10 +17798,10 @@
         <v>10315</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -17789,7 +17825,7 @@
       </c>
       <c r="L261" s="15"/>
       <c r="M261" s="15" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N261" s="15"/>
       <c r="O261" s="23"/>
@@ -17814,10 +17850,10 @@
         <v>10316</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D262" s="13">
         <v>1</v>
@@ -17841,7 +17877,7 @@
       </c>
       <c r="L262" s="13"/>
       <c r="M262" s="13" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N262" s="13"/>
       <c r="O262" s="22"/>
@@ -17866,10 +17902,10 @@
         <v>10317</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -17893,7 +17929,7 @@
       </c>
       <c r="L263" s="15"/>
       <c r="M263" s="15" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="N263" s="15"/>
       <c r="O263" s="23"/>
@@ -17918,10 +17954,10 @@
         <v>10318</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D264" s="13">
         <v>1</v>
@@ -17945,7 +17981,7 @@
       </c>
       <c r="L264" s="13"/>
       <c r="M264" s="13" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N264" s="13"/>
       <c r="O264" s="22"/>
@@ -17970,10 +18006,10 @@
         <v>20000</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -17997,7 +18033,7 @@
       </c>
       <c r="L265" s="15"/>
       <c r="M265" s="15" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="N265" s="15"/>
       <c r="O265" s="23"/>
@@ -18022,10 +18058,10 @@
         <v>20001</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D266" s="13">
         <v>1</v>
@@ -18049,7 +18085,7 @@
       </c>
       <c r="L266" s="13"/>
       <c r="M266" s="13" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="N266" s="13"/>
       <c r="O266" s="22"/>
@@ -18074,10 +18110,10 @@
         <v>20002</v>
       </c>
       <c r="B267" s="28" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D267" s="28">
         <v>1</v>
@@ -18095,7 +18131,7 @@
         <v>1</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J267" s="28"/>
       <c r="K267" s="13">
@@ -18128,10 +18164,10 @@
         <v>20003</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D268" s="13">
         <v>1</v>
@@ -18149,7 +18185,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J268" s="13"/>
       <c r="K268" s="13">
@@ -18157,7 +18193,7 @@
       </c>
       <c r="L268" s="13"/>
       <c r="M268" s="13" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="N268" s="13"/>
       <c r="O268" s="22"/>
@@ -18182,10 +18218,10 @@
         <v>20004</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D269" s="15">
         <v>1</v>
@@ -18203,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="I269" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J269" s="15"/>
       <c r="K269" s="13">
@@ -18211,7 +18247,7 @@
       </c>
       <c r="L269" s="15"/>
       <c r="M269" s="15" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="N269" s="15"/>
       <c r="O269" s="23"/>
@@ -18236,10 +18272,10 @@
         <v>20005</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D270" s="13">
         <v>1</v>
@@ -18257,7 +18293,7 @@
         <v>1</v>
       </c>
       <c r="I270" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J270" s="13"/>
       <c r="K270" s="13">
@@ -18265,7 +18301,7 @@
       </c>
       <c r="L270" s="13"/>
       <c r="M270" s="13" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="N270" s="13"/>
       <c r="O270" s="22"/>
@@ -18290,10 +18326,10 @@
         <v>20006</v>
       </c>
       <c r="B271" s="30" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C271" s="30" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D271" s="30">
         <v>1</v>
@@ -18311,7 +18347,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="30" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J271" s="30"/>
       <c r="K271" s="13">
@@ -18344,10 +18380,10 @@
         <v>20007</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D272" s="13">
         <v>1</v>
@@ -18365,7 +18401,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J272" s="13"/>
       <c r="K272" s="13">
@@ -18373,7 +18409,7 @@
       </c>
       <c r="L272" s="13"/>
       <c r="M272" s="13" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="N272" s="13"/>
       <c r="O272" s="22"/>
@@ -18398,10 +18434,10 @@
         <v>20008</v>
       </c>
       <c r="B273" s="30" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C273" s="30" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D273" s="30">
         <v>1</v>
@@ -18419,7 +18455,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="30" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J273" s="30"/>
       <c r="K273" s="13">
@@ -18452,10 +18488,10 @@
         <v>20009</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D274" s="13">
         <v>1</v>
@@ -18473,7 +18509,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J274" s="13"/>
       <c r="K274" s="13">
@@ -18481,7 +18517,7 @@
       </c>
       <c r="L274" s="13"/>
       <c r="M274" s="13" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="N274" s="13"/>
       <c r="O274" s="22"/>
@@ -18506,10 +18542,10 @@
         <v>20010</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D275" s="15">
         <v>1</v>
@@ -18527,7 +18563,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J275" s="15"/>
       <c r="K275" s="13">
@@ -18535,7 +18571,7 @@
       </c>
       <c r="L275" s="15"/>
       <c r="M275" s="15" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="N275" s="15"/>
       <c r="O275" s="23"/>
@@ -18560,10 +18596,10 @@
         <v>20011</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D276" s="15">
         <v>1</v>
@@ -18581,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J276" s="13"/>
       <c r="K276" s="13">
@@ -18589,7 +18625,7 @@
       </c>
       <c r="L276" s="13"/>
       <c r="M276" s="15" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="N276" s="13"/>
       <c r="O276" s="22"/>
@@ -18614,10 +18650,10 @@
         <v>20012</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D277" s="13">
         <v>1</v>
@@ -18635,7 +18671,7 @@
         <v>1</v>
       </c>
       <c r="I277" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J277" s="13"/>
       <c r="K277" s="13">
@@ -18643,7 +18679,7 @@
       </c>
       <c r="L277" s="13"/>
       <c r="M277" s="15" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="N277" s="13"/>
       <c r="O277" s="23"/>
@@ -18668,10 +18704,10 @@
         <v>20013</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D278" s="15">
         <v>1</v>
@@ -18689,7 +18725,7 @@
         <v>1</v>
       </c>
       <c r="I278" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J278" s="13"/>
       <c r="K278" s="13">
@@ -18697,7 +18733,7 @@
       </c>
       <c r="L278" s="13"/>
       <c r="M278" s="15" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="N278" s="13"/>
       <c r="O278" s="22"/>
@@ -18722,10 +18758,10 @@
         <v>20014</v>
       </c>
       <c r="B279" s="32" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C279" s="30" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D279" s="30">
         <v>1</v>
@@ -18743,7 +18779,7 @@
         <v>1</v>
       </c>
       <c r="I279" s="30" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J279" s="32"/>
       <c r="K279" s="13">
@@ -18776,10 +18812,10 @@
         <v>20015</v>
       </c>
       <c r="B280" s="32" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D280" s="32">
         <v>1</v>
@@ -18797,7 +18833,7 @@
         <v>1</v>
       </c>
       <c r="I280" s="30" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J280" s="32"/>
       <c r="K280" s="13">
@@ -18830,10 +18866,10 @@
         <v>20016</v>
       </c>
       <c r="B281" s="32" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C281" s="30" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D281" s="30">
         <v>1</v>
@@ -18851,7 +18887,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="30" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J281" s="32"/>
       <c r="K281" s="13">
@@ -18884,10 +18920,10 @@
         <v>20017</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D282" s="15">
         <v>1</v>
@@ -18905,7 +18941,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J282" s="13"/>
       <c r="K282" s="13">
@@ -18913,7 +18949,7 @@
       </c>
       <c r="L282" s="13"/>
       <c r="M282" s="15" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N282" s="13"/>
       <c r="O282" s="22"/>
@@ -18938,10 +18974,10 @@
         <v>20018</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D283" s="13">
         <v>1</v>
@@ -18959,7 +18995,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J283" s="13"/>
       <c r="K283" s="13">
@@ -18967,7 +19003,7 @@
       </c>
       <c r="L283" s="13"/>
       <c r="M283" s="15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="N283" s="13"/>
       <c r="O283" s="23"/>
@@ -18992,10 +19028,10 @@
         <v>20019</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D284" s="15">
         <v>1</v>
@@ -19013,7 +19049,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J284" s="13"/>
       <c r="K284" s="13">
@@ -19021,7 +19057,7 @@
       </c>
       <c r="L284" s="13"/>
       <c r="M284" s="15" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="N284" s="13"/>
       <c r="O284" s="22"/>
@@ -19046,10 +19082,10 @@
         <v>20020</v>
       </c>
       <c r="B285" s="34" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C285" s="35" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D285" s="13">
         <v>1</v>
@@ -19067,7 +19103,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J285" s="13"/>
       <c r="K285" s="13">
@@ -19075,7 +19111,7 @@
       </c>
       <c r="L285" s="13"/>
       <c r="M285" s="15" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="N285" s="13"/>
       <c r="O285" s="23"/>
@@ -19100,10 +19136,10 @@
         <v>20021</v>
       </c>
       <c r="B286" s="34" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C286" s="35" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D286" s="15">
         <v>1</v>
@@ -19121,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J286" s="13"/>
       <c r="K286" s="13">
@@ -19129,7 +19165,7 @@
       </c>
       <c r="L286" s="13"/>
       <c r="M286" s="15" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="N286" s="13"/>
       <c r="O286" s="22"/>
@@ -19154,10 +19190,10 @@
         <v>20022</v>
       </c>
       <c r="B287" s="34" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C287" s="35" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D287" s="15">
         <v>1</v>
@@ -19175,7 +19211,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J287" s="13"/>
       <c r="K287" s="13">
@@ -19183,7 +19219,7 @@
       </c>
       <c r="L287" s="13"/>
       <c r="M287" s="15" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="N287" s="13"/>
       <c r="O287" s="23"/>
@@ -19208,10 +19244,10 @@
         <v>20023</v>
       </c>
       <c r="B288" s="34" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C288" s="35" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D288" s="13">
         <v>1</v>
@@ -19229,7 +19265,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J288" s="13"/>
       <c r="K288" s="13">
@@ -19237,7 +19273,7 @@
       </c>
       <c r="L288" s="13"/>
       <c r="M288" s="15" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="N288" s="13"/>
       <c r="O288" s="22"/>
@@ -19262,10 +19298,10 @@
         <v>20024</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C289" s="35" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D289" s="15">
         <v>1</v>
@@ -19283,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J289" s="13"/>
       <c r="K289" s="13">
@@ -19291,7 +19327,7 @@
       </c>
       <c r="L289" s="13"/>
       <c r="M289" s="15" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="N289" s="13"/>
       <c r="AC289" s="20">
@@ -19303,10 +19339,10 @@
         <v>20025</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C290" s="35" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D290" s="15">
         <v>1</v>
@@ -19324,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J290" s="13"/>
       <c r="K290" s="13">
@@ -19332,7 +19368,7 @@
       </c>
       <c r="L290" s="13"/>
       <c r="M290" s="15" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="N290" s="13"/>
       <c r="AC290" s="20">
@@ -19344,10 +19380,10 @@
         <v>20026</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C291" s="35" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D291" s="13">
         <v>1</v>
@@ -19365,7 +19401,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J291" s="13"/>
       <c r="K291" s="13">
@@ -19373,7 +19409,7 @@
       </c>
       <c r="L291" s="13"/>
       <c r="M291" s="15" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="N291" s="13"/>
       <c r="AC291" s="20">
@@ -19385,10 +19421,10 @@
         <v>20027</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C292" s="35" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D292" s="15">
         <v>1</v>
@@ -19406,7 +19442,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J292" s="13"/>
       <c r="K292" s="13">
@@ -19414,7 +19450,7 @@
       </c>
       <c r="L292" s="13"/>
       <c r="M292" s="15" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="N292" s="13"/>
       <c r="AC292" s="20">
@@ -19426,10 +19462,10 @@
         <v>20028</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="C293" s="35" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D293" s="15">
         <v>1</v>
@@ -19447,7 +19483,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J293" s="13"/>
       <c r="K293" s="13">
@@ -19455,7 +19491,7 @@
       </c>
       <c r="L293" s="13"/>
       <c r="M293" s="15" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N293" s="13"/>
       <c r="AC293" s="20">
@@ -19467,10 +19503,10 @@
         <v>20029</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C294" s="13" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D294" s="15">
         <v>1</v>
@@ -19488,7 +19524,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J294" s="13"/>
       <c r="K294" s="13">
@@ -19508,10 +19544,10 @@
         <v>20101</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C295" s="13" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D295" s="13">
         <v>1</v>
@@ -19529,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J295" s="13"/>
       <c r="K295" s="13">
@@ -19549,10 +19585,10 @@
         <v>20102</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D296" s="15">
         <v>1</v>
@@ -19570,7 +19606,7 @@
         <v>1</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J296" s="15"/>
       <c r="K296" s="13">
@@ -19590,10 +19626,10 @@
         <v>20103</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D297" s="13">
         <v>1</v>
@@ -19611,7 +19647,7 @@
         <v>1</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J297" s="13"/>
       <c r="K297" s="13">
@@ -19631,10 +19667,10 @@
         <v>20104</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D298" s="15">
         <v>1</v>
@@ -19652,7 +19688,7 @@
         <v>1</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J298" s="15"/>
       <c r="K298" s="13">
@@ -19672,10 +19708,10 @@
         <v>20105</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D299" s="13">
         <v>1</v>
@@ -19693,7 +19729,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J299" s="13"/>
       <c r="K299" s="13">
@@ -19713,10 +19749,10 @@
         <v>20106</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D300" s="15">
         <v>1</v>
@@ -19734,7 +19770,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J300" s="15"/>
       <c r="K300" s="13">
@@ -19754,10 +19790,10 @@
         <v>20107</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D301" s="13">
         <v>1</v>
@@ -19775,7 +19811,7 @@
         <v>1</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J301" s="13"/>
       <c r="K301" s="13">
@@ -19798,7 +19834,7 @@
         <v>256</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D302" s="15">
         <v>1</v>
@@ -19816,7 +19852,7 @@
         <v>1</v>
       </c>
       <c r="I302" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J302" s="15"/>
       <c r="K302" s="13">
@@ -19839,7 +19875,7 @@
         <v>252</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D303" s="13">
         <v>1</v>
@@ -19857,7 +19893,7 @@
         <v>1</v>
       </c>
       <c r="I303" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J303" s="13"/>
       <c r="K303" s="13">
@@ -19877,10 +19913,10 @@
         <v>20110</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D304" s="15">
         <v>1</v>
@@ -19898,7 +19934,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J304" s="15"/>
       <c r="K304" s="13">
@@ -19921,7 +19957,7 @@
         <v>254</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="D305" s="13">
         <v>1</v>
@@ -19939,7 +19975,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J305" s="13"/>
       <c r="K305" s="13">
@@ -19959,10 +19995,10 @@
         <v>20201</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C306" s="15" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D306" s="15">
         <v>1</v>
@@ -19998,10 +20034,10 @@
         <v>20202</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D307" s="13">
         <v>1</v>
@@ -20025,7 +20061,7 @@
       </c>
       <c r="L307" s="13"/>
       <c r="M307" s="13" t="s">
-        <v>48</v>
+        <v>516</v>
       </c>
       <c r="N307" s="13"/>
       <c r="AC307" s="20">
@@ -20037,10 +20073,10 @@
         <v>20203</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D308" s="15">
         <v>1</v>
@@ -20076,10 +20112,10 @@
         <v>20204</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D309" s="13">
         <v>1</v>
@@ -20103,7 +20139,7 @@
       </c>
       <c r="L309" s="13"/>
       <c r="M309" s="13" t="s">
-        <v>48</v>
+        <v>520</v>
       </c>
       <c r="N309" s="13"/>
       <c r="AC309" s="20">
@@ -20115,10 +20151,10 @@
         <v>20205</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D310" s="15">
         <v>1</v>
@@ -20154,10 +20190,10 @@
         <v>20206</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D311" s="13">
         <v>1</v>
@@ -20181,7 +20217,7 @@
       </c>
       <c r="L311" s="13"/>
       <c r="M311" s="13" t="s">
-        <v>48</v>
+        <v>524</v>
       </c>
       <c r="N311" s="13"/>
       <c r="AC311" s="20">
@@ -20193,10 +20229,10 @@
         <v>20207</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D312" s="15">
         <v>1</v>
@@ -20232,10 +20268,10 @@
         <v>20208</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D313" s="13">
         <v>1</v>
@@ -20259,7 +20295,7 @@
       </c>
       <c r="L313" s="13"/>
       <c r="M313" s="13" t="s">
-        <v>48</v>
+        <v>528</v>
       </c>
       <c r="N313" s="13"/>
       <c r="AC313" s="20">
@@ -20271,10 +20307,10 @@
         <v>20209</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D314" s="15">
         <v>1</v>
@@ -20310,10 +20346,10 @@
         <v>20210</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D315" s="13">
         <v>1</v>
@@ -20337,7 +20373,7 @@
       </c>
       <c r="L315" s="13"/>
       <c r="M315" s="13" t="s">
-        <v>48</v>
+        <v>532</v>
       </c>
       <c r="N315" s="13"/>
       <c r="AC315" s="20">
@@ -20349,10 +20385,10 @@
         <v>21001</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D316" s="15">
         <v>1</v>
@@ -20370,7 +20406,7 @@
         <v>1</v>
       </c>
       <c r="I316" s="15" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="J316" s="15"/>
       <c r="K316" s="13">
@@ -20378,7 +20414,7 @@
       </c>
       <c r="L316" s="15"/>
       <c r="M316" s="13" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="N316" s="15"/>
       <c r="AC316" s="20">
@@ -20390,10 +20426,10 @@
         <v>21002</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="D317" s="13">
         <v>1</v>
@@ -20411,7 +20447,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="13" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="J317" s="13"/>
       <c r="K317" s="13">
@@ -20419,7 +20455,7 @@
       </c>
       <c r="L317" s="13"/>
       <c r="M317" s="13" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="N317" s="13"/>
       <c r="AC317" s="20">
@@ -20431,10 +20467,10 @@
         <v>21003</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="D318" s="15">
         <v>1</v>
@@ -20452,7 +20488,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="J318" s="15"/>
       <c r="K318" s="13">
@@ -20460,7 +20496,7 @@
       </c>
       <c r="L318" s="15"/>
       <c r="M318" s="13" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="N318" s="15"/>
       <c r="AC318" s="20">
@@ -20472,10 +20508,10 @@
         <v>21004</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="D319" s="13">
         <v>1</v>
@@ -20493,7 +20529,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="13" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="J319" s="13"/>
       <c r="K319" s="13">
@@ -20501,7 +20537,7 @@
       </c>
       <c r="L319" s="13"/>
       <c r="M319" s="13" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="N319" s="13"/>
       <c r="AC319" s="20">
@@ -20513,10 +20549,10 @@
         <v>21005</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="D320" s="15">
         <v>1</v>
@@ -20534,7 +20570,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="J320" s="15"/>
       <c r="K320" s="13">
@@ -20542,7 +20578,7 @@
       </c>
       <c r="L320" s="15"/>
       <c r="M320" s="13" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="N320" s="15"/>
       <c r="AC320" s="20">
@@ -20554,10 +20590,10 @@
         <v>21006</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="D321" s="13">
         <v>1</v>
@@ -20575,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="13" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="J321" s="13"/>
       <c r="K321" s="13">
@@ -20583,7 +20619,7 @@
       </c>
       <c r="L321" s="13"/>
       <c r="M321" s="13" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="N321" s="13"/>
       <c r="AC321" s="20">
@@ -20595,10 +20631,10 @@
         <v>21007</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D322" s="15">
         <v>1</v>
@@ -20616,7 +20652,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="J322" s="15"/>
       <c r="K322" s="13">
@@ -20624,7 +20660,7 @@
       </c>
       <c r="L322" s="15"/>
       <c r="M322" s="13" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="N322" s="15"/>
       <c r="AC322" s="20">
@@ -20636,10 +20672,10 @@
         <v>21101</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="D323" s="13">
         <v>1</v>
@@ -20657,7 +20693,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J323" s="13"/>
       <c r="K323" s="13">
@@ -20665,7 +20701,7 @@
       </c>
       <c r="L323" s="13"/>
       <c r="M323" s="13" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="N323" s="13"/>
       <c r="AC323" s="20">
@@ -20677,10 +20713,10 @@
         <v>21102</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D324" s="15">
         <v>1</v>
@@ -20698,7 +20734,7 @@
         <v>1</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J324" s="15"/>
       <c r="K324" s="13">
@@ -20706,7 +20742,7 @@
       </c>
       <c r="L324" s="15"/>
       <c r="M324" s="13" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="N324" s="15"/>
       <c r="AC324" s="20">
@@ -20718,10 +20754,10 @@
         <v>21103</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="D325" s="13">
         <v>1</v>
@@ -20739,7 +20775,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J325" s="13"/>
       <c r="K325" s="13">
@@ -20747,7 +20783,7 @@
       </c>
       <c r="L325" s="13"/>
       <c r="M325" s="13" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="N325" s="13"/>
       <c r="AC325" s="20">
@@ -20759,10 +20795,10 @@
         <v>21104</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="D326" s="15">
         <v>1</v>
@@ -20780,7 +20816,7 @@
         <v>1</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J326" s="15"/>
       <c r="K326" s="13">
@@ -20788,7 +20824,7 @@
       </c>
       <c r="L326" s="15"/>
       <c r="M326" s="13" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="N326" s="15"/>
       <c r="AC326" s="20">
@@ -20800,10 +20836,10 @@
         <v>21105</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="D327" s="13">
         <v>1</v>
@@ -20821,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J327" s="13"/>
       <c r="K327" s="13">
@@ -20829,7 +20865,7 @@
       </c>
       <c r="L327" s="13"/>
       <c r="M327" s="13" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="N327" s="13"/>
       <c r="AC327" s="20">
@@ -20841,10 +20877,10 @@
         <v>21106</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D328" s="15">
         <v>1</v>
@@ -20862,7 +20898,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J328" s="15"/>
       <c r="K328" s="13">
@@ -20870,7 +20906,7 @@
       </c>
       <c r="L328" s="15"/>
       <c r="M328" s="13" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="N328" s="15"/>
       <c r="AC328" s="20">
@@ -20882,10 +20918,10 @@
         <v>21107</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D329" s="13">
         <v>1</v>
@@ -20903,7 +20939,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J329" s="13"/>
       <c r="K329" s="13">
@@ -20911,7 +20947,7 @@
       </c>
       <c r="L329" s="13"/>
       <c r="M329" s="13" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="N329" s="13"/>
       <c r="AC329" s="20">
@@ -20923,10 +20959,10 @@
         <v>21108</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D330" s="15">
         <v>1</v>
@@ -20944,7 +20980,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J330" s="15"/>
       <c r="K330" s="13">
@@ -20952,7 +20988,7 @@
       </c>
       <c r="L330" s="15"/>
       <c r="M330" s="13" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="N330" s="15"/>
       <c r="AC330" s="20">
@@ -20964,10 +21000,10 @@
         <v>21109</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="D331" s="13">
         <v>1</v>
@@ -20985,7 +21021,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J331" s="13"/>
       <c r="K331" s="13">
@@ -20993,7 +21029,7 @@
       </c>
       <c r="L331" s="13"/>
       <c r="M331" s="13" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="N331" s="13"/>
       <c r="AC331" s="20">
@@ -21005,10 +21041,10 @@
         <v>21110</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D332" s="15">
         <v>1</v>
@@ -21026,7 +21062,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J332" s="15"/>
       <c r="K332" s="13">
@@ -21034,7 +21070,7 @@
       </c>
       <c r="L332" s="15"/>
       <c r="M332" s="13" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="N332" s="15"/>
       <c r="AC332" s="20">
@@ -21046,10 +21082,10 @@
         <v>21111</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D333" s="13">
         <v>1</v>
@@ -21067,7 +21103,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="13" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J333" s="13"/>
       <c r="K333" s="13">
@@ -21075,7 +21111,7 @@
       </c>
       <c r="L333" s="13"/>
       <c r="M333" s="13" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="N333" s="13"/>
       <c r="AC333" s="20">
@@ -21087,10 +21123,10 @@
         <v>21112</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D334" s="15">
         <v>1</v>
@@ -21108,7 +21144,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="J334" s="15"/>
       <c r="K334" s="13">
@@ -21116,7 +21152,7 @@
       </c>
       <c r="L334" s="15"/>
       <c r="M334" s="13" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="N334" s="15"/>
       <c r="AC334" s="20">
@@ -21128,10 +21164,10 @@
         <v>100001</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="D335" s="13">
         <v>1</v>
@@ -21167,7 +21203,7 @@
         <v>100002</v>
       </c>
       <c r="B336" s="36" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="C336" s="36"/>
       <c r="D336" s="36">
@@ -21186,7 +21222,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="36" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="J336" s="36"/>
       <c r="K336" s="13">
@@ -21194,7 +21230,7 @@
       </c>
       <c r="L336" s="36"/>
       <c r="M336" s="36" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="N336" s="36"/>
       <c r="AC336" s="20">
@@ -21206,7 +21242,7 @@
         <v>100003</v>
       </c>
       <c r="B337" s="36" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C337" s="36"/>
       <c r="D337" s="36">
@@ -21225,7 +21261,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="36" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="J337" s="36"/>
       <c r="K337" s="13">
@@ -21233,7 +21269,7 @@
       </c>
       <c r="L337" s="36"/>
       <c r="M337" s="36" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="N337" s="36"/>
       <c r="AC337" s="20">

--- a/excels/config/server/item/server_item_list.xlsx
+++ b/excels/config/server/item/server_item_list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="610">
   <si>
     <t>物品引索</t>
   </si>
@@ -164,7 +164,7 @@
     <t>地图经验</t>
   </si>
   <si>
-    <t>item_server/temp4</t>
+    <t>item_server/1004_地图经验</t>
   </si>
   <si>
     <t>钻石</t>
@@ -353,33 +353,54 @@
     <t>升级技能精通获得</t>
   </si>
   <si>
+    <t>item_server/1292_精通点</t>
+  </si>
+  <si>
     <t>技能精通经验</t>
   </si>
   <si>
     <t>用于增加技能精通的经验值</t>
   </si>
   <si>
+    <t>item_server/1293_技能点</t>
+  </si>
+  <si>
     <t>万能精通经验</t>
   </si>
   <si>
     <t>对某一个技能类型精通进行经验灌注，可以直接提高对应技能精通的经验值，万能的哦！</t>
   </si>
   <si>
+    <t>item_server/1294_万能精通经验</t>
+  </si>
+  <si>
     <t>1级魂石挑战券</t>
   </si>
   <si>
     <t>通关后使用，开启魂石挑战，挑战魂石boss获得魂石奖励</t>
   </si>
   <si>
+    <t>item_server/1295_1级魂石挑战卷</t>
+  </si>
+  <si>
     <t>2级魂石挑战券</t>
   </si>
   <si>
+    <t>item_server/1296_2级魂石挑战卷</t>
+  </si>
+  <si>
     <t>3级魂石挑战券</t>
   </si>
   <si>
+    <t>item_server/1297_3级魂石挑战卷</t>
+  </si>
+  <si>
     <t>4级魂石挑战券</t>
   </si>
   <si>
+    <t>item_server/1298_4级魂石挑战卷</t>
+  </si>
+  <si>
     <t>小黑</t>
   </si>
   <si>
@@ -389,12 +410,18 @@
     <t>1300_80</t>
   </si>
   <si>
+    <t>item_server/1299_小黑_</t>
+  </si>
+  <si>
     <t>小黑碎片</t>
   </si>
   <si>
     <t>小黑的碎片</t>
   </si>
   <si>
+    <t>item_server/1300_小黑碎片</t>
+  </si>
+  <si>
     <t>法爷</t>
   </si>
   <si>
@@ -404,10 +431,16 @@
     <t>1302_80</t>
   </si>
   <si>
+    <t>item_server/1301_法爷</t>
+  </si>
+  <si>
     <t>法爷碎片</t>
   </si>
   <si>
     <t>法爷的碎片</t>
+  </si>
+  <si>
+    <t>item_server/1302_法爷碎片</t>
   </si>
   <si>
     <t>炼狱熊怪</t>
@@ -3440,16 +3473,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{85FDCF39-992C-4DB0-9F3F-45BCFBD8CD3A}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1D30B24E-9F81-4D58-9FE5-3E4C36D9A8C7}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BACD279C-3E8C-4F41-98A5-9E213BD4450A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DCCB84E4-F750-4C7C-89A7-D2E14BCFF575}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{245E4C5C-438A-4BE4-9FBD-A6405F201F25}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2A1784FE-A7A7-426E-B24C-07126B44F1AC}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3461,7 +3494,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{47A086B2-B584-4061-8F25-FC103BC6180E}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{D67D615E-FBB2-4C21-B193-C1D10452D80C}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3775,11 +3808,11 @@
   <dimension ref="A1:AC337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5506,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="N31" s="15"/>
       <c r="O31" s="23"/>
@@ -5531,10 +5564,10 @@
         <v>1293</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5560,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="22"/>
@@ -5585,10 +5618,10 @@
         <v>1294</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
@@ -5614,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="N33" s="15"/>
       <c r="O33" s="23"/>
@@ -5639,10 +5672,10 @@
         <v>1295</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -5666,7 +5699,7 @@
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="15" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="N34" s="13"/>
       <c r="O34" s="22"/>
@@ -5691,10 +5724,10 @@
         <v>1296</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
@@ -5718,7 +5751,7 @@
       </c>
       <c r="L35" s="13"/>
       <c r="M35" s="15" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="23"/>
@@ -5743,10 +5776,10 @@
         <v>1297</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -5770,7 +5803,7 @@
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="15" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="22"/>
@@ -5795,10 +5828,10 @@
         <v>1298</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -5822,7 +5855,7 @@
       </c>
       <c r="L37" s="13"/>
       <c r="M37" s="15" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="23"/>
@@ -5847,10 +5880,10 @@
         <v>1299</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
@@ -5868,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J38" s="19"/>
       <c r="K38" s="13">
@@ -5876,7 +5909,7 @@
       </c>
       <c r="L38" s="13"/>
       <c r="M38" s="15" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="N38" s="13"/>
       <c r="O38" s="22"/>
@@ -5901,10 +5934,10 @@
         <v>1300</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -5928,7 +5961,7 @@
       </c>
       <c r="L39" s="13"/>
       <c r="M39" s="15" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="N39" s="13"/>
       <c r="O39" s="23"/>
@@ -5953,10 +5986,10 @@
         <v>1301</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -5974,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="13">
@@ -5982,7 +6015,7 @@
       </c>
       <c r="L40" s="13"/>
       <c r="M40" s="15" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="N40" s="13"/>
       <c r="O40" s="22"/>
@@ -6007,10 +6040,10 @@
         <v>1302</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -6034,7 +6067,7 @@
       </c>
       <c r="L41" s="13"/>
       <c r="M41" s="15" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="N41" s="13"/>
       <c r="O41" s="23"/>
@@ -6059,10 +6092,10 @@
         <v>2001</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -6088,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="22"/>
@@ -6113,10 +6146,10 @@
         <v>2002</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
@@ -6168,10 +6201,10 @@
         <v>2003</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D44" s="13">
         <v>1</v>
@@ -6223,10 +6256,10 @@
         <v>2004</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D45" s="15">
         <v>1</v>
@@ -6278,10 +6311,10 @@
         <v>2005</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
@@ -6333,10 +6366,10 @@
         <v>2006</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
@@ -6388,10 +6421,10 @@
         <v>2007</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
@@ -6443,10 +6476,10 @@
         <v>2008</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
@@ -6498,10 +6531,10 @@
         <v>2009</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
@@ -6553,10 +6586,10 @@
         <v>2010</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
@@ -6608,10 +6641,10 @@
         <v>2011</v>
       </c>
       <c r="B52" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="D52" s="13">
         <v>1</v>
@@ -6663,10 +6696,10 @@
         <v>2012</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
@@ -6718,10 +6751,10 @@
         <v>2013</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D54" s="13">
         <v>1</v>
@@ -6773,10 +6806,10 @@
         <v>2014</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D55" s="15">
         <v>1</v>
@@ -6828,10 +6861,10 @@
         <v>2015</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
@@ -6883,10 +6916,10 @@
         <v>2016</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D57" s="15">
         <v>1</v>
@@ -6938,10 +6971,10 @@
         <v>2017</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D58" s="13">
         <v>1</v>
@@ -6993,10 +7026,10 @@
         <v>2019</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -7048,10 +7081,10 @@
         <v>2020</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D60" s="13">
         <v>1</v>
@@ -7103,10 +7136,10 @@
         <v>2021</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D61" s="15">
         <v>1</v>
@@ -7158,10 +7191,10 @@
         <v>2022</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D62" s="13">
         <v>1</v>
@@ -7213,10 +7246,10 @@
         <v>2023</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D63" s="15">
         <v>1</v>
@@ -7268,10 +7301,10 @@
         <v>2024</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D64" s="13">
         <v>1</v>
@@ -7323,10 +7356,10 @@
         <v>2025</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D65" s="15">
         <v>1</v>
@@ -7378,10 +7411,10 @@
         <v>2026</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D66" s="13">
         <v>1</v>
@@ -7433,10 +7466,10 @@
         <v>2027</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -7488,10 +7521,10 @@
         <v>2028</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D68" s="13">
         <v>1</v>
@@ -7543,10 +7576,10 @@
         <v>2029</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D69" s="15">
         <v>1</v>
@@ -7598,10 +7631,10 @@
         <v>2030</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D70" s="13">
         <v>1</v>
@@ -7653,10 +7686,10 @@
         <v>2031</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D71" s="15">
         <v>1</v>
@@ -7708,10 +7741,10 @@
         <v>2032</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D72" s="13">
         <v>1</v>
@@ -7763,10 +7796,10 @@
         <v>2033</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D73" s="15">
         <v>1</v>
@@ -7818,10 +7851,10 @@
         <v>2034</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D74" s="13">
         <v>1</v>
@@ -7873,10 +7906,10 @@
         <v>2035</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D75" s="15">
         <v>1</v>
@@ -7928,10 +7961,10 @@
         <v>2036</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D76" s="13">
         <v>1</v>
@@ -7983,10 +8016,10 @@
         <v>2037</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D77" s="15">
         <v>1</v>
@@ -8038,10 +8071,10 @@
         <v>2038</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D78" s="13">
         <v>1</v>
@@ -8093,10 +8126,10 @@
         <v>2039</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D79" s="15">
         <v>1</v>
@@ -8148,10 +8181,10 @@
         <v>2040</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D80" s="13">
         <v>1</v>
@@ -8203,10 +8236,10 @@
         <v>2041</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D81" s="15">
         <v>1</v>
@@ -8258,10 +8291,10 @@
         <v>2042</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D82" s="13">
         <v>1</v>
@@ -8313,10 +8346,10 @@
         <v>2043</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D83" s="15">
         <v>1</v>
@@ -8368,10 +8401,10 @@
         <v>2044</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D84" s="13">
         <v>1</v>
@@ -8423,10 +8456,10 @@
         <v>2045</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D85" s="15">
         <v>1</v>
@@ -8478,10 +8511,10 @@
         <v>2501</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D86" s="13">
         <v>1</v>
@@ -8533,10 +8566,10 @@
         <v>2502</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D87" s="15">
         <v>1</v>
@@ -8588,10 +8621,10 @@
         <v>2503</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D88" s="13">
         <v>1</v>
@@ -8643,10 +8676,10 @@
         <v>2504</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D89" s="15">
         <v>1</v>
@@ -8698,10 +8731,10 @@
         <v>2505</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D90" s="13">
         <v>1</v>
@@ -8753,10 +8786,10 @@
         <v>2506</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D91" s="15">
         <v>1</v>
@@ -8808,10 +8841,10 @@
         <v>2507</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D92" s="13">
         <v>1</v>
@@ -8863,10 +8896,10 @@
         <v>2508</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D93" s="15">
         <v>1</v>
@@ -8918,10 +8951,10 @@
         <v>2509</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D94" s="13">
         <v>1</v>
@@ -8973,10 +9006,10 @@
         <v>2510</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D95" s="15">
         <v>1</v>
@@ -9028,10 +9061,10 @@
         <v>2511</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D96" s="13">
         <v>1</v>
@@ -9083,10 +9116,10 @@
         <v>2512</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D97" s="15">
         <v>1</v>
@@ -9138,10 +9171,10 @@
         <v>2513</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D98" s="13">
         <v>1</v>
@@ -9193,10 +9226,10 @@
         <v>2514</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -9248,10 +9281,10 @@
         <v>2516</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D100" s="13">
         <v>1</v>
@@ -9303,10 +9336,10 @@
         <v>2517</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D101" s="15">
         <v>1</v>
@@ -9358,10 +9391,10 @@
         <v>2518</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D102" s="13">
         <v>1</v>
@@ -9413,10 +9446,10 @@
         <v>2519</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D103" s="15">
         <v>1</v>
@@ -9468,10 +9501,10 @@
         <v>2520</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D104" s="13">
         <v>1</v>
@@ -9523,10 +9556,10 @@
         <v>2521</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D105" s="15">
         <v>1</v>
@@ -9578,10 +9611,10 @@
         <v>2522</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D106" s="13">
         <v>1</v>
@@ -9633,10 +9666,10 @@
         <v>2523</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D107" s="15">
         <v>1</v>
@@ -9688,10 +9721,10 @@
         <v>2524</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D108" s="13">
         <v>1</v>
@@ -9743,10 +9776,10 @@
         <v>2525</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D109" s="15">
         <v>1</v>
@@ -9798,10 +9831,10 @@
         <v>2526</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D110" s="13">
         <v>1</v>
@@ -9853,10 +9886,10 @@
         <v>2527</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D111" s="15">
         <v>1</v>
@@ -9908,10 +9941,10 @@
         <v>2528</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D112" s="13">
         <v>1</v>
@@ -9963,10 +9996,10 @@
         <v>2529</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D113" s="15">
         <v>1</v>
@@ -10018,10 +10051,10 @@
         <v>2530</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D114" s="13">
         <v>1</v>
@@ -10073,10 +10106,10 @@
         <v>2531</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D115" s="15">
         <v>1</v>
@@ -10128,10 +10161,10 @@
         <v>2532</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D116" s="13">
         <v>1</v>
@@ -10183,10 +10216,10 @@
         <v>2533</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D117" s="15">
         <v>1</v>
@@ -10238,10 +10271,10 @@
         <v>2534</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D118" s="13">
         <v>1</v>
@@ -10293,10 +10326,10 @@
         <v>2535</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D119" s="15">
         <v>1</v>
@@ -10348,10 +10381,10 @@
         <v>2536</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D120" s="13">
         <v>1</v>
@@ -10403,10 +10436,10 @@
         <v>2537</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D121" s="15">
         <v>1</v>
@@ -10458,10 +10491,10 @@
         <v>2538</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D122" s="13">
         <v>1</v>
@@ -10513,10 +10546,10 @@
         <v>2539</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D123" s="15">
         <v>1</v>
@@ -10568,10 +10601,10 @@
         <v>2540</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D124" s="13">
         <v>1</v>
@@ -10623,10 +10656,10 @@
         <v>2541</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D125" s="15">
         <v>1</v>
@@ -10678,10 +10711,10 @@
         <v>2542</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D126" s="13">
         <v>1</v>
@@ -10733,10 +10766,10 @@
         <v>2543</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D127" s="15">
         <v>1</v>
@@ -10788,10 +10821,10 @@
         <v>2544</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D128" s="13">
         <v>1</v>
@@ -10843,10 +10876,10 @@
         <v>2545</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D129" s="15">
         <v>1</v>
@@ -10898,10 +10931,10 @@
         <v>2546</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D130" s="13">
         <v>1</v>
@@ -10953,10 +10986,10 @@
         <v>2547</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D131" s="15">
         <v>1</v>
@@ -11008,10 +11041,10 @@
         <v>2548</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D132" s="13">
         <v>1</v>
@@ -11063,10 +11096,10 @@
         <v>2549</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D133" s="15">
         <v>1</v>
@@ -11118,10 +11151,10 @@
         <v>2550</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D134" s="13">
         <v>1</v>
@@ -11173,10 +11206,10 @@
         <v>2551</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D135" s="15">
         <v>1</v>
@@ -11228,10 +11261,10 @@
         <v>2552</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D136" s="13">
         <v>1</v>
@@ -11283,10 +11316,10 @@
         <v>2553</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D137" s="15">
         <v>1</v>
@@ -11338,10 +11371,10 @@
         <v>2554</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D138" s="13">
         <v>1</v>
@@ -11393,10 +11426,10 @@
         <v>2555</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D139" s="15">
         <v>1</v>
@@ -11448,10 +11481,10 @@
         <v>2556</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D140" s="13">
         <v>1</v>
@@ -11503,10 +11536,10 @@
         <v>2557</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D141" s="15">
         <v>1</v>
@@ -11558,10 +11591,10 @@
         <v>2558</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D142" s="13">
         <v>1</v>
@@ -11613,10 +11646,10 @@
         <v>2559</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D143" s="15">
         <v>1</v>
@@ -11668,10 +11701,10 @@
         <v>2560</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D144" s="13">
         <v>1</v>
@@ -11723,10 +11756,10 @@
         <v>2901</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D145" s="15">
         <v>1</v>
@@ -11778,10 +11811,10 @@
         <v>2902</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D146" s="13">
         <v>1</v>
@@ -11833,10 +11866,10 @@
         <v>2903</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D147" s="15">
         <v>1</v>
@@ -11888,10 +11921,10 @@
         <v>2904</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D148" s="13">
         <v>1</v>
@@ -11943,10 +11976,10 @@
         <v>2905</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D149" s="15">
         <v>1</v>
@@ -11998,10 +12031,10 @@
         <v>2906</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D150" s="13">
         <v>1</v>
@@ -12053,10 +12086,10 @@
         <v>2907</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D151" s="15">
         <v>1</v>
@@ -12108,10 +12141,10 @@
         <v>2908</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D152" s="13">
         <v>1</v>
@@ -12163,10 +12196,10 @@
         <v>2909</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D153" s="15">
         <v>1</v>
@@ -12216,10 +12249,10 @@
         <v>2910</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D154" s="13">
         <v>1</v>
@@ -12269,10 +12302,10 @@
         <v>2911</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D155" s="15">
         <v>1</v>
@@ -12322,10 +12355,10 @@
         <v>2912</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D156" s="13">
         <v>1</v>
@@ -12375,10 +12408,10 @@
         <v>2913</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D157" s="15">
         <v>1</v>
@@ -12428,10 +12461,10 @@
         <v>2914</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D158" s="13">
         <v>1</v>
@@ -12481,10 +12514,10 @@
         <v>2915</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D159" s="15">
         <v>1</v>
@@ -12534,10 +12567,10 @@
         <v>2916</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D160" s="13">
         <v>1</v>
@@ -12587,10 +12620,10 @@
         <v>2917</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D161" s="15">
         <v>1</v>
@@ -12640,10 +12673,10 @@
         <v>2918</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D162" s="13">
         <v>1</v>
@@ -12693,10 +12726,10 @@
         <v>2919</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D163" s="15">
         <v>1</v>
@@ -12746,10 +12779,10 @@
         <v>2920</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D164" s="13">
         <v>1</v>
@@ -12799,10 +12832,10 @@
         <v>2921</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D165" s="15">
         <v>1</v>
@@ -12852,10 +12885,10 @@
         <v>2922</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D166" s="13">
         <v>1</v>
@@ -12905,10 +12938,10 @@
         <v>3201</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D167" s="15">
         <v>1</v>
@@ -12958,10 +12991,10 @@
         <v>3202</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D168" s="13">
         <v>1</v>
@@ -13011,10 +13044,10 @@
         <v>3203</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D169" s="15">
         <v>1</v>
@@ -13064,10 +13097,10 @@
         <v>3204</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D170" s="13">
         <v>1</v>
@@ -13117,10 +13150,10 @@
         <v>3205</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D171" s="15">
         <v>1</v>
@@ -13170,10 +13203,10 @@
         <v>3501</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D172" s="13">
         <v>1</v>
@@ -13197,7 +13230,7 @@
       </c>
       <c r="L172" s="13"/>
       <c r="M172" s="13" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="N172" s="13"/>
       <c r="O172" s="22"/>
@@ -13222,10 +13255,10 @@
         <v>3502</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D173" s="15">
         <v>1</v>
@@ -13249,7 +13282,7 @@
       </c>
       <c r="L173" s="15"/>
       <c r="M173" s="15" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="N173" s="15"/>
       <c r="O173" s="23"/>
@@ -13274,10 +13307,10 @@
         <v>3503</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D174" s="13">
         <v>1</v>
@@ -13301,7 +13334,7 @@
       </c>
       <c r="L174" s="13"/>
       <c r="M174" s="13" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="N174" s="13"/>
       <c r="O174" s="22"/>
@@ -13326,10 +13359,10 @@
         <v>3504</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D175" s="15">
         <v>1</v>
@@ -13353,7 +13386,7 @@
       </c>
       <c r="L175" s="15"/>
       <c r="M175" s="15" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="N175" s="15"/>
       <c r="O175" s="23"/>
@@ -13378,10 +13411,10 @@
         <v>3505</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D176" s="13">
         <v>1</v>
@@ -13405,7 +13438,7 @@
       </c>
       <c r="L176" s="13"/>
       <c r="M176" s="13" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="N176" s="13"/>
       <c r="O176" s="22"/>
@@ -13430,10 +13463,10 @@
         <v>3506</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D177" s="15">
         <v>1</v>
@@ -13457,7 +13490,7 @@
       </c>
       <c r="L177" s="15"/>
       <c r="M177" s="15" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="N177" s="15"/>
       <c r="O177" s="23"/>
@@ -13482,10 +13515,10 @@
         <v>3507</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D178" s="13">
         <v>1</v>
@@ -13509,7 +13542,7 @@
       </c>
       <c r="L178" s="13"/>
       <c r="M178" s="13" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="N178" s="13"/>
       <c r="O178" s="22"/>
@@ -13534,10 +13567,10 @@
         <v>3508</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D179" s="15">
         <v>1</v>
@@ -13561,7 +13594,7 @@
       </c>
       <c r="L179" s="15"/>
       <c r="M179" s="15" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="N179" s="15"/>
       <c r="O179" s="23"/>
@@ -13586,10 +13619,10 @@
         <v>3509</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D180" s="13">
         <v>1</v>
@@ -13613,7 +13646,7 @@
       </c>
       <c r="L180" s="13"/>
       <c r="M180" s="13" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="N180" s="13"/>
       <c r="O180" s="22"/>
@@ -13638,10 +13671,10 @@
         <v>3510</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D181" s="15">
         <v>1</v>
@@ -13665,7 +13698,7 @@
       </c>
       <c r="L181" s="15"/>
       <c r="M181" s="15" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="N181" s="15"/>
       <c r="O181" s="23"/>
@@ -13690,10 +13723,10 @@
         <v>3511</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D182" s="13">
         <v>1</v>
@@ -13717,7 +13750,7 @@
       </c>
       <c r="L182" s="13"/>
       <c r="M182" s="13" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="N182" s="13"/>
       <c r="O182" s="22"/>
@@ -13742,10 +13775,10 @@
         <v>3512</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D183" s="15">
         <v>1</v>
@@ -13769,7 +13802,7 @@
       </c>
       <c r="L183" s="15"/>
       <c r="M183" s="15" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="N183" s="15"/>
       <c r="O183" s="23"/>
@@ -13794,10 +13827,10 @@
         <v>3513</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="D184" s="13">
         <v>1</v>
@@ -13821,7 +13854,7 @@
       </c>
       <c r="L184" s="13"/>
       <c r="M184" s="13" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="N184" s="13"/>
       <c r="O184" s="22"/>
@@ -13846,10 +13879,10 @@
         <v>3514</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -13873,7 +13906,7 @@
       </c>
       <c r="L185" s="15"/>
       <c r="M185" s="15" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N185" s="15"/>
       <c r="O185" s="23"/>
@@ -13898,10 +13931,10 @@
         <v>3515</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D186" s="13">
         <v>1</v>
@@ -13925,7 +13958,7 @@
       </c>
       <c r="L186" s="13"/>
       <c r="M186" s="13" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N186" s="13"/>
       <c r="O186" s="22"/>
@@ -13950,10 +13983,10 @@
         <v>3516</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -13977,7 +14010,7 @@
       </c>
       <c r="L187" s="15"/>
       <c r="M187" s="15" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="N187" s="15"/>
       <c r="O187" s="23"/>
@@ -14002,10 +14035,10 @@
         <v>3517</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D188" s="13">
         <v>1</v>
@@ -14029,7 +14062,7 @@
       </c>
       <c r="L188" s="13"/>
       <c r="M188" s="13" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="N188" s="13"/>
       <c r="O188" s="22"/>
@@ -14054,10 +14087,10 @@
         <v>3518</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -14081,7 +14114,7 @@
       </c>
       <c r="L189" s="15"/>
       <c r="M189" s="15" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="N189" s="15"/>
       <c r="O189" s="23"/>
@@ -14106,10 +14139,10 @@
         <v>3519</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D190" s="13">
         <v>1</v>
@@ -14133,7 +14166,7 @@
       </c>
       <c r="L190" s="13"/>
       <c r="M190" s="13" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N190" s="13"/>
       <c r="O190" s="22"/>
@@ -14158,10 +14191,10 @@
         <v>3520</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -14185,7 +14218,7 @@
       </c>
       <c r="L191" s="15"/>
       <c r="M191" s="15" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="N191" s="15"/>
       <c r="O191" s="23"/>
@@ -14210,10 +14243,10 @@
         <v>3521</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="D192" s="13">
         <v>1</v>
@@ -14237,7 +14270,7 @@
       </c>
       <c r="L192" s="13"/>
       <c r="M192" s="13" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="N192" s="13"/>
       <c r="O192" s="22"/>
@@ -14262,10 +14295,10 @@
         <v>3522</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -14289,7 +14322,7 @@
       </c>
       <c r="L193" s="15"/>
       <c r="M193" s="15" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="N193" s="15"/>
       <c r="O193" s="23"/>
@@ -14314,10 +14347,10 @@
         <v>3523</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D194" s="13">
         <v>1</v>
@@ -14341,7 +14374,7 @@
       </c>
       <c r="L194" s="13"/>
       <c r="M194" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N194" s="13"/>
       <c r="O194" s="22"/>
@@ -14366,10 +14399,10 @@
         <v>3524</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -14393,7 +14426,7 @@
       </c>
       <c r="L195" s="15"/>
       <c r="M195" s="15" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="N195" s="15"/>
       <c r="O195" s="23"/>
@@ -14418,10 +14451,10 @@
         <v>3525</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D196" s="13">
         <v>1</v>
@@ -14445,7 +14478,7 @@
       </c>
       <c r="L196" s="13"/>
       <c r="M196" s="13" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="N196" s="13"/>
       <c r="O196" s="22"/>
@@ -14470,10 +14503,10 @@
         <v>10001</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -14497,7 +14530,7 @@
       </c>
       <c r="L197" s="15"/>
       <c r="M197" s="15" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="N197" s="15"/>
       <c r="O197" s="23"/>
@@ -14522,10 +14555,10 @@
         <v>10002</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D198" s="13">
         <v>1</v>
@@ -14549,7 +14582,7 @@
       </c>
       <c r="L198" s="13"/>
       <c r="M198" s="13" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="N198" s="13"/>
       <c r="O198" s="22"/>
@@ -14574,10 +14607,10 @@
         <v>10003</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -14601,7 +14634,7 @@
       </c>
       <c r="L199" s="15"/>
       <c r="M199" s="15" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N199" s="15"/>
       <c r="O199" s="23"/>
@@ -14626,10 +14659,10 @@
         <v>10004</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D200" s="13">
         <v>1</v>
@@ -14653,7 +14686,7 @@
       </c>
       <c r="L200" s="13"/>
       <c r="M200" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="N200" s="13"/>
       <c r="O200" s="22"/>
@@ -14678,10 +14711,10 @@
         <v>10005</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D201" s="15">
         <v>1</v>
@@ -14705,7 +14738,7 @@
       </c>
       <c r="L201" s="15"/>
       <c r="M201" s="15" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="N201" s="15"/>
       <c r="O201" s="23"/>
@@ -14730,10 +14763,10 @@
         <v>10006</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D202" s="13">
         <v>1</v>
@@ -14757,7 +14790,7 @@
       </c>
       <c r="L202" s="13"/>
       <c r="M202" s="13" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="N202" s="13"/>
       <c r="O202" s="22"/>
@@ -14782,10 +14815,10 @@
         <v>10007</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -14809,7 +14842,7 @@
       </c>
       <c r="L203" s="15"/>
       <c r="M203" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="N203" s="15"/>
       <c r="O203" s="23"/>
@@ -14834,10 +14867,10 @@
         <v>10008</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D204" s="13">
         <v>1</v>
@@ -14861,7 +14894,7 @@
       </c>
       <c r="L204" s="13"/>
       <c r="M204" s="13" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="N204" s="13"/>
       <c r="O204" s="22"/>
@@ -14886,10 +14919,10 @@
         <v>10009</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -14913,7 +14946,7 @@
       </c>
       <c r="L205" s="15"/>
       <c r="M205" s="15" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="N205" s="15"/>
       <c r="O205" s="23"/>
@@ -14938,10 +14971,10 @@
         <v>10011</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D206" s="15">
         <v>1</v>
@@ -14965,7 +14998,7 @@
       </c>
       <c r="L206" s="15"/>
       <c r="M206" s="15" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="N206" s="15"/>
       <c r="O206" s="23"/>
@@ -14990,10 +15023,10 @@
         <v>10012</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D207" s="13">
         <v>1</v>
@@ -15017,7 +15050,7 @@
       </c>
       <c r="L207" s="13"/>
       <c r="M207" s="13" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="N207" s="13"/>
       <c r="O207" s="22"/>
@@ -15042,10 +15075,10 @@
         <v>10013</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D208" s="15">
         <v>1</v>
@@ -15069,7 +15102,7 @@
       </c>
       <c r="L208" s="15"/>
       <c r="M208" s="15" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="N208" s="15"/>
       <c r="O208" s="23"/>
@@ -15094,10 +15127,10 @@
         <v>10014</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D209" s="13">
         <v>1</v>
@@ -15121,7 +15154,7 @@
       </c>
       <c r="L209" s="13"/>
       <c r="M209" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="N209" s="13"/>
       <c r="O209" s="22"/>
@@ -15146,10 +15179,10 @@
         <v>10015</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D210" s="15">
         <v>1</v>
@@ -15173,7 +15206,7 @@
       </c>
       <c r="L210" s="15"/>
       <c r="M210" s="15" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="N210" s="15"/>
       <c r="O210" s="23"/>
@@ -15198,10 +15231,10 @@
         <v>10016</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D211" s="13">
         <v>1</v>
@@ -15225,7 +15258,7 @@
       </c>
       <c r="L211" s="13"/>
       <c r="M211" s="13" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="N211" s="13"/>
       <c r="O211" s="22"/>
@@ -15250,10 +15283,10 @@
         <v>10017</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D212" s="15">
         <v>1</v>
@@ -15277,7 +15310,7 @@
       </c>
       <c r="L212" s="15"/>
       <c r="M212" s="15" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="N212" s="15"/>
       <c r="O212" s="23"/>
@@ -15302,10 +15335,10 @@
         <v>10018</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D213" s="13">
         <v>1</v>
@@ -15329,7 +15362,7 @@
       </c>
       <c r="L213" s="13"/>
       <c r="M213" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="N213" s="13"/>
       <c r="O213" s="22"/>
@@ -15354,10 +15387,10 @@
         <v>10101</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D214" s="15">
         <v>1</v>
@@ -15381,7 +15414,7 @@
       </c>
       <c r="L214" s="15"/>
       <c r="M214" s="15" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="N214" s="15"/>
       <c r="O214" s="23"/>
@@ -15406,10 +15439,10 @@
         <v>10102</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D215" s="13">
         <v>1</v>
@@ -15433,7 +15466,7 @@
       </c>
       <c r="L215" s="13"/>
       <c r="M215" s="13" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="N215" s="13"/>
       <c r="O215" s="22"/>
@@ -15458,10 +15491,10 @@
         <v>10103</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D216" s="15">
         <v>1</v>
@@ -15485,7 +15518,7 @@
       </c>
       <c r="L216" s="15"/>
       <c r="M216" s="15" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N216" s="15"/>
       <c r="O216" s="23"/>
@@ -15510,10 +15543,10 @@
         <v>10104</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D217" s="13">
         <v>1</v>
@@ -15537,7 +15570,7 @@
       </c>
       <c r="L217" s="13"/>
       <c r="M217" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="N217" s="13"/>
       <c r="O217" s="22"/>
@@ -15562,10 +15595,10 @@
         <v>10105</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D218" s="15">
         <v>1</v>
@@ -15589,7 +15622,7 @@
       </c>
       <c r="L218" s="15"/>
       <c r="M218" s="15" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="N218" s="15"/>
       <c r="O218" s="23"/>
@@ -15614,10 +15647,10 @@
         <v>10106</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D219" s="13">
         <v>1</v>
@@ -15641,7 +15674,7 @@
       </c>
       <c r="L219" s="13"/>
       <c r="M219" s="13" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="N219" s="13"/>
       <c r="O219" s="22"/>
@@ -15666,10 +15699,10 @@
         <v>10107</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D220" s="15">
         <v>1</v>
@@ -15693,7 +15726,7 @@
       </c>
       <c r="L220" s="15"/>
       <c r="M220" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="N220" s="15"/>
       <c r="O220" s="23"/>
@@ -15718,10 +15751,10 @@
         <v>10108</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D221" s="13">
         <v>1</v>
@@ -15745,7 +15778,7 @@
       </c>
       <c r="L221" s="13"/>
       <c r="M221" s="13" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="N221" s="13"/>
       <c r="O221" s="22"/>
@@ -15770,10 +15803,10 @@
         <v>10109</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D222" s="15">
         <v>1</v>
@@ -15797,7 +15830,7 @@
       </c>
       <c r="L222" s="15"/>
       <c r="M222" s="15" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="N222" s="15"/>
       <c r="O222" s="23"/>
@@ -15822,10 +15855,10 @@
         <v>10111</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D223" s="15">
         <v>1</v>
@@ -15849,7 +15882,7 @@
       </c>
       <c r="L223" s="15"/>
       <c r="M223" s="15" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="N223" s="15"/>
       <c r="O223" s="23"/>
@@ -15874,10 +15907,10 @@
         <v>10112</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D224" s="13">
         <v>1</v>
@@ -15901,7 +15934,7 @@
       </c>
       <c r="L224" s="13"/>
       <c r="M224" s="13" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="N224" s="13"/>
       <c r="O224" s="22"/>
@@ -15926,10 +15959,10 @@
         <v>10113</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D225" s="15">
         <v>1</v>
@@ -15953,7 +15986,7 @@
       </c>
       <c r="L225" s="15"/>
       <c r="M225" s="15" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="N225" s="15"/>
       <c r="O225" s="23"/>
@@ -15978,10 +16011,10 @@
         <v>10114</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D226" s="13">
         <v>1</v>
@@ -16005,7 +16038,7 @@
       </c>
       <c r="L226" s="13"/>
       <c r="M226" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="N226" s="13"/>
       <c r="O226" s="22"/>
@@ -16030,10 +16063,10 @@
         <v>10115</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -16057,7 +16090,7 @@
       </c>
       <c r="L227" s="15"/>
       <c r="M227" s="15" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="N227" s="15"/>
       <c r="O227" s="23"/>
@@ -16082,10 +16115,10 @@
         <v>10116</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D228" s="13">
         <v>1</v>
@@ -16109,7 +16142,7 @@
       </c>
       <c r="L228" s="13"/>
       <c r="M228" s="13" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="N228" s="13"/>
       <c r="O228" s="22"/>
@@ -16134,10 +16167,10 @@
         <v>10117</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -16161,7 +16194,7 @@
       </c>
       <c r="L229" s="15"/>
       <c r="M229" s="15" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="N229" s="15"/>
       <c r="O229" s="23"/>
@@ -16186,10 +16219,10 @@
         <v>10118</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D230" s="13">
         <v>1</v>
@@ -16213,7 +16246,7 @@
       </c>
       <c r="L230" s="13"/>
       <c r="M230" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="N230" s="13"/>
       <c r="O230" s="22"/>
@@ -16238,10 +16271,10 @@
         <v>10201</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D231" s="15">
         <v>1</v>
@@ -16265,7 +16298,7 @@
       </c>
       <c r="L231" s="15"/>
       <c r="M231" s="15" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="N231" s="15"/>
       <c r="O231" s="23"/>
@@ -16290,10 +16323,10 @@
         <v>10202</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D232" s="13">
         <v>1</v>
@@ -16317,7 +16350,7 @@
       </c>
       <c r="L232" s="13"/>
       <c r="M232" s="13" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="N232" s="13"/>
       <c r="O232" s="22"/>
@@ -16342,10 +16375,10 @@
         <v>10203</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D233" s="15">
         <v>1</v>
@@ -16369,7 +16402,7 @@
       </c>
       <c r="L233" s="15"/>
       <c r="M233" s="15" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N233" s="15"/>
       <c r="O233" s="23"/>
@@ -16394,10 +16427,10 @@
         <v>10204</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D234" s="13">
         <v>1</v>
@@ -16421,7 +16454,7 @@
       </c>
       <c r="L234" s="13"/>
       <c r="M234" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="N234" s="13"/>
       <c r="O234" s="22"/>
@@ -16446,10 +16479,10 @@
         <v>10205</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D235" s="15">
         <v>1</v>
@@ -16473,7 +16506,7 @@
       </c>
       <c r="L235" s="15"/>
       <c r="M235" s="15" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="N235" s="15"/>
       <c r="O235" s="23"/>
@@ -16498,10 +16531,10 @@
         <v>10206</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D236" s="13">
         <v>1</v>
@@ -16525,7 +16558,7 @@
       </c>
       <c r="L236" s="13"/>
       <c r="M236" s="13" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="N236" s="13"/>
       <c r="O236" s="22"/>
@@ -16550,10 +16583,10 @@
         <v>10207</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D237" s="15">
         <v>1</v>
@@ -16577,7 +16610,7 @@
       </c>
       <c r="L237" s="15"/>
       <c r="M237" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="N237" s="15"/>
       <c r="O237" s="23"/>
@@ -16602,10 +16635,10 @@
         <v>10208</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D238" s="13">
         <v>1</v>
@@ -16629,7 +16662,7 @@
       </c>
       <c r="L238" s="13"/>
       <c r="M238" s="13" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="N238" s="13"/>
       <c r="O238" s="22"/>
@@ -16654,10 +16687,10 @@
         <v>10209</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -16681,7 +16714,7 @@
       </c>
       <c r="L239" s="15"/>
       <c r="M239" s="15" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="N239" s="15"/>
       <c r="O239" s="23"/>
@@ -16706,10 +16739,10 @@
         <v>10211</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D240" s="15">
         <v>1</v>
@@ -16733,7 +16766,7 @@
       </c>
       <c r="L240" s="15"/>
       <c r="M240" s="15" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="N240" s="15"/>
       <c r="O240" s="23"/>
@@ -16758,10 +16791,10 @@
         <v>10212</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D241" s="13">
         <v>1</v>
@@ -16785,7 +16818,7 @@
       </c>
       <c r="L241" s="13"/>
       <c r="M241" s="13" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="N241" s="13"/>
       <c r="O241" s="22"/>
@@ -16810,10 +16843,10 @@
         <v>10213</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D242" s="15">
         <v>1</v>
@@ -16837,7 +16870,7 @@
       </c>
       <c r="L242" s="15"/>
       <c r="M242" s="15" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="N242" s="15"/>
       <c r="O242" s="23"/>
@@ -16862,10 +16895,10 @@
         <v>10214</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D243" s="13">
         <v>1</v>
@@ -16889,7 +16922,7 @@
       </c>
       <c r="L243" s="13"/>
       <c r="M243" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="N243" s="13"/>
       <c r="O243" s="22"/>
@@ -16914,10 +16947,10 @@
         <v>10215</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D244" s="15">
         <v>1</v>
@@ -16941,7 +16974,7 @@
       </c>
       <c r="L244" s="15"/>
       <c r="M244" s="15" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="N244" s="15"/>
       <c r="O244" s="23"/>
@@ -16966,10 +16999,10 @@
         <v>10216</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D245" s="13">
         <v>1</v>
@@ -16993,7 +17026,7 @@
       </c>
       <c r="L245" s="13"/>
       <c r="M245" s="13" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="N245" s="13"/>
       <c r="O245" s="22"/>
@@ -17018,10 +17051,10 @@
         <v>10217</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D246" s="15">
         <v>1</v>
@@ -17045,7 +17078,7 @@
       </c>
       <c r="L246" s="15"/>
       <c r="M246" s="15" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="N246" s="15"/>
       <c r="O246" s="23"/>
@@ -17070,10 +17103,10 @@
         <v>10218</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D247" s="13">
         <v>1</v>
@@ -17097,7 +17130,7 @@
       </c>
       <c r="L247" s="13"/>
       <c r="M247" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="N247" s="13"/>
       <c r="O247" s="22"/>
@@ -17122,10 +17155,10 @@
         <v>10301</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D248" s="15">
         <v>1</v>
@@ -17149,7 +17182,7 @@
       </c>
       <c r="L248" s="15"/>
       <c r="M248" s="15" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="N248" s="15"/>
       <c r="O248" s="23"/>
@@ -17174,10 +17207,10 @@
         <v>10302</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D249" s="13">
         <v>1</v>
@@ -17201,7 +17234,7 @@
       </c>
       <c r="L249" s="13"/>
       <c r="M249" s="13" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="N249" s="13"/>
       <c r="O249" s="22"/>
@@ -17226,10 +17259,10 @@
         <v>10303</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D250" s="15">
         <v>1</v>
@@ -17253,7 +17286,7 @@
       </c>
       <c r="L250" s="15"/>
       <c r="M250" s="15" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N250" s="15"/>
       <c r="O250" s="23"/>
@@ -17278,10 +17311,10 @@
         <v>10304</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D251" s="13">
         <v>1</v>
@@ -17305,7 +17338,7 @@
       </c>
       <c r="L251" s="13"/>
       <c r="M251" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="N251" s="13"/>
       <c r="O251" s="22"/>
@@ -17330,10 +17363,10 @@
         <v>10305</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D252" s="15">
         <v>1</v>
@@ -17357,7 +17390,7 @@
       </c>
       <c r="L252" s="15"/>
       <c r="M252" s="15" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="N252" s="15"/>
       <c r="O252" s="23"/>
@@ -17382,10 +17415,10 @@
         <v>10306</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D253" s="13">
         <v>1</v>
@@ -17409,7 +17442,7 @@
       </c>
       <c r="L253" s="13"/>
       <c r="M253" s="13" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="N253" s="13"/>
       <c r="O253" s="22"/>
@@ -17434,10 +17467,10 @@
         <v>10307</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D254" s="15">
         <v>1</v>
@@ -17461,7 +17494,7 @@
       </c>
       <c r="L254" s="15"/>
       <c r="M254" s="15" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="N254" s="15"/>
       <c r="O254" s="23"/>
@@ -17486,10 +17519,10 @@
         <v>10308</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D255" s="13">
         <v>1</v>
@@ -17513,7 +17546,7 @@
       </c>
       <c r="L255" s="13"/>
       <c r="M255" s="13" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="N255" s="13"/>
       <c r="O255" s="22"/>
@@ -17538,10 +17571,10 @@
         <v>10309</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D256" s="15">
         <v>1</v>
@@ -17565,7 +17598,7 @@
       </c>
       <c r="L256" s="15"/>
       <c r="M256" s="15" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="N256" s="15"/>
       <c r="O256" s="23"/>
@@ -17590,10 +17623,10 @@
         <v>10311</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -17617,7 +17650,7 @@
       </c>
       <c r="L257" s="15"/>
       <c r="M257" s="15" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="N257" s="15"/>
       <c r="O257" s="23"/>
@@ -17642,10 +17675,10 @@
         <v>10312</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D258" s="13">
         <v>1</v>
@@ -17669,7 +17702,7 @@
       </c>
       <c r="L258" s="13"/>
       <c r="M258" s="13" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="N258" s="13"/>
       <c r="O258" s="22"/>
@@ -17694,10 +17727,10 @@
         <v>10313</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -17721,7 +17754,7 @@
       </c>
       <c r="L259" s="15"/>
       <c r="M259" s="15" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="N259" s="15"/>
       <c r="O259" s="23"/>
@@ -17746,10 +17779,10 @@
         <v>10314</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D260" s="13">
         <v>1</v>
@@ -17773,7 +17806,7 @@
       </c>
       <c r="L260" s="13"/>
       <c r="M260" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="N260" s="13"/>
       <c r="O260" s="22"/>
@@ -17798,10 +17831,10 @@
         <v>10315</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -17825,7 +17858,7 @@
       </c>
       <c r="L261" s="15"/>
       <c r="M261" s="15" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="N261" s="15"/>
       <c r="O261" s="23"/>
@@ -17850,10 +17883,10 @@
         <v>10316</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D262" s="13">
         <v>1</v>
@@ -17877,7 +17910,7 @@
       </c>
       <c r="L262" s="13"/>
       <c r="M262" s="13" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="N262" s="13"/>
       <c r="O262" s="22"/>
@@ -17902,10 +17935,10 @@
         <v>10317</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -17929,7 +17962,7 @@
       </c>
       <c r="L263" s="15"/>
       <c r="M263" s="15" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="N263" s="15"/>
       <c r="O263" s="23"/>
@@ -17954,10 +17987,10 @@
         <v>10318</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D264" s="13">
         <v>1</v>
@@ -17981,7 +18014,7 @@
       </c>
       <c r="L264" s="13"/>
       <c r="M264" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="N264" s="13"/>
       <c r="O264" s="22"/>
@@ -18006,10 +18039,10 @@
         <v>20000</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -18033,7 +18066,7 @@
       </c>
       <c r="L265" s="15"/>
       <c r="M265" s="15" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="N265" s="15"/>
       <c r="O265" s="23"/>
@@ -18058,10 +18091,10 @@
         <v>20001</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D266" s="13">
         <v>1</v>
@@ -18085,7 +18118,7 @@
       </c>
       <c r="L266" s="13"/>
       <c r="M266" s="13" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="N266" s="13"/>
       <c r="O266" s="22"/>
@@ -18110,10 +18143,10 @@
         <v>20002</v>
       </c>
       <c r="B267" s="28" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D267" s="28">
         <v>1</v>
@@ -18131,7 +18164,7 @@
         <v>1</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J267" s="28"/>
       <c r="K267" s="13">
@@ -18164,10 +18197,10 @@
         <v>20003</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D268" s="13">
         <v>1</v>
@@ -18185,7 +18218,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J268" s="13"/>
       <c r="K268" s="13">
@@ -18193,7 +18226,7 @@
       </c>
       <c r="L268" s="13"/>
       <c r="M268" s="13" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="N268" s="13"/>
       <c r="O268" s="22"/>
@@ -18218,10 +18251,10 @@
         <v>20004</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D269" s="15">
         <v>1</v>
@@ -18239,7 +18272,7 @@
         <v>1</v>
       </c>
       <c r="I269" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J269" s="15"/>
       <c r="K269" s="13">
@@ -18247,7 +18280,7 @@
       </c>
       <c r="L269" s="15"/>
       <c r="M269" s="15" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="N269" s="15"/>
       <c r="O269" s="23"/>
@@ -18272,10 +18305,10 @@
         <v>20005</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D270" s="13">
         <v>1</v>
@@ -18293,7 +18326,7 @@
         <v>1</v>
       </c>
       <c r="I270" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J270" s="13"/>
       <c r="K270" s="13">
@@ -18301,7 +18334,7 @@
       </c>
       <c r="L270" s="13"/>
       <c r="M270" s="13" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="N270" s="13"/>
       <c r="O270" s="22"/>
@@ -18326,10 +18359,10 @@
         <v>20006</v>
       </c>
       <c r="B271" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="C271" s="30" t="s">
         <v>437</v>
-      </c>
-      <c r="C271" s="30" t="s">
-        <v>426</v>
       </c>
       <c r="D271" s="30">
         <v>1</v>
@@ -18347,7 +18380,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="30" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J271" s="30"/>
       <c r="K271" s="13">
@@ -18380,10 +18413,10 @@
         <v>20007</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="D272" s="13">
         <v>1</v>
@@ -18401,7 +18434,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J272" s="13"/>
       <c r="K272" s="13">
@@ -18409,7 +18442,7 @@
       </c>
       <c r="L272" s="13"/>
       <c r="M272" s="13" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="N272" s="13"/>
       <c r="O272" s="22"/>
@@ -18434,10 +18467,10 @@
         <v>20008</v>
       </c>
       <c r="B273" s="30" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C273" s="30" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D273" s="30">
         <v>1</v>
@@ -18455,7 +18488,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="30" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J273" s="30"/>
       <c r="K273" s="13">
@@ -18488,10 +18521,10 @@
         <v>20009</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="D274" s="13">
         <v>1</v>
@@ -18509,7 +18542,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J274" s="13"/>
       <c r="K274" s="13">
@@ -18517,7 +18550,7 @@
       </c>
       <c r="L274" s="13"/>
       <c r="M274" s="13" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="N274" s="13"/>
       <c r="O274" s="22"/>
@@ -18542,10 +18575,10 @@
         <v>20010</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D275" s="15">
         <v>1</v>
@@ -18563,7 +18596,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J275" s="15"/>
       <c r="K275" s="13">
@@ -18571,7 +18604,7 @@
       </c>
       <c r="L275" s="15"/>
       <c r="M275" s="15" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="N275" s="15"/>
       <c r="O275" s="23"/>
@@ -18596,10 +18629,10 @@
         <v>20011</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D276" s="15">
         <v>1</v>
@@ -18617,7 +18650,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J276" s="13"/>
       <c r="K276" s="13">
@@ -18625,7 +18658,7 @@
       </c>
       <c r="L276" s="13"/>
       <c r="M276" s="15" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="N276" s="13"/>
       <c r="O276" s="22"/>
@@ -18650,10 +18683,10 @@
         <v>20012</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D277" s="13">
         <v>1</v>
@@ -18671,7 +18704,7 @@
         <v>1</v>
       </c>
       <c r="I277" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J277" s="13"/>
       <c r="K277" s="13">
@@ -18679,7 +18712,7 @@
       </c>
       <c r="L277" s="13"/>
       <c r="M277" s="15" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="N277" s="13"/>
       <c r="O277" s="23"/>
@@ -18704,10 +18737,10 @@
         <v>20013</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D278" s="15">
         <v>1</v>
@@ -18725,7 +18758,7 @@
         <v>1</v>
       </c>
       <c r="I278" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J278" s="13"/>
       <c r="K278" s="13">
@@ -18733,7 +18766,7 @@
       </c>
       <c r="L278" s="13"/>
       <c r="M278" s="15" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="N278" s="13"/>
       <c r="O278" s="22"/>
@@ -18758,10 +18791,10 @@
         <v>20014</v>
       </c>
       <c r="B279" s="32" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C279" s="30" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D279" s="30">
         <v>1</v>
@@ -18779,7 +18812,7 @@
         <v>1</v>
       </c>
       <c r="I279" s="30" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J279" s="32"/>
       <c r="K279" s="13">
@@ -18812,10 +18845,10 @@
         <v>20015</v>
       </c>
       <c r="B280" s="32" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D280" s="32">
         <v>1</v>
@@ -18833,7 +18866,7 @@
         <v>1</v>
       </c>
       <c r="I280" s="30" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J280" s="32"/>
       <c r="K280" s="13">
@@ -18866,10 +18899,10 @@
         <v>20016</v>
       </c>
       <c r="B281" s="32" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C281" s="30" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D281" s="30">
         <v>1</v>
@@ -18887,7 +18920,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="30" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J281" s="32"/>
       <c r="K281" s="13">
@@ -18920,10 +18953,10 @@
         <v>20017</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D282" s="15">
         <v>1</v>
@@ -18941,7 +18974,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J282" s="13"/>
       <c r="K282" s="13">
@@ -18949,7 +18982,7 @@
       </c>
       <c r="L282" s="13"/>
       <c r="M282" s="15" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="N282" s="13"/>
       <c r="O282" s="22"/>
@@ -18974,10 +19007,10 @@
         <v>20018</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D283" s="13">
         <v>1</v>
@@ -18995,7 +19028,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J283" s="13"/>
       <c r="K283" s="13">
@@ -19003,7 +19036,7 @@
       </c>
       <c r="L283" s="13"/>
       <c r="M283" s="15" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="N283" s="13"/>
       <c r="O283" s="23"/>
@@ -19028,10 +19061,10 @@
         <v>20019</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="D284" s="15">
         <v>1</v>
@@ -19049,7 +19082,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J284" s="13"/>
       <c r="K284" s="13">
@@ -19057,7 +19090,7 @@
       </c>
       <c r="L284" s="13"/>
       <c r="M284" s="15" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="N284" s="13"/>
       <c r="O284" s="22"/>
@@ -19082,10 +19115,10 @@
         <v>20020</v>
       </c>
       <c r="B285" s="34" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C285" s="35" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="D285" s="13">
         <v>1</v>
@@ -19103,7 +19136,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J285" s="13"/>
       <c r="K285" s="13">
@@ -19111,7 +19144,7 @@
       </c>
       <c r="L285" s="13"/>
       <c r="M285" s="15" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="N285" s="13"/>
       <c r="O285" s="23"/>
@@ -19136,10 +19169,10 @@
         <v>20021</v>
       </c>
       <c r="B286" s="34" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C286" s="35" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D286" s="15">
         <v>1</v>
@@ -19157,7 +19190,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J286" s="13"/>
       <c r="K286" s="13">
@@ -19165,7 +19198,7 @@
       </c>
       <c r="L286" s="13"/>
       <c r="M286" s="15" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="N286" s="13"/>
       <c r="O286" s="22"/>
@@ -19190,10 +19223,10 @@
         <v>20022</v>
       </c>
       <c r="B287" s="34" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C287" s="35" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="D287" s="15">
         <v>1</v>
@@ -19211,7 +19244,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J287" s="13"/>
       <c r="K287" s="13">
@@ -19219,7 +19252,7 @@
       </c>
       <c r="L287" s="13"/>
       <c r="M287" s="15" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="N287" s="13"/>
       <c r="O287" s="23"/>
@@ -19244,10 +19277,10 @@
         <v>20023</v>
       </c>
       <c r="B288" s="34" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="C288" s="35" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D288" s="13">
         <v>1</v>
@@ -19265,7 +19298,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J288" s="13"/>
       <c r="K288" s="13">
@@ -19273,7 +19306,7 @@
       </c>
       <c r="L288" s="13"/>
       <c r="M288" s="15" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="N288" s="13"/>
       <c r="O288" s="22"/>
@@ -19298,10 +19331,10 @@
         <v>20024</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C289" s="35" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D289" s="15">
         <v>1</v>
@@ -19319,7 +19352,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J289" s="13"/>
       <c r="K289" s="13">
@@ -19327,7 +19360,7 @@
       </c>
       <c r="L289" s="13"/>
       <c r="M289" s="15" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="N289" s="13"/>
       <c r="AC289" s="20">
@@ -19339,10 +19372,10 @@
         <v>20025</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="C290" s="35" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D290" s="15">
         <v>1</v>
@@ -19360,7 +19393,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J290" s="13"/>
       <c r="K290" s="13">
@@ -19368,7 +19401,7 @@
       </c>
       <c r="L290" s="13"/>
       <c r="M290" s="15" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="N290" s="13"/>
       <c r="AC290" s="20">
@@ -19380,10 +19413,10 @@
         <v>20026</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="C291" s="35" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="D291" s="13">
         <v>1</v>
@@ -19401,7 +19434,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J291" s="13"/>
       <c r="K291" s="13">
@@ -19409,7 +19442,7 @@
       </c>
       <c r="L291" s="13"/>
       <c r="M291" s="15" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="N291" s="13"/>
       <c r="AC291" s="20">
@@ -19421,10 +19454,10 @@
         <v>20027</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="C292" s="35" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="D292" s="15">
         <v>1</v>
@@ -19442,7 +19475,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J292" s="13"/>
       <c r="K292" s="13">
@@ -19450,7 +19483,7 @@
       </c>
       <c r="L292" s="13"/>
       <c r="M292" s="15" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="N292" s="13"/>
       <c r="AC292" s="20">
@@ -19462,10 +19495,10 @@
         <v>20028</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="C293" s="35" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="D293" s="15">
         <v>1</v>
@@ -19483,7 +19516,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J293" s="13"/>
       <c r="K293" s="13">
@@ -19491,7 +19524,7 @@
       </c>
       <c r="L293" s="13"/>
       <c r="M293" s="15" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="N293" s="13"/>
       <c r="AC293" s="20">
@@ -19503,10 +19536,10 @@
         <v>20029</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C294" s="13" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D294" s="15">
         <v>1</v>
@@ -19524,7 +19557,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J294" s="13"/>
       <c r="K294" s="13">
@@ -19544,10 +19577,10 @@
         <v>20101</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C295" s="13" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="D295" s="13">
         <v>1</v>
@@ -19565,7 +19598,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J295" s="13"/>
       <c r="K295" s="13">
@@ -19585,10 +19618,10 @@
         <v>20102</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="D296" s="15">
         <v>1</v>
@@ -19606,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J296" s="15"/>
       <c r="K296" s="13">
@@ -19626,10 +19659,10 @@
         <v>20103</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D297" s="13">
         <v>1</v>
@@ -19647,7 +19680,7 @@
         <v>1</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J297" s="13"/>
       <c r="K297" s="13">
@@ -19667,10 +19700,10 @@
         <v>20104</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D298" s="15">
         <v>1</v>
@@ -19688,7 +19721,7 @@
         <v>1</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J298" s="15"/>
       <c r="K298" s="13">
@@ -19708,10 +19741,10 @@
         <v>20105</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="D299" s="13">
         <v>1</v>
@@ -19729,7 +19762,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J299" s="13"/>
       <c r="K299" s="13">
@@ -19749,10 +19782,10 @@
         <v>20106</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="D300" s="15">
         <v>1</v>
@@ -19770,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J300" s="15"/>
       <c r="K300" s="13">
@@ -19790,10 +19823,10 @@
         <v>20107</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="D301" s="13">
         <v>1</v>
@@ -19811,7 +19844,7 @@
         <v>1</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J301" s="13"/>
       <c r="K301" s="13">
@@ -19831,10 +19864,10 @@
         <v>20108</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="D302" s="15">
         <v>1</v>
@@ -19852,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="I302" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J302" s="15"/>
       <c r="K302" s="13">
@@ -19872,10 +19905,10 @@
         <v>20109</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D303" s="13">
         <v>1</v>
@@ -19893,7 +19926,7 @@
         <v>1</v>
       </c>
       <c r="I303" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J303" s="13"/>
       <c r="K303" s="13">
@@ -19913,10 +19946,10 @@
         <v>20110</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="D304" s="15">
         <v>1</v>
@@ -19934,7 +19967,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J304" s="15"/>
       <c r="K304" s="13">
@@ -19954,10 +19987,10 @@
         <v>20111</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D305" s="13">
         <v>1</v>
@@ -19975,7 +20008,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="J305" s="13"/>
       <c r="K305" s="13">
@@ -19995,10 +20028,10 @@
         <v>20201</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C306" s="15" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D306" s="15">
         <v>1</v>
@@ -20034,10 +20067,10 @@
         <v>20202</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D307" s="13">
         <v>1</v>
@@ -20061,7 +20094,7 @@
       </c>
       <c r="L307" s="13"/>
       <c r="M307" s="13" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="N307" s="13"/>
       <c r="AC307" s="20">
@@ -20073,10 +20106,10 @@
         <v>20203</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D308" s="15">
         <v>1</v>
@@ -20112,10 +20145,10 @@
         <v>20204</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="D309" s="13">
         <v>1</v>
@@ -20139,7 +20172,7 @@
       </c>
       <c r="L309" s="13"/>
       <c r="M309" s="13" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="N309" s="13"/>
       <c r="AC309" s="20">
@@ -20151,10 +20184,10 @@
         <v>20205</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D310" s="15">
         <v>1</v>
@@ -20190,10 +20223,10 @@
         <v>20206</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D311" s="13">
         <v>1</v>
@@ -20217,7 +20250,7 @@
       </c>
       <c r="L311" s="13"/>
       <c r="M311" s="13" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="N311" s="13"/>
       <c r="AC311" s="20">
@@ -20229,10 +20262,10 @@
         <v>20207</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D312" s="15">
         <v>1</v>
@@ -20268,10 +20301,10 @@
         <v>20208</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="D313" s="13">
         <v>1</v>
@@ -20295,7 +20328,7 @@
       </c>
       <c r="L313" s="13"/>
       <c r="M313" s="13" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="N313" s="13"/>
       <c r="AC313" s="20">
@@ -20307,10 +20340,10 @@
         <v>20209</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D314" s="15">
         <v>1</v>
@@ -20346,10 +20379,10 @@
         <v>20210</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="D315" s="13">
         <v>1</v>
@@ -20373,7 +20406,7 @@
       </c>
       <c r="L315" s="13"/>
       <c r="M315" s="13" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="N315" s="13"/>
       <c r="AC315" s="20">
@@ -20385,10 +20418,10 @@
         <v>21001</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D316" s="15">
         <v>1</v>
@@ -20406,7 +20439,7 @@
         <v>1</v>
       </c>
       <c r="I316" s="15" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="J316" s="15"/>
       <c r="K316" s="13">
@@ -20414,7 +20447,7 @@
       </c>
       <c r="L316" s="15"/>
       <c r="M316" s="13" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="N316" s="15"/>
       <c r="AC316" s="20">
@@ -20426,10 +20459,10 @@
         <v>21002</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="D317" s="13">
         <v>1</v>
@@ -20447,7 +20480,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="13" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="J317" s="13"/>
       <c r="K317" s="13">
@@ -20455,7 +20488,7 @@
       </c>
       <c r="L317" s="13"/>
       <c r="M317" s="13" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="N317" s="13"/>
       <c r="AC317" s="20">
@@ -20467,10 +20500,10 @@
         <v>21003</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="D318" s="15">
         <v>1</v>
@@ -20488,7 +20521,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="J318" s="15"/>
       <c r="K318" s="13">
@@ -20496,7 +20529,7 @@
       </c>
       <c r="L318" s="15"/>
       <c r="M318" s="13" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="N318" s="15"/>
       <c r="AC318" s="20">
@@ -20508,10 +20541,10 @@
         <v>21004</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="D319" s="13">
         <v>1</v>
@@ -20529,7 +20562,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="13" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="J319" s="13"/>
       <c r="K319" s="13">
@@ -20537,7 +20570,7 @@
       </c>
       <c r="L319" s="13"/>
       <c r="M319" s="13" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="N319" s="13"/>
       <c r="AC319" s="20">
@@ -20549,10 +20582,10 @@
         <v>21005</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="D320" s="15">
         <v>1</v>
@@ -20570,7 +20603,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="J320" s="15"/>
       <c r="K320" s="13">
@@ -20578,7 +20611,7 @@
       </c>
       <c r="L320" s="15"/>
       <c r="M320" s="13" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="N320" s="15"/>
       <c r="AC320" s="20">
@@ -20590,10 +20623,10 @@
         <v>21006</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D321" s="13">
         <v>1</v>
@@ -20611,7 +20644,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="13" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="J321" s="13"/>
       <c r="K321" s="13">
@@ -20619,7 +20652,7 @@
       </c>
       <c r="L321" s="13"/>
       <c r="M321" s="13" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="N321" s="13"/>
       <c r="AC321" s="20">
@@ -20631,10 +20664,10 @@
         <v>21007</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="D322" s="15">
         <v>1</v>
@@ -20652,7 +20685,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="J322" s="15"/>
       <c r="K322" s="13">
@@ -20660,7 +20693,7 @@
       </c>
       <c r="L322" s="15"/>
       <c r="M322" s="13" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="N322" s="15"/>
       <c r="AC322" s="20">
@@ -20672,10 +20705,10 @@
         <v>21101</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D323" s="13">
         <v>1</v>
@@ -20693,7 +20726,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J323" s="13"/>
       <c r="K323" s="13">
@@ -20701,7 +20734,7 @@
       </c>
       <c r="L323" s="13"/>
       <c r="M323" s="13" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="N323" s="13"/>
       <c r="AC323" s="20">
@@ -20713,10 +20746,10 @@
         <v>21102</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="D324" s="15">
         <v>1</v>
@@ -20734,7 +20767,7 @@
         <v>1</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J324" s="15"/>
       <c r="K324" s="13">
@@ -20742,7 +20775,7 @@
       </c>
       <c r="L324" s="15"/>
       <c r="M324" s="13" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="N324" s="15"/>
       <c r="AC324" s="20">
@@ -20754,10 +20787,10 @@
         <v>21103</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="D325" s="13">
         <v>1</v>
@@ -20775,7 +20808,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J325" s="13"/>
       <c r="K325" s="13">
@@ -20783,7 +20816,7 @@
       </c>
       <c r="L325" s="13"/>
       <c r="M325" s="13" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="N325" s="13"/>
       <c r="AC325" s="20">
@@ -20795,10 +20828,10 @@
         <v>21104</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="D326" s="15">
         <v>1</v>
@@ -20816,7 +20849,7 @@
         <v>1</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J326" s="15"/>
       <c r="K326" s="13">
@@ -20824,7 +20857,7 @@
       </c>
       <c r="L326" s="15"/>
       <c r="M326" s="13" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="N326" s="15"/>
       <c r="AC326" s="20">
@@ -20836,10 +20869,10 @@
         <v>21105</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="D327" s="13">
         <v>1</v>
@@ -20857,7 +20890,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J327" s="13"/>
       <c r="K327" s="13">
@@ -20865,7 +20898,7 @@
       </c>
       <c r="L327" s="13"/>
       <c r="M327" s="13" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="N327" s="13"/>
       <c r="AC327" s="20">
@@ -20877,10 +20910,10 @@
         <v>21106</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D328" s="15">
         <v>1</v>
@@ -20898,7 +20931,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J328" s="15"/>
       <c r="K328" s="13">
@@ -20906,7 +20939,7 @@
       </c>
       <c r="L328" s="15"/>
       <c r="M328" s="13" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="N328" s="15"/>
       <c r="AC328" s="20">
@@ -20918,10 +20951,10 @@
         <v>21107</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="D329" s="13">
         <v>1</v>
@@ -20939,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J329" s="13"/>
       <c r="K329" s="13">
@@ -20947,7 +20980,7 @@
       </c>
       <c r="L329" s="13"/>
       <c r="M329" s="13" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="N329" s="13"/>
       <c r="AC329" s="20">
@@ -20959,10 +20992,10 @@
         <v>21108</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="D330" s="15">
         <v>1</v>
@@ -20980,7 +21013,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J330" s="15"/>
       <c r="K330" s="13">
@@ -20988,7 +21021,7 @@
       </c>
       <c r="L330" s="15"/>
       <c r="M330" s="13" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="N330" s="15"/>
       <c r="AC330" s="20">
@@ -21000,10 +21033,10 @@
         <v>21109</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="D331" s="13">
         <v>1</v>
@@ -21021,7 +21054,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="13" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J331" s="13"/>
       <c r="K331" s="13">
@@ -21029,7 +21062,7 @@
       </c>
       <c r="L331" s="13"/>
       <c r="M331" s="13" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="N331" s="13"/>
       <c r="AC331" s="20">
@@ -21041,10 +21074,10 @@
         <v>21110</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="D332" s="15">
         <v>1</v>
@@ -21062,7 +21095,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J332" s="15"/>
       <c r="K332" s="13">
@@ -21070,7 +21103,7 @@
       </c>
       <c r="L332" s="15"/>
       <c r="M332" s="13" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="N332" s="15"/>
       <c r="AC332" s="20">
@@ -21082,10 +21115,10 @@
         <v>21111</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="D333" s="13">
         <v>1</v>
@@ -21103,7 +21136,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="13" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J333" s="13"/>
       <c r="K333" s="13">
@@ -21111,7 +21144,7 @@
       </c>
       <c r="L333" s="13"/>
       <c r="M333" s="13" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="N333" s="13"/>
       <c r="AC333" s="20">
@@ -21123,10 +21156,10 @@
         <v>21112</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D334" s="15">
         <v>1</v>
@@ -21144,7 +21177,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J334" s="15"/>
       <c r="K334" s="13">
@@ -21152,7 +21185,7 @@
       </c>
       <c r="L334" s="15"/>
       <c r="M334" s="13" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="N334" s="15"/>
       <c r="AC334" s="20">
@@ -21164,10 +21197,10 @@
         <v>100001</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="D335" s="13">
         <v>1</v>
@@ -21203,7 +21236,7 @@
         <v>100002</v>
       </c>
       <c r="B336" s="36" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="C336" s="36"/>
       <c r="D336" s="36">
@@ -21222,7 +21255,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="36" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="J336" s="36"/>
       <c r="K336" s="13">
@@ -21230,7 +21263,7 @@
       </c>
       <c r="L336" s="36"/>
       <c r="M336" s="36" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="N336" s="36"/>
       <c r="AC336" s="20">
@@ -21242,7 +21275,7 @@
         <v>100003</v>
       </c>
       <c r="B337" s="36" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C337" s="36"/>
       <c r="D337" s="36">
@@ -21261,7 +21294,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="36" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="J337" s="36"/>
       <c r="K337" s="13">
@@ -21269,7 +21302,7 @@
       </c>
       <c r="L337" s="36"/>
       <c r="M337" s="36" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="N337" s="36"/>
       <c r="AC337" s="20">
